--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54623</v>
+        <v>54611</v>
       </c>
       <c r="F2" t="n">
-        <v>10.6196028609271</v>
+        <v>10.61919519991387</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2819143718182272</v>
+        <v>0.2819035498035095</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1054.83</v>
+        <v>1054.89</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91294</v>
+        <v>91237</v>
       </c>
       <c r="F3" t="n">
-        <v>22.50037717546491</v>
+        <v>22.49951344009953</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1958751140362</v>
+        <v>416.1798983553599</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1873.37</v>
+        <v>1851.85</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>601084655</v>
+        <v>602684776</v>
       </c>
       <c r="E4" t="n">
-        <v>1166373331</v>
+        <v>1169483857</v>
       </c>
       <c r="F4" t="n">
-        <v>45996.32029765905</v>
+        <v>43722.66925499766</v>
       </c>
       <c r="G4" t="n">
-        <v>42050.442762113</v>
+        <v>47222.23561223888</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>22980743</v>
+        <v>22415296</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1305657</v>
+        <v>1305851</v>
       </c>
       <c r="E5" t="n">
-        <v>4220419</v>
+        <v>4221045</v>
       </c>
       <c r="F5" t="n">
-        <v>5325.956388215601</v>
+        <v>6136.926860577636</v>
       </c>
       <c r="G5" t="n">
-        <v>6448.147001963732</v>
+        <v>5355.193821218921</v>
       </c>
       <c r="H5" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I5" t="n">
-        <v>107361</v>
+        <v>109024</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>141503901</v>
+        <v>142789924</v>
       </c>
       <c r="E6" t="n">
-        <v>156808437</v>
+        <v>158233551</v>
       </c>
       <c r="F6" t="n">
-        <v>234539.6350320119</v>
+        <v>236710.7720227982</v>
       </c>
       <c r="G6" t="n">
-        <v>283747.7160665548</v>
+        <v>274131.0367763347</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>35141537</v>
+        <v>35912485</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.43</v>
+        <v>4204.45</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>257.34</v>
+        <v>257.39</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8461272</v>
+        <v>8354996</v>
       </c>
       <c r="E8" t="n">
-        <v>8674634</v>
+        <v>8565678</v>
       </c>
       <c r="F8" t="n">
-        <v>186.0974651589067</v>
+        <v>245.163566353774</v>
       </c>
       <c r="G8" t="n">
-        <v>2000.009516258822</v>
+        <v>3857.656542797287</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="I8" t="n">
-        <v>91864</v>
+        <v>90744</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>306633</v>
+        <v>306642</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.35</v>
       </c>
       <c r="I9" t="n">
-        <v>427.46</v>
+        <v>427.5</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5096941</v>
+        <v>5107684</v>
       </c>
       <c r="E10" t="n">
-        <v>8143379</v>
+        <v>8160545</v>
       </c>
       <c r="F10" t="n">
-        <v>224.4767549586666</v>
+        <v>214.7264869255045</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1547477385419</v>
+        <v>303.8232883112001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>101701</v>
+        <v>101399</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002689</v>
+        <v>1003593</v>
       </c>
       <c r="E11" t="n">
-        <v>12270204</v>
+        <v>12281274</v>
       </c>
       <c r="F11" t="n">
-        <v>1580.560934027521</v>
+        <v>1576.140390402935</v>
       </c>
       <c r="G11" t="n">
-        <v>1361.165051068066</v>
+        <v>1351.078110747168</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>1129.81</v>
+        <v>1139.64</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>588414</v>
+        <v>587464</v>
       </c>
       <c r="E12" t="n">
-        <v>588414</v>
+        <v>587464</v>
       </c>
       <c r="F12" t="n">
-        <v>124.3554494486104</v>
+        <v>30.75873723482477</v>
       </c>
       <c r="G12" t="n">
-        <v>314.8986400364279</v>
+        <v>515.8927840147273</v>
       </c>
       <c r="H12" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="I12" t="n">
-        <v>28356</v>
+        <v>28893</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4500166</v>
+        <v>4521486</v>
       </c>
       <c r="E13" t="n">
-        <v>27641306</v>
+        <v>27772260</v>
       </c>
       <c r="F13" t="n">
-        <v>798.481720177573</v>
+        <v>680.938196483037</v>
       </c>
       <c r="G13" t="n">
-        <v>846.6372278146471</v>
+        <v>1070.860943785385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="I13" t="n">
-        <v>605036</v>
+        <v>621830</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197799</v>
+        <v>197918</v>
       </c>
       <c r="E14" t="n">
-        <v>2176010</v>
+        <v>2177318</v>
       </c>
       <c r="F14" t="n">
-        <v>312.4075899845605</v>
+        <v>312.3955974085349</v>
       </c>
       <c r="G14" t="n">
-        <v>842.4885666168813</v>
+        <v>842.4562255070306</v>
       </c>
       <c r="H14" t="n">
         <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>27450</v>
+        <v>27425</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3349886</v>
+        <v>3343835</v>
       </c>
       <c r="E15" t="n">
-        <v>9530129</v>
+        <v>9512915</v>
       </c>
       <c r="F15" t="n">
-        <v>933.9711769908201</v>
+        <v>897.7426594013596</v>
       </c>
       <c r="G15" t="n">
-        <v>303.6430315011144</v>
+        <v>288.3211786827503</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="I15" t="n">
-        <v>127166</v>
+        <v>124816</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>325033</v>
+        <v>325553</v>
       </c>
       <c r="E16" t="n">
-        <v>3751263</v>
+        <v>3757269</v>
       </c>
       <c r="F16" t="n">
-        <v>144.4905017000564</v>
+        <v>143.7708214018798</v>
       </c>
       <c r="G16" t="n">
-        <v>131.2754361958795</v>
+        <v>132.4593697023819</v>
       </c>
       <c r="H16" t="n">
         <v>0.38</v>
       </c>
       <c r="I16" t="n">
-        <v>2810.83</v>
+        <v>2815.78</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>941171</v>
+        <v>938996</v>
       </c>
       <c r="F17" t="n">
-        <v>71.72132575458065</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.37503899487091</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.09</v>
+        <v>4.62</v>
       </c>
       <c r="I17" t="n">
-        <v>11274.35</v>
+        <v>10659.22</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23300431</v>
+        <v>23321517</v>
       </c>
       <c r="E18" t="n">
-        <v>23343895</v>
+        <v>23365020</v>
       </c>
       <c r="F18" t="n">
-        <v>1426.281225343615</v>
+        <v>1389.418966515231</v>
       </c>
       <c r="G18" t="n">
-        <v>2282.135390930151</v>
+        <v>2635.188404349092</v>
       </c>
       <c r="H18" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I18" t="n">
-        <v>867640</v>
+        <v>861812</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6886117</v>
+        <v>7097680</v>
       </c>
       <c r="F19" t="n">
-        <v>47.47614729568165</v>
+        <v>47.50960388811021</v>
       </c>
       <c r="G19" t="n">
-        <v>693.9120559099116</v>
+        <v>702.3968796382119</v>
       </c>
       <c r="H19" t="n">
         <v>1.79</v>
       </c>
       <c r="I19" t="n">
-        <v>21535</v>
+        <v>18391.79</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2439105</v>
+        <v>2438824</v>
       </c>
       <c r="E20" t="n">
-        <v>2439105</v>
+        <v>2438824</v>
       </c>
       <c r="F20" t="n">
-        <v>367.3501911590642</v>
+        <v>334.3138155587693</v>
       </c>
       <c r="G20" t="n">
-        <v>54.34042693278773</v>
+        <v>54.33610713396417</v>
       </c>
       <c r="H20" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="I20" t="n">
-        <v>328329</v>
+        <v>323401</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>414178</v>
+        <v>414086</v>
       </c>
       <c r="F21" t="n">
-        <v>182.548025386243</v>
+        <v>95.29413957368456</v>
       </c>
       <c r="G21" t="n">
-        <v>90.38123338750817</v>
+        <v>107.2401718167636</v>
       </c>
       <c r="H21" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1568.88</v>
+        <v>1569.16</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17691572</v>
+        <v>17763565</v>
       </c>
       <c r="E22" t="n">
-        <v>22770505</v>
+        <v>22863167</v>
       </c>
       <c r="F22" t="n">
-        <v>1882.871517401807</v>
+        <v>4500.814867192001</v>
       </c>
       <c r="G22" t="n">
-        <v>1361.012086241441</v>
+        <v>4144.974967137593</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="I22" t="n">
-        <v>1860090</v>
+        <v>1787675</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>471347430</v>
+        <v>475083512</v>
       </c>
       <c r="E23" t="n">
-        <v>471347432</v>
+        <v>475083512</v>
       </c>
       <c r="F23" t="n">
-        <v>56035.17592611253</v>
+        <v>48140.97788818309</v>
       </c>
       <c r="G23" t="n">
-        <v>60324.26927363688</v>
+        <v>74755.04484538709</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>71143513</v>
+        <v>71417255</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22843</v>
+        <v>22836</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3014.51</v>
+        <v>3015.04</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4664187</v>
+        <v>4683833</v>
       </c>
       <c r="E25" t="n">
-        <v>4664187</v>
+        <v>4683833</v>
       </c>
       <c r="F25" t="n">
-        <v>997.703628942731</v>
+        <v>391.1610120667857</v>
       </c>
       <c r="G25" t="n">
-        <v>992.9157271578894</v>
+        <v>1511.166338321807</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="I25" t="n">
-        <v>2016230</v>
+        <v>2026579</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3387180</v>
+        <v>3374442</v>
       </c>
       <c r="E26" t="n">
-        <v>3387180</v>
+        <v>3374442</v>
       </c>
       <c r="F26" t="n">
-        <v>66.68467512422923</v>
+        <v>345.4867754388917</v>
       </c>
       <c r="G26" t="n">
-        <v>1050.232415015827</v>
+        <v>176.0293540646795</v>
       </c>
       <c r="H26" t="n">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="I26" t="n">
-        <v>527929</v>
+        <v>519201</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>355521</v>
+        <v>340446</v>
       </c>
       <c r="E27" t="n">
-        <v>1659610</v>
+        <v>1589238</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>323.6733190507423</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>177.5238532065831</v>
       </c>
       <c r="H27" t="n">
-        <v>4.93</v>
+        <v>1.87</v>
       </c>
       <c r="I27" t="n">
-        <v>749694</v>
+        <v>731917</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1599337</v>
+        <v>1564941</v>
       </c>
       <c r="F28" t="n">
-        <v>398.9292427001986</v>
+        <v>338.6591322742024</v>
       </c>
       <c r="G28" t="n">
-        <v>414.0217392643954</v>
+        <v>401.5710421878666</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
-        <v>248903</v>
+        <v>248414</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12810587</v>
+        <v>12791214</v>
       </c>
       <c r="E29" t="n">
-        <v>31883234</v>
+        <v>31835018</v>
       </c>
       <c r="F29" t="n">
-        <v>765.9220000114149</v>
+        <v>855.7240993443496</v>
       </c>
       <c r="G29" t="n">
-        <v>1269.458671127177</v>
+        <v>1147.421917746457</v>
       </c>
       <c r="H29" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="I29" t="n">
-        <v>1415268</v>
+        <v>1417023</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>904239</v>
+        <v>899334</v>
       </c>
       <c r="E30" t="n">
-        <v>6329672</v>
+        <v>6295337</v>
       </c>
       <c r="F30" t="n">
-        <v>149.1432271949882</v>
+        <v>158.6022067405448</v>
       </c>
       <c r="G30" t="n">
-        <v>130.3742345171167</v>
+        <v>100.3533639132653</v>
       </c>
       <c r="H30" t="n">
-        <v>2.35</v>
+        <v>1.89</v>
       </c>
       <c r="I30" t="n">
-        <v>179062</v>
+        <v>156238</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190432</v>
+        <v>190809</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.41</v>
       </c>
       <c r="I31" t="n">
-        <v>1345.63</v>
+        <v>1348.48</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5413772</v>
+        <v>5542240</v>
       </c>
       <c r="E32" t="n">
-        <v>5672768</v>
+        <v>5807381</v>
       </c>
       <c r="F32" t="n">
-        <v>160.0974283574869</v>
+        <v>169.3543021859088</v>
       </c>
       <c r="G32" t="n">
-        <v>245.350407868772</v>
+        <v>36.39949737171847</v>
       </c>
       <c r="H32" t="n">
-        <v>1.48</v>
+        <v>2.55</v>
       </c>
       <c r="I32" t="n">
-        <v>136083</v>
+        <v>177429</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5181793</v>
+        <v>5185344</v>
       </c>
       <c r="E33" t="n">
-        <v>7627880</v>
+        <v>7633107</v>
       </c>
       <c r="F33" t="n">
-        <v>60.22159089504395</v>
+        <v>58.05637712416243</v>
       </c>
       <c r="G33" t="n">
-        <v>103.6503114218501</v>
+        <v>30.0584817887432</v>
       </c>
       <c r="H33" t="n">
-        <v>1.67</v>
+        <v>3.27</v>
       </c>
       <c r="I33" t="n">
-        <v>640615</v>
+        <v>680751</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7674701</v>
+        <v>7666332</v>
       </c>
       <c r="E34" t="n">
-        <v>7674701</v>
+        <v>7666332</v>
       </c>
       <c r="F34" t="n">
-        <v>32024.16878710776</v>
+        <v>31983.32492091776</v>
       </c>
       <c r="G34" t="n">
-        <v>32443.825375804</v>
+        <v>32782.97384353986</v>
       </c>
       <c r="H34" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="I34" t="n">
-        <v>310560</v>
+        <v>314017</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1455001</v>
+        <v>1454191</v>
       </c>
       <c r="E35" t="n">
-        <v>1455001</v>
+        <v>1454191</v>
       </c>
       <c r="F35" t="n">
-        <v>400.5189920474982</v>
+        <v>476.0831199449383</v>
       </c>
       <c r="G35" t="n">
-        <v>299.2190877613676</v>
+        <v>350.0662046375999</v>
       </c>
       <c r="H35" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="I35" t="n">
-        <v>279071</v>
+        <v>275404</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>16083568</v>
+        <v>15998356</v>
       </c>
       <c r="F36" t="n">
-        <v>246.0131757326862</v>
+        <v>245.8456415078555</v>
       </c>
       <c r="G36" t="n">
-        <v>188.6910324134277</v>
+        <v>167.9233864220312</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>8427.26</v>
+        <v>9708.93</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58257</v>
+        <v>58244</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302857792193938</v>
+        <v>1.302807778616726</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0054612470112738</v>
+        <v>0.005461037367135576</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>606.09</v>
+        <v>606.1900000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136313392</v>
+        <v>137704432</v>
       </c>
       <c r="E38" t="n">
-        <v>136313392</v>
+        <v>137704432</v>
       </c>
       <c r="F38" t="n">
-        <v>329818.3244110896</v>
+        <v>357647.3047980903</v>
       </c>
       <c r="G38" t="n">
-        <v>305673.4723399181</v>
+        <v>301800.9132069785</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>61235152</v>
+        <v>63761627</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64887859</v>
+        <v>65301711</v>
       </c>
       <c r="E39" t="n">
-        <v>332758251</v>
+        <v>334880567</v>
       </c>
       <c r="F39" t="n">
-        <v>102107.7944272655</v>
+        <v>104927.2272586956</v>
       </c>
       <c r="G39" t="n">
-        <v>92761.32598455081</v>
+        <v>83555.27400655027</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>21186189</v>
+        <v>21443578</v>
       </c>
     </row>
     <row r="40">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45605</v>
+        <v>45610</v>
       </c>
       <c r="E40" t="n">
-        <v>134770</v>
+        <v>134785</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4.021139087096457</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>250.8639915545174</v>
       </c>
       <c r="H40" t="n">
-        <v>8.17</v>
+        <v>1.42</v>
       </c>
       <c r="I40" t="n">
-        <v>287.1</v>
+        <v>287.15</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51489</v>
+        <v>47870</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>4.46</v>
       </c>
       <c r="I41" t="n">
-        <v>25399</v>
+        <v>23067</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>594841</v>
+        <v>595047</v>
       </c>
       <c r="F42" t="n">
-        <v>1232.501073892564</v>
+        <v>1250.381174769678</v>
       </c>
       <c r="G42" t="n">
-        <v>398.2518867375333</v>
+        <v>398.009170982328</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1459.75</v>
+        <v>1459.57</v>
       </c>
     </row>
     <row r="43">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2670946</v>
+        <v>2678498</v>
       </c>
       <c r="E44" t="n">
-        <v>10733922</v>
+        <v>10764271</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="I44" t="n">
-        <v>32473</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17666279</v>
+        <v>17641345</v>
       </c>
       <c r="E45" t="n">
-        <v>124519217</v>
+        <v>124342667</v>
       </c>
       <c r="F45" t="n">
-        <v>357.0100324556755</v>
+        <v>348.2134003027978</v>
       </c>
       <c r="G45" t="n">
-        <v>239.182687752706</v>
+        <v>239.0006146324687</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="I45" t="n">
-        <v>1111355</v>
+        <v>1099240</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>171060</v>
+        <v>171448</v>
       </c>
       <c r="E46" t="n">
-        <v>2288876</v>
+        <v>2294069</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>53473</v>
+        <v>53633</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>251321733</v>
+        <v>252695643</v>
       </c>
       <c r="E47" t="n">
-        <v>251321733</v>
+        <v>252695643</v>
       </c>
       <c r="F47" t="n">
-        <v>123062.1913282882</v>
+        <v>124293.9493766657</v>
       </c>
       <c r="G47" t="n">
-        <v>119723.5749273523</v>
+        <v>137083.2508738929</v>
       </c>
       <c r="H47" t="n">
         <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>14979030</v>
+        <v>14815437</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>636556</v>
+        <v>637284</v>
       </c>
       <c r="E48" t="n">
-        <v>636556</v>
+        <v>637284</v>
       </c>
       <c r="F48" t="n">
-        <v>60.00628322627745</v>
+        <v>572.2980450891071</v>
       </c>
       <c r="G48" t="n">
-        <v>76.64401114500518</v>
+        <v>87.31272754149556</v>
       </c>
       <c r="H48" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I48" t="n">
-        <v>3204.71</v>
+        <v>3208.94</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>448542300</v>
+        <v>447470635</v>
       </c>
       <c r="E50" t="n">
-        <v>448542300</v>
+        <v>447470635</v>
       </c>
       <c r="F50" t="n">
-        <v>3814.683489934762</v>
+        <v>3864.706725535124</v>
       </c>
       <c r="G50" t="n">
-        <v>1939.649019952171</v>
+        <v>2347.794206033577</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2800985</v>
+        <v>2793242</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2450536</v>
+        <v>2448937</v>
       </c>
       <c r="E51" t="n">
-        <v>2450536</v>
+        <v>2448937</v>
       </c>
       <c r="F51" t="n">
-        <v>1058.360204275953</v>
+        <v>1058.30383434189</v>
       </c>
       <c r="G51" t="n">
-        <v>23.64865736618865</v>
+        <v>23.64774955110842</v>
       </c>
       <c r="H51" t="n">
         <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>57561</v>
+        <v>56531</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23699</v>
+        <v>23703</v>
       </c>
       <c r="E52" t="n">
-        <v>47398</v>
+        <v>47406</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>8.02</v>
       </c>
       <c r="I52" t="n">
-        <v>2428.46</v>
+        <v>2416.73</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>153681</v>
+        <v>154913</v>
       </c>
       <c r="F53" t="n">
-        <v>5.265386288790357</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>27.03763642504289</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.67</v>
+        <v>4.84</v>
       </c>
       <c r="I53" t="n">
-        <v>24041</v>
+        <v>24006</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2549559</v>
+        <v>2557760</v>
       </c>
       <c r="E54" t="n">
-        <v>6518168</v>
+        <v>6539136</v>
       </c>
       <c r="F54" t="n">
-        <v>352.5239433802026</v>
+        <v>249.4016909189741</v>
       </c>
       <c r="G54" t="n">
-        <v>108.27091968615</v>
+        <v>156.7103572688108</v>
       </c>
       <c r="H54" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>111560</v>
+        <v>112885</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3419.74</v>
+        <v>3418.98</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2.548562659585396</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1.153520880392532</v>
       </c>
       <c r="H55" t="n">
-        <v>6.15</v>
+        <v>1.54</v>
       </c>
       <c r="I55" t="n">
-        <v>729.17</v>
+        <v>729.42</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>72964759</v>
+        <v>73108065</v>
       </c>
       <c r="E56" t="n">
-        <v>72964759</v>
+        <v>73108065</v>
       </c>
       <c r="F56" t="n">
-        <v>18894.1708110672</v>
+        <v>14868.23581574586</v>
       </c>
       <c r="G56" t="n">
-        <v>22086.75459418875</v>
+        <v>20048.35210349014</v>
       </c>
       <c r="H56" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I56" t="n">
-        <v>3558667</v>
+        <v>3524671</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3505951</v>
+        <v>3504901</v>
       </c>
       <c r="E57" t="n">
-        <v>4442653</v>
+        <v>4441322</v>
       </c>
       <c r="F57" t="n">
-        <v>1036.644225369151</v>
+        <v>112.9863933568829</v>
       </c>
       <c r="G57" t="n">
-        <v>133.7018199319572</v>
+        <v>125.4327764455528</v>
       </c>
       <c r="H57" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="I57" t="n">
-        <v>260364</v>
+        <v>258359</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4147794</v>
+        <v>4138730</v>
       </c>
       <c r="E58" t="n">
-        <v>8179800</v>
+        <v>8161924</v>
       </c>
       <c r="F58" t="n">
-        <v>2394.152305989557</v>
+        <v>2344.371729107081</v>
       </c>
       <c r="G58" t="n">
-        <v>22544.1950460992</v>
+        <v>22091.9695906298</v>
       </c>
       <c r="H58" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1623711</v>
+        <v>1616550</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1583160</v>
+        <v>1590607</v>
       </c>
       <c r="E59" t="n">
-        <v>9089913</v>
+        <v>9132672</v>
       </c>
       <c r="F59" t="n">
-        <v>349.3989135165305</v>
+        <v>160.8899021063294</v>
       </c>
       <c r="G59" t="n">
-        <v>510.0141100002558</v>
+        <v>647.1535648256925</v>
       </c>
       <c r="H59" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="I59" t="n">
-        <v>305597</v>
+        <v>305184</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565054</v>
+        <v>565095</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1709.38</v>
+        <v>1571.5</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31228229</v>
+        <v>31166331</v>
       </c>
       <c r="F61" t="n">
-        <v>1073.042463877159</v>
+        <v>687.3289586587358</v>
       </c>
       <c r="G61" t="n">
-        <v>937.8842635979448</v>
+        <v>1044.178460037072</v>
       </c>
       <c r="H61" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I61" t="n">
-        <v>250525</v>
+        <v>247632</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1427289</v>
+        <v>1428440</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7.18</v>
+        <v>6.77</v>
       </c>
       <c r="I62" t="n">
-        <v>28716</v>
+        <v>28757</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7648159</v>
+        <v>7639252</v>
       </c>
       <c r="E63" t="n">
-        <v>18012934</v>
+        <v>17991957</v>
       </c>
       <c r="F63" t="n">
-        <v>1097.159674542146</v>
+        <v>1097.114970884977</v>
       </c>
       <c r="G63" t="n">
-        <v>2356.286955788855</v>
+        <v>2356.190949121176</v>
       </c>
       <c r="H63" t="n">
         <v>1.81</v>
       </c>
       <c r="I63" t="n">
-        <v>34224</v>
+        <v>32005</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2975813</v>
+        <v>2965536</v>
       </c>
       <c r="E64" t="n">
-        <v>2975813</v>
+        <v>2965536</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3.23851248099769</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>243.5220578562834</v>
       </c>
       <c r="H64" t="n">
-        <v>4.62</v>
+        <v>2.12</v>
       </c>
       <c r="I64" t="n">
-        <v>17481.61</v>
+        <v>17672.96</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3356939</v>
+        <v>3356905</v>
       </c>
       <c r="E65" t="n">
-        <v>8283075</v>
+        <v>8282991</v>
       </c>
       <c r="F65" t="n">
-        <v>610.8461338023621</v>
+        <v>622.9167406497112</v>
       </c>
       <c r="G65" t="n">
-        <v>1168.0104000841</v>
+        <v>1095.688363249601</v>
       </c>
       <c r="H65" t="n">
-        <v>0.97</v>
+        <v>1.15</v>
       </c>
       <c r="I65" t="n">
-        <v>45944</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>271985</v>
+        <v>271823</v>
       </c>
       <c r="F66" t="n">
-        <v>85.00049285893914</v>
+        <v>84.99722989444818</v>
       </c>
       <c r="G66" t="n">
-        <v>5.388409579706297</v>
+        <v>5.388202731621893</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1917.42</v>
+        <v>1916.58</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>73836849</v>
+        <v>74522029</v>
       </c>
       <c r="E67" t="n">
-        <v>153987325</v>
+        <v>155416273</v>
       </c>
       <c r="F67" t="n">
-        <v>61012.04055319801</v>
+        <v>62708.61157059993</v>
       </c>
       <c r="G67" t="n">
-        <v>59670.86200401167</v>
+        <v>59054.82835462966</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>15874069</v>
+        <v>16073378</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1920392</v>
+        <v>1919903</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6188934756591513</v>
+        <v>3.858222529810986</v>
       </c>
       <c r="G68" t="n">
-        <v>29.55749240708555</v>
+        <v>43.06869494841828</v>
       </c>
       <c r="H68" t="n">
-        <v>2.51</v>
+        <v>3.02</v>
       </c>
       <c r="I68" t="n">
-        <v>5214.13</v>
+        <v>4956.09</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>201423343</v>
+        <v>199554361</v>
       </c>
       <c r="F69" t="n">
-        <v>6425.088026981209</v>
+        <v>5589.406812724602</v>
       </c>
       <c r="G69" t="n">
-        <v>4516.66365683238</v>
+        <v>3382.972981209502</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="I69" t="n">
-        <v>4428680</v>
+        <v>4312033</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>178907</v>
+        <v>179169</v>
       </c>
       <c r="E70" t="n">
-        <v>186830</v>
+        <v>187103</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>8.119999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I70" t="n">
-        <v>443.53</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>143811826</v>
+        <v>144742569</v>
       </c>
       <c r="E71" t="n">
-        <v>143859254</v>
+        <v>144791236</v>
       </c>
       <c r="F71" t="n">
-        <v>42571.52792411441</v>
+        <v>32887.6644622489</v>
       </c>
       <c r="G71" t="n">
-        <v>43564.71952479692</v>
+        <v>48808.94884123592</v>
       </c>
       <c r="H71" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I71" t="n">
-        <v>2664349</v>
+        <v>2604121</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25994970</v>
+        <v>25963479</v>
       </c>
       <c r="E72" t="n">
-        <v>85310524</v>
+        <v>85207174</v>
       </c>
       <c r="F72" t="n">
-        <v>20240.61650214126</v>
+        <v>6564.493345304916</v>
       </c>
       <c r="G72" t="n">
-        <v>35775.84195028497</v>
+        <v>33685.47990068621</v>
       </c>
       <c r="H72" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="I72" t="n">
-        <v>102527</v>
+        <v>102956</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>119458</v>
+        <v>119822</v>
       </c>
       <c r="E73" t="n">
-        <v>119458</v>
+        <v>119822</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>5.15</v>
       </c>
       <c r="I73" t="n">
-        <v>299.56</v>
+        <v>304.99</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>201220639</v>
+        <v>201375859</v>
       </c>
       <c r="E74" t="n">
-        <v>699058684</v>
+        <v>699597935</v>
       </c>
       <c r="F74" t="n">
-        <v>133056.2379579358</v>
+        <v>137602.889784604</v>
       </c>
       <c r="G74" t="n">
-        <v>207287.8842789163</v>
+        <v>199651.932931918</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>27190295</v>
+        <v>27275856</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3331870</v>
+        <v>3512698</v>
       </c>
       <c r="E75" t="n">
-        <v>3331870</v>
+        <v>3512698</v>
       </c>
       <c r="F75" t="n">
-        <v>696.3035665281246</v>
+        <v>339.3381369965067</v>
       </c>
       <c r="G75" t="n">
-        <v>559.8805351996746</v>
+        <v>891.8619951727909</v>
       </c>
       <c r="H75" t="n">
         <v>0.71</v>
       </c>
       <c r="I75" t="n">
-        <v>2767888</v>
+        <v>2778741</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>113667661</v>
+        <v>114709454</v>
       </c>
       <c r="E76" t="n">
-        <v>483094669</v>
+        <v>487492570</v>
       </c>
       <c r="F76" t="n">
-        <v>213797.9916806343</v>
+        <v>204983.957207999</v>
       </c>
       <c r="G76" t="n">
-        <v>177529.4570663547</v>
+        <v>225170.188396883</v>
       </c>
       <c r="H76" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I76" t="n">
-        <v>14464803</v>
+        <v>14547453</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1840791</v>
+        <v>1852692</v>
       </c>
       <c r="F77" t="n">
-        <v>109.6994621769609</v>
+        <v>173.9999074552837</v>
       </c>
       <c r="G77" t="n">
-        <v>102.5030139529778</v>
+        <v>102.4990791087964</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>279.65</v>
+        <v>158.41</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3133338</v>
+        <v>3135448</v>
       </c>
       <c r="E78" t="n">
-        <v>15709930</v>
+        <v>15720505</v>
       </c>
       <c r="F78" t="n">
-        <v>102.1843115810541</v>
+        <v>102.1803889710902</v>
       </c>
       <c r="G78" t="n">
-        <v>876.4931608644835</v>
+        <v>876.4595144000423</v>
       </c>
       <c r="H78" t="n">
         <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>33797</v>
+        <v>33369</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>536416</v>
+        <v>536502</v>
       </c>
       <c r="E79" t="n">
-        <v>9175352</v>
+        <v>9176825</v>
       </c>
       <c r="F79" t="n">
-        <v>253.1322374946509</v>
+        <v>367.4557885262636</v>
       </c>
       <c r="G79" t="n">
-        <v>323.4150274490356</v>
+        <v>255.8014358010085</v>
       </c>
       <c r="H79" t="n">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="I79" t="n">
-        <v>174373</v>
+        <v>172288</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5790453</v>
+        <v>5626889</v>
       </c>
       <c r="E80" t="n">
-        <v>7866837</v>
+        <v>7644445</v>
       </c>
       <c r="F80" t="n">
-        <v>364.6528193991309</v>
+        <v>262.3331243467829</v>
       </c>
       <c r="G80" t="n">
-        <v>1100.536828094742</v>
+        <v>1386.906028942913</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>5918888</v>
+        <v>5882444</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41258</v>
+        <v>41235</v>
       </c>
       <c r="F81" t="n">
-        <v>174.4619747320485</v>
+        <v>182.9558964160497</v>
       </c>
       <c r="G81" t="n">
-        <v>61.49980195364478</v>
+        <v>50.74648099445558</v>
       </c>
       <c r="H81" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="I81" t="n">
-        <v>51231</v>
+        <v>50379</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40727903</v>
+        <v>40435518</v>
       </c>
       <c r="E82" t="n">
-        <v>47569224</v>
+        <v>47227724</v>
       </c>
       <c r="F82" t="n">
-        <v>89.44817034981901</v>
+        <v>79.66214285257067</v>
       </c>
       <c r="G82" t="n">
-        <v>173.7170647663357</v>
+        <v>79.07247704089724</v>
       </c>
       <c r="H82" t="n">
-        <v>1.76</v>
+        <v>0.44</v>
       </c>
       <c r="I82" t="n">
-        <v>876829</v>
+        <v>877673</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14379191</v>
+        <v>14527040</v>
       </c>
       <c r="F83" t="n">
-        <v>375.8927922009136</v>
+        <v>398.9918042912779</v>
       </c>
       <c r="G83" t="n">
-        <v>794.3031485555945</v>
+        <v>761.3369877577877</v>
       </c>
       <c r="H83" t="n">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="I83" t="n">
-        <v>304248</v>
+        <v>301442</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35940938</v>
+        <v>35969094</v>
       </c>
       <c r="E84" t="n">
-        <v>35940938</v>
+        <v>35969094</v>
       </c>
       <c r="F84" t="n">
-        <v>114.8614330330871</v>
+        <v>49.06987874062904</v>
       </c>
       <c r="G84" t="n">
-        <v>1413.511567327169</v>
+        <v>134.8393608704824</v>
       </c>
       <c r="H84" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="I84" t="n">
-        <v>805877</v>
+        <v>800289</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>622477</v>
+        <v>645058</v>
       </c>
       <c r="E85" t="n">
-        <v>7550034</v>
+        <v>7823924</v>
       </c>
       <c r="F85" t="n">
-        <v>400.7459738214938</v>
+        <v>794.421075571302</v>
       </c>
       <c r="G85" t="n">
-        <v>500.9635296270882</v>
+        <v>659.9789216334103</v>
       </c>
       <c r="H85" t="n">
-        <v>1.74</v>
+        <v>0.64</v>
       </c>
       <c r="I85" t="n">
-        <v>2896832</v>
+        <v>2853904</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25489249</v>
+        <v>25591493</v>
       </c>
       <c r="E86" t="n">
-        <v>36028058</v>
+        <v>36172576</v>
       </c>
       <c r="F86" t="n">
-        <v>17.55195314864795</v>
+        <v>23.40518199898803</v>
       </c>
       <c r="G86" t="n">
-        <v>750.0328778696435</v>
+        <v>587.3198310358698</v>
       </c>
       <c r="H86" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="I86" t="n">
-        <v>64218</v>
+        <v>62619</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1260813749</v>
+        <v>1277288299</v>
       </c>
       <c r="E87" t="n">
-        <v>6045860136</v>
+        <v>6124858978</v>
       </c>
       <c r="F87" t="n">
-        <v>764210.025177301</v>
+        <v>640766.3531454386</v>
       </c>
       <c r="G87" t="n">
-        <v>835481.5303154936</v>
+        <v>843774.2860970391</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>160708093</v>
+        <v>160174859</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>265425742</v>
+        <v>268656122</v>
       </c>
       <c r="E88" t="n">
-        <v>1145724851</v>
+        <v>1159668964</v>
       </c>
       <c r="F88" t="n">
-        <v>1208912.05598698</v>
+        <v>903595.9722833242</v>
       </c>
       <c r="G88" t="n">
-        <v>731791.08534947</v>
+        <v>1056851.73524769</v>
       </c>
       <c r="H88" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>101412244</v>
+        <v>99139350</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114452328</v>
+        <v>114557499</v>
       </c>
       <c r="E89" t="n">
-        <v>114452328</v>
+        <v>114557499</v>
       </c>
       <c r="F89" t="n">
-        <v>46221.24961236541</v>
+        <v>43796.11311216781</v>
       </c>
       <c r="G89" t="n">
-        <v>20529.56411377994</v>
+        <v>23005.19175689562</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>6158474</v>
+        <v>6174567</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3853301</v>
+        <v>3852248</v>
       </c>
       <c r="E90" t="n">
-        <v>29985923</v>
+        <v>29977732</v>
       </c>
       <c r="F90" t="n">
-        <v>11013.75889713875</v>
+        <v>11013.30427745268</v>
       </c>
       <c r="G90" t="n">
-        <v>12401.08961670969</v>
+        <v>12343.30031015279</v>
       </c>
       <c r="H90" t="n">
         <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>10140.51</v>
+        <v>10211.75</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3731140</v>
+        <v>3732124</v>
       </c>
       <c r="F91" t="n">
-        <v>455.0441938114551</v>
+        <v>297.5461557699333</v>
       </c>
       <c r="G91" t="n">
-        <v>1404.012467581508</v>
+        <v>815.9886264977688</v>
       </c>
       <c r="H91" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="I91" t="n">
-        <v>296685</v>
+        <v>294694</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>888904</v>
+        <v>892899</v>
       </c>
       <c r="F92" t="n">
-        <v>135.5570349971946</v>
+        <v>3.500657977603103</v>
       </c>
       <c r="G92" t="n">
-        <v>3.000686304394805</v>
+        <v>6.325466092192258</v>
       </c>
       <c r="H92" t="n">
-        <v>3.54</v>
+        <v>1.8</v>
       </c>
       <c r="I92" t="n">
-        <v>36163</v>
+        <v>35941</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>119429</v>
+        <v>114752</v>
       </c>
       <c r="F93" t="n">
-        <v>6.104915717429229</v>
+        <v>369.4628730878121</v>
       </c>
       <c r="G93" t="n">
-        <v>407.3337401894881</v>
+        <v>82.42008840608878</v>
       </c>
       <c r="H93" t="n">
-        <v>3.36</v>
+        <v>0.14</v>
       </c>
       <c r="I93" t="n">
-        <v>135638</v>
+        <v>136869</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10998061</v>
+        <v>11014168</v>
       </c>
       <c r="E94" t="n">
-        <v>132767304</v>
+        <v>132961746</v>
       </c>
       <c r="F94" t="n">
-        <v>2551.891024618611</v>
+        <v>2573.550896298117</v>
       </c>
       <c r="G94" t="n">
-        <v>2438.31726871571</v>
+        <v>2408.371140100156</v>
       </c>
       <c r="H94" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="I94" t="n">
-        <v>231730</v>
+        <v>219375</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19763560</v>
+        <v>19733758</v>
       </c>
       <c r="E95" t="n">
-        <v>49408901</v>
+        <v>49334394</v>
       </c>
       <c r="F95" t="n">
-        <v>7071.411056640011</v>
+        <v>7133.926877967288</v>
       </c>
       <c r="G95" t="n">
-        <v>9185.640114593989</v>
+        <v>8459.235672549528</v>
       </c>
       <c r="H95" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I95" t="n">
-        <v>1936905</v>
+        <v>1936540</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2319180</v>
+        <v>2317175</v>
       </c>
       <c r="F96" t="n">
-        <v>199.5528552420724</v>
+        <v>199.4908818669975</v>
       </c>
       <c r="G96" t="n">
-        <v>73.0525080916137</v>
+        <v>73.04953033464922</v>
       </c>
       <c r="H96" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>61116</v>
+        <v>59848</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19768561</v>
+        <v>19770362</v>
       </c>
       <c r="F97" t="n">
-        <v>1429.490880765222</v>
+        <v>1606.904442277317</v>
       </c>
       <c r="G97" t="n">
-        <v>1803.861411892312</v>
+        <v>1579.77969201699</v>
       </c>
       <c r="H97" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>89681</v>
+        <v>89764</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4171904</v>
+        <v>4163261</v>
       </c>
       <c r="E98" t="n">
-        <v>12017066</v>
+        <v>11992171</v>
       </c>
       <c r="F98" t="n">
-        <v>328.9176946653259</v>
+        <v>148.8858141351068</v>
       </c>
       <c r="G98" t="n">
-        <v>517.4354918868859</v>
+        <v>303.1166514995484</v>
       </c>
       <c r="H98" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="I98" t="n">
-        <v>627515</v>
+        <v>642143</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1632401</v>
+        <v>1623218</v>
       </c>
       <c r="F99" t="n">
-        <v>518.5075499235597</v>
+        <v>562.6205582141196</v>
       </c>
       <c r="G99" t="n">
-        <v>8.157393008608436</v>
+        <v>52.91056677962515</v>
       </c>
       <c r="H99" t="n">
-        <v>2.17</v>
+        <v>0.65</v>
       </c>
       <c r="I99" t="n">
-        <v>231423</v>
+        <v>232245</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80599459</v>
+        <v>80152771</v>
       </c>
       <c r="E100" t="n">
-        <v>102569076</v>
+        <v>102000630</v>
       </c>
       <c r="F100" t="n">
-        <v>6995.175580179339</v>
+        <v>9111.192907680295</v>
       </c>
       <c r="G100" t="n">
-        <v>13415.35322442413</v>
+        <v>6612.293308585084</v>
       </c>
       <c r="H100" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="I100" t="n">
-        <v>5542554</v>
+        <v>6152212</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22518360</v>
+        <v>22825551</v>
       </c>
       <c r="E101" t="n">
-        <v>29211464</v>
+        <v>29609961</v>
       </c>
       <c r="F101" t="n">
-        <v>5706.439231914846</v>
+        <v>3984.681114216854</v>
       </c>
       <c r="G101" t="n">
-        <v>7210.250493846847</v>
+        <v>3351.887430263834</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I101" t="n">
-        <v>165253</v>
+        <v>282299</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1564977</v>
+        <v>1624540</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>13.67772179117171</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>65.33516002914317</v>
       </c>
       <c r="H102" t="n">
-        <v>5.84</v>
+        <v>3.05</v>
       </c>
       <c r="I102" t="n">
-        <v>14939.69</v>
+        <v>15316.25</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>650331</v>
+        <v>640675</v>
       </c>
       <c r="E103" t="n">
-        <v>650331</v>
+        <v>640675</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5.26</v>
+        <v>5.44</v>
       </c>
       <c r="I103" t="n">
-        <v>80662</v>
+        <v>83219</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40040264</v>
+        <v>40378238</v>
       </c>
       <c r="E104" t="n">
-        <v>41856393</v>
+        <v>42209697</v>
       </c>
       <c r="F104" t="n">
-        <v>908.0562965012691</v>
+        <v>291.312423093227</v>
       </c>
       <c r="G104" t="n">
-        <v>1996.712930671021</v>
+        <v>1211.598110620644</v>
       </c>
       <c r="H104" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="I104" t="n">
-        <v>693582</v>
+        <v>708624</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13562437</v>
+        <v>13569136</v>
       </c>
       <c r="E105" t="n">
-        <v>13562437</v>
+        <v>13569136</v>
       </c>
       <c r="F105" t="n">
-        <v>4006.897302245368</v>
+        <v>3683.808915348791</v>
       </c>
       <c r="G105" t="n">
-        <v>3831.46184948791</v>
+        <v>2735.768014059532</v>
       </c>
       <c r="H105" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I105" t="n">
-        <v>4864999</v>
+        <v>4719374</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1229290</v>
+        <v>1229258</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.17</v>
+        <v>7.32</v>
       </c>
       <c r="I106" t="n">
-        <v>5212.63</v>
+        <v>5206.54</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50949090</v>
+        <v>51082432</v>
       </c>
       <c r="E107" t="n">
-        <v>129795719</v>
+        <v>130135417</v>
       </c>
       <c r="F107" t="n">
-        <v>2306.417300646443</v>
+        <v>2460.663915649302</v>
       </c>
       <c r="G107" t="n">
-        <v>3379.923012396542</v>
+        <v>3588.722816790935</v>
       </c>
       <c r="H107" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2394788</v>
+        <v>2375785</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14227041</v>
+        <v>14299666</v>
       </c>
       <c r="E108" t="n">
-        <v>68903830</v>
+        <v>69255564</v>
       </c>
       <c r="F108" t="n">
-        <v>8187.56313925921</v>
+        <v>8610.379588581032</v>
       </c>
       <c r="G108" t="n">
-        <v>8471.051789686604</v>
+        <v>11761.18794062919</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I108" t="n">
-        <v>3700302</v>
+        <v>3718892</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>508932</v>
+        <v>508685</v>
       </c>
       <c r="F109" t="n">
-        <v>203.9459061763218</v>
+        <v>92.09095992813775</v>
       </c>
       <c r="G109" t="n">
-        <v>563.4224673409274</v>
+        <v>308.9596879654267</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="I109" t="n">
-        <v>7585.07</v>
+        <v>7351.51</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4590786</v>
+        <v>4583892</v>
       </c>
       <c r="E110" t="n">
-        <v>10464495</v>
+        <v>10448780</v>
       </c>
       <c r="F110" t="n">
-        <v>1113.351670311393</v>
+        <v>1113.223381768887</v>
       </c>
       <c r="G110" t="n">
-        <v>2172.545935958627</v>
+        <v>2172.295599286861</v>
       </c>
       <c r="H110" t="n">
         <v>0.76</v>
       </c>
       <c r="I110" t="n">
-        <v>87604</v>
+        <v>87103</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1913659492</v>
+        <v>1920420365</v>
       </c>
       <c r="F111" t="n">
-        <v>109728.7170776574</v>
+        <v>101271.6184555168</v>
       </c>
       <c r="G111" t="n">
-        <v>43001.46150300048</v>
+        <v>43738.91491531379</v>
       </c>
       <c r="H111" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="I111" t="n">
-        <v>26669299</v>
+        <v>26929493</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9351795</v>
+        <v>9360119</v>
       </c>
       <c r="E112" t="n">
-        <v>34040619</v>
+        <v>34069176</v>
       </c>
       <c r="F112" t="n">
-        <v>513.7000737810339</v>
+        <v>508.4210166081737</v>
       </c>
       <c r="G112" t="n">
-        <v>407.6363526058096</v>
+        <v>342.2400780429165</v>
       </c>
       <c r="H112" t="n">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>162607</v>
+        <v>157895</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>533616</v>
+        <v>538600</v>
       </c>
       <c r="F113" t="n">
-        <v>101.2568187250563</v>
+        <v>116.8912791284044</v>
       </c>
       <c r="G113" t="n">
-        <v>59.26722599135186</v>
+        <v>59.49636805123603</v>
       </c>
       <c r="H113" t="n">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="I113" t="n">
-        <v>859.09</v>
+        <v>912.6</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12273986</v>
+        <v>12272958</v>
       </c>
       <c r="E114" t="n">
-        <v>17795508</v>
+        <v>17794018</v>
       </c>
       <c r="F114" t="n">
-        <v>465.4416460821902</v>
+        <v>324.7206625855528</v>
       </c>
       <c r="G114" t="n">
-        <v>485.9465234558295</v>
+        <v>3450.521220283594</v>
       </c>
       <c r="H114" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="I114" t="n">
-        <v>1829690</v>
+        <v>1908040</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2064694</v>
+        <v>2060562</v>
       </c>
       <c r="E115" t="n">
-        <v>14805718</v>
+        <v>14776084</v>
       </c>
       <c r="F115" t="n">
-        <v>842.2718220323643</v>
+        <v>701.2577669662552</v>
       </c>
       <c r="G115" t="n">
-        <v>927.9415359650081</v>
+        <v>1275.898461714502</v>
       </c>
       <c r="H115" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="I115" t="n">
-        <v>1977731</v>
+        <v>1975622</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2746637</v>
+        <v>2749197</v>
       </c>
       <c r="E116" t="n">
-        <v>5552216</v>
+        <v>5557391</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5094.91</v>
+        <v>5096.62</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>197980651</v>
+        <v>199225020</v>
       </c>
       <c r="E117" t="n">
-        <v>1121088092</v>
+        <v>1128134475</v>
       </c>
       <c r="F117" t="n">
-        <v>397979.2503762593</v>
+        <v>368236.9359778915</v>
       </c>
       <c r="G117" t="n">
-        <v>432131.1581818518</v>
+        <v>420443.7263375179</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>62316817</v>
+        <v>61919114</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>681366</v>
+        <v>682721</v>
       </c>
       <c r="E118" t="n">
-        <v>2259308</v>
+        <v>2263801</v>
       </c>
       <c r="F118" t="n">
-        <v>7475.345553263155</v>
+        <v>8870.938394200733</v>
       </c>
       <c r="G118" t="n">
-        <v>7049.647343669858</v>
+        <v>8336.106416579509</v>
       </c>
       <c r="H118" t="n">
         <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>23564</v>
+        <v>22479</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2782307</v>
+        <v>2786498</v>
       </c>
       <c r="E119" t="n">
-        <v>9850976</v>
+        <v>9865813</v>
       </c>
       <c r="F119" t="n">
-        <v>35.45074291246214</v>
+        <v>35.86963487091882</v>
       </c>
       <c r="G119" t="n">
-        <v>1773.717750002726</v>
+        <v>1559.323313716719</v>
       </c>
       <c r="H119" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="I119" t="n">
-        <v>6622.41</v>
+        <v>6201.34</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1035040</v>
+        <v>1034978</v>
       </c>
       <c r="E120" t="n">
-        <v>1035040</v>
+        <v>1034978</v>
       </c>
       <c r="F120" t="n">
-        <v>70.86663952770179</v>
+        <v>19.91787694885772</v>
       </c>
       <c r="G120" t="n">
-        <v>85.52944516132939</v>
+        <v>79.6490413426006</v>
       </c>
       <c r="H120" t="n">
         <v>2.14</v>
       </c>
       <c r="I120" t="n">
-        <v>8328.540000000001</v>
+        <v>8130.61</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>501806</v>
+        <v>501877</v>
       </c>
       <c r="E121" t="n">
-        <v>1689008</v>
+        <v>1689250</v>
       </c>
       <c r="F121" t="n">
-        <v>406.7765678192319</v>
+        <v>379.0548253724297</v>
       </c>
       <c r="G121" t="n">
-        <v>412.7378235413979</v>
+        <v>409.4256400906444</v>
       </c>
       <c r="H121" t="n">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="I121" t="n">
-        <v>628279</v>
+        <v>630626</v>
       </c>
     </row>
     <row r="122">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469228</v>
+        <v>469049</v>
       </c>
       <c r="E122" t="n">
-        <v>870508</v>
+        <v>870175</v>
       </c>
       <c r="F122" t="n">
-        <v>20.80524812079373</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>10.75139687647733</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>3.37</v>
+        <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>203534</v>
+        <v>209548</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11785064</v>
+        <v>11762449</v>
       </c>
       <c r="F123" t="n">
-        <v>135.621847790285</v>
+        <v>75.37759943162294</v>
       </c>
       <c r="G123" t="n">
-        <v>228.3539692152183</v>
+        <v>171.0960156868113</v>
       </c>
       <c r="H123" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="I123" t="n">
-        <v>10520.44</v>
+        <v>10620.86</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1225825</v>
+        <v>1230768</v>
       </c>
       <c r="F124" t="n">
-        <v>63.49144844024052</v>
+        <v>63.48413249003433</v>
       </c>
       <c r="G124" t="n">
-        <v>14.02282375397631</v>
+        <v>14.02120794140856</v>
       </c>
       <c r="H124" t="n">
         <v>0.91</v>
       </c>
       <c r="I124" t="n">
-        <v>46938</v>
+        <v>46765</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3407477</v>
+        <v>3417907</v>
       </c>
       <c r="E125" t="n">
-        <v>7957027</v>
+        <v>7981383</v>
       </c>
       <c r="F125" t="n">
-        <v>1770.35127091554</v>
+        <v>1256.326712216671</v>
       </c>
       <c r="G125" t="n">
-        <v>1278.023467674187</v>
+        <v>1056.117955406623</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="I125" t="n">
-        <v>661285</v>
+        <v>678735</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246437</v>
+        <v>246020</v>
       </c>
       <c r="E126" t="n">
-        <v>2174990</v>
+        <v>2171314</v>
       </c>
       <c r="F126" t="n">
-        <v>115.6374973604547</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>46.81097985566034</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3.91</v>
+        <v>4.35</v>
       </c>
       <c r="I126" t="n">
-        <v>77781</v>
+        <v>78242</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>656117</v>
+        <v>656100</v>
       </c>
       <c r="F127" t="n">
-        <v>581.4697711959096</v>
+        <v>480.5551381550757</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8316587214998</v>
+        <v>472.7771836169193</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3873.76</v>
+        <v>4075.16</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4940582</v>
+        <v>4927887</v>
       </c>
       <c r="E128" t="n">
-        <v>17457373</v>
+        <v>17412518</v>
       </c>
       <c r="F128" t="n">
-        <v>1467.236730948124</v>
+        <v>1669.854555653578</v>
       </c>
       <c r="G128" t="n">
-        <v>1665.030288599097</v>
+        <v>2037.678590892262</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>84063</v>
+        <v>87125</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2098902</v>
+        <v>2116893</v>
       </c>
       <c r="F129" t="n">
-        <v>71.82507052701533</v>
+        <v>111.9581349101368</v>
       </c>
       <c r="G129" t="n">
-        <v>296.777257490183</v>
+        <v>96.06857978837442</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="I129" t="n">
-        <v>9456.6</v>
+        <v>9395.280000000001</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2568125</v>
+        <v>2561298</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2501.73</v>
+        <v>2503.87</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83518</v>
+        <v>83337</v>
       </c>
       <c r="E131" t="n">
-        <v>83518</v>
+        <v>83337</v>
       </c>
       <c r="F131" t="n">
-        <v>96.78742567966867</v>
+        <v>47.1584862106175</v>
       </c>
       <c r="G131" t="n">
-        <v>5.386301493073456</v>
+        <v>210.255219056297</v>
       </c>
       <c r="H131" t="n">
         <v>1.7</v>
       </c>
       <c r="I131" t="n">
-        <v>22445</v>
+        <v>22502</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4428356</v>
+        <v>4431496</v>
       </c>
       <c r="F132" t="n">
-        <v>257.5109002696413</v>
+        <v>512.3130271175851</v>
       </c>
       <c r="G132" t="n">
-        <v>228.8292601405471</v>
+        <v>539.2608266744109</v>
       </c>
       <c r="H132" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="I132" t="n">
-        <v>300491</v>
+        <v>303347</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2132276</v>
+        <v>2125428</v>
       </c>
       <c r="E133" t="n">
-        <v>8707663</v>
+        <v>8679696</v>
       </c>
       <c r="F133" t="n">
-        <v>350.695359082174</v>
+        <v>374.5770890028556</v>
       </c>
       <c r="G133" t="n">
-        <v>351.4369030526947</v>
+        <v>684.5948744355724</v>
       </c>
       <c r="H133" t="n">
-        <v>0.93</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>566920</v>
+        <v>564381</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7388902</v>
+        <v>7441787</v>
       </c>
       <c r="E134" t="n">
-        <v>7443826</v>
+        <v>7497104</v>
       </c>
       <c r="F134" t="n">
-        <v>248617.2802606254</v>
+        <v>355865.3808022003</v>
       </c>
       <c r="G134" t="n">
-        <v>344940.3011508932</v>
+        <v>353104.1593862121</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="I134" t="n">
-        <v>5138103</v>
+        <v>5112736</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13356725</v>
+        <v>13404279</v>
       </c>
       <c r="E135" t="n">
-        <v>13402180</v>
+        <v>13449895</v>
       </c>
       <c r="F135" t="n">
-        <v>14371.87338412111</v>
+        <v>9571.943007438238</v>
       </c>
       <c r="G135" t="n">
-        <v>5878.876789561873</v>
+        <v>5508.300809260838</v>
       </c>
       <c r="H135" t="n">
         <v>0.4</v>
       </c>
       <c r="I135" t="n">
-        <v>5852258</v>
+        <v>5850196</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42805521</v>
+        <v>42791863</v>
       </c>
       <c r="E136" t="n">
-        <v>72673816</v>
+        <v>72650629</v>
       </c>
       <c r="F136" t="n">
-        <v>576.2164580422493</v>
+        <v>545.8238020849138</v>
       </c>
       <c r="G136" t="n">
-        <v>1882.667948402939</v>
+        <v>2226.581394537384</v>
       </c>
       <c r="H136" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I136" t="n">
-        <v>1122927</v>
+        <v>1122906</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23231720</v>
+        <v>22894468</v>
       </c>
       <c r="E137" t="n">
-        <v>69638014</v>
+        <v>68627086</v>
       </c>
       <c r="F137" t="n">
-        <v>87170.63945270044</v>
+        <v>79573.130799085</v>
       </c>
       <c r="G137" t="n">
-        <v>92069.19444611172</v>
+        <v>60426.42802179812</v>
       </c>
       <c r="H137" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I137" t="n">
-        <v>3063000</v>
+        <v>3145218</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101394032</v>
+        <v>101408037</v>
       </c>
       <c r="E138" t="n">
-        <v>107791020</v>
+        <v>107805908</v>
       </c>
       <c r="F138" t="n">
-        <v>7680.159482598252</v>
+        <v>6355.806780841539</v>
       </c>
       <c r="G138" t="n">
-        <v>14912.80197184756</v>
+        <v>15423.89894750775</v>
       </c>
       <c r="H138" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="I138" t="n">
-        <v>386875</v>
+        <v>385468</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1097353</v>
+        <v>1097476</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>180.9</v>
+        <v>180.94</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258621</v>
+        <v>258497</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.61</v>
+        <v>7.38</v>
       </c>
       <c r="I140" t="n">
-        <v>199</v>
+        <v>199.01</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96328</v>
+        <v>96286</v>
       </c>
       <c r="E141" t="n">
-        <v>273260</v>
+        <v>273143</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>41.61</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47024151</v>
+        <v>47137069</v>
       </c>
       <c r="E142" t="n">
-        <v>202574901</v>
+        <v>203061340</v>
       </c>
       <c r="F142" t="n">
-        <v>82086.9991382811</v>
+        <v>84033.66962337706</v>
       </c>
       <c r="G142" t="n">
-        <v>60372.72620253725</v>
+        <v>54899.06978850301</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8978430</v>
+        <v>8935299</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>279760</v>
+        <v>279825</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>10.24</v>
+        <v>9.9</v>
       </c>
       <c r="I143" t="n">
-        <v>149826</v>
+        <v>137865</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9443450</v>
+        <v>9482467</v>
       </c>
       <c r="F144" t="n">
-        <v>1071.751776385887</v>
+        <v>1038.731038152536</v>
       </c>
       <c r="G144" t="n">
-        <v>551.6233476361012</v>
+        <v>570.0669043846287</v>
       </c>
       <c r="H144" t="n">
         <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>121197</v>
+        <v>121420</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1180531</v>
+        <v>1179877</v>
       </c>
       <c r="E145" t="n">
-        <v>7870207</v>
+        <v>7865850</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4964055076377</v>
+        <v>263.4660435198494</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0219143978796</v>
+        <v>105.009813002886</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5714.65</v>
+        <v>5712.48</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7691563</v>
+        <v>7707539</v>
       </c>
       <c r="F146" t="n">
-        <v>47.76960402177688</v>
+        <v>74.9428097442857</v>
       </c>
       <c r="G146" t="n">
-        <v>315.8165496737176</v>
+        <v>380.2303008374894</v>
       </c>
       <c r="H146" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="I146" t="n">
-        <v>6587793</v>
+        <v>6592619</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>671781</v>
+        <v>671629</v>
       </c>
       <c r="E147" t="n">
-        <v>2425495</v>
+        <v>2424946</v>
       </c>
       <c r="F147" t="n">
-        <v>27.66888924529327</v>
+        <v>21.94585064175372</v>
       </c>
       <c r="G147" t="n">
-        <v>139.6267130908432</v>
+        <v>136.067999091116</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>359139</v>
+        <v>357158</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1593687</v>
+        <v>1606465</v>
       </c>
       <c r="F148" t="n">
-        <v>503.8218828426947</v>
+        <v>60.92996522883607</v>
       </c>
       <c r="G148" t="n">
-        <v>56.33576827268179</v>
+        <v>56.00235452967882</v>
       </c>
       <c r="H148" t="n">
-        <v>1.23</v>
+        <v>0.76</v>
       </c>
       <c r="I148" t="n">
-        <v>85890</v>
+        <v>86843</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69330</v>
+        <v>69297</v>
       </c>
       <c r="F149" t="n">
-        <v>65.46059210535063</v>
+        <v>65.45304925597367</v>
       </c>
       <c r="G149" t="n">
-        <v>20.71274298874798</v>
+        <v>20.71035631463576</v>
       </c>
       <c r="H149" t="n">
         <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>947.21</v>
+        <v>947.26</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>12986234</v>
+        <v>13136036</v>
       </c>
       <c r="E150" t="n">
-        <v>12986234</v>
+        <v>13136036</v>
       </c>
       <c r="F150" t="n">
-        <v>782.1921612325378</v>
+        <v>649.5607191608722</v>
       </c>
       <c r="G150" t="n">
-        <v>200.2630108835141</v>
+        <v>3340.594552673859</v>
       </c>
       <c r="H150" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="I150" t="n">
-        <v>3528971</v>
+        <v>3559782</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1737247</v>
+        <v>1787738</v>
       </c>
       <c r="E151" t="n">
-        <v>6312080</v>
+        <v>6494917</v>
       </c>
       <c r="F151" t="n">
-        <v>18.97876990820665</v>
+        <v>41.34505937147191</v>
       </c>
       <c r="G151" t="n">
-        <v>36.45022648669462</v>
+        <v>43.67388804651522</v>
       </c>
       <c r="H151" t="n">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="I151" t="n">
-        <v>120246</v>
+        <v>119934</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1265046</v>
+        <v>1264151</v>
       </c>
       <c r="E152" t="n">
-        <v>1265046</v>
+        <v>1264151</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1337.13</v>
+        <v>1343.62</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23569859</v>
+        <v>23528298</v>
       </c>
       <c r="E153" t="n">
-        <v>27188854</v>
+        <v>27140911</v>
       </c>
       <c r="F153" t="n">
-        <v>349.2775296959578</v>
+        <v>278.6849185494057</v>
       </c>
       <c r="G153" t="n">
-        <v>364.1549051327762</v>
+        <v>496.2570068894366</v>
       </c>
       <c r="H153" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I153" t="n">
-        <v>743083</v>
+        <v>742133</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2439936</v>
+        <v>2439510</v>
       </c>
       <c r="E154" t="n">
-        <v>18359969</v>
+        <v>18356764</v>
       </c>
       <c r="F154" t="n">
-        <v>3879.044353453455</v>
+        <v>3866.052610526142</v>
       </c>
       <c r="G154" t="n">
-        <v>3245.226485953749</v>
+        <v>3742.827956425624</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>165824</v>
+        <v>165264</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20609585</v>
+        <v>20575838</v>
       </c>
       <c r="E155" t="n">
-        <v>82438341</v>
+        <v>82303353</v>
       </c>
       <c r="F155" t="n">
-        <v>7455.455720039579</v>
+        <v>9877.787022398836</v>
       </c>
       <c r="G155" t="n">
-        <v>24039.28406745557</v>
+        <v>23229.17976899519</v>
       </c>
       <c r="H155" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I155" t="n">
-        <v>4675566</v>
+        <v>5009210</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>311449720</v>
+        <v>312717282</v>
       </c>
       <c r="E156" t="n">
-        <v>311449720</v>
+        <v>312717282</v>
       </c>
       <c r="F156" t="n">
-        <v>383935.3053249195</v>
+        <v>373100.6775106387</v>
       </c>
       <c r="G156" t="n">
-        <v>392574.7783960945</v>
+        <v>328998.0473510482</v>
       </c>
       <c r="H156" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I156" t="n">
-        <v>13500817</v>
+        <v>13405082</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12874939</v>
+        <v>12856646</v>
       </c>
       <c r="E157" t="n">
-        <v>40731654</v>
+        <v>40673781</v>
       </c>
       <c r="F157" t="n">
-        <v>8898.68856300225</v>
+        <v>9521.552659444065</v>
       </c>
       <c r="G157" t="n">
-        <v>16608.84485382468</v>
+        <v>14347.33088285451</v>
       </c>
       <c r="H157" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I157" t="n">
-        <v>1379471</v>
+        <v>1337376</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1084794</v>
+        <v>1084835</v>
       </c>
       <c r="E158" t="n">
-        <v>2470725</v>
+        <v>2470819</v>
       </c>
       <c r="F158" t="n">
-        <v>9.990799797589839</v>
+        <v>9.989648584384993</v>
       </c>
       <c r="G158" t="n">
-        <v>98.28292725255125</v>
+        <v>98.2716023730665</v>
       </c>
       <c r="H158" t="n">
         <v>3.59</v>
       </c>
       <c r="I158" t="n">
-        <v>4701.47</v>
+        <v>4639.86</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17618906</v>
+        <v>17741094</v>
       </c>
       <c r="E159" t="n">
-        <v>17618906</v>
+        <v>17741094</v>
       </c>
       <c r="F159" t="n">
-        <v>14214.00908112908</v>
+        <v>13183.81688362012</v>
       </c>
       <c r="G159" t="n">
-        <v>19115.58185807931</v>
+        <v>15079.81531693821</v>
       </c>
       <c r="H159" t="n">
         <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>2775849</v>
+        <v>2597505</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4852428</v>
+        <v>4850099</v>
       </c>
       <c r="E160" t="n">
-        <v>8933839</v>
+        <v>8929550</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113607</v>
+        <v>113735</v>
       </c>
       <c r="E161" t="n">
-        <v>137503</v>
+        <v>137658</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4.345740504316232</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>13.11920486186114</v>
       </c>
       <c r="H161" t="n">
-        <v>5.64</v>
+        <v>3.36</v>
       </c>
       <c r="I161" t="n">
-        <v>3276.54</v>
+        <v>3279.99</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19902726</v>
+        <v>19908191</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>9.59</v>
+        <v>9.43</v>
       </c>
       <c r="I162" t="n">
-        <v>1880.65</v>
+        <v>1880.83</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>436787</v>
+        <v>437831</v>
       </c>
       <c r="E163" t="n">
-        <v>550188</v>
+        <v>551504</v>
       </c>
       <c r="F163" t="n">
-        <v>163.3329289097507</v>
+        <v>141.9520254043593</v>
       </c>
       <c r="G163" t="n">
-        <v>194.1823967027414</v>
+        <v>161.2851931664782</v>
       </c>
       <c r="H163" t="n">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="I163" t="n">
-        <v>180332</v>
+        <v>180568</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>98542</v>
+        <v>98495</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>5.54</v>
       </c>
       <c r="I164" t="n">
-        <v>3829.41</v>
+        <v>3830.08</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12655819</v>
+        <v>12755552</v>
       </c>
       <c r="E165" t="n">
-        <v>19265010</v>
+        <v>19416826</v>
       </c>
       <c r="F165" t="n">
-        <v>645.1480614116157</v>
+        <v>843.5510624566253</v>
       </c>
       <c r="G165" t="n">
-        <v>1389.42042799178</v>
+        <v>947.4811121690159</v>
       </c>
       <c r="H165" t="n">
         <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>717325</v>
+        <v>748597</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>309776047</v>
+        <v>312592206</v>
       </c>
       <c r="E166" t="n">
-        <v>309776047</v>
+        <v>312592206</v>
       </c>
       <c r="F166" t="n">
-        <v>310067.806093231</v>
+        <v>311324.1847920039</v>
       </c>
       <c r="G166" t="n">
-        <v>345092.3055298704</v>
+        <v>350726.915585089</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>50333343</v>
+        <v>50143387</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10268261</v>
+        <v>10272202</v>
       </c>
       <c r="E167" t="n">
-        <v>29153306</v>
+        <v>29164494</v>
       </c>
       <c r="F167" t="n">
-        <v>105.2063193623212</v>
+        <v>274.4989240754357</v>
       </c>
       <c r="G167" t="n">
-        <v>1094.669493408646</v>
+        <v>879.679198183875</v>
       </c>
       <c r="H167" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="I167" t="n">
-        <v>130083</v>
+        <v>124262</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11564723</v>
+        <v>11565397</v>
       </c>
       <c r="F168" t="n">
-        <v>211.1457914717928</v>
+        <v>195.9668369768111</v>
       </c>
       <c r="G168" t="n">
-        <v>695.5159567904368</v>
+        <v>891.1635532038567</v>
       </c>
       <c r="H168" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I168" t="n">
-        <v>98027</v>
+        <v>98006</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4151127</v>
+        <v>4161790</v>
       </c>
       <c r="E169" t="n">
-        <v>28364358</v>
+        <v>28437219</v>
       </c>
       <c r="F169" t="n">
-        <v>342.7801294956499</v>
+        <v>2179.593482677763</v>
       </c>
       <c r="G169" t="n">
-        <v>1541.466367817494</v>
+        <v>2346.250178191994</v>
       </c>
       <c r="H169" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="I169" t="n">
-        <v>2621514</v>
+        <v>2625818</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2814237</v>
+        <v>2815329</v>
       </c>
       <c r="E170" t="n">
-        <v>4173409</v>
+        <v>4174624</v>
       </c>
       <c r="F170" t="n">
-        <v>2529.056297683872</v>
+        <v>2712.003997024833</v>
       </c>
       <c r="G170" t="n">
-        <v>1852.869582281736</v>
+        <v>2359.99828207043</v>
       </c>
       <c r="H170" t="n">
         <v>0.71</v>
       </c>
       <c r="I170" t="n">
-        <v>211344</v>
+        <v>209934</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>88579240</v>
+        <v>89247462</v>
       </c>
       <c r="E171" t="n">
-        <v>510431787</v>
+        <v>514282371</v>
       </c>
       <c r="F171" t="n">
-        <v>366335.6873149463</v>
+        <v>366476.3040070285</v>
       </c>
       <c r="G171" t="n">
-        <v>259910.1271774245</v>
+        <v>245623.1187212055</v>
       </c>
       <c r="H171" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="I171" t="n">
-        <v>16626987</v>
+        <v>16327058</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13809824</v>
+        <v>13766948</v>
       </c>
       <c r="E172" t="n">
-        <v>13809824</v>
+        <v>13766948</v>
       </c>
       <c r="F172" t="n">
-        <v>3232.229074494713</v>
+        <v>4081.865253753789</v>
       </c>
       <c r="G172" t="n">
-        <v>3867.264655235499</v>
+        <v>4045.554217001838</v>
       </c>
       <c r="H172" t="n">
         <v>1.44</v>
       </c>
       <c r="I172" t="n">
-        <v>597164</v>
+        <v>603503</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6094584</v>
+        <v>6091498</v>
       </c>
       <c r="E173" t="n">
-        <v>17312965</v>
+        <v>17304196</v>
       </c>
       <c r="F173" t="n">
-        <v>527.9696492435951</v>
+        <v>408.8405807674655</v>
       </c>
       <c r="G173" t="n">
-        <v>8410.48702604012</v>
+        <v>8993.349295214401</v>
       </c>
       <c r="H173" t="n">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I173" t="n">
-        <v>218981</v>
+        <v>216345</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19205002</v>
+        <v>18397307</v>
       </c>
       <c r="E174" t="n">
-        <v>19205002</v>
+        <v>18397307</v>
       </c>
       <c r="F174" t="n">
-        <v>9.633775017682135</v>
+        <v>1.039416750550943</v>
       </c>
       <c r="G174" t="n">
-        <v>16.41789958675665</v>
+        <v>481.6993596603657</v>
       </c>
       <c r="H174" t="n">
-        <v>3.04</v>
+        <v>1.55</v>
       </c>
       <c r="I174" t="n">
-        <v>121868</v>
+        <v>118212</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1319588</v>
+        <v>1338089</v>
       </c>
       <c r="F175" t="n">
-        <v>115.9569669978946</v>
+        <v>116.0596534573066</v>
       </c>
       <c r="G175" t="n">
-        <v>763.5905884663201</v>
+        <v>227.7081141306898</v>
       </c>
       <c r="H175" t="n">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="I175" t="n">
-        <v>31274</v>
+        <v>32916</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>126627</v>
+        <v>127194</v>
       </c>
       <c r="E176" t="n">
-        <v>275666</v>
+        <v>276898</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>46254</v>
+        <v>46776</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>3057199</v>
+        <v>2838056</v>
       </c>
       <c r="F177" t="n">
-        <v>681.9059689026566</v>
+        <v>89.67041675337043</v>
       </c>
       <c r="G177" t="n">
-        <v>402.3498719511859</v>
+        <v>408.4733988586911</v>
       </c>
       <c r="H177" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="I177" t="n">
-        <v>418767</v>
+        <v>416544</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248411445</v>
+        <v>248643289</v>
       </c>
       <c r="E178" t="n">
-        <v>248413913</v>
+        <v>248645759</v>
       </c>
       <c r="F178" t="n">
-        <v>45972.81669334515</v>
+        <v>43275.81418178187</v>
       </c>
       <c r="G178" t="n">
-        <v>45662.39503633801</v>
+        <v>41595.60558605742</v>
       </c>
       <c r="H178" t="n">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="I178" t="n">
-        <v>2678599</v>
+        <v>2665151</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9296328</v>
+        <v>9290934</v>
       </c>
       <c r="E179" t="n">
-        <v>9296328</v>
+        <v>9290934</v>
       </c>
       <c r="F179" t="n">
-        <v>1182.008201437005</v>
+        <v>1195.390450200568</v>
       </c>
       <c r="G179" t="n">
-        <v>430.3931305632725</v>
+        <v>430.3435448167057</v>
       </c>
       <c r="H179" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I179" t="n">
-        <v>2090134</v>
+        <v>2093064</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>183297</v>
+        <v>184185</v>
       </c>
       <c r="E180" t="n">
-        <v>1415418</v>
+        <v>1422276</v>
       </c>
       <c r="F180" t="n">
-        <v>74.2530694755542</v>
+        <v>18.20995281304395</v>
       </c>
       <c r="G180" t="n">
-        <v>497.3665104316609</v>
+        <v>328.6775715006</v>
       </c>
       <c r="H180" t="n">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="I180" t="n">
-        <v>135346</v>
+        <v>126695</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30293298</v>
+        <v>30263823</v>
       </c>
       <c r="E181" t="n">
-        <v>135635520</v>
+        <v>135503551</v>
       </c>
       <c r="F181" t="n">
-        <v>52029.57487025098</v>
+        <v>49058.09955115013</v>
       </c>
       <c r="G181" t="n">
-        <v>57869.87483064472</v>
+        <v>59093.06651971764</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>8393332</v>
+        <v>8471123</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1496284</v>
+        <v>1487045</v>
       </c>
       <c r="F182" t="n">
-        <v>89.09021967237084</v>
+        <v>75.6641940627283</v>
       </c>
       <c r="G182" t="n">
-        <v>389.4504973005877</v>
+        <v>981.0606215350299</v>
       </c>
       <c r="H182" t="n">
-        <v>1.17</v>
+        <v>0.05</v>
       </c>
       <c r="I182" t="n">
-        <v>41270</v>
+        <v>25249</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3006541</v>
+        <v>3025147</v>
       </c>
       <c r="E183" t="n">
-        <v>3006541</v>
+        <v>3025147</v>
       </c>
       <c r="F183" t="n">
-        <v>674.5438589269075</v>
+        <v>198.5729881820507</v>
       </c>
       <c r="G183" t="n">
-        <v>84.15509836433112</v>
+        <v>285.5379596619157</v>
       </c>
       <c r="H183" t="n">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="I183" t="n">
-        <v>438393</v>
+        <v>440127</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560206</v>
+        <v>559799</v>
       </c>
       <c r="E184" t="n">
-        <v>560206</v>
+        <v>559799</v>
       </c>
       <c r="F184" t="n">
-        <v>12.34022742878145</v>
+        <v>12.33880549729902</v>
       </c>
       <c r="G184" t="n">
-        <v>4.668187256905761</v>
+        <v>4.667649354143048</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>47557</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13677610</v>
+        <v>13801374</v>
       </c>
       <c r="E185" t="n">
-        <v>17413782</v>
+        <v>17571353</v>
       </c>
       <c r="F185" t="n">
-        <v>1658.409465501475</v>
+        <v>1170.874432374057</v>
       </c>
       <c r="G185" t="n">
-        <v>1167.114975902247</v>
+        <v>223.1723311920534</v>
       </c>
       <c r="H185" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="I185" t="n">
-        <v>817140</v>
+        <v>809250</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1818454</v>
+        <v>1813983</v>
       </c>
       <c r="E186" t="n">
-        <v>1818454</v>
+        <v>1813983</v>
       </c>
       <c r="F186" t="n">
-        <v>41.51257098105292</v>
+        <v>37.07925287937384</v>
       </c>
       <c r="G186" t="n">
-        <v>7.112803599277083</v>
+        <v>16.14290478314036</v>
       </c>
       <c r="H186" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="I186" t="n">
-        <v>4373.5</v>
+        <v>4396.16</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48272143</v>
+        <v>48732731</v>
       </c>
       <c r="E187" t="n">
-        <v>313031997</v>
+        <v>316018794</v>
       </c>
       <c r="F187" t="n">
-        <v>77566.11953073386</v>
+        <v>91218.36607821425</v>
       </c>
       <c r="G187" t="n">
-        <v>127344.6630310292</v>
+        <v>154491.5588315319</v>
       </c>
       <c r="H187" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I187" t="n">
-        <v>16381149</v>
+        <v>16288727</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9145012</v>
+        <v>9122084</v>
       </c>
       <c r="F188" t="n">
-        <v>857.8882608903706</v>
+        <v>976.4880126940569</v>
       </c>
       <c r="G188" t="n">
-        <v>393.8520419611874</v>
+        <v>291.8640481493221</v>
       </c>
       <c r="H188" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="I188" t="n">
-        <v>300347</v>
+        <v>304303</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6955557</v>
+        <v>6976785</v>
       </c>
       <c r="E189" t="n">
-        <v>6965520</v>
+        <v>6986767</v>
       </c>
       <c r="F189" t="n">
-        <v>201.2768506885421</v>
+        <v>201.6110740748808</v>
       </c>
       <c r="G189" t="n">
-        <v>123.7689719893815</v>
+        <v>177.5075877705335</v>
       </c>
       <c r="H189" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="I189" t="n">
-        <v>605083</v>
+        <v>606983</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4795095</v>
+        <v>4788757</v>
       </c>
       <c r="F190" t="n">
-        <v>1911.483140734131</v>
+        <v>1880.526211407479</v>
       </c>
       <c r="G190" t="n">
-        <v>2247.364563815297</v>
+        <v>2555.597121744291</v>
       </c>
       <c r="H190" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="I190" t="n">
-        <v>199906</v>
+        <v>182082</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>94460071</v>
+        <v>98174958</v>
       </c>
       <c r="E191" t="n">
-        <v>95476869</v>
+        <v>99231745</v>
       </c>
       <c r="F191" t="n">
-        <v>26950.86042699966</v>
+        <v>45562.94942131696</v>
       </c>
       <c r="G191" t="n">
-        <v>28017.80131297699</v>
+        <v>30218.47836567148</v>
       </c>
       <c r="H191" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I191" t="n">
-        <v>29912396</v>
+        <v>31701247</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>228442721</v>
+        <v>231650769</v>
       </c>
       <c r="E192" t="n">
-        <v>228442721</v>
+        <v>231650769</v>
       </c>
       <c r="F192" t="n">
-        <v>91829.89433674495</v>
+        <v>108538.8132353382</v>
       </c>
       <c r="G192" t="n">
-        <v>62117.58167539365</v>
+        <v>73971.48601434217</v>
       </c>
       <c r="H192" t="n">
         <v>0.17</v>
       </c>
       <c r="I192" t="n">
-        <v>44153683</v>
+        <v>44274203</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>23759669</v>
+        <v>24081487</v>
       </c>
       <c r="E193" t="n">
-        <v>142158874</v>
+        <v>144084378</v>
       </c>
       <c r="F193" t="n">
-        <v>100146.0567479183</v>
+        <v>115344.99969723</v>
       </c>
       <c r="G193" t="n">
-        <v>112166.2620807559</v>
+        <v>106569.3568010682</v>
       </c>
       <c r="H193" t="n">
         <v>0.14</v>
       </c>
       <c r="I193" t="n">
-        <v>11740673</v>
+        <v>11538545</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13617043</v>
+        <v>13701716</v>
       </c>
       <c r="E194" t="n">
-        <v>41785927</v>
+        <v>42045758</v>
       </c>
       <c r="F194" t="n">
-        <v>1154.799937516858</v>
+        <v>989.0209709394277</v>
       </c>
       <c r="G194" t="n">
-        <v>709.0311459127604</v>
+        <v>812.5237211609069</v>
       </c>
       <c r="H194" t="n">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="I194" t="n">
-        <v>2569484</v>
+        <v>2572941</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54828513</v>
+        <v>55139118</v>
       </c>
       <c r="E195" t="n">
-        <v>94700761</v>
+        <v>95237244</v>
       </c>
       <c r="F195" t="n">
-        <v>8428.950868270433</v>
+        <v>8671.646260758846</v>
       </c>
       <c r="G195" t="n">
-        <v>14657.63923853826</v>
+        <v>14516.06488539354</v>
       </c>
       <c r="H195" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I195" t="n">
-        <v>2365814</v>
+        <v>2411294</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4230007</v>
+        <v>4209893</v>
       </c>
       <c r="E196" t="n">
-        <v>4230007</v>
+        <v>4209893</v>
       </c>
       <c r="F196" t="n">
-        <v>119.5225033494691</v>
+        <v>1.064190311847609</v>
       </c>
       <c r="G196" t="n">
-        <v>1.048248225673175</v>
+        <v>391.3987017654069</v>
       </c>
       <c r="H196" t="n">
-        <v>2.2</v>
+        <v>2.91</v>
       </c>
       <c r="I196" t="n">
-        <v>1553897</v>
+        <v>1573220</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>209203</v>
+        <v>211202</v>
       </c>
       <c r="F197" t="n">
-        <v>53.46343193630923</v>
+        <v>62.2228671764191</v>
       </c>
       <c r="G197" t="n">
-        <v>14.96817970895708</v>
+        <v>97.29656408809927</v>
       </c>
       <c r="H197" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="I197" t="n">
-        <v>50659</v>
+        <v>50925</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6694338</v>
+        <v>6685266</v>
       </c>
       <c r="E198" t="n">
-        <v>34440337</v>
+        <v>34393663</v>
       </c>
       <c r="F198" t="n">
-        <v>205.4853835601174</v>
+        <v>177.7239052547692</v>
       </c>
       <c r="G198" t="n">
-        <v>480.9756403977313</v>
+        <v>346.013478563112</v>
       </c>
       <c r="H198" t="n">
-        <v>0.95</v>
+        <v>1.41</v>
       </c>
       <c r="I198" t="n">
-        <v>923334</v>
+        <v>924245</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>176261256</v>
+        <v>175588534</v>
       </c>
       <c r="E199" t="n">
-        <v>205925191</v>
+        <v>205139253</v>
       </c>
       <c r="F199" t="n">
-        <v>19760.61618935743</v>
+        <v>17768.48425001503</v>
       </c>
       <c r="G199" t="n">
-        <v>22145.82126229062</v>
+        <v>34445.30322887455</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I199" t="n">
-        <v>4510676</v>
+        <v>4215975</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>303767</v>
+        <v>298021</v>
       </c>
       <c r="F200" t="n">
-        <v>56.33877843330406</v>
+        <v>35.80880204484936</v>
       </c>
       <c r="G200" t="n">
-        <v>249.0410391608867</v>
+        <v>152.1335130157674</v>
       </c>
       <c r="H200" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="I200" t="n">
-        <v>326129</v>
+        <v>219824</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7996735</v>
+        <v>7992351</v>
       </c>
       <c r="F201" t="n">
-        <v>895.7755176779954</v>
+        <v>896.5350388996862</v>
       </c>
       <c r="G201" t="n">
-        <v>843.5703924281618</v>
+        <v>843.3092124234314</v>
       </c>
       <c r="H201" t="n">
         <v>0.3</v>
       </c>
       <c r="I201" t="n">
-        <v>691924</v>
+        <v>680465</v>
       </c>
     </row>
     <row r="202">
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.52</v>
+        <v>651.5599999999999</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34699784</v>
+        <v>34864997</v>
       </c>
       <c r="E203" t="n">
-        <v>173167920</v>
+        <v>173992406</v>
       </c>
       <c r="F203" t="n">
-        <v>99395.59880825202</v>
+        <v>114060.4823651532</v>
       </c>
       <c r="G203" t="n">
-        <v>97813.62216342673</v>
+        <v>98933.0345807605</v>
       </c>
       <c r="H203" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I203" t="n">
-        <v>10166593</v>
+        <v>10182853</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1967406</v>
+        <v>1981176</v>
       </c>
       <c r="E204" t="n">
-        <v>1967406</v>
+        <v>1981176</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>11.09</v>
+        <v>10.88</v>
       </c>
       <c r="I204" t="n">
-        <v>13370</v>
+        <v>13617.49</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>169495</v>
+        <v>169572</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>20.5406717464083</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>307.4236668872254</v>
       </c>
       <c r="H205" t="n">
-        <v>5.08</v>
+        <v>1.74</v>
       </c>
       <c r="I205" t="n">
-        <v>12891.87</v>
+        <v>10640.79</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2777.11</v>
+        <v>2777.59</v>
       </c>
       <c r="E206" t="n">
-        <v>33193</v>
+        <v>33198</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7980.07</v>
+        <v>7981.46</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>313791933</v>
+        <v>315542417</v>
       </c>
       <c r="E208" t="n">
-        <v>580586635</v>
+        <v>583825430</v>
       </c>
       <c r="F208" t="n">
-        <v>146724.4803450548</v>
+        <v>152443.9560773186</v>
       </c>
       <c r="G208" t="n">
-        <v>164715.4162531966</v>
+        <v>166922.0581760864</v>
       </c>
       <c r="H208" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>13303509</v>
+        <v>13326381</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>69717420</v>
+        <v>70718731</v>
       </c>
       <c r="E209" t="n">
-        <v>665109896</v>
+        <v>674651960</v>
       </c>
       <c r="F209" t="n">
-        <v>258966.021860681</v>
+        <v>346860.9364297967</v>
       </c>
       <c r="G209" t="n">
-        <v>292803.0969255765</v>
+        <v>333091.6875151505</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21528974</v>
+        <v>21442956</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2441320</v>
+        <v>2506232</v>
       </c>
       <c r="F210" t="n">
-        <v>2.782128870568043</v>
+        <v>3.408717700060814</v>
       </c>
       <c r="G210" t="n">
-        <v>1500.979677051336</v>
+        <v>126.7809259427854</v>
       </c>
       <c r="H210" t="n">
-        <v>3.56</v>
+        <v>2.95</v>
       </c>
       <c r="I210" t="n">
-        <v>49627</v>
+        <v>50662</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81029</v>
+        <v>81016</v>
       </c>
       <c r="E211" t="n">
-        <v>673615</v>
+        <v>673499</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>178.02</v>
+        <v>174.29</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1893641</v>
+        <v>1889790</v>
       </c>
       <c r="E212" t="n">
-        <v>5407995</v>
+        <v>5396996</v>
       </c>
       <c r="F212" t="n">
-        <v>85.42970966077372</v>
+        <v>85.33145561205704</v>
       </c>
       <c r="G212" t="n">
-        <v>351.0765675836294</v>
+        <v>340.8200340306799</v>
       </c>
       <c r="H212" t="n">
         <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>70952</v>
+        <v>69720</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10112258</v>
+        <v>10551272</v>
       </c>
       <c r="E213" t="n">
-        <v>30005369</v>
+        <v>31308023</v>
       </c>
       <c r="F213" t="n">
-        <v>2999.622316009702</v>
+        <v>2119.132942606592</v>
       </c>
       <c r="G213" t="n">
-        <v>4352.709010407597</v>
+        <v>2604.119955634329</v>
       </c>
       <c r="H213" t="n">
-        <v>0.08</v>
+        <v>0.55</v>
       </c>
       <c r="I213" t="n">
-        <v>6334469</v>
+        <v>6355724</v>
       </c>
     </row>
     <row r="214">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>12.7</v>
+        <v>11.36</v>
       </c>
       <c r="I214" t="n">
         <v>973.62</v>
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1997059</v>
+        <v>2009365</v>
       </c>
       <c r="E215" t="n">
-        <v>5794110</v>
+        <v>5829815</v>
       </c>
       <c r="F215" t="n">
-        <v>55.4149876336638</v>
+        <v>55.40860231248805</v>
       </c>
       <c r="G215" t="n">
-        <v>601.9078122264367</v>
+        <v>619.8588673265292</v>
       </c>
       <c r="H215" t="n">
         <v>1.11</v>
       </c>
       <c r="I215" t="n">
-        <v>50127</v>
+        <v>47479</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2166824</v>
+        <v>2147187</v>
       </c>
       <c r="E216" t="n">
-        <v>19112822</v>
+        <v>18939617</v>
       </c>
       <c r="F216" t="n">
-        <v>250.6695462770509</v>
+        <v>216.2203669189166</v>
       </c>
       <c r="G216" t="n">
-        <v>122.907924335339</v>
+        <v>39.59548949965912</v>
       </c>
       <c r="H216" t="n">
-        <v>2.02</v>
+        <v>3.51</v>
       </c>
       <c r="I216" t="n">
-        <v>79934</v>
+        <v>79639</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44245232</v>
+        <v>44457319</v>
       </c>
       <c r="E217" t="n">
-        <v>44245232</v>
+        <v>44457319</v>
       </c>
       <c r="F217" t="n">
-        <v>43642.59484915944</v>
+        <v>39116.61220595058</v>
       </c>
       <c r="G217" t="n">
-        <v>24296.45159699546</v>
+        <v>30448.47037375639</v>
       </c>
       <c r="H217" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I217" t="n">
-        <v>7719375</v>
+        <v>7621965</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8423250</v>
+        <v>8426767</v>
       </c>
       <c r="E218" t="n">
-        <v>12001201</v>
+        <v>12006212</v>
       </c>
       <c r="F218" t="n">
-        <v>4366.881226183164</v>
+        <v>3912.382826773238</v>
       </c>
       <c r="G218" t="n">
-        <v>56.13541221427312</v>
+        <v>207.7482834102556</v>
       </c>
       <c r="H218" t="n">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="I218" t="n">
-        <v>438309</v>
+        <v>437605</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16227741</v>
+        <v>16316129</v>
       </c>
       <c r="F219" t="n">
-        <v>2.120099132350691</v>
+        <v>2.119854838984175</v>
       </c>
       <c r="G219" t="n">
-        <v>1010.1628493502</v>
+        <v>1025.174573868088</v>
       </c>
       <c r="H219" t="n">
-        <v>1.89</v>
+        <v>1.06</v>
       </c>
       <c r="I219" t="n">
-        <v>970479</v>
+        <v>976730</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>724369</v>
+        <v>724390</v>
       </c>
       <c r="F220" t="n">
-        <v>121.9304168526143</v>
+        <v>87.07761293972783</v>
       </c>
       <c r="G220" t="n">
-        <v>318.5720372478183</v>
+        <v>318.7317606893899</v>
       </c>
       <c r="H220" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="I220" t="n">
-        <v>255468</v>
+        <v>245500</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2846631</v>
+        <v>2843924</v>
       </c>
       <c r="E221" t="n">
-        <v>2849096</v>
+        <v>2846387</v>
       </c>
       <c r="F221" t="n">
-        <v>97.9921062935189</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>59.14767507565249</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>2.48</v>
+        <v>4.63</v>
       </c>
       <c r="I221" t="n">
-        <v>94517</v>
+        <v>109532</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1255405</v>
+        <v>1257837</v>
       </c>
       <c r="E222" t="n">
-        <v>3795934</v>
+        <v>3802671</v>
       </c>
       <c r="F222" t="n">
-        <v>1211.422564745424</v>
+        <v>1298.047656902143</v>
       </c>
       <c r="G222" t="n">
-        <v>505.6416065958019</v>
+        <v>505.5833428625448</v>
       </c>
       <c r="H222" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>11193.69</v>
+        <v>11276.62</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>37941189</v>
+        <v>38179431</v>
       </c>
       <c r="E223" t="n">
-        <v>268996843</v>
+        <v>270685934</v>
       </c>
       <c r="F223" t="n">
-        <v>70051.43390773043</v>
+        <v>77877.6965178244</v>
       </c>
       <c r="G223" t="n">
-        <v>68388.55286108732</v>
+        <v>72570.18389075607</v>
       </c>
       <c r="H223" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I223" t="n">
-        <v>1465066</v>
+        <v>1475048</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>57575</v>
+        <v>58395</v>
       </c>
       <c r="E224" t="n">
-        <v>300403</v>
+        <v>304683</v>
       </c>
       <c r="F224" t="n">
-        <v>608.5820653519394</v>
+        <v>614.6631468612314</v>
       </c>
       <c r="G224" t="n">
-        <v>219.1987228756048</v>
+        <v>62.55478877269807</v>
       </c>
       <c r="H224" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="I224" t="n">
-        <v>262564</v>
+        <v>270866</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1270544</v>
+        <v>1270000</v>
       </c>
       <c r="E225" t="n">
-        <v>7878673</v>
+        <v>7875300</v>
       </c>
       <c r="F225" t="n">
-        <v>1600.344428393707</v>
+        <v>1719.065044766417</v>
       </c>
       <c r="G225" t="n">
-        <v>1517.842315264639</v>
+        <v>1587.041690633685</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>731828</v>
+        <v>743610</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>595971476</v>
+        <v>599602423</v>
       </c>
       <c r="E226" t="n">
-        <v>2308109597</v>
+        <v>2322171719</v>
       </c>
       <c r="F226" t="n">
-        <v>262539.3678176692</v>
+        <v>299110.388426229</v>
       </c>
       <c r="G226" t="n">
-        <v>238713.4449982962</v>
+        <v>303830.6203865577</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32951550</v>
+        <v>32894447</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20478130</v>
+        <v>20438946</v>
       </c>
       <c r="F227" t="n">
-        <v>1219.869030742782</v>
+        <v>944.0725964922883</v>
       </c>
       <c r="G227" t="n">
-        <v>875.1342291316913</v>
+        <v>945.3478247785989</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I227" t="n">
-        <v>16727371</v>
+        <v>16656016</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>821362</v>
+        <v>821815</v>
       </c>
       <c r="F228" t="n">
-        <v>21.34886103882744</v>
+        <v>205.8547174071783</v>
       </c>
       <c r="G228" t="n">
-        <v>15.26703388820808</v>
+        <v>15.26527470862616</v>
       </c>
       <c r="H228" t="n">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="I228" t="n">
-        <v>234777</v>
+        <v>232181</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5849823</v>
+        <v>5837056</v>
       </c>
       <c r="E229" t="n">
-        <v>26190387</v>
+        <v>26133228</v>
       </c>
       <c r="F229" t="n">
-        <v>1533.11816526644</v>
+        <v>2205.943185615628</v>
       </c>
       <c r="G229" t="n">
-        <v>1819.360714604672</v>
+        <v>1894.416981463573</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>137991</v>
+        <v>148017</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6669800</v>
+        <v>6675934</v>
       </c>
       <c r="E230" t="n">
-        <v>12769873</v>
+        <v>12781617</v>
       </c>
       <c r="F230" t="n">
-        <v>213.9565757221872</v>
+        <v>215.3329055189041</v>
       </c>
       <c r="G230" t="n">
-        <v>1730.806616512894</v>
+        <v>1722.504792850425</v>
       </c>
       <c r="H230" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="I230" t="n">
-        <v>164304</v>
+        <v>163507</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3279059</v>
+        <v>3277797</v>
       </c>
       <c r="E231" t="n">
-        <v>21562326</v>
+        <v>21554028</v>
       </c>
       <c r="F231" t="n">
-        <v>2323.992255944837</v>
+        <v>2277.103696912025</v>
       </c>
       <c r="G231" t="n">
-        <v>477.7654152234165</v>
+        <v>406.4515013335803</v>
       </c>
       <c r="H231" t="n">
         <v>0.22</v>
       </c>
       <c r="I231" t="n">
-        <v>1307293</v>
+        <v>1469008</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>119404138</v>
+        <v>121071572</v>
       </c>
       <c r="E232" t="n">
-        <v>1038145591</v>
+        <v>1052642906</v>
       </c>
       <c r="F232" t="n">
-        <v>217914.6843887421</v>
+        <v>217414.1140773203</v>
       </c>
       <c r="G232" t="n">
-        <v>191776.6729903672</v>
+        <v>186152.0416356252</v>
       </c>
       <c r="H232" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>8791297</v>
+        <v>9076363</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>1.378763813982192</v>
+        <v>1.378604966109861</v>
       </c>
       <c r="G233" t="n">
-        <v>49.01130410507999</v>
+        <v>49.0056574951978</v>
       </c>
       <c r="H233" t="n">
         <v>3.83</v>
       </c>
       <c r="I233" t="n">
-        <v>1147.24</v>
+        <v>1146.98</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>112740466</v>
+        <v>112242137</v>
       </c>
       <c r="E234" t="n">
-        <v>171988223</v>
+        <v>171228011</v>
       </c>
       <c r="F234" t="n">
-        <v>84552.15848543071</v>
+        <v>80930.21071255354</v>
       </c>
       <c r="G234" t="n">
-        <v>76121.41261335599</v>
+        <v>69564.538461665</v>
       </c>
       <c r="H234" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I234" t="n">
-        <v>9049520</v>
+        <v>9239463</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16266767</v>
+        <v>16315576</v>
       </c>
       <c r="E235" t="n">
-        <v>22316596</v>
+        <v>22383557</v>
       </c>
       <c r="F235" t="n">
-        <v>964.9086344422997</v>
+        <v>683.8143455860553</v>
       </c>
       <c r="G235" t="n">
-        <v>2251.507599350347</v>
+        <v>2438.534833184639</v>
       </c>
       <c r="H235" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="I235" t="n">
-        <v>460020</v>
+        <v>460182</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>116610355</v>
+        <v>117864503</v>
       </c>
       <c r="E236" t="n">
-        <v>447336092</v>
+        <v>452147204</v>
       </c>
       <c r="F236" t="n">
-        <v>496574.6480145188</v>
+        <v>481124.8874029717</v>
       </c>
       <c r="G236" t="n">
-        <v>440038.5276536029</v>
+        <v>463224.1392324442</v>
       </c>
       <c r="H236" t="n">
         <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>31044727</v>
+        <v>30984308</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>755782</v>
+        <v>760314</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76393949526651</v>
+        <v>69.75590196683572</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55490151396075</v>
+        <v>20.55253337640278</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>53541</v>
+        <v>53566</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>849809</v>
+        <v>849957</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>23.25870289355689</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>752.9300476210822</v>
       </c>
       <c r="H238" t="n">
-        <v>4.11</v>
+        <v>3.32</v>
       </c>
       <c r="I238" t="n">
-        <v>102053</v>
+        <v>110235</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3175939</v>
+        <v>3175286</v>
       </c>
       <c r="E239" t="n">
-        <v>30092494</v>
+        <v>30086302</v>
       </c>
       <c r="F239" t="n">
-        <v>921.67420205575</v>
+        <v>922.5238400341169</v>
       </c>
       <c r="G239" t="n">
-        <v>1645.986049204182</v>
+        <v>1785.342159250272</v>
       </c>
       <c r="H239" t="n">
         <v>0.37</v>
       </c>
       <c r="I239" t="n">
-        <v>214938</v>
+        <v>204165</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>729756</v>
+        <v>731850</v>
       </c>
       <c r="E240" t="n">
-        <v>780105</v>
+        <v>782344</v>
       </c>
       <c r="F240" t="n">
-        <v>19.71913885265473</v>
+        <v>26.31405611172844</v>
       </c>
       <c r="G240" t="n">
-        <v>1570.00588842545</v>
+        <v>1569.825007485296</v>
       </c>
       <c r="H240" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="I240" t="n">
-        <v>68421</v>
+        <v>71817</v>
       </c>
     </row>
     <row r="241">
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>373970</v>
+        <v>376301</v>
       </c>
       <c r="F241" t="n">
-        <v>7.937703323557706</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>104.5452611482462</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.61</v>
+        <v>5.64</v>
       </c>
       <c r="I241" t="n">
-        <v>512.23</v>
+        <v>528.01</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>133701</v>
+        <v>133538</v>
       </c>
       <c r="F242" t="n">
-        <v>247.6475306617277</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>8.117346569413606</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>3.62</v>
+        <v>4.35</v>
       </c>
       <c r="I242" t="n">
-        <v>92660</v>
+        <v>92304</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570309</v>
+        <v>570380</v>
       </c>
       <c r="F243" t="n">
-        <v>577.0654879436518</v>
+        <v>610.1572126348615</v>
       </c>
       <c r="G243" t="n">
-        <v>31.70731125778818</v>
+        <v>392.1840819752467</v>
       </c>
       <c r="H243" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="I243" t="n">
-        <v>936.3</v>
+        <v>934.53</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5834767</v>
+        <v>5834486</v>
       </c>
       <c r="E244" t="n">
-        <v>36465621</v>
+        <v>36463865</v>
       </c>
       <c r="F244" t="n">
-        <v>655.5731055946043</v>
+        <v>679.5510287815109</v>
       </c>
       <c r="G244" t="n">
-        <v>579.7532400403638</v>
+        <v>585.5499738481125</v>
       </c>
       <c r="H244" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I244" t="n">
-        <v>393333</v>
+        <v>397271</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5117553</v>
+        <v>5120179</v>
       </c>
       <c r="E245" t="n">
-        <v>19056719</v>
+        <v>19066498</v>
       </c>
       <c r="F245" t="n">
-        <v>6844.747876429697</v>
+        <v>6768.891822435721</v>
       </c>
       <c r="G245" t="n">
-        <v>10914.12827633032</v>
+        <v>10838.19641095786</v>
       </c>
       <c r="H245" t="n">
         <v>0.52</v>
       </c>
       <c r="I245" t="n">
-        <v>63139</v>
+        <v>62126</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3737550</v>
+        <v>3798344</v>
       </c>
       <c r="F246" t="n">
-        <v>176.9773728069464</v>
+        <v>48.0321336151413</v>
       </c>
       <c r="G246" t="n">
-        <v>2342.126668771829</v>
+        <v>2312.111679263805</v>
       </c>
       <c r="H246" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="I246" t="n">
-        <v>6185.68</v>
+        <v>5924.8</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31613706</v>
+        <v>31696728</v>
       </c>
       <c r="E247" t="n">
-        <v>113314910</v>
+        <v>113612493</v>
       </c>
       <c r="F247" t="n">
-        <v>29.74321711766417</v>
+        <v>29.73978988611173</v>
       </c>
       <c r="G247" t="n">
-        <v>2112.430966212602</v>
+        <v>2112.192077950637</v>
       </c>
       <c r="H247" t="n">
         <v>0.83</v>
       </c>
       <c r="I247" t="n">
-        <v>94454</v>
+        <v>93316</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1521848</v>
+        <v>1519595</v>
       </c>
       <c r="F248" t="n">
-        <v>37.50311341900484</v>
+        <v>31.63432570120035</v>
       </c>
       <c r="G248" t="n">
-        <v>454.6782277317839</v>
+        <v>454.625836372701</v>
       </c>
       <c r="H248" t="n">
-        <v>2.56</v>
+        <v>1.94</v>
       </c>
       <c r="I248" t="n">
-        <v>605346</v>
+        <v>603282</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2253999</v>
+        <v>2219691</v>
       </c>
       <c r="E249" t="n">
-        <v>17337118</v>
+        <v>17073234</v>
       </c>
       <c r="F249" t="n">
-        <v>5871.339917135255</v>
+        <v>327.1083887631395</v>
       </c>
       <c r="G249" t="n">
-        <v>5528.187355539098</v>
+        <v>1382.942994143403</v>
       </c>
       <c r="H249" t="n">
-        <v>0.34</v>
+        <v>0.76</v>
       </c>
       <c r="I249" t="n">
-        <v>176990</v>
+        <v>176840</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103792</v>
+        <v>103709</v>
       </c>
       <c r="E250" t="n">
-        <v>824423</v>
+        <v>823761</v>
       </c>
       <c r="F250" t="n">
-        <v>161.1626086154901</v>
+        <v>158.2831899911296</v>
       </c>
       <c r="G250" t="n">
-        <v>359.603981157158</v>
+        <v>359.5625510538226</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1379.54</v>
+        <v>1397.68</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87603388</v>
+        <v>87981805</v>
       </c>
       <c r="E251" t="n">
-        <v>323836937</v>
+        <v>325234312</v>
       </c>
       <c r="F251" t="n">
-        <v>6105.402128728044</v>
+        <v>5082.924636505647</v>
       </c>
       <c r="G251" t="n">
-        <v>1521.675199030812</v>
+        <v>1790.967327435921</v>
       </c>
       <c r="H251" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I251" t="n">
-        <v>283233</v>
+        <v>282193</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2322807</v>
+        <v>2319238</v>
       </c>
       <c r="E252" t="n">
-        <v>9320343</v>
+        <v>9306021</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.4</v>
+        <v>5.83</v>
       </c>
       <c r="I252" t="n">
-        <v>43038</v>
+        <v>40911</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>619113</v>
+        <v>592433</v>
       </c>
       <c r="F253" t="n">
-        <v>4.932515454882271</v>
+        <v>3.896531292552814</v>
       </c>
       <c r="G253" t="n">
-        <v>4.303416200800592</v>
+        <v>164.6837692272</v>
       </c>
       <c r="H253" t="n">
-        <v>3.24</v>
+        <v>2.79</v>
       </c>
       <c r="I253" t="n">
-        <v>2555.26</v>
+        <v>2695.38</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38996</v>
+        <v>39596</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>6.08</v>
+        <v>5.84</v>
       </c>
       <c r="I254" t="n">
-        <v>4259.52</v>
+        <v>4261.8</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>714965047</v>
+        <v>713294963</v>
       </c>
       <c r="E255" t="n">
-        <v>1102539228</v>
+        <v>1099963811</v>
       </c>
       <c r="F255" t="n">
-        <v>210900.1949377206</v>
+        <v>209406.8611226564</v>
       </c>
       <c r="G255" t="n">
-        <v>149962.0264338486</v>
+        <v>204720.9275027174</v>
       </c>
       <c r="H255" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I255" t="n">
-        <v>223718786</v>
+        <v>186936875</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5812200</v>
+        <v>5808518</v>
       </c>
       <c r="E256" t="n">
-        <v>5812200</v>
+        <v>5808518</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.27</v>
+        <v>8.6</v>
       </c>
       <c r="I256" t="n">
-        <v>636.9400000000001</v>
+        <v>631.28</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39676031</v>
+        <v>39541152</v>
       </c>
       <c r="E257" t="n">
-        <v>189229695</v>
+        <v>188579881</v>
       </c>
       <c r="F257" t="n">
-        <v>398.6087120806398</v>
+        <v>1102.71522182748</v>
       </c>
       <c r="G257" t="n">
-        <v>189.9491772081262</v>
+        <v>287.9894046989031</v>
       </c>
       <c r="H257" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I257" t="n">
-        <v>419078</v>
+        <v>418579</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>590387</v>
+        <v>590400</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>10.27</v>
       </c>
       <c r="I258" t="n">
-        <v>452.93</v>
+        <v>450.68</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23652586</v>
+        <v>23634046</v>
       </c>
       <c r="E259" t="n">
-        <v>39420975</v>
+        <v>39390076</v>
       </c>
       <c r="F259" t="n">
-        <v>5806.908764643561</v>
+        <v>6689.774633559014</v>
       </c>
       <c r="G259" t="n">
-        <v>9534.358725148593</v>
+        <v>8244.106145732661</v>
       </c>
       <c r="H259" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="I259" t="n">
-        <v>682878</v>
+        <v>694861</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108369</v>
+        <v>108431</v>
       </c>
       <c r="F260" t="n">
-        <v>118.0083390682698</v>
+        <v>105.170742609933</v>
       </c>
       <c r="G260" t="n">
-        <v>203.1650288857878</v>
+        <v>178.1197276234593</v>
       </c>
       <c r="H260" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I260" t="n">
-        <v>48848</v>
+        <v>48431</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>966009</v>
+        <v>968155</v>
       </c>
       <c r="E261" t="n">
-        <v>4125418</v>
+        <v>4134581</v>
       </c>
       <c r="F261" t="n">
-        <v>1937.084562313195</v>
+        <v>1976.013826335576</v>
       </c>
       <c r="G261" t="n">
-        <v>5398.326388957371</v>
+        <v>5466.277154452954</v>
       </c>
       <c r="H261" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I261" t="n">
-        <v>36283</v>
+        <v>36318</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3813123</v>
+        <v>3817411</v>
       </c>
       <c r="E262" t="n">
-        <v>8320185</v>
+        <v>8329542</v>
       </c>
       <c r="F262" t="n">
-        <v>1003.53068198948</v>
+        <v>1551.02232236886</v>
       </c>
       <c r="G262" t="n">
-        <v>2125.135921998599</v>
+        <v>2008.648866917339</v>
       </c>
       <c r="H262" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="I262" t="n">
-        <v>1280641</v>
+        <v>1308124</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>486501957</v>
+        <v>487493543</v>
       </c>
       <c r="E263" t="n">
-        <v>1693472824</v>
+        <v>1696924454</v>
       </c>
       <c r="F263" t="n">
-        <v>713597.0100534229</v>
+        <v>752799.7532453428</v>
       </c>
       <c r="G263" t="n">
-        <v>565417.4931348757</v>
+        <v>565359.4440643989</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I263" t="n">
-        <v>29748162</v>
+        <v>29329589</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5565739977</v>
+        <v>5735900188</v>
       </c>
       <c r="E264" t="n">
-        <v>5565739977</v>
+        <v>5735900188</v>
       </c>
       <c r="F264" t="n">
-        <v>4724.045141991191</v>
+        <v>4224.033215368348</v>
       </c>
       <c r="G264" t="n">
-        <v>2080.299036990346</v>
+        <v>2158.18468500455</v>
       </c>
       <c r="H264" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="I264" t="n">
-        <v>18021612</v>
+        <v>16848010</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24073026</v>
+        <v>24100427</v>
       </c>
       <c r="E265" t="n">
-        <v>24052115</v>
+        <v>24079493</v>
       </c>
       <c r="F265" t="n">
-        <v>215.5187729543784</v>
+        <v>268.2255649850371</v>
       </c>
       <c r="G265" t="n">
-        <v>32.78739946941987</v>
+        <v>96.65703842066675</v>
       </c>
       <c r="H265" t="n">
-        <v>0.73</v>
+        <v>1.32</v>
       </c>
       <c r="I265" t="n">
-        <v>91543</v>
+        <v>90014</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12200239</v>
+        <v>12204251</v>
       </c>
       <c r="E266" t="n">
-        <v>24683349</v>
+        <v>24688414</v>
       </c>
       <c r="F266" t="n">
-        <v>752.7992203278058</v>
+        <v>739.4151273648863</v>
       </c>
       <c r="G266" t="n">
-        <v>682.8152542857229</v>
+        <v>689.8580298194682</v>
       </c>
       <c r="H266" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>41649</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>151793</v>
+        <v>151596</v>
       </c>
       <c r="F267" t="n">
-        <v>184.6072932212878</v>
+        <v>184.5860214154291</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1519426414634</v>
+        <v>132.1367151256992</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>56362</v>
+        <v>57512</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47209</v>
+        <v>47198</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>30.9953863189826</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>73.75634519600891</v>
       </c>
       <c r="H268" t="n">
-        <v>5.32</v>
+        <v>3.91</v>
       </c>
       <c r="I268" t="n">
-        <v>71360</v>
+        <v>71448</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2616602</v>
+        <v>2623304</v>
       </c>
       <c r="E269" t="n">
-        <v>10466410</v>
+        <v>10493217</v>
       </c>
       <c r="F269" t="n">
-        <v>50740.73804560539</v>
+        <v>53570.2318243821</v>
       </c>
       <c r="G269" t="n">
-        <v>32726.79379406217</v>
+        <v>50531.00544272784</v>
       </c>
       <c r="H269" t="n">
-        <v>0.67</v>
+        <v>0.19</v>
       </c>
       <c r="I269" t="n">
-        <v>7005284</v>
+        <v>6962161</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>215295456</v>
+        <v>216305613</v>
       </c>
       <c r="E270" t="n">
-        <v>661952506</v>
+        <v>665058361</v>
       </c>
       <c r="F270" t="n">
-        <v>301819.9056978194</v>
+        <v>310996.0417203571</v>
       </c>
       <c r="G270" t="n">
-        <v>179330.1699319419</v>
+        <v>167293.9520030779</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11848595</v>
+        <v>11907659</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>151430810</v>
+        <v>151006692</v>
       </c>
       <c r="E271" t="n">
-        <v>395608790</v>
+        <v>394500795</v>
       </c>
       <c r="F271" t="n">
-        <v>62253.98765116381</v>
+        <v>68385.85236985383</v>
       </c>
       <c r="G271" t="n">
-        <v>59969.87088097278</v>
+        <v>56086.42342246741</v>
       </c>
       <c r="H271" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I271" t="n">
-        <v>7122665</v>
+        <v>7204727</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2444213</v>
+        <v>2441771</v>
       </c>
       <c r="E272" t="n">
-        <v>3354734</v>
+        <v>3351430</v>
       </c>
       <c r="F272" t="n">
-        <v>123.4423495512668</v>
+        <v>125.0496202804522</v>
       </c>
       <c r="G272" t="n">
-        <v>88.07842676313284</v>
+        <v>105.4603926639335</v>
       </c>
       <c r="H272" t="n">
         <v>0.86</v>
       </c>
       <c r="I272" t="n">
-        <v>1050224</v>
+        <v>1047706</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54611</v>
+        <v>54635</v>
       </c>
       <c r="F2" t="n">
-        <v>10.61919519991387</v>
+        <v>10.61890696006288</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2819035498035095</v>
+        <v>0.28189589801487</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1054.89</v>
+        <v>1055.16</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91237</v>
+        <v>91280</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49951344009953</v>
+        <v>22.49890272937434</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1798983553599</v>
+        <v>416.1686018654063</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1851.85</v>
+        <v>1850.01</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>602684776</v>
+        <v>605559370</v>
       </c>
       <c r="E4" t="n">
-        <v>1169483857</v>
+        <v>1175064799</v>
       </c>
       <c r="F4" t="n">
-        <v>43722.66925499766</v>
+        <v>38021.38264039721</v>
       </c>
       <c r="G4" t="n">
-        <v>47222.23561223888</v>
+        <v>54903.22991828746</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>22415296</v>
+        <v>19784841</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1305851</v>
+        <v>1305395</v>
       </c>
       <c r="E5" t="n">
-        <v>4221045</v>
+        <v>4219572</v>
       </c>
       <c r="F5" t="n">
-        <v>6136.926860577636</v>
+        <v>4810.613382773872</v>
       </c>
       <c r="G5" t="n">
-        <v>5355.193821218921</v>
+        <v>5142.562657330639</v>
       </c>
       <c r="H5" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="I5" t="n">
-        <v>109024</v>
+        <v>111481</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>142789924</v>
+        <v>144081045</v>
       </c>
       <c r="E6" t="n">
-        <v>158233551</v>
+        <v>159664315</v>
       </c>
       <c r="F6" t="n">
-        <v>236710.7720227982</v>
+        <v>202427.6173460048</v>
       </c>
       <c r="G6" t="n">
-        <v>274131.0367763347</v>
+        <v>407252.6202619873</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>35912485</v>
+        <v>36209708</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.45</v>
+        <v>3822.9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>257.39</v>
+        <v>262.64</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8354996</v>
+        <v>8350308</v>
       </c>
       <c r="E8" t="n">
-        <v>8565678</v>
+        <v>8560872</v>
       </c>
       <c r="F8" t="n">
-        <v>245.163566353774</v>
+        <v>75.5613058180348</v>
       </c>
       <c r="G8" t="n">
-        <v>3857.656542797287</v>
+        <v>4189.04826974907</v>
       </c>
       <c r="H8" t="n">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="n">
-        <v>90744</v>
+        <v>89430</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>306642</v>
+        <v>306688</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.35</v>
+        <v>6.85</v>
       </c>
       <c r="I9" t="n">
-        <v>427.5</v>
+        <v>427.57</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5107684</v>
+        <v>5104702</v>
       </c>
       <c r="E10" t="n">
-        <v>8160545</v>
+        <v>8155780</v>
       </c>
       <c r="F10" t="n">
-        <v>214.7264869255045</v>
+        <v>220.7411946244364</v>
       </c>
       <c r="G10" t="n">
-        <v>303.8232883112001</v>
+        <v>293.8144158858751</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>101399</v>
+        <v>100617</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1003593</v>
+        <v>1004714</v>
       </c>
       <c r="E11" t="n">
-        <v>12281274</v>
+        <v>12294990</v>
       </c>
       <c r="F11" t="n">
-        <v>1576.140390402935</v>
+        <v>1571.054935030535</v>
       </c>
       <c r="G11" t="n">
-        <v>1351.078110747168</v>
+        <v>1350.339579971932</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>1139.64</v>
+        <v>1149.4</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>587464</v>
+        <v>591530</v>
       </c>
       <c r="E12" t="n">
-        <v>587464</v>
+        <v>591530</v>
       </c>
       <c r="F12" t="n">
-        <v>30.75873723482477</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>515.8927840147273</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.65</v>
+        <v>4.47</v>
       </c>
       <c r="I12" t="n">
-        <v>28893</v>
+        <v>29572</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4521486</v>
+        <v>4524031</v>
       </c>
       <c r="E13" t="n">
-        <v>27772260</v>
+        <v>27787891</v>
       </c>
       <c r="F13" t="n">
-        <v>680.938196483037</v>
+        <v>346.3714552621466</v>
       </c>
       <c r="G13" t="n">
-        <v>1070.860943785385</v>
+        <v>651.1989939843661</v>
       </c>
       <c r="H13" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="I13" t="n">
-        <v>621830</v>
+        <v>634131</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197918</v>
+        <v>197936</v>
       </c>
       <c r="E14" t="n">
-        <v>2177318</v>
+        <v>2177513</v>
       </c>
       <c r="F14" t="n">
-        <v>312.3955974085349</v>
+        <v>312.3871179655306</v>
       </c>
       <c r="G14" t="n">
-        <v>842.4562255070306</v>
+        <v>842.4333584768705</v>
       </c>
       <c r="H14" t="n">
         <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>27425</v>
+        <v>26834</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3343835</v>
+        <v>3343905</v>
       </c>
       <c r="E15" t="n">
-        <v>9512915</v>
+        <v>9513113</v>
       </c>
       <c r="F15" t="n">
-        <v>897.7426594013596</v>
+        <v>775.6289213436446</v>
       </c>
       <c r="G15" t="n">
-        <v>288.3211786827503</v>
+        <v>348.2791697743609</v>
       </c>
       <c r="H15" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="I15" t="n">
-        <v>124816</v>
+        <v>119690</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>325553</v>
+        <v>325717</v>
       </c>
       <c r="E16" t="n">
-        <v>3757269</v>
+        <v>3759164</v>
       </c>
       <c r="F16" t="n">
-        <v>143.7708214018798</v>
+        <v>144.6563838111688</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4593697023819</v>
+        <v>131.9905245683339</v>
       </c>
       <c r="H16" t="n">
         <v>0.38</v>
       </c>
       <c r="I16" t="n">
-        <v>2815.78</v>
+        <v>2818.5</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>938996</v>
+        <v>922340</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>36.1992349240852</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>60.00947468407446</v>
       </c>
       <c r="H17" t="n">
-        <v>4.62</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>10659.22</v>
+        <v>10746.46</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23321517</v>
+        <v>23193771</v>
       </c>
       <c r="E18" t="n">
-        <v>23365020</v>
+        <v>23237036</v>
       </c>
       <c r="F18" t="n">
-        <v>1389.418966515231</v>
+        <v>2151.876926670096</v>
       </c>
       <c r="G18" t="n">
-        <v>2635.188404349092</v>
+        <v>1307.93940676713</v>
       </c>
       <c r="H18" t="n">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="I18" t="n">
-        <v>861812</v>
+        <v>854381</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7097680</v>
+        <v>7263937</v>
       </c>
       <c r="F19" t="n">
-        <v>47.50960388811021</v>
+        <v>1.001185432034481</v>
       </c>
       <c r="G19" t="n">
-        <v>702.3968796382119</v>
+        <v>667.6487113482856</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="I19" t="n">
-        <v>18391.79</v>
+        <v>19064.63</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2438824</v>
+        <v>2436939</v>
       </c>
       <c r="E20" t="n">
-        <v>2438824</v>
+        <v>2436939</v>
       </c>
       <c r="F20" t="n">
-        <v>334.3138155587693</v>
+        <v>18.53931833472592</v>
       </c>
       <c r="G20" t="n">
-        <v>54.33610713396417</v>
+        <v>524.5018211999188</v>
       </c>
       <c r="H20" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="I20" t="n">
-        <v>323401</v>
+        <v>323458</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>414086</v>
+        <v>414155</v>
       </c>
       <c r="F21" t="n">
-        <v>95.29413957368456</v>
+        <v>111.4260819858719</v>
       </c>
       <c r="G21" t="n">
-        <v>107.2401718167636</v>
+        <v>107.5372086033048</v>
       </c>
       <c r="H21" t="n">
         <v>1.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1569.16</v>
+        <v>1569.55</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17763565</v>
+        <v>17521757</v>
       </c>
       <c r="E22" t="n">
-        <v>22863167</v>
+        <v>22551939</v>
       </c>
       <c r="F22" t="n">
-        <v>4500.814867192001</v>
+        <v>2257.91397222572</v>
       </c>
       <c r="G22" t="n">
-        <v>4144.974967137593</v>
+        <v>2626.575400297786</v>
       </c>
       <c r="H22" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="I22" t="n">
-        <v>1787675</v>
+        <v>1710001</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>475083512</v>
+        <v>480240719</v>
       </c>
       <c r="E23" t="n">
-        <v>475083512</v>
+        <v>480240719</v>
       </c>
       <c r="F23" t="n">
-        <v>48140.97788818309</v>
+        <v>49439.03493992473</v>
       </c>
       <c r="G23" t="n">
-        <v>74755.04484538709</v>
+        <v>71453.66133776498</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>71417255</v>
+        <v>71946805</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22836</v>
+        <v>22847</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.86</v>
+        <v>7.8</v>
       </c>
       <c r="I24" t="n">
-        <v>3015.04</v>
+        <v>3015.79</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4683833</v>
+        <v>4659147</v>
       </c>
       <c r="E25" t="n">
-        <v>4683833</v>
+        <v>4659147</v>
       </c>
       <c r="F25" t="n">
-        <v>391.1610120667857</v>
+        <v>99.27880805049014</v>
       </c>
       <c r="G25" t="n">
-        <v>1511.166338321807</v>
+        <v>1104.295616907701</v>
       </c>
       <c r="H25" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="I25" t="n">
-        <v>2026579</v>
+        <v>2002248</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3374442</v>
+        <v>3391542</v>
       </c>
       <c r="E26" t="n">
-        <v>3374442</v>
+        <v>3391542</v>
       </c>
       <c r="F26" t="n">
-        <v>345.4867754388917</v>
+        <v>15.26777538428053</v>
       </c>
       <c r="G26" t="n">
-        <v>176.0293540646795</v>
+        <v>1107.073800075175</v>
       </c>
       <c r="H26" t="n">
-        <v>1.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>519201</v>
+        <v>520139</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>340446</v>
+        <v>332370</v>
       </c>
       <c r="E27" t="n">
-        <v>1589238</v>
+        <v>1551536</v>
       </c>
       <c r="F27" t="n">
-        <v>323.6733190507423</v>
+        <v>321.9739714876603</v>
       </c>
       <c r="G27" t="n">
-        <v>177.5238532065831</v>
+        <v>17.88310348944898</v>
       </c>
       <c r="H27" t="n">
-        <v>1.87</v>
+        <v>0.67</v>
       </c>
       <c r="I27" t="n">
-        <v>731917</v>
+        <v>721987</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1564941</v>
+        <v>1521487</v>
       </c>
       <c r="F28" t="n">
-        <v>338.6591322742024</v>
+        <v>361.8174317609586</v>
       </c>
       <c r="G28" t="n">
-        <v>401.5710421878666</v>
+        <v>471.6149911923783</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>248414</v>
+        <v>188825</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12791214</v>
+        <v>12799677</v>
       </c>
       <c r="E29" t="n">
-        <v>31835018</v>
+        <v>31856081</v>
       </c>
       <c r="F29" t="n">
-        <v>855.7240993443496</v>
+        <v>951.723752681939</v>
       </c>
       <c r="G29" t="n">
-        <v>1147.421917746457</v>
+        <v>1120.554527887925</v>
       </c>
       <c r="H29" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="I29" t="n">
-        <v>1417023</v>
+        <v>1405487</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>899334</v>
+        <v>904636</v>
       </c>
       <c r="E30" t="n">
-        <v>6295337</v>
+        <v>6332451</v>
       </c>
       <c r="F30" t="n">
-        <v>158.6022067405448</v>
+        <v>286.9086725899318</v>
       </c>
       <c r="G30" t="n">
-        <v>100.3533639132653</v>
+        <v>185.1991767491287</v>
       </c>
       <c r="H30" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="I30" t="n">
-        <v>156238</v>
+        <v>154118</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190809</v>
+        <v>190170</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>7.41</v>
       </c>
       <c r="I31" t="n">
-        <v>1348.48</v>
+        <v>1147.85</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5542240</v>
+        <v>5651622</v>
       </c>
       <c r="E32" t="n">
-        <v>5807381</v>
+        <v>5921996</v>
       </c>
       <c r="F32" t="n">
-        <v>169.3543021859088</v>
+        <v>43.6349686029825</v>
       </c>
       <c r="G32" t="n">
-        <v>36.39949737171847</v>
+        <v>610.9936313864846</v>
       </c>
       <c r="H32" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="I32" t="n">
-        <v>177429</v>
+        <v>152192</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5185344</v>
+        <v>5178925</v>
       </c>
       <c r="E33" t="n">
-        <v>7633107</v>
+        <v>7623658</v>
       </c>
       <c r="F33" t="n">
-        <v>58.05637712416243</v>
+        <v>57.91044089144185</v>
       </c>
       <c r="G33" t="n">
-        <v>30.0584817887432</v>
+        <v>20.83912800647457</v>
       </c>
       <c r="H33" t="n">
-        <v>3.27</v>
+        <v>2.32</v>
       </c>
       <c r="I33" t="n">
-        <v>680751</v>
+        <v>684385</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7666332</v>
+        <v>7683387</v>
       </c>
       <c r="E34" t="n">
-        <v>7666332</v>
+        <v>7683387</v>
       </c>
       <c r="F34" t="n">
-        <v>31983.32492091776</v>
+        <v>32117.00377719577</v>
       </c>
       <c r="G34" t="n">
-        <v>32782.97384353986</v>
+        <v>32157.31827216249</v>
       </c>
       <c r="H34" t="n">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="I34" t="n">
-        <v>314017</v>
+        <v>318449</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1454191</v>
+        <v>1457686</v>
       </c>
       <c r="E35" t="n">
-        <v>1454191</v>
+        <v>1457686</v>
       </c>
       <c r="F35" t="n">
-        <v>476.0831199449383</v>
+        <v>475.953932411064</v>
       </c>
       <c r="G35" t="n">
-        <v>350.0662046375999</v>
+        <v>287.7132219163365</v>
       </c>
       <c r="H35" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="I35" t="n">
-        <v>275404</v>
+        <v>283314</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15998356</v>
+        <v>15995562</v>
       </c>
       <c r="F36" t="n">
-        <v>245.8456415078555</v>
+        <v>244.5389411216242</v>
       </c>
       <c r="G36" t="n">
-        <v>167.9233864220312</v>
+        <v>228.5395268426132</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>9708.93</v>
+        <v>10828.44</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58244</v>
+        <v>58254</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302807778616726</v>
+        <v>1.30277241613276</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005461037367135576</v>
+        <v>0.005460889136637183</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>606.1900000000001</v>
+        <v>606.34</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="E38" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="F38" t="n">
-        <v>357647.3047980903</v>
+        <v>317969.8283104778</v>
       </c>
       <c r="G38" t="n">
-        <v>301800.9132069785</v>
+        <v>409319.247209369</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>63761627</v>
+        <v>65097557</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65301711</v>
+        <v>65499001</v>
       </c>
       <c r="E39" t="n">
-        <v>334880567</v>
+        <v>335892315</v>
       </c>
       <c r="F39" t="n">
-        <v>104927.2272586956</v>
+        <v>86852.32976452916</v>
       </c>
       <c r="G39" t="n">
-        <v>83555.27400655027</v>
+        <v>108378.3341745491</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>21443578</v>
+        <v>21626778</v>
       </c>
     </row>
     <row r="40">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>45610</v>
+        <v>46411</v>
       </c>
       <c r="E40" t="n">
-        <v>134785</v>
+        <v>137153</v>
       </c>
       <c r="F40" t="n">
-        <v>4.021139087096457</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>250.8639915545174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.42</v>
+        <v>10.57</v>
       </c>
       <c r="I40" t="n">
-        <v>287.15</v>
+        <v>165.58</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>47870</v>
+        <v>48437</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.46</v>
+        <v>6.04</v>
       </c>
       <c r="I41" t="n">
-        <v>23067</v>
+        <v>23653</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595047</v>
+        <v>594490</v>
       </c>
       <c r="F42" t="n">
-        <v>1250.381174769678</v>
+        <v>2188.462990806753</v>
       </c>
       <c r="G42" t="n">
-        <v>398.009170982328</v>
+        <v>397.3209590864582</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1459.57</v>
+        <v>1015.51</v>
       </c>
     </row>
     <row r="43">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2678498</v>
+        <v>2668101</v>
       </c>
       <c r="E44" t="n">
-        <v>10764271</v>
+        <v>10722490</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="I44" t="n">
-        <v>33303</v>
+        <v>33207</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17641345</v>
+        <v>17638987</v>
       </c>
       <c r="E45" t="n">
-        <v>124342667</v>
+        <v>124325076</v>
       </c>
       <c r="F45" t="n">
-        <v>348.2134003027978</v>
+        <v>334.7589226900458</v>
       </c>
       <c r="G45" t="n">
-        <v>239.0006146324687</v>
+        <v>243.62799534738</v>
       </c>
       <c r="H45" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
-        <v>1099240</v>
+        <v>1069241</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>171448</v>
+        <v>172224</v>
       </c>
       <c r="E46" t="n">
-        <v>2294069</v>
+        <v>2304458</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>53633</v>
+        <v>52696</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>252695643</v>
+        <v>253972952</v>
       </c>
       <c r="E47" t="n">
-        <v>252695643</v>
+        <v>253972952</v>
       </c>
       <c r="F47" t="n">
-        <v>124293.9493766657</v>
+        <v>104598.6290835567</v>
       </c>
       <c r="G47" t="n">
-        <v>137083.2508738929</v>
+        <v>170790.7794177437</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I47" t="n">
-        <v>14815437</v>
+        <v>14525926</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637284</v>
+        <v>637243</v>
       </c>
       <c r="E48" t="n">
-        <v>637284</v>
+        <v>637243</v>
       </c>
       <c r="F48" t="n">
-        <v>572.2980450891071</v>
+        <v>519.3539543037396</v>
       </c>
       <c r="G48" t="n">
-        <v>87.31272754149556</v>
+        <v>62.27740774672129</v>
       </c>
       <c r="H48" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="I48" t="n">
-        <v>3208.94</v>
+        <v>3333.35</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>447470635</v>
+        <v>442369684</v>
       </c>
       <c r="E50" t="n">
-        <v>447470635</v>
+        <v>442369684</v>
       </c>
       <c r="F50" t="n">
-        <v>3864.706725535124</v>
+        <v>5031.586547008713</v>
       </c>
       <c r="G50" t="n">
-        <v>2347.794206033577</v>
+        <v>2729.786326144244</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="I50" t="n">
-        <v>2793242</v>
+        <v>2624121</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2448937</v>
+        <v>2409167</v>
       </c>
       <c r="E51" t="n">
-        <v>2448937</v>
+        <v>2409167</v>
       </c>
       <c r="F51" t="n">
-        <v>1058.30383434189</v>
+        <v>1058.306345874879</v>
       </c>
       <c r="G51" t="n">
-        <v>23.64774955110842</v>
+        <v>23.64710767348222</v>
       </c>
       <c r="H51" t="n">
         <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>56531</v>
+        <v>104422</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23703</v>
+        <v>23713</v>
       </c>
       <c r="E52" t="n">
-        <v>47406</v>
+        <v>47427</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.02</v>
+        <v>6.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2416.73</v>
+        <v>2424.99</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>154913</v>
+        <v>152496</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>17.03371543297621</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3.4138951593707</v>
       </c>
       <c r="H53" t="n">
-        <v>4.84</v>
+        <v>2.48</v>
       </c>
       <c r="I53" t="n">
-        <v>24006</v>
+        <v>24087</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2557760</v>
+        <v>2555845</v>
       </c>
       <c r="E54" t="n">
-        <v>6539136</v>
+        <v>6534239</v>
       </c>
       <c r="F54" t="n">
-        <v>249.4016909189741</v>
+        <v>250.982854183257</v>
       </c>
       <c r="G54" t="n">
-        <v>156.7103572688108</v>
+        <v>156.2189773213543</v>
       </c>
       <c r="H54" t="n">
         <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>112885</v>
+        <v>112844</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3418.98</v>
+        <v>3646.52</v>
       </c>
       <c r="F55" t="n">
-        <v>2.548562659585396</v>
+        <v>1.414770296085054</v>
       </c>
       <c r="G55" t="n">
-        <v>1.153520880392532</v>
+        <v>1.269863836825156</v>
       </c>
       <c r="H55" t="n">
-        <v>1.54</v>
+        <v>3.06</v>
       </c>
       <c r="I55" t="n">
-        <v>729.42</v>
+        <v>741.27</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73108065</v>
+        <v>73504970</v>
       </c>
       <c r="E56" t="n">
-        <v>73108065</v>
+        <v>73504970</v>
       </c>
       <c r="F56" t="n">
-        <v>14868.23581574586</v>
+        <v>14066.53927734259</v>
       </c>
       <c r="G56" t="n">
-        <v>20048.35210349014</v>
+        <v>18914.87487073266</v>
       </c>
       <c r="H56" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I56" t="n">
-        <v>3524671</v>
+        <v>3353947</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3504901</v>
+        <v>3508890</v>
       </c>
       <c r="E57" t="n">
-        <v>4441322</v>
+        <v>4446377</v>
       </c>
       <c r="F57" t="n">
-        <v>112.9863933568829</v>
+        <v>534.6938939377328</v>
       </c>
       <c r="G57" t="n">
-        <v>125.4327764455528</v>
+        <v>67.94145966212375</v>
       </c>
       <c r="H57" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>258359</v>
+        <v>258217</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4138730</v>
+        <v>4141556</v>
       </c>
       <c r="E58" t="n">
-        <v>8161924</v>
+        <v>8167498</v>
       </c>
       <c r="F58" t="n">
-        <v>2344.371729107081</v>
+        <v>2366.091596223432</v>
       </c>
       <c r="G58" t="n">
-        <v>22091.9695906298</v>
+        <v>22099.34536953514</v>
       </c>
       <c r="H58" t="n">
         <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1616550</v>
+        <v>1620291</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1590607</v>
+        <v>1581877</v>
       </c>
       <c r="E59" t="n">
-        <v>9132672</v>
+        <v>9082546</v>
       </c>
       <c r="F59" t="n">
-        <v>160.8899021063294</v>
+        <v>313.3167833327379</v>
       </c>
       <c r="G59" t="n">
-        <v>647.1535648256925</v>
+        <v>777.9155139444192</v>
       </c>
       <c r="H59" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="I59" t="n">
-        <v>305184</v>
+        <v>295213</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565095</v>
+        <v>565660</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1571.5</v>
+        <v>1714.88</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31166331</v>
+        <v>31223206</v>
       </c>
       <c r="F61" t="n">
-        <v>687.3289586587358</v>
+        <v>692.2885461451286</v>
       </c>
       <c r="G61" t="n">
-        <v>1044.178460037072</v>
+        <v>913.5825698219911</v>
       </c>
       <c r="H61" t="n">
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c r="I61" t="n">
-        <v>247632</v>
+        <v>247118</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1428440</v>
+        <v>1430197</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>6.77</v>
+        <v>8.35</v>
       </c>
       <c r="I62" t="n">
-        <v>28757</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7639252</v>
+        <v>7641805</v>
       </c>
       <c r="E63" t="n">
-        <v>17991957</v>
+        <v>17997970</v>
       </c>
       <c r="F63" t="n">
-        <v>1097.114970884977</v>
+        <v>1097.004912968808</v>
       </c>
       <c r="G63" t="n">
-        <v>2356.190949121176</v>
+        <v>2356.138366568297</v>
       </c>
       <c r="H63" t="n">
         <v>1.81</v>
       </c>
       <c r="I63" t="n">
-        <v>32005</v>
+        <v>29866</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2965536</v>
+        <v>2944100</v>
       </c>
       <c r="E64" t="n">
-        <v>2965536</v>
+        <v>2944100</v>
       </c>
       <c r="F64" t="n">
-        <v>3.23851248099769</v>
+        <v>123.8783431608779</v>
       </c>
       <c r="G64" t="n">
-        <v>243.5220578562834</v>
+        <v>967.2857069843478</v>
       </c>
       <c r="H64" t="n">
-        <v>2.12</v>
+        <v>3.58</v>
       </c>
       <c r="I64" t="n">
-        <v>17672.96</v>
+        <v>18025.83</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3356905</v>
+        <v>3367652</v>
       </c>
       <c r="E65" t="n">
-        <v>8282991</v>
+        <v>8309509</v>
       </c>
       <c r="F65" t="n">
-        <v>622.9167406497112</v>
+        <v>597.4469248498436</v>
       </c>
       <c r="G65" t="n">
-        <v>1095.688363249601</v>
+        <v>1078.628219199295</v>
       </c>
       <c r="H65" t="n">
-        <v>1.15</v>
+        <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>45481</v>
+        <v>44442</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>271823</v>
+        <v>271983</v>
       </c>
       <c r="F66" t="n">
-        <v>84.99722989444818</v>
+        <v>91.72169403666544</v>
       </c>
       <c r="G66" t="n">
-        <v>5.388202731621893</v>
+        <v>45.03118913424612</v>
       </c>
       <c r="H66" t="n">
         <v>3.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1916.58</v>
+        <v>1691.83</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>74522029</v>
+        <v>75336555</v>
       </c>
       <c r="E67" t="n">
-        <v>155416273</v>
+        <v>157114975</v>
       </c>
       <c r="F67" t="n">
-        <v>62708.61157059993</v>
+        <v>61033.77342230488</v>
       </c>
       <c r="G67" t="n">
-        <v>59054.82835462966</v>
+        <v>77701.04021910069</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="n">
-        <v>16073378</v>
+        <v>15795971</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1919903</v>
+        <v>1920739</v>
       </c>
       <c r="F68" t="n">
-        <v>3.858222529810986</v>
+        <v>5.028894089625432</v>
       </c>
       <c r="G68" t="n">
-        <v>43.06869494841828</v>
+        <v>30.28304649606194</v>
       </c>
       <c r="H68" t="n">
-        <v>3.02</v>
+        <v>3.52</v>
       </c>
       <c r="I68" t="n">
-        <v>4956.09</v>
+        <v>5051.3</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199554361</v>
+        <v>194799050</v>
       </c>
       <c r="F69" t="n">
-        <v>5589.406812724602</v>
+        <v>7738.174744456293</v>
       </c>
       <c r="G69" t="n">
-        <v>3382.972981209502</v>
+        <v>3283.689199869309</v>
       </c>
       <c r="H69" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
       <c r="I69" t="n">
-        <v>4312033</v>
+        <v>4356295</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179169</v>
+        <v>179488</v>
       </c>
       <c r="E70" t="n">
-        <v>187103</v>
+        <v>187437</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>6.7</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>387</v>
+        <v>334.33</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144742569</v>
+        <v>144887742</v>
       </c>
       <c r="E71" t="n">
-        <v>144791236</v>
+        <v>144936457</v>
       </c>
       <c r="F71" t="n">
-        <v>32887.6644622489</v>
+        <v>33077.6909860491</v>
       </c>
       <c r="G71" t="n">
-        <v>48808.94884123592</v>
+        <v>43255.04302297053</v>
       </c>
       <c r="H71" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="I71" t="n">
-        <v>2604121</v>
+        <v>2576363</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25963479</v>
+        <v>26114186</v>
       </c>
       <c r="E72" t="n">
-        <v>85207174</v>
+        <v>85701767</v>
       </c>
       <c r="F72" t="n">
-        <v>6564.493345304916</v>
+        <v>22566.34702058797</v>
       </c>
       <c r="G72" t="n">
-        <v>33685.47990068621</v>
+        <v>42627.80401442759</v>
       </c>
       <c r="H72" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>102956</v>
+        <v>102217</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>119822</v>
+        <v>120987</v>
       </c>
       <c r="E73" t="n">
-        <v>119822</v>
+        <v>120987</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>5.15</v>
       </c>
       <c r="I73" t="n">
-        <v>304.99</v>
+        <v>311.14</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>201375859</v>
+        <v>202651650</v>
       </c>
       <c r="E74" t="n">
-        <v>699597935</v>
+        <v>704030147</v>
       </c>
       <c r="F74" t="n">
-        <v>137602.889784604</v>
+        <v>122681.4883551471</v>
       </c>
       <c r="G74" t="n">
-        <v>199651.932931918</v>
+        <v>209029.1172047659</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>27275856</v>
+        <v>27651680</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3512698</v>
+        <v>3439775</v>
       </c>
       <c r="E75" t="n">
-        <v>3512698</v>
+        <v>3439775</v>
       </c>
       <c r="F75" t="n">
-        <v>339.3381369965067</v>
+        <v>201.9440405515033</v>
       </c>
       <c r="G75" t="n">
-        <v>891.8619951727909</v>
+        <v>1055.420254345294</v>
       </c>
       <c r="H75" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="I75" t="n">
-        <v>2778741</v>
+        <v>2722914</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>114709454</v>
+        <v>115689443</v>
       </c>
       <c r="E76" t="n">
-        <v>487492570</v>
+        <v>491605961</v>
       </c>
       <c r="F76" t="n">
-        <v>204983.957207999</v>
+        <v>166871.9097484105</v>
       </c>
       <c r="G76" t="n">
-        <v>225170.188396883</v>
+        <v>259577.9442104229</v>
       </c>
       <c r="H76" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I76" t="n">
-        <v>14547453</v>
+        <v>14711564</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1852692</v>
+        <v>1853215</v>
       </c>
       <c r="F77" t="n">
-        <v>173.9999074552837</v>
+        <v>151.2240517524503</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4990791087964</v>
+        <v>102.4962969469909</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>158.41</v>
+        <v>159.16</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3135448</v>
+        <v>3136435</v>
       </c>
       <c r="E78" t="n">
-        <v>15720505</v>
+        <v>15725456</v>
       </c>
       <c r="F78" t="n">
-        <v>102.1803889710902</v>
+        <v>104.6474926025671</v>
       </c>
       <c r="G78" t="n">
-        <v>876.4595144000423</v>
+        <v>234.171534580614</v>
       </c>
       <c r="H78" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I78" t="n">
-        <v>33369</v>
+        <v>33839</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>536502</v>
+        <v>525747</v>
       </c>
       <c r="E79" t="n">
-        <v>9176825</v>
+        <v>8992866</v>
       </c>
       <c r="F79" t="n">
-        <v>367.4557885262636</v>
+        <v>368.6104759977885</v>
       </c>
       <c r="G79" t="n">
-        <v>255.8014358010085</v>
+        <v>167.5065117466882</v>
       </c>
       <c r="H79" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="I79" t="n">
-        <v>172288</v>
+        <v>168071</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5626889</v>
+        <v>5645783</v>
       </c>
       <c r="E80" t="n">
-        <v>7644445</v>
+        <v>7670113</v>
       </c>
       <c r="F80" t="n">
-        <v>262.3331243467829</v>
+        <v>207.6070638794321</v>
       </c>
       <c r="G80" t="n">
-        <v>1386.906028942913</v>
+        <v>1388.114406432292</v>
       </c>
       <c r="H80" t="n">
-        <v>0.21</v>
+        <v>1.6</v>
       </c>
       <c r="I80" t="n">
-        <v>5882444</v>
+        <v>5836025</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41235</v>
+        <v>41171</v>
       </c>
       <c r="F81" t="n">
-        <v>182.9558964160497</v>
+        <v>95.40314134632183</v>
       </c>
       <c r="G81" t="n">
-        <v>50.74648099445558</v>
+        <v>105.4432519673299</v>
       </c>
       <c r="H81" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="I81" t="n">
-        <v>50379</v>
+        <v>48693</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40435518</v>
+        <v>40628878</v>
       </c>
       <c r="E82" t="n">
-        <v>47227724</v>
+        <v>47453565</v>
       </c>
       <c r="F82" t="n">
-        <v>79.66214285257067</v>
+        <v>110.2397217238524</v>
       </c>
       <c r="G82" t="n">
-        <v>79.07247704089724</v>
+        <v>127.6665197380894</v>
       </c>
       <c r="H82" t="n">
-        <v>0.44</v>
+        <v>1.75</v>
       </c>
       <c r="I82" t="n">
-        <v>877673</v>
+        <v>882153</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14527040</v>
+        <v>14519478</v>
       </c>
       <c r="F83" t="n">
-        <v>398.9918042912779</v>
+        <v>317.2919401238853</v>
       </c>
       <c r="G83" t="n">
-        <v>761.3369877577877</v>
+        <v>671.0119581718498</v>
       </c>
       <c r="H83" t="n">
-        <v>0.98</v>
+        <v>1.69</v>
       </c>
       <c r="I83" t="n">
-        <v>301442</v>
+        <v>289109</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35969094</v>
+        <v>35538692</v>
       </c>
       <c r="E84" t="n">
-        <v>35969094</v>
+        <v>35538692</v>
       </c>
       <c r="F84" t="n">
-        <v>49.06987874062904</v>
+        <v>959.967878732697</v>
       </c>
       <c r="G84" t="n">
-        <v>134.8393608704824</v>
+        <v>44.44049879862243</v>
       </c>
       <c r="H84" t="n">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="I84" t="n">
-        <v>800289</v>
+        <v>792664</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>645058</v>
+        <v>575467</v>
       </c>
       <c r="E85" t="n">
-        <v>7823924</v>
+        <v>6979852</v>
       </c>
       <c r="F85" t="n">
-        <v>794.421075571302</v>
+        <v>439.9867186579264</v>
       </c>
       <c r="G85" t="n">
-        <v>659.9789216334103</v>
+        <v>679.002710848398</v>
       </c>
       <c r="H85" t="n">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="I85" t="n">
-        <v>2853904</v>
+        <v>2837737</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25591493</v>
+        <v>25823676</v>
       </c>
       <c r="E86" t="n">
-        <v>36172576</v>
+        <v>36500758</v>
       </c>
       <c r="F86" t="n">
-        <v>23.40518199898803</v>
+        <v>26.71281235402494</v>
       </c>
       <c r="G86" t="n">
-        <v>587.3198310358698</v>
+        <v>660.030288487114</v>
       </c>
       <c r="H86" t="n">
-        <v>2.73</v>
+        <v>2.05</v>
       </c>
       <c r="I86" t="n">
-        <v>62619</v>
+        <v>64605</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1277288299</v>
+        <v>1310188718</v>
       </c>
       <c r="E87" t="n">
-        <v>6124858978</v>
+        <v>6282623224</v>
       </c>
       <c r="F87" t="n">
-        <v>640766.3531454386</v>
+        <v>671838.6933270604</v>
       </c>
       <c r="G87" t="n">
-        <v>843774.2860970391</v>
+        <v>448112.6595086816</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>160174859</v>
+        <v>165019822</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>268656122</v>
+        <v>270909174</v>
       </c>
       <c r="E88" t="n">
-        <v>1159668964</v>
+        <v>1169394388</v>
       </c>
       <c r="F88" t="n">
-        <v>903595.9722833242</v>
+        <v>967009.7895327382</v>
       </c>
       <c r="G88" t="n">
-        <v>1056851.73524769</v>
+        <v>1016372.252704794</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I88" t="n">
-        <v>99139350</v>
+        <v>99035897</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114557499</v>
+        <v>115150004</v>
       </c>
       <c r="E89" t="n">
-        <v>114557499</v>
+        <v>115150004</v>
       </c>
       <c r="F89" t="n">
-        <v>43796.11311216781</v>
+        <v>40646.64262356434</v>
       </c>
       <c r="G89" t="n">
-        <v>23005.19175689562</v>
+        <v>28824.22196967696</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I89" t="n">
-        <v>6174567</v>
+        <v>6235392</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3852248</v>
+        <v>3854247</v>
       </c>
       <c r="E90" t="n">
-        <v>29977732</v>
+        <v>29993287</v>
       </c>
       <c r="F90" t="n">
-        <v>11013.30427745268</v>
+        <v>11011.42246277377</v>
       </c>
       <c r="G90" t="n">
-        <v>12343.30031015279</v>
+        <v>12206.61330222926</v>
       </c>
       <c r="H90" t="n">
         <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>10211.75</v>
+        <v>9854.799999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3732124</v>
+        <v>3753035</v>
       </c>
       <c r="F91" t="n">
-        <v>297.5461557699333</v>
+        <v>143.2635513915542</v>
       </c>
       <c r="G91" t="n">
-        <v>815.9886264977688</v>
+        <v>1046.571605026852</v>
       </c>
       <c r="H91" t="n">
-        <v>1.78</v>
+        <v>0.91</v>
       </c>
       <c r="I91" t="n">
-        <v>294694</v>
+        <v>302744</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>892899</v>
+        <v>880339</v>
       </c>
       <c r="F92" t="n">
-        <v>3.500657977603103</v>
+        <v>146.2415274527088</v>
       </c>
       <c r="G92" t="n">
-        <v>6.325466092192258</v>
+        <v>3.000482545638392</v>
       </c>
       <c r="H92" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="I92" t="n">
-        <v>35941</v>
+        <v>34750</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>114752</v>
+        <v>111253</v>
       </c>
       <c r="F93" t="n">
-        <v>369.4628730878121</v>
+        <v>49.93870185067488</v>
       </c>
       <c r="G93" t="n">
-        <v>82.42008840608878</v>
+        <v>124.5606484231545</v>
       </c>
       <c r="H93" t="n">
-        <v>0.14</v>
+        <v>0.74</v>
       </c>
       <c r="I93" t="n">
-        <v>136869</v>
+        <v>137229</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11014168</v>
+        <v>11053257</v>
       </c>
       <c r="E94" t="n">
-        <v>132961746</v>
+        <v>133433629</v>
       </c>
       <c r="F94" t="n">
-        <v>2573.550896298117</v>
+        <v>2824.580483436376</v>
       </c>
       <c r="G94" t="n">
-        <v>2408.371140100156</v>
+        <v>2154.801980754545</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>219375</v>
+        <v>218537</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19733758</v>
+        <v>19796275</v>
       </c>
       <c r="E95" t="n">
-        <v>49334394</v>
+        <v>49490687</v>
       </c>
       <c r="F95" t="n">
-        <v>7133.926877967288</v>
+        <v>6405.862080409212</v>
       </c>
       <c r="G95" t="n">
-        <v>8459.235672549528</v>
+        <v>7893.211571001012</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="I95" t="n">
-        <v>1936540</v>
+        <v>1897080</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2317175</v>
+        <v>2242757</v>
       </c>
       <c r="F96" t="n">
-        <v>199.4908818669975</v>
+        <v>199.0854018907477</v>
       </c>
       <c r="G96" t="n">
-        <v>73.04953033464922</v>
+        <v>118.0548755795724</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>59848</v>
+        <v>57444</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19770362</v>
+        <v>19885435</v>
       </c>
       <c r="F97" t="n">
-        <v>1606.904442277317</v>
+        <v>1549.077370364914</v>
       </c>
       <c r="G97" t="n">
-        <v>1579.77969201699</v>
+        <v>1075.532941923447</v>
       </c>
       <c r="H97" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>89764</v>
+        <v>91655</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4163261</v>
+        <v>4094525</v>
       </c>
       <c r="E98" t="n">
-        <v>11992171</v>
+        <v>11794178</v>
       </c>
       <c r="F98" t="n">
-        <v>148.8858141351068</v>
+        <v>351.4119501506029</v>
       </c>
       <c r="G98" t="n">
-        <v>303.1166514995484</v>
+        <v>409.3060692145407</v>
       </c>
       <c r="H98" t="n">
-        <v>1.32</v>
+        <v>1.85</v>
       </c>
       <c r="I98" t="n">
-        <v>642143</v>
+        <v>634739</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1623218</v>
+        <v>1613421</v>
       </c>
       <c r="F99" t="n">
-        <v>562.6205582141196</v>
+        <v>323.695433774469</v>
       </c>
       <c r="G99" t="n">
-        <v>52.91056677962515</v>
+        <v>43.49399364957824</v>
       </c>
       <c r="H99" t="n">
-        <v>0.65</v>
+        <v>2.59</v>
       </c>
       <c r="I99" t="n">
-        <v>232245</v>
+        <v>241739</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80152771</v>
+        <v>80113121</v>
       </c>
       <c r="E100" t="n">
-        <v>102000630</v>
+        <v>101950173</v>
       </c>
       <c r="F100" t="n">
-        <v>9111.192907680295</v>
+        <v>7508.223448710846</v>
       </c>
       <c r="G100" t="n">
-        <v>6612.293308585084</v>
+        <v>6909.367247628912</v>
       </c>
       <c r="H100" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I100" t="n">
-        <v>6152212</v>
+        <v>6201819</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22825551</v>
+        <v>22569094</v>
       </c>
       <c r="E101" t="n">
-        <v>29609961</v>
+        <v>29277278</v>
       </c>
       <c r="F101" t="n">
-        <v>3984.681114216854</v>
+        <v>7170.771980092215</v>
       </c>
       <c r="G101" t="n">
-        <v>3351.887430263834</v>
+        <v>7293.143514505963</v>
       </c>
       <c r="H101" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I101" t="n">
-        <v>282299</v>
+        <v>166674</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1624540</v>
+        <v>1600098</v>
       </c>
       <c r="F102" t="n">
-        <v>13.67772179117171</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>65.33516002914317</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3.05</v>
+        <v>5.49</v>
       </c>
       <c r="I102" t="n">
-        <v>15316.25</v>
+        <v>15343.97</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>640675</v>
+        <v>647563</v>
       </c>
       <c r="E103" t="n">
-        <v>640675</v>
+        <v>647563</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5.44</v>
+        <v>5.05</v>
       </c>
       <c r="I103" t="n">
-        <v>83219</v>
+        <v>82959</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40378238</v>
+        <v>40537890</v>
       </c>
       <c r="E104" t="n">
-        <v>42209697</v>
+        <v>42376590</v>
       </c>
       <c r="F104" t="n">
-        <v>291.312423093227</v>
+        <v>395.4243015986917</v>
       </c>
       <c r="G104" t="n">
-        <v>1211.598110620644</v>
+        <v>490.7312303797776</v>
       </c>
       <c r="H104" t="n">
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="I104" t="n">
-        <v>708624</v>
+        <v>688549</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13569136</v>
+        <v>13525621</v>
       </c>
       <c r="E105" t="n">
-        <v>13569136</v>
+        <v>13525621</v>
       </c>
       <c r="F105" t="n">
-        <v>3683.808915348791</v>
+        <v>3504.679154973735</v>
       </c>
       <c r="G105" t="n">
-        <v>2735.768014059532</v>
+        <v>2944.428294296508</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I105" t="n">
-        <v>4719374</v>
+        <v>4772318</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1229258</v>
+        <v>1232501</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.32</v>
+        <v>7.2</v>
       </c>
       <c r="I106" t="n">
-        <v>5206.54</v>
+        <v>4947.51</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51082432</v>
+        <v>51087453</v>
       </c>
       <c r="E107" t="n">
-        <v>130135417</v>
+        <v>130148207</v>
       </c>
       <c r="F107" t="n">
-        <v>2460.663915649302</v>
+        <v>2559.154927906588</v>
       </c>
       <c r="G107" t="n">
-        <v>3588.722816790935</v>
+        <v>5259.673920972235</v>
       </c>
       <c r="H107" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I107" t="n">
-        <v>2375785</v>
+        <v>2333814</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14299666</v>
+        <v>14571451</v>
       </c>
       <c r="E108" t="n">
-        <v>69255564</v>
+        <v>70571863</v>
       </c>
       <c r="F108" t="n">
-        <v>8610.379588581032</v>
+        <v>10425.65869056832</v>
       </c>
       <c r="G108" t="n">
-        <v>11761.18794062919</v>
+        <v>10195.86426966509</v>
       </c>
       <c r="H108" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="I108" t="n">
-        <v>3718892</v>
+        <v>3707821</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>508685</v>
+        <v>495664</v>
       </c>
       <c r="F109" t="n">
-        <v>92.09095992813775</v>
+        <v>101.0753544476206</v>
       </c>
       <c r="G109" t="n">
-        <v>308.9596879654267</v>
+        <v>298.1341689417872</v>
       </c>
       <c r="H109" t="n">
-        <v>1.58</v>
+        <v>0.95</v>
       </c>
       <c r="I109" t="n">
-        <v>7351.51</v>
+        <v>7514.98</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4583892</v>
+        <v>4598550</v>
       </c>
       <c r="E110" t="n">
-        <v>10448780</v>
+        <v>10482192</v>
       </c>
       <c r="F110" t="n">
-        <v>1113.223381768887</v>
+        <v>1118.717005810564</v>
       </c>
       <c r="G110" t="n">
-        <v>2172.295599286861</v>
+        <v>2200.676769342831</v>
       </c>
       <c r="H110" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I110" t="n">
-        <v>87103</v>
+        <v>86963</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1920420365</v>
+        <v>1929084890</v>
       </c>
       <c r="F111" t="n">
-        <v>101271.6184555168</v>
+        <v>95877.82347221988</v>
       </c>
       <c r="G111" t="n">
-        <v>43738.91491531379</v>
+        <v>50068.45603362786</v>
       </c>
       <c r="H111" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="I111" t="n">
-        <v>26929493</v>
+        <v>27502456</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9360119</v>
+        <v>9367806</v>
       </c>
       <c r="E112" t="n">
-        <v>34069176</v>
+        <v>34097053</v>
       </c>
       <c r="F112" t="n">
-        <v>508.4210166081737</v>
+        <v>508.4515698228674</v>
       </c>
       <c r="G112" t="n">
-        <v>342.2400780429165</v>
+        <v>342.2602818398574</v>
       </c>
       <c r="H112" t="n">
         <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>157895</v>
+        <v>156873</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>538600</v>
+        <v>546930</v>
       </c>
       <c r="F113" t="n">
-        <v>116.8912791284044</v>
+        <v>114.355942272863</v>
       </c>
       <c r="G113" t="n">
-        <v>59.49636805123603</v>
+        <v>58.65733292967425</v>
       </c>
       <c r="H113" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>912.6</v>
+        <v>882.9</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12272958</v>
+        <v>12217947</v>
       </c>
       <c r="E114" t="n">
-        <v>17794018</v>
+        <v>17714260</v>
       </c>
       <c r="F114" t="n">
-        <v>324.7206625855528</v>
+        <v>514.7582864415855</v>
       </c>
       <c r="G114" t="n">
-        <v>3450.521220283594</v>
+        <v>388.0393381861595</v>
       </c>
       <c r="H114" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="I114" t="n">
-        <v>1908040</v>
+        <v>2159511</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2060562</v>
+        <v>2044323</v>
       </c>
       <c r="E115" t="n">
-        <v>14776084</v>
+        <v>14659637</v>
       </c>
       <c r="F115" t="n">
-        <v>701.2577669662552</v>
+        <v>488.4539252788043</v>
       </c>
       <c r="G115" t="n">
-        <v>1275.898461714502</v>
+        <v>834.0511750560323</v>
       </c>
       <c r="H115" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="I115" t="n">
-        <v>1975622</v>
+        <v>1976887</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2749197</v>
+        <v>2742956</v>
       </c>
       <c r="E116" t="n">
-        <v>5557391</v>
+        <v>5544776</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5096.62</v>
+        <v>5279.52</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>199225020</v>
+        <v>199913321</v>
       </c>
       <c r="E117" t="n">
-        <v>1128134475</v>
+        <v>1132032061</v>
       </c>
       <c r="F117" t="n">
-        <v>368236.9359778915</v>
+        <v>302996.3055950594</v>
       </c>
       <c r="G117" t="n">
-        <v>420443.7263375179</v>
+        <v>470960.1845236483</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>61919114</v>
+        <v>62465586</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>682721</v>
+        <v>682896</v>
       </c>
       <c r="E118" t="n">
-        <v>2263801</v>
+        <v>2264384</v>
       </c>
       <c r="F118" t="n">
-        <v>8870.938394200733</v>
+        <v>8875.063339684668</v>
       </c>
       <c r="G118" t="n">
-        <v>8336.106416579509</v>
+        <v>7771.005162891763</v>
       </c>
       <c r="H118" t="n">
         <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>22479</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2786498</v>
+        <v>2799610</v>
       </c>
       <c r="E119" t="n">
-        <v>9865813</v>
+        <v>9912238</v>
       </c>
       <c r="F119" t="n">
-        <v>35.86963487091882</v>
+        <v>35.95236172843253</v>
       </c>
       <c r="G119" t="n">
-        <v>1559.323313716719</v>
+        <v>1551.817573422101</v>
       </c>
       <c r="H119" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="I119" t="n">
-        <v>6201.34</v>
+        <v>5465.7</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1034978</v>
+        <v>1034892</v>
       </c>
       <c r="E120" t="n">
-        <v>1034978</v>
+        <v>1034892</v>
       </c>
       <c r="F120" t="n">
-        <v>19.91787694885772</v>
+        <v>19.91881963676441</v>
       </c>
       <c r="G120" t="n">
-        <v>79.6490413426006</v>
+        <v>91.67726834331744</v>
       </c>
       <c r="H120" t="n">
         <v>2.14</v>
       </c>
       <c r="I120" t="n">
-        <v>8130.61</v>
+        <v>8052.97</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>501877</v>
+        <v>505904</v>
       </c>
       <c r="E121" t="n">
-        <v>1689250</v>
+        <v>1702801</v>
       </c>
       <c r="F121" t="n">
-        <v>379.0548253724297</v>
+        <v>384.1373462376405</v>
       </c>
       <c r="G121" t="n">
-        <v>409.4256400906444</v>
+        <v>430.4288425938779</v>
       </c>
       <c r="H121" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I121" t="n">
-        <v>630626</v>
+        <v>218620</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469049</v>
+        <v>469291</v>
       </c>
       <c r="E122" t="n">
-        <v>870175</v>
+        <v>870625</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>209548</v>
+        <v>209564</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11762449</v>
+        <v>11719380</v>
       </c>
       <c r="F123" t="n">
-        <v>75.37759943162294</v>
+        <v>166.0995028736544</v>
       </c>
       <c r="G123" t="n">
-        <v>171.0960156868113</v>
+        <v>208.2981343334615</v>
       </c>
       <c r="H123" t="n">
-        <v>1.96</v>
+        <v>0.51</v>
       </c>
       <c r="I123" t="n">
-        <v>10620.86</v>
+        <v>10814.72</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1230768</v>
+        <v>1237613</v>
       </c>
       <c r="F124" t="n">
-        <v>63.48413249003433</v>
+        <v>63.48713711367563</v>
       </c>
       <c r="G124" t="n">
-        <v>14.02120794140856</v>
+        <v>14.02187154743432</v>
       </c>
       <c r="H124" t="n">
         <v>0.91</v>
       </c>
       <c r="I124" t="n">
-        <v>46765</v>
+        <v>46151</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3417907</v>
+        <v>3408597</v>
       </c>
       <c r="E125" t="n">
-        <v>7981383</v>
+        <v>7959642</v>
       </c>
       <c r="F125" t="n">
-        <v>1256.326712216671</v>
+        <v>849.7918394276944</v>
       </c>
       <c r="G125" t="n">
-        <v>1056.117955406623</v>
+        <v>680.9956779257748</v>
       </c>
       <c r="H125" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="I125" t="n">
-        <v>678735</v>
+        <v>685063</v>
       </c>
     </row>
     <row r="126">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246020</v>
+        <v>246423</v>
       </c>
       <c r="E126" t="n">
-        <v>2171314</v>
+        <v>2174866</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>4.35</v>
+        <v>3.92</v>
       </c>
       <c r="I126" t="n">
-        <v>78242</v>
+        <v>80463</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>656100</v>
+        <v>656498</v>
       </c>
       <c r="F127" t="n">
-        <v>480.5551381550757</v>
+        <v>433.4783855274807</v>
       </c>
       <c r="G127" t="n">
-        <v>472.7771836169193</v>
+        <v>472.7995595626438</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>4075.16</v>
+        <v>3263.64</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4927887</v>
+        <v>4916067</v>
       </c>
       <c r="E128" t="n">
-        <v>17412518</v>
+        <v>17370750</v>
       </c>
       <c r="F128" t="n">
-        <v>1669.854555653578</v>
+        <v>1862.965492122417</v>
       </c>
       <c r="G128" t="n">
-        <v>2037.678590892262</v>
+        <v>1384.09581782962</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>87125</v>
+        <v>87297</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2116893</v>
+        <v>2091805</v>
       </c>
       <c r="F129" t="n">
-        <v>111.9581349101368</v>
+        <v>66.42067694976743</v>
       </c>
       <c r="G129" t="n">
-        <v>96.06857978837442</v>
+        <v>272.6293068475441</v>
       </c>
       <c r="H129" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="I129" t="n">
-        <v>9395.280000000001</v>
+        <v>9172.639999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2561298</v>
+        <v>2566454</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2503.87</v>
+        <v>2515.23</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83337</v>
+        <v>84949</v>
       </c>
       <c r="E131" t="n">
-        <v>83337</v>
+        <v>84949</v>
       </c>
       <c r="F131" t="n">
-        <v>47.1584862106175</v>
+        <v>5.354407799449831</v>
       </c>
       <c r="G131" t="n">
-        <v>210.255219056297</v>
+        <v>77.58436411041063</v>
       </c>
       <c r="H131" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="I131" t="n">
-        <v>22502</v>
+        <v>23003</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4431496</v>
+        <v>4397670</v>
       </c>
       <c r="F132" t="n">
-        <v>512.3130271175851</v>
+        <v>209.4893883176592</v>
       </c>
       <c r="G132" t="n">
-        <v>539.2608266744109</v>
+        <v>387.6917230778071</v>
       </c>
       <c r="H132" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="I132" t="n">
-        <v>303347</v>
+        <v>313910</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2125428</v>
+        <v>2106312</v>
       </c>
       <c r="E133" t="n">
-        <v>8679696</v>
+        <v>8601632</v>
       </c>
       <c r="F133" t="n">
-        <v>374.5770890028556</v>
+        <v>429.9386086844715</v>
       </c>
       <c r="G133" t="n">
-        <v>684.5948744355724</v>
+        <v>1224.043429856086</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>564381</v>
+        <v>555802</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7441787</v>
+        <v>7391250</v>
       </c>
       <c r="E134" t="n">
-        <v>7497104</v>
+        <v>7446192</v>
       </c>
       <c r="F134" t="n">
-        <v>355865.3808022003</v>
+        <v>248796.1670340825</v>
       </c>
       <c r="G134" t="n">
-        <v>353104.1593862121</v>
+        <v>254433.1278945698</v>
       </c>
       <c r="H134" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I134" t="n">
-        <v>5112736</v>
+        <v>4902767</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13404279</v>
+        <v>13445963</v>
       </c>
       <c r="E135" t="n">
-        <v>13449895</v>
+        <v>13491721</v>
       </c>
       <c r="F135" t="n">
-        <v>9571.943007438238</v>
+        <v>14149.9995322277</v>
       </c>
       <c r="G135" t="n">
-        <v>5508.300809260838</v>
+        <v>6230.523861631631</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I135" t="n">
-        <v>5850196</v>
+        <v>5843142</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42791863</v>
+        <v>42678844</v>
       </c>
       <c r="E136" t="n">
-        <v>72650629</v>
+        <v>72458749</v>
       </c>
       <c r="F136" t="n">
-        <v>545.8238020849138</v>
+        <v>723.1206768825508</v>
       </c>
       <c r="G136" t="n">
-        <v>2226.581394537384</v>
+        <v>2251.059863349003</v>
       </c>
       <c r="H136" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1122906</v>
+        <v>1120872</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22894468</v>
+        <v>22922832</v>
       </c>
       <c r="E137" t="n">
-        <v>68627086</v>
+        <v>68712109</v>
       </c>
       <c r="F137" t="n">
-        <v>79573.130799085</v>
+        <v>88723.48567660774</v>
       </c>
       <c r="G137" t="n">
-        <v>60426.42802179812</v>
+        <v>86483.10268973734</v>
       </c>
       <c r="H137" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="I137" t="n">
-        <v>3145218</v>
+        <v>3091862</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101408037</v>
+        <v>101482845</v>
       </c>
       <c r="E138" t="n">
-        <v>107805908</v>
+        <v>107885436</v>
       </c>
       <c r="F138" t="n">
-        <v>6355.806780841539</v>
+        <v>6984.431951108209</v>
       </c>
       <c r="G138" t="n">
-        <v>15423.89894750775</v>
+        <v>14279.55667664954</v>
       </c>
       <c r="H138" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="I138" t="n">
-        <v>385468</v>
+        <v>382862</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1097476</v>
+        <v>1098022</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>180.94</v>
+        <v>178.98</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258497</v>
+        <v>258493</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.38</v>
+        <v>7.61</v>
       </c>
       <c r="I140" t="n">
         <v>199.01</v>
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96286</v>
+        <v>96295</v>
       </c>
       <c r="E141" t="n">
-        <v>273143</v>
+        <v>273167</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>41.6</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47137069</v>
+        <v>47370131</v>
       </c>
       <c r="E142" t="n">
-        <v>203061340</v>
+        <v>204065346</v>
       </c>
       <c r="F142" t="n">
-        <v>84033.66962337706</v>
+        <v>68785.89584939925</v>
       </c>
       <c r="G142" t="n">
-        <v>54899.06978850301</v>
+        <v>76242.1358781204</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8935299</v>
+        <v>8976448</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>279825</v>
+        <v>269926</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.9</v>
       </c>
       <c r="I143" t="n">
-        <v>137865</v>
+        <v>118938</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9482467</v>
+        <v>9451514</v>
       </c>
       <c r="F144" t="n">
-        <v>1038.731038152536</v>
+        <v>1054.519067884994</v>
       </c>
       <c r="G144" t="n">
-        <v>570.0669043846287</v>
+        <v>635.6181952639316</v>
       </c>
       <c r="H144" t="n">
         <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>121420</v>
+        <v>121115</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1179877</v>
+        <v>1181851</v>
       </c>
       <c r="E145" t="n">
-        <v>7865850</v>
+        <v>7879003</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4660435198494</v>
+        <v>263.4785130342303</v>
       </c>
       <c r="G145" t="n">
-        <v>105.009813002886</v>
+        <v>105.0147829844285</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5712.48</v>
+        <v>5713.72</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7707539</v>
+        <v>7828890</v>
       </c>
       <c r="F146" t="n">
-        <v>74.9428097442857</v>
+        <v>527.7214520915593</v>
       </c>
       <c r="G146" t="n">
-        <v>380.2303008374894</v>
+        <v>68.25754662709475</v>
       </c>
       <c r="H146" t="n">
-        <v>0.78</v>
+        <v>2.42</v>
       </c>
       <c r="I146" t="n">
-        <v>6592619</v>
+        <v>6646492</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>671629</v>
+        <v>672632</v>
       </c>
       <c r="E147" t="n">
-        <v>2424946</v>
+        <v>2428568</v>
       </c>
       <c r="F147" t="n">
-        <v>21.94585064175372</v>
+        <v>292.6967599306611</v>
       </c>
       <c r="G147" t="n">
-        <v>136.067999091116</v>
+        <v>138.9367777304914</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="I147" t="n">
-        <v>357158</v>
+        <v>354042</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1606465</v>
+        <v>1597863</v>
       </c>
       <c r="F148" t="n">
-        <v>60.92996522883607</v>
+        <v>209.6277881517851</v>
       </c>
       <c r="G148" t="n">
-        <v>56.00235452967882</v>
+        <v>68.02366362649296</v>
       </c>
       <c r="H148" t="n">
-        <v>0.76</v>
+        <v>1.43</v>
       </c>
       <c r="I148" t="n">
-        <v>86843</v>
+        <v>84847</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69297</v>
+        <v>69313</v>
       </c>
       <c r="F149" t="n">
-        <v>65.45304925597367</v>
+        <v>65.45614706595352</v>
       </c>
       <c r="G149" t="n">
-        <v>20.71035631463576</v>
+        <v>20.71133650958782</v>
       </c>
       <c r="H149" t="n">
         <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>947.26</v>
+        <v>947.48</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13136036</v>
+        <v>13180362</v>
       </c>
       <c r="E150" t="n">
-        <v>13136036</v>
+        <v>13180362</v>
       </c>
       <c r="F150" t="n">
-        <v>649.5607191608722</v>
+        <v>593.5099407090398</v>
       </c>
       <c r="G150" t="n">
-        <v>3340.594552673859</v>
+        <v>1757.765420649498</v>
       </c>
       <c r="H150" t="n">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="I150" t="n">
-        <v>3559782</v>
+        <v>2699297</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1787738</v>
+        <v>1866500</v>
       </c>
       <c r="E151" t="n">
-        <v>6494917</v>
+        <v>6780943</v>
       </c>
       <c r="F151" t="n">
-        <v>41.34505937147191</v>
+        <v>52.48607133088639</v>
       </c>
       <c r="G151" t="n">
-        <v>43.67388804651522</v>
+        <v>52.15004611958958</v>
       </c>
       <c r="H151" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="I151" t="n">
-        <v>119934</v>
+        <v>129389</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1264151</v>
+        <v>1260959</v>
       </c>
       <c r="E152" t="n">
-        <v>1264151</v>
+        <v>1260959</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1343.62</v>
+        <v>1340.23</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23528298</v>
+        <v>23598586</v>
       </c>
       <c r="E153" t="n">
-        <v>27140911</v>
+        <v>27227731</v>
       </c>
       <c r="F153" t="n">
-        <v>278.6849185494057</v>
+        <v>245.6404867442069</v>
       </c>
       <c r="G153" t="n">
-        <v>496.2570068894366</v>
+        <v>323.0192133729236</v>
       </c>
       <c r="H153" t="n">
-        <v>0.11</v>
+        <v>0.65</v>
       </c>
       <c r="I153" t="n">
-        <v>742133</v>
+        <v>743886</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2439510</v>
+        <v>2441560</v>
       </c>
       <c r="E154" t="n">
-        <v>18356764</v>
+        <v>18372190</v>
       </c>
       <c r="F154" t="n">
-        <v>3866.052610526142</v>
+        <v>3860.199489811811</v>
       </c>
       <c r="G154" t="n">
-        <v>3742.827956425624</v>
+        <v>3471.119724724358</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>165264</v>
+        <v>165268</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20575838</v>
+        <v>20623104</v>
       </c>
       <c r="E155" t="n">
-        <v>82303353</v>
+        <v>82492416</v>
       </c>
       <c r="F155" t="n">
-        <v>9877.787022398836</v>
+        <v>7518.364165712486</v>
       </c>
       <c r="G155" t="n">
-        <v>23229.17976899519</v>
+        <v>27647.35459267975</v>
       </c>
       <c r="H155" t="n">
         <v>0.48</v>
       </c>
       <c r="I155" t="n">
-        <v>5009210</v>
+        <v>4817873</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>312717282</v>
+        <v>311039087</v>
       </c>
       <c r="E156" t="n">
-        <v>312717282</v>
+        <v>311039087</v>
       </c>
       <c r="F156" t="n">
-        <v>373100.6775106387</v>
+        <v>297201.0955480387</v>
       </c>
       <c r="G156" t="n">
-        <v>328998.0473510482</v>
+        <v>396543.227547376</v>
       </c>
       <c r="H156" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I156" t="n">
-        <v>13405082</v>
+        <v>14710309</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12856646</v>
+        <v>12894996</v>
       </c>
       <c r="E157" t="n">
-        <v>40673781</v>
+        <v>40795104</v>
       </c>
       <c r="F157" t="n">
-        <v>9521.552659444065</v>
+        <v>9526.461171806299</v>
       </c>
       <c r="G157" t="n">
-        <v>14347.33088285451</v>
+        <v>15397.11530257973</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I157" t="n">
-        <v>1337376</v>
+        <v>1285522</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1084835</v>
+        <v>1083421</v>
       </c>
       <c r="E158" t="n">
-        <v>2470819</v>
+        <v>2467599</v>
       </c>
       <c r="F158" t="n">
-        <v>9.989648584384993</v>
+        <v>9.990121381808974</v>
       </c>
       <c r="G158" t="n">
-        <v>98.2716023730665</v>
+        <v>98.27625344362818</v>
       </c>
       <c r="H158" t="n">
         <v>3.59</v>
       </c>
       <c r="I158" t="n">
-        <v>4639.86</v>
+        <v>2818.61</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17741094</v>
+        <v>17837613</v>
       </c>
       <c r="E159" t="n">
-        <v>17741094</v>
+        <v>17837613</v>
       </c>
       <c r="F159" t="n">
-        <v>13183.81688362012</v>
+        <v>11541.45759305615</v>
       </c>
       <c r="G159" t="n">
-        <v>15079.81531693821</v>
+        <v>20577.22234094983</v>
       </c>
       <c r="H159" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I159" t="n">
-        <v>2597505</v>
+        <v>3516925</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4850099</v>
+        <v>4851231</v>
       </c>
       <c r="E160" t="n">
-        <v>8929550</v>
+        <v>8931635</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>8.880000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I160" t="n">
         <v>17.23</v>
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113735</v>
+        <v>113575</v>
       </c>
       <c r="E161" t="n">
-        <v>137658</v>
+        <v>137464</v>
       </c>
       <c r="F161" t="n">
-        <v>4.345740504316232</v>
+        <v>4.329314654784924</v>
       </c>
       <c r="G161" t="n">
-        <v>13.11920486186114</v>
+        <v>37.01192884611607</v>
       </c>
       <c r="H161" t="n">
-        <v>3.36</v>
+        <v>2.96</v>
       </c>
       <c r="I161" t="n">
-        <v>3279.99</v>
+        <v>3275.63</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19908191</v>
+        <v>20038331</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>9.43</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I162" t="n">
-        <v>1880.83</v>
+        <v>1905.25</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>437831</v>
+        <v>438424</v>
       </c>
       <c r="E163" t="n">
-        <v>551504</v>
+        <v>552250</v>
       </c>
       <c r="F163" t="n">
-        <v>141.9520254043593</v>
+        <v>133.9753346931804</v>
       </c>
       <c r="G163" t="n">
-        <v>161.2851931664782</v>
+        <v>192.3901942435758</v>
       </c>
       <c r="H163" t="n">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="I163" t="n">
-        <v>180568</v>
+        <v>180133</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>98495</v>
+        <v>98518</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>5.54</v>
       </c>
       <c r="I164" t="n">
-        <v>3830.08</v>
+        <v>3830.98</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12755552</v>
+        <v>12773290</v>
       </c>
       <c r="E165" t="n">
-        <v>19416826</v>
+        <v>19443828</v>
       </c>
       <c r="F165" t="n">
-        <v>843.5510624566253</v>
+        <v>1117.025379981699</v>
       </c>
       <c r="G165" t="n">
-        <v>947.4811121690159</v>
+        <v>1959.147455475778</v>
       </c>
       <c r="H165" t="n">
         <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>748597</v>
+        <v>776604</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>312592206</v>
+        <v>315186046</v>
       </c>
       <c r="E166" t="n">
-        <v>312592206</v>
+        <v>315186046</v>
       </c>
       <c r="F166" t="n">
-        <v>311324.1847920039</v>
+        <v>250949.1085656537</v>
       </c>
       <c r="G166" t="n">
-        <v>350726.915585089</v>
+        <v>412774.6033388042</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I166" t="n">
-        <v>50143387</v>
+        <v>51126555</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10272202</v>
+        <v>10269599</v>
       </c>
       <c r="E167" t="n">
-        <v>29164494</v>
+        <v>29157104</v>
       </c>
       <c r="F167" t="n">
-        <v>274.4989240754357</v>
+        <v>124.3657421086987</v>
       </c>
       <c r="G167" t="n">
-        <v>879.679198183875</v>
+        <v>1077.044577346451</v>
       </c>
       <c r="H167" t="n">
         <v>1.37</v>
       </c>
       <c r="I167" t="n">
-        <v>124262</v>
+        <v>121073</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11565397</v>
+        <v>11654459</v>
       </c>
       <c r="F168" t="n">
-        <v>195.9668369768111</v>
+        <v>179.9468675732771</v>
       </c>
       <c r="G168" t="n">
-        <v>891.1635532038567</v>
+        <v>1205.92113560183</v>
       </c>
       <c r="H168" t="n">
-        <v>1.21</v>
+        <v>0.77</v>
       </c>
       <c r="I168" t="n">
-        <v>98006</v>
+        <v>98695</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4161790</v>
+        <v>4168215</v>
       </c>
       <c r="E169" t="n">
-        <v>28437219</v>
+        <v>28481121</v>
       </c>
       <c r="F169" t="n">
-        <v>2179.593482677763</v>
+        <v>5956.032847452718</v>
       </c>
       <c r="G169" t="n">
-        <v>2346.250178191994</v>
+        <v>6282.282783148696</v>
       </c>
       <c r="H169" t="n">
         <v>0.7</v>
       </c>
       <c r="I169" t="n">
-        <v>2625818</v>
+        <v>2618841</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2815329</v>
+        <v>2817229</v>
       </c>
       <c r="E170" t="n">
-        <v>4174624</v>
+        <v>4177099</v>
       </c>
       <c r="F170" t="n">
-        <v>2712.003997024833</v>
+        <v>3596.34355914681</v>
       </c>
       <c r="G170" t="n">
-        <v>2359.99828207043</v>
+        <v>2351.697280054927</v>
       </c>
       <c r="H170" t="n">
         <v>0.71</v>
       </c>
       <c r="I170" t="n">
-        <v>209934</v>
+        <v>209686</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89247462</v>
+        <v>90253131</v>
       </c>
       <c r="E171" t="n">
-        <v>514282371</v>
+        <v>520077470</v>
       </c>
       <c r="F171" t="n">
-        <v>366476.3040070285</v>
+        <v>297024.1999518871</v>
       </c>
       <c r="G171" t="n">
-        <v>245623.1187212055</v>
+        <v>403376.4925707138</v>
       </c>
       <c r="H171" t="n">
         <v>0.27</v>
       </c>
       <c r="I171" t="n">
-        <v>16327058</v>
+        <v>16456298</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13766948</v>
+        <v>13759852</v>
       </c>
       <c r="E172" t="n">
-        <v>13766948</v>
+        <v>13759852</v>
       </c>
       <c r="F172" t="n">
-        <v>4081.865253753789</v>
+        <v>3728.789227821263</v>
       </c>
       <c r="G172" t="n">
-        <v>4045.554217001838</v>
+        <v>6315.456691592077</v>
       </c>
       <c r="H172" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="I172" t="n">
-        <v>603503</v>
+        <v>606695</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6091498</v>
+        <v>6091030</v>
       </c>
       <c r="E173" t="n">
-        <v>17304196</v>
+        <v>17302867</v>
       </c>
       <c r="F173" t="n">
-        <v>408.8405807674655</v>
+        <v>525.8476525164685</v>
       </c>
       <c r="G173" t="n">
-        <v>8993.349295214401</v>
+        <v>8410.014355445768</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="I173" t="n">
-        <v>216345</v>
+        <v>215558</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18397307</v>
+        <v>18672847</v>
       </c>
       <c r="E174" t="n">
-        <v>18397307</v>
+        <v>18672847</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039416750550943</v>
+        <v>1.039465944830197</v>
       </c>
       <c r="G174" t="n">
-        <v>481.6993596603657</v>
+        <v>473.4237522430865</v>
       </c>
       <c r="H174" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I174" t="n">
-        <v>118212</v>
+        <v>117537</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1338089</v>
+        <v>1339426</v>
       </c>
       <c r="F175" t="n">
-        <v>116.0596534573066</v>
+        <v>258.5637601601883</v>
       </c>
       <c r="G175" t="n">
-        <v>227.7081141306898</v>
+        <v>235.463649867106</v>
       </c>
       <c r="H175" t="n">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="I175" t="n">
-        <v>32916</v>
+        <v>31937</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>127194</v>
+        <v>146207</v>
       </c>
       <c r="E176" t="n">
-        <v>276898</v>
+        <v>318291</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.67</v>
+        <v>7.12</v>
       </c>
       <c r="I176" t="n">
-        <v>46776</v>
+        <v>54459</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2838056</v>
+        <v>2821101</v>
       </c>
       <c r="F177" t="n">
-        <v>89.67041675337043</v>
+        <v>316.6886404826873</v>
       </c>
       <c r="G177" t="n">
-        <v>408.4733988586911</v>
+        <v>54.426640423877</v>
       </c>
       <c r="H177" t="n">
         <v>1.41</v>
       </c>
       <c r="I177" t="n">
-        <v>416544</v>
+        <v>418980</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248643289</v>
+        <v>248679396</v>
       </c>
       <c r="E178" t="n">
-        <v>248645759</v>
+        <v>248681866</v>
       </c>
       <c r="F178" t="n">
-        <v>43275.81418178187</v>
+        <v>43350.09614758276</v>
       </c>
       <c r="G178" t="n">
-        <v>41595.60558605742</v>
+        <v>48331.60272211511</v>
       </c>
       <c r="H178" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="I178" t="n">
-        <v>2665151</v>
+        <v>2551076</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9290934</v>
+        <v>9291266</v>
       </c>
       <c r="E179" t="n">
-        <v>9290934</v>
+        <v>9291266</v>
       </c>
       <c r="F179" t="n">
-        <v>1195.390450200568</v>
+        <v>1257.01042436433</v>
       </c>
       <c r="G179" t="n">
-        <v>430.3435448167057</v>
+        <v>430.3530917292017</v>
       </c>
       <c r="H179" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I179" t="n">
-        <v>2093064</v>
+        <v>2089813</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>184185</v>
+        <v>184040</v>
       </c>
       <c r="E180" t="n">
-        <v>1422276</v>
+        <v>1421155</v>
       </c>
       <c r="F180" t="n">
-        <v>18.20995281304395</v>
+        <v>40.33627277137249</v>
       </c>
       <c r="G180" t="n">
-        <v>328.6775715006</v>
+        <v>382.2557101414974</v>
       </c>
       <c r="H180" t="n">
         <v>1.39</v>
       </c>
       <c r="I180" t="n">
-        <v>126695</v>
+        <v>123674</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30263823</v>
+        <v>30405488</v>
       </c>
       <c r="E181" t="n">
-        <v>135503551</v>
+        <v>136137845</v>
       </c>
       <c r="F181" t="n">
-        <v>49058.09955115013</v>
+        <v>41189.45996162088</v>
       </c>
       <c r="G181" t="n">
-        <v>59093.06651971764</v>
+        <v>64863.38631415239</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>8471123</v>
+        <v>8455614</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1487045</v>
+        <v>1485914</v>
       </c>
       <c r="F182" t="n">
-        <v>75.6641940627283</v>
+        <v>70.31361529569776</v>
       </c>
       <c r="G182" t="n">
-        <v>981.0606215350299</v>
+        <v>157.7874863416178</v>
       </c>
       <c r="H182" t="n">
         <v>0.05</v>
       </c>
       <c r="I182" t="n">
-        <v>25249</v>
+        <v>25031</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3025147</v>
+        <v>3065691</v>
       </c>
       <c r="E183" t="n">
-        <v>3025147</v>
+        <v>3065691</v>
       </c>
       <c r="F183" t="n">
-        <v>198.5729881820507</v>
+        <v>236.6088626518091</v>
       </c>
       <c r="G183" t="n">
-        <v>285.5379596619157</v>
+        <v>292.2243255519788</v>
       </c>
       <c r="H183" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="I183" t="n">
-        <v>440127</v>
+        <v>438610</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>559799</v>
+        <v>560015</v>
       </c>
       <c r="E184" t="n">
-        <v>559799</v>
+        <v>560015</v>
       </c>
       <c r="F184" t="n">
-        <v>12.33880549729902</v>
+        <v>12.33907922627162</v>
       </c>
       <c r="G184" t="n">
-        <v>4.667649354143048</v>
+        <v>4.667752903134272</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>44593</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13801374</v>
+        <v>14440906</v>
       </c>
       <c r="E185" t="n">
-        <v>17571353</v>
+        <v>18385578</v>
       </c>
       <c r="F185" t="n">
-        <v>1170.874432374057</v>
+        <v>390.7621682452087</v>
       </c>
       <c r="G185" t="n">
-        <v>223.1723311920534</v>
+        <v>305.2016205508198</v>
       </c>
       <c r="H185" t="n">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
       <c r="I185" t="n">
-        <v>809250</v>
+        <v>854180</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1813983</v>
+        <v>1815941</v>
       </c>
       <c r="E186" t="n">
-        <v>1813983</v>
+        <v>1815941</v>
       </c>
       <c r="F186" t="n">
-        <v>37.07925287937384</v>
+        <v>45.36084365797085</v>
       </c>
       <c r="G186" t="n">
-        <v>16.14290478314036</v>
+        <v>12.31398738664373</v>
       </c>
       <c r="H186" t="n">
         <v>3.15</v>
       </c>
       <c r="I186" t="n">
-        <v>4396.16</v>
+        <v>4294.99</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>48732731</v>
+        <v>49296313</v>
       </c>
       <c r="E187" t="n">
-        <v>316018794</v>
+        <v>319673472</v>
       </c>
       <c r="F187" t="n">
-        <v>91218.36607821425</v>
+        <v>109364.8034012538</v>
       </c>
       <c r="G187" t="n">
-        <v>154491.5588315319</v>
+        <v>146390.9821443602</v>
       </c>
       <c r="H187" t="n">
         <v>0.03</v>
       </c>
       <c r="I187" t="n">
-        <v>16288727</v>
+        <v>16593713</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9122084</v>
+        <v>9090990</v>
       </c>
       <c r="F188" t="n">
-        <v>976.4880126940569</v>
+        <v>859.7078952446325</v>
       </c>
       <c r="G188" t="n">
-        <v>291.8640481493221</v>
+        <v>476.7468146546962</v>
       </c>
       <c r="H188" t="n">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="I188" t="n">
-        <v>304303</v>
+        <v>303969</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>6976785</v>
+        <v>7014897</v>
       </c>
       <c r="E189" t="n">
-        <v>6986767</v>
+        <v>7024881</v>
       </c>
       <c r="F189" t="n">
-        <v>201.6110740748808</v>
+        <v>164.0109550198743</v>
       </c>
       <c r="G189" t="n">
-        <v>177.5075877705335</v>
+        <v>138.3794383896073</v>
       </c>
       <c r="H189" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="I189" t="n">
-        <v>606983</v>
+        <v>759500</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4788757</v>
+        <v>4782306</v>
       </c>
       <c r="F190" t="n">
-        <v>1880.526211407479</v>
+        <v>1913.415447273994</v>
       </c>
       <c r="G190" t="n">
-        <v>2555.597121744291</v>
+        <v>2081.266424785627</v>
       </c>
       <c r="H190" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="I190" t="n">
-        <v>182082</v>
+        <v>182833</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>98174958</v>
+        <v>94371245</v>
       </c>
       <c r="E191" t="n">
-        <v>99231745</v>
+        <v>95387088</v>
       </c>
       <c r="F191" t="n">
-        <v>45562.94942131696</v>
+        <v>39957.48404599116</v>
       </c>
       <c r="G191" t="n">
-        <v>30218.47836567148</v>
+        <v>47287.84637343097</v>
       </c>
       <c r="H191" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I191" t="n">
-        <v>31701247</v>
+        <v>33876639</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>231650769</v>
+        <v>235050374</v>
       </c>
       <c r="E192" t="n">
-        <v>231650769</v>
+        <v>235050374</v>
       </c>
       <c r="F192" t="n">
-        <v>108538.8132353382</v>
+        <v>77438.40440533096</v>
       </c>
       <c r="G192" t="n">
-        <v>73971.48601434217</v>
+        <v>118385.9052551813</v>
       </c>
       <c r="H192" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I192" t="n">
-        <v>44274203</v>
+        <v>44708455</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24081487</v>
+        <v>24404770</v>
       </c>
       <c r="E193" t="n">
-        <v>144084378</v>
+        <v>146018646</v>
       </c>
       <c r="F193" t="n">
-        <v>115344.99969723</v>
+        <v>87094.16512008365</v>
       </c>
       <c r="G193" t="n">
-        <v>106569.3568010682</v>
+        <v>156864.8217379677</v>
       </c>
       <c r="H193" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>11538545</v>
+        <v>11932588</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13701716</v>
+        <v>13582792</v>
       </c>
       <c r="E194" t="n">
-        <v>42045758</v>
+        <v>41680823</v>
       </c>
       <c r="F194" t="n">
-        <v>989.0209709394277</v>
+        <v>855.5917785247834</v>
       </c>
       <c r="G194" t="n">
-        <v>812.5237211609069</v>
+        <v>824.7818226130568</v>
       </c>
       <c r="H194" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I194" t="n">
-        <v>2572941</v>
+        <v>2570003</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55139118</v>
+        <v>55242609</v>
       </c>
       <c r="E195" t="n">
-        <v>95237244</v>
+        <v>95415996</v>
       </c>
       <c r="F195" t="n">
-        <v>8671.646260758846</v>
+        <v>8600.567940508989</v>
       </c>
       <c r="G195" t="n">
-        <v>14516.06488539354</v>
+        <v>7503.350069277749</v>
       </c>
       <c r="H195" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I195" t="n">
-        <v>2411294</v>
+        <v>2343088</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4209893</v>
+        <v>4181431</v>
       </c>
       <c r="E196" t="n">
-        <v>4209893</v>
+        <v>4181431</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064190311847609</v>
+        <v>7.073911231422416</v>
       </c>
       <c r="G196" t="n">
-        <v>391.3987017654069</v>
+        <v>367.6648765571742</v>
       </c>
       <c r="H196" t="n">
-        <v>2.91</v>
+        <v>1.69</v>
       </c>
       <c r="I196" t="n">
-        <v>1573220</v>
+        <v>1592287</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211202</v>
+        <v>212090</v>
       </c>
       <c r="F197" t="n">
-        <v>62.2228671764191</v>
+        <v>67.57896515146413</v>
       </c>
       <c r="G197" t="n">
-        <v>97.29656408809927</v>
+        <v>97.11780785004481</v>
       </c>
       <c r="H197" t="n">
-        <v>3.31</v>
+        <v>2.99</v>
       </c>
       <c r="I197" t="n">
-        <v>50925</v>
+        <v>51478</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6685266</v>
+        <v>6664749</v>
       </c>
       <c r="E198" t="n">
-        <v>34393663</v>
+        <v>34288108</v>
       </c>
       <c r="F198" t="n">
-        <v>177.7239052547692</v>
+        <v>207.5309682900667</v>
       </c>
       <c r="G198" t="n">
-        <v>346.013478563112</v>
+        <v>397.8275151182305</v>
       </c>
       <c r="H198" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="I198" t="n">
-        <v>924245</v>
+        <v>922579</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>175588534</v>
+        <v>176489537</v>
       </c>
       <c r="E199" t="n">
-        <v>205139253</v>
+        <v>206191891</v>
       </c>
       <c r="F199" t="n">
-        <v>17768.48425001503</v>
+        <v>22422.4122293025</v>
       </c>
       <c r="G199" t="n">
-        <v>34445.30322887455</v>
+        <v>32744.40463872337</v>
       </c>
       <c r="H199" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="I199" t="n">
-        <v>4215975</v>
+        <v>4201498</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>298021</v>
+        <v>301344</v>
       </c>
       <c r="F200" t="n">
-        <v>35.80880204484936</v>
+        <v>142.6634969159534</v>
       </c>
       <c r="G200" t="n">
-        <v>152.1335130157674</v>
+        <v>222.1745596465125</v>
       </c>
       <c r="H200" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="I200" t="n">
-        <v>219824</v>
+        <v>318306</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7992351</v>
+        <v>7997212</v>
       </c>
       <c r="F201" t="n">
-        <v>896.5350388996862</v>
+        <v>897.7219058585954</v>
       </c>
       <c r="G201" t="n">
-        <v>843.3092124234314</v>
+        <v>889.1100042776782</v>
       </c>
       <c r="H201" t="n">
         <v>0.3</v>
       </c>
       <c r="I201" t="n">
-        <v>680465</v>
+        <v>668267</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33996</v>
+        <v>34013</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.5599999999999</v>
+        <v>651.71</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34864997</v>
+        <v>35062237</v>
       </c>
       <c r="E203" t="n">
-        <v>173992406</v>
+        <v>174976727</v>
       </c>
       <c r="F203" t="n">
-        <v>114060.4823651532</v>
+        <v>88283.20820344935</v>
       </c>
       <c r="G203" t="n">
-        <v>98933.0345807605</v>
+        <v>126464.2442756578</v>
       </c>
       <c r="H203" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I203" t="n">
-        <v>10182853</v>
+        <v>10331357</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1981176</v>
+        <v>1982724</v>
       </c>
       <c r="E204" t="n">
-        <v>1981176</v>
+        <v>1982724</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>10.88</v>
+        <v>10.57</v>
       </c>
       <c r="I204" t="n">
-        <v>13617.49</v>
+        <v>13469.04</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>169572</v>
+        <v>178004</v>
       </c>
       <c r="F205" t="n">
-        <v>20.5406717464083</v>
+        <v>24.59126348602102</v>
       </c>
       <c r="G205" t="n">
-        <v>307.4236668872254</v>
+        <v>308.0286149251973</v>
       </c>
       <c r="H205" t="n">
-        <v>1.74</v>
+        <v>2.89</v>
       </c>
       <c r="I205" t="n">
-        <v>10640.79</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2777.59</v>
+        <v>2778.24</v>
       </c>
       <c r="E206" t="n">
-        <v>33198</v>
+        <v>33206</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>7.97</v>
+        <v>7.89</v>
       </c>
       <c r="I206" t="n">
-        <v>7981.46</v>
+        <v>7983.33</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>315542417</v>
+        <v>317231907</v>
       </c>
       <c r="E208" t="n">
-        <v>583825430</v>
+        <v>586951373</v>
       </c>
       <c r="F208" t="n">
-        <v>152443.9560773186</v>
+        <v>130721.8443641237</v>
       </c>
       <c r="G208" t="n">
-        <v>166922.0581760864</v>
+        <v>195624.4407316902</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I208" t="n">
-        <v>13326381</v>
+        <v>13137471</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>70718731</v>
+        <v>72147764</v>
       </c>
       <c r="E209" t="n">
-        <v>674651960</v>
+        <v>688281165</v>
       </c>
       <c r="F209" t="n">
-        <v>346860.9364297967</v>
+        <v>290479.0486694113</v>
       </c>
       <c r="G209" t="n">
-        <v>333091.6875151505</v>
+        <v>386471.7167665029</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I209" t="n">
-        <v>21442956</v>
+        <v>21664326</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2506232</v>
+        <v>2694710</v>
       </c>
       <c r="F210" t="n">
-        <v>3.408717700060814</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>126.7809259427854</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>2.95</v>
+        <v>4.77</v>
       </c>
       <c r="I210" t="n">
-        <v>50662</v>
+        <v>55726</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81016</v>
+        <v>81101</v>
       </c>
       <c r="E211" t="n">
-        <v>673499</v>
+        <v>674211</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>174.29</v>
+        <v>174.02</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1889790</v>
+        <v>1889623</v>
       </c>
       <c r="E212" t="n">
-        <v>5396996</v>
+        <v>5396521</v>
       </c>
       <c r="F212" t="n">
-        <v>85.33145561205704</v>
+        <v>72.49581429122746</v>
       </c>
       <c r="G212" t="n">
-        <v>340.8200340306799</v>
+        <v>332.6262229001502</v>
       </c>
       <c r="H212" t="n">
         <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>69720</v>
+        <v>67888</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10551272</v>
+        <v>10846315</v>
       </c>
       <c r="E213" t="n">
-        <v>31308023</v>
+        <v>32181735</v>
       </c>
       <c r="F213" t="n">
-        <v>2119.132942606592</v>
+        <v>2591.387459512493</v>
       </c>
       <c r="G213" t="n">
-        <v>2604.119955634329</v>
+        <v>3376.569375839719</v>
       </c>
       <c r="H213" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="I213" t="n">
-        <v>6355724</v>
+        <v>6607940</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>13841453</v>
+        <v>14579599</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>11.36</v>
+        <v>11.27</v>
       </c>
       <c r="I214" t="n">
-        <v>973.62</v>
+        <v>1250.74</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2009365</v>
+        <v>1984573</v>
       </c>
       <c r="E215" t="n">
-        <v>5829815</v>
+        <v>5757885</v>
       </c>
       <c r="F215" t="n">
-        <v>55.40860231248805</v>
+        <v>68.20629201719989</v>
       </c>
       <c r="G215" t="n">
-        <v>619.8588673265292</v>
+        <v>615.8061562945445</v>
       </c>
       <c r="H215" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="I215" t="n">
-        <v>47479</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2147187</v>
+        <v>2138318</v>
       </c>
       <c r="E216" t="n">
-        <v>18939617</v>
+        <v>18861384</v>
       </c>
       <c r="F216" t="n">
-        <v>216.2203669189166</v>
+        <v>362.5023248651708</v>
       </c>
       <c r="G216" t="n">
-        <v>39.59548949965912</v>
+        <v>198.5284913520607</v>
       </c>
       <c r="H216" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="I216" t="n">
-        <v>79639</v>
+        <v>74428</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44457319</v>
+        <v>44608949</v>
       </c>
       <c r="E217" t="n">
-        <v>44457319</v>
+        <v>44608949</v>
       </c>
       <c r="F217" t="n">
-        <v>39116.61220595058</v>
+        <v>33713.90582646895</v>
       </c>
       <c r="G217" t="n">
-        <v>30448.47037375639</v>
+        <v>33726.07976696904</v>
       </c>
       <c r="H217" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I217" t="n">
-        <v>7621965</v>
+        <v>7599038</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8426767</v>
+        <v>8437947</v>
       </c>
       <c r="E218" t="n">
-        <v>12006212</v>
+        <v>12022141</v>
       </c>
       <c r="F218" t="n">
-        <v>3912.382826773238</v>
+        <v>4390.901986083015</v>
       </c>
       <c r="G218" t="n">
-        <v>207.7482834102556</v>
+        <v>375.8085950789572</v>
       </c>
       <c r="H218" t="n">
-        <v>0.84</v>
+        <v>0.58</v>
       </c>
       <c r="I218" t="n">
-        <v>437605</v>
+        <v>434814</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16316129</v>
+        <v>16353221</v>
       </c>
       <c r="F219" t="n">
-        <v>2.119854838984175</v>
+        <v>36.35875838982161</v>
       </c>
       <c r="G219" t="n">
-        <v>1025.174573868088</v>
+        <v>410.2623509792953</v>
       </c>
       <c r="H219" t="n">
-        <v>1.06</v>
+        <v>1.99</v>
       </c>
       <c r="I219" t="n">
-        <v>976730</v>
+        <v>985675</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>724390</v>
+        <v>718367</v>
       </c>
       <c r="F220" t="n">
-        <v>87.07761293972783</v>
+        <v>117.9930841098256</v>
       </c>
       <c r="G220" t="n">
-        <v>318.7317606893899</v>
+        <v>318.5635088233212</v>
       </c>
       <c r="H220" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>245500</v>
+        <v>228884</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2843924</v>
+        <v>2852088</v>
       </c>
       <c r="E221" t="n">
-        <v>2846387</v>
+        <v>2854559</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>4.63</v>
+        <v>4.91</v>
       </c>
       <c r="I221" t="n">
-        <v>109532</v>
+        <v>108804</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1257837</v>
+        <v>1263072</v>
       </c>
       <c r="E222" t="n">
-        <v>3802671</v>
+        <v>3817919</v>
       </c>
       <c r="F222" t="n">
-        <v>1298.047656902143</v>
+        <v>922.9295643323517</v>
       </c>
       <c r="G222" t="n">
-        <v>505.5833428625448</v>
+        <v>596.5859035528518</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>11276.62</v>
+        <v>12416.31</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38179431</v>
+        <v>38777007</v>
       </c>
       <c r="E223" t="n">
-        <v>270685934</v>
+        <v>274922656</v>
       </c>
       <c r="F223" t="n">
-        <v>77877.6965178244</v>
+        <v>64950.94323293109</v>
       </c>
       <c r="G223" t="n">
-        <v>72570.18389075607</v>
+        <v>73431.87433191882</v>
       </c>
       <c r="H223" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="I223" t="n">
-        <v>1475048</v>
+        <v>1606899</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58395</v>
+        <v>58910</v>
       </c>
       <c r="E224" t="n">
-        <v>304683</v>
+        <v>307369</v>
       </c>
       <c r="F224" t="n">
-        <v>614.6631468612314</v>
+        <v>267.421904695961</v>
       </c>
       <c r="G224" t="n">
-        <v>62.55478877269807</v>
+        <v>4.825672688237597</v>
       </c>
       <c r="H224" t="n">
-        <v>1.48</v>
+        <v>0.52</v>
       </c>
       <c r="I224" t="n">
-        <v>270866</v>
+        <v>277665</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1270000</v>
+        <v>1270347</v>
       </c>
       <c r="E225" t="n">
-        <v>7875300</v>
+        <v>7877451</v>
       </c>
       <c r="F225" t="n">
-        <v>1719.065044766417</v>
+        <v>1700.052188288858</v>
       </c>
       <c r="G225" t="n">
-        <v>1587.041690633685</v>
+        <v>1615.869478294197</v>
       </c>
       <c r="H225" t="n">
         <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>743610</v>
+        <v>754236</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>599602423</v>
+        <v>606389286</v>
       </c>
       <c r="E226" t="n">
-        <v>2322171719</v>
+        <v>2348456237</v>
       </c>
       <c r="F226" t="n">
-        <v>299110.388426229</v>
+        <v>234029.8484707844</v>
       </c>
       <c r="G226" t="n">
-        <v>303830.6203865577</v>
+        <v>440697.6818460877</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32894447</v>
+        <v>32898268</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20438946</v>
+        <v>20811795</v>
       </c>
       <c r="F227" t="n">
-        <v>944.0725964922883</v>
+        <v>1006.164482060805</v>
       </c>
       <c r="G227" t="n">
-        <v>945.3478247785989</v>
+        <v>1525.115989961381</v>
       </c>
       <c r="H227" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>16656016</v>
+        <v>16710104</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>821815</v>
+        <v>811491</v>
       </c>
       <c r="F228" t="n">
-        <v>205.8547174071783</v>
+        <v>232.0367154616061</v>
       </c>
       <c r="G228" t="n">
-        <v>15.26527470862616</v>
+        <v>41.17097839309073</v>
       </c>
       <c r="H228" t="n">
-        <v>2.91</v>
+        <v>1.96</v>
       </c>
       <c r="I228" t="n">
-        <v>232181</v>
+        <v>222921</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5837056</v>
+        <v>5844292</v>
       </c>
       <c r="E229" t="n">
-        <v>26133228</v>
+        <v>26165627</v>
       </c>
       <c r="F229" t="n">
-        <v>2205.943185615628</v>
+        <v>2170.669048679498</v>
       </c>
       <c r="G229" t="n">
-        <v>1894.416981463573</v>
+        <v>1831.795452170377</v>
       </c>
       <c r="H229" t="n">
         <v>0.39</v>
       </c>
       <c r="I229" t="n">
-        <v>148017</v>
+        <v>147916</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6675934</v>
+        <v>6684953</v>
       </c>
       <c r="E230" t="n">
-        <v>12781617</v>
+        <v>12798884</v>
       </c>
       <c r="F230" t="n">
-        <v>215.3329055189041</v>
+        <v>212.9638754326801</v>
       </c>
       <c r="G230" t="n">
-        <v>1722.504792850425</v>
+        <v>1722.406260561939</v>
       </c>
       <c r="H230" t="n">
         <v>2.33</v>
       </c>
       <c r="I230" t="n">
-        <v>163507</v>
+        <v>162088</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3277797</v>
+        <v>3258485</v>
       </c>
       <c r="E231" t="n">
-        <v>21554028</v>
+        <v>21427037</v>
       </c>
       <c r="F231" t="n">
-        <v>2277.103696912025</v>
+        <v>2307.667523139195</v>
       </c>
       <c r="G231" t="n">
-        <v>406.4515013335803</v>
+        <v>523.6265095517127</v>
       </c>
       <c r="H231" t="n">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I231" t="n">
-        <v>1469008</v>
+        <v>1514425</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>121071572</v>
+        <v>122861762</v>
       </c>
       <c r="E232" t="n">
-        <v>1052642906</v>
+        <v>1068207506</v>
       </c>
       <c r="F232" t="n">
-        <v>217414.1140773203</v>
+        <v>190171.1863322292</v>
       </c>
       <c r="G232" t="n">
-        <v>186152.0416356252</v>
+        <v>233530.3326608349</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>9076363</v>
+        <v>9105594</v>
       </c>
     </row>
     <row r="233">
@@ -8548,16 +8548,16 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>1.378604966109861</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>49.0056574951978</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.83</v>
+        <v>7.92</v>
       </c>
       <c r="I233" t="n">
-        <v>1146.98</v>
+        <v>1285.33</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>112242137</v>
+        <v>114618852</v>
       </c>
       <c r="E234" t="n">
-        <v>171228011</v>
+        <v>174853746</v>
       </c>
       <c r="F234" t="n">
-        <v>80930.21071255354</v>
+        <v>93533.64093927167</v>
       </c>
       <c r="G234" t="n">
-        <v>69564.538461665</v>
+        <v>90906.23344742444</v>
       </c>
       <c r="H234" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I234" t="n">
-        <v>9239463</v>
+        <v>8642167</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16315576</v>
+        <v>16522307</v>
       </c>
       <c r="E235" t="n">
-        <v>22383557</v>
+        <v>22667174</v>
       </c>
       <c r="F235" t="n">
-        <v>683.8143455860553</v>
+        <v>660.4030701518429</v>
       </c>
       <c r="G235" t="n">
-        <v>2438.534833184639</v>
+        <v>1962.488678374986</v>
       </c>
       <c r="H235" t="n">
-        <v>0.4</v>
+        <v>1.14</v>
       </c>
       <c r="I235" t="n">
-        <v>460182</v>
+        <v>471792</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>117864503</v>
+        <v>118364103</v>
       </c>
       <c r="E236" t="n">
-        <v>452147204</v>
+        <v>454063750</v>
       </c>
       <c r="F236" t="n">
-        <v>481124.8874029717</v>
+        <v>417379.7446903568</v>
       </c>
       <c r="G236" t="n">
-        <v>463224.1392324442</v>
+        <v>506261.3088173541</v>
       </c>
       <c r="H236" t="n">
         <v>0.04</v>
       </c>
       <c r="I236" t="n">
-        <v>30984308</v>
+        <v>30995660</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>760314</v>
+        <v>756540</v>
       </c>
       <c r="F237" t="n">
-        <v>69.75590196683572</v>
+        <v>69.75744945953122</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55253337640278</v>
+        <v>20.55298932198412</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>53566</v>
+        <v>52838</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>849957</v>
+        <v>843424</v>
       </c>
       <c r="F238" t="n">
-        <v>23.25870289355689</v>
+        <v>8.820319655779887</v>
       </c>
       <c r="G238" t="n">
-        <v>752.9300476210822</v>
+        <v>412.1263138784752</v>
       </c>
       <c r="H238" t="n">
-        <v>3.32</v>
+        <v>2.84</v>
       </c>
       <c r="I238" t="n">
-        <v>110235</v>
+        <v>118811</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3175286</v>
+        <v>3179467</v>
       </c>
       <c r="E239" t="n">
-        <v>30086302</v>
+        <v>30125918</v>
       </c>
       <c r="F239" t="n">
-        <v>922.5238400341169</v>
+        <v>1220.919213760311</v>
       </c>
       <c r="G239" t="n">
-        <v>1785.342159250272</v>
+        <v>1879.056819890887</v>
       </c>
       <c r="H239" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="I239" t="n">
-        <v>204165</v>
+        <v>205898</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>731850</v>
+        <v>731551</v>
       </c>
       <c r="E240" t="n">
-        <v>782344</v>
+        <v>782024</v>
       </c>
       <c r="F240" t="n">
-        <v>26.31405611172844</v>
+        <v>25.30855783351331</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.825007485296</v>
+        <v>1578.855141912299</v>
       </c>
       <c r="H240" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="I240" t="n">
-        <v>71817</v>
+        <v>77055</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>376301</v>
+        <v>376465</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>5.64</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I241" t="n">
-        <v>528.01</v>
+        <v>468.12</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>133538</v>
+        <v>132135</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>247.6244881758498</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>10.20140412257637</v>
       </c>
       <c r="H242" t="n">
-        <v>4.35</v>
+        <v>2.9</v>
       </c>
       <c r="I242" t="n">
-        <v>92304</v>
+        <v>91817</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570380</v>
+        <v>570688</v>
       </c>
       <c r="F243" t="n">
-        <v>610.1572126348615</v>
+        <v>604.9636020888487</v>
       </c>
       <c r="G243" t="n">
-        <v>392.1840819752467</v>
+        <v>600.8467668856991</v>
       </c>
       <c r="H243" t="n">
         <v>1.05</v>
       </c>
       <c r="I243" t="n">
-        <v>934.53</v>
+        <v>934.52</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5834486</v>
+        <v>5826917</v>
       </c>
       <c r="E244" t="n">
-        <v>36463865</v>
+        <v>36416564</v>
       </c>
       <c r="F244" t="n">
-        <v>679.5510287815109</v>
+        <v>698.9225771984338</v>
       </c>
       <c r="G244" t="n">
-        <v>585.5499738481125</v>
+        <v>647.2757334951318</v>
       </c>
       <c r="H244" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="I244" t="n">
-        <v>397271</v>
+        <v>400893</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5120179</v>
+        <v>5114618</v>
       </c>
       <c r="E245" t="n">
-        <v>19066498</v>
+        <v>19045789</v>
       </c>
       <c r="F245" t="n">
-        <v>6768.891822435721</v>
+        <v>6844.505167868795</v>
       </c>
       <c r="G245" t="n">
-        <v>10838.19641095786</v>
+        <v>10913.36993872575</v>
       </c>
       <c r="H245" t="n">
         <v>0.52</v>
       </c>
       <c r="I245" t="n">
-        <v>62126</v>
+        <v>59032</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3798344</v>
+        <v>3799297</v>
       </c>
       <c r="F246" t="n">
-        <v>48.0321336151413</v>
+        <v>50.99696622860084</v>
       </c>
       <c r="G246" t="n">
-        <v>2312.111679263805</v>
+        <v>2311.953563238362</v>
       </c>
       <c r="H246" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="I246" t="n">
-        <v>5924.8</v>
+        <v>5386.42</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31696728</v>
+        <v>31649836</v>
       </c>
       <c r="E247" t="n">
-        <v>113612493</v>
+        <v>113444413</v>
       </c>
       <c r="F247" t="n">
-        <v>29.73978988611173</v>
+        <v>45.23191850064042</v>
       </c>
       <c r="G247" t="n">
-        <v>2112.192077950637</v>
+        <v>2081.745464339476</v>
       </c>
       <c r="H247" t="n">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="I247" t="n">
-        <v>93316</v>
+        <v>93575</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1519595</v>
+        <v>1528913</v>
       </c>
       <c r="F248" t="n">
-        <v>31.63432570120035</v>
+        <v>12.38294687594063</v>
       </c>
       <c r="G248" t="n">
-        <v>454.625836372701</v>
+        <v>454.8026109228428</v>
       </c>
       <c r="H248" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="I248" t="n">
-        <v>603282</v>
+        <v>606312</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2219691</v>
+        <v>2238626</v>
       </c>
       <c r="E249" t="n">
-        <v>17073234</v>
+        <v>17218873</v>
       </c>
       <c r="F249" t="n">
-        <v>327.1083887631395</v>
+        <v>5064.766012563161</v>
       </c>
       <c r="G249" t="n">
-        <v>1382.942994143403</v>
+        <v>5590.414624527915</v>
       </c>
       <c r="H249" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="I249" t="n">
-        <v>176840</v>
+        <v>174790</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103709</v>
+        <v>103788</v>
       </c>
       <c r="E250" t="n">
-        <v>823761</v>
+        <v>824389</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2831899911296</v>
+        <v>161.147617189146</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5625510538226</v>
+        <v>359.570530615231</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1397.68</v>
+        <v>1397.6</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>87981805</v>
+        <v>88230223</v>
       </c>
       <c r="E251" t="n">
-        <v>325234312</v>
+        <v>326151112</v>
       </c>
       <c r="F251" t="n">
-        <v>5082.924636505647</v>
+        <v>5082.269596918673</v>
       </c>
       <c r="G251" t="n">
-        <v>1790.967327435921</v>
+        <v>1797.036946358915</v>
       </c>
       <c r="H251" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="I251" t="n">
-        <v>282193</v>
+        <v>260964</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2319238</v>
+        <v>2319403</v>
       </c>
       <c r="E252" t="n">
-        <v>9306021</v>
+        <v>9306681</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.83</v>
+        <v>5.71</v>
       </c>
       <c r="I252" t="n">
-        <v>40911</v>
+        <v>40794</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>592433</v>
+        <v>590118</v>
       </c>
       <c r="F253" t="n">
-        <v>3.896531292552814</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>164.6837692272</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>2.79</v>
+        <v>4.1</v>
       </c>
       <c r="I253" t="n">
-        <v>2695.38</v>
+        <v>3103.33</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39596</v>
+        <v>39615</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>5.84</v>
       </c>
       <c r="I254" t="n">
-        <v>4261.8</v>
+        <v>4239.12</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>713294963</v>
+        <v>726089755</v>
       </c>
       <c r="E255" t="n">
-        <v>1099963811</v>
+        <v>1119694510</v>
       </c>
       <c r="F255" t="n">
-        <v>209406.8611226564</v>
+        <v>295703.5809875673</v>
       </c>
       <c r="G255" t="n">
-        <v>204720.9275027174</v>
+        <v>189020.7969093739</v>
       </c>
       <c r="H255" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I255" t="n">
-        <v>186936875</v>
+        <v>221738781</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5808518</v>
+        <v>5785333</v>
       </c>
       <c r="E256" t="n">
-        <v>5808518</v>
+        <v>5785333</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.6</v>
+        <v>8.27</v>
       </c>
       <c r="I256" t="n">
-        <v>631.28</v>
+        <v>656.24</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39541152</v>
+        <v>39766166</v>
       </c>
       <c r="E257" t="n">
-        <v>188579881</v>
+        <v>189652865</v>
       </c>
       <c r="F257" t="n">
-        <v>1102.71522182748</v>
+        <v>965.7042270305567</v>
       </c>
       <c r="G257" t="n">
-        <v>287.9894046989031</v>
+        <v>171.6107465897563</v>
       </c>
       <c r="H257" t="n">
-        <v>0.05</v>
+        <v>0.37</v>
       </c>
       <c r="I257" t="n">
-        <v>418579</v>
+        <v>294240</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>590400</v>
+        <v>590739</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>10.27</v>
       </c>
       <c r="I258" t="n">
-        <v>450.68</v>
+        <v>451.13</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23634046</v>
+        <v>23671307</v>
       </c>
       <c r="E259" t="n">
-        <v>39390076</v>
+        <v>39452177</v>
       </c>
       <c r="F259" t="n">
-        <v>6689.774633559014</v>
+        <v>5242.365404403621</v>
       </c>
       <c r="G259" t="n">
-        <v>8244.106145732661</v>
+        <v>7276.13712775015</v>
       </c>
       <c r="H259" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I259" t="n">
-        <v>694861</v>
+        <v>673843</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108431</v>
+        <v>110166</v>
       </c>
       <c r="F260" t="n">
-        <v>105.170742609933</v>
+        <v>125.9863092197752</v>
       </c>
       <c r="G260" t="n">
-        <v>178.1197276234593</v>
+        <v>90.95740218100855</v>
       </c>
       <c r="H260" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="I260" t="n">
-        <v>48431</v>
+        <v>49705</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>968155</v>
+        <v>982455</v>
       </c>
       <c r="E261" t="n">
-        <v>4134581</v>
+        <v>4195650</v>
       </c>
       <c r="F261" t="n">
-        <v>1976.013826335576</v>
+        <v>950.9577681596415</v>
       </c>
       <c r="G261" t="n">
-        <v>5466.277154452954</v>
+        <v>5647.979502257733</v>
       </c>
       <c r="H261" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="I261" t="n">
-        <v>36318</v>
+        <v>37839</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3817411</v>
+        <v>3824935</v>
       </c>
       <c r="E262" t="n">
-        <v>8329542</v>
+        <v>8345959</v>
       </c>
       <c r="F262" t="n">
-        <v>1551.02232236886</v>
+        <v>1049.590305499472</v>
       </c>
       <c r="G262" t="n">
-        <v>2008.648866917339</v>
+        <v>2068.723259150873</v>
       </c>
       <c r="H262" t="n">
         <v>0.49</v>
       </c>
       <c r="I262" t="n">
-        <v>1308124</v>
+        <v>1393605</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>487493543</v>
+        <v>493168298</v>
       </c>
       <c r="E263" t="n">
-        <v>1696924454</v>
+        <v>1716677803</v>
       </c>
       <c r="F263" t="n">
-        <v>752799.7532453428</v>
+        <v>437850.3082590176</v>
       </c>
       <c r="G263" t="n">
-        <v>565359.4440643989</v>
+        <v>685697.8388532002</v>
       </c>
       <c r="H263" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>29329589</v>
+        <v>29219879</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5735900188</v>
+        <v>5744667136</v>
       </c>
       <c r="E264" t="n">
-        <v>5735900188</v>
+        <v>5744667136</v>
       </c>
       <c r="F264" t="n">
-        <v>4224.033215368348</v>
+        <v>3806.030982829891</v>
       </c>
       <c r="G264" t="n">
-        <v>2158.18468500455</v>
+        <v>2270.768262873432</v>
       </c>
       <c r="H264" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I264" t="n">
-        <v>16848010</v>
+        <v>16999858</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24100427</v>
+        <v>23938187</v>
       </c>
       <c r="E265" t="n">
-        <v>24079493</v>
+        <v>23917393</v>
       </c>
       <c r="F265" t="n">
-        <v>268.2255649850371</v>
+        <v>202.3341907631394</v>
       </c>
       <c r="G265" t="n">
-        <v>96.65703842066675</v>
+        <v>81.21785790159008</v>
       </c>
       <c r="H265" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="I265" t="n">
-        <v>90014</v>
+        <v>89165</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12204251</v>
+        <v>12228878</v>
       </c>
       <c r="E266" t="n">
-        <v>24688414</v>
+        <v>24735136</v>
       </c>
       <c r="F266" t="n">
-        <v>739.4151273648863</v>
+        <v>736.123160850201</v>
       </c>
       <c r="G266" t="n">
-        <v>689.8580298194682</v>
+        <v>690.0880541671426</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="I266" t="n">
-        <v>41774</v>
+        <v>40771</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>151596</v>
+        <v>152675</v>
       </c>
       <c r="F267" t="n">
-        <v>184.5860214154291</v>
+        <v>182.5641134064571</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1367151256992</v>
+        <v>132.1396464991844</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>57512</v>
+        <v>57426</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47198</v>
+        <v>47218</v>
       </c>
       <c r="F268" t="n">
-        <v>30.9953863189826</v>
+        <v>30.86851807316392</v>
       </c>
       <c r="G268" t="n">
-        <v>73.75634519600891</v>
+        <v>74.07453911758171</v>
       </c>
       <c r="H268" t="n">
-        <v>3.91</v>
+        <v>3.31</v>
       </c>
       <c r="I268" t="n">
-        <v>71448</v>
+        <v>71532</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2623304</v>
+        <v>2626774</v>
       </c>
       <c r="E269" t="n">
-        <v>10493217</v>
+        <v>10507095</v>
       </c>
       <c r="F269" t="n">
-        <v>53570.2318243821</v>
+        <v>61665.25060244161</v>
       </c>
       <c r="G269" t="n">
-        <v>50531.00544272784</v>
+        <v>45506.26248133834</v>
       </c>
       <c r="H269" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="I269" t="n">
-        <v>6962161</v>
+        <v>6894744</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>216305613</v>
+        <v>218775325</v>
       </c>
       <c r="E270" t="n">
-        <v>665058361</v>
+        <v>672651793</v>
       </c>
       <c r="F270" t="n">
-        <v>310996.0417203571</v>
+        <v>166436.358345801</v>
       </c>
       <c r="G270" t="n">
-        <v>167293.9520030779</v>
+        <v>197925.0693477174</v>
       </c>
       <c r="H270" t="n">
         <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>11907659</v>
+        <v>12081923</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>151006692</v>
+        <v>151066090</v>
       </c>
       <c r="E271" t="n">
-        <v>394500795</v>
+        <v>394655969</v>
       </c>
       <c r="F271" t="n">
-        <v>68385.85236985383</v>
+        <v>55815.02121522663</v>
       </c>
       <c r="G271" t="n">
-        <v>56086.42342246741</v>
+        <v>71613.84079026252</v>
       </c>
       <c r="H271" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I271" t="n">
-        <v>7204727</v>
+        <v>7021499</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2441771</v>
+        <v>2436502</v>
       </c>
       <c r="E272" t="n">
-        <v>3351430</v>
+        <v>3343833</v>
       </c>
       <c r="F272" t="n">
-        <v>125.0496202804522</v>
+        <v>123.4308623795434</v>
       </c>
       <c r="G272" t="n">
-        <v>105.4603926639335</v>
+        <v>105.0773285771413</v>
       </c>
       <c r="H272" t="n">
         <v>0.86</v>
       </c>
       <c r="I272" t="n">
-        <v>1047706</v>
+        <v>1044854</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54635</v>
+        <v>54614</v>
       </c>
       <c r="F2" t="n">
-        <v>10.61890696006288</v>
+        <v>10.61919825581006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.28189589801487</v>
+        <v>0.2819036309271697</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1055.16</v>
+        <v>1055.46</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91280</v>
+        <v>91252</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49890272937434</v>
+        <v>22.49951991480651</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1686018654063</v>
+        <v>416.1800181198562</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1850.01</v>
+        <v>1584.25</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>605559370</v>
+        <v>605513462</v>
       </c>
       <c r="E4" t="n">
-        <v>1175064799</v>
+        <v>1174980171</v>
       </c>
       <c r="F4" t="n">
-        <v>38021.38264039721</v>
+        <v>44267.18278502589</v>
       </c>
       <c r="G4" t="n">
-        <v>54903.22991828746</v>
+        <v>45572.9293765778</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>19784841</v>
+        <v>19591179</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1305395</v>
+        <v>1298445</v>
       </c>
       <c r="E5" t="n">
-        <v>4219572</v>
+        <v>4197108</v>
       </c>
       <c r="F5" t="n">
-        <v>4810.613382773872</v>
+        <v>5545.947029454847</v>
       </c>
       <c r="G5" t="n">
-        <v>5142.562657330639</v>
+        <v>6573.736107811154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="I5" t="n">
-        <v>111481</v>
+        <v>113210</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>144081045</v>
+        <v>144611279</v>
       </c>
       <c r="E6" t="n">
-        <v>159664315</v>
+        <v>160251897</v>
       </c>
       <c r="F6" t="n">
-        <v>202427.6173460048</v>
+        <v>201240.929930717</v>
       </c>
       <c r="G6" t="n">
-        <v>407252.6202619873</v>
+        <v>391909.6356192234</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>36209708</v>
+        <v>36735167</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.9</v>
+        <v>3822.43</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>262.64</v>
+        <v>262.71</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8350308</v>
+        <v>8417118</v>
       </c>
       <c r="E8" t="n">
-        <v>8560872</v>
+        <v>8629367</v>
       </c>
       <c r="F8" t="n">
-        <v>75.5613058180348</v>
+        <v>33.00428472015542</v>
       </c>
       <c r="G8" t="n">
-        <v>4189.04826974907</v>
+        <v>4334.881922339336</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="I8" t="n">
-        <v>89430</v>
+        <v>88709</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>306688</v>
+        <v>306660</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.85</v>
       </c>
       <c r="I9" t="n">
-        <v>427.57</v>
+        <v>427.71</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5104702</v>
+        <v>5120295</v>
       </c>
       <c r="E10" t="n">
-        <v>8155780</v>
+        <v>8180693</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7411946244364</v>
+        <v>157.8503458913941</v>
       </c>
       <c r="G10" t="n">
-        <v>293.8144158858751</v>
+        <v>252.6935252548891</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="I10" t="n">
-        <v>100617</v>
+        <v>98558</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1004714</v>
+        <v>1004601</v>
       </c>
       <c r="E11" t="n">
-        <v>12294990</v>
+        <v>12293609</v>
       </c>
       <c r="F11" t="n">
-        <v>1571.054935030535</v>
+        <v>1566.525708533125</v>
       </c>
       <c r="G11" t="n">
-        <v>1350.339579971932</v>
+        <v>1372.003336306492</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>1149.4</v>
+        <v>351.37</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>591530</v>
+        <v>594909</v>
       </c>
       <c r="E12" t="n">
-        <v>591530</v>
+        <v>594909</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>192.6661073603985</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>31.12129266919112</v>
       </c>
       <c r="H12" t="n">
-        <v>4.47</v>
+        <v>2.39</v>
       </c>
       <c r="I12" t="n">
-        <v>29572</v>
+        <v>29832</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4524031</v>
+        <v>4545083</v>
       </c>
       <c r="E13" t="n">
-        <v>27787891</v>
+        <v>27917199</v>
       </c>
       <c r="F13" t="n">
-        <v>346.3714552621466</v>
+        <v>315.5116212996729</v>
       </c>
       <c r="G13" t="n">
-        <v>651.1989939843661</v>
+        <v>599.0215202122693</v>
       </c>
       <c r="H13" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="I13" t="n">
-        <v>634131</v>
+        <v>642543</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197936</v>
+        <v>197851</v>
       </c>
       <c r="E14" t="n">
-        <v>2177513</v>
+        <v>2176573</v>
       </c>
       <c r="F14" t="n">
-        <v>312.3871179655306</v>
+        <v>312.3956873069214</v>
       </c>
       <c r="G14" t="n">
-        <v>842.4333584768705</v>
+        <v>842.4564679414825</v>
       </c>
       <c r="H14" t="n">
         <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>26834</v>
+        <v>27391</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3343905</v>
+        <v>3356381</v>
       </c>
       <c r="E15" t="n">
-        <v>9513113</v>
+        <v>9548608</v>
       </c>
       <c r="F15" t="n">
-        <v>775.6289213436446</v>
+        <v>805.0622952644312</v>
       </c>
       <c r="G15" t="n">
-        <v>348.2791697743609</v>
+        <v>288.7127304284323</v>
       </c>
       <c r="H15" t="n">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="I15" t="n">
-        <v>119690</v>
+        <v>117055</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>325717</v>
+        <v>325908</v>
       </c>
       <c r="E16" t="n">
-        <v>3759164</v>
+        <v>3761371</v>
       </c>
       <c r="F16" t="n">
-        <v>144.6563838111688</v>
+        <v>136.297770051894</v>
       </c>
       <c r="G16" t="n">
-        <v>131.9905245683339</v>
+        <v>131.0685562169377</v>
       </c>
       <c r="H16" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I16" t="n">
-        <v>2818.5</v>
+        <v>2822.44</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>922340</v>
+        <v>922596</v>
       </c>
       <c r="F17" t="n">
-        <v>36.1992349240852</v>
+        <v>10.80697597969698</v>
       </c>
       <c r="G17" t="n">
-        <v>60.00947468407446</v>
+        <v>136.2071598136943</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="I17" t="n">
-        <v>10746.46</v>
+        <v>10932.65</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23193771</v>
+        <v>23197772</v>
       </c>
       <c r="E18" t="n">
-        <v>23237036</v>
+        <v>23241045</v>
       </c>
       <c r="F18" t="n">
-        <v>2151.876926670096</v>
+        <v>2237.437654242977</v>
       </c>
       <c r="G18" t="n">
-        <v>1307.93940676713</v>
+        <v>2035.280549832091</v>
       </c>
       <c r="H18" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I18" t="n">
-        <v>854381</v>
+        <v>852652</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7263937</v>
+        <v>7301431</v>
       </c>
       <c r="F19" t="n">
-        <v>1.001185432034481</v>
+        <v>37.60118819084308</v>
       </c>
       <c r="G19" t="n">
-        <v>667.6487113482856</v>
+        <v>10.76704497699917</v>
       </c>
       <c r="H19" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="I19" t="n">
-        <v>19064.63</v>
+        <v>17753.68</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2436939</v>
+        <v>2447230</v>
       </c>
       <c r="E20" t="n">
-        <v>2436939</v>
+        <v>2447230</v>
       </c>
       <c r="F20" t="n">
-        <v>18.53931833472592</v>
+        <v>69.09457055260296</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5018211999188</v>
+        <v>459.2664315239032</v>
       </c>
       <c r="H20" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="I20" t="n">
-        <v>323458</v>
+        <v>321096</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>414155</v>
+        <v>414109</v>
       </c>
       <c r="F21" t="n">
-        <v>111.4260819858719</v>
+        <v>95.23014281625331</v>
       </c>
       <c r="G21" t="n">
-        <v>107.5372086033048</v>
+        <v>107.6286280735977</v>
       </c>
       <c r="H21" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
       <c r="I21" t="n">
-        <v>1569.55</v>
+        <v>1454.32</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17521757</v>
+        <v>17174437</v>
       </c>
       <c r="E22" t="n">
-        <v>22551939</v>
+        <v>22104910</v>
       </c>
       <c r="F22" t="n">
-        <v>2257.91397222572</v>
+        <v>1897.753494459645</v>
       </c>
       <c r="G22" t="n">
-        <v>2626.575400297786</v>
+        <v>4984.34488332837</v>
       </c>
       <c r="H22" t="n">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="I22" t="n">
-        <v>1710001</v>
+        <v>1707579</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>480240719</v>
+        <v>476587445</v>
       </c>
       <c r="E23" t="n">
-        <v>480240719</v>
+        <v>476587448</v>
       </c>
       <c r="F23" t="n">
-        <v>49439.03493992473</v>
+        <v>45891.07163654494</v>
       </c>
       <c r="G23" t="n">
-        <v>71453.66133776498</v>
+        <v>82200.34501047047</v>
       </c>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>71946805</v>
+        <v>72481572</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22847</v>
+        <v>22844</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3015.79</v>
+        <v>2365.06</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4659147</v>
+        <v>4703552</v>
       </c>
       <c r="E25" t="n">
-        <v>4659147</v>
+        <v>4703552</v>
       </c>
       <c r="F25" t="n">
-        <v>99.27880805049014</v>
+        <v>124.8888259979514</v>
       </c>
       <c r="G25" t="n">
-        <v>1104.295616907701</v>
+        <v>1210.896077278421</v>
       </c>
       <c r="H25" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="I25" t="n">
-        <v>2002248</v>
+        <v>1932927</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3391542</v>
+        <v>3399936</v>
       </c>
       <c r="E26" t="n">
-        <v>3391542</v>
+        <v>3399936</v>
       </c>
       <c r="F26" t="n">
-        <v>15.26777538428053</v>
+        <v>90.91547364470661</v>
       </c>
       <c r="G26" t="n">
-        <v>1107.073800075175</v>
+        <v>1276.846036462875</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="I26" t="n">
-        <v>520139</v>
+        <v>517173</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>332370</v>
+        <v>313167</v>
       </c>
       <c r="E27" t="n">
-        <v>1551536</v>
+        <v>1461897</v>
       </c>
       <c r="F27" t="n">
-        <v>321.9739714876603</v>
+        <v>3242.506098047285</v>
       </c>
       <c r="G27" t="n">
-        <v>17.88310348944898</v>
+        <v>335.8294052093679</v>
       </c>
       <c r="H27" t="n">
-        <v>0.67</v>
+        <v>1.35</v>
       </c>
       <c r="I27" t="n">
-        <v>721987</v>
+        <v>688352</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1521487</v>
+        <v>1521349</v>
       </c>
       <c r="F28" t="n">
-        <v>361.8174317609586</v>
+        <v>273.6035497068717</v>
       </c>
       <c r="G28" t="n">
-        <v>471.6149911923783</v>
+        <v>301.3802873251379</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I28" t="n">
-        <v>188825</v>
+        <v>229739</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12799677</v>
+        <v>12803468</v>
       </c>
       <c r="E29" t="n">
-        <v>31856081</v>
+        <v>31865516</v>
       </c>
       <c r="F29" t="n">
-        <v>951.723752681939</v>
+        <v>958.8732796534131</v>
       </c>
       <c r="G29" t="n">
-        <v>1120.554527887925</v>
+        <v>1080.770289004562</v>
       </c>
       <c r="H29" t="n">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>1405487</v>
+        <v>1293698</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>904636</v>
+        <v>934635</v>
       </c>
       <c r="E30" t="n">
-        <v>6332451</v>
+        <v>6542445</v>
       </c>
       <c r="F30" t="n">
-        <v>286.9086725899318</v>
+        <v>20.44424157966222</v>
       </c>
       <c r="G30" t="n">
-        <v>185.1991767491287</v>
+        <v>17.0460760902786</v>
       </c>
       <c r="H30" t="n">
-        <v>1.84</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>154118</v>
+        <v>221826</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190170</v>
+        <v>190297</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.41</v>
+        <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>1147.85</v>
+        <v>1148.61</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5651622</v>
+        <v>5632947</v>
       </c>
       <c r="E32" t="n">
-        <v>5921996</v>
+        <v>5902427</v>
       </c>
       <c r="F32" t="n">
-        <v>43.6349686029825</v>
+        <v>77.20015593618008</v>
       </c>
       <c r="G32" t="n">
-        <v>610.9936313864846</v>
+        <v>710.6566045446175</v>
       </c>
       <c r="H32" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="I32" t="n">
-        <v>152192</v>
+        <v>151545</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5178925</v>
+        <v>5127895</v>
       </c>
       <c r="E33" t="n">
-        <v>7623658</v>
+        <v>7548540</v>
       </c>
       <c r="F33" t="n">
-        <v>57.91044089144185</v>
+        <v>20.06588073810729</v>
       </c>
       <c r="G33" t="n">
-        <v>20.83912800647457</v>
+        <v>56.20607768832321</v>
       </c>
       <c r="H33" t="n">
-        <v>2.32</v>
+        <v>3.27</v>
       </c>
       <c r="I33" t="n">
-        <v>684385</v>
+        <v>596001</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7683387</v>
+        <v>7684088</v>
       </c>
       <c r="E34" t="n">
-        <v>7683387</v>
+        <v>7684088</v>
       </c>
       <c r="F34" t="n">
-        <v>32117.00377719577</v>
+        <v>32170.45207286415</v>
       </c>
       <c r="G34" t="n">
-        <v>32157.31827216249</v>
+        <v>32044.53302030764</v>
       </c>
       <c r="H34" t="n">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
-        <v>318449</v>
+        <v>324257</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1457686</v>
+        <v>1457082</v>
       </c>
       <c r="E35" t="n">
-        <v>1457686</v>
+        <v>1457082</v>
       </c>
       <c r="F35" t="n">
-        <v>475.953932411064</v>
+        <v>386.5420762385813</v>
       </c>
       <c r="G35" t="n">
-        <v>287.7132219163365</v>
+        <v>230.9569218679823</v>
       </c>
       <c r="H35" t="n">
-        <v>1.89</v>
+        <v>2.45</v>
       </c>
       <c r="I35" t="n">
-        <v>283314</v>
+        <v>282476</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15995562</v>
+        <v>15979893</v>
       </c>
       <c r="F36" t="n">
-        <v>244.5389411216242</v>
+        <v>244.5388246233389</v>
       </c>
       <c r="G36" t="n">
-        <v>228.5395268426132</v>
+        <v>243.4038458713418</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10828.44</v>
+        <v>10770.34</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58254</v>
+        <v>58248</v>
       </c>
       <c r="F37" t="n">
-        <v>1.30277241613276</v>
+        <v>1.302813638286112</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005460889136637183</v>
+        <v>0.005461061929372618</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>606.34</v>
+        <v>606.52</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>138806916</v>
+        <v>138711045</v>
       </c>
       <c r="E38" t="n">
-        <v>138806916</v>
+        <v>138711045</v>
       </c>
       <c r="F38" t="n">
-        <v>317969.8283104778</v>
+        <v>263396.5058773268</v>
       </c>
       <c r="G38" t="n">
-        <v>409319.247209369</v>
+        <v>423925.0362187104</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>65097557</v>
+        <v>66000476</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65499001</v>
+        <v>65609250</v>
       </c>
       <c r="E39" t="n">
-        <v>335892315</v>
+        <v>336457695</v>
       </c>
       <c r="F39" t="n">
-        <v>86852.32976452916</v>
+        <v>83355.40705092961</v>
       </c>
       <c r="G39" t="n">
-        <v>108378.3341745491</v>
+        <v>109483.517968921</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>21626778</v>
+        <v>21691074</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46411</v>
+        <v>46405</v>
       </c>
       <c r="E40" t="n">
-        <v>137153</v>
+        <v>137136</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>10.57</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>165.58</v>
+        <v>157.58</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>48437</v>
+        <v>48517</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.04</v>
       </c>
       <c r="I41" t="n">
-        <v>23653</v>
+        <v>23647</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>594490</v>
+        <v>594203</v>
       </c>
       <c r="F42" t="n">
-        <v>2188.462990806753</v>
+        <v>1291.764445718255</v>
       </c>
       <c r="G42" t="n">
-        <v>397.3209590864582</v>
+        <v>397.5187754097547</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1015.51</v>
+        <v>999.1799999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2668101</v>
+        <v>2671394</v>
       </c>
       <c r="E44" t="n">
-        <v>10722490</v>
+        <v>10735723</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.57189385177232</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>55.17564916646264</v>
       </c>
       <c r="H44" t="n">
-        <v>4.39</v>
+        <v>1.82</v>
       </c>
       <c r="I44" t="n">
-        <v>33207</v>
+        <v>33510</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17638987</v>
+        <v>17623818</v>
       </c>
       <c r="E45" t="n">
-        <v>124325076</v>
+        <v>124217301</v>
       </c>
       <c r="F45" t="n">
-        <v>334.7589226900458</v>
+        <v>322.5788513363717</v>
       </c>
       <c r="G45" t="n">
-        <v>243.62799534738</v>
+        <v>264.0415735052842</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="I45" t="n">
-        <v>1069241</v>
+        <v>1044254</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>172224</v>
+        <v>172062</v>
       </c>
       <c r="E46" t="n">
-        <v>2304458</v>
+        <v>2302291</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52696</v>
+        <v>52441</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>253972952</v>
+        <v>255054289</v>
       </c>
       <c r="E47" t="n">
-        <v>253972952</v>
+        <v>255054289</v>
       </c>
       <c r="F47" t="n">
-        <v>104598.6290835567</v>
+        <v>102123.142697468</v>
       </c>
       <c r="G47" t="n">
-        <v>170790.7794177437</v>
+        <v>185804.0178463117</v>
       </c>
       <c r="H47" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>14525926</v>
+        <v>14643488</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>637243</v>
+        <v>639208</v>
       </c>
       <c r="E48" t="n">
-        <v>637243</v>
+        <v>639208</v>
       </c>
       <c r="F48" t="n">
-        <v>519.3539543037396</v>
+        <v>519.949146985716</v>
       </c>
       <c r="G48" t="n">
-        <v>62.27740774672129</v>
+        <v>62.2793783202618</v>
       </c>
       <c r="H48" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="I48" t="n">
-        <v>3333.35</v>
+        <v>3344.82</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>442369684</v>
+        <v>440610109</v>
       </c>
       <c r="E50" t="n">
-        <v>442369684</v>
+        <v>440610109</v>
       </c>
       <c r="F50" t="n">
-        <v>5031.586547008713</v>
+        <v>4217.151156027737</v>
       </c>
       <c r="G50" t="n">
-        <v>2729.786326144244</v>
+        <v>2838.182483034221</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="I50" t="n">
-        <v>2624121</v>
+        <v>2513939</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2409167</v>
+        <v>2391913</v>
       </c>
       <c r="E51" t="n">
-        <v>2409167</v>
+        <v>2391913</v>
       </c>
       <c r="F51" t="n">
-        <v>1058.306345874879</v>
+        <v>928.3019015373479</v>
       </c>
       <c r="G51" t="n">
-        <v>23.64710767348222</v>
+        <v>23.64785591215137</v>
       </c>
       <c r="H51" t="n">
         <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>104422</v>
+        <v>56287</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23713</v>
+        <v>23809</v>
       </c>
       <c r="E52" t="n">
-        <v>47427</v>
+        <v>47618</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.3</v>
+        <v>7.14</v>
       </c>
       <c r="I52" t="n">
-        <v>2424.99</v>
+        <v>2303.8</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>152496</v>
+        <v>153707</v>
       </c>
       <c r="F53" t="n">
-        <v>17.03371543297621</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>3.4138951593707</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.48</v>
+        <v>4.03</v>
       </c>
       <c r="I53" t="n">
-        <v>24087</v>
+        <v>25129</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2555845</v>
+        <v>2555594</v>
       </c>
       <c r="E54" t="n">
-        <v>6534239</v>
+        <v>6533598</v>
       </c>
       <c r="F54" t="n">
-        <v>250.982854183257</v>
+        <v>250.9907957497009</v>
       </c>
       <c r="G54" t="n">
-        <v>156.2189773213543</v>
+        <v>165.0984207703347</v>
       </c>
       <c r="H54" t="n">
         <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>112844</v>
+        <v>112304</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3646.52</v>
+        <v>3645.35</v>
       </c>
       <c r="F55" t="n">
-        <v>1.414770296085054</v>
+        <v>1.414775749849304</v>
       </c>
       <c r="G55" t="n">
-        <v>1.269863836825156</v>
+        <v>1.269868731992955</v>
       </c>
       <c r="H55" t="n">
         <v>3.06</v>
       </c>
       <c r="I55" t="n">
-        <v>741.27</v>
+        <v>275.34</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73504970</v>
+        <v>73619992</v>
       </c>
       <c r="E56" t="n">
-        <v>73504970</v>
+        <v>73619992</v>
       </c>
       <c r="F56" t="n">
-        <v>14066.53927734259</v>
+        <v>14219.93747611366</v>
       </c>
       <c r="G56" t="n">
-        <v>18914.87487073266</v>
+        <v>26500.95173612252</v>
       </c>
       <c r="H56" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3353947</v>
+        <v>3363878</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3508890</v>
+        <v>3491267</v>
       </c>
       <c r="E57" t="n">
-        <v>4446377</v>
+        <v>4424045</v>
       </c>
       <c r="F57" t="n">
-        <v>534.6938939377328</v>
+        <v>143.8484262081865</v>
       </c>
       <c r="G57" t="n">
-        <v>67.94145966212375</v>
+        <v>115.1044968148959</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>258217</v>
+        <v>251398</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4141556</v>
+        <v>4137507</v>
       </c>
       <c r="E58" t="n">
-        <v>8167498</v>
+        <v>8159513</v>
       </c>
       <c r="F58" t="n">
-        <v>2366.091596223432</v>
+        <v>2408.785586972833</v>
       </c>
       <c r="G58" t="n">
-        <v>22099.34536953514</v>
+        <v>22149.85481993984</v>
       </c>
       <c r="H58" t="n">
         <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1620291</v>
+        <v>1624935</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1581877</v>
+        <v>1588225</v>
       </c>
       <c r="E59" t="n">
-        <v>9082546</v>
+        <v>9118995</v>
       </c>
       <c r="F59" t="n">
-        <v>313.3167833327379</v>
+        <v>167.9645398007629</v>
       </c>
       <c r="G59" t="n">
-        <v>777.9155139444192</v>
+        <v>511.6790076079209</v>
       </c>
       <c r="H59" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="I59" t="n">
-        <v>295213</v>
+        <v>294541</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565660</v>
+        <v>565306</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1714.88</v>
+        <v>1672.96</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31223206</v>
+        <v>31155143</v>
       </c>
       <c r="F61" t="n">
-        <v>692.2885461451286</v>
+        <v>524.8618938826319</v>
       </c>
       <c r="G61" t="n">
-        <v>913.5825698219911</v>
+        <v>966.8729926355137</v>
       </c>
       <c r="H61" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>247118</v>
+        <v>246385</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1430197</v>
+        <v>1431398</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>8.35</v>
+        <v>7.63</v>
       </c>
       <c r="I62" t="n">
-        <v>28600</v>
+        <v>28406</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7641805</v>
+        <v>7640305</v>
       </c>
       <c r="E63" t="n">
-        <v>17997970</v>
+        <v>17994437</v>
       </c>
       <c r="F63" t="n">
-        <v>1097.004912968808</v>
+        <v>1097.039624253903</v>
       </c>
       <c r="G63" t="n">
-        <v>2356.138366568297</v>
+        <v>2356.212919188436</v>
       </c>
       <c r="H63" t="n">
         <v>1.81</v>
       </c>
       <c r="I63" t="n">
-        <v>29866</v>
+        <v>29791</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2944100</v>
+        <v>2969290</v>
       </c>
       <c r="E64" t="n">
-        <v>2944100</v>
+        <v>2969290</v>
       </c>
       <c r="F64" t="n">
-        <v>123.8783431608779</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>967.2857069843478</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.58</v>
+        <v>3.94</v>
       </c>
       <c r="I64" t="n">
-        <v>18025.83</v>
+        <v>18313.98</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3367652</v>
+        <v>3367245</v>
       </c>
       <c r="E65" t="n">
-        <v>8309509</v>
+        <v>8308506</v>
       </c>
       <c r="F65" t="n">
-        <v>597.4469248498436</v>
+        <v>566.5417649310818</v>
       </c>
       <c r="G65" t="n">
-        <v>1078.628219199295</v>
+        <v>1121.282297656634</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="I65" t="n">
-        <v>44442</v>
+        <v>43316</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>271983</v>
+        <v>269141</v>
       </c>
       <c r="F66" t="n">
-        <v>91.72169403666544</v>
+        <v>1.795171079523886</v>
       </c>
       <c r="G66" t="n">
-        <v>45.03118913424612</v>
+        <v>48.86150135049654</v>
       </c>
       <c r="H66" t="n">
-        <v>3.33</v>
+        <v>1.67</v>
       </c>
       <c r="I66" t="n">
-        <v>1691.83</v>
+        <v>1799.67</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>75336555</v>
+        <v>75825932</v>
       </c>
       <c r="E67" t="n">
-        <v>157114975</v>
+        <v>158135575</v>
       </c>
       <c r="F67" t="n">
-        <v>61033.77342230488</v>
+        <v>67282.99619991108</v>
       </c>
       <c r="G67" t="n">
-        <v>77701.04021910069</v>
+        <v>105171.2852273084</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>15795971</v>
+        <v>16244724</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1920739</v>
+        <v>1990523</v>
       </c>
       <c r="F68" t="n">
-        <v>5.028894089625432</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>30.28304649606194</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>3.52</v>
+        <v>5.37</v>
       </c>
       <c r="I68" t="n">
-        <v>5051.3</v>
+        <v>5065.61</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>194799050</v>
+        <v>197680561</v>
       </c>
       <c r="F69" t="n">
-        <v>7738.174744456293</v>
+        <v>5562.246743239196</v>
       </c>
       <c r="G69" t="n">
-        <v>3283.689199869309</v>
+        <v>3858.943028459753</v>
       </c>
       <c r="H69" t="n">
-        <v>0.58</v>
+        <v>0.08</v>
       </c>
       <c r="I69" t="n">
-        <v>4356295</v>
+        <v>4017727</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179488</v>
+        <v>179577</v>
       </c>
       <c r="E70" t="n">
-        <v>187437</v>
+        <v>187529</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>8.119999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I70" t="n">
         <v>334.33</v>
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144887742</v>
+        <v>145289715</v>
       </c>
       <c r="E71" t="n">
-        <v>144936457</v>
+        <v>145338566</v>
       </c>
       <c r="F71" t="n">
-        <v>33077.6909860491</v>
+        <v>28488.09736804081</v>
       </c>
       <c r="G71" t="n">
-        <v>43255.04302297053</v>
+        <v>50268.79428977788</v>
       </c>
       <c r="H71" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I71" t="n">
-        <v>2576363</v>
+        <v>2557071</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26114186</v>
+        <v>26138809</v>
       </c>
       <c r="E72" t="n">
-        <v>85701767</v>
+        <v>85782576</v>
       </c>
       <c r="F72" t="n">
-        <v>22566.34702058797</v>
+        <v>22366.19286019701</v>
       </c>
       <c r="G72" t="n">
-        <v>42627.80401442759</v>
+        <v>33628.32022823593</v>
       </c>
       <c r="H72" t="n">
         <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>102217</v>
+        <v>119060</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>120987</v>
+        <v>120961</v>
       </c>
       <c r="E73" t="n">
-        <v>120987</v>
+        <v>120961</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>5.15</v>
       </c>
       <c r="I73" t="n">
-        <v>311.14</v>
+        <v>311.18</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>202651650</v>
+        <v>202417382</v>
       </c>
       <c r="E74" t="n">
-        <v>704030147</v>
+        <v>703216278</v>
       </c>
       <c r="F74" t="n">
-        <v>122681.4883551471</v>
+        <v>124242.2855422188</v>
       </c>
       <c r="G74" t="n">
-        <v>209029.1172047659</v>
+        <v>198442.0376686588</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>27651680</v>
+        <v>28158068</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3439775</v>
+        <v>3527481</v>
       </c>
       <c r="E75" t="n">
-        <v>3439775</v>
+        <v>3527481</v>
       </c>
       <c r="F75" t="n">
-        <v>201.9440405515033</v>
+        <v>814.3402339377187</v>
       </c>
       <c r="G75" t="n">
-        <v>1055.420254345294</v>
+        <v>691.0778436717802</v>
       </c>
       <c r="H75" t="n">
-        <v>0.18</v>
+        <v>1.6</v>
       </c>
       <c r="I75" t="n">
-        <v>2722914</v>
+        <v>2638632</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>115689443</v>
+        <v>116158807</v>
       </c>
       <c r="E76" t="n">
-        <v>491605961</v>
+        <v>493548830</v>
       </c>
       <c r="F76" t="n">
-        <v>166871.9097484105</v>
+        <v>192118.6421024239</v>
       </c>
       <c r="G76" t="n">
-        <v>259577.9442104229</v>
+        <v>231547.9386529969</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I76" t="n">
-        <v>14711564</v>
+        <v>14972425</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1853215</v>
+        <v>1852709</v>
       </c>
       <c r="F77" t="n">
-        <v>151.2240517524503</v>
+        <v>151.2288367639955</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4962969469909</v>
+        <v>102.4995401213309</v>
       </c>
       <c r="H77" t="n">
         <v>0.54</v>
       </c>
       <c r="I77" t="n">
-        <v>159.16</v>
+        <v>159.15</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3136435</v>
+        <v>3151527</v>
       </c>
       <c r="E78" t="n">
-        <v>15725456</v>
+        <v>15801124</v>
       </c>
       <c r="F78" t="n">
-        <v>104.6474926025671</v>
+        <v>1593.302984316102</v>
       </c>
       <c r="G78" t="n">
-        <v>234.171534580614</v>
+        <v>736.922339041166</v>
       </c>
       <c r="H78" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>33839</v>
+        <v>34097</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>525747</v>
+        <v>525840</v>
       </c>
       <c r="E79" t="n">
-        <v>8992866</v>
+        <v>8994454</v>
       </c>
       <c r="F79" t="n">
-        <v>368.6104759977885</v>
+        <v>363.6388680011993</v>
       </c>
       <c r="G79" t="n">
-        <v>167.5065117466882</v>
+        <v>167.5118119656898</v>
       </c>
       <c r="H79" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="I79" t="n">
-        <v>168071</v>
+        <v>163112</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5645783</v>
+        <v>5631259</v>
       </c>
       <c r="E80" t="n">
-        <v>7670113</v>
+        <v>7650382</v>
       </c>
       <c r="F80" t="n">
-        <v>207.6070638794321</v>
+        <v>130.9455087747435</v>
       </c>
       <c r="G80" t="n">
-        <v>1388.114406432292</v>
+        <v>1667.140551080883</v>
       </c>
       <c r="H80" t="n">
-        <v>1.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>5836025</v>
+        <v>5787782</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41171</v>
+        <v>41092</v>
       </c>
       <c r="F81" t="n">
-        <v>95.40314134632183</v>
+        <v>177.2287191039841</v>
       </c>
       <c r="G81" t="n">
-        <v>105.4432519673299</v>
+        <v>129.9071761802381</v>
       </c>
       <c r="H81" t="n">
         <v>1.82</v>
       </c>
       <c r="I81" t="n">
-        <v>48693</v>
+        <v>47018</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40628878</v>
+        <v>40672686</v>
       </c>
       <c r="E82" t="n">
-        <v>47453565</v>
+        <v>47504732</v>
       </c>
       <c r="F82" t="n">
-        <v>110.2397217238524</v>
+        <v>235.3007290418729</v>
       </c>
       <c r="G82" t="n">
-        <v>127.6665197380894</v>
+        <v>100.382881927114</v>
       </c>
       <c r="H82" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="I82" t="n">
-        <v>882153</v>
+        <v>871794</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14519478</v>
+        <v>14522707</v>
       </c>
       <c r="F83" t="n">
-        <v>317.2919401238853</v>
+        <v>262.2591320711002</v>
       </c>
       <c r="G83" t="n">
-        <v>671.0119581718498</v>
+        <v>931.1669570276757</v>
       </c>
       <c r="H83" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="I83" t="n">
-        <v>289109</v>
+        <v>277833</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35538692</v>
+        <v>35250580</v>
       </c>
       <c r="E84" t="n">
-        <v>35538692</v>
+        <v>35250580</v>
       </c>
       <c r="F84" t="n">
-        <v>959.967878732697</v>
+        <v>528.293201076577</v>
       </c>
       <c r="G84" t="n">
-        <v>44.44049879862243</v>
+        <v>73.34772382249858</v>
       </c>
       <c r="H84" t="n">
-        <v>2.83</v>
+        <v>3.24</v>
       </c>
       <c r="I84" t="n">
-        <v>792664</v>
+        <v>294721</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>575467</v>
+        <v>561338</v>
       </c>
       <c r="E85" t="n">
-        <v>6979852</v>
+        <v>6808487</v>
       </c>
       <c r="F85" t="n">
-        <v>439.9867186579264</v>
+        <v>322.301903862623</v>
       </c>
       <c r="G85" t="n">
-        <v>679.002710848398</v>
+        <v>214.3102573351739</v>
       </c>
       <c r="H85" t="n">
-        <v>1.14</v>
+        <v>2.93</v>
       </c>
       <c r="I85" t="n">
-        <v>2837737</v>
+        <v>2849066</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25823676</v>
+        <v>25903579</v>
       </c>
       <c r="E86" t="n">
-        <v>36500758</v>
+        <v>36613697</v>
       </c>
       <c r="F86" t="n">
-        <v>26.71281235402494</v>
+        <v>38.76953792038086</v>
       </c>
       <c r="G86" t="n">
-        <v>660.030288487114</v>
+        <v>1013.953774116593</v>
       </c>
       <c r="H86" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="I86" t="n">
-        <v>64605</v>
+        <v>54878</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1310188718</v>
+        <v>1299410092</v>
       </c>
       <c r="E87" t="n">
-        <v>6282623224</v>
+        <v>6230937504</v>
       </c>
       <c r="F87" t="n">
-        <v>671838.6933270604</v>
+        <v>587736.1578322235</v>
       </c>
       <c r="G87" t="n">
-        <v>448112.6595086816</v>
+        <v>908847.7315755144</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>165019822</v>
+        <v>165728392</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>270909174</v>
+        <v>271380300</v>
       </c>
       <c r="E88" t="n">
-        <v>1169394388</v>
+        <v>1171428027</v>
       </c>
       <c r="F88" t="n">
-        <v>967009.7895327382</v>
+        <v>1016662.924598743</v>
       </c>
       <c r="G88" t="n">
-        <v>1016372.252704794</v>
+        <v>1161816.494203248</v>
       </c>
       <c r="H88" t="n">
         <v>0.03</v>
       </c>
       <c r="I88" t="n">
-        <v>99035897</v>
+        <v>98584244</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115150004</v>
+        <v>114472751</v>
       </c>
       <c r="E89" t="n">
-        <v>115150004</v>
+        <v>114472751</v>
       </c>
       <c r="F89" t="n">
-        <v>40646.64262356434</v>
+        <v>42001.04069628999</v>
       </c>
       <c r="G89" t="n">
-        <v>28824.22196967696</v>
+        <v>23537.85897849634</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>6235392</v>
+        <v>6218180</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3854247</v>
+        <v>3854345</v>
       </c>
       <c r="E90" t="n">
-        <v>29993287</v>
+        <v>29994044</v>
       </c>
       <c r="F90" t="n">
-        <v>11011.42246277377</v>
+        <v>11011.77088475429</v>
       </c>
       <c r="G90" t="n">
-        <v>12206.61330222926</v>
+        <v>12168.81993807606</v>
       </c>
       <c r="H90" t="n">
         <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>9854.799999999999</v>
+        <v>9900.040000000001</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3753035</v>
+        <v>3757294</v>
       </c>
       <c r="F91" t="n">
-        <v>143.2635513915542</v>
+        <v>304.6281783529403</v>
       </c>
       <c r="G91" t="n">
-        <v>1046.571605026852</v>
+        <v>1001.406849507641</v>
       </c>
       <c r="H91" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="I91" t="n">
-        <v>302744</v>
+        <v>305468</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>880339</v>
+        <v>880231</v>
       </c>
       <c r="F92" t="n">
-        <v>146.2415274527088</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>3.000482545638392</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2.35</v>
+        <v>3.95</v>
       </c>
       <c r="I92" t="n">
-        <v>34750</v>
+        <v>34498</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>111253</v>
+        <v>110992</v>
       </c>
       <c r="F93" t="n">
-        <v>49.93870185067488</v>
+        <v>55.51017869731529</v>
       </c>
       <c r="G93" t="n">
-        <v>124.5606484231545</v>
+        <v>275.6101061012718</v>
       </c>
       <c r="H93" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="I93" t="n">
-        <v>137229</v>
+        <v>137492</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11053257</v>
+        <v>11186337</v>
       </c>
       <c r="E94" t="n">
-        <v>133433629</v>
+        <v>135040150</v>
       </c>
       <c r="F94" t="n">
-        <v>2824.580483436376</v>
+        <v>1621.240564911048</v>
       </c>
       <c r="G94" t="n">
-        <v>2154.801980754545</v>
+        <v>3512.519612084708</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="I94" t="n">
-        <v>218537</v>
+        <v>223516</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19796275</v>
+        <v>19754206</v>
       </c>
       <c r="E95" t="n">
-        <v>49490687</v>
+        <v>49385514</v>
       </c>
       <c r="F95" t="n">
-        <v>6405.862080409212</v>
+        <v>6270.575004106354</v>
       </c>
       <c r="G95" t="n">
-        <v>7893.211571001012</v>
+        <v>8396.969705383184</v>
       </c>
       <c r="H95" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>1897080</v>
+        <v>1888775</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2242757</v>
+        <v>2248021</v>
       </c>
       <c r="F96" t="n">
-        <v>199.0854018907477</v>
+        <v>183.6893222592331</v>
       </c>
       <c r="G96" t="n">
-        <v>118.0548755795724</v>
+        <v>118.05861105641</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>57444</v>
+        <v>57534</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19885435</v>
+        <v>19892737</v>
       </c>
       <c r="F97" t="n">
-        <v>1549.077370364914</v>
+        <v>1105.024606171478</v>
       </c>
       <c r="G97" t="n">
-        <v>1075.532941923447</v>
+        <v>783.0517345207281</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>91655</v>
+        <v>72388</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4094525</v>
+        <v>4211464</v>
       </c>
       <c r="E98" t="n">
-        <v>11794178</v>
+        <v>12131020</v>
       </c>
       <c r="F98" t="n">
-        <v>351.4119501506029</v>
+        <v>192.0500892499969</v>
       </c>
       <c r="G98" t="n">
-        <v>409.3060692145407</v>
+        <v>269.3183126222124</v>
       </c>
       <c r="H98" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="I98" t="n">
-        <v>634739</v>
+        <v>651691</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1613421</v>
+        <v>1615324</v>
       </c>
       <c r="F99" t="n">
-        <v>323.695433774469</v>
+        <v>488.5840654869766</v>
       </c>
       <c r="G99" t="n">
-        <v>43.49399364957824</v>
+        <v>8.546429893795127</v>
       </c>
       <c r="H99" t="n">
-        <v>2.59</v>
+        <v>0.39</v>
       </c>
       <c r="I99" t="n">
-        <v>241739</v>
+        <v>255264</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80113121</v>
+        <v>79222090</v>
       </c>
       <c r="E100" t="n">
-        <v>101950173</v>
+        <v>100816267</v>
       </c>
       <c r="F100" t="n">
-        <v>7508.223448710846</v>
+        <v>5129.264611511741</v>
       </c>
       <c r="G100" t="n">
-        <v>6909.367247628912</v>
+        <v>7938.519588855392</v>
       </c>
       <c r="H100" t="n">
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
       <c r="I100" t="n">
-        <v>6201819</v>
+        <v>6216113</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22569094</v>
+        <v>22614896</v>
       </c>
       <c r="E101" t="n">
-        <v>29277278</v>
+        <v>29336693</v>
       </c>
       <c r="F101" t="n">
-        <v>7170.771980092215</v>
+        <v>6485.505140409929</v>
       </c>
       <c r="G101" t="n">
-        <v>7293.143514505963</v>
+        <v>7600.319715287217</v>
       </c>
       <c r="H101" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="I101" t="n">
-        <v>166674</v>
+        <v>163303</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1600098</v>
+        <v>1618793</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>5.49</v>
+        <v>4.85</v>
       </c>
       <c r="I102" t="n">
-        <v>15343.97</v>
+        <v>14903.01</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>647563</v>
+        <v>645093</v>
       </c>
       <c r="E103" t="n">
-        <v>647563</v>
+        <v>645093</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5.05</v>
+        <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>82959</v>
+        <v>82048</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40537890</v>
+        <v>40411756</v>
       </c>
       <c r="E104" t="n">
-        <v>42376590</v>
+        <v>42244736</v>
       </c>
       <c r="F104" t="n">
-        <v>395.4243015986917</v>
+        <v>910.7528592096108</v>
       </c>
       <c r="G104" t="n">
-        <v>490.7312303797776</v>
+        <v>1872.413265633032</v>
       </c>
       <c r="H104" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I104" t="n">
-        <v>688549</v>
+        <v>660800</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13525621</v>
+        <v>13536421</v>
       </c>
       <c r="E105" t="n">
-        <v>13525621</v>
+        <v>13536421</v>
       </c>
       <c r="F105" t="n">
-        <v>3504.679154973735</v>
+        <v>3436.907695279153</v>
       </c>
       <c r="G105" t="n">
-        <v>2944.428294296508</v>
+        <v>2964.574001023874</v>
       </c>
       <c r="H105" t="n">
         <v>0.3</v>
       </c>
       <c r="I105" t="n">
-        <v>4772318</v>
+        <v>4772230</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1232501</v>
+        <v>1232965</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.2</v>
+        <v>6.94</v>
       </c>
       <c r="I106" t="n">
-        <v>4947.51</v>
+        <v>4913.4</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51087453</v>
+        <v>51142998</v>
       </c>
       <c r="E107" t="n">
-        <v>130148207</v>
+        <v>130289712</v>
       </c>
       <c r="F107" t="n">
-        <v>2559.154927906588</v>
+        <v>2474.872296746738</v>
       </c>
       <c r="G107" t="n">
-        <v>5259.673920972235</v>
+        <v>4679.771657976742</v>
       </c>
       <c r="H107" t="n">
         <v>0.18</v>
       </c>
       <c r="I107" t="n">
-        <v>2333814</v>
+        <v>2355537</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14571451</v>
+        <v>14560025</v>
       </c>
       <c r="E108" t="n">
-        <v>70571863</v>
+        <v>70516523</v>
       </c>
       <c r="F108" t="n">
-        <v>10425.65869056832</v>
+        <v>9649.220995751126</v>
       </c>
       <c r="G108" t="n">
-        <v>10195.86426966509</v>
+        <v>10526.78119249022</v>
       </c>
       <c r="H108" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I108" t="n">
-        <v>3707821</v>
+        <v>3705648</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>495664</v>
+        <v>495500</v>
       </c>
       <c r="F109" t="n">
-        <v>101.0753544476206</v>
+        <v>91.32785423506668</v>
       </c>
       <c r="G109" t="n">
-        <v>298.1341689417872</v>
+        <v>552.4540167537857</v>
       </c>
       <c r="H109" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="I109" t="n">
-        <v>7514.98</v>
+        <v>7495.48</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4598550</v>
+        <v>4611346</v>
       </c>
       <c r="E110" t="n">
-        <v>10482192</v>
+        <v>10511359</v>
       </c>
       <c r="F110" t="n">
-        <v>1118.717005810564</v>
+        <v>875.2436632781807</v>
       </c>
       <c r="G110" t="n">
-        <v>2200.676769342831</v>
+        <v>2276.513517342044</v>
       </c>
       <c r="H110" t="n">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
       <c r="I110" t="n">
-        <v>86963</v>
+        <v>79116</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1929084890</v>
+        <v>1927526013</v>
       </c>
       <c r="F111" t="n">
-        <v>95877.82347221988</v>
+        <v>97496.44251356891</v>
       </c>
       <c r="G111" t="n">
-        <v>50068.45603362786</v>
+        <v>45674.44170482659</v>
       </c>
       <c r="H111" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I111" t="n">
-        <v>27502456</v>
+        <v>27912587</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9367806</v>
+        <v>9460537</v>
       </c>
       <c r="E112" t="n">
-        <v>34097053</v>
+        <v>34434092</v>
       </c>
       <c r="F112" t="n">
-        <v>508.4515698228674</v>
+        <v>508.4634221220843</v>
       </c>
       <c r="G112" t="n">
-        <v>342.2602818398574</v>
+        <v>357.6423892574897</v>
       </c>
       <c r="H112" t="n">
         <v>1.17</v>
       </c>
       <c r="I112" t="n">
-        <v>156873</v>
+        <v>160771</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>546930</v>
+        <v>559791</v>
       </c>
       <c r="F113" t="n">
-        <v>114.355942272863</v>
+        <v>114.359450307854</v>
       </c>
       <c r="G113" t="n">
-        <v>58.65733292967425</v>
+        <v>58.52636473960595</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="I113" t="n">
-        <v>882.9</v>
+        <v>955.51</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12217947</v>
+        <v>12174342</v>
       </c>
       <c r="E114" t="n">
-        <v>17714260</v>
+        <v>17651039</v>
       </c>
       <c r="F114" t="n">
-        <v>514.7582864415855</v>
+        <v>64.65603367215816</v>
       </c>
       <c r="G114" t="n">
-        <v>388.0393381861595</v>
+        <v>3556.0614389993</v>
       </c>
       <c r="H114" t="n">
-        <v>1.29</v>
+        <v>0.74</v>
       </c>
       <c r="I114" t="n">
-        <v>2159511</v>
+        <v>2033363</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2044323</v>
+        <v>2054113</v>
       </c>
       <c r="E115" t="n">
-        <v>14659637</v>
+        <v>14729836</v>
       </c>
       <c r="F115" t="n">
-        <v>488.4539252788043</v>
+        <v>430.8350065087803</v>
       </c>
       <c r="G115" t="n">
-        <v>834.0511750560323</v>
+        <v>955.9496935482398</v>
       </c>
       <c r="H115" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="I115" t="n">
-        <v>1976887</v>
+        <v>1995603</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2742956</v>
+        <v>2742069</v>
       </c>
       <c r="E116" t="n">
-        <v>5544776</v>
+        <v>5542982</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5279.52</v>
+        <v>5282.96</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>199913321</v>
+        <v>200960557</v>
       </c>
       <c r="E117" t="n">
-        <v>1132032061</v>
+        <v>1137962154</v>
       </c>
       <c r="F117" t="n">
-        <v>302996.3055950594</v>
+        <v>320109.6876657945</v>
       </c>
       <c r="G117" t="n">
-        <v>470960.1845236483</v>
+        <v>480653.6282058643</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>62465586</v>
+        <v>63143297</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>682896</v>
+        <v>676763</v>
       </c>
       <c r="E118" t="n">
-        <v>2264384</v>
+        <v>2244048</v>
       </c>
       <c r="F118" t="n">
-        <v>8875.063339684668</v>
+        <v>5811.675704082698</v>
       </c>
       <c r="G118" t="n">
-        <v>7771.005162891763</v>
+        <v>8662.604422482793</v>
       </c>
       <c r="H118" t="n">
         <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>21681</v>
+        <v>19976.3</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2799610</v>
+        <v>2813973</v>
       </c>
       <c r="E119" t="n">
-        <v>9912238</v>
+        <v>9963091</v>
       </c>
       <c r="F119" t="n">
-        <v>35.95236172843253</v>
+        <v>27.69869514253701</v>
       </c>
       <c r="G119" t="n">
-        <v>1551.817573422101</v>
+        <v>1527.584546054337</v>
       </c>
       <c r="H119" t="n">
         <v>1.4</v>
       </c>
       <c r="I119" t="n">
-        <v>5465.7</v>
+        <v>5614.74</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1034892</v>
+        <v>1036301</v>
       </c>
       <c r="E120" t="n">
-        <v>1034892</v>
+        <v>1036301</v>
       </c>
       <c r="F120" t="n">
-        <v>19.91881963676441</v>
+        <v>19.91944990543413</v>
       </c>
       <c r="G120" t="n">
-        <v>91.67726834331744</v>
+        <v>91.68016918337806</v>
       </c>
       <c r="H120" t="n">
         <v>2.14</v>
       </c>
       <c r="I120" t="n">
-        <v>8052.97</v>
+        <v>7863.75</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>505904</v>
+        <v>500393</v>
       </c>
       <c r="E121" t="n">
-        <v>1702801</v>
+        <v>1684254</v>
       </c>
       <c r="F121" t="n">
-        <v>384.1373462376405</v>
+        <v>379.620714276947</v>
       </c>
       <c r="G121" t="n">
-        <v>430.4288425938779</v>
+        <v>424.9008072656149</v>
       </c>
       <c r="H121" t="n">
         <v>0.7</v>
       </c>
       <c r="I121" t="n">
-        <v>218620</v>
+        <v>631384</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469291</v>
+        <v>464059</v>
       </c>
       <c r="E122" t="n">
-        <v>870625</v>
+        <v>860919</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.49</v>
+        <v>4.55</v>
       </c>
       <c r="I122" t="n">
-        <v>209564</v>
+        <v>209337</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11719380</v>
+        <v>11733342</v>
       </c>
       <c r="F123" t="n">
-        <v>166.0995028736544</v>
+        <v>165.1025904848911</v>
       </c>
       <c r="G123" t="n">
-        <v>208.2981343334615</v>
+        <v>208.6211637137662</v>
       </c>
       <c r="H123" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I123" t="n">
-        <v>10814.72</v>
+        <v>10301.92</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1237613</v>
+        <v>1250255</v>
       </c>
       <c r="F124" t="n">
-        <v>63.48713711367563</v>
+        <v>63.48914596531357</v>
       </c>
       <c r="G124" t="n">
-        <v>14.02187154743432</v>
+        <v>14.02231522564861</v>
       </c>
       <c r="H124" t="n">
         <v>0.91</v>
       </c>
       <c r="I124" t="n">
-        <v>46151</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3408597</v>
+        <v>3388017</v>
       </c>
       <c r="E125" t="n">
-        <v>7959642</v>
+        <v>7911585</v>
       </c>
       <c r="F125" t="n">
-        <v>849.7918394276944</v>
+        <v>1737.798414537285</v>
       </c>
       <c r="G125" t="n">
-        <v>680.9956779257748</v>
+        <v>1511.306266265688</v>
       </c>
       <c r="H125" t="n">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="I125" t="n">
-        <v>685063</v>
+        <v>656925</v>
       </c>
     </row>
     <row r="126">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246423</v>
+        <v>244367</v>
       </c>
       <c r="E126" t="n">
-        <v>2174866</v>
+        <v>2156725</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3.92</v>
+        <v>4.18</v>
       </c>
       <c r="I126" t="n">
-        <v>80463</v>
+        <v>81659</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>656498</v>
+        <v>653625</v>
       </c>
       <c r="F127" t="n">
-        <v>433.4783855274807</v>
+        <v>433.4921015935118</v>
       </c>
       <c r="G127" t="n">
-        <v>472.7995595626438</v>
+        <v>472.8145198240892</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3263.64</v>
+        <v>3346.82</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4916067</v>
+        <v>4905225</v>
       </c>
       <c r="E128" t="n">
-        <v>17370750</v>
+        <v>17332443</v>
       </c>
       <c r="F128" t="n">
-        <v>1862.965492122417</v>
+        <v>1811.93598403902</v>
       </c>
       <c r="G128" t="n">
-        <v>1384.09581782962</v>
+        <v>1690.205634795718</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>87297</v>
+        <v>86822</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2091805</v>
+        <v>2091549</v>
       </c>
       <c r="F129" t="n">
-        <v>66.42067694976743</v>
+        <v>56.71352422355563</v>
       </c>
       <c r="G129" t="n">
-        <v>272.6293068475441</v>
+        <v>270.5009984910845</v>
       </c>
       <c r="H129" t="n">
-        <v>0.38</v>
+        <v>1.09</v>
       </c>
       <c r="I129" t="n">
-        <v>9172.639999999999</v>
+        <v>9214.68</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2566454</v>
+        <v>2519387</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2515.23</v>
+        <v>2501.82</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84949</v>
+        <v>84849</v>
       </c>
       <c r="E131" t="n">
-        <v>84949</v>
+        <v>84849</v>
       </c>
       <c r="F131" t="n">
-        <v>5.354407799449831</v>
+        <v>5.354577222916805</v>
       </c>
       <c r="G131" t="n">
-        <v>77.58436411041063</v>
+        <v>77.74082077101947</v>
       </c>
       <c r="H131" t="n">
         <v>1.77</v>
       </c>
       <c r="I131" t="n">
-        <v>23003</v>
+        <v>22928</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4397670</v>
+        <v>4394556</v>
       </c>
       <c r="F132" t="n">
-        <v>209.4893883176592</v>
+        <v>395.6446818633831</v>
       </c>
       <c r="G132" t="n">
-        <v>387.6917230778071</v>
+        <v>108.5545107790703</v>
       </c>
       <c r="H132" t="n">
         <v>0.35</v>
       </c>
       <c r="I132" t="n">
-        <v>313910</v>
+        <v>311717</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2106312</v>
+        <v>2074530</v>
       </c>
       <c r="E133" t="n">
-        <v>8601632</v>
+        <v>8471843</v>
       </c>
       <c r="F133" t="n">
-        <v>429.9386086844715</v>
+        <v>130.7397815701136</v>
       </c>
       <c r="G133" t="n">
-        <v>1224.043429856086</v>
+        <v>687.9769706823323</v>
       </c>
       <c r="H133" t="n">
-        <v>0.11</v>
+        <v>0.86</v>
       </c>
       <c r="I133" t="n">
-        <v>555802</v>
+        <v>552368</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7391250</v>
+        <v>7522496</v>
       </c>
       <c r="E134" t="n">
-        <v>7446192</v>
+        <v>7578413</v>
       </c>
       <c r="F134" t="n">
-        <v>248796.1670340825</v>
+        <v>264593.8990531944</v>
       </c>
       <c r="G134" t="n">
-        <v>254433.1278945698</v>
+        <v>357881.7529972733</v>
       </c>
       <c r="H134" t="n">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="I134" t="n">
-        <v>4902767</v>
+        <v>5060570</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13445963</v>
+        <v>13488243</v>
       </c>
       <c r="E135" t="n">
-        <v>13491721</v>
+        <v>13534145</v>
       </c>
       <c r="F135" t="n">
-        <v>14149.9995322277</v>
+        <v>12933.30935674651</v>
       </c>
       <c r="G135" t="n">
-        <v>6230.523861631631</v>
+        <v>14406.03302742363</v>
       </c>
       <c r="H135" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5843142</v>
+        <v>5913577</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42678844</v>
+        <v>42705461</v>
       </c>
       <c r="E136" t="n">
-        <v>72458749</v>
+        <v>72503938</v>
       </c>
       <c r="F136" t="n">
-        <v>723.1206768825508</v>
+        <v>576.5596364436731</v>
       </c>
       <c r="G136" t="n">
-        <v>2251.059863349003</v>
+        <v>1220.248255106068</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="I136" t="n">
-        <v>1120872</v>
+        <v>1099931</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22922832</v>
+        <v>22527339</v>
       </c>
       <c r="E137" t="n">
-        <v>68712109</v>
+        <v>67526603</v>
       </c>
       <c r="F137" t="n">
-        <v>88723.48567660774</v>
+        <v>60676.43923045931</v>
       </c>
       <c r="G137" t="n">
-        <v>86483.10268973734</v>
+        <v>61509.59563567071</v>
       </c>
       <c r="H137" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>3091862</v>
+        <v>3131357</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101482845</v>
+        <v>101473327</v>
       </c>
       <c r="E138" t="n">
-        <v>107885436</v>
+        <v>107875318</v>
       </c>
       <c r="F138" t="n">
-        <v>6984.431951108209</v>
+        <v>6927.046505820936</v>
       </c>
       <c r="G138" t="n">
-        <v>14279.55667664954</v>
+        <v>10916.59989928514</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I138" t="n">
-        <v>382862</v>
+        <v>379106</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1098022</v>
+        <v>1098153</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>5.44</v>
       </c>
       <c r="I139" t="n">
-        <v>178.98</v>
+        <v>179.05</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258493</v>
+        <v>258578</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.61</v>
+        <v>7.75</v>
       </c>
       <c r="I140" t="n">
-        <v>199.01</v>
+        <v>199.12</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96295</v>
+        <v>96302</v>
       </c>
       <c r="E141" t="n">
-        <v>273167</v>
+        <v>273188</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>63.64</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47370131</v>
+        <v>47307562</v>
       </c>
       <c r="E142" t="n">
-        <v>204065346</v>
+        <v>203795806</v>
       </c>
       <c r="F142" t="n">
-        <v>68785.89584939925</v>
+        <v>69928.78347434523</v>
       </c>
       <c r="G142" t="n">
-        <v>76242.1358781204</v>
+        <v>67699.49828027445</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8976448</v>
+        <v>8914822</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269926</v>
+        <v>279850</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.9</v>
       </c>
       <c r="I143" t="n">
-        <v>118938</v>
+        <v>100208</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9451514</v>
+        <v>9437728</v>
       </c>
       <c r="F144" t="n">
-        <v>1054.519067884994</v>
+        <v>1071.049765092621</v>
       </c>
       <c r="G144" t="n">
-        <v>635.6181952639316</v>
+        <v>640.3896842589669</v>
       </c>
       <c r="H144" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I144" t="n">
-        <v>121115</v>
+        <v>110217</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1181851</v>
+        <v>1173130</v>
       </c>
       <c r="E145" t="n">
-        <v>7879003</v>
+        <v>7820865</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4785130342303</v>
+        <v>263.4868499866672</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0147829844285</v>
+        <v>105.0181058483722</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5713.72</v>
+        <v>5617.2</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7828890</v>
+        <v>7823283</v>
       </c>
       <c r="F146" t="n">
-        <v>527.7214520915593</v>
+        <v>524.2846196289175</v>
       </c>
       <c r="G146" t="n">
-        <v>68.25754662709475</v>
+        <v>285.7972976389443</v>
       </c>
       <c r="H146" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="I146" t="n">
-        <v>6646492</v>
+        <v>6638144</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>672632</v>
+        <v>672020</v>
       </c>
       <c r="E147" t="n">
-        <v>2428568</v>
+        <v>2426355</v>
       </c>
       <c r="F147" t="n">
-        <v>292.6967599306611</v>
+        <v>47.95491340017319</v>
       </c>
       <c r="G147" t="n">
-        <v>138.9367777304914</v>
+        <v>138.9672012508609</v>
       </c>
       <c r="H147" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I147" t="n">
-        <v>354042</v>
+        <v>344042</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1597863</v>
+        <v>1584773</v>
       </c>
       <c r="F148" t="n">
-        <v>209.6277881517851</v>
+        <v>27.35943655209632</v>
       </c>
       <c r="G148" t="n">
-        <v>68.02366362649296</v>
+        <v>921.6808810152396</v>
       </c>
       <c r="H148" t="n">
         <v>1.43</v>
       </c>
       <c r="I148" t="n">
-        <v>84847</v>
+        <v>83666</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69313</v>
+        <v>69322</v>
       </c>
       <c r="F149" t="n">
-        <v>65.45614706595352</v>
+        <v>64.45802388821727</v>
       </c>
       <c r="G149" t="n">
-        <v>20.71133650958782</v>
+        <v>19.74218605163769</v>
       </c>
       <c r="H149" t="n">
         <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>947.48</v>
+        <v>951.55</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13180362</v>
+        <v>13122759</v>
       </c>
       <c r="E150" t="n">
-        <v>13180362</v>
+        <v>13122759</v>
       </c>
       <c r="F150" t="n">
-        <v>593.5099407090398</v>
+        <v>689.0659366369226</v>
       </c>
       <c r="G150" t="n">
-        <v>1757.765420649498</v>
+        <v>1750.97895555595</v>
       </c>
       <c r="H150" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I150" t="n">
-        <v>2699297</v>
+        <v>3623090</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1866500</v>
+        <v>1875433</v>
       </c>
       <c r="E151" t="n">
-        <v>6780943</v>
+        <v>6813277</v>
       </c>
       <c r="F151" t="n">
-        <v>52.48607133088639</v>
+        <v>4.238824259465413</v>
       </c>
       <c r="G151" t="n">
-        <v>52.15004611958958</v>
+        <v>174.5213984129936</v>
       </c>
       <c r="H151" t="n">
-        <v>1.53</v>
+        <v>0.92</v>
       </c>
       <c r="I151" t="n">
-        <v>129389</v>
+        <v>130058</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1260959</v>
+        <v>1259557</v>
       </c>
       <c r="E152" t="n">
-        <v>1260959</v>
+        <v>1259557</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1340.23</v>
+        <v>1441.86</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23598586</v>
+        <v>23659969</v>
       </c>
       <c r="E153" t="n">
-        <v>27227731</v>
+        <v>27298554</v>
       </c>
       <c r="F153" t="n">
-        <v>245.6404867442069</v>
+        <v>342.6048278324063</v>
       </c>
       <c r="G153" t="n">
-        <v>323.0192133729236</v>
+        <v>374.0591837809854</v>
       </c>
       <c r="H153" t="n">
-        <v>0.65</v>
+        <v>0.14</v>
       </c>
       <c r="I153" t="n">
-        <v>743886</v>
+        <v>742758</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441560</v>
+        <v>2442234</v>
       </c>
       <c r="E154" t="n">
-        <v>18372190</v>
+        <v>18377262</v>
       </c>
       <c r="F154" t="n">
-        <v>3860.199489811811</v>
+        <v>3737.860069304523</v>
       </c>
       <c r="G154" t="n">
-        <v>3471.119724724358</v>
+        <v>1852.260177969629</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>165268</v>
+        <v>165063</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20623104</v>
+        <v>20986356</v>
       </c>
       <c r="E155" t="n">
-        <v>82492416</v>
+        <v>83945422</v>
       </c>
       <c r="F155" t="n">
-        <v>7518.364165712486</v>
+        <v>8355.109425523387</v>
       </c>
       <c r="G155" t="n">
-        <v>27647.35459267975</v>
+        <v>29516.68450968506</v>
       </c>
       <c r="H155" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="I155" t="n">
-        <v>4817873</v>
+        <v>4345525</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>311039087</v>
+        <v>311298915</v>
       </c>
       <c r="E156" t="n">
-        <v>311039087</v>
+        <v>311298915</v>
       </c>
       <c r="F156" t="n">
-        <v>297201.0955480387</v>
+        <v>340195.5122897964</v>
       </c>
       <c r="G156" t="n">
-        <v>396543.227547376</v>
+        <v>308533.5866244005</v>
       </c>
       <c r="H156" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="I156" t="n">
-        <v>14710309</v>
+        <v>14916313</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12894996</v>
+        <v>12843997</v>
       </c>
       <c r="E157" t="n">
-        <v>40795104</v>
+        <v>40633762</v>
       </c>
       <c r="F157" t="n">
-        <v>9526.461171806299</v>
+        <v>7539.865772331514</v>
       </c>
       <c r="G157" t="n">
-        <v>15397.11530257973</v>
+        <v>9207.525115193916</v>
       </c>
       <c r="H157" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="I157" t="n">
-        <v>1285522</v>
+        <v>1204730</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1083421</v>
+        <v>1083319</v>
       </c>
       <c r="E158" t="n">
-        <v>2467599</v>
+        <v>2467365</v>
       </c>
       <c r="F158" t="n">
-        <v>9.990121381808974</v>
+        <v>9.990437487915083</v>
       </c>
       <c r="G158" t="n">
-        <v>98.27625344362818</v>
+        <v>98.27936308790694</v>
       </c>
       <c r="H158" t="n">
         <v>3.59</v>
       </c>
       <c r="I158" t="n">
-        <v>2818.61</v>
+        <v>2819.34</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>17837613</v>
+        <v>18046766</v>
       </c>
       <c r="E159" t="n">
-        <v>17837613</v>
+        <v>18046766</v>
       </c>
       <c r="F159" t="n">
-        <v>11541.45759305615</v>
+        <v>10927.59967254318</v>
       </c>
       <c r="G159" t="n">
-        <v>20577.22234094983</v>
+        <v>20212.4328424547</v>
       </c>
       <c r="H159" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I159" t="n">
-        <v>3516925</v>
+        <v>3657006</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4851231</v>
+        <v>4852692</v>
       </c>
       <c r="E160" t="n">
-        <v>8931635</v>
+        <v>8934324</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>17.23</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113575</v>
+        <v>113718</v>
       </c>
       <c r="E161" t="n">
-        <v>137464</v>
+        <v>137637</v>
       </c>
       <c r="F161" t="n">
-        <v>4.329314654784924</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>37.01192884611607</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>2.96</v>
+        <v>5.2</v>
       </c>
       <c r="I161" t="n">
-        <v>3275.63</v>
+        <v>3315.78</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20038331</v>
+        <v>20028270</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>9.220000000000001</v>
+        <v>7.56</v>
       </c>
       <c r="I162" t="n">
-        <v>1905.25</v>
+        <v>1905.83</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>438424</v>
+        <v>437572</v>
       </c>
       <c r="E163" t="n">
-        <v>552250</v>
+        <v>551177</v>
       </c>
       <c r="F163" t="n">
-        <v>133.9753346931804</v>
+        <v>213.8320168190391</v>
       </c>
       <c r="G163" t="n">
-        <v>192.3901942435758</v>
+        <v>121.4998410698944</v>
       </c>
       <c r="H163" t="n">
-        <v>0.9</v>
+        <v>0.36</v>
       </c>
       <c r="I163" t="n">
-        <v>180133</v>
+        <v>181089</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>98518</v>
+        <v>98531</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>5.54</v>
       </c>
       <c r="I164" t="n">
-        <v>3830.98</v>
+        <v>3828.88</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12773290</v>
+        <v>12750614</v>
       </c>
       <c r="E165" t="n">
-        <v>19443828</v>
+        <v>19409310</v>
       </c>
       <c r="F165" t="n">
-        <v>1117.025379981699</v>
+        <v>1131.750277204866</v>
       </c>
       <c r="G165" t="n">
-        <v>1959.147455475778</v>
+        <v>1959.665736289449</v>
       </c>
       <c r="H165" t="n">
         <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>776604</v>
+        <v>768137</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>315186046</v>
+        <v>314282828</v>
       </c>
       <c r="E166" t="n">
-        <v>315186046</v>
+        <v>314282828</v>
       </c>
       <c r="F166" t="n">
-        <v>250949.1085656537</v>
+        <v>268649.3760579273</v>
       </c>
       <c r="G166" t="n">
-        <v>412774.6033388042</v>
+        <v>365497.3134300004</v>
       </c>
       <c r="H166" t="n">
         <v>0.06</v>
       </c>
       <c r="I166" t="n">
-        <v>51126555</v>
+        <v>51601707</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10269599</v>
+        <v>10333859</v>
       </c>
       <c r="E167" t="n">
-        <v>29157104</v>
+        <v>29339551</v>
       </c>
       <c r="F167" t="n">
-        <v>124.3657421086987</v>
+        <v>1185.833454935081</v>
       </c>
       <c r="G167" t="n">
-        <v>1077.044577346451</v>
+        <v>184.9378920495459</v>
       </c>
       <c r="H167" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="I167" t="n">
-        <v>121073</v>
+        <v>122259</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11654459</v>
+        <v>11610853</v>
       </c>
       <c r="F168" t="n">
-        <v>179.9468675732771</v>
+        <v>196.7719572396047</v>
       </c>
       <c r="G168" t="n">
-        <v>1205.92113560183</v>
+        <v>1185.859567812853</v>
       </c>
       <c r="H168" t="n">
-        <v>0.77</v>
+        <v>1.38</v>
       </c>
       <c r="I168" t="n">
-        <v>98695</v>
+        <v>97464</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4168215</v>
+        <v>4289533</v>
       </c>
       <c r="E169" t="n">
-        <v>28481121</v>
+        <v>29310077</v>
       </c>
       <c r="F169" t="n">
-        <v>5956.032847452718</v>
+        <v>1351.940419221482</v>
       </c>
       <c r="G169" t="n">
-        <v>6282.282783148696</v>
+        <v>1638.698529695035</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7</v>
+        <v>1.02</v>
       </c>
       <c r="I169" t="n">
-        <v>2618841</v>
+        <v>2645735</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2817229</v>
+        <v>2834733</v>
       </c>
       <c r="E170" t="n">
-        <v>4177099</v>
+        <v>4202584</v>
       </c>
       <c r="F170" t="n">
-        <v>3596.34355914681</v>
+        <v>2350.020731668227</v>
       </c>
       <c r="G170" t="n">
-        <v>2351.697280054927</v>
+        <v>3701.69577428597</v>
       </c>
       <c r="H170" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I170" t="n">
-        <v>209686</v>
+        <v>210229</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>90253131</v>
+        <v>90611195</v>
       </c>
       <c r="E171" t="n">
-        <v>520077470</v>
+        <v>522140789</v>
       </c>
       <c r="F171" t="n">
-        <v>297024.1999518871</v>
+        <v>345744.3115315898</v>
       </c>
       <c r="G171" t="n">
-        <v>403376.4925707138</v>
+        <v>377347.9266589237</v>
       </c>
       <c r="H171" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I171" t="n">
-        <v>16456298</v>
+        <v>16572547</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13759852</v>
+        <v>13760492</v>
       </c>
       <c r="E172" t="n">
-        <v>13759852</v>
+        <v>13760492</v>
       </c>
       <c r="F172" t="n">
-        <v>3728.789227821263</v>
+        <v>5397.631743772426</v>
       </c>
       <c r="G172" t="n">
-        <v>6315.456691592077</v>
+        <v>4781.232471212706</v>
       </c>
       <c r="H172" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="I172" t="n">
-        <v>606695</v>
+        <v>610629</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6091030</v>
+        <v>6084056</v>
       </c>
       <c r="E173" t="n">
-        <v>17302867</v>
+        <v>17283056</v>
       </c>
       <c r="F173" t="n">
-        <v>525.8476525164685</v>
+        <v>575.8535577835871</v>
       </c>
       <c r="G173" t="n">
-        <v>8410.014355445768</v>
+        <v>8741.868667889505</v>
       </c>
       <c r="H173" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="I173" t="n">
-        <v>215558</v>
+        <v>197230</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18672847</v>
+        <v>18613874</v>
       </c>
       <c r="E174" t="n">
-        <v>18672847</v>
+        <v>18613874</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039465944830197</v>
+        <v>1.039498835474834</v>
       </c>
       <c r="G174" t="n">
-        <v>473.4237522430865</v>
+        <v>473.4387322551545</v>
       </c>
       <c r="H174" t="n">
         <v>1.57</v>
       </c>
       <c r="I174" t="n">
-        <v>117537</v>
+        <v>118324</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1339426</v>
+        <v>1340475</v>
       </c>
       <c r="F175" t="n">
-        <v>258.5637601601883</v>
+        <v>786.0510902596658</v>
       </c>
       <c r="G175" t="n">
-        <v>235.463649867106</v>
+        <v>175.2349880738849</v>
       </c>
       <c r="H175" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="I175" t="n">
-        <v>31937</v>
+        <v>28342</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>146207</v>
+        <v>145702</v>
       </c>
       <c r="E176" t="n">
-        <v>318291</v>
+        <v>317191</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.12</v>
+        <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>54459</v>
+        <v>54058</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2821101</v>
+        <v>2810465</v>
       </c>
       <c r="F177" t="n">
-        <v>316.6886404826873</v>
+        <v>438.1390912226677</v>
       </c>
       <c r="G177" t="n">
-        <v>54.426640423877</v>
+        <v>328.8119390398148</v>
       </c>
       <c r="H177" t="n">
-        <v>1.41</v>
+        <v>0.36</v>
       </c>
       <c r="I177" t="n">
-        <v>418980</v>
+        <v>423554</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248679396</v>
+        <v>248542326</v>
       </c>
       <c r="E178" t="n">
-        <v>248681866</v>
+        <v>248544795</v>
       </c>
       <c r="F178" t="n">
-        <v>43350.09614758276</v>
+        <v>43194.23556180625</v>
       </c>
       <c r="G178" t="n">
-        <v>48331.60272211511</v>
+        <v>67993.51750070525</v>
       </c>
       <c r="H178" t="n">
-        <v>0.73</v>
+        <v>0.3</v>
       </c>
       <c r="I178" t="n">
-        <v>2551076</v>
+        <v>2533467</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9291266</v>
+        <v>9281639</v>
       </c>
       <c r="E179" t="n">
-        <v>9291266</v>
+        <v>9281639</v>
       </c>
       <c r="F179" t="n">
-        <v>1257.01042436433</v>
+        <v>1284.164260826285</v>
       </c>
       <c r="G179" t="n">
-        <v>430.3530917292017</v>
+        <v>430.3775299502956</v>
       </c>
       <c r="H179" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I179" t="n">
-        <v>2089813</v>
+        <v>2093283</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>184040</v>
+        <v>183731</v>
       </c>
       <c r="E180" t="n">
-        <v>1421155</v>
+        <v>1418775</v>
       </c>
       <c r="F180" t="n">
-        <v>40.33627277137249</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>382.2557101414974</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1.39</v>
+        <v>4.03</v>
       </c>
       <c r="I180" t="n">
-        <v>123674</v>
+        <v>108353</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30405488</v>
+        <v>30988819</v>
       </c>
       <c r="E181" t="n">
-        <v>136137845</v>
+        <v>138749655</v>
       </c>
       <c r="F181" t="n">
-        <v>41189.45996162088</v>
+        <v>56488.63489876065</v>
       </c>
       <c r="G181" t="n">
-        <v>64863.38631415239</v>
+        <v>101337.3319084361</v>
       </c>
       <c r="H181" t="n">
         <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>8455614</v>
+        <v>8734596</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1485914</v>
+        <v>1463444</v>
       </c>
       <c r="F182" t="n">
-        <v>70.31361529569776</v>
+        <v>3.172798965795071</v>
       </c>
       <c r="G182" t="n">
-        <v>157.7874863416178</v>
+        <v>5503.089686869235</v>
       </c>
       <c r="H182" t="n">
         <v>0.05</v>
       </c>
       <c r="I182" t="n">
-        <v>25031</v>
+        <v>54531</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3065691</v>
+        <v>3085232</v>
       </c>
       <c r="E183" t="n">
-        <v>3065691</v>
+        <v>3085232</v>
       </c>
       <c r="F183" t="n">
-        <v>236.6088626518091</v>
+        <v>142.7215243767849</v>
       </c>
       <c r="G183" t="n">
-        <v>292.2243255519788</v>
+        <v>339.2520466682197</v>
       </c>
       <c r="H183" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="I183" t="n">
-        <v>438610</v>
+        <v>424123</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560015</v>
+        <v>560690</v>
       </c>
       <c r="E184" t="n">
-        <v>560015</v>
+        <v>560690</v>
       </c>
       <c r="F184" t="n">
-        <v>12.33907922627162</v>
+        <v>25.90486490374596</v>
       </c>
       <c r="G184" t="n">
-        <v>4.667752903134272</v>
+        <v>4.668017968216065</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>44370</v>
+        <v>37995</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14440906</v>
+        <v>15233729</v>
       </c>
       <c r="E185" t="n">
-        <v>18385578</v>
+        <v>19394968</v>
       </c>
       <c r="F185" t="n">
-        <v>390.7621682452087</v>
+        <v>133.0976220674723</v>
       </c>
       <c r="G185" t="n">
-        <v>305.2016205508198</v>
+        <v>209.9627968068712</v>
       </c>
       <c r="H185" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="I185" t="n">
-        <v>854180</v>
+        <v>911143</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1815941</v>
+        <v>1815897</v>
       </c>
       <c r="E186" t="n">
-        <v>1815941</v>
+        <v>1815897</v>
       </c>
       <c r="F186" t="n">
-        <v>45.36084365797085</v>
+        <v>45.63683449074367</v>
       </c>
       <c r="G186" t="n">
-        <v>12.31398738664373</v>
+        <v>12.31468665418029</v>
       </c>
       <c r="H186" t="n">
         <v>3.15</v>
       </c>
       <c r="I186" t="n">
-        <v>4294.99</v>
+        <v>4302.89</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>49296313</v>
+        <v>49767198</v>
       </c>
       <c r="E187" t="n">
-        <v>319673472</v>
+        <v>322727035</v>
       </c>
       <c r="F187" t="n">
-        <v>109364.8034012538</v>
+        <v>109822.8387395353</v>
       </c>
       <c r="G187" t="n">
-        <v>146390.9821443602</v>
+        <v>123809.7201019396</v>
       </c>
       <c r="H187" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I187" t="n">
-        <v>16593713</v>
+        <v>16783422</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9090990</v>
+        <v>9101615</v>
       </c>
       <c r="F188" t="n">
-        <v>859.7078952446325</v>
+        <v>691.7250697160152</v>
       </c>
       <c r="G188" t="n">
-        <v>476.7468146546962</v>
+        <v>477.3572156576741</v>
       </c>
       <c r="H188" t="n">
         <v>1.42</v>
       </c>
       <c r="I188" t="n">
-        <v>303969</v>
+        <v>303731</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7014897</v>
+        <v>7059077</v>
       </c>
       <c r="E189" t="n">
-        <v>7024881</v>
+        <v>7069097</v>
       </c>
       <c r="F189" t="n">
-        <v>164.0109550198743</v>
+        <v>986.3568067555049</v>
       </c>
       <c r="G189" t="n">
-        <v>138.3794383896073</v>
+        <v>76.87990636213272</v>
       </c>
       <c r="H189" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="I189" t="n">
-        <v>759500</v>
+        <v>760757</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4782306</v>
+        <v>4795186</v>
       </c>
       <c r="F190" t="n">
-        <v>1913.415447273994</v>
+        <v>2113.277733870359</v>
       </c>
       <c r="G190" t="n">
-        <v>2081.266424785627</v>
+        <v>2460.677658432049</v>
       </c>
       <c r="H190" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="I190" t="n">
-        <v>182833</v>
+        <v>200745</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>94371245</v>
+        <v>95970695</v>
       </c>
       <c r="E191" t="n">
-        <v>95387088</v>
+        <v>97003754</v>
       </c>
       <c r="F191" t="n">
-        <v>39957.48404599116</v>
+        <v>57341.24604403844</v>
       </c>
       <c r="G191" t="n">
-        <v>47287.84637343097</v>
+        <v>48103.68718294031</v>
       </c>
       <c r="H191" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>33876639</v>
+        <v>35271724</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>235050374</v>
+        <v>238219735</v>
       </c>
       <c r="E192" t="n">
-        <v>235050374</v>
+        <v>238219735</v>
       </c>
       <c r="F192" t="n">
-        <v>77438.40440533096</v>
+        <v>84729.43397297627</v>
       </c>
       <c r="G192" t="n">
-        <v>118385.9052551813</v>
+        <v>110001.1402970358</v>
       </c>
       <c r="H192" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>44708455</v>
+        <v>45348036</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24404770</v>
+        <v>24482770</v>
       </c>
       <c r="E193" t="n">
-        <v>146018646</v>
+        <v>146485337</v>
       </c>
       <c r="F193" t="n">
-        <v>87094.16512008365</v>
+        <v>82036.28170675498</v>
       </c>
       <c r="G193" t="n">
-        <v>156864.8217379677</v>
+        <v>140870.0471372613</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>11932588</v>
+        <v>12351520</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13582792</v>
+        <v>13597713</v>
       </c>
       <c r="E194" t="n">
-        <v>41680823</v>
+        <v>41726610</v>
       </c>
       <c r="F194" t="n">
-        <v>855.5917785247834</v>
+        <v>747.5790655581912</v>
       </c>
       <c r="G194" t="n">
-        <v>824.7818226130568</v>
+        <v>729.82022126537</v>
       </c>
       <c r="H194" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="I194" t="n">
-        <v>2570003</v>
+        <v>2604789</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55242609</v>
+        <v>55193195</v>
       </c>
       <c r="E195" t="n">
-        <v>95415996</v>
+        <v>95330647</v>
       </c>
       <c r="F195" t="n">
-        <v>8600.567940508989</v>
+        <v>8703.598413958707</v>
       </c>
       <c r="G195" t="n">
-        <v>7503.350069277749</v>
+        <v>7313.525653722804</v>
       </c>
       <c r="H195" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="I195" t="n">
-        <v>2343088</v>
+        <v>2353209</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4181431</v>
+        <v>4194746</v>
       </c>
       <c r="E196" t="n">
-        <v>4181431</v>
+        <v>4194746</v>
       </c>
       <c r="F196" t="n">
-        <v>7.073911231422416</v>
+        <v>1.064274353191667</v>
       </c>
       <c r="G196" t="n">
-        <v>367.6648765571742</v>
+        <v>365.4712479161576</v>
       </c>
       <c r="H196" t="n">
-        <v>1.69</v>
+        <v>2.63</v>
       </c>
       <c r="I196" t="n">
-        <v>1592287</v>
+        <v>1622815</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>212090</v>
+        <v>211944</v>
       </c>
       <c r="F197" t="n">
-        <v>67.57896515146413</v>
+        <v>56.3699538346653</v>
       </c>
       <c r="G197" t="n">
-        <v>97.11780785004481</v>
+        <v>60.84915720698838</v>
       </c>
       <c r="H197" t="n">
-        <v>2.99</v>
+        <v>2.54</v>
       </c>
       <c r="I197" t="n">
-        <v>51478</v>
+        <v>51102</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6664749</v>
+        <v>6698527</v>
       </c>
       <c r="E198" t="n">
-        <v>34288108</v>
+        <v>34461883</v>
       </c>
       <c r="F198" t="n">
-        <v>207.5309682900667</v>
+        <v>154.0330830629779</v>
       </c>
       <c r="G198" t="n">
-        <v>397.8275151182305</v>
+        <v>443.7115095058111</v>
       </c>
       <c r="H198" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="I198" t="n">
-        <v>922579</v>
+        <v>919155</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>176489537</v>
+        <v>177480399</v>
       </c>
       <c r="E199" t="n">
-        <v>206191891</v>
+        <v>207349511</v>
       </c>
       <c r="F199" t="n">
-        <v>22422.4122293025</v>
+        <v>35036.12351532961</v>
       </c>
       <c r="G199" t="n">
-        <v>32744.40463872337</v>
+        <v>31993.88347595251</v>
       </c>
       <c r="H199" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I199" t="n">
-        <v>4201498</v>
+        <v>4255666</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>301344</v>
+        <v>298470</v>
       </c>
       <c r="F200" t="n">
-        <v>142.6634969159534</v>
+        <v>17.5687341236101</v>
       </c>
       <c r="G200" t="n">
-        <v>222.1745596465125</v>
+        <v>220.5498234583764</v>
       </c>
       <c r="H200" t="n">
         <v>1.33</v>
       </c>
       <c r="I200" t="n">
-        <v>318306</v>
+        <v>216706</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7997212</v>
+        <v>7997269</v>
       </c>
       <c r="F201" t="n">
-        <v>897.7219058585954</v>
+        <v>889.7520493025997</v>
       </c>
       <c r="G201" t="n">
-        <v>889.1100042776782</v>
+        <v>888.9826826956167</v>
       </c>
       <c r="H201" t="n">
         <v>0.3</v>
       </c>
       <c r="I201" t="n">
-        <v>668267</v>
+        <v>661324</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34013</v>
+        <v>34009</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.71</v>
+        <v>651.8</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35062237</v>
+        <v>35110793</v>
       </c>
       <c r="E203" t="n">
-        <v>174976727</v>
+        <v>175219041</v>
       </c>
       <c r="F203" t="n">
-        <v>88283.20820344935</v>
+        <v>97948.29017470998</v>
       </c>
       <c r="G203" t="n">
-        <v>126464.2442756578</v>
+        <v>130244.9869692586</v>
       </c>
       <c r="H203" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I203" t="n">
-        <v>10331357</v>
+        <v>10466586</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1982724</v>
+        <v>1976754</v>
       </c>
       <c r="E204" t="n">
-        <v>1982724</v>
+        <v>1976754</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>10.57</v>
+        <v>10.15</v>
       </c>
       <c r="I204" t="n">
-        <v>13469.04</v>
+        <v>9988.34</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178004</v>
+        <v>178251</v>
       </c>
       <c r="F205" t="n">
-        <v>24.59126348602102</v>
+        <v>35.1939346873871</v>
       </c>
       <c r="G205" t="n">
-        <v>308.0286149251973</v>
+        <v>349.8931743059181</v>
       </c>
       <c r="H205" t="n">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="I205" t="n">
-        <v>11661</v>
+        <v>12956.67</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2778.24</v>
+        <v>2779.33</v>
       </c>
       <c r="E206" t="n">
-        <v>33206</v>
+        <v>33219</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>7.89</v>
+        <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7983.33</v>
+        <v>7986.44</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>317231907</v>
+        <v>316251386</v>
       </c>
       <c r="E208" t="n">
-        <v>586951373</v>
+        <v>585137184</v>
       </c>
       <c r="F208" t="n">
-        <v>130721.8443641237</v>
+        <v>141984.1345338353</v>
       </c>
       <c r="G208" t="n">
-        <v>195624.4407316902</v>
+        <v>176507.0052006434</v>
       </c>
       <c r="H208" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>13137471</v>
+        <v>13456261</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72147764</v>
+        <v>72197109</v>
       </c>
       <c r="E209" t="n">
-        <v>688281165</v>
+        <v>688741196</v>
       </c>
       <c r="F209" t="n">
-        <v>290479.0486694113</v>
+        <v>298664.7244820739</v>
       </c>
       <c r="G209" t="n">
-        <v>386471.7167665029</v>
+        <v>380561.6955572162</v>
       </c>
       <c r="H209" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21664326</v>
+        <v>21871704</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2694710</v>
+        <v>2613939</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>230.357873180126</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>34.91547547967452</v>
       </c>
       <c r="H210" t="n">
-        <v>4.77</v>
+        <v>2.88</v>
       </c>
       <c r="I210" t="n">
-        <v>55726</v>
+        <v>56412</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81101</v>
+        <v>81415</v>
       </c>
       <c r="E211" t="n">
-        <v>674211</v>
+        <v>676821</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>174.02</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1889623</v>
+        <v>1892008</v>
       </c>
       <c r="E212" t="n">
-        <v>5396521</v>
+        <v>5403333</v>
       </c>
       <c r="F212" t="n">
-        <v>72.49581429122746</v>
+        <v>237.5530233111674</v>
       </c>
       <c r="G212" t="n">
-        <v>332.6262229001502</v>
+        <v>383.7234668466274</v>
       </c>
       <c r="H212" t="n">
         <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>67888</v>
+        <v>66926</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>10846315</v>
+        <v>11238858</v>
       </c>
       <c r="E213" t="n">
-        <v>32181735</v>
+        <v>33346437</v>
       </c>
       <c r="F213" t="n">
-        <v>2591.387459512493</v>
+        <v>2870.562748530299</v>
       </c>
       <c r="G213" t="n">
-        <v>3376.569375839719</v>
+        <v>2424.212944695653</v>
       </c>
       <c r="H213" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I213" t="n">
-        <v>6607940</v>
+        <v>6847572</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14579599</v>
+        <v>14577829</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>11.27</v>
+        <v>10.8</v>
       </c>
       <c r="I214" t="n">
-        <v>1250.74</v>
+        <v>1250.91</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1984573</v>
+        <v>1984290</v>
       </c>
       <c r="E215" t="n">
-        <v>5757885</v>
+        <v>5757065</v>
       </c>
       <c r="F215" t="n">
-        <v>68.20629201719989</v>
+        <v>42.99439769438589</v>
       </c>
       <c r="G215" t="n">
-        <v>615.8061562945445</v>
+        <v>633.9762860532921</v>
       </c>
       <c r="H215" t="n">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="I215" t="n">
-        <v>45574</v>
+        <v>48382</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2138318</v>
+        <v>2113513</v>
       </c>
       <c r="E216" t="n">
-        <v>18861384</v>
+        <v>18642586</v>
       </c>
       <c r="F216" t="n">
-        <v>362.5023248651708</v>
+        <v>171.5821987716942</v>
       </c>
       <c r="G216" t="n">
-        <v>198.5284913520607</v>
+        <v>2275.013443145508</v>
       </c>
       <c r="H216" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="I216" t="n">
-        <v>74428</v>
+        <v>74588</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44608949</v>
+        <v>44744016</v>
       </c>
       <c r="E217" t="n">
-        <v>44608949</v>
+        <v>44744016</v>
       </c>
       <c r="F217" t="n">
-        <v>33713.90582646895</v>
+        <v>32277.41783476347</v>
       </c>
       <c r="G217" t="n">
-        <v>33726.07976696904</v>
+        <v>41850.81055004612</v>
       </c>
       <c r="H217" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I217" t="n">
-        <v>7599038</v>
+        <v>8613712</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8437947</v>
+        <v>8438189</v>
       </c>
       <c r="E218" t="n">
-        <v>12022141</v>
+        <v>12022485</v>
       </c>
       <c r="F218" t="n">
-        <v>4390.901986083015</v>
+        <v>4292.020779152888</v>
       </c>
       <c r="G218" t="n">
-        <v>375.8085950789572</v>
+        <v>364.9704393392619</v>
       </c>
       <c r="H218" t="n">
-        <v>0.58</v>
+        <v>0.9</v>
       </c>
       <c r="I218" t="n">
-        <v>434814</v>
+        <v>432019</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16353221</v>
+        <v>16314496</v>
       </c>
       <c r="F219" t="n">
-        <v>36.35875838982161</v>
+        <v>36.36095029380203</v>
       </c>
       <c r="G219" t="n">
-        <v>410.2623509792953</v>
+        <v>1.04135700958971</v>
       </c>
       <c r="H219" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I219" t="n">
-        <v>985675</v>
+        <v>985086</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>718367</v>
+        <v>718361</v>
       </c>
       <c r="F220" t="n">
-        <v>117.9930841098256</v>
+        <v>83.75077602494817</v>
       </c>
       <c r="G220" t="n">
-        <v>318.5635088233212</v>
+        <v>338.6011606353446</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>228884</v>
+        <v>226783</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2852088</v>
+        <v>2851077</v>
       </c>
       <c r="E221" t="n">
-        <v>2854559</v>
+        <v>2853546</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>4.91</v>
+        <v>5.72</v>
       </c>
       <c r="I221" t="n">
-        <v>108804</v>
+        <v>109321</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1263072</v>
+        <v>1260569</v>
       </c>
       <c r="E222" t="n">
-        <v>3817919</v>
+        <v>3810239</v>
       </c>
       <c r="F222" t="n">
-        <v>922.9295643323517</v>
+        <v>922.9852035531418</v>
       </c>
       <c r="G222" t="n">
-        <v>596.5859035528518</v>
+        <v>596.6218690003691</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>12416.31</v>
+        <v>12493.05</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38777007</v>
+        <v>38859389</v>
       </c>
       <c r="E223" t="n">
-        <v>274922656</v>
+        <v>275506726</v>
       </c>
       <c r="F223" t="n">
-        <v>64950.94323293109</v>
+        <v>82822.12622607224</v>
       </c>
       <c r="G223" t="n">
-        <v>73431.87433191882</v>
+        <v>49575.38841951292</v>
       </c>
       <c r="H223" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="I223" t="n">
-        <v>1606899</v>
+        <v>1605998</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58910</v>
+        <v>60607</v>
       </c>
       <c r="E224" t="n">
-        <v>307369</v>
+        <v>316224</v>
       </c>
       <c r="F224" t="n">
-        <v>267.421904695961</v>
+        <v>28.30764369126536</v>
       </c>
       <c r="G224" t="n">
-        <v>4.825672688237597</v>
+        <v>170.8629546161914</v>
       </c>
       <c r="H224" t="n">
-        <v>0.52</v>
+        <v>0.03</v>
       </c>
       <c r="I224" t="n">
-        <v>277665</v>
+        <v>290085</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1270347</v>
+        <v>1271100</v>
       </c>
       <c r="E225" t="n">
-        <v>7877451</v>
+        <v>7882124</v>
       </c>
       <c r="F225" t="n">
-        <v>1700.052188288858</v>
+        <v>1442.505508679069</v>
       </c>
       <c r="G225" t="n">
-        <v>1615.869478294197</v>
+        <v>1614.463447643464</v>
       </c>
       <c r="H225" t="n">
         <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>754236</v>
+        <v>768168</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>606389286</v>
+        <v>608577038</v>
       </c>
       <c r="E226" t="n">
-        <v>2348456237</v>
+        <v>2356929081</v>
       </c>
       <c r="F226" t="n">
-        <v>234029.8484707844</v>
+        <v>241864.1203673563</v>
       </c>
       <c r="G226" t="n">
-        <v>440697.6818460877</v>
+        <v>447047.8568701242</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32898268</v>
+        <v>32688820</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20811795</v>
+        <v>20629997</v>
       </c>
       <c r="F227" t="n">
-        <v>1006.164482060805</v>
+        <v>1021.29923009506</v>
       </c>
       <c r="G227" t="n">
-        <v>1525.115989961381</v>
+        <v>837.9752665936956</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I227" t="n">
-        <v>16710104</v>
+        <v>16801779</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>811491</v>
+        <v>800169</v>
       </c>
       <c r="F228" t="n">
-        <v>232.0367154616061</v>
+        <v>401.0963622687269</v>
       </c>
       <c r="G228" t="n">
-        <v>41.17097839309073</v>
+        <v>61.10948239630768</v>
       </c>
       <c r="H228" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="I228" t="n">
-        <v>222921</v>
+        <v>214346</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5844292</v>
+        <v>5891640</v>
       </c>
       <c r="E229" t="n">
-        <v>26165627</v>
+        <v>26377607</v>
       </c>
       <c r="F229" t="n">
-        <v>2170.669048679498</v>
+        <v>2377.226229911403</v>
       </c>
       <c r="G229" t="n">
-        <v>1831.795452170377</v>
+        <v>1785.873071567333</v>
       </c>
       <c r="H229" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>147916</v>
+        <v>153185</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6684953</v>
+        <v>6672855</v>
       </c>
       <c r="E230" t="n">
-        <v>12798884</v>
+        <v>12775721</v>
       </c>
       <c r="F230" t="n">
-        <v>212.9638754326801</v>
+        <v>4258.095027053515</v>
       </c>
       <c r="G230" t="n">
-        <v>1722.406260561939</v>
+        <v>4013.580585722565</v>
       </c>
       <c r="H230" t="n">
-        <v>2.33</v>
+        <v>0.12</v>
       </c>
       <c r="I230" t="n">
-        <v>162088</v>
+        <v>148122</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3258485</v>
+        <v>3257305</v>
       </c>
       <c r="E231" t="n">
-        <v>21427037</v>
+        <v>21419276</v>
       </c>
       <c r="F231" t="n">
-        <v>2307.667523139195</v>
+        <v>2243.110581136266</v>
       </c>
       <c r="G231" t="n">
-        <v>523.6265095517127</v>
+        <v>485.0496619638132</v>
       </c>
       <c r="H231" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="I231" t="n">
-        <v>1514425</v>
+        <v>1594799</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>122861762</v>
+        <v>122383721</v>
       </c>
       <c r="E232" t="n">
-        <v>1068207506</v>
+        <v>1064051234</v>
       </c>
       <c r="F232" t="n">
-        <v>190171.1863322292</v>
+        <v>186462.4139745855</v>
       </c>
       <c r="G232" t="n">
-        <v>233530.3326608349</v>
+        <v>230745.7957822983</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I232" t="n">
-        <v>9105594</v>
+        <v>9353866</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.92</v>
+        <v>7.43</v>
       </c>
       <c r="I233" t="n">
-        <v>1285.33</v>
+        <v>1162.73</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>114618852</v>
+        <v>117469560</v>
       </c>
       <c r="E234" t="n">
-        <v>174853746</v>
+        <v>179202568</v>
       </c>
       <c r="F234" t="n">
-        <v>93533.64093927167</v>
+        <v>86893.73768307125</v>
       </c>
       <c r="G234" t="n">
-        <v>90906.23344742444</v>
+        <v>109411.867383761</v>
       </c>
       <c r="H234" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I234" t="n">
-        <v>8642167</v>
+        <v>7960527</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16522307</v>
+        <v>16591235</v>
       </c>
       <c r="E235" t="n">
-        <v>22667174</v>
+        <v>22761737</v>
       </c>
       <c r="F235" t="n">
-        <v>660.4030701518429</v>
+        <v>529.7003926032747</v>
       </c>
       <c r="G235" t="n">
-        <v>1962.488678374986</v>
+        <v>2062.125497222787</v>
       </c>
       <c r="H235" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="I235" t="n">
-        <v>471792</v>
+        <v>459646</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>118364103</v>
+        <v>120027076</v>
       </c>
       <c r="E236" t="n">
-        <v>454063750</v>
+        <v>460443184</v>
       </c>
       <c r="F236" t="n">
-        <v>417379.7446903568</v>
+        <v>405515.1810535067</v>
       </c>
       <c r="G236" t="n">
-        <v>506261.3088173541</v>
+        <v>564188.7237157695</v>
       </c>
       <c r="H236" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I236" t="n">
-        <v>30995660</v>
+        <v>31339534</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>756540</v>
+        <v>759956</v>
       </c>
       <c r="F237" t="n">
-        <v>69.75744945953122</v>
+        <v>69.76165481851226</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55298932198412</v>
+        <v>20.55422836812044</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>52838</v>
+        <v>51726</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>843424</v>
+        <v>842321</v>
       </c>
       <c r="F238" t="n">
-        <v>8.820319655779887</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>412.1263138784752</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>2.84</v>
+        <v>7.93</v>
       </c>
       <c r="I238" t="n">
-        <v>118811</v>
+        <v>118827</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3179467</v>
+        <v>3189442</v>
       </c>
       <c r="E239" t="n">
-        <v>30125918</v>
+        <v>30220436</v>
       </c>
       <c r="F239" t="n">
-        <v>1220.919213760311</v>
+        <v>1072.831968247535</v>
       </c>
       <c r="G239" t="n">
-        <v>1879.056819890887</v>
+        <v>1676.353939762874</v>
       </c>
       <c r="H239" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I239" t="n">
-        <v>205898</v>
+        <v>216969</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>731551</v>
+        <v>732090</v>
       </c>
       <c r="E240" t="n">
-        <v>782024</v>
+        <v>782600</v>
       </c>
       <c r="F240" t="n">
-        <v>25.30855783351331</v>
+        <v>56.50756137991908</v>
       </c>
       <c r="G240" t="n">
-        <v>1578.855141912299</v>
+        <v>1964.326610234212</v>
       </c>
       <c r="H240" t="n">
-        <v>2.25</v>
+        <v>1.39</v>
       </c>
       <c r="I240" t="n">
-        <v>77055</v>
+        <v>80901</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>376465</v>
+        <v>376419</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>9.220000000000001</v>
+        <v>9.01</v>
       </c>
       <c r="I241" t="n">
-        <v>468.12</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>132135</v>
+        <v>132857</v>
       </c>
       <c r="F242" t="n">
-        <v>247.6244881758498</v>
+        <v>247.6394163286613</v>
       </c>
       <c r="G242" t="n">
-        <v>10.20140412257637</v>
+        <v>10.2020191187779</v>
       </c>
       <c r="H242" t="n">
         <v>2.9</v>
       </c>
       <c r="I242" t="n">
-        <v>91817</v>
+        <v>91532</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570688</v>
+        <v>570573</v>
       </c>
       <c r="F243" t="n">
-        <v>604.9636020888487</v>
+        <v>546.3610081196277</v>
       </c>
       <c r="G243" t="n">
-        <v>600.8467668856991</v>
+        <v>32.11644734233863</v>
       </c>
       <c r="H243" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="I243" t="n">
-        <v>934.52</v>
+        <v>932.9</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5826917</v>
+        <v>5800272</v>
       </c>
       <c r="E244" t="n">
-        <v>36416564</v>
+        <v>36250037</v>
       </c>
       <c r="F244" t="n">
-        <v>698.9225771984338</v>
+        <v>705.8514323039174</v>
       </c>
       <c r="G244" t="n">
-        <v>647.2757334951318</v>
+        <v>551.0560831231137</v>
       </c>
       <c r="H244" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="I244" t="n">
-        <v>400893</v>
+        <v>408388</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5114618</v>
+        <v>5146245</v>
       </c>
       <c r="E245" t="n">
-        <v>19045789</v>
+        <v>19163563</v>
       </c>
       <c r="F245" t="n">
-        <v>6844.505167868795</v>
+        <v>6831.738967210788</v>
       </c>
       <c r="G245" t="n">
-        <v>10913.36993872575</v>
+        <v>6177.999810680471</v>
       </c>
       <c r="H245" t="n">
         <v>0.52</v>
       </c>
       <c r="I245" t="n">
-        <v>59032</v>
+        <v>61898</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3799297</v>
+        <v>3799533</v>
       </c>
       <c r="F246" t="n">
-        <v>50.99696622860084</v>
+        <v>51.00004060347545</v>
       </c>
       <c r="G246" t="n">
-        <v>2311.953563238362</v>
+        <v>2308.891321621434</v>
       </c>
       <c r="H246" t="n">
         <v>1.75</v>
       </c>
       <c r="I246" t="n">
-        <v>5386.42</v>
+        <v>5387.13</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31649836</v>
+        <v>31554678</v>
       </c>
       <c r="E247" t="n">
-        <v>113444413</v>
+        <v>113103333</v>
       </c>
       <c r="F247" t="n">
-        <v>45.23191850064042</v>
+        <v>29.74224256173174</v>
       </c>
       <c r="G247" t="n">
-        <v>2081.745464339476</v>
+        <v>2081.860942310421</v>
       </c>
       <c r="H247" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="I247" t="n">
-        <v>93575</v>
+        <v>92582</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1528913</v>
+        <v>1521606</v>
       </c>
       <c r="F248" t="n">
-        <v>12.38294687594063</v>
+        <v>1.126386971513155</v>
       </c>
       <c r="G248" t="n">
-        <v>454.8026109228428</v>
+        <v>99.39239300763546</v>
       </c>
       <c r="H248" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="I248" t="n">
-        <v>606312</v>
+        <v>608300</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2238626</v>
+        <v>2229347</v>
       </c>
       <c r="E249" t="n">
-        <v>17218873</v>
+        <v>17147507</v>
       </c>
       <c r="F249" t="n">
-        <v>5064.766012563161</v>
+        <v>4767.924045461599</v>
       </c>
       <c r="G249" t="n">
-        <v>5590.414624527915</v>
+        <v>5801.751026760736</v>
       </c>
       <c r="H249" t="n">
-        <v>0.41</v>
+        <v>0.12</v>
       </c>
       <c r="I249" t="n">
-        <v>174790</v>
+        <v>174329</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103788</v>
+        <v>103770</v>
       </c>
       <c r="E250" t="n">
-        <v>824389</v>
+        <v>824249</v>
       </c>
       <c r="F250" t="n">
-        <v>161.147617189146</v>
+        <v>158.2962437928759</v>
       </c>
       <c r="G250" t="n">
-        <v>359.570530615231</v>
+        <v>359.5922046023586</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1397.6</v>
+        <v>1398.03</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88230223</v>
+        <v>88664970</v>
       </c>
       <c r="E251" t="n">
-        <v>326151112</v>
+        <v>327758933</v>
       </c>
       <c r="F251" t="n">
-        <v>5082.269596918673</v>
+        <v>4936.447356831666</v>
       </c>
       <c r="G251" t="n">
-        <v>1797.036946358915</v>
+        <v>2313.641719876315</v>
       </c>
       <c r="H251" t="n">
-        <v>0.62</v>
+        <v>0.2</v>
       </c>
       <c r="I251" t="n">
-        <v>260964</v>
+        <v>258711</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2319403</v>
+        <v>2318021</v>
       </c>
       <c r="E252" t="n">
-        <v>9306681</v>
+        <v>9301139</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>5.71</v>
       </c>
       <c r="I252" t="n">
-        <v>40794</v>
+        <v>40834</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>590118</v>
+        <v>590286</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>4.173051851514397</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>27.01317692640669</v>
       </c>
       <c r="H253" t="n">
-        <v>4.1</v>
+        <v>3.83</v>
       </c>
       <c r="I253" t="n">
-        <v>3103.33</v>
+        <v>3103.74</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39615</v>
+        <v>39612</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.84</v>
+        <v>5.6</v>
       </c>
       <c r="I254" t="n">
-        <v>4239.12</v>
+        <v>4239.68</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>726089755</v>
+        <v>730481409</v>
       </c>
       <c r="E255" t="n">
-        <v>1119694510</v>
+        <v>1126466828</v>
       </c>
       <c r="F255" t="n">
-        <v>295703.5809875673</v>
+        <v>209689.520315523</v>
       </c>
       <c r="G255" t="n">
-        <v>189020.7969093739</v>
+        <v>210025.2705662426</v>
       </c>
       <c r="H255" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>221738781</v>
+        <v>181049663</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5785333</v>
+        <v>5783294</v>
       </c>
       <c r="E256" t="n">
-        <v>5785333</v>
+        <v>5783294</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.27</v>
+        <v>8.77</v>
       </c>
       <c r="I256" t="n">
-        <v>656.24</v>
+        <v>658.58</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39766166</v>
+        <v>39802309</v>
       </c>
       <c r="E257" t="n">
-        <v>189652865</v>
+        <v>189825236</v>
       </c>
       <c r="F257" t="n">
-        <v>965.7042270305567</v>
+        <v>991.3435641255564</v>
       </c>
       <c r="G257" t="n">
-        <v>171.6107465897563</v>
+        <v>119.1899298265058</v>
       </c>
       <c r="H257" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="I257" t="n">
-        <v>294240</v>
+        <v>293489</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>590739</v>
+        <v>590895</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>10.27</v>
+        <v>10.5</v>
       </c>
       <c r="I258" t="n">
-        <v>451.13</v>
+        <v>450.86</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23671307</v>
+        <v>23569203</v>
       </c>
       <c r="E259" t="n">
-        <v>39452177</v>
+        <v>39282004</v>
       </c>
       <c r="F259" t="n">
-        <v>5242.365404403621</v>
+        <v>6740.961143481709</v>
       </c>
       <c r="G259" t="n">
-        <v>7276.13712775015</v>
+        <v>7056.473031959785</v>
       </c>
       <c r="H259" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="I259" t="n">
-        <v>673843</v>
+        <v>654557</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110166</v>
+        <v>110331</v>
       </c>
       <c r="F260" t="n">
-        <v>125.9863092197752</v>
+        <v>129.8716975008785</v>
       </c>
       <c r="G260" t="n">
-        <v>90.95740218100855</v>
+        <v>59.69594931940411</v>
       </c>
       <c r="H260" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="I260" t="n">
-        <v>49705</v>
+        <v>49756</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>982455</v>
+        <v>1180126</v>
       </c>
       <c r="E261" t="n">
-        <v>4195650</v>
+        <v>5039818</v>
       </c>
       <c r="F261" t="n">
-        <v>950.9577681596415</v>
+        <v>79.91986936605036</v>
       </c>
       <c r="G261" t="n">
-        <v>5647.979502257733</v>
+        <v>19.59179615191865</v>
       </c>
       <c r="H261" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I261" t="n">
-        <v>37839</v>
+        <v>64186</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3824935</v>
+        <v>3821316</v>
       </c>
       <c r="E262" t="n">
-        <v>8345959</v>
+        <v>8338061</v>
       </c>
       <c r="F262" t="n">
-        <v>1049.590305499472</v>
+        <v>1021.048571776531</v>
       </c>
       <c r="G262" t="n">
-        <v>2068.723259150873</v>
+        <v>1648.5740506346</v>
       </c>
       <c r="H262" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I262" t="n">
-        <v>1393605</v>
+        <v>1494167</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>493168298</v>
+        <v>496975364</v>
       </c>
       <c r="E263" t="n">
-        <v>1716677803</v>
+        <v>1729929883</v>
       </c>
       <c r="F263" t="n">
-        <v>437850.3082590176</v>
+        <v>544698.315377858</v>
       </c>
       <c r="G263" t="n">
-        <v>685697.8388532002</v>
+        <v>781902.2641749624</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>29219879</v>
+        <v>30461622</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5744667136</v>
+        <v>5751521860</v>
       </c>
       <c r="E264" t="n">
-        <v>5744667136</v>
+        <v>5751521860</v>
       </c>
       <c r="F264" t="n">
-        <v>3806.030982829891</v>
+        <v>3394.383174829299</v>
       </c>
       <c r="G264" t="n">
-        <v>2270.768262873432</v>
+        <v>1986.990085353742</v>
       </c>
       <c r="H264" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I264" t="n">
-        <v>16999858</v>
+        <v>11168071</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>23938187</v>
+        <v>24077292</v>
       </c>
       <c r="E265" t="n">
-        <v>23917393</v>
+        <v>24056378</v>
       </c>
       <c r="F265" t="n">
-        <v>202.3341907631394</v>
+        <v>220.0019020667986</v>
       </c>
       <c r="G265" t="n">
-        <v>81.21785790159008</v>
+        <v>39.60063041652099</v>
       </c>
       <c r="H265" t="n">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="I265" t="n">
-        <v>89165</v>
+        <v>84801</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12228878</v>
+        <v>12242244</v>
       </c>
       <c r="E266" t="n">
-        <v>24735136</v>
+        <v>24760169</v>
       </c>
       <c r="F266" t="n">
-        <v>736.123160850201</v>
+        <v>724.7425147475592</v>
       </c>
       <c r="G266" t="n">
-        <v>690.0880541671426</v>
+        <v>690.0862723455459</v>
       </c>
       <c r="H266" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>40771</v>
+        <v>40874</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>152675</v>
+        <v>151986</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5641134064571</v>
+        <v>184.6012444427691</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1396464991844</v>
+        <v>132.1476125967619</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>57426</v>
+        <v>57248</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47218</v>
+        <v>47215</v>
       </c>
       <c r="F268" t="n">
-        <v>30.86851807316392</v>
+        <v>61.22503919610574</v>
       </c>
       <c r="G268" t="n">
-        <v>74.07453911758171</v>
+        <v>121.4593608818551</v>
       </c>
       <c r="H268" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="I268" t="n">
-        <v>71532</v>
+        <v>71593</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2626774</v>
+        <v>2638051</v>
       </c>
       <c r="E269" t="n">
-        <v>10507095</v>
+        <v>10552204</v>
       </c>
       <c r="F269" t="n">
-        <v>61665.25060244161</v>
+        <v>52216.67791650108</v>
       </c>
       <c r="G269" t="n">
-        <v>45506.26248133834</v>
+        <v>58607.34371422016</v>
       </c>
       <c r="H269" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="I269" t="n">
-        <v>6894744</v>
+        <v>6919862</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>218775325</v>
+        <v>220208217</v>
       </c>
       <c r="E270" t="n">
-        <v>672651793</v>
+        <v>677057396</v>
       </c>
       <c r="F270" t="n">
-        <v>166436.358345801</v>
+        <v>225873.1939368677</v>
       </c>
       <c r="G270" t="n">
-        <v>197925.0693477174</v>
+        <v>283115.3277424934</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I270" t="n">
-        <v>12081923</v>
+        <v>12429472</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>151066090</v>
+        <v>150559844</v>
       </c>
       <c r="E271" t="n">
-        <v>394655969</v>
+        <v>393333417</v>
       </c>
       <c r="F271" t="n">
-        <v>55815.02121522663</v>
+        <v>64116.99019505302</v>
       </c>
       <c r="G271" t="n">
-        <v>71613.84079026252</v>
+        <v>66030.90950383816</v>
       </c>
       <c r="H271" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I271" t="n">
-        <v>7021499</v>
+        <v>7255109</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2436502</v>
+        <v>2444166</v>
       </c>
       <c r="E272" t="n">
-        <v>3343833</v>
+        <v>3354351</v>
       </c>
       <c r="F272" t="n">
-        <v>123.4308623795434</v>
+        <v>125.177719786604</v>
       </c>
       <c r="G272" t="n">
-        <v>105.0773285771413</v>
+        <v>105.0836632108021</v>
       </c>
       <c r="H272" t="n">
         <v>0.86</v>
       </c>
       <c r="I272" t="n">
-        <v>1044854</v>
+        <v>1044593</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54614</v>
+        <v>54607</v>
       </c>
       <c r="F2" t="n">
-        <v>10.61919825581006</v>
+        <v>10.61911333401308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2819036309271697</v>
+        <v>0.2819013765420138</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1055.46</v>
+        <v>972.26</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91252</v>
+        <v>91307</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49951991480651</v>
+        <v>22.49933998600055</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1800181198562</v>
+        <v>416.1766899255654</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1584.25</v>
+        <v>1410.96</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>605513462</v>
+        <v>606479180</v>
       </c>
       <c r="E4" t="n">
-        <v>1174980171</v>
+        <v>1176839564</v>
       </c>
       <c r="F4" t="n">
-        <v>44267.18278502589</v>
+        <v>38487.38035427299</v>
       </c>
       <c r="G4" t="n">
-        <v>45572.9293765778</v>
+        <v>49956.21014715936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>19591179</v>
+        <v>19409538</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1298445</v>
+        <v>1305323</v>
       </c>
       <c r="E5" t="n">
-        <v>4197108</v>
+        <v>4219340</v>
       </c>
       <c r="F5" t="n">
-        <v>5545.947029454847</v>
+        <v>5549.556908964375</v>
       </c>
       <c r="G5" t="n">
-        <v>6573.736107811154</v>
+        <v>8024.235199524505</v>
       </c>
       <c r="H5" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I5" t="n">
-        <v>113210</v>
+        <v>113234</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>144611279</v>
+        <v>146458886</v>
       </c>
       <c r="E6" t="n">
-        <v>160251897</v>
+        <v>162299334</v>
       </c>
       <c r="F6" t="n">
-        <v>201240.929930717</v>
+        <v>218499.0781515024</v>
       </c>
       <c r="G6" t="n">
-        <v>391909.6356192234</v>
+        <v>329170.9814622168</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>36735167</v>
+        <v>37189561</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.43</v>
+        <v>3821.51</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>262.71</v>
+        <v>33.97</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8417118</v>
+        <v>8343056</v>
       </c>
       <c r="E8" t="n">
-        <v>8629367</v>
+        <v>8553437</v>
       </c>
       <c r="F8" t="n">
-        <v>33.00428472015542</v>
+        <v>184.5437344061608</v>
       </c>
       <c r="G8" t="n">
-        <v>4334.881922339336</v>
+        <v>4200.075704637627</v>
       </c>
       <c r="H8" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>88709</v>
+        <v>87537</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>306660</v>
+        <v>306663</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.85</v>
       </c>
       <c r="I9" t="n">
-        <v>427.71</v>
+        <v>427.56</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5120295</v>
+        <v>5000019</v>
       </c>
       <c r="E10" t="n">
-        <v>8180693</v>
+        <v>7988528</v>
       </c>
       <c r="F10" t="n">
-        <v>157.8503458913941</v>
+        <v>247.3841323957824</v>
       </c>
       <c r="G10" t="n">
-        <v>252.6935252548891</v>
+        <v>245.7755710358799</v>
       </c>
       <c r="H10" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>98558</v>
+        <v>98837</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1004601</v>
+        <v>1003466</v>
       </c>
       <c r="E11" t="n">
-        <v>12293609</v>
+        <v>12279723</v>
       </c>
       <c r="F11" t="n">
-        <v>1566.525708533125</v>
+        <v>1569.007872707737</v>
       </c>
       <c r="G11" t="n">
-        <v>1372.003336306492</v>
+        <v>1381.763683639608</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>351.37</v>
+        <v>490.73</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>594909</v>
+        <v>585514</v>
       </c>
       <c r="E12" t="n">
-        <v>594909</v>
+        <v>585514</v>
       </c>
       <c r="F12" t="n">
-        <v>192.6661073603985</v>
+        <v>13.7997901325417</v>
       </c>
       <c r="G12" t="n">
-        <v>31.12129266919112</v>
+        <v>78.7734466751664</v>
       </c>
       <c r="H12" t="n">
-        <v>2.39</v>
+        <v>2.16</v>
       </c>
       <c r="I12" t="n">
-        <v>29832</v>
+        <v>31347</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4545083</v>
+        <v>4559767</v>
       </c>
       <c r="E13" t="n">
-        <v>27917199</v>
+        <v>28007390</v>
       </c>
       <c r="F13" t="n">
-        <v>315.5116212996729</v>
+        <v>267.7472653544396</v>
       </c>
       <c r="G13" t="n">
-        <v>599.0215202122693</v>
+        <v>726.8883850497903</v>
       </c>
       <c r="H13" t="n">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="I13" t="n">
-        <v>642543</v>
+        <v>645134</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197851</v>
+        <v>198332</v>
       </c>
       <c r="E14" t="n">
-        <v>2176573</v>
+        <v>2181874</v>
       </c>
       <c r="F14" t="n">
-        <v>312.3956873069214</v>
+        <v>53.28157357095806</v>
       </c>
       <c r="G14" t="n">
-        <v>842.4564679414825</v>
+        <v>842.4497308294519</v>
       </c>
       <c r="H14" t="n">
         <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>27391</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3356381</v>
+        <v>3356769</v>
       </c>
       <c r="E15" t="n">
-        <v>9548608</v>
+        <v>9549710</v>
       </c>
       <c r="F15" t="n">
-        <v>805.0622952644312</v>
+        <v>1259.162028451773</v>
       </c>
       <c r="G15" t="n">
-        <v>288.7127304284323</v>
+        <v>369.9589971484107</v>
       </c>
       <c r="H15" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="I15" t="n">
-        <v>117055</v>
+        <v>110727</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>325908</v>
+        <v>315128</v>
       </c>
       <c r="E16" t="n">
-        <v>3761371</v>
+        <v>3636948</v>
       </c>
       <c r="F16" t="n">
-        <v>136.297770051894</v>
+        <v>142.1027392353598</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0685562169377</v>
+        <v>130.781443928403</v>
       </c>
       <c r="H16" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>2822.44</v>
+        <v>3405.94</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>922596</v>
+        <v>927694</v>
       </c>
       <c r="F17" t="n">
-        <v>10.80697597969698</v>
+        <v>76.70616570309087</v>
       </c>
       <c r="G17" t="n">
-        <v>136.2071598136943</v>
+        <v>40.73277054976467</v>
       </c>
       <c r="H17" t="n">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="I17" t="n">
-        <v>10932.65</v>
+        <v>11227.86</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23197772</v>
+        <v>23233605</v>
       </c>
       <c r="E18" t="n">
-        <v>23241045</v>
+        <v>23276743</v>
       </c>
       <c r="F18" t="n">
-        <v>2237.437654242977</v>
+        <v>2249.185997686846</v>
       </c>
       <c r="G18" t="n">
-        <v>2035.280549832091</v>
+        <v>1185.211685867604</v>
       </c>
       <c r="H18" t="n">
-        <v>0.58</v>
+        <v>0.9</v>
       </c>
       <c r="I18" t="n">
-        <v>852652</v>
+        <v>859924</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7301431</v>
+        <v>7224402</v>
       </c>
       <c r="F19" t="n">
-        <v>37.60118819084308</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.76704497699917</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>6.68</v>
       </c>
       <c r="I19" t="n">
-        <v>17753.68</v>
+        <v>13995.62</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2447230</v>
+        <v>2441742</v>
       </c>
       <c r="E20" t="n">
-        <v>2447230</v>
+        <v>2441742</v>
       </c>
       <c r="F20" t="n">
-        <v>69.09457055260296</v>
+        <v>1.453608923197393</v>
       </c>
       <c r="G20" t="n">
-        <v>459.2664315239032</v>
+        <v>415.722881979073</v>
       </c>
       <c r="H20" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>321096</v>
+        <v>322275</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>414109</v>
+        <v>404085</v>
       </c>
       <c r="F21" t="n">
-        <v>95.23014281625331</v>
+        <v>86.43073140757109</v>
       </c>
       <c r="G21" t="n">
-        <v>107.6286280735977</v>
+        <v>28.17910394390168</v>
       </c>
       <c r="H21" t="n">
-        <v>0.96</v>
+        <v>1.94</v>
       </c>
       <c r="I21" t="n">
-        <v>1454.32</v>
+        <v>1752.03</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17174437</v>
+        <v>17379209</v>
       </c>
       <c r="E22" t="n">
-        <v>22104910</v>
+        <v>22368469</v>
       </c>
       <c r="F22" t="n">
-        <v>1897.753494459645</v>
+        <v>2730.284827633163</v>
       </c>
       <c r="G22" t="n">
-        <v>4984.34488332837</v>
+        <v>4590.938306309138</v>
       </c>
       <c r="H22" t="n">
-        <v>0.71</v>
+        <v>0.41</v>
       </c>
       <c r="I22" t="n">
-        <v>1707579</v>
+        <v>1668398</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>476587445</v>
+        <v>472793281</v>
       </c>
       <c r="E23" t="n">
-        <v>476587448</v>
+        <v>472793284</v>
       </c>
       <c r="F23" t="n">
-        <v>45891.07163654494</v>
+        <v>51207.08068688684</v>
       </c>
       <c r="G23" t="n">
-        <v>82200.34501047047</v>
+        <v>70238.10859871327</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>72481572</v>
+        <v>70359337</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22844</v>
+        <v>22839</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.86</v>
+        <v>6.14</v>
       </c>
       <c r="I24" t="n">
-        <v>2365.06</v>
+        <v>2299.94</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4703552</v>
+        <v>4729653</v>
       </c>
       <c r="E25" t="n">
-        <v>4703552</v>
+        <v>4729653</v>
       </c>
       <c r="F25" t="n">
-        <v>124.8888259979514</v>
+        <v>452.0092362257182</v>
       </c>
       <c r="G25" t="n">
-        <v>1210.896077278421</v>
+        <v>1411.841824424122</v>
       </c>
       <c r="H25" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="I25" t="n">
-        <v>1932927</v>
+        <v>2021893</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3399936</v>
+        <v>3415088</v>
       </c>
       <c r="E26" t="n">
-        <v>3399936</v>
+        <v>3415088</v>
       </c>
       <c r="F26" t="n">
-        <v>90.91547364470661</v>
+        <v>102.3673660583247</v>
       </c>
       <c r="G26" t="n">
-        <v>1276.846036462875</v>
+        <v>640.2520464721243</v>
       </c>
       <c r="H26" t="n">
-        <v>2.42</v>
+        <v>2.19</v>
       </c>
       <c r="I26" t="n">
-        <v>517173</v>
+        <v>515877</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>313167</v>
+        <v>311526</v>
       </c>
       <c r="E27" t="n">
-        <v>1461897</v>
+        <v>1454236</v>
       </c>
       <c r="F27" t="n">
-        <v>3242.506098047285</v>
+        <v>1269.206831007614</v>
       </c>
       <c r="G27" t="n">
-        <v>335.8294052093679</v>
+        <v>484.6690014932699</v>
       </c>
       <c r="H27" t="n">
-        <v>1.35</v>
+        <v>2.21</v>
       </c>
       <c r="I27" t="n">
-        <v>688352</v>
+        <v>698331</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1521349</v>
+        <v>1517802</v>
       </c>
       <c r="F28" t="n">
-        <v>273.6035497068717</v>
+        <v>554.6136859760212</v>
       </c>
       <c r="G28" t="n">
-        <v>301.3802873251379</v>
+        <v>237.0706581410187</v>
       </c>
       <c r="H28" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I28" t="n">
-        <v>229739</v>
+        <v>284076</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12803468</v>
+        <v>12768925</v>
       </c>
       <c r="E29" t="n">
-        <v>31865516</v>
+        <v>31779546</v>
       </c>
       <c r="F29" t="n">
-        <v>958.8732796534131</v>
+        <v>697.2242544602919</v>
       </c>
       <c r="G29" t="n">
-        <v>1080.770289004562</v>
+        <v>1330.570818207794</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="I29" t="n">
-        <v>1293698</v>
+        <v>1246262</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>934635</v>
+        <v>929801</v>
       </c>
       <c r="E30" t="n">
-        <v>6542445</v>
+        <v>6508605</v>
       </c>
       <c r="F30" t="n">
-        <v>20.44424157966222</v>
+        <v>206.4599489375139</v>
       </c>
       <c r="G30" t="n">
-        <v>17.0460760902786</v>
+        <v>91.91879090490482</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>1.14</v>
       </c>
       <c r="I30" t="n">
-        <v>221826</v>
+        <v>222426</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190297</v>
+        <v>189809</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>1148.61</v>
+        <v>1152.78</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5632947</v>
+        <v>5616380</v>
       </c>
       <c r="E32" t="n">
-        <v>5902427</v>
+        <v>5885068</v>
       </c>
       <c r="F32" t="n">
-        <v>77.20015593618008</v>
+        <v>238.4234996964696</v>
       </c>
       <c r="G32" t="n">
-        <v>710.6566045446175</v>
+        <v>245.2250552803642</v>
       </c>
       <c r="H32" t="n">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="I32" t="n">
-        <v>151545</v>
+        <v>150998</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5127895</v>
+        <v>5152469</v>
       </c>
       <c r="E33" t="n">
-        <v>7548540</v>
+        <v>7584714</v>
       </c>
       <c r="F33" t="n">
-        <v>20.06588073810729</v>
+        <v>75.54514479282183</v>
       </c>
       <c r="G33" t="n">
-        <v>56.20607768832321</v>
+        <v>113.474866866799</v>
       </c>
       <c r="H33" t="n">
-        <v>3.27</v>
+        <v>2.81</v>
       </c>
       <c r="I33" t="n">
-        <v>596001</v>
+        <v>645591</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7684088</v>
+        <v>7685035</v>
       </c>
       <c r="E34" t="n">
-        <v>7684088</v>
+        <v>7685035</v>
       </c>
       <c r="F34" t="n">
-        <v>32170.45207286415</v>
+        <v>32034.35390426978</v>
       </c>
       <c r="G34" t="n">
-        <v>32044.53302030764</v>
+        <v>32810.06557680508</v>
       </c>
       <c r="H34" t="n">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="I34" t="n">
-        <v>324257</v>
+        <v>332344</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1457082</v>
+        <v>1457258</v>
       </c>
       <c r="E35" t="n">
-        <v>1457082</v>
+        <v>1457258</v>
       </c>
       <c r="F35" t="n">
-        <v>386.5420762385813</v>
+        <v>407.4121790758398</v>
       </c>
       <c r="G35" t="n">
-        <v>230.9569218679823</v>
+        <v>99.18125464574051</v>
       </c>
       <c r="H35" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="I35" t="n">
-        <v>282476</v>
+        <v>285334</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15979893</v>
+        <v>15843405</v>
       </c>
       <c r="F36" t="n">
-        <v>244.5388246233389</v>
+        <v>169.0720345051245</v>
       </c>
       <c r="G36" t="n">
-        <v>243.4038458713418</v>
+        <v>228.3974923929977</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10770.34</v>
+        <v>11457.85</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58248</v>
+        <v>58233</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302813638286112</v>
+        <v>1.302797734961783</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005461061929372618</v>
+        <v>0.005460995266700002</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>606.52</v>
+        <v>606.3</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>138711045</v>
+        <v>138504236</v>
       </c>
       <c r="E38" t="n">
-        <v>138711045</v>
+        <v>138504236</v>
       </c>
       <c r="F38" t="n">
-        <v>263396.5058773268</v>
+        <v>329378.752590339</v>
       </c>
       <c r="G38" t="n">
-        <v>423925.0362187104</v>
+        <v>334657.5584076386</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>66000476</v>
+        <v>64382205</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65609250</v>
+        <v>66502184</v>
       </c>
       <c r="E39" t="n">
-        <v>336457695</v>
+        <v>341036841</v>
       </c>
       <c r="F39" t="n">
-        <v>83355.40705092961</v>
+        <v>88541.83480279813</v>
       </c>
       <c r="G39" t="n">
-        <v>109483.517968921</v>
+        <v>98106.65701257472</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>21691074</v>
+        <v>21676673</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46405</v>
+        <v>46394</v>
       </c>
       <c r="E40" t="n">
-        <v>137136</v>
+        <v>137103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.710000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="I40" t="n">
-        <v>157.58</v>
+        <v>157.53</v>
       </c>
     </row>
     <row r="41">
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>48517</v>
+        <v>52479</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.589562631745749</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.835376836517227</v>
       </c>
       <c r="H41" t="n">
-        <v>6.04</v>
+        <v>3.11</v>
       </c>
       <c r="I41" t="n">
-        <v>23647</v>
+        <v>25792</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>594203</v>
+        <v>593990</v>
       </c>
       <c r="F42" t="n">
-        <v>1291.764445718255</v>
+        <v>2141.788603555659</v>
       </c>
       <c r="G42" t="n">
-        <v>397.5187754097547</v>
+        <v>15.46158525174121</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>999.1799999999999</v>
+        <v>1055.13</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2671394</v>
+        <v>2677608</v>
       </c>
       <c r="E44" t="n">
-        <v>10735723</v>
+        <v>10760697</v>
       </c>
       <c r="F44" t="n">
-        <v>41.57189385177232</v>
+        <v>275.5255352416529</v>
       </c>
       <c r="G44" t="n">
-        <v>55.17564916646264</v>
+        <v>149.5315493961048</v>
       </c>
       <c r="H44" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="I44" t="n">
-        <v>33510</v>
+        <v>34044</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17623818</v>
+        <v>17538866</v>
       </c>
       <c r="E45" t="n">
-        <v>124217301</v>
+        <v>123617765</v>
       </c>
       <c r="F45" t="n">
-        <v>322.5788513363717</v>
+        <v>418.4070239328126</v>
       </c>
       <c r="G45" t="n">
-        <v>264.0415735052842</v>
+        <v>268.0676325825023</v>
       </c>
       <c r="H45" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="I45" t="n">
-        <v>1044254</v>
+        <v>1047398</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>172062</v>
+        <v>149852</v>
       </c>
       <c r="E46" t="n">
-        <v>2302291</v>
+        <v>2005110</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52441</v>
+        <v>44884</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>255054289</v>
+        <v>257752601</v>
       </c>
       <c r="E47" t="n">
-        <v>255054289</v>
+        <v>257752601</v>
       </c>
       <c r="F47" t="n">
-        <v>102123.142697468</v>
+        <v>111173.5507178443</v>
       </c>
       <c r="G47" t="n">
-        <v>185804.0178463117</v>
+        <v>186385.8969356598</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>14643488</v>
+        <v>14460912</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>639208</v>
+        <v>639829</v>
       </c>
       <c r="E48" t="n">
-        <v>639208</v>
+        <v>639829</v>
       </c>
       <c r="F48" t="n">
-        <v>519.949146985716</v>
+        <v>449.3629069256726</v>
       </c>
       <c r="G48" t="n">
-        <v>62.2793783202618</v>
+        <v>122.2893156945363</v>
       </c>
       <c r="H48" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="I48" t="n">
-        <v>3344.82</v>
+        <v>3354.75</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>440610109</v>
+        <v>442702753</v>
       </c>
       <c r="E50" t="n">
-        <v>440610109</v>
+        <v>442702753</v>
       </c>
       <c r="F50" t="n">
-        <v>4217.151156027737</v>
+        <v>4607.955566262998</v>
       </c>
       <c r="G50" t="n">
-        <v>2838.182483034221</v>
+        <v>3378.602865636984</v>
       </c>
       <c r="H50" t="n">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="I50" t="n">
-        <v>2513939</v>
+        <v>2545622</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2391913</v>
+        <v>2477247</v>
       </c>
       <c r="E51" t="n">
-        <v>2391913</v>
+        <v>2477247</v>
       </c>
       <c r="F51" t="n">
-        <v>928.3019015373479</v>
+        <v>928.2946024358588</v>
       </c>
       <c r="G51" t="n">
-        <v>23.64785591215137</v>
+        <v>23.64755099470666</v>
       </c>
       <c r="H51" t="n">
         <v>1.7</v>
       </c>
       <c r="I51" t="n">
-        <v>56287</v>
+        <v>55098</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23809</v>
+        <v>23127</v>
       </c>
       <c r="E52" t="n">
-        <v>47618</v>
+        <v>46254</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>7.14</v>
+        <v>6.84</v>
       </c>
       <c r="I52" t="n">
-        <v>2303.8</v>
+        <v>2223.49</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>153707</v>
+        <v>163832</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>4.03</v>
+        <v>6.98</v>
       </c>
       <c r="I53" t="n">
-        <v>25129</v>
+        <v>24915</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2555594</v>
+        <v>2556352</v>
       </c>
       <c r="E54" t="n">
-        <v>6533598</v>
+        <v>6535534</v>
       </c>
       <c r="F54" t="n">
-        <v>250.9907957497009</v>
+        <v>209.8408231064527</v>
       </c>
       <c r="G54" t="n">
-        <v>165.0984207703347</v>
+        <v>222.1755673145511</v>
       </c>
       <c r="H54" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="I54" t="n">
-        <v>112304</v>
+        <v>111286</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3645.35</v>
+        <v>3550.24</v>
       </c>
       <c r="F55" t="n">
-        <v>1.414775749849304</v>
+        <v>1.414757507611695</v>
       </c>
       <c r="G55" t="n">
-        <v>1.269868731992955</v>
+        <v>1.095990961402541</v>
       </c>
       <c r="H55" t="n">
-        <v>3.06</v>
+        <v>3.83</v>
       </c>
       <c r="I55" t="n">
-        <v>275.34</v>
+        <v>334.28</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73619992</v>
+        <v>74668884</v>
       </c>
       <c r="E56" t="n">
-        <v>73619992</v>
+        <v>74668884</v>
       </c>
       <c r="F56" t="n">
-        <v>14219.93747611366</v>
+        <v>19863.95571800797</v>
       </c>
       <c r="G56" t="n">
-        <v>26500.95173612252</v>
+        <v>22655.92434890734</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I56" t="n">
-        <v>3363878</v>
+        <v>3396090</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3491267</v>
+        <v>3527103</v>
       </c>
       <c r="E57" t="n">
-        <v>4424045</v>
+        <v>4469456</v>
       </c>
       <c r="F57" t="n">
-        <v>143.8484262081865</v>
+        <v>215.4818475298211</v>
       </c>
       <c r="G57" t="n">
-        <v>115.1044968148959</v>
+        <v>325.7017093781569</v>
       </c>
       <c r="H57" t="n">
         <v>0.21</v>
       </c>
       <c r="I57" t="n">
-        <v>251398</v>
+        <v>252851</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4137507</v>
+        <v>4110567</v>
       </c>
       <c r="E58" t="n">
-        <v>8159513</v>
+        <v>8106383</v>
       </c>
       <c r="F58" t="n">
-        <v>2408.785586972833</v>
+        <v>2718.839635269823</v>
       </c>
       <c r="G58" t="n">
-        <v>22149.85481993984</v>
+        <v>17105.52801041372</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I58" t="n">
-        <v>1624935</v>
+        <v>1650346</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1588225</v>
+        <v>1610685</v>
       </c>
       <c r="E59" t="n">
-        <v>9118995</v>
+        <v>9247951</v>
       </c>
       <c r="F59" t="n">
-        <v>167.9645398007629</v>
+        <v>246.7437210292342</v>
       </c>
       <c r="G59" t="n">
-        <v>511.6790076079209</v>
+        <v>364.4564511051742</v>
       </c>
       <c r="H59" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="I59" t="n">
-        <v>294541</v>
+        <v>279934</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565306</v>
+        <v>565031</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1672.96</v>
+        <v>1654.12</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31155143</v>
+        <v>31210838</v>
       </c>
       <c r="F61" t="n">
-        <v>524.8618938826319</v>
+        <v>681.8554156120973</v>
       </c>
       <c r="G61" t="n">
-        <v>966.8729926355137</v>
+        <v>973.7306480537576</v>
       </c>
       <c r="H61" t="n">
         <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>246385</v>
+        <v>245954</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1431398</v>
+        <v>1432156</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7.63</v>
+        <v>8.35</v>
       </c>
       <c r="I62" t="n">
-        <v>28406</v>
+        <v>28527</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7640305</v>
+        <v>7646119</v>
       </c>
       <c r="E63" t="n">
-        <v>17994437</v>
+        <v>18008130</v>
       </c>
       <c r="F63" t="n">
-        <v>1097.039624253903</v>
+        <v>1096.906979137465</v>
       </c>
       <c r="G63" t="n">
-        <v>2356.212919188436</v>
+        <v>2387.528280637667</v>
       </c>
       <c r="H63" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="I63" t="n">
-        <v>29791</v>
+        <v>21533</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2969290</v>
+        <v>2970756</v>
       </c>
       <c r="E64" t="n">
-        <v>2969290</v>
+        <v>2970756</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>15.17906664681688</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>178.3114444300718</v>
       </c>
       <c r="H64" t="n">
-        <v>3.94</v>
+        <v>1.86</v>
       </c>
       <c r="I64" t="n">
-        <v>18313.98</v>
+        <v>19465.7</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3367245</v>
+        <v>3368316</v>
       </c>
       <c r="E65" t="n">
-        <v>8308506</v>
+        <v>8311148</v>
       </c>
       <c r="F65" t="n">
-        <v>566.5417649310818</v>
+        <v>610.5499519784888</v>
       </c>
       <c r="G65" t="n">
-        <v>1121.282297656634</v>
+        <v>1049.159570554912</v>
       </c>
       <c r="H65" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="I65" t="n">
-        <v>43316</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>269141</v>
+        <v>265753</v>
       </c>
       <c r="F66" t="n">
-        <v>1.795171079523886</v>
+        <v>6.502667443783083</v>
       </c>
       <c r="G66" t="n">
-        <v>48.86150135049654</v>
+        <v>63.24983172894519</v>
       </c>
       <c r="H66" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="I66" t="n">
-        <v>1799.67</v>
+        <v>1621.19</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>75825932</v>
+        <v>76673664</v>
       </c>
       <c r="E67" t="n">
-        <v>158135575</v>
+        <v>159903527</v>
       </c>
       <c r="F67" t="n">
-        <v>67282.99619991108</v>
+        <v>64817.63274740525</v>
       </c>
       <c r="G67" t="n">
-        <v>105171.2852273084</v>
+        <v>101346.1907748302</v>
       </c>
       <c r="H67" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>16244724</v>
+        <v>16591297</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1990523</v>
+        <v>1870041</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>5.37</v>
+        <v>5.05</v>
       </c>
       <c r="I68" t="n">
-        <v>5065.61</v>
+        <v>4871.24</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>197680561</v>
+        <v>199743875</v>
       </c>
       <c r="F69" t="n">
-        <v>5562.246743239196</v>
+        <v>6877.244702252364</v>
       </c>
       <c r="G69" t="n">
-        <v>3858.943028459753</v>
+        <v>1248.865499561701</v>
       </c>
       <c r="H69" t="n">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>4017727</v>
+        <v>3812144</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179577</v>
+        <v>179558</v>
       </c>
       <c r="E70" t="n">
-        <v>187529</v>
+        <v>187509</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>6.7</v>
       </c>
       <c r="I70" t="n">
-        <v>334.33</v>
+        <v>330.13</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>145289715</v>
+        <v>144350816</v>
       </c>
       <c r="E71" t="n">
-        <v>145338566</v>
+        <v>144399352</v>
       </c>
       <c r="F71" t="n">
-        <v>28488.09736804081</v>
+        <v>33706.01828456296</v>
       </c>
       <c r="G71" t="n">
-        <v>50268.79428977788</v>
+        <v>47041.96290562287</v>
       </c>
       <c r="H71" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="I71" t="n">
-        <v>2557071</v>
+        <v>2582594</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26138809</v>
+        <v>26248940</v>
       </c>
       <c r="E72" t="n">
-        <v>85782576</v>
+        <v>86144004</v>
       </c>
       <c r="F72" t="n">
-        <v>22366.19286019701</v>
+        <v>21167.7841293052</v>
       </c>
       <c r="G72" t="n">
-        <v>33628.32022823593</v>
+        <v>30377.13874332013</v>
       </c>
       <c r="H72" t="n">
         <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>119060</v>
+        <v>114581</v>
       </c>
     </row>
     <row r="73">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>120961</v>
+        <v>116604</v>
       </c>
       <c r="E73" t="n">
-        <v>120961</v>
+        <v>116604</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>87.32787601080283</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1.469545915159116</v>
       </c>
       <c r="H73" t="n">
-        <v>5.15</v>
+        <v>2.11</v>
       </c>
       <c r="I73" t="n">
-        <v>311.18</v>
+        <v>428.37</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>202417382</v>
+        <v>205261517</v>
       </c>
       <c r="E74" t="n">
-        <v>703216278</v>
+        <v>713097060</v>
       </c>
       <c r="F74" t="n">
-        <v>124242.2855422188</v>
+        <v>126354.9645619253</v>
       </c>
       <c r="G74" t="n">
-        <v>198442.0376686588</v>
+        <v>174500.5804771952</v>
       </c>
       <c r="H74" t="n">
         <v>0.06</v>
       </c>
       <c r="I74" t="n">
-        <v>28158068</v>
+        <v>27951268</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3527481</v>
+        <v>3714442</v>
       </c>
       <c r="E75" t="n">
-        <v>3527481</v>
+        <v>3714442</v>
       </c>
       <c r="F75" t="n">
-        <v>814.3402339377187</v>
+        <v>1034.490935013496</v>
       </c>
       <c r="G75" t="n">
-        <v>691.0778436717802</v>
+        <v>862.2463287267335</v>
       </c>
       <c r="H75" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I75" t="n">
-        <v>2638632</v>
+        <v>2643071</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116158807</v>
+        <v>116253864</v>
       </c>
       <c r="E76" t="n">
-        <v>493548830</v>
+        <v>493892302</v>
       </c>
       <c r="F76" t="n">
-        <v>192118.6421024239</v>
+        <v>170749.6577544279</v>
       </c>
       <c r="G76" t="n">
-        <v>231547.9386529969</v>
+        <v>272048.9866890819</v>
       </c>
       <c r="H76" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I76" t="n">
-        <v>14972425</v>
+        <v>15261131</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1852709</v>
+        <v>1859262</v>
       </c>
       <c r="F77" t="n">
-        <v>151.2288367639955</v>
+        <v>36.04077913482121</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4995401213309</v>
+        <v>88.23462556742308</v>
       </c>
       <c r="H77" t="n">
-        <v>0.54</v>
+        <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>159.15</v>
+        <v>611.21</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3151527</v>
+        <v>3135689</v>
       </c>
       <c r="E78" t="n">
-        <v>15801124</v>
+        <v>15721714</v>
       </c>
       <c r="F78" t="n">
-        <v>1593.302984316102</v>
+        <v>238.0189644362878</v>
       </c>
       <c r="G78" t="n">
-        <v>736.922339041166</v>
+        <v>909.1872077533643</v>
       </c>
       <c r="H78" t="n">
         <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>34097</v>
+        <v>34818</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>525840</v>
+        <v>534507</v>
       </c>
       <c r="E79" t="n">
-        <v>8994454</v>
+        <v>9142701</v>
       </c>
       <c r="F79" t="n">
-        <v>363.6388680011993</v>
+        <v>247.7809639541672</v>
       </c>
       <c r="G79" t="n">
-        <v>167.5118119656898</v>
+        <v>1206.325887842349</v>
       </c>
       <c r="H79" t="n">
-        <v>1.68</v>
+        <v>2.43</v>
       </c>
       <c r="I79" t="n">
-        <v>163112</v>
+        <v>167942</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5631259</v>
+        <v>5697890</v>
       </c>
       <c r="E80" t="n">
-        <v>7650382</v>
+        <v>7740904</v>
       </c>
       <c r="F80" t="n">
-        <v>130.9455087747435</v>
+        <v>571.94145810467</v>
       </c>
       <c r="G80" t="n">
-        <v>1667.140551080883</v>
+        <v>1885.801013081795</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I80" t="n">
-        <v>5787782</v>
+        <v>5716108</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41092</v>
+        <v>41072</v>
       </c>
       <c r="F81" t="n">
-        <v>177.2287191039841</v>
+        <v>187.5971064873561</v>
       </c>
       <c r="G81" t="n">
-        <v>129.9071761802381</v>
+        <v>153.8670026732931</v>
       </c>
       <c r="H81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I81" t="n">
-        <v>47018</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40672686</v>
+        <v>40412301</v>
       </c>
       <c r="E82" t="n">
-        <v>47504732</v>
+        <v>47200608</v>
       </c>
       <c r="F82" t="n">
-        <v>235.3007290418729</v>
+        <v>173.1778630916638</v>
       </c>
       <c r="G82" t="n">
-        <v>100.382881927114</v>
+        <v>427.1901372211755</v>
       </c>
       <c r="H82" t="n">
-        <v>1.8</v>
+        <v>2.59</v>
       </c>
       <c r="I82" t="n">
-        <v>871794</v>
+        <v>884617</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14522707</v>
+        <v>14679138</v>
       </c>
       <c r="F83" t="n">
-        <v>262.2591320711002</v>
+        <v>164.8122157896761</v>
       </c>
       <c r="G83" t="n">
-        <v>931.1669570276757</v>
+        <v>971.9543915313017</v>
       </c>
       <c r="H83" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="I83" t="n">
-        <v>277833</v>
+        <v>249793</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>35250580</v>
+        <v>36092759</v>
       </c>
       <c r="E84" t="n">
-        <v>35250580</v>
+        <v>36092759</v>
       </c>
       <c r="F84" t="n">
-        <v>528.293201076577</v>
+        <v>38.0249535544901</v>
       </c>
       <c r="G84" t="n">
-        <v>73.34772382249858</v>
+        <v>153.9782547832573</v>
       </c>
       <c r="H84" t="n">
-        <v>3.24</v>
+        <v>2.62</v>
       </c>
       <c r="I84" t="n">
-        <v>294721</v>
+        <v>772146</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>561338</v>
+        <v>562466</v>
       </c>
       <c r="E85" t="n">
-        <v>6808487</v>
+        <v>6822160</v>
       </c>
       <c r="F85" t="n">
-        <v>322.301903862623</v>
+        <v>154.315283765249</v>
       </c>
       <c r="G85" t="n">
-        <v>214.3102573351739</v>
+        <v>907.2874568388967</v>
       </c>
       <c r="H85" t="n">
-        <v>2.93</v>
+        <v>1.06</v>
       </c>
       <c r="I85" t="n">
-        <v>2849066</v>
+        <v>2817632</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25903579</v>
+        <v>25897165</v>
       </c>
       <c r="E86" t="n">
-        <v>36613697</v>
+        <v>36604632</v>
       </c>
       <c r="F86" t="n">
-        <v>38.76953792038086</v>
+        <v>50.04663961782874</v>
       </c>
       <c r="G86" t="n">
-        <v>1013.953774116593</v>
+        <v>1255.16155489237</v>
       </c>
       <c r="H86" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="I86" t="n">
-        <v>54878</v>
+        <v>53768</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1299410092</v>
+        <v>1301325938</v>
       </c>
       <c r="E87" t="n">
-        <v>6230937504</v>
+        <v>6240124377</v>
       </c>
       <c r="F87" t="n">
-        <v>587736.1578322235</v>
+        <v>637085.7232236172</v>
       </c>
       <c r="G87" t="n">
-        <v>908847.7315755144</v>
+        <v>905697.3616804559</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>165728392</v>
+        <v>164572196</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>271380300</v>
+        <v>273076065</v>
       </c>
       <c r="E88" t="n">
-        <v>1171428027</v>
+        <v>1178747891</v>
       </c>
       <c r="F88" t="n">
-        <v>1016662.924598743</v>
+        <v>1166997.677123583</v>
       </c>
       <c r="G88" t="n">
-        <v>1161816.494203248</v>
+        <v>928829.6838341707</v>
       </c>
       <c r="H88" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>98584244</v>
+        <v>97710600</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114472751</v>
+        <v>114746593</v>
       </c>
       <c r="E89" t="n">
-        <v>114472751</v>
+        <v>114746593</v>
       </c>
       <c r="F89" t="n">
-        <v>42001.04069628999</v>
+        <v>33400.20433887678</v>
       </c>
       <c r="G89" t="n">
-        <v>23537.85897849634</v>
+        <v>35880.48561369596</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>6218180</v>
+        <v>6121573</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3854345</v>
+        <v>3853144</v>
       </c>
       <c r="E90" t="n">
-        <v>29994044</v>
+        <v>29984699</v>
       </c>
       <c r="F90" t="n">
-        <v>11011.77088475429</v>
+        <v>11011.62889805357</v>
       </c>
       <c r="G90" t="n">
-        <v>12168.81993807606</v>
+        <v>12125.42905259658</v>
       </c>
       <c r="H90" t="n">
         <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>9900.040000000001</v>
+        <v>6424.6</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3757294</v>
+        <v>3763253</v>
       </c>
       <c r="F91" t="n">
-        <v>304.6281783529403</v>
+        <v>397.2721688352011</v>
       </c>
       <c r="G91" t="n">
-        <v>1001.406849507641</v>
+        <v>701.7039752760561</v>
       </c>
       <c r="H91" t="n">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="I91" t="n">
-        <v>305468</v>
+        <v>305820</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>880231</v>
+        <v>909020</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>10.34162091567694</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>66.99383899212093</v>
       </c>
       <c r="H92" t="n">
-        <v>3.95</v>
+        <v>3.61</v>
       </c>
       <c r="I92" t="n">
-        <v>34498</v>
+        <v>34469</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>110992</v>
+        <v>126310</v>
       </c>
       <c r="F93" t="n">
-        <v>55.51017869731529</v>
+        <v>80.76586620264227</v>
       </c>
       <c r="G93" t="n">
-        <v>275.6101061012718</v>
+        <v>3.080550073900745</v>
       </c>
       <c r="H93" t="n">
-        <v>0.67</v>
+        <v>3.07</v>
       </c>
       <c r="I93" t="n">
-        <v>137492</v>
+        <v>140750</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11186337</v>
+        <v>11137100</v>
       </c>
       <c r="E94" t="n">
-        <v>135040150</v>
+        <v>134445762</v>
       </c>
       <c r="F94" t="n">
-        <v>1621.240564911048</v>
+        <v>2070.527639201474</v>
       </c>
       <c r="G94" t="n">
-        <v>3512.519612084708</v>
+        <v>2836.172899048725</v>
       </c>
       <c r="H94" t="n">
         <v>0.52</v>
       </c>
       <c r="I94" t="n">
-        <v>223516</v>
+        <v>298959</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19754206</v>
+        <v>19605075</v>
       </c>
       <c r="E95" t="n">
-        <v>49385514</v>
+        <v>49012687</v>
       </c>
       <c r="F95" t="n">
-        <v>6270.575004106354</v>
+        <v>7773.211544806613</v>
       </c>
       <c r="G95" t="n">
-        <v>8396.969705383184</v>
+        <v>8228.192760959342</v>
       </c>
       <c r="H95" t="n">
         <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>1888775</v>
+        <v>1924319</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2248021</v>
+        <v>2252740</v>
       </c>
       <c r="F96" t="n">
-        <v>183.6893222592331</v>
+        <v>183.6948091799043</v>
       </c>
       <c r="G96" t="n">
-        <v>118.05861105641</v>
+        <v>118.0570887987413</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>57534</v>
+        <v>57631</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19892737</v>
+        <v>19835494</v>
       </c>
       <c r="F97" t="n">
-        <v>1105.024606171478</v>
+        <v>1129.620526887205</v>
       </c>
       <c r="G97" t="n">
-        <v>783.0517345207281</v>
+        <v>1348.092003823097</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>72388</v>
+        <v>57463</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4211464</v>
+        <v>4197788</v>
       </c>
       <c r="E98" t="n">
-        <v>12131020</v>
+        <v>12091626</v>
       </c>
       <c r="F98" t="n">
-        <v>192.0500892499969</v>
+        <v>597.6106832860989</v>
       </c>
       <c r="G98" t="n">
-        <v>269.3183126222124</v>
+        <v>289.7955105411211</v>
       </c>
       <c r="H98" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="I98" t="n">
-        <v>651691</v>
+        <v>649930</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1615324</v>
+        <v>1589735</v>
       </c>
       <c r="F99" t="n">
-        <v>488.5840654869766</v>
+        <v>325.2403176064846</v>
       </c>
       <c r="G99" t="n">
-        <v>8.546429893795127</v>
+        <v>62.99417741158138</v>
       </c>
       <c r="H99" t="n">
-        <v>0.39</v>
+        <v>1.7</v>
       </c>
       <c r="I99" t="n">
-        <v>255264</v>
+        <v>244579</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>79222090</v>
+        <v>80111811</v>
       </c>
       <c r="E100" t="n">
-        <v>100816267</v>
+        <v>101948505</v>
       </c>
       <c r="F100" t="n">
-        <v>5129.264611511741</v>
+        <v>2754.227262153381</v>
       </c>
       <c r="G100" t="n">
-        <v>7938.519588855392</v>
+        <v>7288.796891800908</v>
       </c>
       <c r="H100" t="n">
-        <v>0.66</v>
+        <v>1.07</v>
       </c>
       <c r="I100" t="n">
-        <v>6216113</v>
+        <v>6211058</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22614896</v>
+        <v>22672506</v>
       </c>
       <c r="E101" t="n">
-        <v>29336693</v>
+        <v>29411427</v>
       </c>
       <c r="F101" t="n">
-        <v>6485.505140409929</v>
+        <v>6402.4853649247</v>
       </c>
       <c r="G101" t="n">
-        <v>7600.319715287217</v>
+        <v>5750.774334617513</v>
       </c>
       <c r="H101" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="I101" t="n">
-        <v>163303</v>
+        <v>155185</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1618793</v>
+        <v>1625507</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>4.85</v>
+        <v>6.59</v>
       </c>
       <c r="I102" t="n">
-        <v>14903.01</v>
+        <v>12161.75</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>645093</v>
+        <v>638663</v>
       </c>
       <c r="E103" t="n">
-        <v>645093</v>
+        <v>638663</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>5.53</v>
       </c>
       <c r="I103" t="n">
-        <v>82048</v>
+        <v>80165</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40411756</v>
+        <v>40705149</v>
       </c>
       <c r="E104" t="n">
-        <v>42244736</v>
+        <v>42551436</v>
       </c>
       <c r="F104" t="n">
-        <v>910.7528592096108</v>
+        <v>601.1515268722687</v>
       </c>
       <c r="G104" t="n">
-        <v>1872.413265633032</v>
+        <v>389.457015982635</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I104" t="n">
-        <v>660800</v>
+        <v>661780</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13536421</v>
+        <v>13824180</v>
       </c>
       <c r="E105" t="n">
-        <v>13536421</v>
+        <v>13824180</v>
       </c>
       <c r="F105" t="n">
-        <v>3436.907695279153</v>
+        <v>2736.829875821797</v>
       </c>
       <c r="G105" t="n">
-        <v>2964.574001023874</v>
+        <v>3894.14510455204</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I105" t="n">
-        <v>4772230</v>
+        <v>4870405</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1232965</v>
+        <v>1191646</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.94</v>
+        <v>6.72</v>
       </c>
       <c r="I106" t="n">
-        <v>4913.4</v>
+        <v>4906.21</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51142998</v>
+        <v>51782702</v>
       </c>
       <c r="E107" t="n">
-        <v>130289712</v>
+        <v>131919393</v>
       </c>
       <c r="F107" t="n">
-        <v>2474.872296746738</v>
+        <v>2367.503129561242</v>
       </c>
       <c r="G107" t="n">
-        <v>4679.771657976742</v>
+        <v>4376.445907730838</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2355537</v>
+        <v>2390588</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14560025</v>
+        <v>14465282</v>
       </c>
       <c r="E108" t="n">
-        <v>70516523</v>
+        <v>70057671</v>
       </c>
       <c r="F108" t="n">
-        <v>9649.220995751126</v>
+        <v>10491.94759944003</v>
       </c>
       <c r="G108" t="n">
-        <v>10526.78119249022</v>
+        <v>10167.82044494277</v>
       </c>
       <c r="H108" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>3705648</v>
+        <v>3804323</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>495500</v>
+        <v>512480</v>
       </c>
       <c r="F109" t="n">
-        <v>91.32785423506668</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>552.4540167537857</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.74</v>
+        <v>4.09</v>
       </c>
       <c r="I109" t="n">
-        <v>7495.48</v>
+        <v>7880.43</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4611346</v>
+        <v>4633370</v>
       </c>
       <c r="E110" t="n">
-        <v>10511359</v>
+        <v>10561561</v>
       </c>
       <c r="F110" t="n">
-        <v>875.2436632781807</v>
+        <v>1401.766600543687</v>
       </c>
       <c r="G110" t="n">
-        <v>2276.513517342044</v>
+        <v>1992.612735938204</v>
       </c>
       <c r="H110" t="n">
         <v>0.85</v>
       </c>
       <c r="I110" t="n">
-        <v>79116</v>
+        <v>87217</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1927526013</v>
+        <v>1932450600</v>
       </c>
       <c r="F111" t="n">
-        <v>97496.44251356891</v>
+        <v>81693.10221998498</v>
       </c>
       <c r="G111" t="n">
-        <v>45674.44170482659</v>
+        <v>48922.91693206105</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I111" t="n">
-        <v>27912587</v>
+        <v>27368922</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9460537</v>
+        <v>9511368</v>
       </c>
       <c r="E112" t="n">
-        <v>34434092</v>
+        <v>34616186</v>
       </c>
       <c r="F112" t="n">
-        <v>508.4634221220843</v>
+        <v>399.5876513311403</v>
       </c>
       <c r="G112" t="n">
-        <v>357.6423892574897</v>
+        <v>504.1735292564757</v>
       </c>
       <c r="H112" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="I112" t="n">
-        <v>160771</v>
+        <v>129762</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>559791</v>
+        <v>557570</v>
       </c>
       <c r="F113" t="n">
-        <v>114.359450307854</v>
+        <v>121.3671515728836</v>
       </c>
       <c r="G113" t="n">
-        <v>58.52636473960595</v>
+        <v>70.70763083125912</v>
       </c>
       <c r="H113" t="n">
-        <v>3.22</v>
+        <v>2.5</v>
       </c>
       <c r="I113" t="n">
-        <v>955.51</v>
+        <v>923.4</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12174342</v>
+        <v>12122626</v>
       </c>
       <c r="E114" t="n">
-        <v>17651039</v>
+        <v>17576058</v>
       </c>
       <c r="F114" t="n">
-        <v>64.65603367215816</v>
+        <v>319.2926287262721</v>
       </c>
       <c r="G114" t="n">
-        <v>3556.0614389993</v>
+        <v>3605.592140111312</v>
       </c>
       <c r="H114" t="n">
-        <v>0.74</v>
+        <v>1.36</v>
       </c>
       <c r="I114" t="n">
-        <v>2033363</v>
+        <v>2035777</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2054113</v>
+        <v>2078331</v>
       </c>
       <c r="E115" t="n">
-        <v>14729836</v>
+        <v>14903501</v>
       </c>
       <c r="F115" t="n">
-        <v>430.8350065087803</v>
+        <v>758.61109160259</v>
       </c>
       <c r="G115" t="n">
-        <v>955.9496935482398</v>
+        <v>545.5268118823636</v>
       </c>
       <c r="H115" t="n">
-        <v>1.34</v>
+        <v>2.05</v>
       </c>
       <c r="I115" t="n">
-        <v>1995603</v>
+        <v>1995169</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2742069</v>
+        <v>2746524</v>
       </c>
       <c r="E116" t="n">
-        <v>5542982</v>
+        <v>5551988</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5282.96</v>
+        <v>5200.14</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>200960557</v>
+        <v>204443550</v>
       </c>
       <c r="E117" t="n">
-        <v>1137962154</v>
+        <v>1157684999</v>
       </c>
       <c r="F117" t="n">
-        <v>320109.6876657945</v>
+        <v>407388.1704267576</v>
       </c>
       <c r="G117" t="n">
-        <v>480653.6282058643</v>
+        <v>374904.3910944606</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>63143297</v>
+        <v>64756929</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>676763</v>
+        <v>677454</v>
       </c>
       <c r="E118" t="n">
-        <v>2244048</v>
+        <v>2246337</v>
       </c>
       <c r="F118" t="n">
-        <v>5811.675704082698</v>
+        <v>8874.948006769609</v>
       </c>
       <c r="G118" t="n">
-        <v>8662.604422482793</v>
+        <v>7766.222844121845</v>
       </c>
       <c r="H118" t="n">
         <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>19976.3</v>
+        <v>18781.53</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2813973</v>
+        <v>2819616</v>
       </c>
       <c r="E119" t="n">
-        <v>9963091</v>
+        <v>9983071</v>
       </c>
       <c r="F119" t="n">
-        <v>27.69869514253701</v>
+        <v>27.69083663126051</v>
       </c>
       <c r="G119" t="n">
-        <v>1527.584546054337</v>
+        <v>1539.887086512929</v>
       </c>
       <c r="H119" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="I119" t="n">
-        <v>5614.74</v>
+        <v>5622.89</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1036301</v>
+        <v>1037131</v>
       </c>
       <c r="E120" t="n">
-        <v>1036301</v>
+        <v>1037131</v>
       </c>
       <c r="F120" t="n">
-        <v>19.91944990543413</v>
+        <v>32.77123733203263</v>
       </c>
       <c r="G120" t="n">
-        <v>91.68016918337806</v>
+        <v>79.6543043121352</v>
       </c>
       <c r="H120" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="I120" t="n">
-        <v>7863.75</v>
+        <v>6753.13</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>500393</v>
+        <v>502473</v>
       </c>
       <c r="E121" t="n">
-        <v>1684254</v>
+        <v>1691253</v>
       </c>
       <c r="F121" t="n">
-        <v>379.620714276947</v>
+        <v>367.7872409433562</v>
       </c>
       <c r="G121" t="n">
-        <v>424.9008072656149</v>
+        <v>415.8814448711115</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I121" t="n">
-        <v>631384</v>
+        <v>632809</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>464059</v>
+        <v>469178</v>
       </c>
       <c r="E122" t="n">
-        <v>860919</v>
+        <v>870416</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>209337</v>
+        <v>208906</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11733342</v>
+        <v>11712472</v>
       </c>
       <c r="F123" t="n">
-        <v>165.1025904848911</v>
+        <v>164.2327931494196</v>
       </c>
       <c r="G123" t="n">
-        <v>208.6211637137662</v>
+        <v>183.5224476804692</v>
       </c>
       <c r="H123" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="I123" t="n">
-        <v>10301.92</v>
+        <v>10535.38</v>
       </c>
     </row>
     <row r="124">
@@ -4750,19 +4750,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1250255</v>
+        <v>1253267</v>
       </c>
       <c r="F124" t="n">
-        <v>63.48914596531357</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>14.02231522564861</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.91</v>
+        <v>6.71</v>
       </c>
       <c r="I124" t="n">
-        <v>43526</v>
+        <v>42090</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3388017</v>
+        <v>3417442</v>
       </c>
       <c r="E125" t="n">
-        <v>7911585</v>
+        <v>7980297</v>
       </c>
       <c r="F125" t="n">
-        <v>1737.798414537285</v>
+        <v>1220.034660948265</v>
       </c>
       <c r="G125" t="n">
-        <v>1511.306266265688</v>
+        <v>1850.969266425516</v>
       </c>
       <c r="H125" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="I125" t="n">
-        <v>656925</v>
+        <v>636480</v>
       </c>
     </row>
     <row r="126">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>244367</v>
+        <v>244481</v>
       </c>
       <c r="E126" t="n">
-        <v>2156725</v>
+        <v>2157731</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>4.18</v>
+        <v>5.03</v>
       </c>
       <c r="I126" t="n">
-        <v>81659</v>
+        <v>85419</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>653625</v>
+        <v>651025</v>
       </c>
       <c r="F127" t="n">
-        <v>433.4921015935118</v>
+        <v>433.4865121098642</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8145198240892</v>
+        <v>472.8084233138709</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3346.82</v>
+        <v>3329.19</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4905225</v>
+        <v>4913859</v>
       </c>
       <c r="E128" t="n">
-        <v>17332443</v>
+        <v>17362950</v>
       </c>
       <c r="F128" t="n">
-        <v>1811.93598403902</v>
+        <v>2926.783721221068</v>
       </c>
       <c r="G128" t="n">
-        <v>1690.205634795718</v>
+        <v>1419.375070990336</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>86822</v>
+        <v>88577</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2091549</v>
+        <v>2105047</v>
       </c>
       <c r="F129" t="n">
-        <v>56.71352422355563</v>
+        <v>104.7049796798068</v>
       </c>
       <c r="G129" t="n">
-        <v>270.5009984910845</v>
+        <v>227.9684865514118</v>
       </c>
       <c r="H129" t="n">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="I129" t="n">
-        <v>9214.68</v>
+        <v>8512.57</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2519387</v>
+        <v>2496690</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2501.82</v>
+        <v>2485.64</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84849</v>
+        <v>84843</v>
       </c>
       <c r="E131" t="n">
-        <v>84849</v>
+        <v>84843</v>
       </c>
       <c r="F131" t="n">
-        <v>5.354577222916805</v>
+        <v>5.514481225732729</v>
       </c>
       <c r="G131" t="n">
-        <v>77.74082077101947</v>
+        <v>209.6271894405578</v>
       </c>
       <c r="H131" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>22928</v>
+        <v>22783</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4394556</v>
+        <v>4355619</v>
       </c>
       <c r="F132" t="n">
-        <v>395.6446818633831</v>
+        <v>110.9606000789883</v>
       </c>
       <c r="G132" t="n">
-        <v>108.5545107790703</v>
+        <v>468.6822470929542</v>
       </c>
       <c r="H132" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I132" t="n">
-        <v>311717</v>
+        <v>311929</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2074530</v>
+        <v>2075560</v>
       </c>
       <c r="E133" t="n">
-        <v>8471843</v>
+        <v>8476049</v>
       </c>
       <c r="F133" t="n">
-        <v>130.7397815701136</v>
+        <v>849.0559218369403</v>
       </c>
       <c r="G133" t="n">
-        <v>687.9769706823323</v>
+        <v>1875.292950906544</v>
       </c>
       <c r="H133" t="n">
-        <v>0.86</v>
+        <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>552368</v>
+        <v>542325</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7522496</v>
+        <v>7424496</v>
       </c>
       <c r="E134" t="n">
-        <v>7578413</v>
+        <v>7479684</v>
       </c>
       <c r="F134" t="n">
-        <v>264593.8990531944</v>
+        <v>254632.9946306804</v>
       </c>
       <c r="G134" t="n">
-        <v>357881.7529972733</v>
+        <v>357919.0171032887</v>
       </c>
       <c r="H134" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="I134" t="n">
-        <v>5060570</v>
+        <v>4643577</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13488243</v>
+        <v>13613354</v>
       </c>
       <c r="E135" t="n">
-        <v>13534145</v>
+        <v>13659682</v>
       </c>
       <c r="F135" t="n">
-        <v>12933.30935674651</v>
+        <v>10488.87292552302</v>
       </c>
       <c r="G135" t="n">
-        <v>14406.03302742363</v>
+        <v>12806.70513587336</v>
       </c>
       <c r="H135" t="n">
         <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5913577</v>
+        <v>5738879</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42705461</v>
+        <v>42799976</v>
       </c>
       <c r="E136" t="n">
-        <v>72503938</v>
+        <v>72664402</v>
       </c>
       <c r="F136" t="n">
-        <v>576.5596364436731</v>
+        <v>727.2221266380698</v>
       </c>
       <c r="G136" t="n">
-        <v>1220.248255106068</v>
+        <v>1690.078718125538</v>
       </c>
       <c r="H136" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1099931</v>
+        <v>1089272</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22527339</v>
+        <v>22542011</v>
       </c>
       <c r="E137" t="n">
-        <v>67526603</v>
+        <v>67570582</v>
       </c>
       <c r="F137" t="n">
-        <v>60676.43923045931</v>
+        <v>85888.31285980417</v>
       </c>
       <c r="G137" t="n">
-        <v>61509.59563567071</v>
+        <v>81002.06925067534</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="I137" t="n">
-        <v>3131357</v>
+        <v>3338077</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101473327</v>
+        <v>101366688</v>
       </c>
       <c r="E138" t="n">
-        <v>107875318</v>
+        <v>107761950</v>
       </c>
       <c r="F138" t="n">
-        <v>6927.046505820936</v>
+        <v>9230.640369120412</v>
       </c>
       <c r="G138" t="n">
-        <v>10916.59989928514</v>
+        <v>10641.48965504367</v>
       </c>
       <c r="H138" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="I138" t="n">
-        <v>379106</v>
+        <v>375936</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1098153</v>
+        <v>1208078</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>5.44</v>
+        <v>6.35</v>
       </c>
       <c r="I139" t="n">
-        <v>179.05</v>
+        <v>239.94</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258578</v>
+        <v>258516</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.75</v>
+        <v>7.97</v>
       </c>
       <c r="I140" t="n">
-        <v>199.12</v>
+        <v>199.05</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96302</v>
+        <v>96306</v>
       </c>
       <c r="E141" t="n">
-        <v>273188</v>
+        <v>273197</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>63.65</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47307562</v>
+        <v>47612849</v>
       </c>
       <c r="E142" t="n">
-        <v>203795806</v>
+        <v>205110948</v>
       </c>
       <c r="F142" t="n">
-        <v>69928.78347434523</v>
+        <v>69702.95964718361</v>
       </c>
       <c r="G142" t="n">
-        <v>67699.49828027445</v>
+        <v>72026.37498943407</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>8914822</v>
+        <v>8582102</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>279850</v>
+        <v>269897</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>9.9</v>
       </c>
       <c r="I143" t="n">
-        <v>100208</v>
+        <v>71427</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9437728</v>
+        <v>9472442</v>
       </c>
       <c r="F144" t="n">
-        <v>1071.049765092621</v>
+        <v>1067.164266311415</v>
       </c>
       <c r="G144" t="n">
-        <v>640.3896842589669</v>
+        <v>646.0046074619605</v>
       </c>
       <c r="H144" t="n">
         <v>0.87</v>
       </c>
       <c r="I144" t="n">
-        <v>110217</v>
+        <v>98206</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1173130</v>
+        <v>1172344</v>
       </c>
       <c r="E145" t="n">
-        <v>7820865</v>
+        <v>7815629</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4868499866672</v>
+        <v>263.483452565044</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0181058483722</v>
+        <v>105.0167517360754</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5617.2</v>
+        <v>5589.37</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7823283</v>
+        <v>7795770</v>
       </c>
       <c r="F146" t="n">
-        <v>524.2846196289175</v>
+        <v>613.3595623997744</v>
       </c>
       <c r="G146" t="n">
-        <v>285.7972976389443</v>
+        <v>385.0147764363139</v>
       </c>
       <c r="H146" t="n">
-        <v>2.43</v>
+        <v>0.91</v>
       </c>
       <c r="I146" t="n">
-        <v>6638144</v>
+        <v>6644163</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>672020</v>
+        <v>671330</v>
       </c>
       <c r="E147" t="n">
-        <v>2426355</v>
+        <v>2423865</v>
       </c>
       <c r="F147" t="n">
-        <v>47.95491340017319</v>
+        <v>49.25687440569069</v>
       </c>
       <c r="G147" t="n">
-        <v>138.9672012508609</v>
+        <v>205.6426962840428</v>
       </c>
       <c r="H147" t="n">
         <v>0.9</v>
       </c>
       <c r="I147" t="n">
-        <v>344042</v>
+        <v>336091</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1584773</v>
+        <v>1600556</v>
       </c>
       <c r="F148" t="n">
-        <v>27.35943655209632</v>
+        <v>510.5249728836095</v>
       </c>
       <c r="G148" t="n">
-        <v>921.6808810152396</v>
+        <v>74.77543704237661</v>
       </c>
       <c r="H148" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I148" t="n">
-        <v>83666</v>
+        <v>83692</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69322</v>
+        <v>71402</v>
       </c>
       <c r="F149" t="n">
-        <v>64.45802388821727</v>
+        <v>16.23876638719918</v>
       </c>
       <c r="G149" t="n">
-        <v>19.74218605163769</v>
+        <v>25.00451296199553</v>
       </c>
       <c r="H149" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="I149" t="n">
-        <v>951.55</v>
+        <v>1352.51</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13122759</v>
+        <v>13076513</v>
       </c>
       <c r="E150" t="n">
-        <v>13122759</v>
+        <v>13076513</v>
       </c>
       <c r="F150" t="n">
-        <v>689.0659366369226</v>
+        <v>436.5592854117909</v>
       </c>
       <c r="G150" t="n">
-        <v>1750.97895555595</v>
+        <v>2150.293802185004</v>
       </c>
       <c r="H150" t="n">
         <v>0.3</v>
       </c>
       <c r="I150" t="n">
-        <v>3623090</v>
+        <v>3667845</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1875433</v>
+        <v>1915703</v>
       </c>
       <c r="E151" t="n">
-        <v>6813277</v>
+        <v>6958943</v>
       </c>
       <c r="F151" t="n">
-        <v>4.238824259465413</v>
+        <v>104.7968982388157</v>
       </c>
       <c r="G151" t="n">
-        <v>174.5213984129936</v>
+        <v>15.95102681621803</v>
       </c>
       <c r="H151" t="n">
-        <v>0.92</v>
+        <v>0.3</v>
       </c>
       <c r="I151" t="n">
-        <v>130058</v>
+        <v>143291</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1259557</v>
+        <v>1263478</v>
       </c>
       <c r="E152" t="n">
-        <v>1259557</v>
+        <v>1263478</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1441.86</v>
+        <v>1446.35</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23659969</v>
+        <v>23595722</v>
       </c>
       <c r="E153" t="n">
-        <v>27298554</v>
+        <v>27224427</v>
       </c>
       <c r="F153" t="n">
-        <v>342.6048278324063</v>
+        <v>256.5628893268486</v>
       </c>
       <c r="G153" t="n">
-        <v>374.0591837809854</v>
+        <v>401.0430156714501</v>
       </c>
       <c r="H153" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I153" t="n">
-        <v>742758</v>
+        <v>746441</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442234</v>
+        <v>2442568</v>
       </c>
       <c r="E154" t="n">
-        <v>18377262</v>
+        <v>18379778</v>
       </c>
       <c r="F154" t="n">
-        <v>3737.860069304523</v>
+        <v>4047.993962111551</v>
       </c>
       <c r="G154" t="n">
-        <v>1852.260177969629</v>
+        <v>3480.722737448456</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>165063</v>
+        <v>164811</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20986356</v>
+        <v>21061976</v>
       </c>
       <c r="E155" t="n">
-        <v>83945422</v>
+        <v>84247903</v>
       </c>
       <c r="F155" t="n">
-        <v>8355.109425523387</v>
+        <v>14064.27063681337</v>
       </c>
       <c r="G155" t="n">
-        <v>29516.68450968506</v>
+        <v>26625.92818889325</v>
       </c>
       <c r="H155" t="n">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="I155" t="n">
-        <v>4345525</v>
+        <v>3947473</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>311298915</v>
+        <v>313239979</v>
       </c>
       <c r="E156" t="n">
-        <v>311298915</v>
+        <v>313239979</v>
       </c>
       <c r="F156" t="n">
-        <v>340195.5122897964</v>
+        <v>291105.1321612227</v>
       </c>
       <c r="G156" t="n">
-        <v>308533.5866244005</v>
+        <v>389513.0630932299</v>
       </c>
       <c r="H156" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I156" t="n">
-        <v>14916313</v>
+        <v>14924303</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12843997</v>
+        <v>12762775</v>
       </c>
       <c r="E157" t="n">
-        <v>40633762</v>
+        <v>40376806</v>
       </c>
       <c r="F157" t="n">
-        <v>7539.865772331514</v>
+        <v>8356.595335285432</v>
       </c>
       <c r="G157" t="n">
-        <v>9207.525115193916</v>
+        <v>9426.459631552376</v>
       </c>
       <c r="H157" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="I157" t="n">
-        <v>1204730</v>
+        <v>1168250</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1083319</v>
+        <v>1083337</v>
       </c>
       <c r="E158" t="n">
-        <v>2467365</v>
+        <v>2467407</v>
       </c>
       <c r="F158" t="n">
-        <v>9.990437487915083</v>
+        <v>9.990308670373155</v>
       </c>
       <c r="G158" t="n">
-        <v>98.27936308790694</v>
+        <v>98.2780958655265</v>
       </c>
       <c r="H158" t="n">
         <v>3.59</v>
       </c>
       <c r="I158" t="n">
-        <v>2819.34</v>
+        <v>2423.51</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18046766</v>
+        <v>18232559</v>
       </c>
       <c r="E159" t="n">
-        <v>18046766</v>
+        <v>18232559</v>
       </c>
       <c r="F159" t="n">
-        <v>10927.59967254318</v>
+        <v>10922.58606835063</v>
       </c>
       <c r="G159" t="n">
-        <v>20212.4328424547</v>
+        <v>23403.26374468166</v>
       </c>
       <c r="H159" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I159" t="n">
-        <v>3657006</v>
+        <v>3757142</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4852692</v>
+        <v>4850450</v>
       </c>
       <c r="E160" t="n">
-        <v>8934324</v>
+        <v>8930197</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>17.24</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113718</v>
+        <v>113093</v>
       </c>
       <c r="E161" t="n">
-        <v>137637</v>
+        <v>136881</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>5.2</v>
+        <v>6.36</v>
       </c>
       <c r="I161" t="n">
-        <v>3315.78</v>
+        <v>3270.77</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20028270</v>
+        <v>20122905</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>7.56</v>
+        <v>15.76</v>
       </c>
       <c r="I162" t="n">
-        <v>1905.83</v>
+        <v>1890.62</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>437572</v>
+        <v>433774</v>
       </c>
       <c r="E163" t="n">
-        <v>551177</v>
+        <v>546393</v>
       </c>
       <c r="F163" t="n">
-        <v>213.8320168190391</v>
+        <v>182.8385060269384</v>
       </c>
       <c r="G163" t="n">
-        <v>121.4998410698944</v>
+        <v>90.23849022063895</v>
       </c>
       <c r="H163" t="n">
-        <v>0.36</v>
+        <v>0.91</v>
       </c>
       <c r="I163" t="n">
-        <v>181089</v>
+        <v>183939</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>98531</v>
+        <v>108614</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>5.54</v>
+        <v>7.88</v>
       </c>
       <c r="I164" t="n">
-        <v>3828.88</v>
+        <v>3835.18</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12750614</v>
+        <v>12750954</v>
       </c>
       <c r="E165" t="n">
-        <v>19409310</v>
+        <v>19409827</v>
       </c>
       <c r="F165" t="n">
-        <v>1131.750277204866</v>
+        <v>1243.202027484743</v>
       </c>
       <c r="G165" t="n">
-        <v>1959.665736289449</v>
+        <v>3012.423190579701</v>
       </c>
       <c r="H165" t="n">
         <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>768137</v>
+        <v>759815</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>314282828</v>
+        <v>301286590</v>
       </c>
       <c r="E166" t="n">
-        <v>314282828</v>
+        <v>301286590</v>
       </c>
       <c r="F166" t="n">
-        <v>268649.3760579273</v>
+        <v>247139.0067513342</v>
       </c>
       <c r="G166" t="n">
-        <v>365497.3134300004</v>
+        <v>378124.897317209</v>
       </c>
       <c r="H166" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>51601707</v>
+        <v>59817864</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10333859</v>
+        <v>10217025</v>
       </c>
       <c r="E167" t="n">
-        <v>29339551</v>
+        <v>29007837</v>
       </c>
       <c r="F167" t="n">
-        <v>1185.833454935081</v>
+        <v>154.2225471077036</v>
       </c>
       <c r="G167" t="n">
-        <v>184.9378920495459</v>
+        <v>912.5097620062689</v>
       </c>
       <c r="H167" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="I167" t="n">
-        <v>122259</v>
+        <v>124628</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11610853</v>
+        <v>11606369</v>
       </c>
       <c r="F168" t="n">
-        <v>196.7719572396047</v>
+        <v>156.3314921140773</v>
       </c>
       <c r="G168" t="n">
-        <v>1185.859567812853</v>
+        <v>1110.246242134019</v>
       </c>
       <c r="H168" t="n">
-        <v>1.38</v>
+        <v>0.78</v>
       </c>
       <c r="I168" t="n">
-        <v>97464</v>
+        <v>95591</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4289533</v>
+        <v>4230978</v>
       </c>
       <c r="E169" t="n">
-        <v>29310077</v>
+        <v>28909973</v>
       </c>
       <c r="F169" t="n">
-        <v>1351.940419221482</v>
+        <v>2678.396831753249</v>
       </c>
       <c r="G169" t="n">
-        <v>1638.698529695035</v>
+        <v>2624.312490038131</v>
       </c>
       <c r="H169" t="n">
-        <v>1.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2645735</v>
+        <v>2650925</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2834733</v>
+        <v>2924094</v>
       </c>
       <c r="E170" t="n">
-        <v>4202584</v>
+        <v>4334893</v>
       </c>
       <c r="F170" t="n">
-        <v>2350.020731668227</v>
+        <v>1767.218870552725</v>
       </c>
       <c r="G170" t="n">
-        <v>3701.69577428597</v>
+        <v>2342.551866735209</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
       <c r="I170" t="n">
-        <v>210229</v>
+        <v>214196</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>90611195</v>
+        <v>91401749</v>
       </c>
       <c r="E171" t="n">
-        <v>522140789</v>
+        <v>526696299</v>
       </c>
       <c r="F171" t="n">
-        <v>345744.3115315898</v>
+        <v>492886.0514891949</v>
       </c>
       <c r="G171" t="n">
-        <v>377347.9266589237</v>
+        <v>249473.1380151595</v>
       </c>
       <c r="H171" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I171" t="n">
-        <v>16572547</v>
+        <v>16777136</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13760492</v>
+        <v>13770812</v>
       </c>
       <c r="E172" t="n">
-        <v>13760492</v>
+        <v>13770812</v>
       </c>
       <c r="F172" t="n">
-        <v>5397.631743772426</v>
+        <v>5368.678282913606</v>
       </c>
       <c r="G172" t="n">
-        <v>4781.232471212706</v>
+        <v>4153.620109811382</v>
       </c>
       <c r="H172" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="I172" t="n">
-        <v>610629</v>
+        <v>607420</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6084056</v>
+        <v>6085232</v>
       </c>
       <c r="E173" t="n">
-        <v>17283056</v>
+        <v>17286397</v>
       </c>
       <c r="F173" t="n">
-        <v>575.8535577835871</v>
+        <v>567.367525973586</v>
       </c>
       <c r="G173" t="n">
-        <v>8741.868667889505</v>
+        <v>8691.721342134237</v>
       </c>
       <c r="H173" t="n">
-        <v>0.23</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I173" t="n">
-        <v>197230</v>
+        <v>179776</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18613874</v>
+        <v>19692753</v>
       </c>
       <c r="E174" t="n">
-        <v>18613874</v>
+        <v>19692753</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039498835474834</v>
+        <v>1.039485432089348</v>
       </c>
       <c r="G174" t="n">
-        <v>473.4387322551545</v>
+        <v>473.4326276962885</v>
       </c>
       <c r="H174" t="n">
         <v>1.57</v>
       </c>
       <c r="I174" t="n">
-        <v>118324</v>
+        <v>122544</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1340475</v>
+        <v>1337271</v>
       </c>
       <c r="F175" t="n">
-        <v>786.0510902596658</v>
+        <v>192.7963479825575</v>
       </c>
       <c r="G175" t="n">
-        <v>175.2349880738849</v>
+        <v>204.8647734620446</v>
       </c>
       <c r="H175" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I175" t="n">
-        <v>28342</v>
+        <v>4064.6</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>145702</v>
+        <v>145793</v>
       </c>
       <c r="E176" t="n">
-        <v>317191</v>
+        <v>317388</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>54058</v>
+        <v>52986</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2810465</v>
+        <v>2702806</v>
       </c>
       <c r="F177" t="n">
-        <v>438.1390912226677</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>328.8119390398148</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>0.36</v>
+        <v>4.36</v>
       </c>
       <c r="I177" t="n">
-        <v>423554</v>
+        <v>423647</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248542326</v>
+        <v>248657411</v>
       </c>
       <c r="E178" t="n">
-        <v>248544795</v>
+        <v>248659882</v>
       </c>
       <c r="F178" t="n">
-        <v>43194.23556180625</v>
+        <v>45732.67803503913</v>
       </c>
       <c r="G178" t="n">
-        <v>67993.51750070525</v>
+        <v>81515.34214173921</v>
       </c>
       <c r="H178" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I178" t="n">
-        <v>2533467</v>
+        <v>2540992</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9281639</v>
+        <v>9305448</v>
       </c>
       <c r="E179" t="n">
-        <v>9281639</v>
+        <v>9305448</v>
       </c>
       <c r="F179" t="n">
-        <v>1284.164260826285</v>
+        <v>1073.507387217451</v>
       </c>
       <c r="G179" t="n">
-        <v>430.3775299502956</v>
+        <v>442.4873593306521</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I179" t="n">
-        <v>2093283</v>
+        <v>2091466</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>183731</v>
+        <v>184444</v>
       </c>
       <c r="E180" t="n">
-        <v>1418775</v>
+        <v>1424280</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="I180" t="n">
-        <v>108353</v>
+        <v>106870</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30988819</v>
+        <v>30778990</v>
       </c>
       <c r="E181" t="n">
-        <v>138749655</v>
+        <v>137810164</v>
       </c>
       <c r="F181" t="n">
-        <v>56488.63489876065</v>
+        <v>56426.72643650627</v>
       </c>
       <c r="G181" t="n">
-        <v>101337.3319084361</v>
+        <v>95618.99395501698</v>
       </c>
       <c r="H181" t="n">
         <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>8734596</v>
+        <v>8709795</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1463444</v>
+        <v>1454513</v>
       </c>
       <c r="F182" t="n">
-        <v>3.172798965795071</v>
+        <v>104.7815434509544</v>
       </c>
       <c r="G182" t="n">
-        <v>5503.089686869235</v>
+        <v>4858.374831090023</v>
       </c>
       <c r="H182" t="n">
-        <v>0.05</v>
+        <v>1.89</v>
       </c>
       <c r="I182" t="n">
-        <v>54531</v>
+        <v>54010</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3085232</v>
+        <v>3108725</v>
       </c>
       <c r="E183" t="n">
-        <v>3085232</v>
+        <v>3108725</v>
       </c>
       <c r="F183" t="n">
-        <v>142.7215243767849</v>
+        <v>686.0504978838029</v>
       </c>
       <c r="G183" t="n">
-        <v>339.2520466682197</v>
+        <v>199.6221364931696</v>
       </c>
       <c r="H183" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="I183" t="n">
-        <v>424123</v>
+        <v>429185</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560690</v>
+        <v>559801</v>
       </c>
       <c r="E184" t="n">
-        <v>560690</v>
+        <v>559801</v>
       </c>
       <c r="F184" t="n">
-        <v>25.90486490374596</v>
+        <v>25.90450324690921</v>
       </c>
       <c r="G184" t="n">
-        <v>4.668017968216065</v>
+        <v>4.667952798194198</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>37995</v>
+        <v>30075</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15233729</v>
+        <v>15521161</v>
       </c>
       <c r="E185" t="n">
-        <v>19394968</v>
+        <v>19760916</v>
       </c>
       <c r="F185" t="n">
-        <v>133.0976220674723</v>
+        <v>2177.087175891108</v>
       </c>
       <c r="G185" t="n">
-        <v>209.9627968068712</v>
+        <v>259.6093442762363</v>
       </c>
       <c r="H185" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="I185" t="n">
-        <v>911143</v>
+        <v>914441</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1815897</v>
+        <v>1777023</v>
       </c>
       <c r="E186" t="n">
-        <v>1815897</v>
+        <v>1777023</v>
       </c>
       <c r="F186" t="n">
-        <v>45.63683449074367</v>
+        <v>44.94892022162239</v>
       </c>
       <c r="G186" t="n">
-        <v>12.31468665418029</v>
+        <v>159.1018300849393</v>
       </c>
       <c r="H186" t="n">
-        <v>3.15</v>
+        <v>1.13</v>
       </c>
       <c r="I186" t="n">
-        <v>4302.89</v>
+        <v>4278.5</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>49767198</v>
+        <v>49894728</v>
       </c>
       <c r="E187" t="n">
-        <v>322727035</v>
+        <v>323554034</v>
       </c>
       <c r="F187" t="n">
-        <v>109822.8387395353</v>
+        <v>116550.1650154579</v>
       </c>
       <c r="G187" t="n">
-        <v>123809.7201019396</v>
+        <v>139669.1608753872</v>
       </c>
       <c r="H187" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I187" t="n">
-        <v>16783422</v>
+        <v>16285049</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9101615</v>
+        <v>9105783</v>
       </c>
       <c r="F188" t="n">
-        <v>691.7250697160152</v>
+        <v>861.6891331606372</v>
       </c>
       <c r="G188" t="n">
-        <v>477.3572156576741</v>
+        <v>567.1758562477191</v>
       </c>
       <c r="H188" t="n">
-        <v>1.42</v>
+        <v>0.77</v>
       </c>
       <c r="I188" t="n">
-        <v>303731</v>
+        <v>305108</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7059077</v>
+        <v>7066218</v>
       </c>
       <c r="E189" t="n">
-        <v>7069097</v>
+        <v>7076194</v>
       </c>
       <c r="F189" t="n">
-        <v>986.3568067555049</v>
+        <v>78.99096023539725</v>
       </c>
       <c r="G189" t="n">
-        <v>76.87990636213272</v>
+        <v>202.1690879253023</v>
       </c>
       <c r="H189" t="n">
         <v>1.39</v>
       </c>
       <c r="I189" t="n">
-        <v>760757</v>
+        <v>776267</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4795186</v>
+        <v>4777016</v>
       </c>
       <c r="F190" t="n">
-        <v>2113.277733870359</v>
+        <v>1978.646829446379</v>
       </c>
       <c r="G190" t="n">
-        <v>2460.677658432049</v>
+        <v>2092.813859454393</v>
       </c>
       <c r="H190" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="I190" t="n">
-        <v>200745</v>
+        <v>182143</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>95970695</v>
+        <v>97297759</v>
       </c>
       <c r="E191" t="n">
-        <v>97003754</v>
+        <v>98345104</v>
       </c>
       <c r="F191" t="n">
-        <v>57341.24604403844</v>
+        <v>44630.22204882732</v>
       </c>
       <c r="G191" t="n">
-        <v>48103.68718294031</v>
+        <v>59515.15578899244</v>
       </c>
       <c r="H191" t="n">
         <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>35271724</v>
+        <v>37509116</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>238219735</v>
+        <v>240469995</v>
       </c>
       <c r="E192" t="n">
-        <v>238219735</v>
+        <v>240469995</v>
       </c>
       <c r="F192" t="n">
-        <v>84729.43397297627</v>
+        <v>89663.8734574979</v>
       </c>
       <c r="G192" t="n">
-        <v>110001.1402970358</v>
+        <v>120651.5790671675</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I192" t="n">
-        <v>45348036</v>
+        <v>46273299</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24482770</v>
+        <v>24618931</v>
       </c>
       <c r="E193" t="n">
-        <v>146485337</v>
+        <v>147300015</v>
       </c>
       <c r="F193" t="n">
-        <v>82036.28170675498</v>
+        <v>83119.56893896275</v>
       </c>
       <c r="G193" t="n">
-        <v>140870.0471372613</v>
+        <v>127111.2339854677</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>12351520</v>
+        <v>12137650</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13597713</v>
+        <v>13564786</v>
       </c>
       <c r="E194" t="n">
-        <v>41726610</v>
+        <v>41625568</v>
       </c>
       <c r="F194" t="n">
-        <v>747.5790655581912</v>
+        <v>647.7318429979274</v>
       </c>
       <c r="G194" t="n">
-        <v>729.82022126537</v>
+        <v>763.0576208530118</v>
       </c>
       <c r="H194" t="n">
         <v>0.52</v>
       </c>
       <c r="I194" t="n">
-        <v>2604789</v>
+        <v>2604844</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55193195</v>
+        <v>54959309</v>
       </c>
       <c r="E195" t="n">
-        <v>95330647</v>
+        <v>94926675</v>
       </c>
       <c r="F195" t="n">
-        <v>8703.598413958707</v>
+        <v>14650.80978391819</v>
       </c>
       <c r="G195" t="n">
-        <v>7313.525653722804</v>
+        <v>7179.324210612933</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
       <c r="I195" t="n">
-        <v>2353209</v>
+        <v>2310451</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4194746</v>
+        <v>4209463</v>
       </c>
       <c r="E196" t="n">
-        <v>4194746</v>
+        <v>4209463</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064274353191667</v>
+        <v>7.109400604073439</v>
       </c>
       <c r="G196" t="n">
-        <v>365.4712479161576</v>
+        <v>379.5125868422867</v>
       </c>
       <c r="H196" t="n">
-        <v>2.63</v>
+        <v>1.7</v>
       </c>
       <c r="I196" t="n">
-        <v>1622815</v>
+        <v>1655934</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211944</v>
+        <v>211788</v>
       </c>
       <c r="F197" t="n">
-        <v>56.3699538346653</v>
+        <v>54.75465314887064</v>
       </c>
       <c r="G197" t="n">
-        <v>60.84915720698838</v>
+        <v>3.058707228048211</v>
       </c>
       <c r="H197" t="n">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="I197" t="n">
-        <v>51102</v>
+        <v>50482</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6698527</v>
+        <v>6631618</v>
       </c>
       <c r="E198" t="n">
-        <v>34461883</v>
+        <v>34117660</v>
       </c>
       <c r="F198" t="n">
-        <v>154.0330830629779</v>
+        <v>452.3081535234688</v>
       </c>
       <c r="G198" t="n">
-        <v>443.7115095058111</v>
+        <v>219.8510326121547</v>
       </c>
       <c r="H198" t="n">
-        <v>1.15</v>
+        <v>0.61</v>
       </c>
       <c r="I198" t="n">
-        <v>919155</v>
+        <v>800416</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177480399</v>
+        <v>178522009</v>
       </c>
       <c r="E199" t="n">
-        <v>207349511</v>
+        <v>208566419</v>
       </c>
       <c r="F199" t="n">
-        <v>35036.12351532961</v>
+        <v>34149.04878260563</v>
       </c>
       <c r="G199" t="n">
-        <v>31993.88347595251</v>
+        <v>26956.25910536711</v>
       </c>
       <c r="H199" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I199" t="n">
-        <v>4255666</v>
+        <v>4093284</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>298470</v>
+        <v>301710</v>
       </c>
       <c r="F200" t="n">
-        <v>17.5687341236101</v>
+        <v>24.68131821408017</v>
       </c>
       <c r="G200" t="n">
-        <v>220.5498234583764</v>
+        <v>26.11579966282972</v>
       </c>
       <c r="H200" t="n">
-        <v>1.33</v>
+        <v>3.87</v>
       </c>
       <c r="I200" t="n">
-        <v>216706</v>
+        <v>330771</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7997269</v>
+        <v>7996099</v>
       </c>
       <c r="F201" t="n">
-        <v>889.7520493025997</v>
+        <v>890.9849657997813</v>
       </c>
       <c r="G201" t="n">
-        <v>888.9826826956167</v>
+        <v>888.7915313532516</v>
       </c>
       <c r="H201" t="n">
         <v>0.3</v>
       </c>
       <c r="I201" t="n">
-        <v>661324</v>
+        <v>645872</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34009</v>
+        <v>34001</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.8</v>
+        <v>651.7</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35110793</v>
+        <v>35125201</v>
       </c>
       <c r="E203" t="n">
-        <v>175219041</v>
+        <v>175290945</v>
       </c>
       <c r="F203" t="n">
-        <v>97948.29017470998</v>
+        <v>107390.2893617778</v>
       </c>
       <c r="G203" t="n">
-        <v>130244.9869692586</v>
+        <v>99712.38861991612</v>
       </c>
       <c r="H203" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I203" t="n">
-        <v>10466586</v>
+        <v>10452663</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1976754</v>
+        <v>1984797</v>
       </c>
       <c r="E204" t="n">
-        <v>1976754</v>
+        <v>1984797</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>10.15</v>
+        <v>9.84</v>
       </c>
       <c r="I204" t="n">
-        <v>9988.34</v>
+        <v>8927.77</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178251</v>
+        <v>178951</v>
       </c>
       <c r="F205" t="n">
-        <v>35.1939346873871</v>
+        <v>35.89812884182331</v>
       </c>
       <c r="G205" t="n">
-        <v>349.8931743059181</v>
+        <v>54.26278574395096</v>
       </c>
       <c r="H205" t="n">
         <v>2.31</v>
       </c>
       <c r="I205" t="n">
-        <v>12956.67</v>
+        <v>13599.09</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2779.33</v>
+        <v>2778.1</v>
       </c>
       <c r="E206" t="n">
-        <v>33219</v>
+        <v>33204</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7986.44</v>
+        <v>7967.56</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>316251386</v>
+        <v>316585868</v>
       </c>
       <c r="E208" t="n">
-        <v>585137184</v>
+        <v>585756052</v>
       </c>
       <c r="F208" t="n">
-        <v>141984.1345338353</v>
+        <v>134439.3652639377</v>
       </c>
       <c r="G208" t="n">
-        <v>176507.0052006434</v>
+        <v>185668.1204542113</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I208" t="n">
-        <v>13456261</v>
+        <v>13539770</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72197109</v>
+        <v>71951468</v>
       </c>
       <c r="E209" t="n">
-        <v>688741196</v>
+        <v>686390886</v>
       </c>
       <c r="F209" t="n">
-        <v>298664.7244820739</v>
+        <v>358078.9892450919</v>
       </c>
       <c r="G209" t="n">
-        <v>380561.6955572162</v>
+        <v>285815.7645125089</v>
       </c>
       <c r="H209" t="n">
         <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21871704</v>
+        <v>21916843</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2613939</v>
+        <v>2557071</v>
       </c>
       <c r="F210" t="n">
-        <v>230.357873180126</v>
+        <v>37.93912034035459</v>
       </c>
       <c r="G210" t="n">
-        <v>34.91547547967452</v>
+        <v>48.50880940476792</v>
       </c>
       <c r="H210" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="I210" t="n">
-        <v>56412</v>
+        <v>57666</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>81415</v>
+        <v>82288</v>
       </c>
       <c r="E211" t="n">
-        <v>676821</v>
+        <v>684081</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>176.25</v>
+        <v>121.16</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1892008</v>
+        <v>1890334</v>
       </c>
       <c r="E212" t="n">
-        <v>5403333</v>
+        <v>5398551</v>
       </c>
       <c r="F212" t="n">
-        <v>237.5530233111674</v>
+        <v>725.188247350853</v>
       </c>
       <c r="G212" t="n">
-        <v>383.7234668466274</v>
+        <v>279.896618868692</v>
       </c>
       <c r="H212" t="n">
         <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>66926</v>
+        <v>67186</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11238858</v>
+        <v>11187654</v>
       </c>
       <c r="E213" t="n">
-        <v>33346437</v>
+        <v>33194512</v>
       </c>
       <c r="F213" t="n">
-        <v>2870.562748530299</v>
+        <v>1174.375789186714</v>
       </c>
       <c r="G213" t="n">
-        <v>2424.212944695653</v>
+        <v>2468.535624723757</v>
       </c>
       <c r="H213" t="n">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="I213" t="n">
-        <v>6847572</v>
+        <v>7120577</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14577829</v>
+        <v>14574322</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>10.8</v>
+        <v>5.99</v>
       </c>
       <c r="I214" t="n">
-        <v>1250.91</v>
+        <v>1248.7</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1984290</v>
+        <v>1979492</v>
       </c>
       <c r="E215" t="n">
-        <v>5757065</v>
+        <v>5743144</v>
       </c>
       <c r="F215" t="n">
-        <v>42.99439769438589</v>
+        <v>81.63179330296092</v>
       </c>
       <c r="G215" t="n">
-        <v>633.9762860532921</v>
+        <v>1211.104075474411</v>
       </c>
       <c r="H215" t="n">
-        <v>1.78</v>
+        <v>1.13</v>
       </c>
       <c r="I215" t="n">
-        <v>48382</v>
+        <v>52346</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2113513</v>
+        <v>2314813</v>
       </c>
       <c r="E216" t="n">
-        <v>18642586</v>
+        <v>20418186</v>
       </c>
       <c r="F216" t="n">
-        <v>171.5821987716942</v>
+        <v>178.8607062856999</v>
       </c>
       <c r="G216" t="n">
-        <v>2275.013443145508</v>
+        <v>1699.054298988891</v>
       </c>
       <c r="H216" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="I216" t="n">
-        <v>74588</v>
+        <v>82485</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44744016</v>
+        <v>45115509</v>
       </c>
       <c r="E217" t="n">
-        <v>44744016</v>
+        <v>45115509</v>
       </c>
       <c r="F217" t="n">
-        <v>32277.41783476347</v>
+        <v>32569.97140993157</v>
       </c>
       <c r="G217" t="n">
-        <v>41850.81055004612</v>
+        <v>40449.34868829021</v>
       </c>
       <c r="H217" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I217" t="n">
-        <v>8613712</v>
+        <v>7615887</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8438189</v>
+        <v>8423637</v>
       </c>
       <c r="E218" t="n">
-        <v>12022485</v>
+        <v>12001752</v>
       </c>
       <c r="F218" t="n">
-        <v>4292.020779152888</v>
+        <v>4418.911011742409</v>
       </c>
       <c r="G218" t="n">
-        <v>364.9704393392619</v>
+        <v>143.8172934044147</v>
       </c>
       <c r="H218" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="I218" t="n">
-        <v>432019</v>
+        <v>421127</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16314496</v>
+        <v>16304257</v>
       </c>
       <c r="F219" t="n">
-        <v>36.36095029380203</v>
+        <v>2.125179043864946</v>
       </c>
       <c r="G219" t="n">
-        <v>1.04135700958971</v>
+        <v>1160.43872692827</v>
       </c>
       <c r="H219" t="n">
-        <v>2.02</v>
+        <v>1.53</v>
       </c>
       <c r="I219" t="n">
-        <v>985086</v>
+        <v>993906</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>718361</v>
+        <v>726314</v>
       </c>
       <c r="F220" t="n">
-        <v>83.75077602494817</v>
+        <v>86.15501519994763</v>
       </c>
       <c r="G220" t="n">
-        <v>338.6011606353446</v>
+        <v>317.4238843358696</v>
       </c>
       <c r="H220" t="n">
         <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>226783</v>
+        <v>208977</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2851077</v>
+        <v>2849898</v>
       </c>
       <c r="E221" t="n">
-        <v>2853546</v>
+        <v>2852366</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>5.72</v>
+        <v>5.42</v>
       </c>
       <c r="I221" t="n">
-        <v>109321</v>
+        <v>109312</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1260569</v>
+        <v>1251880</v>
       </c>
       <c r="E222" t="n">
-        <v>3810239</v>
+        <v>3783439</v>
       </c>
       <c r="F222" t="n">
-        <v>922.9852035531418</v>
+        <v>954.6454190504222</v>
       </c>
       <c r="G222" t="n">
-        <v>596.6218690003691</v>
+        <v>576.0148690328414</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>12493.05</v>
+        <v>11846.56</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38859389</v>
+        <v>38989590</v>
       </c>
       <c r="E223" t="n">
-        <v>275506726</v>
+        <v>276429830</v>
       </c>
       <c r="F223" t="n">
-        <v>82822.12622607224</v>
+        <v>88861.0562048569</v>
       </c>
       <c r="G223" t="n">
-        <v>49575.38841951292</v>
+        <v>69071.6806034547</v>
       </c>
       <c r="H223" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I223" t="n">
-        <v>1605998</v>
+        <v>1622153</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>60607</v>
+        <v>59867</v>
       </c>
       <c r="E224" t="n">
-        <v>316224</v>
+        <v>312364</v>
       </c>
       <c r="F224" t="n">
-        <v>28.30764369126536</v>
+        <v>179.7851306527598</v>
       </c>
       <c r="G224" t="n">
-        <v>170.8629546161914</v>
+        <v>18.32999060440346</v>
       </c>
       <c r="H224" t="n">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="I224" t="n">
-        <v>290085</v>
+        <v>283974</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1271100</v>
+        <v>1274364</v>
       </c>
       <c r="E225" t="n">
-        <v>7882124</v>
+        <v>7902360</v>
       </c>
       <c r="F225" t="n">
-        <v>1442.505508679069</v>
+        <v>2085.046380933953</v>
       </c>
       <c r="G225" t="n">
-        <v>1614.463447643464</v>
+        <v>1182.800874433878</v>
       </c>
       <c r="H225" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>768168</v>
+        <v>782961</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>608577038</v>
+        <v>610427962</v>
       </c>
       <c r="E226" t="n">
-        <v>2356929081</v>
+        <v>2364097435</v>
       </c>
       <c r="F226" t="n">
-        <v>241864.1203673563</v>
+        <v>354047.2715339249</v>
       </c>
       <c r="G226" t="n">
-        <v>447047.8568701242</v>
+        <v>310803.3959339077</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32688820</v>
+        <v>32624162</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20629997</v>
+        <v>20753977</v>
       </c>
       <c r="F227" t="n">
-        <v>1021.29923009506</v>
+        <v>907.3297323836471</v>
       </c>
       <c r="G227" t="n">
-        <v>837.9752665936956</v>
+        <v>1169.020298683163</v>
       </c>
       <c r="H227" t="n">
         <v>0.05</v>
       </c>
       <c r="I227" t="n">
-        <v>16801779</v>
+        <v>16709731</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>800169</v>
+        <v>808812</v>
       </c>
       <c r="F228" t="n">
-        <v>401.0963622687269</v>
+        <v>593.4488679118043</v>
       </c>
       <c r="G228" t="n">
-        <v>61.10948239630768</v>
+        <v>88.85515498537839</v>
       </c>
       <c r="H228" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="I228" t="n">
-        <v>214346</v>
+        <v>184670</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5891640</v>
+        <v>5887741</v>
       </c>
       <c r="E229" t="n">
-        <v>26377607</v>
+        <v>26360154</v>
       </c>
       <c r="F229" t="n">
-        <v>2377.226229911403</v>
+        <v>1824.011913015597</v>
       </c>
       <c r="G229" t="n">
-        <v>1785.873071567333</v>
+        <v>1870.266403358207</v>
       </c>
       <c r="H229" t="n">
         <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>153185</v>
+        <v>152602</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6672855</v>
+        <v>6732846</v>
       </c>
       <c r="E230" t="n">
-        <v>12775721</v>
+        <v>12890580</v>
       </c>
       <c r="F230" t="n">
-        <v>4258.095027053515</v>
+        <v>4222.299884832369</v>
       </c>
       <c r="G230" t="n">
-        <v>4013.580585722565</v>
+        <v>5124.543888765224</v>
       </c>
       <c r="H230" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I230" t="n">
-        <v>148122</v>
+        <v>144251</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3257305</v>
+        <v>3255725</v>
       </c>
       <c r="E231" t="n">
-        <v>21419276</v>
+        <v>21408888</v>
       </c>
       <c r="F231" t="n">
-        <v>2243.110581136266</v>
+        <v>2332.037623791789</v>
       </c>
       <c r="G231" t="n">
-        <v>485.0496619638132</v>
+        <v>541.025380468875</v>
       </c>
       <c r="H231" t="n">
-        <v>0.62</v>
+        <v>1.18</v>
       </c>
       <c r="I231" t="n">
-        <v>1594799</v>
+        <v>1635372</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>122383721</v>
+        <v>123163187</v>
       </c>
       <c r="E232" t="n">
-        <v>1064051234</v>
+        <v>1070828210</v>
       </c>
       <c r="F232" t="n">
-        <v>186462.4139745855</v>
+        <v>191677.7798689046</v>
       </c>
       <c r="G232" t="n">
-        <v>230745.7957822983</v>
+        <v>234726.7487955335</v>
       </c>
       <c r="H232" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I232" t="n">
-        <v>9353866</v>
+        <v>9140134</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.43</v>
+        <v>5.68</v>
       </c>
       <c r="I233" t="n">
-        <v>1162.73</v>
+        <v>1150.58</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>117469560</v>
+        <v>113543836</v>
       </c>
       <c r="E234" t="n">
-        <v>179202568</v>
+        <v>173213783</v>
       </c>
       <c r="F234" t="n">
-        <v>86893.73768307125</v>
+        <v>85670.95360690472</v>
       </c>
       <c r="G234" t="n">
-        <v>109411.867383761</v>
+        <v>101109.9964585831</v>
       </c>
       <c r="H234" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I234" t="n">
-        <v>7960527</v>
+        <v>7876312</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16591235</v>
+        <v>16887042</v>
       </c>
       <c r="E235" t="n">
-        <v>22761737</v>
+        <v>23167559</v>
       </c>
       <c r="F235" t="n">
-        <v>529.7003926032747</v>
+        <v>342.45648578755</v>
       </c>
       <c r="G235" t="n">
-        <v>2062.125497222787</v>
+        <v>2033.639253241409</v>
       </c>
       <c r="H235" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="I235" t="n">
-        <v>459646</v>
+        <v>493610</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>120027076</v>
+        <v>121431442</v>
       </c>
       <c r="E236" t="n">
-        <v>460443184</v>
+        <v>465830556</v>
       </c>
       <c r="F236" t="n">
-        <v>405515.1810535067</v>
+        <v>540119.2592634172</v>
       </c>
       <c r="G236" t="n">
-        <v>564188.7237157695</v>
+        <v>402897.5277690133</v>
       </c>
       <c r="H236" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I236" t="n">
-        <v>31339534</v>
+        <v>31412677</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>759956</v>
+        <v>764158</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76165481851226</v>
+        <v>69.76025152956393</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55422836812044</v>
+        <v>20.55381491001677</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>51726</v>
+        <v>50721</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>842321</v>
+        <v>814118</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>3.200495329137131</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>152.1225002203038</v>
       </c>
       <c r="H238" t="n">
-        <v>7.93</v>
+        <v>0.04</v>
       </c>
       <c r="I238" t="n">
-        <v>118827</v>
+        <v>125115</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3189442</v>
+        <v>3188196</v>
       </c>
       <c r="E239" t="n">
-        <v>30220436</v>
+        <v>30208630</v>
       </c>
       <c r="F239" t="n">
-        <v>1072.831968247535</v>
+        <v>1069.544663291435</v>
       </c>
       <c r="G239" t="n">
-        <v>1676.353939762874</v>
+        <v>1679.556010910403</v>
       </c>
       <c r="H239" t="n">
         <v>0.3</v>
       </c>
       <c r="I239" t="n">
-        <v>216969</v>
+        <v>212269</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>732090</v>
+        <v>731943</v>
       </c>
       <c r="E240" t="n">
-        <v>782600</v>
+        <v>782443</v>
       </c>
       <c r="F240" t="n">
-        <v>56.50756137991908</v>
+        <v>53.20032764693082</v>
       </c>
       <c r="G240" t="n">
-        <v>1964.326610234212</v>
+        <v>1955.291426733333</v>
       </c>
       <c r="H240" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="I240" t="n">
-        <v>80901</v>
+        <v>85721</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>376419</v>
+        <v>363518</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>9.01</v>
+        <v>12.44</v>
       </c>
       <c r="I241" t="n">
-        <v>346.77</v>
+        <v>345.82</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>132857</v>
+        <v>132144</v>
       </c>
       <c r="F242" t="n">
-        <v>247.6394163286613</v>
+        <v>232.4392988262527</v>
       </c>
       <c r="G242" t="n">
-        <v>10.2020191187779</v>
+        <v>8.125364322528814</v>
       </c>
       <c r="H242" t="n">
-        <v>2.9</v>
+        <v>3.62</v>
       </c>
       <c r="I242" t="n">
-        <v>91532</v>
+        <v>90766</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570573</v>
+        <v>570433</v>
       </c>
       <c r="F243" t="n">
-        <v>546.3610081196277</v>
+        <v>571.1981808284244</v>
       </c>
       <c r="G243" t="n">
-        <v>32.11644734233863</v>
+        <v>97.7501333768061</v>
       </c>
       <c r="H243" t="n">
         <v>2.08</v>
       </c>
       <c r="I243" t="n">
-        <v>932.9</v>
+        <v>932.7</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5800272</v>
+        <v>6408778</v>
       </c>
       <c r="E244" t="n">
-        <v>36250037</v>
+        <v>40053030</v>
       </c>
       <c r="F244" t="n">
-        <v>705.8514323039174</v>
+        <v>445.7316253367152</v>
       </c>
       <c r="G244" t="n">
-        <v>551.0560831231137</v>
+        <v>1702.450385397764</v>
       </c>
       <c r="H244" t="n">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="I244" t="n">
-        <v>408388</v>
+        <v>430855</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5146245</v>
+        <v>5152349</v>
       </c>
       <c r="E245" t="n">
-        <v>19163563</v>
+        <v>19186292</v>
       </c>
       <c r="F245" t="n">
-        <v>6831.738967210788</v>
+        <v>6826.272403784874</v>
       </c>
       <c r="G245" t="n">
-        <v>6177.999810680471</v>
+        <v>6322.562477531911</v>
       </c>
       <c r="H245" t="n">
         <v>0.52</v>
       </c>
       <c r="I245" t="n">
-        <v>61898</v>
+        <v>62298</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3799533</v>
+        <v>3703654</v>
       </c>
       <c r="F246" t="n">
-        <v>51.00004060347545</v>
+        <v>142.6957001392003</v>
       </c>
       <c r="G246" t="n">
-        <v>2308.891321621434</v>
+        <v>1333.933610023497</v>
       </c>
       <c r="H246" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="I246" t="n">
-        <v>5387.13</v>
+        <v>7810.44</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31554678</v>
+        <v>31592539</v>
       </c>
       <c r="E247" t="n">
-        <v>113103333</v>
+        <v>113239042</v>
       </c>
       <c r="F247" t="n">
-        <v>29.74224256173174</v>
+        <v>29.74164428234181</v>
       </c>
       <c r="G247" t="n">
-        <v>2081.860942310421</v>
+        <v>2078.38162336712</v>
       </c>
       <c r="H247" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="I247" t="n">
-        <v>92582</v>
+        <v>91263</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1521606</v>
+        <v>1570105</v>
       </c>
       <c r="F248" t="n">
-        <v>1.126386971513155</v>
+        <v>273.9247230335998</v>
       </c>
       <c r="G248" t="n">
-        <v>99.39239300763546</v>
+        <v>8.753003642503172</v>
       </c>
       <c r="H248" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="I248" t="n">
-        <v>608300</v>
+        <v>603046</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2229347</v>
+        <v>2221579</v>
       </c>
       <c r="E249" t="n">
-        <v>17147507</v>
+        <v>17087756</v>
       </c>
       <c r="F249" t="n">
-        <v>4767.924045461599</v>
+        <v>4743.917049325632</v>
       </c>
       <c r="G249" t="n">
-        <v>5801.751026760736</v>
+        <v>5383.485437976925</v>
       </c>
       <c r="H249" t="n">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="I249" t="n">
-        <v>174329</v>
+        <v>174635</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103770</v>
+        <v>103776</v>
       </c>
       <c r="E250" t="n">
-        <v>824249</v>
+        <v>824296</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2962437928759</v>
+        <v>158.293059588458</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5922046023586</v>
+        <v>359.5849712337131</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1398.03</v>
+        <v>1318.44</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88664970</v>
+        <v>88664052</v>
       </c>
       <c r="E251" t="n">
-        <v>327758933</v>
+        <v>327754281</v>
       </c>
       <c r="F251" t="n">
-        <v>4936.447356831666</v>
+        <v>5165.939955681186</v>
       </c>
       <c r="G251" t="n">
-        <v>2313.641719876315</v>
+        <v>991.3080198622638</v>
       </c>
       <c r="H251" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="I251" t="n">
-        <v>258711</v>
+        <v>240875</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2318021</v>
+        <v>2300741</v>
       </c>
       <c r="E252" t="n">
-        <v>9301139</v>
+        <v>9231799</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.71</v>
+        <v>6.25</v>
       </c>
       <c r="I252" t="n">
-        <v>40834</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>590286</v>
+        <v>590163</v>
       </c>
       <c r="F253" t="n">
-        <v>4.173051851514397</v>
+        <v>3.142764824289172</v>
       </c>
       <c r="G253" t="n">
-        <v>27.01317692640669</v>
+        <v>29.70019621517808</v>
       </c>
       <c r="H253" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="I253" t="n">
-        <v>3103.74</v>
+        <v>3402.45</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39612</v>
+        <v>39601</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>100.1538832119659</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1.292398726420244</v>
       </c>
       <c r="H254" t="n">
-        <v>5.6</v>
+        <v>3.89</v>
       </c>
       <c r="I254" t="n">
-        <v>4239.68</v>
+        <v>4239.05</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>730481409</v>
+        <v>752874274</v>
       </c>
       <c r="E255" t="n">
-        <v>1126466828</v>
+        <v>1160998603</v>
       </c>
       <c r="F255" t="n">
-        <v>209689.520315523</v>
+        <v>158180.5342898517</v>
       </c>
       <c r="G255" t="n">
-        <v>210025.2705662426</v>
+        <v>196868.1506133803</v>
       </c>
       <c r="H255" t="n">
         <v>0.04</v>
       </c>
       <c r="I255" t="n">
-        <v>181049663</v>
+        <v>220122138</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5783294</v>
+        <v>5767082</v>
       </c>
       <c r="E256" t="n">
-        <v>5783294</v>
+        <v>5767082</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.77</v>
+        <v>9.09</v>
       </c>
       <c r="I256" t="n">
-        <v>658.58</v>
+        <v>629.71</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39802309</v>
+        <v>39544264</v>
       </c>
       <c r="E257" t="n">
-        <v>189825236</v>
+        <v>188594568</v>
       </c>
       <c r="F257" t="n">
-        <v>991.3435641255564</v>
+        <v>986.8264475651791</v>
       </c>
       <c r="G257" t="n">
-        <v>119.1899298265058</v>
+        <v>366.5613880563243</v>
       </c>
       <c r="H257" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I257" t="n">
-        <v>293489</v>
+        <v>422272</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>590895</v>
+        <v>568652</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>10.5</v>
       </c>
       <c r="I258" t="n">
-        <v>450.86</v>
+        <v>453.41</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23569203</v>
+        <v>23509841</v>
       </c>
       <c r="E259" t="n">
-        <v>39282004</v>
+        <v>39183067</v>
       </c>
       <c r="F259" t="n">
-        <v>6740.961143481709</v>
+        <v>5006.99899246893</v>
       </c>
       <c r="G259" t="n">
-        <v>7056.473031959785</v>
+        <v>6936.884864210171</v>
       </c>
       <c r="H259" t="n">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="I259" t="n">
-        <v>654557</v>
+        <v>506675</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110331</v>
+        <v>110057</v>
       </c>
       <c r="F260" t="n">
-        <v>129.8716975008785</v>
+        <v>114.4106684302257</v>
       </c>
       <c r="G260" t="n">
-        <v>59.69594931940411</v>
+        <v>88.3973020923839</v>
       </c>
       <c r="H260" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="I260" t="n">
-        <v>49756</v>
+        <v>49922</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1180126</v>
+        <v>2916899</v>
       </c>
       <c r="E261" t="n">
-        <v>5039818</v>
+        <v>12453524</v>
       </c>
       <c r="F261" t="n">
-        <v>79.91986936605036</v>
+        <v>73.52766703032425</v>
       </c>
       <c r="G261" t="n">
-        <v>19.59179615191865</v>
+        <v>4.09655803578219</v>
       </c>
       <c r="H261" t="n">
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
       <c r="I261" t="n">
-        <v>64186</v>
+        <v>232501</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3821316</v>
+        <v>3830931</v>
       </c>
       <c r="E262" t="n">
-        <v>8338061</v>
+        <v>8359043</v>
       </c>
       <c r="F262" t="n">
-        <v>1021.048571776531</v>
+        <v>1117.727899346778</v>
       </c>
       <c r="G262" t="n">
-        <v>1648.5740506346</v>
+        <v>1674.658418443108</v>
       </c>
       <c r="H262" t="n">
         <v>0.36</v>
       </c>
       <c r="I262" t="n">
-        <v>1494167</v>
+        <v>1593866</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>496975364</v>
+        <v>495750647</v>
       </c>
       <c r="E263" t="n">
-        <v>1729929883</v>
+        <v>1725666745</v>
       </c>
       <c r="F263" t="n">
-        <v>544698.315377858</v>
+        <v>723727.7012905956</v>
       </c>
       <c r="G263" t="n">
-        <v>781902.2641749624</v>
+        <v>607346.0717367668</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>30461622</v>
+        <v>30271680</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5751521860</v>
+        <v>5766181421</v>
       </c>
       <c r="E264" t="n">
-        <v>5751521860</v>
+        <v>5766181421</v>
       </c>
       <c r="F264" t="n">
-        <v>3394.383174829299</v>
+        <v>3182.06953227587</v>
       </c>
       <c r="G264" t="n">
-        <v>1986.990085353742</v>
+        <v>1871.845305751712</v>
       </c>
       <c r="H264" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I264" t="n">
-        <v>11168071</v>
+        <v>10241788</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24077292</v>
+        <v>24047297</v>
       </c>
       <c r="E265" t="n">
-        <v>24056378</v>
+        <v>24026408</v>
       </c>
       <c r="F265" t="n">
-        <v>220.0019020667986</v>
+        <v>319.9067167629528</v>
       </c>
       <c r="G265" t="n">
-        <v>39.60063041652099</v>
+        <v>91.20594851673863</v>
       </c>
       <c r="H265" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="I265" t="n">
-        <v>84801</v>
+        <v>84491</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12242244</v>
+        <v>12246755</v>
       </c>
       <c r="E266" t="n">
-        <v>24760169</v>
+        <v>24766965</v>
       </c>
       <c r="F266" t="n">
-        <v>724.7425147475592</v>
+        <v>719.8761547608927</v>
       </c>
       <c r="G266" t="n">
-        <v>690.0862723455459</v>
+        <v>689.4631283793192</v>
       </c>
       <c r="H266" t="n">
         <v>1.48</v>
       </c>
       <c r="I266" t="n">
-        <v>40874</v>
+        <v>40918</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>151986</v>
+        <v>153359</v>
       </c>
       <c r="F267" t="n">
-        <v>184.6012444427691</v>
+        <v>182.5714467799561</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1476125967619</v>
+        <v>132.1449543845279</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>57248</v>
+        <v>58595</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47215</v>
+        <v>47201</v>
       </c>
       <c r="F268" t="n">
-        <v>61.22503919610574</v>
+        <v>60.41763319942324</v>
       </c>
       <c r="G268" t="n">
-        <v>121.4593608818551</v>
+        <v>51.11501417479712</v>
       </c>
       <c r="H268" t="n">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="I268" t="n">
-        <v>71593</v>
+        <v>71530</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2638051</v>
+        <v>2631093</v>
       </c>
       <c r="E269" t="n">
-        <v>10552204</v>
+        <v>10524372</v>
       </c>
       <c r="F269" t="n">
-        <v>52216.67791650108</v>
+        <v>54000.80944817665</v>
       </c>
       <c r="G269" t="n">
-        <v>58607.34371422016</v>
+        <v>44473.27796630496</v>
       </c>
       <c r="H269" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I269" t="n">
-        <v>6919862</v>
+        <v>6858163</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>220208217</v>
+        <v>226763653</v>
       </c>
       <c r="E270" t="n">
-        <v>677057396</v>
+        <v>697212897</v>
       </c>
       <c r="F270" t="n">
-        <v>225873.1939368677</v>
+        <v>200369.2477018207</v>
       </c>
       <c r="G270" t="n">
-        <v>283115.3277424934</v>
+        <v>254192.2370985101</v>
       </c>
       <c r="H270" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>12429472</v>
+        <v>14609203</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>150559844</v>
+        <v>151842455</v>
       </c>
       <c r="E271" t="n">
-        <v>393333417</v>
+        <v>396684201</v>
       </c>
       <c r="F271" t="n">
-        <v>64116.99019505302</v>
+        <v>54273.13771049415</v>
       </c>
       <c r="G271" t="n">
-        <v>66030.90950383816</v>
+        <v>62032.59167517648</v>
       </c>
       <c r="H271" t="n">
         <v>0.3</v>
       </c>
       <c r="I271" t="n">
-        <v>7255109</v>
+        <v>7427956</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2444166</v>
+        <v>2454135</v>
       </c>
       <c r="E272" t="n">
-        <v>3354351</v>
+        <v>3368312</v>
       </c>
       <c r="F272" t="n">
-        <v>125.177719786604</v>
+        <v>59.56394810925386</v>
       </c>
       <c r="G272" t="n">
-        <v>105.0836632108021</v>
+        <v>289.5843850628076</v>
       </c>
       <c r="H272" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I272" t="n">
-        <v>1044593</v>
+        <v>1041042</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54607</v>
+        <v>54613</v>
       </c>
       <c r="F2" t="n">
-        <v>10.61911333401308</v>
+        <v>2.769400651243066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2819013765420138</v>
+        <v>0.2819013691929412</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>972.26</v>
+        <v>987.95</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91307</v>
+        <v>91303</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49933998600055</v>
+        <v>22.4993393994576</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1766899255654</v>
+        <v>416.1766790761136</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1410.96</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>606479180</v>
+        <v>609086848</v>
       </c>
       <c r="E4" t="n">
-        <v>1176839564</v>
+        <v>1181900015</v>
       </c>
       <c r="F4" t="n">
-        <v>38487.38035427299</v>
+        <v>22703.01491401585</v>
       </c>
       <c r="G4" t="n">
-        <v>49956.21014715936</v>
+        <v>25001.31587059177</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="I4" t="n">
-        <v>19409538</v>
+        <v>18817844</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1305323</v>
+        <v>1354640</v>
       </c>
       <c r="E5" t="n">
-        <v>4219340</v>
+        <v>4378751</v>
       </c>
       <c r="F5" t="n">
-        <v>5549.556908964375</v>
+        <v>1044.410707689133</v>
       </c>
       <c r="G5" t="n">
-        <v>8024.235199524505</v>
+        <v>4826.008231988647</v>
       </c>
       <c r="H5" t="n">
-        <v>0.47</v>
+        <v>1.58</v>
       </c>
       <c r="I5" t="n">
-        <v>113234</v>
+        <v>126669</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>146458886</v>
+        <v>146979466</v>
       </c>
       <c r="E6" t="n">
-        <v>162299334</v>
+        <v>162876218</v>
       </c>
       <c r="F6" t="n">
-        <v>218499.0781515024</v>
+        <v>61816.47148622676</v>
       </c>
       <c r="G6" t="n">
-        <v>329170.9814622168</v>
+        <v>287151.3060163887</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I6" t="n">
-        <v>37189561</v>
+        <v>37450472</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3821.51</v>
+        <v>3822.35</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>33.97</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8343056</v>
+        <v>8466513</v>
       </c>
       <c r="E8" t="n">
-        <v>8553437</v>
+        <v>8680007</v>
       </c>
       <c r="F8" t="n">
-        <v>184.5437344061608</v>
+        <v>221.4855195756232</v>
       </c>
       <c r="G8" t="n">
-        <v>4200.075704637627</v>
+        <v>4405.108945238707</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="I8" t="n">
-        <v>87537</v>
+        <v>87739</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>306663</v>
+        <v>285513</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.85</v>
       </c>
       <c r="I9" t="n">
-        <v>427.56</v>
+        <v>436.29</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5000019</v>
+        <v>4991201</v>
       </c>
       <c r="E10" t="n">
-        <v>7988528</v>
+        <v>7974439</v>
       </c>
       <c r="F10" t="n">
-        <v>247.3841323957824</v>
+        <v>312.1909375191489</v>
       </c>
       <c r="G10" t="n">
-        <v>245.7755710358799</v>
+        <v>212.4118639455715</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>98837</v>
+        <v>98415</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1003466</v>
+        <v>1000998</v>
       </c>
       <c r="E11" t="n">
-        <v>12279723</v>
+        <v>12249517</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.007872707737</v>
+        <v>1444.809931133828</v>
       </c>
       <c r="G11" t="n">
-        <v>1381.763683639608</v>
+        <v>1187.338789014398</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>490.73</v>
+        <v>481.23</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>585514</v>
+        <v>584495</v>
       </c>
       <c r="E12" t="n">
-        <v>585514</v>
+        <v>584495</v>
       </c>
       <c r="F12" t="n">
-        <v>13.7997901325417</v>
+        <v>78.48818821100757</v>
       </c>
       <c r="G12" t="n">
-        <v>78.7734466751664</v>
+        <v>5.000896293287855</v>
       </c>
       <c r="H12" t="n">
-        <v>2.16</v>
+        <v>3.72</v>
       </c>
       <c r="I12" t="n">
-        <v>31347</v>
+        <v>31013</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4559767</v>
+        <v>4575763</v>
       </c>
       <c r="E13" t="n">
-        <v>28007390</v>
+        <v>28105643</v>
       </c>
       <c r="F13" t="n">
-        <v>267.7472653544396</v>
+        <v>241.7250283997242</v>
       </c>
       <c r="G13" t="n">
-        <v>726.8883850497903</v>
+        <v>280.0776480671969</v>
       </c>
       <c r="H13" t="n">
-        <v>1.36</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>645134</v>
+        <v>655983</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198332</v>
+        <v>198287</v>
       </c>
       <c r="E14" t="n">
-        <v>2181874</v>
+        <v>2181375</v>
       </c>
       <c r="F14" t="n">
-        <v>53.28157357095806</v>
+        <v>45.03670496818128</v>
       </c>
       <c r="G14" t="n">
-        <v>842.4497308294519</v>
+        <v>926.2433560622227</v>
       </c>
       <c r="H14" t="n">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>27364</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3356769</v>
+        <v>3355397</v>
       </c>
       <c r="E15" t="n">
-        <v>9549710</v>
+        <v>9545808</v>
       </c>
       <c r="F15" t="n">
-        <v>1259.162028451773</v>
+        <v>168.024422681112</v>
       </c>
       <c r="G15" t="n">
-        <v>369.9589971484107</v>
+        <v>173.6474573329354</v>
       </c>
       <c r="H15" t="n">
-        <v>1.67</v>
+        <v>0.63</v>
       </c>
       <c r="I15" t="n">
-        <v>110727</v>
+        <v>108084</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315128</v>
+        <v>315268</v>
       </c>
       <c r="E16" t="n">
-        <v>3636948</v>
+        <v>3638568</v>
       </c>
       <c r="F16" t="n">
-        <v>142.1027392353598</v>
+        <v>141.4860951611213</v>
       </c>
       <c r="G16" t="n">
-        <v>130.781443928403</v>
+        <v>130.7159415807377</v>
       </c>
       <c r="H16" t="n">
         <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>3405.94</v>
+        <v>3397.73</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>927694</v>
+        <v>923536</v>
       </c>
       <c r="F17" t="n">
-        <v>76.70616570309087</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>40.73277054976467</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.08</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>11227.86</v>
+        <v>11104.83</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23233605</v>
+        <v>23181540</v>
       </c>
       <c r="E18" t="n">
-        <v>23276743</v>
+        <v>23224581</v>
       </c>
       <c r="F18" t="n">
-        <v>2249.185997686846</v>
+        <v>1806.208995094092</v>
       </c>
       <c r="G18" t="n">
-        <v>1185.211685867604</v>
+        <v>1504.043956974499</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
       <c r="I18" t="n">
-        <v>859924</v>
+        <v>857547</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7224402</v>
+        <v>7204014</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.4266951060857442</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.49925609775785</v>
       </c>
       <c r="H19" t="n">
-        <v>6.68</v>
+        <v>2.83</v>
       </c>
       <c r="I19" t="n">
-        <v>13995.62</v>
+        <v>14496.78</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2441742</v>
+        <v>2446083</v>
       </c>
       <c r="E20" t="n">
-        <v>2441742</v>
+        <v>2446083</v>
       </c>
       <c r="F20" t="n">
-        <v>1.453608923197393</v>
+        <v>84.72205520535506</v>
       </c>
       <c r="G20" t="n">
-        <v>415.722881979073</v>
+        <v>351.4190043928974</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="I20" t="n">
-        <v>322275</v>
+        <v>318629</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>404085</v>
+        <v>404097</v>
       </c>
       <c r="F21" t="n">
-        <v>86.43073140757109</v>
+        <v>118.2488396756556</v>
       </c>
       <c r="G21" t="n">
-        <v>28.17910394390168</v>
+        <v>1.637324659836277</v>
       </c>
       <c r="H21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I21" t="n">
-        <v>1752.03</v>
+        <v>1751.87</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17379209</v>
+        <v>17518771</v>
       </c>
       <c r="E22" t="n">
-        <v>22368469</v>
+        <v>22548096</v>
       </c>
       <c r="F22" t="n">
-        <v>2730.284827633163</v>
+        <v>2212.009327250029</v>
       </c>
       <c r="G22" t="n">
-        <v>4590.938306309138</v>
+        <v>5251.101714303129</v>
       </c>
       <c r="H22" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I22" t="n">
-        <v>1668398</v>
+        <v>1653111</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>472793281</v>
+        <v>478286193</v>
       </c>
       <c r="E23" t="n">
-        <v>472793284</v>
+        <v>478286198</v>
       </c>
       <c r="F23" t="n">
-        <v>51207.08068688684</v>
+        <v>13362.74943275031</v>
       </c>
       <c r="G23" t="n">
-        <v>70238.10859871327</v>
+        <v>40893.18727814544</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
       <c r="I23" t="n">
-        <v>70359337</v>
+        <v>82750812</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22839</v>
+        <v>23580</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.14</v>
+        <v>4.95</v>
       </c>
       <c r="I24" t="n">
-        <v>2299.94</v>
+        <v>2312.46</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4729653</v>
+        <v>4722258</v>
       </c>
       <c r="E25" t="n">
-        <v>4729653</v>
+        <v>4722258</v>
       </c>
       <c r="F25" t="n">
-        <v>452.0092362257182</v>
+        <v>523.7045996559576</v>
       </c>
       <c r="G25" t="n">
-        <v>1411.841824424122</v>
+        <v>766.4849529642</v>
       </c>
       <c r="H25" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I25" t="n">
-        <v>2021893</v>
+        <v>2008532</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3415088</v>
+        <v>3392759</v>
       </c>
       <c r="E26" t="n">
-        <v>3415088</v>
+        <v>3392759</v>
       </c>
       <c r="F26" t="n">
-        <v>102.3673660583247</v>
+        <v>10.89283183530841</v>
       </c>
       <c r="G26" t="n">
-        <v>640.2520464721243</v>
+        <v>318.1670156639273</v>
       </c>
       <c r="H26" t="n">
-        <v>2.19</v>
+        <v>2.51</v>
       </c>
       <c r="I26" t="n">
-        <v>515877</v>
+        <v>515824</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>311526</v>
+        <v>315036</v>
       </c>
       <c r="E27" t="n">
-        <v>1454236</v>
+        <v>1470618</v>
       </c>
       <c r="F27" t="n">
-        <v>1269.206831007614</v>
+        <v>408.7676329001375</v>
       </c>
       <c r="G27" t="n">
-        <v>484.6690014932699</v>
+        <v>257.6982824499298</v>
       </c>
       <c r="H27" t="n">
-        <v>2.21</v>
+        <v>1.15</v>
       </c>
       <c r="I27" t="n">
-        <v>698331</v>
+        <v>706946</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1517802</v>
+        <v>1511779</v>
       </c>
       <c r="F28" t="n">
-        <v>554.6136859760212</v>
+        <v>440.8492061023571</v>
       </c>
       <c r="G28" t="n">
-        <v>237.0706581410187</v>
+        <v>305.653649428273</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>284076</v>
+        <v>290909</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12768925</v>
+        <v>12802439</v>
       </c>
       <c r="E29" t="n">
-        <v>31779546</v>
+        <v>31862955</v>
       </c>
       <c r="F29" t="n">
-        <v>697.2242544602919</v>
+        <v>800.9486563620785</v>
       </c>
       <c r="G29" t="n">
-        <v>1330.570818207794</v>
+        <v>971.6995167656115</v>
       </c>
       <c r="H29" t="n">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="I29" t="n">
-        <v>1246262</v>
+        <v>1242978</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>929801</v>
+        <v>936613</v>
       </c>
       <c r="E30" t="n">
-        <v>6508605</v>
+        <v>6556293</v>
       </c>
       <c r="F30" t="n">
-        <v>206.4599489375139</v>
+        <v>96.33083378911878</v>
       </c>
       <c r="G30" t="n">
-        <v>91.91879090490482</v>
+        <v>13.33821634303276</v>
       </c>
       <c r="H30" t="n">
-        <v>1.14</v>
+        <v>2.61</v>
       </c>
       <c r="I30" t="n">
-        <v>222426</v>
+        <v>250992</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>189809</v>
+        <v>190198</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>1152.78</v>
+        <v>1155.43</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5616380</v>
+        <v>5609918</v>
       </c>
       <c r="E32" t="n">
-        <v>5885068</v>
+        <v>5878296</v>
       </c>
       <c r="F32" t="n">
-        <v>238.4234996964696</v>
+        <v>151.528939208258</v>
       </c>
       <c r="G32" t="n">
-        <v>245.2250552803642</v>
+        <v>73.29450001640978</v>
       </c>
       <c r="H32" t="n">
-        <v>2.11</v>
+        <v>2.51</v>
       </c>
       <c r="I32" t="n">
-        <v>150998</v>
+        <v>173135</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5152469</v>
+        <v>5156616</v>
       </c>
       <c r="E33" t="n">
-        <v>7584714</v>
+        <v>7590819</v>
       </c>
       <c r="F33" t="n">
-        <v>75.54514479282183</v>
+        <v>75.96486647434237</v>
       </c>
       <c r="G33" t="n">
-        <v>113.474866866799</v>
+        <v>109.3052066653196</v>
       </c>
       <c r="H33" t="n">
-        <v>2.81</v>
+        <v>3.27</v>
       </c>
       <c r="I33" t="n">
-        <v>645591</v>
+        <v>646469</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7685035</v>
+        <v>7690156</v>
       </c>
       <c r="E34" t="n">
-        <v>7685035</v>
+        <v>7690156</v>
       </c>
       <c r="F34" t="n">
-        <v>32034.35390426978</v>
+        <v>31608.33856965554</v>
       </c>
       <c r="G34" t="n">
-        <v>32810.06557680508</v>
+        <v>31604.16862779208</v>
       </c>
       <c r="H34" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="I34" t="n">
-        <v>332344</v>
+        <v>332358</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1457258</v>
+        <v>1450368</v>
       </c>
       <c r="E35" t="n">
-        <v>1457258</v>
+        <v>1450368</v>
       </c>
       <c r="F35" t="n">
-        <v>407.4121790758398</v>
+        <v>502.8146597948762</v>
       </c>
       <c r="G35" t="n">
-        <v>99.18125464574051</v>
+        <v>100.3381180124803</v>
       </c>
       <c r="H35" t="n">
-        <v>1.96</v>
+        <v>0.73</v>
       </c>
       <c r="I35" t="n">
-        <v>285334</v>
+        <v>277441</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15843405</v>
+        <v>15845388</v>
       </c>
       <c r="F36" t="n">
-        <v>169.0720345051245</v>
+        <v>48.29049352653796</v>
       </c>
       <c r="G36" t="n">
-        <v>228.3974923929977</v>
+        <v>7.252713778462337</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7</v>
+        <v>1.39</v>
       </c>
       <c r="I36" t="n">
-        <v>11457.85</v>
+        <v>11959.96</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58233</v>
+        <v>58246</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302797734961783</v>
+        <v>1.302797700998291</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005460995266700002</v>
+        <v>0.005460995124333722</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>606.3</v>
+        <v>602.72</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>138504236</v>
+        <v>139801911</v>
       </c>
       <c r="E38" t="n">
-        <v>138504236</v>
+        <v>139801911</v>
       </c>
       <c r="F38" t="n">
-        <v>329378.752590339</v>
+        <v>115678.6425467737</v>
       </c>
       <c r="G38" t="n">
-        <v>334657.5584076386</v>
+        <v>505723.9655643286</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="n">
-        <v>64382205</v>
+        <v>68105069</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>66502184</v>
+        <v>66663090</v>
       </c>
       <c r="E39" t="n">
-        <v>341036841</v>
+        <v>341862002</v>
       </c>
       <c r="F39" t="n">
-        <v>88541.83480279813</v>
+        <v>37357.22733910859</v>
       </c>
       <c r="G39" t="n">
-        <v>98106.65701257472</v>
+        <v>60260.34178205948</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
       <c r="I39" t="n">
-        <v>21676673</v>
+        <v>22065382</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46394</v>
+        <v>46399</v>
       </c>
       <c r="E40" t="n">
-        <v>137103</v>
+        <v>137116</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.19</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I40" t="n">
         <v>157.53</v>
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>52479</v>
+        <v>52681</v>
       </c>
       <c r="F41" t="n">
-        <v>3.589562631745749</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.835376836517227</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.11</v>
+        <v>6.06</v>
       </c>
       <c r="I41" t="n">
-        <v>25792</v>
+        <v>25151</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>593990</v>
+        <v>594194</v>
       </c>
       <c r="F42" t="n">
-        <v>2141.788603555659</v>
+        <v>2143.671932458487</v>
       </c>
       <c r="G42" t="n">
-        <v>15.46158525174121</v>
+        <v>356.3624997975477</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="I42" t="n">
-        <v>1055.13</v>
+        <v>1083.79</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2677608</v>
+        <v>2680551</v>
       </c>
       <c r="E44" t="n">
-        <v>10760697</v>
+        <v>10772523</v>
       </c>
       <c r="F44" t="n">
-        <v>275.5255352416529</v>
+        <v>214.7257881904513</v>
       </c>
       <c r="G44" t="n">
-        <v>149.5315493961048</v>
+        <v>114.0336896742303</v>
       </c>
       <c r="H44" t="n">
         <v>0.91</v>
       </c>
       <c r="I44" t="n">
-        <v>34044</v>
+        <v>33978</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17538866</v>
+        <v>17577558</v>
       </c>
       <c r="E45" t="n">
-        <v>123617765</v>
+        <v>123889246</v>
       </c>
       <c r="F45" t="n">
-        <v>418.4070239328126</v>
+        <v>126.9866749588853</v>
       </c>
       <c r="G45" t="n">
-        <v>268.0676325825023</v>
+        <v>62.79010017273308</v>
       </c>
       <c r="H45" t="n">
         <v>0.76</v>
       </c>
       <c r="I45" t="n">
-        <v>1047398</v>
+        <v>1054125</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>149852</v>
+        <v>149051</v>
       </c>
       <c r="E46" t="n">
-        <v>2005110</v>
+        <v>1994392</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>44884</v>
+        <v>44263</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>257752601</v>
+        <v>257917660</v>
       </c>
       <c r="E47" t="n">
-        <v>257752601</v>
+        <v>257917660</v>
       </c>
       <c r="F47" t="n">
-        <v>111173.5507178443</v>
+        <v>36617.233286438</v>
       </c>
       <c r="G47" t="n">
-        <v>186385.8969356598</v>
+        <v>98303.23645570719</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="I47" t="n">
-        <v>14460912</v>
+        <v>14511837</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>639829</v>
+        <v>639483</v>
       </c>
       <c r="E48" t="n">
-        <v>639829</v>
+        <v>639483</v>
       </c>
       <c r="F48" t="n">
-        <v>449.3629069256726</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>122.2893156945363</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.18</v>
+        <v>4.01</v>
       </c>
       <c r="I48" t="n">
-        <v>3354.75</v>
+        <v>2865.55</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>442702753</v>
+        <v>445553578</v>
       </c>
       <c r="E50" t="n">
-        <v>442702753</v>
+        <v>445553578</v>
       </c>
       <c r="F50" t="n">
-        <v>4607.955566262998</v>
+        <v>2753.792436051781</v>
       </c>
       <c r="G50" t="n">
-        <v>3378.602865636984</v>
+        <v>2636.050980733728</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="I50" t="n">
-        <v>2545622</v>
+        <v>2555078</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2477247</v>
+        <v>2471585</v>
       </c>
       <c r="E51" t="n">
-        <v>2477247</v>
+        <v>2471585</v>
       </c>
       <c r="F51" t="n">
-        <v>928.2946024358588</v>
+        <v>73.76207148714987</v>
       </c>
       <c r="G51" t="n">
-        <v>23.64755099470666</v>
+        <v>23.64756662850024</v>
       </c>
       <c r="H51" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="I51" t="n">
-        <v>55098</v>
+        <v>55477</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23127</v>
+        <v>23406</v>
       </c>
       <c r="E52" t="n">
-        <v>46254</v>
+        <v>46812</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.84</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>2223.49</v>
+        <v>1872.72</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>163832</v>
+        <v>168906</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>6.98</v>
+        <v>6.77</v>
       </c>
       <c r="I53" t="n">
-        <v>24915</v>
+        <v>24093</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2556352</v>
+        <v>2557812</v>
       </c>
       <c r="E54" t="n">
-        <v>6535534</v>
+        <v>6539268</v>
       </c>
       <c r="F54" t="n">
-        <v>209.8408231064527</v>
+        <v>236.0755820350531</v>
       </c>
       <c r="G54" t="n">
-        <v>222.1755673145511</v>
+        <v>95.42821361006618</v>
       </c>
       <c r="H54" t="n">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="I54" t="n">
-        <v>111286</v>
+        <v>109631</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3550.24</v>
+        <v>3550.58</v>
       </c>
       <c r="F55" t="n">
-        <v>1.414757507611695</v>
+        <v>4.587366568250406</v>
       </c>
       <c r="G55" t="n">
-        <v>1.095990961402541</v>
+        <v>2.940515732516326</v>
       </c>
       <c r="H55" t="n">
-        <v>3.83</v>
+        <v>0.51</v>
       </c>
       <c r="I55" t="n">
-        <v>334.28</v>
+        <v>334.42</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74668884</v>
+        <v>74733078</v>
       </c>
       <c r="E56" t="n">
-        <v>74668884</v>
+        <v>74733078</v>
       </c>
       <c r="F56" t="n">
-        <v>19863.95571800797</v>
+        <v>11291.20599281767</v>
       </c>
       <c r="G56" t="n">
-        <v>22655.92434890734</v>
+        <v>21125.11217207601</v>
       </c>
       <c r="H56" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>3396090</v>
+        <v>3403524</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3527103</v>
+        <v>3531896</v>
       </c>
       <c r="E57" t="n">
-        <v>4469456</v>
+        <v>4475529</v>
       </c>
       <c r="F57" t="n">
-        <v>215.4818475298211</v>
+        <v>523.3867606250604</v>
       </c>
       <c r="G57" t="n">
-        <v>325.7017093781569</v>
+        <v>70.99847522560586</v>
       </c>
       <c r="H57" t="n">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="I57" t="n">
-        <v>252851</v>
+        <v>252362</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4110567</v>
+        <v>4108986</v>
       </c>
       <c r="E58" t="n">
-        <v>8106383</v>
+        <v>8103266</v>
       </c>
       <c r="F58" t="n">
-        <v>2718.839635269823</v>
+        <v>2041.751790663317</v>
       </c>
       <c r="G58" t="n">
-        <v>17105.52801041372</v>
+        <v>16431.1959494301</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="I58" t="n">
-        <v>1650346</v>
+        <v>1648690</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1610685</v>
+        <v>1613899</v>
       </c>
       <c r="E59" t="n">
-        <v>9247951</v>
+        <v>9266403</v>
       </c>
       <c r="F59" t="n">
-        <v>246.7437210292342</v>
+        <v>184.9526759149998</v>
       </c>
       <c r="G59" t="n">
-        <v>364.4564511051742</v>
+        <v>317.6452928934199</v>
       </c>
       <c r="H59" t="n">
-        <v>1.44</v>
+        <v>0.91</v>
       </c>
       <c r="I59" t="n">
-        <v>279934</v>
+        <v>279536</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>565031</v>
+        <v>552071</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1654.12</v>
+        <v>1686.97</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31210838</v>
+        <v>31260149</v>
       </c>
       <c r="F61" t="n">
-        <v>681.8554156120973</v>
+        <v>731.1999984829247</v>
       </c>
       <c r="G61" t="n">
-        <v>973.7306480537576</v>
+        <v>1281.923500918215</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="I61" t="n">
-        <v>245954</v>
+        <v>245755</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1432156</v>
+        <v>1429269</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>8.35</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>28527</v>
+        <v>28429</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7646119</v>
+        <v>7636252</v>
       </c>
       <c r="E63" t="n">
-        <v>18008130</v>
+        <v>17984893</v>
       </c>
       <c r="F63" t="n">
-        <v>1096.906979137465</v>
+        <v>1210.653322522158</v>
       </c>
       <c r="G63" t="n">
-        <v>2387.528280637667</v>
+        <v>2371.636853816644</v>
       </c>
       <c r="H63" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I63" t="n">
-        <v>21533</v>
+        <v>30021</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2970756</v>
+        <v>2997453</v>
       </c>
       <c r="E64" t="n">
-        <v>2970756</v>
+        <v>2997453</v>
       </c>
       <c r="F64" t="n">
-        <v>15.17906664681688</v>
+        <v>11.76867322461957</v>
       </c>
       <c r="G64" t="n">
-        <v>178.3114444300718</v>
+        <v>124.4551702779958</v>
       </c>
       <c r="H64" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="I64" t="n">
-        <v>19465.7</v>
+        <v>19956.23</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3368316</v>
+        <v>3375884</v>
       </c>
       <c r="E65" t="n">
-        <v>8311148</v>
+        <v>8329823</v>
       </c>
       <c r="F65" t="n">
-        <v>610.5499519784888</v>
+        <v>366.4856024696182</v>
       </c>
       <c r="G65" t="n">
-        <v>1049.159570554912</v>
+        <v>701.9587103186541</v>
       </c>
       <c r="H65" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="I65" t="n">
-        <v>41814</v>
+        <v>40638</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>265753</v>
+        <v>265787</v>
       </c>
       <c r="F66" t="n">
-        <v>6.502667443783083</v>
+        <v>87.57595864081679</v>
       </c>
       <c r="G66" t="n">
-        <v>63.24983172894519</v>
+        <v>41.18601447998723</v>
       </c>
       <c r="H66" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="I66" t="n">
-        <v>1621.19</v>
+        <v>1696.87</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>76673664</v>
+        <v>78255538</v>
       </c>
       <c r="E67" t="n">
-        <v>159903527</v>
+        <v>163202537</v>
       </c>
       <c r="F67" t="n">
-        <v>64817.63274740525</v>
+        <v>11270.79413367391</v>
       </c>
       <c r="G67" t="n">
-        <v>101346.1907748302</v>
+        <v>49490.96318126578</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>16591297</v>
+        <v>17518952</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1870041</v>
+        <v>1870449</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>49.1604347106783</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>8.001457857595375</v>
       </c>
       <c r="H68" t="n">
-        <v>5.05</v>
+        <v>1.02</v>
       </c>
       <c r="I68" t="n">
-        <v>4871.24</v>
+        <v>4523.23</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199743875</v>
+        <v>199211089</v>
       </c>
       <c r="F69" t="n">
-        <v>6877.244702252364</v>
+        <v>2768.664576612609</v>
       </c>
       <c r="G69" t="n">
-        <v>1248.865499561701</v>
+        <v>2958.009219949446</v>
       </c>
       <c r="H69" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I69" t="n">
-        <v>3812144</v>
+        <v>2068266</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179558</v>
+        <v>179554</v>
       </c>
       <c r="E70" t="n">
-        <v>187509</v>
+        <v>187506</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>6.7</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>330.13</v>
+        <v>330.27</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144350816</v>
+        <v>144913105</v>
       </c>
       <c r="E71" t="n">
-        <v>144399352</v>
+        <v>144961830</v>
       </c>
       <c r="F71" t="n">
-        <v>33706.01828456296</v>
+        <v>19508.74162038365</v>
       </c>
       <c r="G71" t="n">
-        <v>47041.96290562287</v>
+        <v>41848.22455195033</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I71" t="n">
-        <v>2582594</v>
+        <v>2593327</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26248940</v>
+        <v>26186526</v>
       </c>
       <c r="E72" t="n">
-        <v>86144004</v>
+        <v>85939174</v>
       </c>
       <c r="F72" t="n">
-        <v>21167.7841293052</v>
+        <v>9534.40026448382</v>
       </c>
       <c r="G72" t="n">
-        <v>30377.13874332013</v>
+        <v>31531.92450417943</v>
       </c>
       <c r="H72" t="n">
         <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>114581</v>
+        <v>115230</v>
       </c>
     </row>
     <row r="73">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>116604</v>
+        <v>116620</v>
       </c>
       <c r="E73" t="n">
-        <v>116604</v>
+        <v>116620</v>
       </c>
       <c r="F73" t="n">
-        <v>87.32787601080283</v>
+        <v>367.7517261877369</v>
       </c>
       <c r="G73" t="n">
-        <v>1.469545915159116</v>
+        <v>1.46954688670063</v>
       </c>
       <c r="H73" t="n">
         <v>2.11</v>
       </c>
       <c r="I73" t="n">
-        <v>428.37</v>
+        <v>428.39</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>205261517</v>
+        <v>204970917</v>
       </c>
       <c r="E74" t="n">
-        <v>713097060</v>
+        <v>712087489</v>
       </c>
       <c r="F74" t="n">
-        <v>126354.9645619253</v>
+        <v>31403.06254542882</v>
       </c>
       <c r="G74" t="n">
-        <v>174500.5804771952</v>
+        <v>163410.6596447919</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>27951268</v>
+        <v>28103476</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3714442</v>
+        <v>3601415</v>
       </c>
       <c r="E75" t="n">
-        <v>3714442</v>
+        <v>3601415</v>
       </c>
       <c r="F75" t="n">
-        <v>1034.490935013496</v>
+        <v>56.1003756144164</v>
       </c>
       <c r="G75" t="n">
-        <v>862.2463287267335</v>
+        <v>346.8670336056758</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I75" t="n">
-        <v>2643071</v>
+        <v>2622338</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116253864</v>
+        <v>116247025</v>
       </c>
       <c r="E76" t="n">
-        <v>493892302</v>
+        <v>493837458</v>
       </c>
       <c r="F76" t="n">
-        <v>170749.6577544279</v>
+        <v>38727.92415396679</v>
       </c>
       <c r="G76" t="n">
-        <v>272048.9866890819</v>
+        <v>179026.8065174769</v>
       </c>
       <c r="H76" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="I76" t="n">
-        <v>15261131</v>
+        <v>15420759</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1859262</v>
+        <v>1859878</v>
       </c>
       <c r="F77" t="n">
-        <v>36.04077913482121</v>
+        <v>36.04077819448975</v>
       </c>
       <c r="G77" t="n">
-        <v>88.23462556742308</v>
+        <v>88.23462326531428</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>611.21</v>
+        <v>611.78</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3135689</v>
+        <v>3138033</v>
       </c>
       <c r="E78" t="n">
-        <v>15721714</v>
+        <v>15733466</v>
       </c>
       <c r="F78" t="n">
-        <v>238.0189644362878</v>
+        <v>169.5734113440103</v>
       </c>
       <c r="G78" t="n">
-        <v>909.1872077533643</v>
+        <v>662.7647056306439</v>
       </c>
       <c r="H78" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I78" t="n">
-        <v>34818</v>
+        <v>33382</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>534507</v>
+        <v>510445</v>
       </c>
       <c r="E79" t="n">
-        <v>9142701</v>
+        <v>8731128</v>
       </c>
       <c r="F79" t="n">
-        <v>247.7809639541672</v>
+        <v>172.6666522067645</v>
       </c>
       <c r="G79" t="n">
-        <v>1206.325887842349</v>
+        <v>993.5122074612008</v>
       </c>
       <c r="H79" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="I79" t="n">
-        <v>167942</v>
+        <v>163159</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5697890</v>
+        <v>5823487</v>
       </c>
       <c r="E80" t="n">
-        <v>7740904</v>
+        <v>7911535</v>
       </c>
       <c r="F80" t="n">
-        <v>571.94145810467</v>
+        <v>143.0638045576263</v>
       </c>
       <c r="G80" t="n">
-        <v>1885.801013081795</v>
+        <v>161.6572063215269</v>
       </c>
       <c r="H80" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>5716108</v>
+        <v>1331636</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>41072</v>
+        <v>43691</v>
       </c>
       <c r="F81" t="n">
-        <v>187.5971064873561</v>
+        <v>149.5424307187502</v>
       </c>
       <c r="G81" t="n">
-        <v>153.8670026732931</v>
+        <v>8.956257745042754</v>
       </c>
       <c r="H81" t="n">
-        <v>1.83</v>
+        <v>0.58</v>
       </c>
       <c r="I81" t="n">
-        <v>45252</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40412301</v>
+        <v>39999724</v>
       </c>
       <c r="E82" t="n">
-        <v>47200608</v>
+        <v>46718728</v>
       </c>
       <c r="F82" t="n">
-        <v>173.1778630916638</v>
+        <v>472.0702669287062</v>
       </c>
       <c r="G82" t="n">
-        <v>427.1901372211755</v>
+        <v>4.100619231207388</v>
       </c>
       <c r="H82" t="n">
-        <v>2.59</v>
+        <v>1.45</v>
       </c>
       <c r="I82" t="n">
-        <v>884617</v>
+        <v>916845</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14679138</v>
+        <v>14674225</v>
       </c>
       <c r="F83" t="n">
-        <v>164.8122157896761</v>
+        <v>168.5940385387877</v>
       </c>
       <c r="G83" t="n">
-        <v>971.9543915313017</v>
+        <v>342.3960206998543</v>
       </c>
       <c r="H83" t="n">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="I83" t="n">
-        <v>249793</v>
+        <v>270270</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36092759</v>
+        <v>36308500</v>
       </c>
       <c r="E84" t="n">
-        <v>36092759</v>
+        <v>36308500</v>
       </c>
       <c r="F84" t="n">
-        <v>38.0249535544901</v>
+        <v>39.5086830199521</v>
       </c>
       <c r="G84" t="n">
-        <v>153.9782547832573</v>
+        <v>13.62553410922319</v>
       </c>
       <c r="H84" t="n">
-        <v>2.62</v>
+        <v>3.18</v>
       </c>
       <c r="I84" t="n">
-        <v>772146</v>
+        <v>770827</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>562466</v>
+        <v>566841</v>
       </c>
       <c r="E85" t="n">
-        <v>6822160</v>
+        <v>6875235</v>
       </c>
       <c r="F85" t="n">
-        <v>154.315283765249</v>
+        <v>198.016029651471</v>
       </c>
       <c r="G85" t="n">
-        <v>907.2874568388967</v>
+        <v>180.8952877915374</v>
       </c>
       <c r="H85" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="I85" t="n">
-        <v>2817632</v>
+        <v>2826208</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25897165</v>
+        <v>25761390</v>
       </c>
       <c r="E86" t="n">
-        <v>36604632</v>
+        <v>36412719</v>
       </c>
       <c r="F86" t="n">
-        <v>50.04663961782874</v>
+        <v>11.87693626274638</v>
       </c>
       <c r="G86" t="n">
-        <v>1255.16155489237</v>
+        <v>518.5966957604821</v>
       </c>
       <c r="H86" t="n">
-        <v>1.56</v>
+        <v>2.71</v>
       </c>
       <c r="I86" t="n">
-        <v>53768</v>
+        <v>70319</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1301325938</v>
+        <v>1311308996</v>
       </c>
       <c r="E87" t="n">
-        <v>6240124377</v>
+        <v>6287995186</v>
       </c>
       <c r="F87" t="n">
-        <v>637085.7232236172</v>
+        <v>147770.0653992658</v>
       </c>
       <c r="G87" t="n">
-        <v>905697.3616804559</v>
+        <v>495361.0301415634</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="I87" t="n">
-        <v>164572196</v>
+        <v>166399418</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>273076065</v>
+        <v>274107891</v>
       </c>
       <c r="E88" t="n">
-        <v>1178747891</v>
+        <v>1183201828</v>
       </c>
       <c r="F88" t="n">
-        <v>1166997.677123583</v>
+        <v>140355.7423447183</v>
       </c>
       <c r="G88" t="n">
-        <v>928829.6838341707</v>
+        <v>391582.6962332398</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="I88" t="n">
-        <v>97710600</v>
+        <v>98434048</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>114746593</v>
+        <v>115364498</v>
       </c>
       <c r="E89" t="n">
-        <v>114746593</v>
+        <v>115364498</v>
       </c>
       <c r="F89" t="n">
-        <v>33400.20433887678</v>
+        <v>30808.98731774908</v>
       </c>
       <c r="G89" t="n">
-        <v>35880.48561369596</v>
+        <v>31856.79631317744</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="I89" t="n">
-        <v>6121573</v>
+        <v>6108195</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3853144</v>
+        <v>3852754</v>
       </c>
       <c r="E90" t="n">
-        <v>29984699</v>
+        <v>29981667</v>
       </c>
       <c r="F90" t="n">
-        <v>11011.62889805357</v>
+        <v>7943.61392525309</v>
       </c>
       <c r="G90" t="n">
-        <v>12125.42905259658</v>
+        <v>5030.469427272396</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I90" t="n">
-        <v>6424.6</v>
+        <v>6417.68</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3763253</v>
+        <v>3795942</v>
       </c>
       <c r="F91" t="n">
-        <v>397.2721688352011</v>
+        <v>303.5319330206386</v>
       </c>
       <c r="G91" t="n">
-        <v>701.7039752760561</v>
+        <v>510.1571473421109</v>
       </c>
       <c r="H91" t="n">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="I91" t="n">
-        <v>305820</v>
+        <v>307115</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>909020</v>
+        <v>909108</v>
       </c>
       <c r="F92" t="n">
-        <v>10.34162091567694</v>
+        <v>3.462122501784255</v>
       </c>
       <c r="G92" t="n">
-        <v>66.99383899212093</v>
+        <v>3.000540780520214</v>
       </c>
       <c r="H92" t="n">
-        <v>3.61</v>
+        <v>3.11</v>
       </c>
       <c r="I92" t="n">
-        <v>34469</v>
+        <v>34272</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>126310</v>
+        <v>123435</v>
       </c>
       <c r="F93" t="n">
-        <v>80.76586620264227</v>
+        <v>55.08495255997349</v>
       </c>
       <c r="G93" t="n">
-        <v>3.080550073900745</v>
+        <v>3.020539164705621</v>
       </c>
       <c r="H93" t="n">
-        <v>3.07</v>
+        <v>2.06</v>
       </c>
       <c r="I93" t="n">
-        <v>140750</v>
+        <v>142389</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11137100</v>
+        <v>11251580</v>
       </c>
       <c r="E94" t="n">
-        <v>134445762</v>
+        <v>135827756</v>
       </c>
       <c r="F94" t="n">
-        <v>2070.527639201474</v>
+        <v>213.0741882292444</v>
       </c>
       <c r="G94" t="n">
-        <v>2836.172899048725</v>
+        <v>1180.805003001826</v>
       </c>
       <c r="H94" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="I94" t="n">
-        <v>298959</v>
+        <v>290921</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19605075</v>
+        <v>19617661</v>
       </c>
       <c r="E95" t="n">
-        <v>49012687</v>
+        <v>49044153</v>
       </c>
       <c r="F95" t="n">
-        <v>7773.211544806613</v>
+        <v>5145.615006289505</v>
       </c>
       <c r="G95" t="n">
-        <v>8228.192760959342</v>
+        <v>6396.396392527255</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>1924319</v>
+        <v>2057961</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2252740</v>
+        <v>2252978</v>
       </c>
       <c r="F96" t="n">
-        <v>183.6948091799043</v>
+        <v>183.4772909644638</v>
       </c>
       <c r="G96" t="n">
-        <v>118.0570887987413</v>
+        <v>118.0571668482678</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>57631</v>
+        <v>57510</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19835494</v>
+        <v>19819963</v>
       </c>
       <c r="F97" t="n">
-        <v>1129.620526887205</v>
+        <v>3704.061819432622</v>
       </c>
       <c r="G97" t="n">
-        <v>1348.092003823097</v>
+        <v>1382.145032985908</v>
       </c>
       <c r="H97" t="n">
         <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>57463</v>
+        <v>55870</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4197788</v>
+        <v>4234178</v>
       </c>
       <c r="E98" t="n">
-        <v>12091626</v>
+        <v>12196446</v>
       </c>
       <c r="F98" t="n">
-        <v>597.6106832860989</v>
+        <v>533.8316880414341</v>
       </c>
       <c r="G98" t="n">
-        <v>289.7955105411211</v>
+        <v>539.5046323880011</v>
       </c>
       <c r="H98" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="I98" t="n">
-        <v>649930</v>
+        <v>633298</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1589735</v>
+        <v>1596383</v>
       </c>
       <c r="F99" t="n">
-        <v>325.2403176064846</v>
+        <v>139.0983840628724</v>
       </c>
       <c r="G99" t="n">
-        <v>62.99417741158138</v>
+        <v>40.01275928474153</v>
       </c>
       <c r="H99" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="I99" t="n">
-        <v>244579</v>
+        <v>242862</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80111811</v>
+        <v>80823612</v>
       </c>
       <c r="E100" t="n">
-        <v>101948505</v>
+        <v>102854327</v>
       </c>
       <c r="F100" t="n">
-        <v>2754.227262153381</v>
+        <v>1172.863891540791</v>
       </c>
       <c r="G100" t="n">
-        <v>7288.796891800908</v>
+        <v>594.1389854779403</v>
       </c>
       <c r="H100" t="n">
-        <v>1.07</v>
+        <v>0.54</v>
       </c>
       <c r="I100" t="n">
-        <v>6211058</v>
+        <v>6233232</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22672506</v>
+        <v>22789106</v>
       </c>
       <c r="E101" t="n">
-        <v>29411427</v>
+        <v>29562684</v>
       </c>
       <c r="F101" t="n">
-        <v>6402.4853649247</v>
+        <v>2319.19172627537</v>
       </c>
       <c r="G101" t="n">
-        <v>5750.774334617513</v>
+        <v>3739.824502551517</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="I101" t="n">
-        <v>155185</v>
+        <v>151562</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1625507</v>
+        <v>1662449</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.59</v>
+        <v>11.38</v>
       </c>
       <c r="I102" t="n">
-        <v>12161.75</v>
+        <v>12549.02</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>638663</v>
+        <v>658298</v>
       </c>
       <c r="E103" t="n">
-        <v>638663</v>
+        <v>658298</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>5.53</v>
       </c>
       <c r="I103" t="n">
-        <v>80165</v>
+        <v>82841</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40705149</v>
+        <v>40513321</v>
       </c>
       <c r="E104" t="n">
-        <v>42551436</v>
+        <v>42350907</v>
       </c>
       <c r="F104" t="n">
-        <v>601.1515268722687</v>
+        <v>66.74139688379471</v>
       </c>
       <c r="G104" t="n">
-        <v>389.457015982635</v>
+        <v>322.188405457529</v>
       </c>
       <c r="H104" t="n">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="I104" t="n">
-        <v>661780</v>
+        <v>657907</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13824180</v>
+        <v>13764013</v>
       </c>
       <c r="E105" t="n">
-        <v>13824180</v>
+        <v>13764013</v>
       </c>
       <c r="F105" t="n">
-        <v>2736.829875821797</v>
+        <v>69.93423466544219</v>
       </c>
       <c r="G105" t="n">
-        <v>3894.14510455204</v>
+        <v>971.9970639655414</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1</v>
+        <v>1.08</v>
       </c>
       <c r="I105" t="n">
-        <v>4870405</v>
+        <v>4874665</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1191646</v>
+        <v>1191708</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="I106" t="n">
-        <v>4906.21</v>
+        <v>4858.09</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51782702</v>
+        <v>51529149</v>
       </c>
       <c r="E107" t="n">
-        <v>131919393</v>
+        <v>131273454</v>
       </c>
       <c r="F107" t="n">
-        <v>2367.503129561242</v>
+        <v>757.7770324564009</v>
       </c>
       <c r="G107" t="n">
-        <v>4376.445907730838</v>
+        <v>2207.560339459096</v>
       </c>
       <c r="H107" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2390588</v>
+        <v>2419516</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14465282</v>
+        <v>14588417</v>
       </c>
       <c r="E108" t="n">
-        <v>70057671</v>
+        <v>70654034</v>
       </c>
       <c r="F108" t="n">
-        <v>10491.94759944003</v>
+        <v>4873.74508428847</v>
       </c>
       <c r="G108" t="n">
-        <v>10167.82044494277</v>
+        <v>8401.189584309152</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I108" t="n">
-        <v>3804323</v>
+        <v>3807337</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>512480</v>
+        <v>494115</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>201.1446284730387</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>186.6005951680251</v>
       </c>
       <c r="H109" t="n">
-        <v>4.09</v>
+        <v>2.7</v>
       </c>
       <c r="I109" t="n">
-        <v>7880.43</v>
+        <v>7713.6</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4633370</v>
+        <v>4636781</v>
       </c>
       <c r="E110" t="n">
-        <v>10561561</v>
+        <v>10569338</v>
       </c>
       <c r="F110" t="n">
-        <v>1401.766600543687</v>
+        <v>1400.515183868141</v>
       </c>
       <c r="G110" t="n">
-        <v>1992.612735938204</v>
+        <v>1970.483685604038</v>
       </c>
       <c r="H110" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>87217</v>
+        <v>86778</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1932450600</v>
+        <v>1928824615</v>
       </c>
       <c r="F111" t="n">
-        <v>81693.10221998498</v>
+        <v>93748.22325026638</v>
       </c>
       <c r="G111" t="n">
-        <v>48922.91693206105</v>
+        <v>35225.05255997686</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I111" t="n">
-        <v>27368922</v>
+        <v>27629400</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9511368</v>
+        <v>9562351</v>
       </c>
       <c r="E112" t="n">
-        <v>34616186</v>
+        <v>34801389</v>
       </c>
       <c r="F112" t="n">
-        <v>399.5876513311403</v>
+        <v>207.0393105297367</v>
       </c>
       <c r="G112" t="n">
-        <v>504.1735292564757</v>
+        <v>343.4088523320779</v>
       </c>
       <c r="H112" t="n">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="I112" t="n">
-        <v>129762</v>
+        <v>124054</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>557570</v>
+        <v>559762</v>
       </c>
       <c r="F113" t="n">
-        <v>121.3671515728836</v>
+        <v>104.4330870640575</v>
       </c>
       <c r="G113" t="n">
-        <v>70.70763083125912</v>
+        <v>70.72546931737935</v>
       </c>
       <c r="H113" t="n">
-        <v>2.5</v>
+        <v>2.99</v>
       </c>
       <c r="I113" t="n">
-        <v>923.4</v>
+        <v>853.92</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12122626</v>
+        <v>12158932</v>
       </c>
       <c r="E114" t="n">
-        <v>17576058</v>
+        <v>17628697</v>
       </c>
       <c r="F114" t="n">
-        <v>319.2926287262721</v>
+        <v>917.0324503144957</v>
       </c>
       <c r="G114" t="n">
-        <v>3605.592140111312</v>
+        <v>730.3547341557165</v>
       </c>
       <c r="H114" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="I114" t="n">
-        <v>2035777</v>
+        <v>2032828</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2078331</v>
+        <v>2074582</v>
       </c>
       <c r="E115" t="n">
-        <v>14903501</v>
+        <v>14876623</v>
       </c>
       <c r="F115" t="n">
-        <v>758.61109160259</v>
+        <v>749.9406718832508</v>
       </c>
       <c r="G115" t="n">
-        <v>545.5268118823636</v>
+        <v>553.562984457041</v>
       </c>
       <c r="H115" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="I115" t="n">
-        <v>1995169</v>
+        <v>1980341</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2746524</v>
+        <v>2744609</v>
       </c>
       <c r="E116" t="n">
-        <v>5551988</v>
+        <v>5548117</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5200.14</v>
+        <v>5195.38</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>204443550</v>
+        <v>205111578</v>
       </c>
       <c r="E117" t="n">
-        <v>1157684999</v>
+        <v>1161467782</v>
       </c>
       <c r="F117" t="n">
-        <v>407388.1704267576</v>
+        <v>137074.7815539443</v>
       </c>
       <c r="G117" t="n">
-        <v>374904.3910944606</v>
+        <v>259744.8533241632</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="I117" t="n">
-        <v>64756929</v>
+        <v>66078144</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>677454</v>
+        <v>676684</v>
       </c>
       <c r="E118" t="n">
-        <v>2246337</v>
+        <v>2243784</v>
       </c>
       <c r="F118" t="n">
-        <v>8874.948006769609</v>
+        <v>8874.947775215434</v>
       </c>
       <c r="G118" t="n">
-        <v>7766.222844121845</v>
+        <v>5811.993931637696</v>
       </c>
       <c r="H118" t="n">
         <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>18781.53</v>
+        <v>16212.95</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2819616</v>
+        <v>2822538</v>
       </c>
       <c r="E119" t="n">
-        <v>9983071</v>
+        <v>9993415</v>
       </c>
       <c r="F119" t="n">
-        <v>27.69083663126051</v>
+        <v>217.778688502066</v>
       </c>
       <c r="G119" t="n">
-        <v>1539.887086512929</v>
+        <v>1500.850991059503</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="I119" t="n">
-        <v>5622.89</v>
+        <v>5628.6</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1037131</v>
+        <v>1037432</v>
       </c>
       <c r="E120" t="n">
-        <v>1037131</v>
+        <v>1037432</v>
       </c>
       <c r="F120" t="n">
-        <v>32.77123733203263</v>
+        <v>65.75677768655365</v>
       </c>
       <c r="G120" t="n">
-        <v>79.6543043121352</v>
+        <v>91.67904766207918</v>
       </c>
       <c r="H120" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>6753.13</v>
+        <v>5518.38</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>502473</v>
+        <v>499686</v>
       </c>
       <c r="E121" t="n">
-        <v>1691253</v>
+        <v>1681872</v>
       </c>
       <c r="F121" t="n">
-        <v>367.7872409433562</v>
+        <v>361.4913493269867</v>
       </c>
       <c r="G121" t="n">
-        <v>415.8814448711115</v>
+        <v>407.9406830800396</v>
       </c>
       <c r="H121" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>632809</v>
+        <v>632342</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469178</v>
+        <v>464256</v>
       </c>
       <c r="E122" t="n">
-        <v>870416</v>
+        <v>861283</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>208906</v>
+        <v>207734</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11712472</v>
+        <v>11707808</v>
       </c>
       <c r="F123" t="n">
-        <v>164.2327931494196</v>
+        <v>164.6956908963168</v>
       </c>
       <c r="G123" t="n">
-        <v>183.5224476804692</v>
+        <v>119.1705181275828</v>
       </c>
       <c r="H123" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="I123" t="n">
-        <v>10535.38</v>
+        <v>10773.37</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1253267</v>
+        <v>1254131</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="I124" t="n">
-        <v>42090</v>
+        <v>21709</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3417442</v>
+        <v>3404644</v>
       </c>
       <c r="E125" t="n">
-        <v>7980297</v>
+        <v>7950412</v>
       </c>
       <c r="F125" t="n">
-        <v>1220.034660948265</v>
+        <v>2342.664153914845</v>
       </c>
       <c r="G125" t="n">
-        <v>1850.969266425516</v>
+        <v>1751.303538022503</v>
       </c>
       <c r="H125" t="n">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="I125" t="n">
-        <v>636480</v>
+        <v>625892</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>244481</v>
+        <v>250561</v>
       </c>
       <c r="E126" t="n">
-        <v>2157731</v>
+        <v>2211385</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>8.497785600418183</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>56.70615572208609</v>
       </c>
       <c r="H126" t="n">
-        <v>5.03</v>
+        <v>3.76</v>
       </c>
       <c r="I126" t="n">
-        <v>85419</v>
+        <v>90885</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>651025</v>
+        <v>647076</v>
       </c>
       <c r="F127" t="n">
-        <v>433.4865121098642</v>
+        <v>433.486798695224</v>
       </c>
       <c r="G127" t="n">
-        <v>472.8084233138709</v>
+        <v>373.9743283952729</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3329.19</v>
+        <v>3580.71</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4913859</v>
+        <v>4918400</v>
       </c>
       <c r="E128" t="n">
-        <v>17362950</v>
+        <v>17378995</v>
       </c>
       <c r="F128" t="n">
-        <v>2926.783721221068</v>
+        <v>3114.630520008029</v>
       </c>
       <c r="G128" t="n">
-        <v>1419.375070990336</v>
+        <v>1487.512118196836</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>88577</v>
+        <v>90282</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2105047</v>
+        <v>2105505</v>
       </c>
       <c r="F129" t="n">
-        <v>104.7049796798068</v>
+        <v>56.17758035297209</v>
       </c>
       <c r="G129" t="n">
-        <v>227.9684865514118</v>
+        <v>263.3967633797932</v>
       </c>
       <c r="H129" t="n">
-        <v>0.99</v>
+        <v>0.53</v>
       </c>
       <c r="I129" t="n">
-        <v>8512.57</v>
+        <v>7782.39</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2496690</v>
+        <v>2502197</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2485.64</v>
+        <v>2453.88</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84843</v>
+        <v>84624</v>
       </c>
       <c r="E131" t="n">
-        <v>84843</v>
+        <v>84624</v>
       </c>
       <c r="F131" t="n">
-        <v>5.514481225732729</v>
+        <v>5.514484871450743</v>
       </c>
       <c r="G131" t="n">
-        <v>209.6271894405578</v>
+        <v>66.68942811385917</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>22783</v>
+        <v>22703</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4355619</v>
+        <v>4370811</v>
       </c>
       <c r="F132" t="n">
-        <v>110.9606000789883</v>
+        <v>332.1207709128158</v>
       </c>
       <c r="G132" t="n">
-        <v>468.6822470929542</v>
+        <v>372.9976248363321</v>
       </c>
       <c r="H132" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I132" t="n">
-        <v>311929</v>
+        <v>312087</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2075560</v>
+        <v>2105304</v>
       </c>
       <c r="E133" t="n">
-        <v>8476049</v>
+        <v>8597518</v>
       </c>
       <c r="F133" t="n">
-        <v>849.0559218369403</v>
+        <v>191.103985131184</v>
       </c>
       <c r="G133" t="n">
-        <v>1875.292950906544</v>
+        <v>1088.436969030256</v>
       </c>
       <c r="H133" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I133" t="n">
-        <v>542325</v>
+        <v>568229</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7424496</v>
+        <v>7486304</v>
       </c>
       <c r="E134" t="n">
-        <v>7479684</v>
+        <v>7541952</v>
       </c>
       <c r="F134" t="n">
-        <v>254632.9946306804</v>
+        <v>1791.499822779989</v>
       </c>
       <c r="G134" t="n">
-        <v>357919.0171032887</v>
+        <v>2278.249268587274</v>
       </c>
       <c r="H134" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="I134" t="n">
-        <v>4643577</v>
+        <v>4857245</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13613354</v>
+        <v>13603504</v>
       </c>
       <c r="E135" t="n">
-        <v>13659682</v>
+        <v>13649798</v>
       </c>
       <c r="F135" t="n">
-        <v>10488.87292552302</v>
+        <v>2435.534508191571</v>
       </c>
       <c r="G135" t="n">
-        <v>12806.70513587336</v>
+        <v>1961.232412340089</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>1.1</v>
       </c>
       <c r="I135" t="n">
-        <v>5738879</v>
+        <v>5892500</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42799976</v>
+        <v>42768720</v>
       </c>
       <c r="E136" t="n">
-        <v>72664402</v>
+        <v>72611337</v>
       </c>
       <c r="F136" t="n">
-        <v>727.2221266380698</v>
+        <v>1005.41157004024</v>
       </c>
       <c r="G136" t="n">
-        <v>1690.078718125538</v>
+        <v>923.7334707609026</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1089272</v>
+        <v>1074054</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22542011</v>
+        <v>22683595</v>
       </c>
       <c r="E137" t="n">
-        <v>67570582</v>
+        <v>67994987</v>
       </c>
       <c r="F137" t="n">
-        <v>85888.31285980417</v>
+        <v>35464.31154873611</v>
       </c>
       <c r="G137" t="n">
-        <v>81002.06925067534</v>
+        <v>50437.03825327246</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I137" t="n">
-        <v>3338077</v>
+        <v>3357710</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101366688</v>
+        <v>101395913</v>
       </c>
       <c r="E138" t="n">
-        <v>107761950</v>
+        <v>107793019</v>
       </c>
       <c r="F138" t="n">
-        <v>9230.640369120412</v>
+        <v>6142.273694734717</v>
       </c>
       <c r="G138" t="n">
-        <v>10641.48965504367</v>
+        <v>11229.74215784898</v>
       </c>
       <c r="H138" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I138" t="n">
-        <v>375936</v>
+        <v>375483</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1208078</v>
+        <v>1208144</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>6.35</v>
       </c>
       <c r="I139" t="n">
-        <v>239.94</v>
+        <v>239.96</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258516</v>
+        <v>258572</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.97</v>
+        <v>8.19</v>
       </c>
       <c r="I140" t="n">
-        <v>199.05</v>
+        <v>199.08</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96306</v>
+        <v>96291</v>
       </c>
       <c r="E141" t="n">
-        <v>273197</v>
+        <v>273155</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47612849</v>
+        <v>48078152</v>
       </c>
       <c r="E142" t="n">
-        <v>205110948</v>
+        <v>207115421</v>
       </c>
       <c r="F142" t="n">
-        <v>69702.95964718361</v>
+        <v>49156.02306177001</v>
       </c>
       <c r="G142" t="n">
-        <v>72026.37498943407</v>
+        <v>59211.58967726396</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I142" t="n">
-        <v>8582102</v>
+        <v>8798542</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269897</v>
+        <v>269971</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.9</v>
+        <v>10.24</v>
       </c>
       <c r="I143" t="n">
-        <v>71427</v>
+        <v>53831</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9472442</v>
+        <v>9434666</v>
       </c>
       <c r="F144" t="n">
-        <v>1067.164266311415</v>
+        <v>1256.191662349861</v>
       </c>
       <c r="G144" t="n">
-        <v>646.0046074619605</v>
+        <v>554.0132871329923</v>
       </c>
       <c r="H144" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="I144" t="n">
-        <v>98206</v>
+        <v>98434</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1172344</v>
+        <v>1176766</v>
       </c>
       <c r="E145" t="n">
-        <v>7815629</v>
+        <v>7845105</v>
       </c>
       <c r="F145" t="n">
-        <v>263.483452565044</v>
+        <v>263.4836267583849</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0167517360754</v>
+        <v>105.0168211644157</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5589.37</v>
+        <v>5579.18</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7795770</v>
+        <v>7702826</v>
       </c>
       <c r="F146" t="n">
-        <v>613.3595623997744</v>
+        <v>25.54022204122568</v>
       </c>
       <c r="G146" t="n">
-        <v>385.0147764363139</v>
+        <v>147.2341035861645</v>
       </c>
       <c r="H146" t="n">
-        <v>0.91</v>
+        <v>3.44</v>
       </c>
       <c r="I146" t="n">
-        <v>6644163</v>
+        <v>564251</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>671330</v>
+        <v>672913</v>
       </c>
       <c r="E147" t="n">
-        <v>2423865</v>
+        <v>2429581</v>
       </c>
       <c r="F147" t="n">
-        <v>49.25687440569069</v>
+        <v>35.99648286281757</v>
       </c>
       <c r="G147" t="n">
-        <v>205.6426962840428</v>
+        <v>139.4900232989375</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="I147" t="n">
-        <v>336091</v>
+        <v>337127</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1600556</v>
+        <v>1604542</v>
       </c>
       <c r="F148" t="n">
-        <v>510.5249728836095</v>
+        <v>335.4263063707903</v>
       </c>
       <c r="G148" t="n">
-        <v>74.77543704237661</v>
+        <v>86.83642250961809</v>
       </c>
       <c r="H148" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="I148" t="n">
-        <v>83692</v>
+        <v>79722</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>71402</v>
+        <v>71417</v>
       </c>
       <c r="F149" t="n">
-        <v>16.23876638719918</v>
+        <v>10.17722393437629</v>
       </c>
       <c r="G149" t="n">
-        <v>25.00451296199553</v>
+        <v>24.6536407848496</v>
       </c>
       <c r="H149" t="n">
         <v>2.86</v>
       </c>
       <c r="I149" t="n">
-        <v>1352.51</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13076513</v>
+        <v>13255840</v>
       </c>
       <c r="E150" t="n">
-        <v>13076513</v>
+        <v>13255840</v>
       </c>
       <c r="F150" t="n">
-        <v>436.5592854117909</v>
+        <v>145.4454000414635</v>
       </c>
       <c r="G150" t="n">
-        <v>2150.293802185004</v>
+        <v>720.589020308119</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3</v>
+        <v>1.06</v>
       </c>
       <c r="I150" t="n">
-        <v>3667845</v>
+        <v>3684514</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1915703</v>
+        <v>1920867</v>
       </c>
       <c r="E151" t="n">
-        <v>6958943</v>
+        <v>6977702</v>
       </c>
       <c r="F151" t="n">
-        <v>104.7968982388157</v>
+        <v>1030.206049959687</v>
       </c>
       <c r="G151" t="n">
-        <v>15.95102681621803</v>
+        <v>5.981948154476598</v>
       </c>
       <c r="H151" t="n">
-        <v>0.3</v>
+        <v>2.66</v>
       </c>
       <c r="I151" t="n">
-        <v>143291</v>
+        <v>141440</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1263478</v>
+        <v>1262484</v>
       </c>
       <c r="E152" t="n">
-        <v>1263478</v>
+        <v>1262484</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1446.35</v>
+        <v>1445.21</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23595722</v>
+        <v>23650044</v>
       </c>
       <c r="E153" t="n">
-        <v>27224427</v>
+        <v>27287103</v>
       </c>
       <c r="F153" t="n">
-        <v>256.5628893268486</v>
+        <v>694.2507596451096</v>
       </c>
       <c r="G153" t="n">
-        <v>401.0430156714501</v>
+        <v>460.4281742601007</v>
       </c>
       <c r="H153" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I153" t="n">
-        <v>746441</v>
+        <v>756180</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442568</v>
+        <v>2441126</v>
       </c>
       <c r="E154" t="n">
-        <v>18379778</v>
+        <v>18368921</v>
       </c>
       <c r="F154" t="n">
-        <v>4047.993962111551</v>
+        <v>3657.635265701813</v>
       </c>
       <c r="G154" t="n">
-        <v>3480.722737448456</v>
+        <v>2847.15371101694</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>164811</v>
+        <v>164088</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21061976</v>
+        <v>21018822</v>
       </c>
       <c r="E155" t="n">
-        <v>84247903</v>
+        <v>84075289</v>
       </c>
       <c r="F155" t="n">
-        <v>14064.27063681337</v>
+        <v>11079.2438248419</v>
       </c>
       <c r="G155" t="n">
-        <v>26625.92818889325</v>
+        <v>15936.31241707186</v>
       </c>
       <c r="H155" t="n">
-        <v>0.59</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I155" t="n">
-        <v>3947473</v>
+        <v>3155554</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>313239979</v>
+        <v>314396678</v>
       </c>
       <c r="E156" t="n">
-        <v>313239979</v>
+        <v>314396678</v>
       </c>
       <c r="F156" t="n">
-        <v>291105.1321612227</v>
+        <v>271415.896068318</v>
       </c>
       <c r="G156" t="n">
-        <v>389513.0630932299</v>
+        <v>392061.7125377025</v>
       </c>
       <c r="H156" t="n">
-        <v>0.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I156" t="n">
-        <v>14924303</v>
+        <v>15021942</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12762775</v>
+        <v>12745036</v>
       </c>
       <c r="E157" t="n">
-        <v>40376806</v>
+        <v>40320686</v>
       </c>
       <c r="F157" t="n">
-        <v>8356.595335285432</v>
+        <v>7629.61183932939</v>
       </c>
       <c r="G157" t="n">
-        <v>9426.459631552376</v>
+        <v>16294.85951405532</v>
       </c>
       <c r="H157" t="n">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="I157" t="n">
-        <v>1168250</v>
+        <v>1076170</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1083337</v>
+        <v>1083846</v>
       </c>
       <c r="E158" t="n">
-        <v>2467407</v>
+        <v>2468565</v>
       </c>
       <c r="F158" t="n">
-        <v>9.990308670373155</v>
+        <v>9.990315275134199</v>
       </c>
       <c r="G158" t="n">
-        <v>98.2780958655265</v>
+        <v>98.27816083882817</v>
       </c>
       <c r="H158" t="n">
         <v>3.59</v>
       </c>
       <c r="I158" t="n">
-        <v>2423.51</v>
+        <v>2422.86</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18232559</v>
+        <v>18433001</v>
       </c>
       <c r="E159" t="n">
-        <v>18232559</v>
+        <v>18433001</v>
       </c>
       <c r="F159" t="n">
-        <v>10922.58606835063</v>
+        <v>8255.092317081802</v>
       </c>
       <c r="G159" t="n">
-        <v>23403.26374468166</v>
+        <v>12310.8621260497</v>
       </c>
       <c r="H159" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="I159" t="n">
-        <v>3757142</v>
+        <v>3814638</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4850450</v>
+        <v>4851506</v>
       </c>
       <c r="E160" t="n">
-        <v>8930197</v>
+        <v>8932142</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>8.869999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="I160" t="n">
         <v>15.15</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113093</v>
+        <v>113290</v>
       </c>
       <c r="E161" t="n">
-        <v>136881</v>
+        <v>137120</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>6.36</v>
       </c>
       <c r="I161" t="n">
-        <v>3270.77</v>
+        <v>3274.04</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20122905</v>
+        <v>20158821</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.76</v>
+        <v>15.5</v>
       </c>
       <c r="I162" t="n">
-        <v>1890.62</v>
+        <v>1576.82</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>433774</v>
+        <v>433862</v>
       </c>
       <c r="E163" t="n">
-        <v>546393</v>
+        <v>546504</v>
       </c>
       <c r="F163" t="n">
-        <v>182.8385060269384</v>
+        <v>80.02939583601402</v>
       </c>
       <c r="G163" t="n">
-        <v>90.23849022063895</v>
+        <v>111.2258001193493</v>
       </c>
       <c r="H163" t="n">
-        <v>0.91</v>
+        <v>1.46</v>
       </c>
       <c r="I163" t="n">
-        <v>183939</v>
+        <v>184460</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108614</v>
+        <v>108626</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>7.88</v>
       </c>
       <c r="I164" t="n">
-        <v>3835.18</v>
+        <v>3818.82</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12750954</v>
+        <v>12718354</v>
       </c>
       <c r="E165" t="n">
-        <v>19409827</v>
+        <v>19360203</v>
       </c>
       <c r="F165" t="n">
-        <v>1243.202027484743</v>
+        <v>1014.580950991445</v>
       </c>
       <c r="G165" t="n">
-        <v>3012.423190579701</v>
+        <v>2770.784225363467</v>
       </c>
       <c r="H165" t="n">
         <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>759815</v>
+        <v>776398</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>301286590</v>
+        <v>295827939</v>
       </c>
       <c r="E166" t="n">
-        <v>301286590</v>
+        <v>295827939</v>
       </c>
       <c r="F166" t="n">
-        <v>247139.0067513342</v>
+        <v>26059.93994590716</v>
       </c>
       <c r="G166" t="n">
-        <v>378124.897317209</v>
+        <v>255928.9426578372</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I166" t="n">
-        <v>59817864</v>
+        <v>76313955</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10217025</v>
+        <v>10269816</v>
       </c>
       <c r="E167" t="n">
-        <v>29007837</v>
+        <v>29157721</v>
       </c>
       <c r="F167" t="n">
-        <v>154.2225471077036</v>
+        <v>593.3735098899227</v>
       </c>
       <c r="G167" t="n">
-        <v>912.5097620062689</v>
+        <v>1019.851159349852</v>
       </c>
       <c r="H167" t="n">
-        <v>1.37</v>
+        <v>2.03</v>
       </c>
       <c r="I167" t="n">
-        <v>124628</v>
+        <v>129403</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11606369</v>
+        <v>11621781</v>
       </c>
       <c r="F168" t="n">
-        <v>156.3314921140773</v>
+        <v>14.25461353258721</v>
       </c>
       <c r="G168" t="n">
-        <v>1110.246242134019</v>
+        <v>1195.983387667677</v>
       </c>
       <c r="H168" t="n">
-        <v>0.78</v>
+        <v>1.2</v>
       </c>
       <c r="I168" t="n">
-        <v>95591</v>
+        <v>95008</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4230978</v>
+        <v>4231262</v>
       </c>
       <c r="E169" t="n">
-        <v>28909973</v>
+        <v>28911918</v>
       </c>
       <c r="F169" t="n">
-        <v>2678.396831753249</v>
+        <v>538.2518233961451</v>
       </c>
       <c r="G169" t="n">
-        <v>2624.312490038131</v>
+        <v>1040.907283280818</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2650925</v>
+        <v>2649036</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2924094</v>
+        <v>3015378</v>
       </c>
       <c r="E170" t="n">
-        <v>4334893</v>
+        <v>4469862</v>
       </c>
       <c r="F170" t="n">
-        <v>1767.218870552725</v>
+        <v>205.7620227773284</v>
       </c>
       <c r="G170" t="n">
-        <v>2342.551866735209</v>
+        <v>1086.596222902147</v>
       </c>
       <c r="H170" t="n">
-        <v>0.92</v>
+        <v>1.57</v>
       </c>
       <c r="I170" t="n">
-        <v>214196</v>
+        <v>222563</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>91401749</v>
+        <v>91842631</v>
       </c>
       <c r="E171" t="n">
-        <v>526696299</v>
+        <v>529236852</v>
       </c>
       <c r="F171" t="n">
-        <v>492886.0514891949</v>
+        <v>303275.1439648118</v>
       </c>
       <c r="G171" t="n">
-        <v>249473.1380151595</v>
+        <v>228271.8757727429</v>
       </c>
       <c r="H171" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I171" t="n">
-        <v>16777136</v>
+        <v>17036190</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13770812</v>
+        <v>13786578</v>
       </c>
       <c r="E172" t="n">
-        <v>13770812</v>
+        <v>13786578</v>
       </c>
       <c r="F172" t="n">
-        <v>5368.678282913606</v>
+        <v>4643.116456217565</v>
       </c>
       <c r="G172" t="n">
-        <v>4153.620109811382</v>
+        <v>5115.646393409222</v>
       </c>
       <c r="H172" t="n">
         <v>1.16</v>
       </c>
       <c r="I172" t="n">
-        <v>607420</v>
+        <v>603515</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6085232</v>
+        <v>6078725</v>
       </c>
       <c r="E173" t="n">
-        <v>17286397</v>
+        <v>17267913</v>
       </c>
       <c r="F173" t="n">
-        <v>567.367525973586</v>
+        <v>28.07224273613246</v>
       </c>
       <c r="G173" t="n">
-        <v>8691.721342134237</v>
+        <v>8407.338875050917</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="I173" t="n">
-        <v>179776</v>
+        <v>174536</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19692753</v>
+        <v>19692654</v>
       </c>
       <c r="E174" t="n">
-        <v>19692753</v>
+        <v>19692654</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039485432089348</v>
+        <v>1.039486119310646</v>
       </c>
       <c r="G174" t="n">
-        <v>473.4326276962885</v>
+        <v>473.4329406905592</v>
       </c>
       <c r="H174" t="n">
         <v>1.57</v>
       </c>
       <c r="I174" t="n">
-        <v>122544</v>
+        <v>121329</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1337271</v>
+        <v>1338205</v>
       </c>
       <c r="F175" t="n">
-        <v>192.7963479825575</v>
+        <v>104.6294773010706</v>
       </c>
       <c r="G175" t="n">
-        <v>204.8647734620446</v>
+        <v>130.4274374083556</v>
       </c>
       <c r="H175" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>4064.6</v>
+        <v>3673.29</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>145793</v>
+        <v>147068</v>
       </c>
       <c r="E176" t="n">
-        <v>317388</v>
+        <v>320164</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>52986</v>
+        <v>52487</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2702806</v>
+        <v>2609759</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>131.3450942274448</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>75.91383332178195</v>
       </c>
       <c r="H177" t="n">
-        <v>4.36</v>
+        <v>3.8</v>
       </c>
       <c r="I177" t="n">
-        <v>423647</v>
+        <v>424332</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>248657411</v>
+        <v>251666412</v>
       </c>
       <c r="E178" t="n">
-        <v>248659882</v>
+        <v>251668912</v>
       </c>
       <c r="F178" t="n">
-        <v>45732.67803503913</v>
+        <v>8551.155262651104</v>
       </c>
       <c r="G178" t="n">
-        <v>81515.34214173921</v>
+        <v>134315.2603849799</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2</v>
+        <v>1.03</v>
       </c>
       <c r="I178" t="n">
-        <v>2540992</v>
+        <v>2537784</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9305448</v>
+        <v>9320391</v>
       </c>
       <c r="E179" t="n">
-        <v>9305448</v>
+        <v>9320391</v>
       </c>
       <c r="F179" t="n">
-        <v>1073.507387217451</v>
+        <v>597.1216168851328</v>
       </c>
       <c r="G179" t="n">
-        <v>442.4873593306521</v>
+        <v>430.3722651524866</v>
       </c>
       <c r="H179" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I179" t="n">
-        <v>2091466</v>
+        <v>2084575</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>184444</v>
+        <v>184601</v>
       </c>
       <c r="E180" t="n">
-        <v>1424280</v>
+        <v>1425487</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>4.04</v>
       </c>
       <c r="I180" t="n">
-        <v>106870</v>
+        <v>106745</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30778990</v>
+        <v>30932426</v>
       </c>
       <c r="E181" t="n">
-        <v>137810164</v>
+        <v>138497161</v>
       </c>
       <c r="F181" t="n">
-        <v>56426.72643650627</v>
+        <v>27444.09306320421</v>
       </c>
       <c r="G181" t="n">
-        <v>95618.99395501698</v>
+        <v>66173.49462937865</v>
       </c>
       <c r="H181" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="I181" t="n">
-        <v>8709795</v>
+        <v>8590521</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1454513</v>
+        <v>1521559</v>
       </c>
       <c r="F182" t="n">
-        <v>104.7815434509544</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>4858.374831090023</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>1.89</v>
+        <v>5.78</v>
       </c>
       <c r="I182" t="n">
-        <v>54010</v>
+        <v>53979</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3108725</v>
+        <v>3127944</v>
       </c>
       <c r="E183" t="n">
-        <v>3108725</v>
+        <v>3127944</v>
       </c>
       <c r="F183" t="n">
-        <v>686.0504978838029</v>
+        <v>37.18082823897215</v>
       </c>
       <c r="G183" t="n">
-        <v>199.6221364931696</v>
+        <v>225.0029188302296</v>
       </c>
       <c r="H183" t="n">
-        <v>1.83</v>
+        <v>2.37</v>
       </c>
       <c r="I183" t="n">
-        <v>429185</v>
+        <v>422685</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>559801</v>
+        <v>560463</v>
       </c>
       <c r="E184" t="n">
-        <v>559801</v>
+        <v>560463</v>
       </c>
       <c r="F184" t="n">
-        <v>25.90450324690921</v>
+        <v>14.54192089688217</v>
       </c>
       <c r="G184" t="n">
-        <v>4.667952798194198</v>
+        <v>12.52780906738357</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>30075</v>
+        <v>25539</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15521161</v>
+        <v>15704093</v>
       </c>
       <c r="E185" t="n">
-        <v>19760916</v>
+        <v>19993818</v>
       </c>
       <c r="F185" t="n">
-        <v>2177.087175891108</v>
+        <v>95.70504069323287</v>
       </c>
       <c r="G185" t="n">
-        <v>259.6093442762363</v>
+        <v>88.35011965465553</v>
       </c>
       <c r="H185" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I185" t="n">
-        <v>914441</v>
+        <v>929129</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1777023</v>
+        <v>1778317</v>
       </c>
       <c r="E186" t="n">
-        <v>1777023</v>
+        <v>1778317</v>
       </c>
       <c r="F186" t="n">
-        <v>44.94892022162239</v>
+        <v>45.15344108930332</v>
       </c>
       <c r="G186" t="n">
-        <v>159.1018300849393</v>
+        <v>159.1019352698344</v>
       </c>
       <c r="H186" t="n">
         <v>1.13</v>
       </c>
       <c r="I186" t="n">
-        <v>4278.5</v>
+        <v>4241.03</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>49894728</v>
+        <v>50194966</v>
       </c>
       <c r="E187" t="n">
-        <v>323554034</v>
+        <v>325500994</v>
       </c>
       <c r="F187" t="n">
-        <v>116550.1650154579</v>
+        <v>31051.80369746241</v>
       </c>
       <c r="G187" t="n">
-        <v>139669.1608753872</v>
+        <v>75283.7720411692</v>
       </c>
       <c r="H187" t="n">
         <v>0.02</v>
       </c>
       <c r="I187" t="n">
-        <v>16285049</v>
+        <v>16730983</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9105783</v>
+        <v>9083982</v>
       </c>
       <c r="F188" t="n">
-        <v>861.6891331606372</v>
+        <v>730.802299447466</v>
       </c>
       <c r="G188" t="n">
-        <v>567.1758562477191</v>
+        <v>446.5526002854148</v>
       </c>
       <c r="H188" t="n">
-        <v>0.77</v>
+        <v>1.85</v>
       </c>
       <c r="I188" t="n">
-        <v>305108</v>
+        <v>303970</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7066218</v>
+        <v>7062489</v>
       </c>
       <c r="E189" t="n">
-        <v>7076194</v>
+        <v>7072460</v>
       </c>
       <c r="F189" t="n">
-        <v>78.99096023539725</v>
+        <v>869.3961693409049</v>
       </c>
       <c r="G189" t="n">
-        <v>202.1690879253023</v>
+        <v>105.9944917394511</v>
       </c>
       <c r="H189" t="n">
-        <v>1.39</v>
+        <v>0.53</v>
       </c>
       <c r="I189" t="n">
-        <v>776267</v>
+        <v>591145</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4777016</v>
+        <v>4774404</v>
       </c>
       <c r="F190" t="n">
-        <v>1978.646829446379</v>
+        <v>200.1375828693683</v>
       </c>
       <c r="G190" t="n">
-        <v>2092.813859454393</v>
+        <v>204.7719852686756</v>
       </c>
       <c r="H190" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="I190" t="n">
-        <v>182143</v>
+        <v>130410</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>97297759</v>
+        <v>98049841</v>
       </c>
       <c r="E191" t="n">
-        <v>98345104</v>
+        <v>99105282</v>
       </c>
       <c r="F191" t="n">
-        <v>44630.22204882732</v>
+        <v>16315.87499688569</v>
       </c>
       <c r="G191" t="n">
-        <v>59515.15578899244</v>
+        <v>20355.48553684707</v>
       </c>
       <c r="H191" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I191" t="n">
-        <v>37509116</v>
+        <v>38644263</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>240469995</v>
+        <v>241426790</v>
       </c>
       <c r="E192" t="n">
-        <v>240469995</v>
+        <v>241426790</v>
       </c>
       <c r="F192" t="n">
-        <v>89663.8734574979</v>
+        <v>19014.66475012383</v>
       </c>
       <c r="G192" t="n">
-        <v>120651.5790671675</v>
+        <v>54126.28171714518</v>
       </c>
       <c r="H192" t="n">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="I192" t="n">
-        <v>46273299</v>
+        <v>46908351</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24618931</v>
+        <v>24660936</v>
       </c>
       <c r="E193" t="n">
-        <v>147300015</v>
+        <v>147551335</v>
       </c>
       <c r="F193" t="n">
-        <v>83119.56893896275</v>
+        <v>50570.02857650009</v>
       </c>
       <c r="G193" t="n">
-        <v>127111.2339854677</v>
+        <v>109736.5448783136</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I193" t="n">
-        <v>12137650</v>
+        <v>12409854</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13564786</v>
+        <v>13584473</v>
       </c>
       <c r="E194" t="n">
-        <v>41625568</v>
+        <v>41685981</v>
       </c>
       <c r="F194" t="n">
-        <v>647.7318429979274</v>
+        <v>651.892441119631</v>
       </c>
       <c r="G194" t="n">
-        <v>763.0576208530118</v>
+        <v>2390.602899584759</v>
       </c>
       <c r="H194" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="I194" t="n">
-        <v>2604844</v>
+        <v>2586523</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54959309</v>
+        <v>54955042</v>
       </c>
       <c r="E195" t="n">
-        <v>94926675</v>
+        <v>94919305</v>
       </c>
       <c r="F195" t="n">
-        <v>14650.80978391819</v>
+        <v>1408.599615646023</v>
       </c>
       <c r="G195" t="n">
-        <v>7179.324210612933</v>
+        <v>8619.253490784846</v>
       </c>
       <c r="H195" t="n">
-        <v>0.29</v>
+        <v>1.53</v>
       </c>
       <c r="I195" t="n">
-        <v>2310451</v>
+        <v>2340628</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4209463</v>
+        <v>4199052</v>
       </c>
       <c r="E196" t="n">
-        <v>4209463</v>
+        <v>4199052</v>
       </c>
       <c r="F196" t="n">
-        <v>7.109400604073439</v>
+        <v>1.064261333949168</v>
       </c>
       <c r="G196" t="n">
-        <v>379.5125868422867</v>
+        <v>372.3695254615565</v>
       </c>
       <c r="H196" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="I196" t="n">
-        <v>1655934</v>
+        <v>1067842</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211788</v>
+        <v>212019</v>
       </c>
       <c r="F197" t="n">
-        <v>54.75465314887064</v>
+        <v>30.58912098174755</v>
       </c>
       <c r="G197" t="n">
-        <v>3.058707228048211</v>
+        <v>90.3163611278986</v>
       </c>
       <c r="H197" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="I197" t="n">
-        <v>50482</v>
+        <v>49930</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6631618</v>
+        <v>6640315</v>
       </c>
       <c r="E198" t="n">
-        <v>34117660</v>
+        <v>34162405</v>
       </c>
       <c r="F198" t="n">
-        <v>452.3081535234688</v>
+        <v>399.5067959234483</v>
       </c>
       <c r="G198" t="n">
-        <v>219.8510326121547</v>
+        <v>241.1677274461962</v>
       </c>
       <c r="H198" t="n">
-        <v>0.61</v>
+        <v>1.08</v>
       </c>
       <c r="I198" t="n">
-        <v>800416</v>
+        <v>912483</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>178522009</v>
+        <v>179483501</v>
       </c>
       <c r="E199" t="n">
-        <v>208566419</v>
+        <v>209689725</v>
       </c>
       <c r="F199" t="n">
-        <v>34149.04878260563</v>
+        <v>31228.36382633348</v>
       </c>
       <c r="G199" t="n">
-        <v>26956.25910536711</v>
+        <v>8309.198289655507</v>
       </c>
       <c r="H199" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="I199" t="n">
-        <v>4093284</v>
+        <v>3994505</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>301710</v>
+        <v>302655</v>
       </c>
       <c r="F200" t="n">
-        <v>24.68131821408017</v>
+        <v>21.87236236919289</v>
       </c>
       <c r="G200" t="n">
-        <v>26.11579966282972</v>
+        <v>38.50979620880948</v>
       </c>
       <c r="H200" t="n">
-        <v>3.87</v>
+        <v>1.31</v>
       </c>
       <c r="I200" t="n">
-        <v>330771</v>
+        <v>326266</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7996099</v>
+        <v>7991024</v>
       </c>
       <c r="F201" t="n">
-        <v>890.9849657997813</v>
+        <v>887.5805285674414</v>
       </c>
       <c r="G201" t="n">
-        <v>888.7915313532516</v>
+        <v>622.8213509930944</v>
       </c>
       <c r="H201" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>645872</v>
+        <v>641727</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34001</v>
+        <v>34004</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.7</v>
+        <v>651.77</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35125201</v>
+        <v>35105283</v>
       </c>
       <c r="E203" t="n">
-        <v>175290945</v>
+        <v>175191544</v>
       </c>
       <c r="F203" t="n">
-        <v>107390.2893617778</v>
+        <v>68447.61888437947</v>
       </c>
       <c r="G203" t="n">
-        <v>99712.38861991612</v>
+        <v>58501.71161624959</v>
       </c>
       <c r="H203" t="n">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="I203" t="n">
-        <v>10452663</v>
+        <v>10356685</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1984797</v>
+        <v>1995582</v>
       </c>
       <c r="E204" t="n">
-        <v>1984797</v>
+        <v>1995582</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>9.84</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="I204" t="n">
-        <v>8927.77</v>
+        <v>9081.280000000001</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178951</v>
+        <v>186774</v>
       </c>
       <c r="F205" t="n">
-        <v>35.89812884182331</v>
+        <v>1076.143523989617</v>
       </c>
       <c r="G205" t="n">
-        <v>54.26278574395096</v>
+        <v>129.2077638246069</v>
       </c>
       <c r="H205" t="n">
-        <v>2.31</v>
+        <v>1.18</v>
       </c>
       <c r="I205" t="n">
-        <v>13599.09</v>
+        <v>13470.43</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2778.1</v>
+        <v>2778.4</v>
       </c>
       <c r="E206" t="n">
-        <v>33204</v>
+        <v>33208</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7967.56</v>
+        <v>7968.69</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>316585868</v>
+        <v>317782505</v>
       </c>
       <c r="E208" t="n">
-        <v>585756052</v>
+        <v>587970103</v>
       </c>
       <c r="F208" t="n">
-        <v>134439.3652639377</v>
+        <v>83763.42966056507</v>
       </c>
       <c r="G208" t="n">
-        <v>185668.1204542113</v>
+        <v>120471.1981366868</v>
       </c>
       <c r="H208" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>13539770</v>
+        <v>13945413</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>71951468</v>
+        <v>72481945</v>
       </c>
       <c r="E209" t="n">
-        <v>686390886</v>
+        <v>691442398</v>
       </c>
       <c r="F209" t="n">
-        <v>358078.9892450919</v>
+        <v>39302.68959700818</v>
       </c>
       <c r="G209" t="n">
-        <v>285815.7645125089</v>
+        <v>158079.3537119404</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="I209" t="n">
-        <v>21916843</v>
+        <v>22118172</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2557071</v>
+        <v>2611617</v>
       </c>
       <c r="F210" t="n">
-        <v>37.93912034035459</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>48.50880940476792</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>3.6</v>
+        <v>4.74</v>
       </c>
       <c r="I210" t="n">
-        <v>57666</v>
+        <v>57305</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82288</v>
+        <v>82371</v>
       </c>
       <c r="E211" t="n">
-        <v>684081</v>
+        <v>684768</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>121.16</v>
+        <v>121.17</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1890334</v>
+        <v>1894099</v>
       </c>
       <c r="E212" t="n">
-        <v>5398551</v>
+        <v>5409305</v>
       </c>
       <c r="F212" t="n">
-        <v>725.188247350853</v>
+        <v>33.5237688349955</v>
       </c>
       <c r="G212" t="n">
-        <v>279.896618868692</v>
+        <v>322.7737971299367</v>
       </c>
       <c r="H212" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="I212" t="n">
-        <v>67186</v>
+        <v>67272</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11187654</v>
+        <v>11338087</v>
       </c>
       <c r="E213" t="n">
-        <v>33194512</v>
+        <v>33640856</v>
       </c>
       <c r="F213" t="n">
-        <v>1174.375789186714</v>
+        <v>669.2061074088051</v>
       </c>
       <c r="G213" t="n">
-        <v>2468.535624723757</v>
+        <v>504.9166739322849</v>
       </c>
       <c r="H213" t="n">
-        <v>0.83</v>
+        <v>1.89</v>
       </c>
       <c r="I213" t="n">
-        <v>7120577</v>
+        <v>7204182</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14574322</v>
+        <v>14576458</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>5.99</v>
+        <v>5.46</v>
       </c>
       <c r="I214" t="n">
         <v>1248.7</v>
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1979492</v>
+        <v>1995601</v>
       </c>
       <c r="E215" t="n">
-        <v>5743144</v>
+        <v>5789880</v>
       </c>
       <c r="F215" t="n">
-        <v>81.63179330296092</v>
+        <v>53.88932542802416</v>
       </c>
       <c r="G215" t="n">
-        <v>1211.104075474411</v>
+        <v>58.95319442644976</v>
       </c>
       <c r="H215" t="n">
-        <v>1.13</v>
+        <v>0.66</v>
       </c>
       <c r="I215" t="n">
-        <v>52346</v>
+        <v>47125</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2314813</v>
+        <v>2324931</v>
       </c>
       <c r="E216" t="n">
-        <v>20418186</v>
+        <v>20507438</v>
       </c>
       <c r="F216" t="n">
-        <v>178.8607062856999</v>
+        <v>539.1361353389977</v>
       </c>
       <c r="G216" t="n">
-        <v>1699.054298988891</v>
+        <v>487.6795504146606</v>
       </c>
       <c r="H216" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="I216" t="n">
-        <v>82485</v>
+        <v>81318</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45115509</v>
+        <v>44895843</v>
       </c>
       <c r="E217" t="n">
-        <v>45115509</v>
+        <v>44895843</v>
       </c>
       <c r="F217" t="n">
-        <v>32569.97140993157</v>
+        <v>15269.23320123394</v>
       </c>
       <c r="G217" t="n">
-        <v>40449.34868829021</v>
+        <v>18668.66814944192</v>
       </c>
       <c r="H217" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="I217" t="n">
-        <v>7615887</v>
+        <v>8471379</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8423637</v>
+        <v>8421803</v>
       </c>
       <c r="E218" t="n">
-        <v>12001752</v>
+        <v>11999139</v>
       </c>
       <c r="F218" t="n">
-        <v>4418.911011742409</v>
+        <v>2522.02447086867</v>
       </c>
       <c r="G218" t="n">
-        <v>143.8172934044147</v>
+        <v>137.5366381753454</v>
       </c>
       <c r="H218" t="n">
         <v>0.83</v>
       </c>
       <c r="I218" t="n">
-        <v>421127</v>
+        <v>414077</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16304257</v>
+        <v>16297446</v>
       </c>
       <c r="F219" t="n">
-        <v>2.125179043864946</v>
+        <v>1.068054725196066</v>
       </c>
       <c r="G219" t="n">
-        <v>1160.43872692827</v>
+        <v>1.041340627246486</v>
       </c>
       <c r="H219" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="I219" t="n">
-        <v>993906</v>
+        <v>998260</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>726314</v>
+        <v>725878</v>
       </c>
       <c r="F220" t="n">
-        <v>86.15501519994763</v>
+        <v>59.11926878918316</v>
       </c>
       <c r="G220" t="n">
-        <v>317.4238843358696</v>
+        <v>264.6011026493031</v>
       </c>
       <c r="H220" t="n">
         <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>208977</v>
+        <v>195567</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2849898</v>
+        <v>2855287</v>
       </c>
       <c r="E221" t="n">
-        <v>2852366</v>
+        <v>2857760</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>5.42</v>
+        <v>6.34</v>
       </c>
       <c r="I221" t="n">
-        <v>109312</v>
+        <v>111090</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1251880</v>
+        <v>1257444</v>
       </c>
       <c r="E222" t="n">
-        <v>3783439</v>
+        <v>3799748</v>
       </c>
       <c r="F222" t="n">
-        <v>954.6454190504222</v>
+        <v>669.2209161070924</v>
       </c>
       <c r="G222" t="n">
-        <v>576.0148690328414</v>
+        <v>664.1466884610727</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>11846.56</v>
+        <v>12581.44</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38989590</v>
+        <v>39096778</v>
       </c>
       <c r="E223" t="n">
-        <v>276429830</v>
+        <v>277189775</v>
       </c>
       <c r="F223" t="n">
-        <v>88861.0562048569</v>
+        <v>55026.35627232402</v>
       </c>
       <c r="G223" t="n">
-        <v>69071.6806034547</v>
+        <v>56434.87389802907</v>
       </c>
       <c r="H223" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="I223" t="n">
-        <v>1622153</v>
+        <v>1615964</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59867</v>
+        <v>59262</v>
       </c>
       <c r="E224" t="n">
-        <v>312364</v>
+        <v>309204</v>
       </c>
       <c r="F224" t="n">
-        <v>179.7851306527598</v>
+        <v>236.2475262651164</v>
       </c>
       <c r="G224" t="n">
-        <v>18.32999060440346</v>
+        <v>255.6133910725873</v>
       </c>
       <c r="H224" t="n">
-        <v>0.42</v>
+        <v>0.84</v>
       </c>
       <c r="I224" t="n">
-        <v>283974</v>
+        <v>290335</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1274364</v>
+        <v>1276433</v>
       </c>
       <c r="E225" t="n">
-        <v>7902360</v>
+        <v>7915195</v>
       </c>
       <c r="F225" t="n">
-        <v>2085.046380933953</v>
+        <v>1762.084540480372</v>
       </c>
       <c r="G225" t="n">
-        <v>1182.800874433878</v>
+        <v>1494.10531623618</v>
       </c>
       <c r="H225" t="n">
         <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>782961</v>
+        <v>781486</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>610427962</v>
+        <v>611631851</v>
       </c>
       <c r="E226" t="n">
-        <v>2364097435</v>
+        <v>2368759918</v>
       </c>
       <c r="F226" t="n">
-        <v>354047.2715339249</v>
+        <v>87098.96512218117</v>
       </c>
       <c r="G226" t="n">
-        <v>310803.3959339077</v>
+        <v>308166.5572384644</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32624162</v>
+        <v>32876676</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20753977</v>
+        <v>20793357</v>
       </c>
       <c r="F227" t="n">
-        <v>907.3297323836471</v>
+        <v>524.8401504675601</v>
       </c>
       <c r="G227" t="n">
-        <v>1169.020298683163</v>
+        <v>446.0255165503125</v>
       </c>
       <c r="H227" t="n">
         <v>0.05</v>
       </c>
       <c r="I227" t="n">
-        <v>16709731</v>
+        <v>16470253</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>808812</v>
+        <v>673262</v>
       </c>
       <c r="F228" t="n">
-        <v>593.4488679118043</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>88.85515498537839</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1.97</v>
+        <v>4.02</v>
       </c>
       <c r="I228" t="n">
-        <v>184670</v>
+        <v>194028</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5887741</v>
+        <v>5889243</v>
       </c>
       <c r="E229" t="n">
-        <v>26360154</v>
+        <v>26362777</v>
       </c>
       <c r="F229" t="n">
-        <v>1824.011913015597</v>
+        <v>1801.082338514262</v>
       </c>
       <c r="G229" t="n">
-        <v>1870.266403358207</v>
+        <v>1126.103360050059</v>
       </c>
       <c r="H229" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I229" t="n">
-        <v>152602</v>
+        <v>151593</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6732846</v>
+        <v>6758151</v>
       </c>
       <c r="E230" t="n">
-        <v>12890580</v>
+        <v>12939029</v>
       </c>
       <c r="F230" t="n">
-        <v>4222.299884832369</v>
+        <v>4102.987531769876</v>
       </c>
       <c r="G230" t="n">
-        <v>5124.543888765224</v>
+        <v>162.0267361587806</v>
       </c>
       <c r="H230" t="n">
-        <v>0.24</v>
+        <v>1.92</v>
       </c>
       <c r="I230" t="n">
-        <v>144251</v>
+        <v>135109</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3255725</v>
+        <v>3244644</v>
       </c>
       <c r="E231" t="n">
-        <v>21408888</v>
+        <v>21336025</v>
       </c>
       <c r="F231" t="n">
-        <v>2332.037623791789</v>
+        <v>2252.106722878225</v>
       </c>
       <c r="G231" t="n">
-        <v>541.025380468875</v>
+        <v>370.1573695536752</v>
       </c>
       <c r="H231" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="I231" t="n">
-        <v>1635372</v>
+        <v>1648408</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>123163187</v>
+        <v>123296876</v>
       </c>
       <c r="E232" t="n">
-        <v>1070828210</v>
+        <v>1071990560</v>
       </c>
       <c r="F232" t="n">
-        <v>191677.7798689046</v>
+        <v>69766.50122738545</v>
       </c>
       <c r="G232" t="n">
-        <v>234726.7487955335</v>
+        <v>103127.9035072991</v>
       </c>
       <c r="H232" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="I232" t="n">
-        <v>9140134</v>
+        <v>9141488</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>5.68</v>
+        <v>5.16</v>
       </c>
       <c r="I233" t="n">
-        <v>1150.58</v>
+        <v>1150.7</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>113543836</v>
+        <v>114092597</v>
       </c>
       <c r="E234" t="n">
-        <v>173213783</v>
+        <v>174050930</v>
       </c>
       <c r="F234" t="n">
-        <v>85670.95360690472</v>
+        <v>26534.60789259652</v>
       </c>
       <c r="G234" t="n">
-        <v>101109.9964585831</v>
+        <v>48825.62612204522</v>
       </c>
       <c r="H234" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I234" t="n">
-        <v>7876312</v>
+        <v>7894124</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>16887042</v>
+        <v>17045998</v>
       </c>
       <c r="E235" t="n">
-        <v>23167559</v>
+        <v>23385632</v>
       </c>
       <c r="F235" t="n">
-        <v>342.45648578755</v>
+        <v>1294.533044580015</v>
       </c>
       <c r="G235" t="n">
-        <v>2033.639253241409</v>
+        <v>593.3751598907811</v>
       </c>
       <c r="H235" t="n">
-        <v>1.32</v>
+        <v>0.9</v>
       </c>
       <c r="I235" t="n">
-        <v>493610</v>
+        <v>514212</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>121431442</v>
+        <v>122504302</v>
       </c>
       <c r="E236" t="n">
-        <v>465830556</v>
+        <v>469946219</v>
       </c>
       <c r="F236" t="n">
-        <v>540119.2592634172</v>
+        <v>193211.6662992003</v>
       </c>
       <c r="G236" t="n">
-        <v>402897.5277690133</v>
+        <v>262654.6837020717</v>
       </c>
       <c r="H236" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I236" t="n">
-        <v>31412677</v>
+        <v>30557983</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>764158</v>
+        <v>768095</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76025152956393</v>
+        <v>69.76055734726788</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55381491001677</v>
+        <v>20.55390501463</v>
       </c>
       <c r="H237" t="n">
         <v>3.25</v>
       </c>
       <c r="I237" t="n">
-        <v>50721</v>
+        <v>50256</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>814118</v>
+        <v>850481</v>
       </c>
       <c r="F238" t="n">
-        <v>3.200495329137131</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>152.1225002203038</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0.04</v>
+        <v>6.65</v>
       </c>
       <c r="I238" t="n">
-        <v>125115</v>
+        <v>129684</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3188196</v>
+        <v>3195388</v>
       </c>
       <c r="E239" t="n">
-        <v>30208630</v>
+        <v>30276775</v>
       </c>
       <c r="F239" t="n">
-        <v>1069.544663291435</v>
+        <v>284.4666462579695</v>
       </c>
       <c r="G239" t="n">
-        <v>1679.556010910403</v>
+        <v>1399.63267811442</v>
       </c>
       <c r="H239" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I239" t="n">
-        <v>212269</v>
+        <v>213144</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>731943</v>
+        <v>735059</v>
       </c>
       <c r="E240" t="n">
-        <v>782443</v>
+        <v>785774</v>
       </c>
       <c r="F240" t="n">
-        <v>53.20032764693082</v>
+        <v>25.30968539992656</v>
       </c>
       <c r="G240" t="n">
-        <v>1955.291426733333</v>
+        <v>1569.929774715746</v>
       </c>
       <c r="H240" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="I240" t="n">
-        <v>85721</v>
+        <v>89576</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>363518</v>
+        <v>363553</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.44</v>
+        <v>12.24</v>
       </c>
       <c r="I241" t="n">
-        <v>345.82</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>132144</v>
+        <v>133616</v>
       </c>
       <c r="F242" t="n">
-        <v>232.4392988262527</v>
+        <v>230.8131945017875</v>
       </c>
       <c r="G242" t="n">
-        <v>8.125364322528814</v>
+        <v>8.120823908953804</v>
       </c>
       <c r="H242" t="n">
         <v>3.62</v>
       </c>
       <c r="I242" t="n">
-        <v>90766</v>
+        <v>90387</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570433</v>
+        <v>570583</v>
       </c>
       <c r="F243" t="n">
-        <v>571.1981808284244</v>
+        <v>304.1040832601395</v>
       </c>
       <c r="G243" t="n">
-        <v>97.7501333768061</v>
+        <v>354.7461540604612</v>
       </c>
       <c r="H243" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="I243" t="n">
-        <v>932.7</v>
+        <v>932.74</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6408778</v>
+        <v>6409291</v>
       </c>
       <c r="E244" t="n">
-        <v>40053030</v>
+        <v>40056232</v>
       </c>
       <c r="F244" t="n">
-        <v>445.7316253367152</v>
+        <v>119.5504629626475</v>
       </c>
       <c r="G244" t="n">
-        <v>1702.450385397764</v>
+        <v>1278.328340093657</v>
       </c>
       <c r="H244" t="n">
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="I244" t="n">
-        <v>430855</v>
+        <v>425027</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5152349</v>
+        <v>5258689</v>
       </c>
       <c r="E245" t="n">
-        <v>19186292</v>
+        <v>19582281</v>
       </c>
       <c r="F245" t="n">
-        <v>6826.272403784874</v>
+        <v>74.5991127481502</v>
       </c>
       <c r="G245" t="n">
-        <v>6322.562477531911</v>
+        <v>437.2697840457798</v>
       </c>
       <c r="H245" t="n">
-        <v>0.52</v>
+        <v>1.52</v>
       </c>
       <c r="I245" t="n">
-        <v>62298</v>
+        <v>70780</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3703654</v>
+        <v>3704584</v>
       </c>
       <c r="F246" t="n">
-        <v>142.6957001392003</v>
+        <v>127.0144530807256</v>
       </c>
       <c r="G246" t="n">
-        <v>1333.933610023497</v>
+        <v>1331.219828191779</v>
       </c>
       <c r="H246" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I246" t="n">
-        <v>7810.44</v>
+        <v>7729.76</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31592539</v>
+        <v>31565383</v>
       </c>
       <c r="E247" t="n">
-        <v>113239042</v>
+        <v>113141704</v>
       </c>
       <c r="F247" t="n">
-        <v>29.74164428234181</v>
+        <v>110.1224509526592</v>
       </c>
       <c r="G247" t="n">
-        <v>2078.38162336712</v>
+        <v>2127.126949564969</v>
       </c>
       <c r="H247" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="I247" t="n">
-        <v>91263</v>
+        <v>89542</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1570105</v>
+        <v>1578991</v>
       </c>
       <c r="F248" t="n">
-        <v>273.9247230335998</v>
+        <v>14.7242081039848</v>
       </c>
       <c r="G248" t="n">
-        <v>8.753003642503172</v>
+        <v>63.83425413263628</v>
       </c>
       <c r="H248" t="n">
-        <v>1.92</v>
+        <v>2.53</v>
       </c>
       <c r="I248" t="n">
-        <v>603046</v>
+        <v>606929</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2221579</v>
+        <v>2234653</v>
       </c>
       <c r="E249" t="n">
-        <v>17087756</v>
+        <v>17188313</v>
       </c>
       <c r="F249" t="n">
-        <v>4743.917049325632</v>
+        <v>959.1889182340918</v>
       </c>
       <c r="G249" t="n">
-        <v>5383.485437976925</v>
+        <v>1350.614764414489</v>
       </c>
       <c r="H249" t="n">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="I249" t="n">
-        <v>174635</v>
+        <v>167272</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103776</v>
+        <v>103767</v>
       </c>
       <c r="E250" t="n">
-        <v>824296</v>
+        <v>824224</v>
       </c>
       <c r="F250" t="n">
-        <v>158.293059588458</v>
+        <v>158.2937535197796</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5849712337131</v>
+        <v>359.5865475964102</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1318.44</v>
+        <v>1318.61</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88664052</v>
+        <v>89005814</v>
       </c>
       <c r="E251" t="n">
-        <v>327754281</v>
+        <v>329016118</v>
       </c>
       <c r="F251" t="n">
-        <v>5165.939955681186</v>
+        <v>1035.267051695301</v>
       </c>
       <c r="G251" t="n">
-        <v>991.3080198622638</v>
+        <v>883.2248634607563</v>
       </c>
       <c r="H251" t="n">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="I251" t="n">
-        <v>240875</v>
+        <v>239252</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2300741</v>
+        <v>2300475</v>
       </c>
       <c r="E252" t="n">
-        <v>9231799</v>
+        <v>9230733</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>6.25</v>
+        <v>6.74</v>
       </c>
       <c r="I252" t="n">
-        <v>41702</v>
+        <v>41703</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>590163</v>
+        <v>590161</v>
       </c>
       <c r="F253" t="n">
-        <v>3.142764824289172</v>
+        <v>338.1232208952154</v>
       </c>
       <c r="G253" t="n">
-        <v>29.70019621517808</v>
+        <v>7.358807947363053</v>
       </c>
       <c r="H253" t="n">
-        <v>3.79</v>
+        <v>3.64</v>
       </c>
       <c r="I253" t="n">
-        <v>3402.45</v>
+        <v>3402.81</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39601</v>
+        <v>39605</v>
       </c>
       <c r="F254" t="n">
-        <v>100.1538832119659</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1.292398726420244</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.89</v>
+        <v>5.36</v>
       </c>
       <c r="I254" t="n">
-        <v>4239.05</v>
+        <v>4239.5</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>752874274</v>
+        <v>756941809</v>
       </c>
       <c r="E255" t="n">
-        <v>1160998603</v>
+        <v>1167271102</v>
       </c>
       <c r="F255" t="n">
-        <v>158180.5342898517</v>
+        <v>15744.95789108619</v>
       </c>
       <c r="G255" t="n">
-        <v>196868.1506133803</v>
+        <v>127674.9047618677</v>
       </c>
       <c r="H255" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="I255" t="n">
-        <v>220122138</v>
+        <v>187321528</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5767082</v>
+        <v>5764341</v>
       </c>
       <c r="E256" t="n">
-        <v>5767082</v>
+        <v>5764341</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>9.09</v>
+        <v>8.44</v>
       </c>
       <c r="I256" t="n">
-        <v>629.71</v>
+        <v>619.17</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39544264</v>
+        <v>39576523</v>
       </c>
       <c r="E257" t="n">
-        <v>188594568</v>
+        <v>188748417</v>
       </c>
       <c r="F257" t="n">
-        <v>986.8264475651791</v>
+        <v>419.7990374365834</v>
       </c>
       <c r="G257" t="n">
-        <v>366.5613880563243</v>
+        <v>227.3575098031255</v>
       </c>
       <c r="H257" t="n">
-        <v>0.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I257" t="n">
-        <v>422272</v>
+        <v>422658</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>568652</v>
+        <v>588616</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>10.5</v>
+        <v>10.61</v>
       </c>
       <c r="I258" t="n">
-        <v>453.41</v>
+        <v>382.82</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23509841</v>
+        <v>23560714</v>
       </c>
       <c r="E259" t="n">
-        <v>39183067</v>
+        <v>39267856</v>
       </c>
       <c r="F259" t="n">
-        <v>5006.99899246893</v>
+        <v>2825.620571861451</v>
       </c>
       <c r="G259" t="n">
-        <v>6936.884864210171</v>
+        <v>6738.22203071973</v>
       </c>
       <c r="H259" t="n">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
       <c r="I259" t="n">
-        <v>506675</v>
+        <v>482441</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110057</v>
+        <v>110290</v>
       </c>
       <c r="F260" t="n">
-        <v>114.4106684302257</v>
+        <v>120.9679244611407</v>
       </c>
       <c r="G260" t="n">
-        <v>88.3973020923839</v>
+        <v>57.76020430502701</v>
       </c>
       <c r="H260" t="n">
-        <v>0.66</v>
+        <v>0.04</v>
       </c>
       <c r="I260" t="n">
-        <v>49922</v>
+        <v>50150</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>2916899</v>
+        <v>2611106</v>
       </c>
       <c r="E261" t="n">
-        <v>12453524</v>
+        <v>11144964</v>
       </c>
       <c r="F261" t="n">
-        <v>73.52766703032425</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>4.09655803578219</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.61</v>
+        <v>12.99</v>
       </c>
       <c r="I261" t="n">
-        <v>232501</v>
+        <v>354907</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3830931</v>
+        <v>3845880</v>
       </c>
       <c r="E262" t="n">
-        <v>8359043</v>
+        <v>8391660</v>
       </c>
       <c r="F262" t="n">
-        <v>1117.727899346778</v>
+        <v>955.0689303734553</v>
       </c>
       <c r="G262" t="n">
-        <v>1674.658418443108</v>
+        <v>1442.84449418406</v>
       </c>
       <c r="H262" t="n">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="I262" t="n">
-        <v>1593866</v>
+        <v>1654722</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>495750647</v>
+        <v>498330311</v>
       </c>
       <c r="E263" t="n">
-        <v>1725666745</v>
+        <v>1734646339</v>
       </c>
       <c r="F263" t="n">
-        <v>723727.7012905956</v>
+        <v>277890.1573208998</v>
       </c>
       <c r="G263" t="n">
-        <v>607346.0717367668</v>
+        <v>443442.7386652149</v>
       </c>
       <c r="H263" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I263" t="n">
-        <v>30271680</v>
+        <v>30876293</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5766181421</v>
+        <v>5779572120</v>
       </c>
       <c r="E264" t="n">
-        <v>5766181421</v>
+        <v>5779572120</v>
       </c>
       <c r="F264" t="n">
-        <v>3182.06953227587</v>
+        <v>2074.699207972587</v>
       </c>
       <c r="G264" t="n">
-        <v>1871.845305751712</v>
+        <v>1774.947215967891</v>
       </c>
       <c r="H264" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I264" t="n">
-        <v>10241788</v>
+        <v>10121647</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24047297</v>
+        <v>24078560</v>
       </c>
       <c r="E265" t="n">
-        <v>24026408</v>
+        <v>24057644</v>
       </c>
       <c r="F265" t="n">
-        <v>319.9067167629528</v>
+        <v>274.5766541011145</v>
       </c>
       <c r="G265" t="n">
-        <v>91.20594851673863</v>
+        <v>115.3968851321127</v>
       </c>
       <c r="H265" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="I265" t="n">
-        <v>84491</v>
+        <v>84328</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12246755</v>
+        <v>12254935</v>
       </c>
       <c r="E266" t="n">
-        <v>24766965</v>
+        <v>24779915</v>
       </c>
       <c r="F266" t="n">
-        <v>719.8761547608927</v>
+        <v>600.8415229410756</v>
       </c>
       <c r="G266" t="n">
-        <v>689.4631283793192</v>
+        <v>687.1484833399666</v>
       </c>
       <c r="H266" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I266" t="n">
-        <v>40918</v>
+        <v>41300</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>153359</v>
+        <v>152115</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5714467799561</v>
+        <v>182.5722471437656</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1449543845279</v>
+        <v>132.1455336867187</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>58595</v>
+        <v>58608</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47201</v>
+        <v>47206</v>
       </c>
       <c r="F268" t="n">
-        <v>60.41763319942324</v>
+        <v>64.39498846988586</v>
       </c>
       <c r="G268" t="n">
-        <v>51.11501417479712</v>
+        <v>3.000547147680463</v>
       </c>
       <c r="H268" t="n">
-        <v>2.54</v>
+        <v>0.21</v>
       </c>
       <c r="I268" t="n">
-        <v>71530</v>
+        <v>71277</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2631093</v>
+        <v>2631929</v>
       </c>
       <c r="E269" t="n">
-        <v>10524372</v>
+        <v>10527717</v>
       </c>
       <c r="F269" t="n">
-        <v>54000.80944817665</v>
+        <v>37207.15347635018</v>
       </c>
       <c r="G269" t="n">
-        <v>44473.27796630496</v>
+        <v>59316.64828586305</v>
       </c>
       <c r="H269" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="I269" t="n">
-        <v>6858163</v>
+        <v>6860962</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>226763653</v>
+        <v>229227366</v>
       </c>
       <c r="E270" t="n">
-        <v>697212897</v>
+        <v>704787887</v>
       </c>
       <c r="F270" t="n">
-        <v>200369.2477018207</v>
+        <v>49411.79030771439</v>
       </c>
       <c r="G270" t="n">
-        <v>254192.2370985101</v>
+        <v>142058.1227723215</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.62</v>
       </c>
       <c r="I270" t="n">
-        <v>14609203</v>
+        <v>15171962</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>151842455</v>
+        <v>148336981</v>
       </c>
       <c r="E271" t="n">
-        <v>396684201</v>
+        <v>387526249</v>
       </c>
       <c r="F271" t="n">
-        <v>54273.13771049415</v>
+        <v>28594.39386960955</v>
       </c>
       <c r="G271" t="n">
-        <v>62032.59167517648</v>
+        <v>13104.06851067995</v>
       </c>
       <c r="H271" t="n">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="I271" t="n">
-        <v>7427956</v>
+        <v>7171582</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2454135</v>
+        <v>2452859</v>
       </c>
       <c r="E272" t="n">
-        <v>3368312</v>
+        <v>3366597</v>
       </c>
       <c r="F272" t="n">
-        <v>59.56394810925386</v>
+        <v>58.28684256115256</v>
       </c>
       <c r="G272" t="n">
-        <v>289.5843850628076</v>
+        <v>204.1907560547679</v>
       </c>
       <c r="H272" t="n">
-        <v>0.85</v>
+        <v>1.71</v>
       </c>
       <c r="I272" t="n">
-        <v>1041042</v>
+        <v>1914833</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54613</v>
+        <v>54606</v>
       </c>
       <c r="F2" t="n">
-        <v>2.769400651243066</v>
+        <v>2.769400652964141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2819013691929412</v>
+        <v>0.2819013693681319</v>
       </c>
       <c r="H2" t="n">
         <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>987.95</v>
+        <v>987.9400000000001</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91303</v>
+        <v>91285</v>
       </c>
       <c r="F3" t="n">
-        <v>22.4993393994576</v>
+        <v>22.4993394134329</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1766790761136</v>
+        <v>416.1766793346188</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1411</v>
+        <v>1410.8</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>609086848</v>
+        <v>609977785</v>
       </c>
       <c r="E4" t="n">
-        <v>1181900015</v>
+        <v>1183629172</v>
       </c>
       <c r="F4" t="n">
-        <v>22703.01491401585</v>
+        <v>22892.37707456887</v>
       </c>
       <c r="G4" t="n">
-        <v>25001.31587059177</v>
+        <v>24834.24729611984</v>
       </c>
       <c r="H4" t="n">
         <v>0.39</v>
       </c>
       <c r="I4" t="n">
-        <v>18817844</v>
+        <v>18847535</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1354640</v>
+        <v>1346634</v>
       </c>
       <c r="E5" t="n">
-        <v>4378751</v>
+        <v>4352873</v>
       </c>
       <c r="F5" t="n">
-        <v>1044.410707689133</v>
+        <v>1013.561098279586</v>
       </c>
       <c r="G5" t="n">
-        <v>4826.008231988647</v>
+        <v>4759.754730667058</v>
       </c>
       <c r="H5" t="n">
         <v>1.58</v>
       </c>
       <c r="I5" t="n">
-        <v>126669</v>
+        <v>124230</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>146979466</v>
+        <v>147105454</v>
       </c>
       <c r="E6" t="n">
-        <v>162876218</v>
+        <v>163015833</v>
       </c>
       <c r="F6" t="n">
-        <v>61816.47148622676</v>
+        <v>64165.4413347595</v>
       </c>
       <c r="G6" t="n">
-        <v>287151.3060163887</v>
+        <v>286419.8574408754</v>
       </c>
       <c r="H6" t="n">
         <v>0.24</v>
       </c>
       <c r="I6" t="n">
-        <v>37450472</v>
+        <v>37341173</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.35</v>
+        <v>3821.44</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8466513</v>
+        <v>8471272</v>
       </c>
       <c r="E8" t="n">
-        <v>8680007</v>
+        <v>8684886</v>
       </c>
       <c r="F8" t="n">
-        <v>221.4855195756232</v>
+        <v>221.4855196896845</v>
       </c>
       <c r="G8" t="n">
-        <v>4405.108945238707</v>
+        <v>4405.108947507262</v>
       </c>
       <c r="H8" t="n">
         <v>1.77</v>
       </c>
       <c r="I8" t="n">
-        <v>87739</v>
+        <v>88080</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285513</v>
+        <v>285188</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>6.85</v>
       </c>
       <c r="I9" t="n">
-        <v>436.29</v>
+        <v>435.82</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4991201</v>
+        <v>4982347</v>
       </c>
       <c r="E10" t="n">
-        <v>7974439</v>
+        <v>7960294</v>
       </c>
       <c r="F10" t="n">
-        <v>312.1909375191489</v>
+        <v>239.9555857982516</v>
       </c>
       <c r="G10" t="n">
-        <v>212.4118639455715</v>
+        <v>432.1577509772094</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>98415</v>
+        <v>98762</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1000998</v>
+        <v>1000332</v>
       </c>
       <c r="E11" t="n">
-        <v>12249517</v>
+        <v>12241368</v>
       </c>
       <c r="F11" t="n">
-        <v>1444.809931133828</v>
+        <v>1444.80993187788</v>
       </c>
       <c r="G11" t="n">
-        <v>1187.338789014398</v>
+        <v>1267.288236574431</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>481.23</v>
+        <v>471.28</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>584495</v>
+        <v>586411</v>
       </c>
       <c r="E12" t="n">
-        <v>584495</v>
+        <v>586411</v>
       </c>
       <c r="F12" t="n">
-        <v>78.48818821100757</v>
+        <v>174.3236540423202</v>
       </c>
       <c r="G12" t="n">
-        <v>5.000896293287855</v>
+        <v>5.000946091604334</v>
       </c>
       <c r="H12" t="n">
-        <v>3.72</v>
+        <v>1.26</v>
       </c>
       <c r="I12" t="n">
-        <v>31013</v>
+        <v>29464</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4575763</v>
+        <v>4575535</v>
       </c>
       <c r="E13" t="n">
-        <v>28105643</v>
+        <v>28104243</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7250283997242</v>
+        <v>382.6127844084163</v>
       </c>
       <c r="G13" t="n">
-        <v>280.0776480671969</v>
+        <v>649.5214597061307</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>655983</v>
+        <v>650119</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198287</v>
+        <v>197974</v>
       </c>
       <c r="E14" t="n">
-        <v>2181375</v>
+        <v>2177927</v>
       </c>
       <c r="F14" t="n">
-        <v>45.03670496818128</v>
+        <v>45.0367049913744</v>
       </c>
       <c r="G14" t="n">
-        <v>926.2433560622227</v>
+        <v>926.2433565392221</v>
       </c>
       <c r="H14" t="n">
         <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>27265</v>
+        <v>27311</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3355397</v>
+        <v>3358945</v>
       </c>
       <c r="E15" t="n">
-        <v>9545808</v>
+        <v>9555900</v>
       </c>
       <c r="F15" t="n">
-        <v>168.024422681112</v>
+        <v>357.1800164905229</v>
       </c>
       <c r="G15" t="n">
-        <v>173.6474573329354</v>
+        <v>99.15485185457474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>1.45</v>
       </c>
       <c r="I15" t="n">
-        <v>108084</v>
+        <v>107631</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315268</v>
+        <v>315690</v>
       </c>
       <c r="E16" t="n">
-        <v>3638568</v>
+        <v>3643439</v>
       </c>
       <c r="F16" t="n">
-        <v>141.4860951611213</v>
+        <v>142.8673969410071</v>
       </c>
       <c r="G16" t="n">
-        <v>130.7159415807377</v>
+        <v>130.7159416480542</v>
       </c>
       <c r="H16" t="n">
         <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>3397.73</v>
+        <v>3394.61</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>923536</v>
+        <v>922939</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>6.14</v>
       </c>
       <c r="I17" t="n">
-        <v>11104.83</v>
+        <v>11103.05</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23181540</v>
+        <v>23218303</v>
       </c>
       <c r="E18" t="n">
-        <v>23224581</v>
+        <v>23261412</v>
       </c>
       <c r="F18" t="n">
-        <v>1806.208995094092</v>
+        <v>988.0171813240034</v>
       </c>
       <c r="G18" t="n">
-        <v>1504.043956974499</v>
+        <v>1504.043957749056</v>
       </c>
       <c r="H18" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I18" t="n">
-        <v>857547</v>
+        <v>856757</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7204014</v>
+        <v>6984524</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4266951060857442</v>
+        <v>0.4266951063054848</v>
       </c>
       <c r="G19" t="n">
-        <v>89.49925609775785</v>
+        <v>89.49925614384843</v>
       </c>
       <c r="H19" t="n">
         <v>2.83</v>
       </c>
       <c r="I19" t="n">
-        <v>14496.78</v>
+        <v>13906.5</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2446083</v>
+        <v>2433203</v>
       </c>
       <c r="E20" t="n">
-        <v>2446083</v>
+        <v>2433203</v>
       </c>
       <c r="F20" t="n">
-        <v>84.72205520535506</v>
+        <v>84.72205525800651</v>
       </c>
       <c r="G20" t="n">
-        <v>351.4190043928974</v>
+        <v>351.4190046112905</v>
       </c>
       <c r="H20" t="n">
         <v>1.4</v>
       </c>
       <c r="I20" t="n">
-        <v>318629</v>
+        <v>320101</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>404097</v>
+        <v>404001</v>
       </c>
       <c r="F21" t="n">
-        <v>118.2488396756556</v>
+        <v>118.2488397365517</v>
       </c>
       <c r="G21" t="n">
-        <v>1.637324659836277</v>
+        <v>1.637324660679471</v>
       </c>
       <c r="H21" t="n">
         <v>1.95</v>
       </c>
       <c r="I21" t="n">
-        <v>1751.87</v>
+        <v>1751.66</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17518771</v>
+        <v>17535825</v>
       </c>
       <c r="E22" t="n">
-        <v>22548096</v>
+        <v>22570046</v>
       </c>
       <c r="F22" t="n">
-        <v>2212.009327250029</v>
+        <v>3246.469982416495</v>
       </c>
       <c r="G22" t="n">
-        <v>5251.101714303129</v>
+        <v>5839.540191272215</v>
       </c>
       <c r="H22" t="n">
         <v>0.33</v>
       </c>
       <c r="I22" t="n">
-        <v>1653111</v>
+        <v>1648270</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>478286193</v>
+        <v>476977210</v>
       </c>
       <c r="E23" t="n">
-        <v>478286198</v>
+        <v>476977214</v>
       </c>
       <c r="F23" t="n">
-        <v>13362.74943275031</v>
+        <v>11293.68182840833</v>
       </c>
       <c r="G23" t="n">
-        <v>40893.18727814544</v>
+        <v>42708.1118668864</v>
       </c>
       <c r="H23" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="I23" t="n">
-        <v>82750812</v>
+        <v>68717395</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23580</v>
+        <v>23577</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>4.95</v>
       </c>
       <c r="I24" t="n">
-        <v>2312.46</v>
+        <v>2242.82</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4722258</v>
+        <v>4718183</v>
       </c>
       <c r="E25" t="n">
-        <v>4722258</v>
+        <v>4718183</v>
       </c>
       <c r="F25" t="n">
-        <v>523.7045996559576</v>
+        <v>523.7045999256566</v>
       </c>
       <c r="G25" t="n">
-        <v>766.4849529642</v>
+        <v>762.853191684945</v>
       </c>
       <c r="H25" t="n">
         <v>0.54</v>
       </c>
       <c r="I25" t="n">
-        <v>2008532</v>
+        <v>2014615</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3392759</v>
+        <v>3383636</v>
       </c>
       <c r="E26" t="n">
-        <v>3392759</v>
+        <v>3383636</v>
       </c>
       <c r="F26" t="n">
-        <v>10.89283183530841</v>
+        <v>10.89283184207442</v>
       </c>
       <c r="G26" t="n">
-        <v>318.1670156639273</v>
+        <v>318.1670158615544</v>
       </c>
       <c r="H26" t="n">
         <v>2.51</v>
       </c>
       <c r="I26" t="n">
-        <v>515824</v>
+        <v>516386</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>315036</v>
+        <v>314983</v>
       </c>
       <c r="E27" t="n">
-        <v>1470618</v>
+        <v>1470372</v>
       </c>
       <c r="F27" t="n">
-        <v>408.7676329001375</v>
+        <v>408.7676331540407</v>
       </c>
       <c r="G27" t="n">
-        <v>257.6982824499298</v>
+        <v>257.6982826099973</v>
       </c>
       <c r="H27" t="n">
         <v>1.15</v>
       </c>
       <c r="I27" t="n">
-        <v>706946</v>
+        <v>700626</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1511779</v>
+        <v>1509144</v>
       </c>
       <c r="F28" t="n">
-        <v>440.8492061023571</v>
+        <v>440.8492063763276</v>
       </c>
       <c r="G28" t="n">
-        <v>305.653649428273</v>
+        <v>257.3946137340537</v>
       </c>
       <c r="H28" t="n">
         <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>290909</v>
+        <v>289098</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12802439</v>
+        <v>12769771</v>
       </c>
       <c r="E29" t="n">
-        <v>31862955</v>
+        <v>31781649</v>
       </c>
       <c r="F29" t="n">
-        <v>800.9486563620785</v>
+        <v>770.2844680896294</v>
       </c>
       <c r="G29" t="n">
-        <v>971.6995167656115</v>
+        <v>971.6995173691759</v>
       </c>
       <c r="H29" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I29" t="n">
-        <v>1242978</v>
+        <v>1235285</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>936613</v>
+        <v>931251</v>
       </c>
       <c r="E30" t="n">
-        <v>6556293</v>
+        <v>6518755</v>
       </c>
       <c r="F30" t="n">
-        <v>96.33083378911878</v>
+        <v>99.88470244068225</v>
       </c>
       <c r="G30" t="n">
-        <v>13.33821634303276</v>
+        <v>13.33821634990171</v>
       </c>
       <c r="H30" t="n">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="I30" t="n">
-        <v>250992</v>
+        <v>249358</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190198</v>
+        <v>190092</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>1155.43</v>
+        <v>1154.39</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5609918</v>
+        <v>5722136</v>
       </c>
       <c r="E32" t="n">
-        <v>5878296</v>
+        <v>5995883</v>
       </c>
       <c r="F32" t="n">
-        <v>151.528939208258</v>
+        <v>214.0066732605792</v>
       </c>
       <c r="G32" t="n">
-        <v>73.29450001640978</v>
+        <v>10.7423015105993</v>
       </c>
       <c r="H32" t="n">
-        <v>2.51</v>
+        <v>2.94</v>
       </c>
       <c r="I32" t="n">
-        <v>173135</v>
+        <v>152436</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5156616</v>
+        <v>5176626</v>
       </c>
       <c r="E33" t="n">
-        <v>7590819</v>
+        <v>7620274</v>
       </c>
       <c r="F33" t="n">
-        <v>75.96486647434237</v>
+        <v>76.65065417962118</v>
       </c>
       <c r="G33" t="n">
-        <v>109.3052066653196</v>
+        <v>113.8344305420038</v>
       </c>
       <c r="H33" t="n">
-        <v>3.27</v>
+        <v>2.59</v>
       </c>
       <c r="I33" t="n">
-        <v>646469</v>
+        <v>608277</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7690156</v>
+        <v>7690048</v>
       </c>
       <c r="E34" t="n">
-        <v>7690156</v>
+        <v>7690048</v>
       </c>
       <c r="F34" t="n">
-        <v>31608.33856965554</v>
+        <v>31607.98698121719</v>
       </c>
       <c r="G34" t="n">
-        <v>31604.16862779208</v>
+        <v>31604.16864742279</v>
       </c>
       <c r="H34" t="n">
         <v>0.82</v>
       </c>
       <c r="I34" t="n">
-        <v>332358</v>
+        <v>329763</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1450368</v>
+        <v>1448600</v>
       </c>
       <c r="E35" t="n">
-        <v>1450368</v>
+        <v>1448600</v>
       </c>
       <c r="F35" t="n">
-        <v>502.8146597948762</v>
+        <v>502.814660107196</v>
       </c>
       <c r="G35" t="n">
-        <v>100.3381180124803</v>
+        <v>100.3381180748046</v>
       </c>
       <c r="H35" t="n">
         <v>0.73</v>
       </c>
       <c r="I35" t="n">
-        <v>277441</v>
+        <v>278841</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15845388</v>
+        <v>15788607</v>
       </c>
       <c r="F36" t="n">
-        <v>48.29049352653796</v>
+        <v>92.04906744575587</v>
       </c>
       <c r="G36" t="n">
-        <v>7.252713778462337</v>
+        <v>39.13012263148018</v>
       </c>
       <c r="H36" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="I36" t="n">
-        <v>11959.96</v>
+        <v>11932</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58246</v>
+        <v>58232</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302797700998291</v>
+        <v>1.302797701669209</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005460995124333722</v>
+        <v>0.00546099512714604</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>602.72</v>
+        <v>602.65</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>139801911</v>
+        <v>139697662</v>
       </c>
       <c r="E38" t="n">
-        <v>139801911</v>
+        <v>139697662</v>
       </c>
       <c r="F38" t="n">
-        <v>115678.6425467737</v>
+        <v>115696.9369007319</v>
       </c>
       <c r="G38" t="n">
-        <v>505723.9655643286</v>
+        <v>500129.7804553386</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>68105069</v>
+        <v>68133880</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>66663090</v>
+        <v>67046338</v>
       </c>
       <c r="E39" t="n">
-        <v>341862002</v>
+        <v>343827377</v>
       </c>
       <c r="F39" t="n">
-        <v>37357.22733910859</v>
+        <v>33969.92078807631</v>
       </c>
       <c r="G39" t="n">
-        <v>60260.34178205948</v>
+        <v>56428.39084371537</v>
       </c>
       <c r="H39" t="n">
         <v>0.55</v>
       </c>
       <c r="I39" t="n">
-        <v>22065382</v>
+        <v>22214304</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46399</v>
+        <v>46404</v>
       </c>
       <c r="E40" t="n">
-        <v>137116</v>
+        <v>137133</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.029999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="I40" t="n">
-        <v>157.53</v>
+        <v>157.54</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>52681</v>
+        <v>52539</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.06</v>
       </c>
       <c r="I41" t="n">
-        <v>25151</v>
+        <v>25059</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>594194</v>
+        <v>593419</v>
       </c>
       <c r="F42" t="n">
-        <v>2143.671932458487</v>
+        <v>2020.417126730412</v>
       </c>
       <c r="G42" t="n">
-        <v>356.3624997975477</v>
+        <v>356.3625000188998</v>
       </c>
       <c r="H42" t="n">
         <v>1.05</v>
       </c>
       <c r="I42" t="n">
-        <v>1083.79</v>
+        <v>1082.37</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2680551</v>
+        <v>2691002</v>
       </c>
       <c r="E44" t="n">
-        <v>10772523</v>
+        <v>10814522</v>
       </c>
       <c r="F44" t="n">
-        <v>214.7257881904513</v>
+        <v>215.9624136674022</v>
       </c>
       <c r="G44" t="n">
-        <v>114.0336896742303</v>
+        <v>90.06240158633712</v>
       </c>
       <c r="H44" t="n">
         <v>0.91</v>
       </c>
       <c r="I44" t="n">
-        <v>33978</v>
+        <v>34132</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17577558</v>
+        <v>17551971</v>
       </c>
       <c r="E45" t="n">
-        <v>123889246</v>
+        <v>123708545</v>
       </c>
       <c r="F45" t="n">
-        <v>126.9866749588853</v>
+        <v>126.9866750378026</v>
       </c>
       <c r="G45" t="n">
-        <v>62.79010017273308</v>
+        <v>62.79010021175467</v>
       </c>
       <c r="H45" t="n">
         <v>0.76</v>
       </c>
       <c r="I45" t="n">
-        <v>1054125</v>
+        <v>1046344</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>149051</v>
+        <v>149193</v>
       </c>
       <c r="E46" t="n">
-        <v>1994392</v>
+        <v>1996291</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>44263</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>257917660</v>
+        <v>257684251</v>
       </c>
       <c r="E47" t="n">
-        <v>257917660</v>
+        <v>257684251</v>
       </c>
       <c r="F47" t="n">
-        <v>36617.233286438</v>
+        <v>40646.27388522954</v>
       </c>
       <c r="G47" t="n">
-        <v>98303.23645570719</v>
+        <v>89645.55893650274</v>
       </c>
       <c r="H47" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I47" t="n">
-        <v>14511837</v>
+        <v>14349667</v>
       </c>
     </row>
     <row r="48">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>639483</v>
+        <v>639607</v>
       </c>
       <c r="E48" t="n">
-        <v>639483</v>
+        <v>639607</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>4.01</v>
+        <v>3.93</v>
       </c>
       <c r="I48" t="n">
-        <v>2865.55</v>
+        <v>2860.31</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>445553578</v>
+        <v>444838305</v>
       </c>
       <c r="E50" t="n">
-        <v>445553578</v>
+        <v>444838305</v>
       </c>
       <c r="F50" t="n">
-        <v>2753.792436051781</v>
+        <v>2842.267849858362</v>
       </c>
       <c r="G50" t="n">
-        <v>2636.050980733728</v>
+        <v>2247.201750231586</v>
       </c>
       <c r="H50" t="n">
         <v>0.38</v>
       </c>
       <c r="I50" t="n">
-        <v>2555078</v>
+        <v>2545210</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2471585</v>
+        <v>2463165</v>
       </c>
       <c r="E51" t="n">
-        <v>2471585</v>
+        <v>2463165</v>
       </c>
       <c r="F51" t="n">
-        <v>73.76207148714987</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>23.64756662850024</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.94</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>55477</v>
+        <v>55231</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23406</v>
+        <v>23405</v>
       </c>
       <c r="E52" t="n">
-        <v>46812</v>
+        <v>46811</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.789999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>1872.72</v>
+        <v>1872.89</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>168906</v>
+        <v>168769</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>6.77</v>
+        <v>9.77</v>
       </c>
       <c r="I53" t="n">
-        <v>24093</v>
+        <v>23850</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2557812</v>
+        <v>2556816</v>
       </c>
       <c r="E54" t="n">
-        <v>6539268</v>
+        <v>6536722</v>
       </c>
       <c r="F54" t="n">
-        <v>236.0755820350531</v>
+        <v>248.9286969062422</v>
       </c>
       <c r="G54" t="n">
-        <v>95.42821361006618</v>
+        <v>188.2861033152196</v>
       </c>
       <c r="H54" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="I54" t="n">
-        <v>109631</v>
+        <v>109352</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3550.58</v>
+        <v>3643.24</v>
       </c>
       <c r="F55" t="n">
-        <v>4.587366568250406</v>
+        <v>4.587366570612821</v>
       </c>
       <c r="G55" t="n">
-        <v>2.940515732516326</v>
+        <v>2.940515734030641</v>
       </c>
       <c r="H55" t="n">
         <v>0.51</v>
       </c>
       <c r="I55" t="n">
-        <v>334.42</v>
+        <v>339.89</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74733078</v>
+        <v>74549274</v>
       </c>
       <c r="E56" t="n">
-        <v>74733078</v>
+        <v>74549274</v>
       </c>
       <c r="F56" t="n">
-        <v>11291.20599281767</v>
+        <v>9545.233930121602</v>
       </c>
       <c r="G56" t="n">
-        <v>21125.11217207601</v>
+        <v>20398.34466998212</v>
       </c>
       <c r="H56" t="n">
         <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>3403524</v>
+        <v>3383026</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3531896</v>
+        <v>3517173</v>
       </c>
       <c r="E57" t="n">
-        <v>4475529</v>
+        <v>4456872</v>
       </c>
       <c r="F57" t="n">
-        <v>523.3867606250604</v>
+        <v>523.3867608945957</v>
       </c>
       <c r="G57" t="n">
-        <v>70.99847522560586</v>
+        <v>45.59790345548798</v>
       </c>
       <c r="H57" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="I57" t="n">
-        <v>252362</v>
+        <v>250804</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4108986</v>
+        <v>4109583</v>
       </c>
       <c r="E58" t="n">
-        <v>8103266</v>
+        <v>8104443</v>
       </c>
       <c r="F58" t="n">
-        <v>2041.751790663317</v>
+        <v>1886.47349640412</v>
       </c>
       <c r="G58" t="n">
-        <v>16431.1959494301</v>
+        <v>16278.7681835436</v>
       </c>
       <c r="H58" t="n">
         <v>0.68</v>
       </c>
       <c r="I58" t="n">
-        <v>1648690</v>
+        <v>1648622</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1613899</v>
+        <v>1615119</v>
       </c>
       <c r="E59" t="n">
-        <v>9266403</v>
+        <v>9273410</v>
       </c>
       <c r="F59" t="n">
-        <v>184.9526759149998</v>
+        <v>189.6434382820907</v>
       </c>
       <c r="G59" t="n">
-        <v>317.6452928934199</v>
+        <v>317.6452930570018</v>
       </c>
       <c r="H59" t="n">
         <v>0.91</v>
       </c>
       <c r="I59" t="n">
-        <v>279536</v>
+        <v>277570</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>552071</v>
+        <v>551846</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1686.97</v>
+        <v>1686.29</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31260149</v>
+        <v>31243462</v>
       </c>
       <c r="F61" t="n">
-        <v>731.1999984829247</v>
+        <v>731.19999885948</v>
       </c>
       <c r="G61" t="n">
-        <v>1281.923500918215</v>
+        <v>1202.801683043991</v>
       </c>
       <c r="H61" t="n">
         <v>0.43</v>
       </c>
       <c r="I61" t="n">
-        <v>245755</v>
+        <v>244497</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1429269</v>
+        <v>1433768</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>28429</v>
+        <v>28436</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7636252</v>
+        <v>7626017</v>
       </c>
       <c r="E63" t="n">
-        <v>17984893</v>
+        <v>17960787</v>
       </c>
       <c r="F63" t="n">
-        <v>1210.653322522158</v>
+        <v>1221.411844305593</v>
       </c>
       <c r="G63" t="n">
-        <v>2371.636853816644</v>
+        <v>2276.208846848078</v>
       </c>
       <c r="H63" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="I63" t="n">
-        <v>30021</v>
+        <v>30093</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2997453</v>
+        <v>3016081</v>
       </c>
       <c r="E64" t="n">
-        <v>2997453</v>
+        <v>3016081</v>
       </c>
       <c r="F64" t="n">
-        <v>11.76867322461957</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>124.4551702779958</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="I64" t="n">
-        <v>19956.23</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3375884</v>
+        <v>3374025</v>
       </c>
       <c r="E65" t="n">
-        <v>8329823</v>
+        <v>8325234</v>
       </c>
       <c r="F65" t="n">
-        <v>366.4856024696182</v>
+        <v>366.485602658352</v>
       </c>
       <c r="G65" t="n">
-        <v>701.9587103186541</v>
+        <v>701.9587106801508</v>
       </c>
       <c r="H65" t="n">
         <v>1.19</v>
       </c>
       <c r="I65" t="n">
-        <v>40638</v>
+        <v>40327</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>265787</v>
+        <v>265640</v>
       </c>
       <c r="F66" t="n">
-        <v>87.57595864081679</v>
+        <v>87.5759586859169</v>
       </c>
       <c r="G66" t="n">
-        <v>41.18601447998723</v>
+        <v>41.18601450119732</v>
       </c>
       <c r="H66" t="n">
         <v>1.69</v>
       </c>
       <c r="I66" t="n">
-        <v>1696.87</v>
+        <v>1591.99</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>78255538</v>
+        <v>78441662</v>
       </c>
       <c r="E67" t="n">
-        <v>163202537</v>
+        <v>163590699</v>
       </c>
       <c r="F67" t="n">
-        <v>11270.79413367391</v>
+        <v>40855.42799784168</v>
       </c>
       <c r="G67" t="n">
-        <v>49490.96318126578</v>
+        <v>51274.56705977751</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I67" t="n">
-        <v>17518952</v>
+        <v>17707892</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1870449</v>
+        <v>1870382</v>
       </c>
       <c r="F68" t="n">
-        <v>49.1604347106783</v>
+        <v>49.16043474122958</v>
       </c>
       <c r="G68" t="n">
-        <v>8.001457857595375</v>
+        <v>8.001457862567968</v>
       </c>
       <c r="H68" t="n">
         <v>1.02</v>
       </c>
       <c r="I68" t="n">
-        <v>4523.23</v>
+        <v>4523.61</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199211089</v>
+        <v>199854883</v>
       </c>
       <c r="F69" t="n">
-        <v>2768.664576612609</v>
+        <v>2620.973580119105</v>
       </c>
       <c r="G69" t="n">
-        <v>2958.009219949446</v>
+        <v>3030.488597491349</v>
       </c>
       <c r="H69" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I69" t="n">
-        <v>2068266</v>
+        <v>3578222</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179554</v>
+        <v>179905</v>
       </c>
       <c r="E70" t="n">
-        <v>187506</v>
+        <v>187872</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>330.27</v>
+        <v>326.31</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144913105</v>
+        <v>144927405</v>
       </c>
       <c r="E71" t="n">
-        <v>144961830</v>
+        <v>144976134</v>
       </c>
       <c r="F71" t="n">
-        <v>19508.74162038365</v>
+        <v>19508.74163250757</v>
       </c>
       <c r="G71" t="n">
-        <v>41848.22455195033</v>
+        <v>38186.80812875934</v>
       </c>
       <c r="H71" t="n">
         <v>0.22</v>
       </c>
       <c r="I71" t="n">
-        <v>2593327</v>
+        <v>2591211</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26186526</v>
+        <v>26196375</v>
       </c>
       <c r="E72" t="n">
-        <v>85939174</v>
+        <v>85971497</v>
       </c>
       <c r="F72" t="n">
-        <v>9534.40026448382</v>
+        <v>9732.697143317504</v>
       </c>
       <c r="G72" t="n">
-        <v>31531.92450417943</v>
+        <v>31322.88156202851</v>
       </c>
       <c r="H72" t="n">
         <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>115230</v>
+        <v>115224</v>
       </c>
     </row>
     <row r="73">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>116620</v>
+        <v>116496</v>
       </c>
       <c r="E73" t="n">
-        <v>116620</v>
+        <v>116496</v>
       </c>
       <c r="F73" t="n">
-        <v>367.7517261877369</v>
+        <v>367.7517264162802</v>
       </c>
       <c r="G73" t="n">
-        <v>1.46954688670063</v>
+        <v>1.469546887613896</v>
       </c>
       <c r="H73" t="n">
         <v>2.11</v>
       </c>
       <c r="I73" t="n">
-        <v>428.39</v>
+        <v>426.23</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>204970917</v>
+        <v>205280170</v>
       </c>
       <c r="E74" t="n">
-        <v>712087489</v>
+        <v>713161862</v>
       </c>
       <c r="F74" t="n">
-        <v>31403.06254542882</v>
+        <v>91388.7845896834</v>
       </c>
       <c r="G74" t="n">
-        <v>163410.6596447919</v>
+        <v>169692.9218674104</v>
       </c>
       <c r="H74" t="n">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="I74" t="n">
-        <v>28103476</v>
+        <v>27954999</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3601415</v>
+        <v>3639897</v>
       </c>
       <c r="E75" t="n">
-        <v>3601415</v>
+        <v>3639897</v>
       </c>
       <c r="F75" t="n">
-        <v>56.1003756144164</v>
+        <v>80.6048379954653</v>
       </c>
       <c r="G75" t="n">
-        <v>346.8670336056758</v>
+        <v>438.6830323461018</v>
       </c>
       <c r="H75" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="I75" t="n">
-        <v>2622338</v>
+        <v>2599867</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116247025</v>
+        <v>116051723</v>
       </c>
       <c r="E76" t="n">
-        <v>493837458</v>
+        <v>492985091</v>
       </c>
       <c r="F76" t="n">
-        <v>38727.92415396679</v>
+        <v>35276.33351924796</v>
       </c>
       <c r="G76" t="n">
-        <v>179026.8065174769</v>
+        <v>193372.7749672166</v>
       </c>
       <c r="H76" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I76" t="n">
-        <v>15420759</v>
+        <v>15352092</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1859878</v>
+        <v>1859359</v>
       </c>
       <c r="F77" t="n">
-        <v>36.04077819448975</v>
+        <v>36.04077821305012</v>
       </c>
       <c r="G77" t="n">
-        <v>88.23462326531428</v>
+        <v>88.23462331075359</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>611.78</v>
+        <v>611.33</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3138033</v>
+        <v>3133767</v>
       </c>
       <c r="E78" t="n">
-        <v>15733466</v>
+        <v>15712076</v>
       </c>
       <c r="F78" t="n">
-        <v>169.5734113440103</v>
+        <v>169.5734114313377</v>
       </c>
       <c r="G78" t="n">
-        <v>662.7647056306439</v>
+        <v>662.7647059719563</v>
       </c>
       <c r="H78" t="n">
         <v>1.25</v>
       </c>
       <c r="I78" t="n">
-        <v>33382</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>510445</v>
+        <v>509753</v>
       </c>
       <c r="E79" t="n">
-        <v>8731128</v>
+        <v>8719286</v>
       </c>
       <c r="F79" t="n">
-        <v>172.6666522067645</v>
+        <v>172.6666523140152</v>
       </c>
       <c r="G79" t="n">
-        <v>993.5122074612008</v>
+        <v>993.512208078314</v>
       </c>
       <c r="H79" t="n">
         <v>2.33</v>
       </c>
       <c r="I79" t="n">
-        <v>163159</v>
+        <v>162809</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5823487</v>
+        <v>5817822</v>
       </c>
       <c r="E80" t="n">
-        <v>7911535</v>
+        <v>7903838</v>
       </c>
       <c r="F80" t="n">
-        <v>143.0638045576263</v>
+        <v>127.031872133826</v>
       </c>
       <c r="G80" t="n">
-        <v>161.6572063215269</v>
+        <v>151.6554019470339</v>
       </c>
       <c r="H80" t="n">
         <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>1331636</v>
+        <v>1329050</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43691</v>
+        <v>43686</v>
       </c>
       <c r="F81" t="n">
-        <v>149.5424307187502</v>
+        <v>149.542430795762</v>
       </c>
       <c r="G81" t="n">
-        <v>8.956257745042754</v>
+        <v>8.956257749655071</v>
       </c>
       <c r="H81" t="n">
         <v>0.58</v>
       </c>
       <c r="I81" t="n">
-        <v>44671</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39999724</v>
+        <v>40320899</v>
       </c>
       <c r="E82" t="n">
-        <v>46718728</v>
+        <v>47093852</v>
       </c>
       <c r="F82" t="n">
-        <v>472.0702669287062</v>
+        <v>273.9797075083799</v>
       </c>
       <c r="G82" t="n">
-        <v>4.100619231207388</v>
+        <v>157.3692458148778</v>
       </c>
       <c r="H82" t="n">
-        <v>1.45</v>
+        <v>2.73</v>
       </c>
       <c r="I82" t="n">
-        <v>916845</v>
+        <v>921656</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14674225</v>
+        <v>14663446</v>
       </c>
       <c r="F83" t="n">
-        <v>168.5940385387877</v>
+        <v>84.7207950051221</v>
       </c>
       <c r="G83" t="n">
-        <v>342.3960206998543</v>
+        <v>395.4810592611433</v>
       </c>
       <c r="H83" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I83" t="n">
-        <v>270270</v>
+        <v>267249</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36308500</v>
+        <v>36167772</v>
       </c>
       <c r="E84" t="n">
-        <v>36308500</v>
+        <v>36167772</v>
       </c>
       <c r="F84" t="n">
-        <v>39.5086830199521</v>
+        <v>39.50868304029839</v>
       </c>
       <c r="G84" t="n">
-        <v>13.62553410922319</v>
+        <v>62.63445822328548</v>
       </c>
       <c r="H84" t="n">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="I84" t="n">
-        <v>770827</v>
+        <v>770750</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>566841</v>
+        <v>567534</v>
       </c>
       <c r="E85" t="n">
-        <v>6875235</v>
+        <v>6883637</v>
       </c>
       <c r="F85" t="n">
-        <v>198.016029651471</v>
+        <v>198.0160297534458</v>
       </c>
       <c r="G85" t="n">
-        <v>180.8952877915374</v>
+        <v>209.9277063028354</v>
       </c>
       <c r="H85" t="n">
         <v>0.97</v>
       </c>
       <c r="I85" t="n">
-        <v>2826208</v>
+        <v>2828239</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25761390</v>
+        <v>26105874</v>
       </c>
       <c r="E86" t="n">
-        <v>36412719</v>
+        <v>36899633</v>
       </c>
       <c r="F86" t="n">
-        <v>11.87693626274638</v>
+        <v>11.87693627012365</v>
       </c>
       <c r="G86" t="n">
-        <v>518.5966957604821</v>
+        <v>518.5966960826048</v>
       </c>
       <c r="H86" t="n">
         <v>2.71</v>
       </c>
       <c r="I86" t="n">
-        <v>70319</v>
+        <v>71229</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1311308996</v>
+        <v>1303685598</v>
       </c>
       <c r="E87" t="n">
-        <v>6287995186</v>
+        <v>6251439432</v>
       </c>
       <c r="F87" t="n">
-        <v>147770.0653992658</v>
+        <v>649455.7979452567</v>
       </c>
       <c r="G87" t="n">
-        <v>495361.0301415634</v>
+        <v>670200.5212662901</v>
       </c>
       <c r="H87" t="n">
-        <v>0.29</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>166399418</v>
+        <v>165676774</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>274107891</v>
+        <v>273183223</v>
       </c>
       <c r="E88" t="n">
-        <v>1183201828</v>
+        <v>1179210447</v>
       </c>
       <c r="F88" t="n">
-        <v>140355.7423447183</v>
+        <v>745479.7247783764</v>
       </c>
       <c r="G88" t="n">
-        <v>391582.6962332398</v>
+        <v>554278.6332168414</v>
       </c>
       <c r="H88" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I88" t="n">
-        <v>98434048</v>
+        <v>100152599</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115364498</v>
+        <v>115104992</v>
       </c>
       <c r="E89" t="n">
-        <v>115364498</v>
+        <v>115104992</v>
       </c>
       <c r="F89" t="n">
-        <v>30808.98731774908</v>
+        <v>30808.98733689566</v>
       </c>
       <c r="G89" t="n">
-        <v>31856.79631317744</v>
+        <v>31695.23149612522</v>
       </c>
       <c r="H89" t="n">
         <v>0.76</v>
       </c>
       <c r="I89" t="n">
-        <v>6108195</v>
+        <v>6106106</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3852754</v>
+        <v>3851445</v>
       </c>
       <c r="E90" t="n">
-        <v>29981667</v>
+        <v>29971482</v>
       </c>
       <c r="F90" t="n">
-        <v>7943.61392525309</v>
+        <v>7943.613929343915</v>
       </c>
       <c r="G90" t="n">
-        <v>5030.469427272396</v>
+        <v>5030.469429863002</v>
       </c>
       <c r="H90" t="n">
         <v>0.13</v>
       </c>
       <c r="I90" t="n">
-        <v>6417.68</v>
+        <v>6407.99</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3795942</v>
+        <v>3806931</v>
       </c>
       <c r="F91" t="n">
-        <v>303.5319330206386</v>
+        <v>282.5729304035855</v>
       </c>
       <c r="G91" t="n">
-        <v>510.1571473421109</v>
+        <v>525.5367577214473</v>
       </c>
       <c r="H91" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="I91" t="n">
-        <v>307115</v>
+        <v>297264</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>909108</v>
+        <v>909218</v>
       </c>
       <c r="F92" t="n">
-        <v>3.462122501784255</v>
+        <v>10.34173073336659</v>
       </c>
       <c r="G92" t="n">
-        <v>3.000540780520214</v>
+        <v>41.98974558749717</v>
       </c>
       <c r="H92" t="n">
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
       <c r="I92" t="n">
-        <v>34272</v>
+        <v>32186</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>123435</v>
+        <v>123433</v>
       </c>
       <c r="F93" t="n">
-        <v>55.08495255997349</v>
+        <v>55.0849525883413</v>
       </c>
       <c r="G93" t="n">
-        <v>3.020539164705621</v>
+        <v>3.020539166261146</v>
       </c>
       <c r="H93" t="n">
         <v>2.06</v>
       </c>
       <c r="I93" t="n">
-        <v>142389</v>
+        <v>141874</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11251580</v>
+        <v>11558047</v>
       </c>
       <c r="E94" t="n">
-        <v>135827756</v>
+        <v>139527396</v>
       </c>
       <c r="F94" t="n">
-        <v>213.0741882292444</v>
+        <v>106.2297046555842</v>
       </c>
       <c r="G94" t="n">
-        <v>1180.805003001826</v>
+        <v>398.6832708625745</v>
       </c>
       <c r="H94" t="n">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>290921</v>
+        <v>216950</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19617661</v>
+        <v>19506534</v>
       </c>
       <c r="E95" t="n">
-        <v>49044153</v>
+        <v>48766334</v>
       </c>
       <c r="F95" t="n">
-        <v>5145.615006289505</v>
+        <v>6121.74660084789</v>
       </c>
       <c r="G95" t="n">
-        <v>6396.396392527255</v>
+        <v>3974.183641220875</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>2057961</v>
+        <v>2065384</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2252978</v>
+        <v>2252856</v>
       </c>
       <c r="F96" t="n">
-        <v>183.4772909644638</v>
+        <v>183.4772910784878</v>
       </c>
       <c r="G96" t="n">
-        <v>118.0571668482678</v>
+        <v>118.0571669216357</v>
       </c>
       <c r="H96" t="n">
         <v>1.95</v>
       </c>
       <c r="I96" t="n">
-        <v>57510</v>
+        <v>57303</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19819963</v>
+        <v>19828895</v>
       </c>
       <c r="F97" t="n">
-        <v>3704.061819432622</v>
+        <v>3704.061821734551</v>
       </c>
       <c r="G97" t="n">
-        <v>1382.145032985908</v>
+        <v>1382.145033844856</v>
       </c>
       <c r="H97" t="n">
         <v>1.01</v>
       </c>
       <c r="I97" t="n">
-        <v>55870</v>
+        <v>56049</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4234178</v>
+        <v>4194667</v>
       </c>
       <c r="E98" t="n">
-        <v>12196446</v>
+        <v>12082636</v>
       </c>
       <c r="F98" t="n">
-        <v>533.8316880414341</v>
+        <v>533.8316883731895</v>
       </c>
       <c r="G98" t="n">
-        <v>539.5046323880011</v>
+        <v>539.5046327232822</v>
       </c>
       <c r="H98" t="n">
         <v>1.31</v>
       </c>
       <c r="I98" t="n">
-        <v>633298</v>
+        <v>627351</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1596383</v>
+        <v>1596003</v>
       </c>
       <c r="F99" t="n">
-        <v>139.0983840628724</v>
+        <v>196.9114350892275</v>
       </c>
       <c r="G99" t="n">
-        <v>40.01275928474153</v>
+        <v>40.01275930534741</v>
       </c>
       <c r="H99" t="n">
         <v>1.31</v>
       </c>
       <c r="I99" t="n">
-        <v>242862</v>
+        <v>239650</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80823612</v>
+        <v>80478912</v>
       </c>
       <c r="E100" t="n">
-        <v>102854327</v>
+        <v>102415670</v>
       </c>
       <c r="F100" t="n">
-        <v>1172.863891540791</v>
+        <v>1172.863892144796</v>
       </c>
       <c r="G100" t="n">
-        <v>594.1389854779403</v>
+        <v>585.8720052374554</v>
       </c>
       <c r="H100" t="n">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>6233232</v>
+        <v>6234007</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22789106</v>
+        <v>23197036</v>
       </c>
       <c r="E101" t="n">
-        <v>29562684</v>
+        <v>30091862</v>
       </c>
       <c r="F101" t="n">
-        <v>2319.19172627537</v>
+        <v>3571.255302790162</v>
       </c>
       <c r="G101" t="n">
-        <v>3739.824502551517</v>
+        <v>5454.920445776153</v>
       </c>
       <c r="H101" t="n">
-        <v>1.33</v>
+        <v>0.49</v>
       </c>
       <c r="I101" t="n">
-        <v>151562</v>
+        <v>321624</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1662449</v>
+        <v>1649690</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>11.38</v>
       </c>
       <c r="I102" t="n">
-        <v>12549.02</v>
+        <v>12686.18</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>658298</v>
+        <v>727617</v>
       </c>
       <c r="E103" t="n">
-        <v>658298</v>
+        <v>727617</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>5.53</v>
       </c>
       <c r="I103" t="n">
-        <v>82841</v>
+        <v>91717</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40513321</v>
+        <v>40508981</v>
       </c>
       <c r="E104" t="n">
-        <v>42350907</v>
+        <v>42346371</v>
       </c>
       <c r="F104" t="n">
-        <v>66.74139688379471</v>
+        <v>66.74139692527187</v>
       </c>
       <c r="G104" t="n">
-        <v>322.188405457529</v>
+        <v>322.1884056577565</v>
       </c>
       <c r="H104" t="n">
         <v>0.71</v>
       </c>
       <c r="I104" t="n">
-        <v>657907</v>
+        <v>656863</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13764013</v>
+        <v>13813776</v>
       </c>
       <c r="E105" t="n">
-        <v>13764013</v>
+        <v>13813776</v>
       </c>
       <c r="F105" t="n">
-        <v>69.93423466544219</v>
+        <v>252.0431332057496</v>
       </c>
       <c r="G105" t="n">
-        <v>971.9970639655414</v>
+        <v>1286.829826921102</v>
       </c>
       <c r="H105" t="n">
-        <v>1.08</v>
+        <v>1.9</v>
       </c>
       <c r="I105" t="n">
-        <v>4874665</v>
+        <v>4869960</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1191708</v>
+        <v>1191325</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.33</v>
+        <v>6.26</v>
       </c>
       <c r="I106" t="n">
-        <v>4858.09</v>
+        <v>4856.73</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51529149</v>
+        <v>51554668</v>
       </c>
       <c r="E107" t="n">
-        <v>131273454</v>
+        <v>131338464</v>
       </c>
       <c r="F107" t="n">
-        <v>757.7770324564009</v>
+        <v>859.1368293768405</v>
       </c>
       <c r="G107" t="n">
-        <v>2207.560339459096</v>
+        <v>2122.778372268837</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2419516</v>
+        <v>2423310</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14588417</v>
+        <v>14595024</v>
       </c>
       <c r="E108" t="n">
-        <v>70654034</v>
+        <v>70686029</v>
       </c>
       <c r="F108" t="n">
-        <v>4873.74508428847</v>
+        <v>5569.093400893584</v>
       </c>
       <c r="G108" t="n">
-        <v>8401.189584309152</v>
+        <v>7433.165876780394</v>
       </c>
       <c r="H108" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I108" t="n">
-        <v>3807337</v>
+        <v>3805416</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>494115</v>
+        <v>493409</v>
       </c>
       <c r="F109" t="n">
-        <v>201.1446284730387</v>
+        <v>202.1651033463367</v>
       </c>
       <c r="G109" t="n">
-        <v>186.6005951680251</v>
+        <v>186.6005952641212</v>
       </c>
       <c r="H109" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I109" t="n">
-        <v>7713.6</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4636781</v>
+        <v>4625682</v>
       </c>
       <c r="E110" t="n">
-        <v>10569338</v>
+        <v>10544037</v>
       </c>
       <c r="F110" t="n">
-        <v>1400.515183868141</v>
+        <v>1401.767527997043</v>
       </c>
       <c r="G110" t="n">
-        <v>1970.483685604038</v>
+        <v>1951.535287756157</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I110" t="n">
-        <v>86778</v>
+        <v>86640</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1928824615</v>
+        <v>1919861201</v>
       </c>
       <c r="F111" t="n">
-        <v>93748.22325026638</v>
+        <v>87980.63664206213</v>
       </c>
       <c r="G111" t="n">
-        <v>35225.05255997686</v>
+        <v>35175.04347004016</v>
       </c>
       <c r="H111" t="n">
         <v>0.02</v>
       </c>
       <c r="I111" t="n">
-        <v>27629400</v>
+        <v>27718851</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9562351</v>
+        <v>9547092</v>
       </c>
       <c r="E112" t="n">
-        <v>34801389</v>
+        <v>34745813</v>
       </c>
       <c r="F112" t="n">
-        <v>207.0393105297367</v>
+        <v>207.0393106363584</v>
       </c>
       <c r="G112" t="n">
-        <v>343.4088523320779</v>
+        <v>343.4088525089275</v>
       </c>
       <c r="H112" t="n">
         <v>0.58</v>
       </c>
       <c r="I112" t="n">
-        <v>124054</v>
+        <v>123989</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>559762</v>
+        <v>559499</v>
       </c>
       <c r="F113" t="n">
-        <v>104.4330870640575</v>
+        <v>104.4330871178387</v>
       </c>
       <c r="G113" t="n">
-        <v>70.72546931737935</v>
+        <v>70.72546935380174</v>
       </c>
       <c r="H113" t="n">
         <v>2.99</v>
       </c>
       <c r="I113" t="n">
-        <v>853.92</v>
+        <v>853.5700000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12158932</v>
+        <v>12146912</v>
       </c>
       <c r="E114" t="n">
-        <v>17628697</v>
+        <v>17611270</v>
       </c>
       <c r="F114" t="n">
-        <v>917.0324503144957</v>
+        <v>423.7625116612261</v>
       </c>
       <c r="G114" t="n">
-        <v>730.3547341557165</v>
+        <v>585.5579495014965</v>
       </c>
       <c r="H114" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="I114" t="n">
-        <v>2032828</v>
+        <v>2028688</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2074582</v>
+        <v>2072989</v>
       </c>
       <c r="E115" t="n">
-        <v>14876623</v>
+        <v>14865195</v>
       </c>
       <c r="F115" t="n">
-        <v>749.9406718832508</v>
+        <v>749.9406722694573</v>
       </c>
       <c r="G115" t="n">
-        <v>553.562984457041</v>
+        <v>553.5629847421164</v>
       </c>
       <c r="H115" t="n">
         <v>2.19</v>
       </c>
       <c r="I115" t="n">
-        <v>1980341</v>
+        <v>1983621</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2744609</v>
+        <v>2710316</v>
       </c>
       <c r="E116" t="n">
-        <v>5548117</v>
+        <v>5478794</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>5195.38</v>
+        <v>8163.46</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>205111578</v>
+        <v>205582629</v>
       </c>
       <c r="E117" t="n">
-        <v>1161467782</v>
+        <v>1164135166</v>
       </c>
       <c r="F117" t="n">
-        <v>137074.7815539443</v>
+        <v>119778.7576050815</v>
       </c>
       <c r="G117" t="n">
-        <v>259744.8533241632</v>
+        <v>259744.8534579274</v>
       </c>
       <c r="H117" t="n">
         <v>0.34</v>
       </c>
       <c r="I117" t="n">
-        <v>66078144</v>
+        <v>66300222</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>676684</v>
+        <v>684568</v>
       </c>
       <c r="E118" t="n">
-        <v>2243784</v>
+        <v>2269927</v>
       </c>
       <c r="F118" t="n">
-        <v>8874.947775215434</v>
+        <v>17.92344452679662</v>
       </c>
       <c r="G118" t="n">
-        <v>5811.993931637696</v>
+        <v>42.62296327924588</v>
       </c>
       <c r="H118" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="I118" t="n">
-        <v>16212.95</v>
+        <v>13632.77</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2822538</v>
+        <v>2821183</v>
       </c>
       <c r="E119" t="n">
-        <v>9993415</v>
+        <v>9988618</v>
       </c>
       <c r="F119" t="n">
-        <v>217.778688502066</v>
+        <v>217.7786886142183</v>
       </c>
       <c r="G119" t="n">
-        <v>1500.850991059503</v>
+        <v>1500.850991832415</v>
       </c>
       <c r="H119" t="n">
         <v>2.4</v>
       </c>
       <c r="I119" t="n">
-        <v>5628.6</v>
+        <v>5621.26</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1037432</v>
+        <v>1034892</v>
       </c>
       <c r="E120" t="n">
-        <v>1037432</v>
+        <v>1034892</v>
       </c>
       <c r="F120" t="n">
-        <v>65.75677768655365</v>
+        <v>65.75677772741891</v>
       </c>
       <c r="G120" t="n">
-        <v>91.67904766207918</v>
+        <v>12.9515073074158</v>
       </c>
       <c r="H120" t="n">
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>5518.38</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>499686</v>
+        <v>503567</v>
       </c>
       <c r="E121" t="n">
-        <v>1681872</v>
+        <v>1694935</v>
       </c>
       <c r="F121" t="n">
-        <v>361.4913493269867</v>
+        <v>303.277715544556</v>
       </c>
       <c r="G121" t="n">
-        <v>407.9406830800396</v>
+        <v>380.1626222869858</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I121" t="n">
-        <v>632342</v>
+        <v>631733</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>464256</v>
+        <v>469438</v>
       </c>
       <c r="E122" t="n">
-        <v>861283</v>
+        <v>870898</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>207734</v>
+        <v>208159</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11707808</v>
+        <v>11720019</v>
       </c>
       <c r="F123" t="n">
-        <v>164.6956908963168</v>
+        <v>120.5611239313997</v>
       </c>
       <c r="G123" t="n">
-        <v>119.1705181275828</v>
+        <v>119.1705181889535</v>
       </c>
       <c r="H123" t="n">
         <v>0.51</v>
       </c>
       <c r="I123" t="n">
-        <v>10773.37</v>
+        <v>10843.7</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1254131</v>
+        <v>1251633</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>6.7</v>
+        <v>6.63</v>
       </c>
       <c r="I124" t="n">
-        <v>21709</v>
+        <v>18990.67</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3404644</v>
+        <v>3396323</v>
       </c>
       <c r="E125" t="n">
-        <v>7950412</v>
+        <v>7930980</v>
       </c>
       <c r="F125" t="n">
-        <v>2342.664153914845</v>
+        <v>2387.552099804877</v>
       </c>
       <c r="G125" t="n">
-        <v>1751.303538022503</v>
+        <v>1751.303538924394</v>
       </c>
       <c r="H125" t="n">
         <v>1.09</v>
       </c>
       <c r="I125" t="n">
-        <v>625892</v>
+        <v>622746</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>250561</v>
+        <v>247647</v>
       </c>
       <c r="E126" t="n">
-        <v>2211385</v>
+        <v>2185671</v>
       </c>
       <c r="F126" t="n">
-        <v>8.497785600418183</v>
+        <v>8.497785605699223</v>
       </c>
       <c r="G126" t="n">
-        <v>56.70615572208609</v>
+        <v>56.70615575732675</v>
       </c>
       <c r="H126" t="n">
         <v>3.76</v>
       </c>
       <c r="I126" t="n">
-        <v>90885</v>
+        <v>91435</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>647076</v>
+        <v>646213</v>
       </c>
       <c r="F127" t="n">
-        <v>433.486798695224</v>
+        <v>433.4867989644812</v>
       </c>
       <c r="G127" t="n">
-        <v>373.9743283952729</v>
+        <v>373.9743286275644</v>
       </c>
       <c r="H127" t="n">
         <v>1.9</v>
       </c>
       <c r="I127" t="n">
-        <v>3580.71</v>
+        <v>3529.83</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4918400</v>
+        <v>4926179</v>
       </c>
       <c r="E128" t="n">
-        <v>17378995</v>
+        <v>17406481</v>
       </c>
       <c r="F128" t="n">
-        <v>3114.630520008029</v>
+        <v>1519.601280394509</v>
       </c>
       <c r="G128" t="n">
-        <v>1487.512118196836</v>
+        <v>1487.512118962879</v>
       </c>
       <c r="H128" t="n">
         <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>90282</v>
+        <v>96683</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2105505</v>
+        <v>2085476</v>
       </c>
       <c r="F129" t="n">
-        <v>56.17758035297209</v>
+        <v>66.49141213894447</v>
       </c>
       <c r="G129" t="n">
-        <v>263.3967633797932</v>
+        <v>273.509831999204</v>
       </c>
       <c r="H129" t="n">
         <v>0.53</v>
       </c>
       <c r="I129" t="n">
-        <v>7782.39</v>
+        <v>7514.04</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2502197</v>
+        <v>2536495</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2453.88</v>
+        <v>2453.19</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84624</v>
+        <v>84563</v>
       </c>
       <c r="E131" t="n">
-        <v>84624</v>
+        <v>84563</v>
       </c>
       <c r="F131" t="n">
-        <v>5.514484871450743</v>
+        <v>5.514484874876027</v>
       </c>
       <c r="G131" t="n">
-        <v>66.68942811385917</v>
+        <v>66.68942815528284</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>22703</v>
+        <v>22693</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4370811</v>
+        <v>4347419</v>
       </c>
       <c r="F132" t="n">
-        <v>332.1207709128158</v>
+        <v>195.9002244018583</v>
       </c>
       <c r="G132" t="n">
-        <v>372.9976248363321</v>
+        <v>372.9976250284195</v>
       </c>
       <c r="H132" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="I132" t="n">
-        <v>312087</v>
+        <v>309079</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2105304</v>
+        <v>2089863</v>
       </c>
       <c r="E133" t="n">
-        <v>8597518</v>
+        <v>8534458</v>
       </c>
       <c r="F133" t="n">
-        <v>191.103985131184</v>
+        <v>247.5365260478334</v>
       </c>
       <c r="G133" t="n">
-        <v>1088.436969030256</v>
+        <v>88.25484390483687</v>
       </c>
       <c r="H133" t="n">
-        <v>0.04</v>
+        <v>1.24</v>
       </c>
       <c r="I133" t="n">
-        <v>568229</v>
+        <v>563335</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7486304</v>
+        <v>7497701</v>
       </c>
       <c r="E134" t="n">
-        <v>7541952</v>
+        <v>7553434</v>
       </c>
       <c r="F134" t="n">
-        <v>1791.499822779989</v>
+        <v>1385.123752603273</v>
       </c>
       <c r="G134" t="n">
-        <v>2278.249268587274</v>
+        <v>1559.143976232772</v>
       </c>
       <c r="H134" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="I134" t="n">
-        <v>4857245</v>
+        <v>4980158</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13603504</v>
+        <v>13597064</v>
       </c>
       <c r="E135" t="n">
-        <v>13649798</v>
+        <v>13643336</v>
       </c>
       <c r="F135" t="n">
-        <v>2435.534508191571</v>
+        <v>1682.894055289949</v>
       </c>
       <c r="G135" t="n">
-        <v>1961.232412340089</v>
+        <v>2134.631481499838</v>
       </c>
       <c r="H135" t="n">
         <v>1.1</v>
       </c>
       <c r="I135" t="n">
-        <v>5892500</v>
+        <v>5891409</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42768720</v>
+        <v>42759901</v>
       </c>
       <c r="E136" t="n">
-        <v>72611337</v>
+        <v>72596365</v>
       </c>
       <c r="F136" t="n">
-        <v>1005.41157004024</v>
+        <v>1005.411570665064</v>
       </c>
       <c r="G136" t="n">
-        <v>923.7334707609026</v>
+        <v>923.7334713349668</v>
       </c>
       <c r="H136" t="n">
         <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1074054</v>
+        <v>1072206</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22683595</v>
+        <v>22748213</v>
       </c>
       <c r="E137" t="n">
-        <v>67994987</v>
+        <v>68188682</v>
       </c>
       <c r="F137" t="n">
-        <v>35464.31154873611</v>
+        <v>33433.89693069304</v>
       </c>
       <c r="G137" t="n">
-        <v>50437.03825327246</v>
+        <v>35366.75532536156</v>
       </c>
       <c r="H137" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I137" t="n">
-        <v>3357710</v>
+        <v>3399949</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101395913</v>
+        <v>101337381</v>
       </c>
       <c r="E138" t="n">
-        <v>107793019</v>
+        <v>107730795</v>
       </c>
       <c r="F138" t="n">
-        <v>6142.273694734717</v>
+        <v>6146.236220620953</v>
       </c>
       <c r="G138" t="n">
-        <v>11229.74215784898</v>
+        <v>11229.74216482783</v>
       </c>
       <c r="H138" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I138" t="n">
-        <v>375483</v>
+        <v>378635</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1208144</v>
+        <v>1208002</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>6.35</v>
       </c>
       <c r="I139" t="n">
-        <v>239.96</v>
+        <v>224.65</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258572</v>
+        <v>258340</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>8.19</v>
       </c>
       <c r="I140" t="n">
-        <v>199.08</v>
+        <v>198.89</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96291</v>
+        <v>96237</v>
       </c>
       <c r="E141" t="n">
-        <v>273155</v>
+        <v>273002</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>63.63</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48078152</v>
+        <v>47781173</v>
       </c>
       <c r="E142" t="n">
-        <v>207115421</v>
+        <v>205836067</v>
       </c>
       <c r="F142" t="n">
-        <v>49156.02306177001</v>
+        <v>47818.89199002925</v>
       </c>
       <c r="G142" t="n">
-        <v>59211.58967726396</v>
+        <v>57941.19421056344</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I142" t="n">
-        <v>8798542</v>
+        <v>8819455</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269971</v>
+        <v>269633</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>10.24</v>
       </c>
       <c r="I143" t="n">
-        <v>53831</v>
+        <v>47693</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9434666</v>
+        <v>9454921</v>
       </c>
       <c r="F144" t="n">
-        <v>1256.191662349861</v>
+        <v>1405.619555423917</v>
       </c>
       <c r="G144" t="n">
-        <v>554.0132871329923</v>
+        <v>568.1965847696617</v>
       </c>
       <c r="H144" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>98434</v>
+        <v>98531</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1176766</v>
+        <v>1173020</v>
       </c>
       <c r="E145" t="n">
-        <v>7845105</v>
+        <v>7820135</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4836267583849</v>
+        <v>263.4849444680329</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0168211644157</v>
+        <v>105.0173463647105</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5579.18</v>
+        <v>5610.24</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7702826</v>
+        <v>7765245</v>
       </c>
       <c r="F146" t="n">
-        <v>25.54022204122568</v>
+        <v>439.1340565059104</v>
       </c>
       <c r="G146" t="n">
-        <v>147.2341035861645</v>
+        <v>285.4771142135929</v>
       </c>
       <c r="H146" t="n">
-        <v>3.44</v>
+        <v>1.68</v>
       </c>
       <c r="I146" t="n">
-        <v>564251</v>
+        <v>6643650</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>672913</v>
+        <v>673310</v>
       </c>
       <c r="E147" t="n">
-        <v>2429581</v>
+        <v>2431014</v>
       </c>
       <c r="F147" t="n">
-        <v>35.99648286281757</v>
+        <v>49.32441347199813</v>
       </c>
       <c r="G147" t="n">
-        <v>139.4900232989375</v>
+        <v>209.0990969332818</v>
       </c>
       <c r="H147" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="I147" t="n">
-        <v>337127</v>
+        <v>337412</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1604542</v>
+        <v>1601324</v>
       </c>
       <c r="F148" t="n">
-        <v>335.4263063707903</v>
+        <v>14.16177542654232</v>
       </c>
       <c r="G148" t="n">
-        <v>86.83642250961809</v>
+        <v>917.2078647442228</v>
       </c>
       <c r="H148" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="I148" t="n">
-        <v>79722</v>
+        <v>79667</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>71417</v>
+        <v>71400</v>
       </c>
       <c r="F149" t="n">
-        <v>10.17722393437629</v>
+        <v>10.17722393961738</v>
       </c>
       <c r="G149" t="n">
-        <v>24.6536407848496</v>
+        <v>24.6536407975458</v>
       </c>
       <c r="H149" t="n">
         <v>2.86</v>
       </c>
       <c r="I149" t="n">
-        <v>1368</v>
+        <v>1367.62</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13255840</v>
+        <v>13218614</v>
       </c>
       <c r="E150" t="n">
-        <v>13255840</v>
+        <v>13218614</v>
       </c>
       <c r="F150" t="n">
-        <v>145.4454000414635</v>
+        <v>187.7527354486326</v>
       </c>
       <c r="G150" t="n">
-        <v>720.589020308119</v>
+        <v>1068.489235002056</v>
       </c>
       <c r="H150" t="n">
-        <v>1.06</v>
+        <v>0.38</v>
       </c>
       <c r="I150" t="n">
-        <v>3684514</v>
+        <v>3751204</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1920867</v>
+        <v>1917275</v>
       </c>
       <c r="E151" t="n">
-        <v>6977702</v>
+        <v>6964592</v>
       </c>
       <c r="F151" t="n">
-        <v>1030.206049959687</v>
+        <v>1030.206050599592</v>
       </c>
       <c r="G151" t="n">
-        <v>5.981948154476598</v>
+        <v>5.981948158192243</v>
       </c>
       <c r="H151" t="n">
         <v>2.66</v>
       </c>
       <c r="I151" t="n">
-        <v>141440</v>
+        <v>141141</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1262484</v>
+        <v>1272461</v>
       </c>
       <c r="E152" t="n">
-        <v>1262484</v>
+        <v>1272461</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1445.21</v>
+        <v>1456.63</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23650044</v>
+        <v>23581225</v>
       </c>
       <c r="E153" t="n">
-        <v>27287103</v>
+        <v>27207701</v>
       </c>
       <c r="F153" t="n">
-        <v>694.2507596451096</v>
+        <v>438.9666738678362</v>
       </c>
       <c r="G153" t="n">
-        <v>460.4281742601007</v>
+        <v>564.8301054433896</v>
       </c>
       <c r="H153" t="n">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I153" t="n">
-        <v>756180</v>
+        <v>754285</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441126</v>
+        <v>2439634</v>
       </c>
       <c r="E154" t="n">
-        <v>18368921</v>
+        <v>18357697</v>
       </c>
       <c r="F154" t="n">
-        <v>3657.635265701813</v>
+        <v>3657.635267973728</v>
       </c>
       <c r="G154" t="n">
-        <v>2847.15371101694</v>
+        <v>2458.160126479437</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>164088</v>
+        <v>163716</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21018822</v>
+        <v>20992737</v>
       </c>
       <c r="E155" t="n">
-        <v>84075289</v>
+        <v>83970948</v>
       </c>
       <c r="F155" t="n">
-        <v>11079.2438248419</v>
+        <v>11078.2436866968</v>
       </c>
       <c r="G155" t="n">
-        <v>15936.31241707186</v>
+        <v>14898.80602218573</v>
       </c>
       <c r="H155" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I155" t="n">
-        <v>3155554</v>
+        <v>2895034</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>314396678</v>
+        <v>311922498</v>
       </c>
       <c r="E156" t="n">
-        <v>314396678</v>
+        <v>311922498</v>
       </c>
       <c r="F156" t="n">
-        <v>271415.896068318</v>
+        <v>270021.2491612989</v>
       </c>
       <c r="G156" t="n">
-        <v>392061.7125377025</v>
+        <v>392074.4171860608</v>
       </c>
       <c r="H156" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I156" t="n">
-        <v>15021942</v>
+        <v>15010010</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12745036</v>
+        <v>12754622</v>
       </c>
       <c r="E157" t="n">
-        <v>40320686</v>
+        <v>40351013</v>
       </c>
       <c r="F157" t="n">
-        <v>7629.61183932939</v>
+        <v>7629.611843258509</v>
       </c>
       <c r="G157" t="n">
-        <v>16294.85951405532</v>
+        <v>19336.34352777102</v>
       </c>
       <c r="H157" t="n">
         <v>0.74</v>
       </c>
       <c r="I157" t="n">
-        <v>1076170</v>
+        <v>1037621</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1083846</v>
+        <v>1083516</v>
       </c>
       <c r="E158" t="n">
-        <v>2468565</v>
+        <v>2467814</v>
       </c>
       <c r="F158" t="n">
-        <v>9.990315275134199</v>
+        <v>9.990365237763704</v>
       </c>
       <c r="G158" t="n">
-        <v>98.27816083882817</v>
+        <v>98.27865233836579</v>
       </c>
       <c r="H158" t="n">
         <v>3.59</v>
       </c>
       <c r="I158" t="n">
-        <v>2422.86</v>
+        <v>2423.79</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18433001</v>
+        <v>18448965</v>
       </c>
       <c r="E159" t="n">
-        <v>18433001</v>
+        <v>18448965</v>
       </c>
       <c r="F159" t="n">
-        <v>8255.092317081802</v>
+        <v>7153.950427453004</v>
       </c>
       <c r="G159" t="n">
-        <v>12310.8621260497</v>
+        <v>12310.86207808637</v>
       </c>
       <c r="H159" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I159" t="n">
-        <v>3814638</v>
+        <v>3645063</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4851506</v>
+        <v>4850351</v>
       </c>
       <c r="E160" t="n">
-        <v>8932142</v>
+        <v>8930015</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>8.66</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>15.15</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113290</v>
+        <v>113318</v>
       </c>
       <c r="E161" t="n">
-        <v>137120</v>
+        <v>137154</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>6.36</v>
+        <v>6.45</v>
       </c>
       <c r="I161" t="n">
-        <v>3274.04</v>
+        <v>3277.49</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20158821</v>
+        <v>20145081</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>15.5</v>
       </c>
       <c r="I162" t="n">
-        <v>1576.82</v>
+        <v>1577.09</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>433862</v>
+        <v>432571</v>
       </c>
       <c r="E163" t="n">
-        <v>546504</v>
+        <v>544877</v>
       </c>
       <c r="F163" t="n">
-        <v>80.02939583601402</v>
+        <v>97.43252201368483</v>
       </c>
       <c r="G163" t="n">
-        <v>111.2258001193493</v>
+        <v>87.40842108576565</v>
       </c>
       <c r="H163" t="n">
-        <v>1.46</v>
+        <v>0.18</v>
       </c>
       <c r="I163" t="n">
-        <v>184460</v>
+        <v>184217</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108626</v>
+        <v>108600</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>7.88</v>
       </c>
       <c r="I164" t="n">
-        <v>3818.82</v>
+        <v>3817.78</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12718354</v>
+        <v>12710755</v>
       </c>
       <c r="E165" t="n">
-        <v>19360203</v>
+        <v>19348636</v>
       </c>
       <c r="F165" t="n">
-        <v>1014.580950991445</v>
+        <v>1014.580951621967</v>
       </c>
       <c r="G165" t="n">
-        <v>2770.784225363467</v>
+        <v>2770.784227085401</v>
       </c>
       <c r="H165" t="n">
         <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>776398</v>
+        <v>771166</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>295827939</v>
+        <v>296574320</v>
       </c>
       <c r="E166" t="n">
-        <v>295827939</v>
+        <v>296574320</v>
       </c>
       <c r="F166" t="n">
-        <v>26059.93994590716</v>
+        <v>171144.811451583</v>
       </c>
       <c r="G166" t="n">
-        <v>255928.9426578372</v>
+        <v>340763.8619222043</v>
       </c>
       <c r="H166" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>76313955</v>
+        <v>76743520</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10269816</v>
+        <v>10186742</v>
       </c>
       <c r="E167" t="n">
-        <v>29157721</v>
+        <v>28921860</v>
       </c>
       <c r="F167" t="n">
-        <v>593.3735098899227</v>
+        <v>563.1506289058019</v>
       </c>
       <c r="G167" t="n">
-        <v>1019.851159349852</v>
+        <v>1127.52551090065</v>
       </c>
       <c r="H167" t="n">
-        <v>2.03</v>
+        <v>2.36</v>
       </c>
       <c r="I167" t="n">
-        <v>129403</v>
+        <v>128946</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11621781</v>
+        <v>11654609</v>
       </c>
       <c r="F168" t="n">
-        <v>14.25461353258721</v>
+        <v>18.14137000220916</v>
       </c>
       <c r="G168" t="n">
-        <v>1195.983387667677</v>
+        <v>1195.983388283588</v>
       </c>
       <c r="H168" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="I168" t="n">
-        <v>95008</v>
+        <v>93778</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4231262</v>
+        <v>4224087</v>
       </c>
       <c r="E169" t="n">
-        <v>28911918</v>
+        <v>28862887</v>
       </c>
       <c r="F169" t="n">
-        <v>538.2518233961451</v>
+        <v>538.2518236733356</v>
       </c>
       <c r="G169" t="n">
-        <v>1040.907283280818</v>
+        <v>1040.907283816868</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2649036</v>
+        <v>2648744</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3015378</v>
+        <v>3010832</v>
       </c>
       <c r="E170" t="n">
-        <v>4469862</v>
+        <v>4462860</v>
       </c>
       <c r="F170" t="n">
-        <v>205.7620227773284</v>
+        <v>1047.451326413315</v>
       </c>
       <c r="G170" t="n">
-        <v>1086.596222902147</v>
+        <v>12.72080904451396</v>
       </c>
       <c r="H170" t="n">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="I170" t="n">
-        <v>222563</v>
+        <v>224346</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>91842631</v>
+        <v>91307855</v>
       </c>
       <c r="E171" t="n">
-        <v>529236852</v>
+        <v>526155241</v>
       </c>
       <c r="F171" t="n">
-        <v>303275.1439648118</v>
+        <v>309598.0297256662</v>
       </c>
       <c r="G171" t="n">
-        <v>228271.8757727429</v>
+        <v>188797.3623183143</v>
       </c>
       <c r="H171" t="n">
         <v>0.24</v>
       </c>
       <c r="I171" t="n">
-        <v>17036190</v>
+        <v>17039335</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13786578</v>
+        <v>13772925</v>
       </c>
       <c r="E172" t="n">
-        <v>13786578</v>
+        <v>13772925</v>
       </c>
       <c r="F172" t="n">
-        <v>4643.116456217565</v>
+        <v>4643.116458608691</v>
       </c>
       <c r="G172" t="n">
-        <v>5115.646393409222</v>
+        <v>5200.955330622258</v>
       </c>
       <c r="H172" t="n">
         <v>1.16</v>
       </c>
       <c r="I172" t="n">
-        <v>603515</v>
+        <v>613676</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6078725</v>
+        <v>6076262</v>
       </c>
       <c r="E173" t="n">
-        <v>17267913</v>
+        <v>17260916</v>
       </c>
       <c r="F173" t="n">
-        <v>28.07224273613246</v>
+        <v>208.0975312700918</v>
       </c>
       <c r="G173" t="n">
-        <v>8407.338875050917</v>
+        <v>8407.338879384428</v>
       </c>
       <c r="H173" t="n">
-        <v>0.86</v>
+        <v>3.24</v>
       </c>
       <c r="I173" t="n">
-        <v>174536</v>
+        <v>174502</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19692654</v>
+        <v>19686155</v>
       </c>
       <c r="E174" t="n">
-        <v>19692654</v>
+        <v>19686155</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039486119310646</v>
+        <v>1.039486119845963</v>
       </c>
       <c r="G174" t="n">
-        <v>473.4329406905592</v>
+        <v>473.4329409343691</v>
       </c>
       <c r="H174" t="n">
         <v>1.57</v>
       </c>
       <c r="I174" t="n">
-        <v>121329</v>
+        <v>121353</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1338205</v>
+        <v>1338188</v>
       </c>
       <c r="F175" t="n">
-        <v>104.6294773010706</v>
+        <v>104.6294773660937</v>
       </c>
       <c r="G175" t="n">
-        <v>130.4274374083556</v>
+        <v>130.4274374894111</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>3673.29</v>
+        <v>4064.45</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>147068</v>
+        <v>145968</v>
       </c>
       <c r="E176" t="n">
-        <v>320164</v>
+        <v>317769</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.67</v>
       </c>
       <c r="I176" t="n">
-        <v>52487</v>
+        <v>52125</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2609759</v>
+        <v>2582188</v>
       </c>
       <c r="F177" t="n">
-        <v>131.3450942274448</v>
+        <v>131.3450943090706</v>
       </c>
       <c r="G177" t="n">
-        <v>75.91383332178195</v>
+        <v>75.91383336895943</v>
       </c>
       <c r="H177" t="n">
         <v>3.8</v>
       </c>
       <c r="I177" t="n">
-        <v>424332</v>
+        <v>423584</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>251666412</v>
+        <v>251208528</v>
       </c>
       <c r="E178" t="n">
-        <v>251668912</v>
+        <v>251211023</v>
       </c>
       <c r="F178" t="n">
-        <v>8551.155262651104</v>
+        <v>8551.155267054801</v>
       </c>
       <c r="G178" t="n">
-        <v>134315.2603849799</v>
+        <v>134315.26045415</v>
       </c>
       <c r="H178" t="n">
         <v>1.03</v>
       </c>
       <c r="I178" t="n">
-        <v>2537784</v>
+        <v>2535427</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9320391</v>
+        <v>9293216</v>
       </c>
       <c r="E179" t="n">
-        <v>9320391</v>
+        <v>9293216</v>
       </c>
       <c r="F179" t="n">
-        <v>597.1216168851328</v>
+        <v>597.1216172560307</v>
       </c>
       <c r="G179" t="n">
-        <v>430.3722651524866</v>
+        <v>430.3722654198093</v>
       </c>
       <c r="H179" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I179" t="n">
-        <v>2084575</v>
+        <v>2112390</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>184601</v>
+        <v>184325</v>
       </c>
       <c r="E180" t="n">
-        <v>1425487</v>
+        <v>1423360</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>4.04</v>
       </c>
       <c r="I180" t="n">
-        <v>106745</v>
+        <v>105543</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30932426</v>
+        <v>30809902</v>
       </c>
       <c r="E181" t="n">
-        <v>138497161</v>
+        <v>137948571</v>
       </c>
       <c r="F181" t="n">
-        <v>27444.09306320421</v>
+        <v>27940.184091278</v>
       </c>
       <c r="G181" t="n">
-        <v>66173.49462937865</v>
+        <v>60665.36649551568</v>
       </c>
       <c r="H181" t="n">
         <v>0.65</v>
       </c>
       <c r="I181" t="n">
-        <v>8590521</v>
+        <v>8588031</v>
       </c>
     </row>
     <row r="182">
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1521559</v>
+        <v>1523981</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6779,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>5.78</v>
+        <v>5.73</v>
       </c>
       <c r="I182" t="n">
-        <v>53979</v>
+        <v>53849</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3127944</v>
+        <v>3132651</v>
       </c>
       <c r="E183" t="n">
-        <v>3127944</v>
+        <v>3132651</v>
       </c>
       <c r="F183" t="n">
-        <v>37.18082823897215</v>
+        <v>38.28320424210386</v>
       </c>
       <c r="G183" t="n">
-        <v>225.0029188302296</v>
+        <v>225.0029189699885</v>
       </c>
       <c r="H183" t="n">
-        <v>2.37</v>
+        <v>2.28</v>
       </c>
       <c r="I183" t="n">
-        <v>422685</v>
+        <v>420563</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>560463</v>
+        <v>559567</v>
       </c>
       <c r="E184" t="n">
-        <v>560463</v>
+        <v>559567</v>
       </c>
       <c r="F184" t="n">
-        <v>14.54192089688217</v>
+        <v>14.54192090437101</v>
       </c>
       <c r="G184" t="n">
-        <v>12.52780906738357</v>
+        <v>12.52780907383517</v>
       </c>
       <c r="H184" t="n">
         <v>3.51</v>
       </c>
       <c r="I184" t="n">
-        <v>25539</v>
+        <v>26301</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15704093</v>
+        <v>15482193</v>
       </c>
       <c r="E185" t="n">
-        <v>19993818</v>
+        <v>19711303</v>
       </c>
       <c r="F185" t="n">
-        <v>95.70504069323287</v>
+        <v>258.7904372372487</v>
       </c>
       <c r="G185" t="n">
-        <v>88.35011965465553</v>
+        <v>64.49247437379569</v>
       </c>
       <c r="H185" t="n">
-        <v>0.84</v>
+        <v>1.27</v>
       </c>
       <c r="I185" t="n">
-        <v>929129</v>
+        <v>928156</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1778317</v>
+        <v>1777648</v>
       </c>
       <c r="E186" t="n">
-        <v>1778317</v>
+        <v>1777648</v>
       </c>
       <c r="F186" t="n">
-        <v>45.15344108930332</v>
+        <v>45.15344111736442</v>
       </c>
       <c r="G186" t="n">
-        <v>159.1019352698344</v>
+        <v>159.10193536871</v>
       </c>
       <c r="H186" t="n">
         <v>1.13</v>
       </c>
       <c r="I186" t="n">
-        <v>4241.03</v>
+        <v>4240.28</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50194966</v>
+        <v>50202590</v>
       </c>
       <c r="E187" t="n">
-        <v>325500994</v>
+        <v>325550436</v>
       </c>
       <c r="F187" t="n">
-        <v>31051.80369746241</v>
+        <v>31051.67219249085</v>
       </c>
       <c r="G187" t="n">
-        <v>75283.7720411692</v>
+        <v>75283.45321298137</v>
       </c>
       <c r="H187" t="n">
         <v>0.02</v>
       </c>
       <c r="I187" t="n">
-        <v>16730983</v>
+        <v>16294220</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9083982</v>
+        <v>9085007</v>
       </c>
       <c r="F188" t="n">
-        <v>730.802299447466</v>
+        <v>668.4085179249092</v>
       </c>
       <c r="G188" t="n">
-        <v>446.5526002854148</v>
+        <v>274.0554759069277</v>
       </c>
       <c r="H188" t="n">
-        <v>1.85</v>
+        <v>2.39</v>
       </c>
       <c r="I188" t="n">
-        <v>303970</v>
+        <v>300675</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7062489</v>
+        <v>7063076</v>
       </c>
       <c r="E189" t="n">
-        <v>7072460</v>
+        <v>7073048</v>
       </c>
       <c r="F189" t="n">
-        <v>869.3961693409049</v>
+        <v>869.396169788629</v>
       </c>
       <c r="G189" t="n">
-        <v>105.9944917394511</v>
+        <v>105.9944917940365</v>
       </c>
       <c r="H189" t="n">
         <v>0.53</v>
       </c>
       <c r="I189" t="n">
-        <v>591145</v>
+        <v>588034</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4774404</v>
+        <v>4789581</v>
       </c>
       <c r="F190" t="n">
-        <v>200.1375828693683</v>
+        <v>200.1375829724357</v>
       </c>
       <c r="G190" t="n">
-        <v>204.7719852686756</v>
+        <v>173.857692432332</v>
       </c>
       <c r="H190" t="n">
         <v>1.57</v>
       </c>
       <c r="I190" t="n">
-        <v>130410</v>
+        <v>199518</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>98049841</v>
+        <v>96192430</v>
       </c>
       <c r="E191" t="n">
-        <v>99105282</v>
+        <v>97227877</v>
       </c>
       <c r="F191" t="n">
-        <v>16315.87499688569</v>
+        <v>15432.03610681802</v>
       </c>
       <c r="G191" t="n">
-        <v>20355.48553684707</v>
+        <v>11455.61458794288</v>
       </c>
       <c r="H191" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="I191" t="n">
-        <v>38644263</v>
+        <v>38510804</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>241426790</v>
+        <v>241703472</v>
       </c>
       <c r="E192" t="n">
-        <v>241426790</v>
+        <v>241703472</v>
       </c>
       <c r="F192" t="n">
-        <v>19014.66475012383</v>
+        <v>19832.23454727899</v>
       </c>
       <c r="G192" t="n">
-        <v>54126.28171714518</v>
+        <v>48452.9289292563</v>
       </c>
       <c r="H192" t="n">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>46908351</v>
+        <v>47100829</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24660936</v>
+        <v>24589973</v>
       </c>
       <c r="E193" t="n">
-        <v>147551335</v>
+        <v>147126749</v>
       </c>
       <c r="F193" t="n">
-        <v>50570.02857650009</v>
+        <v>47162.5843527143</v>
       </c>
       <c r="G193" t="n">
-        <v>109736.5448783136</v>
+        <v>102144.4672110782</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="I193" t="n">
-        <v>12409854</v>
+        <v>12333421</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13584473</v>
+        <v>13609882</v>
       </c>
       <c r="E194" t="n">
-        <v>41685981</v>
+        <v>41763952</v>
       </c>
       <c r="F194" t="n">
-        <v>651.892441119631</v>
+        <v>684.6291323285112</v>
       </c>
       <c r="G194" t="n">
-        <v>2390.602899584759</v>
+        <v>2661.550677365235</v>
       </c>
       <c r="H194" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I194" t="n">
-        <v>2586523</v>
+        <v>2588293</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54955042</v>
+        <v>54951990</v>
       </c>
       <c r="E195" t="n">
-        <v>94919305</v>
+        <v>94914034</v>
       </c>
       <c r="F195" t="n">
-        <v>1408.599615646023</v>
+        <v>1410.782714335121</v>
       </c>
       <c r="G195" t="n">
-        <v>8619.253490784846</v>
+        <v>8598.970328046165</v>
       </c>
       <c r="H195" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="I195" t="n">
-        <v>2340628</v>
+        <v>2305267</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4199052</v>
+        <v>4202631</v>
       </c>
       <c r="E196" t="n">
-        <v>4199052</v>
+        <v>4202631</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064261333949168</v>
+        <v>1.064266656433321</v>
       </c>
       <c r="G196" t="n">
-        <v>372.3695254615565</v>
+        <v>388.2483618743549</v>
       </c>
       <c r="H196" t="n">
-        <v>1.81</v>
+        <v>2.23</v>
       </c>
       <c r="I196" t="n">
-        <v>1067842</v>
+        <v>1075946</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>212019</v>
+        <v>211463</v>
       </c>
       <c r="F197" t="n">
-        <v>30.58912098174755</v>
+        <v>61.91893016983772</v>
       </c>
       <c r="G197" t="n">
-        <v>90.3163611278986</v>
+        <v>93.91666818953712</v>
       </c>
       <c r="H197" t="n">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="I197" t="n">
-        <v>49930</v>
+        <v>49799</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6640315</v>
+        <v>6644637</v>
       </c>
       <c r="E198" t="n">
-        <v>34162405</v>
+        <v>34184636</v>
       </c>
       <c r="F198" t="n">
-        <v>399.5067959234483</v>
+        <v>399.5067961715991</v>
       </c>
       <c r="G198" t="n">
-        <v>241.1677274461962</v>
+        <v>241.1677275959958</v>
       </c>
       <c r="H198" t="n">
         <v>1.08</v>
       </c>
       <c r="I198" t="n">
-        <v>912483</v>
+        <v>913060</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>179483501</v>
+        <v>178921539</v>
       </c>
       <c r="E199" t="n">
-        <v>209689725</v>
+        <v>209033187</v>
       </c>
       <c r="F199" t="n">
-        <v>31228.36382633348</v>
+        <v>35195.55467820681</v>
       </c>
       <c r="G199" t="n">
-        <v>8309.198289655507</v>
+        <v>13837.39907632566</v>
       </c>
       <c r="H199" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="I199" t="n">
-        <v>3994505</v>
+        <v>4055961</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>302655</v>
+        <v>303028</v>
       </c>
       <c r="F200" t="n">
-        <v>21.87236236919289</v>
+        <v>5.959915040101355</v>
       </c>
       <c r="G200" t="n">
-        <v>38.50979620880948</v>
+        <v>38.50998880039717</v>
       </c>
       <c r="H200" t="n">
         <v>1.31</v>
       </c>
       <c r="I200" t="n">
-        <v>326266</v>
+        <v>323858</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7991024</v>
+        <v>7994066</v>
       </c>
       <c r="F201" t="n">
-        <v>887.5805285674414</v>
+        <v>589.8811957102137</v>
       </c>
       <c r="G201" t="n">
-        <v>622.8213509930944</v>
+        <v>802.8166008594892</v>
       </c>
       <c r="H201" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I201" t="n">
-        <v>641727</v>
+        <v>643975</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34004</v>
+        <v>34008</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.77</v>
+        <v>651.73</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35105283</v>
+        <v>34877316</v>
       </c>
       <c r="E203" t="n">
-        <v>175191544</v>
+        <v>174053884</v>
       </c>
       <c r="F203" t="n">
-        <v>68447.61888437947</v>
+        <v>62897.92439707916</v>
       </c>
       <c r="G203" t="n">
-        <v>58501.71161624959</v>
+        <v>53706.62437876251</v>
       </c>
       <c r="H203" t="n">
         <v>0.51</v>
       </c>
       <c r="I203" t="n">
-        <v>10356685</v>
+        <v>10462219</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1995582</v>
+        <v>1972363</v>
       </c>
       <c r="E204" t="n">
-        <v>1995582</v>
+        <v>1972363</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>9.779999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="I204" t="n">
-        <v>9081.280000000001</v>
+        <v>12379.99</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>186774</v>
+        <v>186903</v>
       </c>
       <c r="F205" t="n">
-        <v>1076.143523989617</v>
+        <v>1076.143524658056</v>
       </c>
       <c r="G205" t="n">
-        <v>129.2077638246069</v>
+        <v>129.2077639048634</v>
       </c>
       <c r="H205" t="n">
         <v>1.18</v>
       </c>
       <c r="I205" t="n">
-        <v>13470.43</v>
+        <v>13483.46</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2778.4</v>
+        <v>2777.74</v>
       </c>
       <c r="E206" t="n">
-        <v>33208</v>
+        <v>33200</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>7.97</v>
       </c>
       <c r="I206" t="n">
-        <v>7968.69</v>
+        <v>7966.53</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>317782505</v>
+        <v>317253607</v>
       </c>
       <c r="E208" t="n">
-        <v>587970103</v>
+        <v>586991522</v>
       </c>
       <c r="F208" t="n">
-        <v>83763.42966056507</v>
+        <v>83787.43731247648</v>
       </c>
       <c r="G208" t="n">
-        <v>120471.1981366868</v>
+        <v>107118.692487954</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>13945413</v>
+        <v>13920446</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72481945</v>
+        <v>72035265</v>
       </c>
       <c r="E209" t="n">
-        <v>691442398</v>
+        <v>687181288</v>
       </c>
       <c r="F209" t="n">
-        <v>39302.68959700818</v>
+        <v>36566.19204421939</v>
       </c>
       <c r="G209" t="n">
-        <v>158079.3537119404</v>
+        <v>145033.7327959309</v>
       </c>
       <c r="H209" t="n">
         <v>0.26</v>
       </c>
       <c r="I209" t="n">
-        <v>22118172</v>
+        <v>21868835</v>
       </c>
     </row>
     <row r="210">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2611617</v>
+        <v>2610301</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>4.74</v>
       </c>
       <c r="I210" t="n">
-        <v>57305</v>
+        <v>57223</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82371</v>
+        <v>82296</v>
       </c>
       <c r="E211" t="n">
-        <v>684768</v>
+        <v>684147</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>7.04</v>
       </c>
       <c r="I211" t="n">
-        <v>121.17</v>
+        <v>121.18</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1894099</v>
+        <v>1890334</v>
       </c>
       <c r="E212" t="n">
-        <v>5409305</v>
+        <v>5398552</v>
       </c>
       <c r="F212" t="n">
-        <v>33.5237688349955</v>
+        <v>33.52376885582921</v>
       </c>
       <c r="G212" t="n">
-        <v>322.7737971299367</v>
+        <v>262.7385374284846</v>
       </c>
       <c r="H212" t="n">
         <v>1.53</v>
       </c>
       <c r="I212" t="n">
-        <v>67272</v>
+        <v>67424</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11338087</v>
+        <v>11558924</v>
       </c>
       <c r="E213" t="n">
-        <v>33640856</v>
+        <v>34296093</v>
       </c>
       <c r="F213" t="n">
-        <v>669.2061074088051</v>
+        <v>535.840325296277</v>
       </c>
       <c r="G213" t="n">
-        <v>504.9166739322849</v>
+        <v>548.7571530602263</v>
       </c>
       <c r="H213" t="n">
         <v>1.89</v>
       </c>
       <c r="I213" t="n">
-        <v>7204182</v>
+        <v>7256022</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14576458</v>
+        <v>14573260</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>5.46</v>
       </c>
       <c r="I214" t="n">
-        <v>1248.7</v>
+        <v>1247.58</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1995601</v>
+        <v>1984398</v>
       </c>
       <c r="E215" t="n">
-        <v>5789880</v>
+        <v>5757377</v>
       </c>
       <c r="F215" t="n">
-        <v>53.88932542802416</v>
+        <v>42.20947462071328</v>
       </c>
       <c r="G215" t="n">
-        <v>58.95319442644976</v>
+        <v>58.95319445680964</v>
       </c>
       <c r="H215" t="n">
         <v>0.66</v>
       </c>
       <c r="I215" t="n">
-        <v>47125</v>
+        <v>46780</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2324931</v>
+        <v>2328315</v>
       </c>
       <c r="E216" t="n">
-        <v>20507438</v>
+        <v>20537278</v>
       </c>
       <c r="F216" t="n">
-        <v>539.1361353389977</v>
+        <v>539.1361356166435</v>
       </c>
       <c r="G216" t="n">
-        <v>487.6795504146606</v>
+        <v>487.6795506658071</v>
       </c>
       <c r="H216" t="n">
         <v>2.06</v>
       </c>
       <c r="I216" t="n">
-        <v>81318</v>
+        <v>82082</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44895843</v>
+        <v>44896272</v>
       </c>
       <c r="E217" t="n">
-        <v>44895843</v>
+        <v>44896272</v>
       </c>
       <c r="F217" t="n">
-        <v>15269.23320123394</v>
+        <v>28189.7281737456</v>
       </c>
       <c r="G217" t="n">
-        <v>18668.66814944192</v>
+        <v>19632.73051802685</v>
       </c>
       <c r="H217" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I217" t="n">
-        <v>8471379</v>
+        <v>7509341</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8421803</v>
+        <v>8405405</v>
       </c>
       <c r="E218" t="n">
-        <v>11999139</v>
+        <v>11975776</v>
       </c>
       <c r="F218" t="n">
-        <v>2522.02447086867</v>
+        <v>3027.410241161678</v>
       </c>
       <c r="G218" t="n">
-        <v>137.5366381753454</v>
+        <v>134.1164048100561</v>
       </c>
       <c r="H218" t="n">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="I218" t="n">
-        <v>414077</v>
+        <v>404064</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16297446</v>
+        <v>16283958</v>
       </c>
       <c r="F219" t="n">
-        <v>1.068054725196066</v>
+        <v>1.068054725746096</v>
       </c>
       <c r="G219" t="n">
-        <v>1.041340627246486</v>
+        <v>1.041340627782758</v>
       </c>
       <c r="H219" t="n">
         <v>2.02</v>
       </c>
       <c r="I219" t="n">
-        <v>998260</v>
+        <v>999930</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>725878</v>
+        <v>725401</v>
       </c>
       <c r="F220" t="n">
-        <v>59.11926878918316</v>
+        <v>59.11926881962857</v>
       </c>
       <c r="G220" t="n">
-        <v>264.6011026493031</v>
+        <v>217.411585389014</v>
       </c>
       <c r="H220" t="n">
         <v>0.49</v>
       </c>
       <c r="I220" t="n">
-        <v>195567</v>
+        <v>193716</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2855287</v>
+        <v>2852057</v>
       </c>
       <c r="E221" t="n">
-        <v>2857760</v>
+        <v>2854527</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>6.34</v>
       </c>
       <c r="I221" t="n">
-        <v>111090</v>
+        <v>110095</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1257444</v>
+        <v>1260538</v>
       </c>
       <c r="E222" t="n">
-        <v>3799748</v>
+        <v>3809098</v>
       </c>
       <c r="F222" t="n">
-        <v>669.2209161070924</v>
+        <v>669.2209165229871</v>
       </c>
       <c r="G222" t="n">
-        <v>664.1466884610727</v>
+        <v>641.6980691827628</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>12581.44</v>
+        <v>12870.66</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>39096778</v>
+        <v>39071770</v>
       </c>
       <c r="E223" t="n">
-        <v>277189775</v>
+        <v>277012473</v>
       </c>
       <c r="F223" t="n">
-        <v>55026.35627232402</v>
+        <v>59066.82805363582</v>
       </c>
       <c r="G223" t="n">
-        <v>56434.87389802907</v>
+        <v>59533.98013019277</v>
       </c>
       <c r="H223" t="n">
         <v>0.4</v>
       </c>
       <c r="I223" t="n">
-        <v>1615964</v>
+        <v>1614068</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59262</v>
+        <v>59479</v>
       </c>
       <c r="E224" t="n">
-        <v>309204</v>
+        <v>310339</v>
       </c>
       <c r="F224" t="n">
-        <v>236.2475262651164</v>
+        <v>236.2466033789356</v>
       </c>
       <c r="G224" t="n">
-        <v>255.6133910725873</v>
+        <v>255.6123925348674</v>
       </c>
       <c r="H224" t="n">
         <v>0.84</v>
       </c>
       <c r="I224" t="n">
-        <v>290335</v>
+        <v>290620</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1276433</v>
+        <v>1275560</v>
       </c>
       <c r="E225" t="n">
-        <v>7915195</v>
+        <v>7909780</v>
       </c>
       <c r="F225" t="n">
-        <v>1762.084540480372</v>
+        <v>1651.012967319917</v>
       </c>
       <c r="G225" t="n">
-        <v>1494.10531623618</v>
+        <v>1639.093830069429</v>
       </c>
       <c r="H225" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>781486</v>
+        <v>778817</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>611631851</v>
+        <v>609620370</v>
       </c>
       <c r="E226" t="n">
-        <v>2368759918</v>
+        <v>2360969751</v>
       </c>
       <c r="F226" t="n">
-        <v>87098.96512218117</v>
+        <v>84403.55123951871</v>
       </c>
       <c r="G226" t="n">
-        <v>308166.5572384644</v>
+        <v>288805.1932597735</v>
       </c>
       <c r="H226" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I226" t="n">
-        <v>32876676</v>
+        <v>32787739</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20793357</v>
+        <v>20777488</v>
       </c>
       <c r="F227" t="n">
-        <v>524.8401504675601</v>
+        <v>94.57317155965295</v>
       </c>
       <c r="G227" t="n">
-        <v>446.0255165503125</v>
+        <v>218.8620220474191</v>
       </c>
       <c r="H227" t="n">
-        <v>0.05</v>
+        <v>1.69</v>
       </c>
       <c r="I227" t="n">
-        <v>16470253</v>
+        <v>16451630</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>673262</v>
+        <v>685691</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1.863384070521832</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>674.4391060967283</v>
       </c>
       <c r="H228" t="n">
-        <v>4.02</v>
+        <v>2.03</v>
       </c>
       <c r="I228" t="n">
-        <v>194028</v>
+        <v>191178</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5889243</v>
+        <v>5889114</v>
       </c>
       <c r="E229" t="n">
-        <v>26362777</v>
+        <v>26362200</v>
       </c>
       <c r="F229" t="n">
-        <v>1801.082338514262</v>
+        <v>1721.867904813781</v>
       </c>
       <c r="G229" t="n">
-        <v>1126.103360050059</v>
+        <v>1126.103360749888</v>
       </c>
       <c r="H229" t="n">
         <v>0.76</v>
       </c>
       <c r="I229" t="n">
-        <v>151593</v>
+        <v>151915</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6758151</v>
+        <v>6769242</v>
       </c>
       <c r="E230" t="n">
-        <v>12939029</v>
+        <v>12960262</v>
       </c>
       <c r="F230" t="n">
-        <v>4102.987531769876</v>
+        <v>4088.979752755834</v>
       </c>
       <c r="G230" t="n">
-        <v>162.0267361587806</v>
+        <v>208.2750678437792</v>
       </c>
       <c r="H230" t="n">
         <v>1.92</v>
       </c>
       <c r="I230" t="n">
-        <v>135109</v>
+        <v>128853</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3244644</v>
+        <v>3244843</v>
       </c>
       <c r="E231" t="n">
-        <v>21336025</v>
+        <v>21337333</v>
       </c>
       <c r="F231" t="n">
-        <v>2252.106722878225</v>
+        <v>2242.1024362503</v>
       </c>
       <c r="G231" t="n">
-        <v>370.1573695536752</v>
+        <v>322.6803382999922</v>
       </c>
       <c r="H231" t="n">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="I231" t="n">
-        <v>1648408</v>
+        <v>1646299</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>123296876</v>
+        <v>122855046</v>
       </c>
       <c r="E232" t="n">
-        <v>1071990560</v>
+        <v>1068149113</v>
       </c>
       <c r="F232" t="n">
-        <v>69766.50122738545</v>
+        <v>205713.1130412837</v>
       </c>
       <c r="G232" t="n">
-        <v>103127.9035072991</v>
+        <v>186944.4914998363</v>
       </c>
       <c r="H232" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>9141488</v>
+        <v>9275249</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>5.16</v>
       </c>
       <c r="I233" t="n">
-        <v>1150.7</v>
+        <v>1150.62</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>114092597</v>
+        <v>113135715</v>
       </c>
       <c r="E234" t="n">
-        <v>174050930</v>
+        <v>172591186</v>
       </c>
       <c r="F234" t="n">
-        <v>26534.60789259652</v>
+        <v>27596.92674047783</v>
       </c>
       <c r="G234" t="n">
-        <v>48825.62612204522</v>
+        <v>45918.0803917207</v>
       </c>
       <c r="H234" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="I234" t="n">
-        <v>7894124</v>
+        <v>7841037</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>17045998</v>
+        <v>17078591</v>
       </c>
       <c r="E235" t="n">
-        <v>23385632</v>
+        <v>23430348</v>
       </c>
       <c r="F235" t="n">
-        <v>1294.533044580015</v>
+        <v>555.4351013467731</v>
       </c>
       <c r="G235" t="n">
-        <v>593.3751598907811</v>
+        <v>605.9926218714198</v>
       </c>
       <c r="H235" t="n">
         <v>0.9</v>
       </c>
       <c r="I235" t="n">
-        <v>514212</v>
+        <v>515165</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>122504302</v>
+        <v>122779665</v>
       </c>
       <c r="E236" t="n">
-        <v>469946219</v>
+        <v>471002557</v>
       </c>
       <c r="F236" t="n">
-        <v>193211.6662992003</v>
+        <v>321544.2381526625</v>
       </c>
       <c r="G236" t="n">
-        <v>262654.6837020717</v>
+        <v>475673.9258113353</v>
       </c>
       <c r="H236" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I236" t="n">
-        <v>30557983</v>
+        <v>30907911</v>
       </c>
     </row>
     <row r="237">
@@ -8685,19 +8685,19 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>768095</v>
+        <v>757111</v>
       </c>
       <c r="F237" t="n">
-        <v>69.76055734726788</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>20.55390501463</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>3.25</v>
+        <v>7.22</v>
       </c>
       <c r="I237" t="n">
-        <v>50256</v>
+        <v>49451</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>850481</v>
+        <v>850089</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>6.65</v>
+        <v>7.66</v>
       </c>
       <c r="I238" t="n">
-        <v>129684</v>
+        <v>129624</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3195388</v>
+        <v>3196189</v>
       </c>
       <c r="E239" t="n">
-        <v>30276775</v>
+        <v>30284367</v>
       </c>
       <c r="F239" t="n">
-        <v>284.4666462579695</v>
+        <v>284.4666464044649</v>
       </c>
       <c r="G239" t="n">
-        <v>1399.63267811442</v>
+        <v>1399.632678835206</v>
       </c>
       <c r="H239" t="n">
         <v>0.03</v>
       </c>
       <c r="I239" t="n">
-        <v>213144</v>
+        <v>213308</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>735059</v>
+        <v>735578</v>
       </c>
       <c r="E240" t="n">
-        <v>785774</v>
+        <v>786328</v>
       </c>
       <c r="F240" t="n">
-        <v>25.30968539992656</v>
+        <v>26.31581227972663</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.929774715746</v>
+        <v>1569.929775690896</v>
       </c>
       <c r="H240" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="I240" t="n">
-        <v>89576</v>
+        <v>90287</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>363553</v>
+        <v>363548</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>12.24</v>
       </c>
       <c r="I241" t="n">
-        <v>299.6</v>
+        <v>299.55</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>133616</v>
+        <v>132831</v>
       </c>
       <c r="F242" t="n">
-        <v>230.8131945017875</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>8.120823908953804</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>3.62</v>
+        <v>4.32</v>
       </c>
       <c r="I242" t="n">
-        <v>90387</v>
+        <v>89984</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570583</v>
+        <v>570502</v>
       </c>
       <c r="F243" t="n">
-        <v>304.1040832601395</v>
+        <v>304.1040834167478</v>
       </c>
       <c r="G243" t="n">
-        <v>354.7461540604612</v>
+        <v>354.7461542431494</v>
       </c>
       <c r="H243" t="n">
         <v>1.05</v>
       </c>
       <c r="I243" t="n">
-        <v>932.74</v>
+        <v>932.7</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6409291</v>
+        <v>6437659</v>
       </c>
       <c r="E244" t="n">
-        <v>40056232</v>
+        <v>40233525</v>
       </c>
       <c r="F244" t="n">
-        <v>119.5504629626475</v>
+        <v>135.8958502043373</v>
       </c>
       <c r="G244" t="n">
-        <v>1278.328340093657</v>
+        <v>1381.190667999791</v>
       </c>
       <c r="H244" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I244" t="n">
-        <v>425027</v>
+        <v>425407</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5258689</v>
+        <v>5291890</v>
       </c>
       <c r="E245" t="n">
-        <v>19582281</v>
+        <v>19705914</v>
       </c>
       <c r="F245" t="n">
-        <v>74.5991127481502</v>
+        <v>74.59911278656747</v>
       </c>
       <c r="G245" t="n">
-        <v>437.2697840457798</v>
+        <v>437.2697842709662</v>
       </c>
       <c r="H245" t="n">
         <v>1.52</v>
       </c>
       <c r="I245" t="n">
-        <v>70780</v>
+        <v>72395</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3704584</v>
+        <v>3703578</v>
       </c>
       <c r="F246" t="n">
-        <v>127.0144530807256</v>
+        <v>127.0144531461359</v>
       </c>
       <c r="G246" t="n">
-        <v>1331.219828191779</v>
+        <v>1244.179131929224</v>
       </c>
       <c r="H246" t="n">
         <v>1.26</v>
       </c>
       <c r="I246" t="n">
-        <v>7729.76</v>
+        <v>7727.66</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31565383</v>
+        <v>31548039</v>
       </c>
       <c r="E247" t="n">
-        <v>113141704</v>
+        <v>113079535</v>
       </c>
       <c r="F247" t="n">
-        <v>110.1224509526592</v>
+        <v>110.1224510093704</v>
       </c>
       <c r="G247" t="n">
-        <v>2127.126949564969</v>
+        <v>2127.126950660404</v>
       </c>
       <c r="H247" t="n">
         <v>1.29</v>
       </c>
       <c r="I247" t="n">
-        <v>89542</v>
+        <v>88846</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1578991</v>
+        <v>1578625</v>
       </c>
       <c r="F248" t="n">
-        <v>14.7242081039848</v>
+        <v>14.72420811313532</v>
       </c>
       <c r="G248" t="n">
-        <v>63.83425413263628</v>
+        <v>63.83425417230677</v>
       </c>
       <c r="H248" t="n">
         <v>2.53</v>
       </c>
       <c r="I248" t="n">
-        <v>606929</v>
+        <v>608398</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2234653</v>
+        <v>2235945</v>
       </c>
       <c r="E249" t="n">
-        <v>17188313</v>
+        <v>17198257</v>
       </c>
       <c r="F249" t="n">
-        <v>959.1889182340918</v>
+        <v>1091.356818958549</v>
       </c>
       <c r="G249" t="n">
-        <v>1350.614764414489</v>
+        <v>1350.614765110032</v>
       </c>
       <c r="H249" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="I249" t="n">
-        <v>167272</v>
+        <v>167318</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103767</v>
+        <v>103710</v>
       </c>
       <c r="E250" t="n">
-        <v>824224</v>
+        <v>823773</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2937535197796</v>
+        <v>158.2937536181027</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5865475964102</v>
+        <v>359.5865478197649</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1318.61</v>
+        <v>1317.98</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89005814</v>
+        <v>88990719</v>
       </c>
       <c r="E251" t="n">
-        <v>329016118</v>
+        <v>328960320</v>
       </c>
       <c r="F251" t="n">
-        <v>1035.267051695301</v>
+        <v>1035.267052338679</v>
       </c>
       <c r="G251" t="n">
-        <v>883.2248634607563</v>
+        <v>883.2248640096459</v>
       </c>
       <c r="H251" t="n">
         <v>0.62</v>
       </c>
       <c r="I251" t="n">
-        <v>239252</v>
+        <v>235753</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2300475</v>
+        <v>2298924</v>
       </c>
       <c r="E252" t="n">
-        <v>9230733</v>
+        <v>9224510</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>6.74</v>
       </c>
       <c r="I252" t="n">
-        <v>41703</v>
+        <v>41671</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>590161</v>
+        <v>590142</v>
       </c>
       <c r="F253" t="n">
-        <v>338.1232208952154</v>
+        <v>363.8840704002852</v>
       </c>
       <c r="G253" t="n">
-        <v>7.358807947363053</v>
+        <v>38.91263022317021</v>
       </c>
       <c r="H253" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="I253" t="n">
-        <v>3402.81</v>
+        <v>3402.88</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39605</v>
+        <v>39610</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>5.36</v>
       </c>
       <c r="I254" t="n">
-        <v>4239.5</v>
+        <v>4216.25</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>756941809</v>
+        <v>759469991</v>
       </c>
       <c r="E255" t="n">
-        <v>1167271102</v>
+        <v>1171169781</v>
       </c>
       <c r="F255" t="n">
-        <v>15744.95789108619</v>
+        <v>15472.12879304514</v>
       </c>
       <c r="G255" t="n">
-        <v>127674.9047618677</v>
+        <v>125344.6995031011</v>
       </c>
       <c r="H255" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I255" t="n">
-        <v>187321528</v>
+        <v>222790111</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5764341</v>
+        <v>5759039</v>
       </c>
       <c r="E256" t="n">
-        <v>5764341</v>
+        <v>5759039</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>8.44</v>
       </c>
       <c r="I256" t="n">
-        <v>619.17</v>
+        <v>617.04</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39576523</v>
+        <v>39815704</v>
       </c>
       <c r="E257" t="n">
-        <v>188748417</v>
+        <v>189889120</v>
       </c>
       <c r="F257" t="n">
-        <v>419.7990374365834</v>
+        <v>234.6105324336405</v>
       </c>
       <c r="G257" t="n">
-        <v>227.3575098031255</v>
+        <v>155.3401544396334</v>
       </c>
       <c r="H257" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I257" t="n">
-        <v>422658</v>
+        <v>292639</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>588616</v>
+        <v>588517</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>10.61</v>
       </c>
       <c r="I258" t="n">
-        <v>382.82</v>
+        <v>382.75</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23560714</v>
+        <v>23559808</v>
       </c>
       <c r="E259" t="n">
-        <v>39267856</v>
+        <v>39266345</v>
       </c>
       <c r="F259" t="n">
-        <v>2825.620571861451</v>
+        <v>2894.203323774504</v>
       </c>
       <c r="G259" t="n">
-        <v>6738.22203071973</v>
+        <v>6738.222034189799</v>
       </c>
       <c r="H259" t="n">
         <v>0.91</v>
       </c>
       <c r="I259" t="n">
-        <v>482441</v>
+        <v>482136</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110290</v>
+        <v>110289</v>
       </c>
       <c r="F260" t="n">
-        <v>120.9679244611407</v>
+        <v>120.9679245363176</v>
       </c>
       <c r="G260" t="n">
-        <v>57.76020430502701</v>
+        <v>57.76020434092272</v>
       </c>
       <c r="H260" t="n">
         <v>0.04</v>
       </c>
       <c r="I260" t="n">
-        <v>50150</v>
+        <v>50001</v>
       </c>
     </row>
     <row r="261">
@@ -9518,10 +9518,10 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>2611106</v>
+        <v>2720096</v>
       </c>
       <c r="E261" t="n">
-        <v>11144964</v>
+        <v>11610165</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -9530,10 +9530,10 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>12.99</v>
+        <v>10</v>
       </c>
       <c r="I261" t="n">
-        <v>354907</v>
+        <v>378964</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3845880</v>
+        <v>3847592</v>
       </c>
       <c r="E262" t="n">
-        <v>8391660</v>
+        <v>8395395</v>
       </c>
       <c r="F262" t="n">
-        <v>955.0689303734553</v>
+        <v>1002.854711205575</v>
       </c>
       <c r="G262" t="n">
-        <v>1442.84449418406</v>
+        <v>1359.982734483635</v>
       </c>
       <c r="H262" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="I262" t="n">
-        <v>1654722</v>
+        <v>1672632</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>498330311</v>
+        <v>497085188</v>
       </c>
       <c r="E263" t="n">
-        <v>1734646339</v>
+        <v>1730312169</v>
       </c>
       <c r="F263" t="n">
-        <v>277890.1573208998</v>
+        <v>254319.4994795467</v>
       </c>
       <c r="G263" t="n">
-        <v>443442.7386652149</v>
+        <v>437471.1890794307</v>
       </c>
       <c r="H263" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I263" t="n">
-        <v>30876293</v>
+        <v>30637351</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5779572120</v>
+        <v>5775077357</v>
       </c>
       <c r="E264" t="n">
-        <v>5779572120</v>
+        <v>5775077357</v>
       </c>
       <c r="F264" t="n">
-        <v>2074.699207972587</v>
+        <v>2074.699209261931</v>
       </c>
       <c r="G264" t="n">
-        <v>1774.947215967891</v>
+        <v>1774.947217070952</v>
       </c>
       <c r="H264" t="n">
         <v>0.1</v>
       </c>
       <c r="I264" t="n">
-        <v>10121647</v>
+        <v>10093065</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24078560</v>
+        <v>24075335</v>
       </c>
       <c r="E265" t="n">
-        <v>24057644</v>
+        <v>24054422</v>
       </c>
       <c r="F265" t="n">
-        <v>274.5766541011145</v>
+        <v>274.5766542425167</v>
       </c>
       <c r="G265" t="n">
-        <v>115.3968851321127</v>
+        <v>84.44067759386486</v>
       </c>
       <c r="H265" t="n">
-        <v>0.35</v>
+        <v>1.01</v>
       </c>
       <c r="I265" t="n">
-        <v>84328</v>
+        <v>84386</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12254935</v>
+        <v>12225909</v>
       </c>
       <c r="E266" t="n">
-        <v>24779915</v>
+        <v>24721222</v>
       </c>
       <c r="F266" t="n">
-        <v>600.8415229410756</v>
+        <v>570.4704084890772</v>
       </c>
       <c r="G266" t="n">
-        <v>687.1484833399666</v>
+        <v>687.1484836938362</v>
       </c>
       <c r="H266" t="n">
         <v>1.47</v>
       </c>
       <c r="I266" t="n">
-        <v>41300</v>
+        <v>41361</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>152115</v>
+        <v>152486</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5722471437656</v>
+        <v>182.5722472377871</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1455336867187</v>
+        <v>132.1455337547713</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>58608</v>
+        <v>58709</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47206</v>
+        <v>47205</v>
       </c>
       <c r="F268" t="n">
-        <v>64.39498846988586</v>
+        <v>112.9902963971117</v>
       </c>
       <c r="G268" t="n">
-        <v>3.000547147680463</v>
+        <v>3.000547149545186</v>
       </c>
       <c r="H268" t="n">
         <v>0.21</v>
       </c>
       <c r="I268" t="n">
-        <v>71277</v>
+        <v>71026</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2631929</v>
+        <v>2635114</v>
       </c>
       <c r="E269" t="n">
-        <v>10527717</v>
+        <v>10540455</v>
       </c>
       <c r="F269" t="n">
-        <v>37207.15347635018</v>
+        <v>34880.0439285171</v>
       </c>
       <c r="G269" t="n">
-        <v>59316.64828586305</v>
+        <v>59278.42207665239</v>
       </c>
       <c r="H269" t="n">
         <v>0.66</v>
       </c>
       <c r="I269" t="n">
-        <v>6860962</v>
+        <v>6858433</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>229227366</v>
+        <v>227635638</v>
       </c>
       <c r="E270" t="n">
-        <v>704787887</v>
+        <v>699893922</v>
       </c>
       <c r="F270" t="n">
-        <v>49411.79030771439</v>
+        <v>49999.72474652656</v>
       </c>
       <c r="G270" t="n">
-        <v>142058.1227723215</v>
+        <v>133872.0885686234</v>
       </c>
       <c r="H270" t="n">
         <v>0.62</v>
       </c>
       <c r="I270" t="n">
-        <v>15171962</v>
+        <v>15257445</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148336981</v>
+        <v>148172739</v>
       </c>
       <c r="E271" t="n">
-        <v>387526249</v>
+        <v>387097170</v>
       </c>
       <c r="F271" t="n">
-        <v>28594.39386960955</v>
+        <v>28683.39611572292</v>
       </c>
       <c r="G271" t="n">
-        <v>13104.06851067995</v>
+        <v>12678.47557796465</v>
       </c>
       <c r="H271" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="I271" t="n">
-        <v>7171582</v>
+        <v>7716647</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2452859</v>
+        <v>2439926</v>
       </c>
       <c r="E272" t="n">
-        <v>3366597</v>
+        <v>3348847</v>
       </c>
       <c r="F272" t="n">
-        <v>58.28684256115256</v>
+        <v>59.65854235483396</v>
       </c>
       <c r="G272" t="n">
-        <v>204.1907560547679</v>
+        <v>204.1907561816644</v>
       </c>
       <c r="H272" t="n">
         <v>1.71</v>
       </c>
       <c r="I272" t="n">
-        <v>1914833</v>
+        <v>2000220</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54606</v>
+        <v>56721</v>
       </c>
       <c r="F2" t="n">
-        <v>2.769400652964141</v>
+        <v>0.5698798596736258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2819013693681319</v>
+        <v>10.87958078799806</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>987.9400000000001</v>
+        <v>744.24</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91285</v>
+        <v>91275</v>
       </c>
       <c r="F3" t="n">
-        <v>22.4993394134329</v>
+        <v>22.50020871847675</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1766793346188</v>
+        <v>416.1927591172217</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1410.8</v>
+        <v>1402.12</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>609977785</v>
+        <v>608544942</v>
       </c>
       <c r="E4" t="n">
-        <v>1183629172</v>
+        <v>1180854083</v>
       </c>
       <c r="F4" t="n">
-        <v>22892.37707456887</v>
+        <v>49300.68557304936</v>
       </c>
       <c r="G4" t="n">
-        <v>24834.24729611984</v>
+        <v>45480.14986529693</v>
       </c>
       <c r="H4" t="n">
-        <v>0.39</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>18847535</v>
+        <v>19013085</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1346634</v>
+        <v>1388402</v>
       </c>
       <c r="E5" t="n">
-        <v>4352873</v>
+        <v>4487884</v>
       </c>
       <c r="F5" t="n">
-        <v>1013.561098279586</v>
+        <v>4142.797639165027</v>
       </c>
       <c r="G5" t="n">
-        <v>4759.754730667058</v>
+        <v>4471.523637586212</v>
       </c>
       <c r="H5" t="n">
-        <v>1.58</v>
+        <v>0.45</v>
       </c>
       <c r="I5" t="n">
-        <v>124230</v>
+        <v>141450</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>147105454</v>
+        <v>148007181</v>
       </c>
       <c r="E6" t="n">
-        <v>163015833</v>
+        <v>164015087</v>
       </c>
       <c r="F6" t="n">
-        <v>64165.4413347595</v>
+        <v>184994.9289170548</v>
       </c>
       <c r="G6" t="n">
-        <v>286419.8574408754</v>
+        <v>418490.7623181106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>37341173</v>
+        <v>38004984</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3821.44</v>
+        <v>3822.86</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>42.29</v>
+        <v>42.33</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8471272</v>
+        <v>8416025</v>
       </c>
       <c r="E8" t="n">
-        <v>8684886</v>
+        <v>8628246</v>
       </c>
       <c r="F8" t="n">
-        <v>221.4855196896845</v>
+        <v>137.0682953435044</v>
       </c>
       <c r="G8" t="n">
-        <v>4405.108947507262</v>
+        <v>4211.006627524372</v>
       </c>
       <c r="H8" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="I8" t="n">
-        <v>88080</v>
+        <v>87157</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285188</v>
+        <v>285516</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.85</v>
+        <v>7.09</v>
       </c>
       <c r="I9" t="n">
-        <v>435.82</v>
+        <v>435.92</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4982347</v>
+        <v>4954253</v>
       </c>
       <c r="E10" t="n">
-        <v>7960294</v>
+        <v>7915408</v>
       </c>
       <c r="F10" t="n">
-        <v>239.9555857982516</v>
+        <v>215.085909919495</v>
       </c>
       <c r="G10" t="n">
-        <v>432.1577509772094</v>
+        <v>427.552147508987</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="I10" t="n">
-        <v>98762</v>
+        <v>98733</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1000332</v>
+        <v>1002063</v>
       </c>
       <c r="E11" t="n">
-        <v>12241368</v>
+        <v>12262543</v>
       </c>
       <c r="F11" t="n">
-        <v>1444.80993187788</v>
+        <v>1568.801306966726</v>
       </c>
       <c r="G11" t="n">
-        <v>1267.288236574431</v>
+        <v>1363.346134576628</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>471.28</v>
+        <v>481.63</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>586411</v>
+        <v>586838</v>
       </c>
       <c r="E12" t="n">
-        <v>586411</v>
+        <v>586838</v>
       </c>
       <c r="F12" t="n">
-        <v>174.3236540423202</v>
+        <v>76.21469783425651</v>
       </c>
       <c r="G12" t="n">
-        <v>5.000946091604334</v>
+        <v>46.76936931527331</v>
       </c>
       <c r="H12" t="n">
-        <v>1.26</v>
+        <v>2.09</v>
       </c>
       <c r="I12" t="n">
-        <v>29464</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4575535</v>
+        <v>4559286</v>
       </c>
       <c r="E13" t="n">
-        <v>28104243</v>
+        <v>28004437</v>
       </c>
       <c r="F13" t="n">
-        <v>382.6127844084163</v>
+        <v>409.7547820707111</v>
       </c>
       <c r="G13" t="n">
-        <v>649.5214597061307</v>
+        <v>811.5274658711154</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6</v>
+        <v>1.81</v>
       </c>
       <c r="I13" t="n">
-        <v>650119</v>
+        <v>664459</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>197974</v>
+        <v>198440</v>
       </c>
       <c r="E14" t="n">
-        <v>2177927</v>
+        <v>2183061</v>
       </c>
       <c r="F14" t="n">
-        <v>45.0367049913744</v>
+        <v>8.207363820878397</v>
       </c>
       <c r="G14" t="n">
-        <v>926.2433565392221</v>
+        <v>1804.569652011784</v>
       </c>
       <c r="H14" t="n">
         <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>27311</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3358945</v>
+        <v>3351071</v>
       </c>
       <c r="E15" t="n">
-        <v>9555900</v>
+        <v>9533500</v>
       </c>
       <c r="F15" t="n">
-        <v>357.1800164905229</v>
+        <v>1470.363166608636</v>
       </c>
       <c r="G15" t="n">
-        <v>99.15485185457474</v>
+        <v>337.0671882979493</v>
       </c>
       <c r="H15" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>107631</v>
+        <v>106284</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315690</v>
+        <v>315487</v>
       </c>
       <c r="E16" t="n">
-        <v>3643439</v>
+        <v>3641094</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8673969410071</v>
+        <v>143.0761948060926</v>
       </c>
       <c r="G16" t="n">
-        <v>130.7159416480542</v>
+        <v>130.5627661779061</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>3394.61</v>
+        <v>3399.08</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>922939</v>
+        <v>934966</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.14</v>
+        <v>4.65</v>
       </c>
       <c r="I17" t="n">
-        <v>11103.05</v>
+        <v>11289.85</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23218303</v>
+        <v>23205942</v>
       </c>
       <c r="E18" t="n">
-        <v>23261412</v>
+        <v>23249028</v>
       </c>
       <c r="F18" t="n">
-        <v>988.0171813240034</v>
+        <v>3306.561643601134</v>
       </c>
       <c r="G18" t="n">
-        <v>1504.043957749056</v>
+        <v>2103.122966575382</v>
       </c>
       <c r="H18" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="I18" t="n">
-        <v>856757</v>
+        <v>842214</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6984524</v>
+        <v>7080911</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4266951063054848</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.49925614384843</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.83</v>
+        <v>5.81</v>
       </c>
       <c r="I19" t="n">
-        <v>13906.5</v>
+        <v>17731.38</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2433203</v>
+        <v>2466601</v>
       </c>
       <c r="E20" t="n">
-        <v>2433203</v>
+        <v>2466601</v>
       </c>
       <c r="F20" t="n">
-        <v>84.72205525800651</v>
+        <v>212.2089127336181</v>
       </c>
       <c r="G20" t="n">
-        <v>351.4190046112905</v>
+        <v>1.428251324531521</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="I20" t="n">
-        <v>320101</v>
+        <v>318540</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>404001</v>
+        <v>404151</v>
       </c>
       <c r="F21" t="n">
-        <v>118.2488397365517</v>
+        <v>97.70900172563982</v>
       </c>
       <c r="G21" t="n">
-        <v>1.637324660679471</v>
+        <v>1.637387922026058</v>
       </c>
       <c r="H21" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="I21" t="n">
-        <v>1751.66</v>
+        <v>1753.32</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17535825</v>
+        <v>17269943</v>
       </c>
       <c r="E22" t="n">
-        <v>22570046</v>
+        <v>22227834</v>
       </c>
       <c r="F22" t="n">
-        <v>3246.469982416495</v>
+        <v>4571.125104426422</v>
       </c>
       <c r="G22" t="n">
-        <v>5839.540191272215</v>
+        <v>12596.31955321657</v>
       </c>
       <c r="H22" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="I22" t="n">
-        <v>1648270</v>
+        <v>1554720</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>476977210</v>
+        <v>477067537</v>
       </c>
       <c r="E23" t="n">
-        <v>476977214</v>
+        <v>477067542</v>
       </c>
       <c r="F23" t="n">
-        <v>11293.68182840833</v>
+        <v>48528.69454831968</v>
       </c>
       <c r="G23" t="n">
-        <v>42708.1118668864</v>
+        <v>89535.53502914285</v>
       </c>
       <c r="H23" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>68717395</v>
+        <v>65342334</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23577</v>
+        <v>23522</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4.95</v>
+        <v>7.64</v>
       </c>
       <c r="I24" t="n">
-        <v>2242.82</v>
+        <v>2469.2</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4718183</v>
+        <v>4755173</v>
       </c>
       <c r="E25" t="n">
-        <v>4718183</v>
+        <v>4755173</v>
       </c>
       <c r="F25" t="n">
-        <v>523.7045999256566</v>
+        <v>75.8602873526403</v>
       </c>
       <c r="G25" t="n">
-        <v>762.853191684945</v>
+        <v>1480.29697587316</v>
       </c>
       <c r="H25" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>2014615</v>
+        <v>1877755</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3383636</v>
+        <v>3415677</v>
       </c>
       <c r="E26" t="n">
-        <v>3383636</v>
+        <v>3415677</v>
       </c>
       <c r="F26" t="n">
-        <v>10.89283184207442</v>
+        <v>1033.384790225594</v>
       </c>
       <c r="G26" t="n">
-        <v>318.1670158615544</v>
+        <v>374.6209437573045</v>
       </c>
       <c r="H26" t="n">
-        <v>2.51</v>
+        <v>0.52</v>
       </c>
       <c r="I26" t="n">
-        <v>516386</v>
+        <v>512421</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>314983</v>
+        <v>312885</v>
       </c>
       <c r="E27" t="n">
-        <v>1470372</v>
+        <v>1460581</v>
       </c>
       <c r="F27" t="n">
-        <v>408.7676331540407</v>
+        <v>134.61571798445</v>
       </c>
       <c r="G27" t="n">
-        <v>257.6982826099973</v>
+        <v>703.6781759824676</v>
       </c>
       <c r="H27" t="n">
-        <v>1.15</v>
+        <v>0.14</v>
       </c>
       <c r="I27" t="n">
-        <v>700626</v>
+        <v>709365</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1509144</v>
+        <v>1490548</v>
       </c>
       <c r="F28" t="n">
-        <v>440.8492063763276</v>
+        <v>336.2033894253814</v>
       </c>
       <c r="G28" t="n">
-        <v>257.3946137340537</v>
+        <v>317.8379741684231</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="I28" t="n">
-        <v>289098</v>
+        <v>294137</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12769771</v>
+        <v>12774097</v>
       </c>
       <c r="E29" t="n">
-        <v>31781649</v>
+        <v>31792417</v>
       </c>
       <c r="F29" t="n">
-        <v>770.2844680896294</v>
+        <v>757.7852826490093</v>
       </c>
       <c r="G29" t="n">
-        <v>971.6995173691759</v>
+        <v>1055.717157195718</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>1235285</v>
+        <v>1235931</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>931251</v>
+        <v>897319</v>
       </c>
       <c r="E30" t="n">
-        <v>6518755</v>
+        <v>6281234</v>
       </c>
       <c r="F30" t="n">
-        <v>99.88470244068225</v>
+        <v>7.664304984708132</v>
       </c>
       <c r="G30" t="n">
-        <v>13.33821634990171</v>
+        <v>48.47348381406367</v>
       </c>
       <c r="H30" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="I30" t="n">
-        <v>249358</v>
+        <v>226477</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190092</v>
+        <v>190212</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>1154.39</v>
+        <v>994.24</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5722136</v>
+        <v>5644606</v>
       </c>
       <c r="E32" t="n">
-        <v>5995883</v>
+        <v>5914644</v>
       </c>
       <c r="F32" t="n">
-        <v>214.0066732605792</v>
+        <v>320.6138545299139</v>
       </c>
       <c r="G32" t="n">
-        <v>10.7423015105993</v>
+        <v>172.9160290228406</v>
       </c>
       <c r="H32" t="n">
-        <v>2.94</v>
+        <v>1.75</v>
       </c>
       <c r="I32" t="n">
-        <v>152436</v>
+        <v>150744</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5176626</v>
+        <v>5408048</v>
       </c>
       <c r="E33" t="n">
-        <v>7620274</v>
+        <v>7960940</v>
       </c>
       <c r="F33" t="n">
-        <v>76.65065417962118</v>
+        <v>46.08948520144109</v>
       </c>
       <c r="G33" t="n">
-        <v>113.8344305420038</v>
+        <v>258.1356101789897</v>
       </c>
       <c r="H33" t="n">
-        <v>2.59</v>
+        <v>0.78</v>
       </c>
       <c r="I33" t="n">
-        <v>608277</v>
+        <v>667771</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7690048</v>
+        <v>7595687</v>
       </c>
       <c r="E34" t="n">
-        <v>7690048</v>
+        <v>7595687</v>
       </c>
       <c r="F34" t="n">
-        <v>31607.98698121719</v>
+        <v>5105.821524974172</v>
       </c>
       <c r="G34" t="n">
-        <v>31604.16864742279</v>
+        <v>29815.54758097174</v>
       </c>
       <c r="H34" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="I34" t="n">
-        <v>329763</v>
+        <v>343879</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1448600</v>
+        <v>1450060</v>
       </c>
       <c r="E35" t="n">
-        <v>1448600</v>
+        <v>1450060</v>
       </c>
       <c r="F35" t="n">
-        <v>502.814660107196</v>
+        <v>463.2418430483056</v>
       </c>
       <c r="G35" t="n">
-        <v>100.3381180748046</v>
+        <v>204.0678504959031</v>
       </c>
       <c r="H35" t="n">
-        <v>0.73</v>
+        <v>1.94</v>
       </c>
       <c r="I35" t="n">
-        <v>278841</v>
+        <v>277282</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15788607</v>
+        <v>15772619</v>
       </c>
       <c r="F36" t="n">
-        <v>92.04906744575587</v>
+        <v>168.0337173796931</v>
       </c>
       <c r="G36" t="n">
-        <v>39.13012263148018</v>
+        <v>209.1472898052859</v>
       </c>
       <c r="H36" t="n">
-        <v>1.34</v>
+        <v>0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>11932</v>
+        <v>10246.65</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58232</v>
+        <v>58254</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302797701669209</v>
+        <v>1.302848037890801</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00546099512714604</v>
+        <v>0.005461206123727075</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>602.65</v>
+        <v>603.22</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>139697662</v>
+        <v>141237115</v>
       </c>
       <c r="E38" t="n">
-        <v>139697662</v>
+        <v>141237115</v>
       </c>
       <c r="F38" t="n">
-        <v>115696.9369007319</v>
+        <v>255406.4290636232</v>
       </c>
       <c r="G38" t="n">
-        <v>500129.7804553386</v>
+        <v>742545.4589314023</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>68133880</v>
+        <v>68952078</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>67046338</v>
+        <v>67768648</v>
       </c>
       <c r="E39" t="n">
-        <v>343827377</v>
+        <v>347531526</v>
       </c>
       <c r="F39" t="n">
-        <v>33969.92078807631</v>
+        <v>85162.56962453754</v>
       </c>
       <c r="G39" t="n">
-        <v>56428.39084371537</v>
+        <v>111709.7540437172</v>
       </c>
       <c r="H39" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="I39" t="n">
-        <v>22214304</v>
+        <v>24299761</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46404</v>
+        <v>46410</v>
       </c>
       <c r="E40" t="n">
-        <v>137133</v>
+        <v>137151</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.01</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>157.54</v>
+        <v>157.66</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>52539</v>
+        <v>54360</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="I41" t="n">
-        <v>25059</v>
+        <v>26332</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>593419</v>
+        <v>594843</v>
       </c>
       <c r="F42" t="n">
-        <v>2020.417126730412</v>
+        <v>40.42774258801934</v>
       </c>
       <c r="G42" t="n">
-        <v>356.3625000188998</v>
+        <v>410.1909819067513</v>
       </c>
       <c r="H42" t="n">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1082.37</v>
+        <v>1524.15</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2691002</v>
+        <v>2706968</v>
       </c>
       <c r="E44" t="n">
-        <v>10814522</v>
+        <v>10878689</v>
       </c>
       <c r="F44" t="n">
-        <v>215.9624136674022</v>
+        <v>30.02233052160344</v>
       </c>
       <c r="G44" t="n">
-        <v>90.06240158633712</v>
+        <v>163.0068805577272</v>
       </c>
       <c r="H44" t="n">
-        <v>0.91</v>
+        <v>1.82</v>
       </c>
       <c r="I44" t="n">
-        <v>34132</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17551971</v>
+        <v>17625617</v>
       </c>
       <c r="E45" t="n">
-        <v>123708545</v>
+        <v>124204112</v>
       </c>
       <c r="F45" t="n">
-        <v>126.9866750378026</v>
+        <v>303.54270297497</v>
       </c>
       <c r="G45" t="n">
-        <v>62.79010021175467</v>
+        <v>259.0395120119722</v>
       </c>
       <c r="H45" t="n">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="I45" t="n">
-        <v>1046344</v>
+        <v>1060838</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>149193</v>
+        <v>148694</v>
       </c>
       <c r="E46" t="n">
-        <v>1996291</v>
+        <v>1989612</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>44242</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>257684251</v>
+        <v>260704132</v>
       </c>
       <c r="E47" t="n">
-        <v>257684251</v>
+        <v>260704132</v>
       </c>
       <c r="F47" t="n">
-        <v>40646.27388522954</v>
+        <v>130810.6617460847</v>
       </c>
       <c r="G47" t="n">
-        <v>89645.55893650274</v>
+        <v>172461.1625722228</v>
       </c>
       <c r="H47" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>14349667</v>
+        <v>14780532</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>639607</v>
+        <v>642681</v>
       </c>
       <c r="E48" t="n">
-        <v>639607</v>
+        <v>642681</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>535.3228522750539</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>70.48330524904028</v>
       </c>
       <c r="H48" t="n">
-        <v>3.93</v>
+        <v>1.79</v>
       </c>
       <c r="I48" t="n">
-        <v>2860.31</v>
+        <v>2875.87</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>444838305</v>
+        <v>445607709</v>
       </c>
       <c r="E50" t="n">
-        <v>444838305</v>
+        <v>445607709</v>
       </c>
       <c r="F50" t="n">
-        <v>2842.267849858362</v>
+        <v>3228.457229447371</v>
       </c>
       <c r="G50" t="n">
-        <v>2247.201750231586</v>
+        <v>2945.87927225929</v>
       </c>
       <c r="H50" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>2545210</v>
+        <v>2530147</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2463165</v>
+        <v>2389135</v>
       </c>
       <c r="E51" t="n">
-        <v>2463165</v>
+        <v>2389135</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>225.4678775974151</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1405.307832977172</v>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>1.72</v>
       </c>
       <c r="I51" t="n">
-        <v>55231</v>
+        <v>54603</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23405</v>
+        <v>23406</v>
       </c>
       <c r="E52" t="n">
-        <v>46811</v>
+        <v>46812</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.369999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="I52" t="n">
-        <v>1872.89</v>
+        <v>1796.73</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>168769</v>
+        <v>163877</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>9.77</v>
+        <v>5.3</v>
       </c>
       <c r="I53" t="n">
-        <v>23850</v>
+        <v>23207</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2556816</v>
+        <v>2556597</v>
       </c>
       <c r="E54" t="n">
-        <v>6536722</v>
+        <v>6536161</v>
       </c>
       <c r="F54" t="n">
-        <v>248.9286969062422</v>
+        <v>212.8708209582919</v>
       </c>
       <c r="G54" t="n">
-        <v>188.2861033152196</v>
+        <v>106.597908167247</v>
       </c>
       <c r="H54" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>109352</v>
+        <v>110235</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3643.24</v>
+        <v>3514.1</v>
       </c>
       <c r="F55" t="n">
-        <v>4.587366570612821</v>
+        <v>171.2581316712456</v>
       </c>
       <c r="G55" t="n">
-        <v>2.940515734030641</v>
+        <v>2.898354470264447</v>
       </c>
       <c r="H55" t="n">
-        <v>0.51</v>
+        <v>1.05</v>
       </c>
       <c r="I55" t="n">
-        <v>339.89</v>
+        <v>202.12</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74549274</v>
+        <v>74277357</v>
       </c>
       <c r="E56" t="n">
-        <v>74549274</v>
+        <v>74277357</v>
       </c>
       <c r="F56" t="n">
-        <v>9545.233930121602</v>
+        <v>10096.96545288251</v>
       </c>
       <c r="G56" t="n">
-        <v>20398.34466998212</v>
+        <v>17681.46963603694</v>
       </c>
       <c r="H56" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="I56" t="n">
-        <v>3383026</v>
+        <v>3292851</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3517173</v>
+        <v>3465774</v>
       </c>
       <c r="E57" t="n">
-        <v>4456872</v>
+        <v>4391741</v>
       </c>
       <c r="F57" t="n">
-        <v>523.3867608945957</v>
+        <v>611.4369629843427</v>
       </c>
       <c r="G57" t="n">
-        <v>45.59790345548798</v>
+        <v>598.2526322854247</v>
       </c>
       <c r="H57" t="n">
-        <v>0.84</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>250804</v>
+        <v>249297</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4109583</v>
+        <v>4129094</v>
       </c>
       <c r="E58" t="n">
-        <v>8104443</v>
+        <v>8142921</v>
       </c>
       <c r="F58" t="n">
-        <v>1886.47349640412</v>
+        <v>2275.297443854298</v>
       </c>
       <c r="G58" t="n">
-        <v>16278.7681835436</v>
+        <v>18686.76594742066</v>
       </c>
       <c r="H58" t="n">
-        <v>0.68</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
-        <v>1648622</v>
+        <v>1645592</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1615119</v>
+        <v>1628302</v>
       </c>
       <c r="E59" t="n">
-        <v>9273410</v>
+        <v>9349101</v>
       </c>
       <c r="F59" t="n">
-        <v>189.6434382820907</v>
+        <v>226.5058909043224</v>
       </c>
       <c r="G59" t="n">
-        <v>317.6452930570018</v>
+        <v>638.7294701162755</v>
       </c>
       <c r="H59" t="n">
-        <v>0.91</v>
+        <v>1.47</v>
       </c>
       <c r="I59" t="n">
-        <v>277570</v>
+        <v>281910</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>551846</v>
+        <v>547728</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1686.29</v>
+        <v>1710.48</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31243462</v>
+        <v>31195010</v>
       </c>
       <c r="F61" t="n">
-        <v>731.19999885948</v>
+        <v>508.6442541067541</v>
       </c>
       <c r="G61" t="n">
-        <v>1202.801683043991</v>
+        <v>2301.969027653453</v>
       </c>
       <c r="H61" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="I61" t="n">
-        <v>244497</v>
+        <v>243555</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1433768</v>
+        <v>1437291</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>13.31561089254182</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10.00220261640138</v>
       </c>
       <c r="H62" t="n">
-        <v>8.199999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="I62" t="n">
-        <v>28436</v>
+        <v>28464</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7626017</v>
+        <v>7691354</v>
       </c>
       <c r="E63" t="n">
-        <v>17960787</v>
+        <v>18114669</v>
       </c>
       <c r="F63" t="n">
-        <v>1221.411844305593</v>
+        <v>1259.814121821564</v>
       </c>
       <c r="G63" t="n">
-        <v>2276.208846848078</v>
+        <v>1617.468141452865</v>
       </c>
       <c r="H63" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I63" t="n">
-        <v>30093</v>
+        <v>31558</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3016081</v>
+        <v>3034375</v>
       </c>
       <c r="E64" t="n">
-        <v>3016081</v>
+        <v>3034375</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.96</v>
+        <v>5.33</v>
       </c>
       <c r="I64" t="n">
-        <v>20006</v>
+        <v>19763.08</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3374025</v>
+        <v>3363912</v>
       </c>
       <c r="E65" t="n">
-        <v>8325234</v>
+        <v>8300282</v>
       </c>
       <c r="F65" t="n">
-        <v>366.485602658352</v>
+        <v>622.6452138601138</v>
       </c>
       <c r="G65" t="n">
-        <v>701.9587106801508</v>
+        <v>1032.868134720679</v>
       </c>
       <c r="H65" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="I65" t="n">
-        <v>40327</v>
+        <v>38150</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>265640</v>
+        <v>265769</v>
       </c>
       <c r="F66" t="n">
-        <v>87.5759586859169</v>
+        <v>87.57934236003369</v>
       </c>
       <c r="G66" t="n">
-        <v>41.18601450119732</v>
+        <v>41.18760580608661</v>
       </c>
       <c r="H66" t="n">
         <v>1.69</v>
       </c>
       <c r="I66" t="n">
-        <v>1591.99</v>
+        <v>1588.74</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>78441662</v>
+        <v>78324790</v>
       </c>
       <c r="E67" t="n">
-        <v>163590699</v>
+        <v>163346963</v>
       </c>
       <c r="F67" t="n">
-        <v>40855.42799784168</v>
+        <v>62375.81717761026</v>
       </c>
       <c r="G67" t="n">
-        <v>51274.56705977751</v>
+        <v>105496.330421383</v>
       </c>
       <c r="H67" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>17707892</v>
+        <v>18522508</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1870382</v>
+        <v>1870699</v>
       </c>
       <c r="F68" t="n">
-        <v>49.16043474122958</v>
+        <v>20.30322232745299</v>
       </c>
       <c r="G68" t="n">
-        <v>8.001457862567968</v>
+        <v>8.001767014207944</v>
       </c>
       <c r="H68" t="n">
         <v>1.02</v>
       </c>
       <c r="I68" t="n">
-        <v>4523.61</v>
+        <v>4262.1</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199854883</v>
+        <v>198860380</v>
       </c>
       <c r="F69" t="n">
-        <v>2620.973580119105</v>
+        <v>4445.319331486737</v>
       </c>
       <c r="G69" t="n">
-        <v>3030.488597491349</v>
+        <v>4115.277793624727</v>
       </c>
       <c r="H69" t="n">
-        <v>0.27</v>
+        <v>0.64</v>
       </c>
       <c r="I69" t="n">
-        <v>3578222</v>
+        <v>3359364</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179905</v>
+        <v>179920</v>
       </c>
       <c r="E70" t="n">
-        <v>187872</v>
+        <v>187887</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>8.119999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I70" t="n">
-        <v>326.31</v>
+        <v>291.78</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144927405</v>
+        <v>144940574</v>
       </c>
       <c r="E71" t="n">
-        <v>144976134</v>
+        <v>144989308</v>
       </c>
       <c r="F71" t="n">
-        <v>19508.74163250757</v>
+        <v>35907.11608571841</v>
       </c>
       <c r="G71" t="n">
-        <v>38186.80812875934</v>
+        <v>50700.9392053574</v>
       </c>
       <c r="H71" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I71" t="n">
-        <v>2591211</v>
+        <v>2611341</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26196375</v>
+        <v>26177395</v>
       </c>
       <c r="E72" t="n">
-        <v>85971497</v>
+        <v>85909205</v>
       </c>
       <c r="F72" t="n">
-        <v>9732.697143317504</v>
+        <v>7522.395418555472</v>
       </c>
       <c r="G72" t="n">
-        <v>31322.88156202851</v>
+        <v>31324.25947151091</v>
       </c>
       <c r="H72" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>115224</v>
+        <v>105667</v>
       </c>
     </row>
     <row r="73">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>116496</v>
+        <v>116677</v>
       </c>
       <c r="E73" t="n">
-        <v>116496</v>
+        <v>116677</v>
       </c>
       <c r="F73" t="n">
-        <v>367.7517264162802</v>
+        <v>555.6754740925322</v>
       </c>
       <c r="G73" t="n">
-        <v>1.469546887613896</v>
+        <v>1.469603666370734</v>
       </c>
       <c r="H73" t="n">
         <v>2.11</v>
       </c>
       <c r="I73" t="n">
-        <v>426.23</v>
+        <v>426.86</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>205280170</v>
+        <v>208697473</v>
       </c>
       <c r="E74" t="n">
-        <v>713161862</v>
+        <v>725033883</v>
       </c>
       <c r="F74" t="n">
-        <v>91388.7845896834</v>
+        <v>131378.532638372</v>
       </c>
       <c r="G74" t="n">
-        <v>169692.9218674104</v>
+        <v>192680.7601819064</v>
       </c>
       <c r="H74" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>27954999</v>
+        <v>29159420</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3639897</v>
+        <v>3552472</v>
       </c>
       <c r="E75" t="n">
-        <v>3639897</v>
+        <v>3552472</v>
       </c>
       <c r="F75" t="n">
-        <v>80.6048379954653</v>
+        <v>754.2139049095404</v>
       </c>
       <c r="G75" t="n">
-        <v>438.6830323461018</v>
+        <v>792.6856123713444</v>
       </c>
       <c r="H75" t="n">
-        <v>1.18</v>
+        <v>0.17</v>
       </c>
       <c r="I75" t="n">
-        <v>2599867</v>
+        <v>2528435</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116051723</v>
+        <v>116597023</v>
       </c>
       <c r="E76" t="n">
-        <v>492985091</v>
+        <v>495257296</v>
       </c>
       <c r="F76" t="n">
-        <v>35276.33351924796</v>
+        <v>227955.9159646994</v>
       </c>
       <c r="G76" t="n">
-        <v>193372.7749672166</v>
+        <v>249830.3498589322</v>
       </c>
       <c r="H76" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I76" t="n">
-        <v>15352092</v>
+        <v>15609634</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1859359</v>
+        <v>1855953</v>
       </c>
       <c r="F77" t="n">
-        <v>36.04077821305012</v>
+        <v>36.23075757130971</v>
       </c>
       <c r="G77" t="n">
-        <v>88.23462331075359</v>
+        <v>88.31680273036493</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>611.33</v>
+        <v>615.5</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3133767</v>
+        <v>3150651</v>
       </c>
       <c r="E78" t="n">
-        <v>15712076</v>
+        <v>15796729</v>
       </c>
       <c r="F78" t="n">
-        <v>169.5734114313377</v>
+        <v>269.0290148635926</v>
       </c>
       <c r="G78" t="n">
-        <v>662.7647059719563</v>
+        <v>185.9493584726804</v>
       </c>
       <c r="H78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="I78" t="n">
-        <v>33145</v>
+        <v>32539</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>509753</v>
+        <v>508151</v>
       </c>
       <c r="E79" t="n">
-        <v>8719286</v>
+        <v>8691880</v>
       </c>
       <c r="F79" t="n">
-        <v>172.6666523140152</v>
+        <v>0.0002907642161478866</v>
       </c>
       <c r="G79" t="n">
-        <v>993.512208078314</v>
+        <v>868.5792246228883</v>
       </c>
       <c r="H79" t="n">
-        <v>2.33</v>
+        <v>1.44</v>
       </c>
       <c r="I79" t="n">
-        <v>162809</v>
+        <v>162257</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5817822</v>
+        <v>5776994</v>
       </c>
       <c r="E80" t="n">
-        <v>7903838</v>
+        <v>7848371</v>
       </c>
       <c r="F80" t="n">
-        <v>127.031872133826</v>
+        <v>177.7988141005474</v>
       </c>
       <c r="G80" t="n">
-        <v>151.6554019470339</v>
+        <v>848.5458566935873</v>
       </c>
       <c r="H80" t="n">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
       <c r="I80" t="n">
-        <v>1329050</v>
+        <v>5617114</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43686</v>
+        <v>43111</v>
       </c>
       <c r="F81" t="n">
-        <v>149.542430795762</v>
+        <v>127.0977934282978</v>
       </c>
       <c r="G81" t="n">
-        <v>8.956257749655071</v>
+        <v>2.000349283129616</v>
       </c>
       <c r="H81" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>44321</v>
+        <v>43347</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40320899</v>
+        <v>40344018</v>
       </c>
       <c r="E82" t="n">
-        <v>47093852</v>
+        <v>47120855</v>
       </c>
       <c r="F82" t="n">
-        <v>273.9797075083799</v>
+        <v>247.9751297500154</v>
       </c>
       <c r="G82" t="n">
-        <v>157.3692458148778</v>
+        <v>79.63882487296723</v>
       </c>
       <c r="H82" t="n">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
       <c r="I82" t="n">
-        <v>921656</v>
+        <v>899819</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14663446</v>
+        <v>15016103</v>
       </c>
       <c r="F83" t="n">
-        <v>84.7207950051221</v>
+        <v>311.6726324342377</v>
       </c>
       <c r="G83" t="n">
-        <v>395.4810592611433</v>
+        <v>490.5081665275002</v>
       </c>
       <c r="H83" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="I83" t="n">
-        <v>267249</v>
+        <v>267657</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36167772</v>
+        <v>36401393</v>
       </c>
       <c r="E84" t="n">
-        <v>36167772</v>
+        <v>36401393</v>
       </c>
       <c r="F84" t="n">
-        <v>39.50868304029839</v>
+        <v>21.49470154920723</v>
       </c>
       <c r="G84" t="n">
-        <v>62.63445822328548</v>
+        <v>227.0622526884886</v>
       </c>
       <c r="H84" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="I84" t="n">
-        <v>770750</v>
+        <v>777844</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>567534</v>
+        <v>570049</v>
       </c>
       <c r="E85" t="n">
-        <v>6883637</v>
+        <v>6914139</v>
       </c>
       <c r="F85" t="n">
-        <v>198.0160297534458</v>
+        <v>772.7267410948521</v>
       </c>
       <c r="G85" t="n">
-        <v>209.9277063028354</v>
+        <v>436.1611531968534</v>
       </c>
       <c r="H85" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="I85" t="n">
-        <v>2828239</v>
+        <v>2811354</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26105874</v>
+        <v>26134088</v>
       </c>
       <c r="E86" t="n">
-        <v>36899633</v>
+        <v>36939513</v>
       </c>
       <c r="F86" t="n">
-        <v>11.87693627012365</v>
+        <v>40.5657710720234</v>
       </c>
       <c r="G86" t="n">
-        <v>518.5966960826048</v>
+        <v>167.3505598723118</v>
       </c>
       <c r="H86" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="I86" t="n">
-        <v>71229</v>
+        <v>58759</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1303685598</v>
+        <v>1300347966</v>
       </c>
       <c r="E87" t="n">
-        <v>6251439432</v>
+        <v>6235434803</v>
       </c>
       <c r="F87" t="n">
-        <v>649455.7979452567</v>
+        <v>634009.1840279569</v>
       </c>
       <c r="G87" t="n">
-        <v>670200.5212662901</v>
+        <v>935861.2721615765</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>165676774</v>
+        <v>166030652</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>273183223</v>
+        <v>271729384</v>
       </c>
       <c r="E88" t="n">
-        <v>1179210447</v>
+        <v>1172934869</v>
       </c>
       <c r="F88" t="n">
-        <v>745479.7247783764</v>
+        <v>862248.6706660888</v>
       </c>
       <c r="G88" t="n">
-        <v>554278.6332168414</v>
+        <v>1148354.255318258</v>
       </c>
       <c r="H88" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>100152599</v>
+        <v>100816198</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115104992</v>
+        <v>115439393</v>
       </c>
       <c r="E89" t="n">
-        <v>115104992</v>
+        <v>115439393</v>
       </c>
       <c r="F89" t="n">
-        <v>30808.98733689566</v>
+        <v>34673.21780097708</v>
       </c>
       <c r="G89" t="n">
-        <v>31695.23149612522</v>
+        <v>32539.13568297039</v>
       </c>
       <c r="H89" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="I89" t="n">
-        <v>6106106</v>
+        <v>6137909</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3851445</v>
+        <v>3854392</v>
       </c>
       <c r="E90" t="n">
-        <v>29971482</v>
+        <v>29994413</v>
       </c>
       <c r="F90" t="n">
-        <v>7943.613929343915</v>
+        <v>11576.37034389815</v>
       </c>
       <c r="G90" t="n">
-        <v>5030.469429863002</v>
+        <v>12881.74338939445</v>
       </c>
       <c r="H90" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I90" t="n">
-        <v>6407.99</v>
+        <v>6800.43</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3806931</v>
+        <v>3821928</v>
       </c>
       <c r="F91" t="n">
-        <v>282.5729304035855</v>
+        <v>343.0514971304761</v>
       </c>
       <c r="G91" t="n">
-        <v>525.5367577214473</v>
+        <v>666.1699801050826</v>
       </c>
       <c r="H91" t="n">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="I91" t="n">
-        <v>297264</v>
+        <v>298456</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>909218</v>
+        <v>854319</v>
       </c>
       <c r="F92" t="n">
-        <v>10.34173073336659</v>
+        <v>41.18685837101334</v>
       </c>
       <c r="G92" t="n">
-        <v>41.98974558749717</v>
+        <v>32.31745955772428</v>
       </c>
       <c r="H92" t="n">
-        <v>3.61</v>
+        <v>3.11</v>
       </c>
       <c r="I92" t="n">
-        <v>32186</v>
+        <v>16726.08</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>123433</v>
+        <v>125034</v>
       </c>
       <c r="F93" t="n">
-        <v>55.0849525883413</v>
+        <v>16.88228308277613</v>
       </c>
       <c r="G93" t="n">
-        <v>3.020539166261146</v>
+        <v>3.02065416051729</v>
       </c>
       <c r="H93" t="n">
-        <v>2.06</v>
+        <v>3.68</v>
       </c>
       <c r="I93" t="n">
-        <v>141874</v>
+        <v>143524</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11558047</v>
+        <v>11344035</v>
       </c>
       <c r="E94" t="n">
-        <v>139527396</v>
+        <v>136943862</v>
       </c>
       <c r="F94" t="n">
-        <v>106.2297046555842</v>
+        <v>848.8858919914012</v>
       </c>
       <c r="G94" t="n">
-        <v>398.6832708625745</v>
+        <v>927.6235454379599</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I94" t="n">
-        <v>216950</v>
+        <v>377055</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19506534</v>
+        <v>19324164</v>
       </c>
       <c r="E95" t="n">
-        <v>48766334</v>
+        <v>48310410</v>
       </c>
       <c r="F95" t="n">
-        <v>6121.74660084789</v>
+        <v>7724.482420895127</v>
       </c>
       <c r="G95" t="n">
-        <v>3974.183641220875</v>
+        <v>14282.74653735526</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I95" t="n">
-        <v>2065384</v>
+        <v>2050992</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2252856</v>
+        <v>2237422</v>
       </c>
       <c r="F96" t="n">
-        <v>183.4772910784878</v>
+        <v>199.0456318238694</v>
       </c>
       <c r="G96" t="n">
-        <v>118.0571669216357</v>
+        <v>123.2208136857113</v>
       </c>
       <c r="H96" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="I96" t="n">
-        <v>57303</v>
+        <v>57116</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19828895</v>
+        <v>19761084</v>
       </c>
       <c r="F97" t="n">
-        <v>3704.061821734551</v>
+        <v>6973.641925403161</v>
       </c>
       <c r="G97" t="n">
-        <v>1382.145033844856</v>
+        <v>5160.120976170578</v>
       </c>
       <c r="H97" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>56049</v>
+        <v>52309</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4194667</v>
+        <v>4288918</v>
       </c>
       <c r="E98" t="n">
-        <v>12082636</v>
+        <v>12354124</v>
       </c>
       <c r="F98" t="n">
-        <v>533.8316883731895</v>
+        <v>77.72136859700649</v>
       </c>
       <c r="G98" t="n">
-        <v>539.5046327232822</v>
+        <v>287.1047199371894</v>
       </c>
       <c r="H98" t="n">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="I98" t="n">
-        <v>627351</v>
+        <v>613195</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1596003</v>
+        <v>1550380</v>
       </c>
       <c r="F99" t="n">
-        <v>196.9114350892275</v>
+        <v>158.5128940473482</v>
       </c>
       <c r="G99" t="n">
-        <v>40.01275930534741</v>
+        <v>41.74674489362855</v>
       </c>
       <c r="H99" t="n">
-        <v>1.31</v>
+        <v>3.72</v>
       </c>
       <c r="I99" t="n">
-        <v>239650</v>
+        <v>251014</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80478912</v>
+        <v>80532949</v>
       </c>
       <c r="E100" t="n">
-        <v>102415670</v>
+        <v>102484437</v>
       </c>
       <c r="F100" t="n">
-        <v>1172.863892144796</v>
+        <v>5765.631925577077</v>
       </c>
       <c r="G100" t="n">
-        <v>585.8720052374554</v>
+        <v>11828.57115446243</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="I100" t="n">
-        <v>6234007</v>
+        <v>6244419</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23197036</v>
+        <v>23022514</v>
       </c>
       <c r="E101" t="n">
-        <v>30091862</v>
+        <v>29865467</v>
       </c>
       <c r="F101" t="n">
-        <v>3571.255302790162</v>
+        <v>5863.79860058123</v>
       </c>
       <c r="G101" t="n">
-        <v>5454.920445776153</v>
+        <v>6981.880455107118</v>
       </c>
       <c r="H101" t="n">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>321624</v>
+        <v>163212</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1649690</v>
+        <v>1638426</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>11.38</v>
+        <v>4.27</v>
       </c>
       <c r="I102" t="n">
-        <v>12686.18</v>
+        <v>12831.38</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>727617</v>
+        <v>661446</v>
       </c>
       <c r="E103" t="n">
-        <v>727617</v>
+        <v>661446</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5.53</v>
+        <v>7.14</v>
       </c>
       <c r="I103" t="n">
-        <v>91717</v>
+        <v>79316</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40508981</v>
+        <v>40634736</v>
       </c>
       <c r="E104" t="n">
-        <v>42346371</v>
+        <v>42477829</v>
       </c>
       <c r="F104" t="n">
-        <v>66.74139692527187</v>
+        <v>1273.167078762092</v>
       </c>
       <c r="G104" t="n">
-        <v>322.1884056577565</v>
+        <v>280.9155420387158</v>
       </c>
       <c r="H104" t="n">
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="I104" t="n">
-        <v>656863</v>
+        <v>655788</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13813776</v>
+        <v>13880047</v>
       </c>
       <c r="E105" t="n">
-        <v>13813776</v>
+        <v>13880047</v>
       </c>
       <c r="F105" t="n">
-        <v>252.0431332057496</v>
+        <v>1877.509276536292</v>
       </c>
       <c r="G105" t="n">
-        <v>1286.829826921102</v>
+        <v>2268.169126834137</v>
       </c>
       <c r="H105" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>4869960</v>
+        <v>4883459</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1191325</v>
+        <v>1133803</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.26</v>
+        <v>7.44</v>
       </c>
       <c r="I106" t="n">
-        <v>4856.73</v>
+        <v>6619.13</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51554668</v>
+        <v>51779460</v>
       </c>
       <c r="E107" t="n">
-        <v>131338464</v>
+        <v>131911133</v>
       </c>
       <c r="F107" t="n">
-        <v>859.1368293768405</v>
+        <v>2655.07113131048</v>
       </c>
       <c r="G107" t="n">
-        <v>2122.778372268837</v>
+        <v>5216.784556692027</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2423310</v>
+        <v>2429762</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14595024</v>
+        <v>14899706</v>
       </c>
       <c r="E108" t="n">
-        <v>70686029</v>
+        <v>72161652</v>
       </c>
       <c r="F108" t="n">
-        <v>5569.093400893584</v>
+        <v>9146.652661631764</v>
       </c>
       <c r="G108" t="n">
-        <v>7433.165876780394</v>
+        <v>9211.608086231807</v>
       </c>
       <c r="H108" t="n">
-        <v>0.63</v>
+        <v>0.14</v>
       </c>
       <c r="I108" t="n">
-        <v>3805416</v>
+        <v>3926990</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>493409</v>
+        <v>503095</v>
       </c>
       <c r="F109" t="n">
-        <v>202.1651033463367</v>
+        <v>217.3946382842959</v>
       </c>
       <c r="G109" t="n">
-        <v>186.6005952641212</v>
+        <v>10.00212260112977</v>
       </c>
       <c r="H109" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="I109" t="n">
-        <v>7708</v>
+        <v>6503.66</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4625682</v>
+        <v>4651519</v>
       </c>
       <c r="E110" t="n">
-        <v>10544037</v>
+        <v>10602933</v>
       </c>
       <c r="F110" t="n">
-        <v>1401.767527997043</v>
+        <v>1400.241042727582</v>
       </c>
       <c r="G110" t="n">
-        <v>1951.535287756157</v>
+        <v>1620.642398126957</v>
       </c>
       <c r="H110" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>86640</v>
+        <v>87172</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1919861201</v>
+        <v>1924639047</v>
       </c>
       <c r="F111" t="n">
-        <v>87980.63664206213</v>
+        <v>91635.23760031325</v>
       </c>
       <c r="G111" t="n">
-        <v>35175.04347004016</v>
+        <v>42271.33027306957</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="I111" t="n">
-        <v>27718851</v>
+        <v>27661460</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9547092</v>
+        <v>9602458</v>
       </c>
       <c r="E112" t="n">
-        <v>34745813</v>
+        <v>34947307</v>
       </c>
       <c r="F112" t="n">
-        <v>207.0393106363584</v>
+        <v>206.047382181404</v>
       </c>
       <c r="G112" t="n">
-        <v>343.4088525089275</v>
+        <v>344.2500446532858</v>
       </c>
       <c r="H112" t="n">
         <v>0.58</v>
       </c>
       <c r="I112" t="n">
-        <v>123989</v>
+        <v>116820</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>559499</v>
+        <v>568714</v>
       </c>
       <c r="F113" t="n">
-        <v>104.4330871178387</v>
+        <v>109.3936429736514</v>
       </c>
       <c r="G113" t="n">
-        <v>70.72546935380174</v>
+        <v>70.72788051422003</v>
       </c>
       <c r="H113" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="I113" t="n">
-        <v>853.5700000000001</v>
+        <v>893.45</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12146912</v>
+        <v>12222554</v>
       </c>
       <c r="E114" t="n">
-        <v>17611270</v>
+        <v>17720940</v>
       </c>
       <c r="F114" t="n">
-        <v>423.7625116612261</v>
+        <v>362.4398589282414</v>
       </c>
       <c r="G114" t="n">
-        <v>585.5579495014965</v>
+        <v>327.547134765617</v>
       </c>
       <c r="H114" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="I114" t="n">
-        <v>2028688</v>
+        <v>2023615</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2072989</v>
+        <v>2010049</v>
       </c>
       <c r="E115" t="n">
-        <v>14865195</v>
+        <v>14413859</v>
       </c>
       <c r="F115" t="n">
-        <v>749.9406722694573</v>
+        <v>132.5881044799354</v>
       </c>
       <c r="G115" t="n">
-        <v>553.5629847421164</v>
+        <v>277.1754140202423</v>
       </c>
       <c r="H115" t="n">
-        <v>2.19</v>
+        <v>3.7</v>
       </c>
       <c r="I115" t="n">
-        <v>1983621</v>
+        <v>1997914</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2710316</v>
+        <v>2710149</v>
       </c>
       <c r="E116" t="n">
-        <v>5478794</v>
+        <v>5478456</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>8163.46</v>
+        <v>8967.6</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>205582629</v>
+        <v>205512833</v>
       </c>
       <c r="E117" t="n">
-        <v>1164135166</v>
+        <v>1163739937</v>
       </c>
       <c r="F117" t="n">
-        <v>119778.7576050815</v>
+        <v>308993.0948903469</v>
       </c>
       <c r="G117" t="n">
-        <v>259744.8534579274</v>
+        <v>475375.9352989169</v>
       </c>
       <c r="H117" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>66300222</v>
+        <v>67344079</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>684568</v>
+        <v>680073</v>
       </c>
       <c r="E118" t="n">
-        <v>2269927</v>
+        <v>2255022</v>
       </c>
       <c r="F118" t="n">
-        <v>17.92344452679662</v>
+        <v>7180.011587160971</v>
       </c>
       <c r="G118" t="n">
-        <v>42.62296327924588</v>
+        <v>6544.561408686078</v>
       </c>
       <c r="H118" t="n">
-        <v>0.45</v>
+        <v>0.89</v>
       </c>
       <c r="I118" t="n">
-        <v>13632.77</v>
+        <v>11803.76</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2821183</v>
+        <v>2814379</v>
       </c>
       <c r="E119" t="n">
-        <v>9988618</v>
+        <v>9964527</v>
       </c>
       <c r="F119" t="n">
-        <v>217.7786886142183</v>
+        <v>120.6815828889856</v>
       </c>
       <c r="G119" t="n">
-        <v>1500.850991832415</v>
+        <v>3555.880326818957</v>
       </c>
       <c r="H119" t="n">
-        <v>2.4</v>
+        <v>0.71</v>
       </c>
       <c r="I119" t="n">
-        <v>5621.26</v>
+        <v>4326.82</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1034892</v>
+        <v>1041464</v>
       </c>
       <c r="E120" t="n">
-        <v>1034892</v>
+        <v>1041464</v>
       </c>
       <c r="F120" t="n">
-        <v>65.75677772741891</v>
+        <v>19.91997586032302</v>
       </c>
       <c r="G120" t="n">
-        <v>12.9515073074158</v>
+        <v>144.9229903564205</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="I120" t="n">
-        <v>5538</v>
+        <v>5344.16</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>503567</v>
+        <v>497264</v>
       </c>
       <c r="E121" t="n">
-        <v>1694935</v>
+        <v>1673720</v>
       </c>
       <c r="F121" t="n">
-        <v>303.277715544556</v>
+        <v>372.5780413461891</v>
       </c>
       <c r="G121" t="n">
-        <v>380.1626222869858</v>
+        <v>401.5906263424694</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="I121" t="n">
-        <v>631733</v>
+        <v>633579</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469438</v>
+        <v>469201</v>
       </c>
       <c r="E122" t="n">
-        <v>870898</v>
+        <v>870458</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.49</v>
+        <v>5.56</v>
       </c>
       <c r="I122" t="n">
-        <v>208159</v>
+        <v>205333</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11720019</v>
+        <v>11739390</v>
       </c>
       <c r="F123" t="n">
-        <v>120.5611239313997</v>
+        <v>141.5089625181484</v>
       </c>
       <c r="G123" t="n">
-        <v>119.1705181889535</v>
+        <v>187.0638237656779</v>
       </c>
       <c r="H123" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I123" t="n">
-        <v>10843.7</v>
+        <v>11242.58</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1251633</v>
+        <v>1242545</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>6.63</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I124" t="n">
-        <v>18990.67</v>
+        <v>2424.18</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3396323</v>
+        <v>3391485</v>
       </c>
       <c r="E125" t="n">
-        <v>7930980</v>
+        <v>7919683</v>
       </c>
       <c r="F125" t="n">
-        <v>2387.552099804877</v>
+        <v>3675.984987492944</v>
       </c>
       <c r="G125" t="n">
-        <v>1751.303538924394</v>
+        <v>2903.074716745018</v>
       </c>
       <c r="H125" t="n">
-        <v>1.09</v>
+        <v>0.47</v>
       </c>
       <c r="I125" t="n">
-        <v>622746</v>
+        <v>618305</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>247647</v>
+        <v>248872</v>
       </c>
       <c r="E126" t="n">
-        <v>2185671</v>
+        <v>2196485</v>
       </c>
       <c r="F126" t="n">
-        <v>8.497785605699223</v>
+        <v>120.3640594629861</v>
       </c>
       <c r="G126" t="n">
-        <v>56.70615575732675</v>
+        <v>143.3809868203217</v>
       </c>
       <c r="H126" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="I126" t="n">
-        <v>91435</v>
+        <v>93058</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>646213</v>
+        <v>641821</v>
       </c>
       <c r="F127" t="n">
-        <v>433.4867989644812</v>
+        <v>727.522209858755</v>
       </c>
       <c r="G127" t="n">
-        <v>373.9743286275644</v>
+        <v>548.9909093863987</v>
       </c>
       <c r="H127" t="n">
-        <v>1.9</v>
+        <v>0.98</v>
       </c>
       <c r="I127" t="n">
-        <v>3529.83</v>
+        <v>4940.59</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4926179</v>
+        <v>4925916</v>
       </c>
       <c r="E128" t="n">
-        <v>17406481</v>
+        <v>17405552</v>
       </c>
       <c r="F128" t="n">
-        <v>1519.601280394509</v>
+        <v>1729.75920660088</v>
       </c>
       <c r="G128" t="n">
-        <v>1487.512118962879</v>
+        <v>1890.830672916576</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>96683</v>
+        <v>96728</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2085476</v>
+        <v>2145802</v>
       </c>
       <c r="F129" t="n">
-        <v>66.49141213894447</v>
+        <v>66.90249635667298</v>
       </c>
       <c r="G129" t="n">
-        <v>273.509831999204</v>
+        <v>119.1979123859119</v>
       </c>
       <c r="H129" t="n">
-        <v>0.53</v>
+        <v>1.32</v>
       </c>
       <c r="I129" t="n">
-        <v>7514.04</v>
+        <v>7569.57</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2536495</v>
+        <v>2509959</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2453.19</v>
+        <v>2468.44</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84563</v>
+        <v>84238</v>
       </c>
       <c r="E131" t="n">
-        <v>84563</v>
+        <v>84238</v>
       </c>
       <c r="F131" t="n">
-        <v>5.514484874876027</v>
+        <v>6.69175899501383</v>
       </c>
       <c r="G131" t="n">
-        <v>66.68942815528284</v>
+        <v>163.0975461815017</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>22693</v>
+        <v>22133</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4347419</v>
+        <v>4360093</v>
       </c>
       <c r="F132" t="n">
-        <v>195.9002244018583</v>
+        <v>332.4918686649065</v>
       </c>
       <c r="G132" t="n">
-        <v>372.9976250284195</v>
+        <v>409.8118712390249</v>
       </c>
       <c r="H132" t="n">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="I132" t="n">
-        <v>309079</v>
+        <v>307211</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2089863</v>
+        <v>2106667</v>
       </c>
       <c r="E133" t="n">
-        <v>8534458</v>
+        <v>8603083</v>
       </c>
       <c r="F133" t="n">
-        <v>247.5365260478334</v>
+        <v>826.8261423296261</v>
       </c>
       <c r="G133" t="n">
-        <v>88.25484390483687</v>
+        <v>741.6714318568057</v>
       </c>
       <c r="H133" t="n">
-        <v>1.24</v>
+        <v>0.18</v>
       </c>
       <c r="I133" t="n">
-        <v>563335</v>
+        <v>563406</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7497701</v>
+        <v>7375512</v>
       </c>
       <c r="E134" t="n">
-        <v>7553434</v>
+        <v>7430336</v>
       </c>
       <c r="F134" t="n">
-        <v>1385.123752603273</v>
+        <v>315228.1357797091</v>
       </c>
       <c r="G134" t="n">
-        <v>1559.143976232772</v>
+        <v>316993.4771410656</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>4980158</v>
+        <v>5011391</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13597064</v>
+        <v>13676493</v>
       </c>
       <c r="E135" t="n">
-        <v>13643336</v>
+        <v>13723035</v>
       </c>
       <c r="F135" t="n">
-        <v>1682.894055289949</v>
+        <v>10796.50579341672</v>
       </c>
       <c r="G135" t="n">
-        <v>2134.631481499838</v>
+        <v>12156.86477901256</v>
       </c>
       <c r="H135" t="n">
-        <v>1.1</v>
+        <v>0.13</v>
       </c>
       <c r="I135" t="n">
-        <v>5891409</v>
+        <v>5846017</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42759901</v>
+        <v>42812661</v>
       </c>
       <c r="E136" t="n">
-        <v>72596365</v>
+        <v>72685938</v>
       </c>
       <c r="F136" t="n">
-        <v>1005.411570665064</v>
+        <v>713.9576041149547</v>
       </c>
       <c r="G136" t="n">
-        <v>923.7334713349668</v>
+        <v>1831.157334691125</v>
       </c>
       <c r="H136" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1072206</v>
+        <v>1048586</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22748213</v>
+        <v>22938439</v>
       </c>
       <c r="E137" t="n">
-        <v>68188682</v>
+        <v>68758891</v>
       </c>
       <c r="F137" t="n">
-        <v>33433.89693069304</v>
+        <v>80326.20659007794</v>
       </c>
       <c r="G137" t="n">
-        <v>35366.75532536156</v>
+        <v>90293.38101379811</v>
       </c>
       <c r="H137" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I137" t="n">
-        <v>3399949</v>
+        <v>3456313</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>101337381</v>
+        <v>103814301</v>
       </c>
       <c r="E138" t="n">
-        <v>107730795</v>
+        <v>110363985</v>
       </c>
       <c r="F138" t="n">
-        <v>6146.236220620953</v>
+        <v>7130.669629241805</v>
       </c>
       <c r="G138" t="n">
-        <v>11229.74216482783</v>
+        <v>9461.011924016271</v>
       </c>
       <c r="H138" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I138" t="n">
-        <v>378635</v>
+        <v>1410017</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1208002</v>
+        <v>1208452</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>6.35</v>
       </c>
       <c r="I139" t="n">
-        <v>224.65</v>
+        <v>217.21</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258340</v>
+        <v>258575</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.19</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I140" t="n">
-        <v>198.89</v>
+        <v>199.21</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96237</v>
+        <v>96300</v>
       </c>
       <c r="E141" t="n">
-        <v>273002</v>
+        <v>273182</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>63.6</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>47781173</v>
+        <v>50053343</v>
       </c>
       <c r="E142" t="n">
-        <v>205836067</v>
+        <v>215624326</v>
       </c>
       <c r="F142" t="n">
-        <v>47818.89199002925</v>
+        <v>59239.55893999634</v>
       </c>
       <c r="G142" t="n">
-        <v>57941.19421056344</v>
+        <v>93898.42331598653</v>
       </c>
       <c r="H142" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="I142" t="n">
-        <v>8819455</v>
+        <v>9820900</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269633</v>
+        <v>269789</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>10.24</v>
+        <v>7.85</v>
       </c>
       <c r="I143" t="n">
-        <v>47693</v>
+        <v>23117</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9454921</v>
+        <v>9433537</v>
       </c>
       <c r="F144" t="n">
-        <v>1405.619555423917</v>
+        <v>1031.920275153055</v>
       </c>
       <c r="G144" t="n">
-        <v>568.1965847696617</v>
+        <v>612.3647313147569</v>
       </c>
       <c r="H144" t="n">
         <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>98531</v>
+        <v>98655</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1173020</v>
+        <v>1174137</v>
       </c>
       <c r="E145" t="n">
-        <v>7820135</v>
+        <v>7827582</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4849444680329</v>
+        <v>263.4938071163854</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0173463647105</v>
+        <v>105.0208787555787</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5610.24</v>
+        <v>5484.48</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7765245</v>
+        <v>7602636</v>
       </c>
       <c r="F146" t="n">
-        <v>439.1340565059104</v>
+        <v>220.5564675563593</v>
       </c>
       <c r="G146" t="n">
-        <v>285.4771142135929</v>
+        <v>119.5007681025039</v>
       </c>
       <c r="H146" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="I146" t="n">
-        <v>6643650</v>
+        <v>6623081</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>673310</v>
+        <v>672637</v>
       </c>
       <c r="E147" t="n">
-        <v>2431014</v>
+        <v>2428528</v>
       </c>
       <c r="F147" t="n">
-        <v>49.32441347199813</v>
+        <v>35.69771671764089</v>
       </c>
       <c r="G147" t="n">
-        <v>209.0990969332818</v>
+        <v>139.9864490564909</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="I147" t="n">
-        <v>337412</v>
+        <v>336675</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1601324</v>
+        <v>1571316</v>
       </c>
       <c r="F148" t="n">
-        <v>14.16177542654232</v>
+        <v>611.0965457821842</v>
       </c>
       <c r="G148" t="n">
-        <v>917.2078647442228</v>
+        <v>74.83507076948769</v>
       </c>
       <c r="H148" t="n">
         <v>1.46</v>
       </c>
       <c r="I148" t="n">
-        <v>79667</v>
+        <v>75306</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>71400</v>
+        <v>71427</v>
       </c>
       <c r="F149" t="n">
-        <v>10.17722393961738</v>
+        <v>16.23942187495321</v>
       </c>
       <c r="G149" t="n">
-        <v>24.6536407975458</v>
+        <v>25.00552228448046</v>
       </c>
       <c r="H149" t="n">
         <v>2.86</v>
       </c>
       <c r="I149" t="n">
-        <v>1367.62</v>
+        <v>1238.05</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13218614</v>
+        <v>13277217</v>
       </c>
       <c r="E150" t="n">
-        <v>13218614</v>
+        <v>13277217</v>
       </c>
       <c r="F150" t="n">
-        <v>187.7527354486326</v>
+        <v>476.5550023994171</v>
       </c>
       <c r="G150" t="n">
-        <v>1068.489235002056</v>
+        <v>1132.163104312071</v>
       </c>
       <c r="H150" t="n">
-        <v>0.38</v>
+        <v>0.83</v>
       </c>
       <c r="I150" t="n">
-        <v>3751204</v>
+        <v>3686669</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1917275</v>
+        <v>1900903</v>
       </c>
       <c r="E151" t="n">
-        <v>6964592</v>
+        <v>6905120</v>
       </c>
       <c r="F151" t="n">
-        <v>1030.206050599592</v>
+        <v>90.8102298112028</v>
       </c>
       <c r="G151" t="n">
-        <v>5.981948158192243</v>
+        <v>387.0656474073738</v>
       </c>
       <c r="H151" t="n">
-        <v>2.66</v>
+        <v>0.6</v>
       </c>
       <c r="I151" t="n">
-        <v>141141</v>
+        <v>142226</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1272461</v>
+        <v>1275024</v>
       </c>
       <c r="E152" t="n">
-        <v>1272461</v>
+        <v>1275024</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1456.63</v>
+        <v>1462.55</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23581225</v>
+        <v>23501384</v>
       </c>
       <c r="E153" t="n">
-        <v>27207701</v>
+        <v>27115581</v>
       </c>
       <c r="F153" t="n">
-        <v>438.9666738678362</v>
+        <v>463.2065732588669</v>
       </c>
       <c r="G153" t="n">
-        <v>564.8301054433896</v>
+        <v>570.7574007812073</v>
       </c>
       <c r="H153" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I153" t="n">
-        <v>754285</v>
+        <v>753883</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2439634</v>
+        <v>2441792</v>
       </c>
       <c r="E154" t="n">
-        <v>18357697</v>
+        <v>18373859</v>
       </c>
       <c r="F154" t="n">
-        <v>3657.635267973728</v>
+        <v>3663.021556280339</v>
       </c>
       <c r="G154" t="n">
-        <v>2458.160126479437</v>
+        <v>4327.903027044275</v>
       </c>
       <c r="H154" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>163716</v>
+        <v>163236</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20992737</v>
+        <v>20970058</v>
       </c>
       <c r="E155" t="n">
-        <v>83970948</v>
+        <v>83880234</v>
       </c>
       <c r="F155" t="n">
-        <v>11078.2436866968</v>
+        <v>10761.95822060181</v>
       </c>
       <c r="G155" t="n">
-        <v>14898.80602218573</v>
+        <v>37509.87197245576</v>
       </c>
       <c r="H155" t="n">
-        <v>1.06</v>
+        <v>0.59</v>
       </c>
       <c r="I155" t="n">
-        <v>2895034</v>
+        <v>2464567</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>311922498</v>
+        <v>312351068</v>
       </c>
       <c r="E156" t="n">
-        <v>311922498</v>
+        <v>312351068</v>
       </c>
       <c r="F156" t="n">
-        <v>270021.2491612989</v>
+        <v>279667.036015484</v>
       </c>
       <c r="G156" t="n">
-        <v>392074.4171860608</v>
+        <v>413114.4965296598</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="I156" t="n">
-        <v>15010010</v>
+        <v>15306062</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12754622</v>
+        <v>12757850</v>
       </c>
       <c r="E157" t="n">
-        <v>40351013</v>
+        <v>40361224</v>
       </c>
       <c r="F157" t="n">
-        <v>7629.611843258509</v>
+        <v>5323.99064857847</v>
       </c>
       <c r="G157" t="n">
-        <v>19336.34352777102</v>
+        <v>16811.21761715523</v>
       </c>
       <c r="H157" t="n">
-        <v>0.74</v>
+        <v>0.02</v>
       </c>
       <c r="I157" t="n">
-        <v>1037621</v>
+        <v>991308</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1083516</v>
+        <v>1070049</v>
       </c>
       <c r="E158" t="n">
-        <v>2467814</v>
+        <v>2437141</v>
       </c>
       <c r="F158" t="n">
-        <v>9.990365237763704</v>
+        <v>2.313049143830293</v>
       </c>
       <c r="G158" t="n">
-        <v>98.27865233836579</v>
+        <v>28.51644304184386</v>
       </c>
       <c r="H158" t="n">
-        <v>3.59</v>
+        <v>3.19</v>
       </c>
       <c r="I158" t="n">
-        <v>2423.79</v>
+        <v>2065.15</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18448965</v>
+        <v>18710247</v>
       </c>
       <c r="E159" t="n">
-        <v>18448965</v>
+        <v>18710247</v>
       </c>
       <c r="F159" t="n">
-        <v>7153.950427453004</v>
+        <v>13363.56257081356</v>
       </c>
       <c r="G159" t="n">
-        <v>12310.86207808637</v>
+        <v>23821.75688614721</v>
       </c>
       <c r="H159" t="n">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
       <c r="I159" t="n">
-        <v>3645063</v>
+        <v>3740753</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4850351</v>
+        <v>4852157</v>
       </c>
       <c r="E160" t="n">
-        <v>8930015</v>
+        <v>8933340</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>15.14</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113318</v>
+        <v>113950</v>
       </c>
       <c r="E161" t="n">
-        <v>137154</v>
+        <v>137919</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>6.45</v>
+        <v>5.25</v>
       </c>
       <c r="I161" t="n">
-        <v>3277.49</v>
+        <v>3287.89</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20145081</v>
+        <v>20132514</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.5</v>
+        <v>15.29</v>
       </c>
       <c r="I162" t="n">
-        <v>1577.09</v>
+        <v>1524.91</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>432571</v>
+        <v>432523</v>
       </c>
       <c r="E163" t="n">
-        <v>544877</v>
+        <v>544817</v>
       </c>
       <c r="F163" t="n">
-        <v>97.43252201368483</v>
+        <v>135.0820651586199</v>
       </c>
       <c r="G163" t="n">
-        <v>87.40842108576565</v>
+        <v>62.60873082569694</v>
       </c>
       <c r="H163" t="n">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
       <c r="I163" t="n">
-        <v>184217</v>
+        <v>185438</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>108600</v>
+        <v>99737</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>7.88</v>
+        <v>4.78</v>
       </c>
       <c r="I164" t="n">
-        <v>3817.78</v>
+        <v>4144.72</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12710755</v>
+        <v>12715821</v>
       </c>
       <c r="E165" t="n">
-        <v>19348636</v>
+        <v>19356348</v>
       </c>
       <c r="F165" t="n">
-        <v>1014.580951621967</v>
+        <v>1781.088845805415</v>
       </c>
       <c r="G165" t="n">
-        <v>2770.784227085401</v>
+        <v>4707.397113749793</v>
       </c>
       <c r="H165" t="n">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="I165" t="n">
-        <v>771166</v>
+        <v>744668</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>296574320</v>
+        <v>300671910</v>
       </c>
       <c r="E166" t="n">
-        <v>296574320</v>
+        <v>300671910</v>
       </c>
       <c r="F166" t="n">
-        <v>171144.811451583</v>
+        <v>242292.4095909001</v>
       </c>
       <c r="G166" t="n">
-        <v>340763.8619222043</v>
+        <v>422207.8461473155</v>
       </c>
       <c r="H166" t="n">
         <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>76743520</v>
+        <v>80075048</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10186742</v>
+        <v>10188129</v>
       </c>
       <c r="E167" t="n">
-        <v>28921860</v>
+        <v>28925798</v>
       </c>
       <c r="F167" t="n">
-        <v>563.1506289058019</v>
+        <v>331.755103108027</v>
       </c>
       <c r="G167" t="n">
-        <v>1127.52551090065</v>
+        <v>1034.034710662469</v>
       </c>
       <c r="H167" t="n">
-        <v>2.36</v>
+        <v>0.34</v>
       </c>
       <c r="I167" t="n">
-        <v>128946</v>
+        <v>122203</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11654609</v>
+        <v>11717622</v>
       </c>
       <c r="F168" t="n">
-        <v>18.14137000220916</v>
+        <v>564.114706322243</v>
       </c>
       <c r="G168" t="n">
-        <v>1195.983388283588</v>
+        <v>627.3728493725746</v>
       </c>
       <c r="H168" t="n">
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="I168" t="n">
-        <v>93778</v>
+        <v>91678</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4224087</v>
+        <v>4221137</v>
       </c>
       <c r="E169" t="n">
-        <v>28862887</v>
+        <v>28842731</v>
       </c>
       <c r="F169" t="n">
-        <v>538.2518236733356</v>
+        <v>1528.345799746804</v>
       </c>
       <c r="G169" t="n">
-        <v>1040.907283816868</v>
+        <v>1991.828250233983</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2648744</v>
+        <v>2648045</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3010832</v>
+        <v>2941096</v>
       </c>
       <c r="E170" t="n">
-        <v>4462860</v>
+        <v>4359100</v>
       </c>
       <c r="F170" t="n">
-        <v>1047.451326413315</v>
+        <v>3870.286224302967</v>
       </c>
       <c r="G170" t="n">
-        <v>12.72080904451396</v>
+        <v>3775.222025089882</v>
       </c>
       <c r="H170" t="n">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="I170" t="n">
-        <v>224346</v>
+        <v>192320</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>91307855</v>
+        <v>91823400</v>
       </c>
       <c r="E171" t="n">
-        <v>526155241</v>
+        <v>529126033</v>
       </c>
       <c r="F171" t="n">
-        <v>309598.0297256662</v>
+        <v>349587.3974576364</v>
       </c>
       <c r="G171" t="n">
-        <v>188797.3623183143</v>
+        <v>314285.9358995343</v>
       </c>
       <c r="H171" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I171" t="n">
-        <v>17039335</v>
+        <v>17065895</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13772925</v>
+        <v>13787228</v>
       </c>
       <c r="E172" t="n">
-        <v>13772925</v>
+        <v>13787228</v>
       </c>
       <c r="F172" t="n">
-        <v>4643.116458608691</v>
+        <v>3888.912858450899</v>
       </c>
       <c r="G172" t="n">
-        <v>5200.955330622258</v>
+        <v>4593.944357968922</v>
       </c>
       <c r="H172" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="I172" t="n">
-        <v>613676</v>
+        <v>618617</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6076262</v>
+        <v>6131528</v>
       </c>
       <c r="E173" t="n">
-        <v>17260916</v>
+        <v>17417912</v>
       </c>
       <c r="F173" t="n">
-        <v>208.0975312700918</v>
+        <v>632.4868163757695</v>
       </c>
       <c r="G173" t="n">
-        <v>8407.338879384428</v>
+        <v>8657.603262871937</v>
       </c>
       <c r="H173" t="n">
-        <v>3.24</v>
+        <v>0.86</v>
       </c>
       <c r="I173" t="n">
-        <v>174502</v>
+        <v>170114</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19686155</v>
+        <v>18383237</v>
       </c>
       <c r="E174" t="n">
-        <v>19686155</v>
+        <v>18383237</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039486119845963</v>
+        <v>1.039526282492553</v>
       </c>
       <c r="G174" t="n">
-        <v>473.4329409343691</v>
+        <v>499.4044473177544</v>
       </c>
       <c r="H174" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="I174" t="n">
-        <v>121353</v>
+        <v>110337</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1338188</v>
+        <v>1326984</v>
       </c>
       <c r="F175" t="n">
-        <v>104.6294773660937</v>
+        <v>173.7605910468928</v>
       </c>
       <c r="G175" t="n">
-        <v>130.4274374894111</v>
+        <v>312.7652253366523</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="I175" t="n">
-        <v>4064.45</v>
+        <v>31804</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>145968</v>
+        <v>137720</v>
       </c>
       <c r="E176" t="n">
-        <v>317769</v>
+        <v>299813</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.67</v>
+        <v>5.38</v>
       </c>
       <c r="I176" t="n">
-        <v>52125</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2582188</v>
+        <v>2485279</v>
       </c>
       <c r="F177" t="n">
-        <v>131.3450943090706</v>
+        <v>70.40234256818978</v>
       </c>
       <c r="G177" t="n">
-        <v>75.91383336895943</v>
+        <v>262.2316766510925</v>
       </c>
       <c r="H177" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="I177" t="n">
-        <v>423584</v>
+        <v>425694</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>251208528</v>
+        <v>250084436</v>
       </c>
       <c r="E178" t="n">
-        <v>251211023</v>
+        <v>250086921</v>
       </c>
       <c r="F178" t="n">
-        <v>8551.155267054801</v>
+        <v>47407.05335870397</v>
       </c>
       <c r="G178" t="n">
-        <v>134315.26045415</v>
+        <v>247415.6904981811</v>
       </c>
       <c r="H178" t="n">
-        <v>1.03</v>
+        <v>0.28</v>
       </c>
       <c r="I178" t="n">
-        <v>2535427</v>
+        <v>2743078</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9293216</v>
+        <v>9305670</v>
       </c>
       <c r="E179" t="n">
-        <v>9293216</v>
+        <v>9305670</v>
       </c>
       <c r="F179" t="n">
-        <v>597.1216172560307</v>
+        <v>308.1125425777316</v>
       </c>
       <c r="G179" t="n">
-        <v>430.3722654198093</v>
+        <v>901.7503172580341</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.63</v>
       </c>
       <c r="I179" t="n">
-        <v>2112390</v>
+        <v>2106707</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>184325</v>
+        <v>189133</v>
       </c>
       <c r="E180" t="n">
-        <v>1423360</v>
+        <v>1460484</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="I180" t="n">
-        <v>105543</v>
+        <v>105095</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30809902</v>
+        <v>30961474</v>
       </c>
       <c r="E181" t="n">
-        <v>137948571</v>
+        <v>138627220</v>
       </c>
       <c r="F181" t="n">
-        <v>27940.184091278</v>
+        <v>54852.94767276142</v>
       </c>
       <c r="G181" t="n">
-        <v>60665.36649551568</v>
+        <v>92961.06654493655</v>
       </c>
       <c r="H181" t="n">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="I181" t="n">
-        <v>8588031</v>
+        <v>8594308</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1523981</v>
+        <v>1524272</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>197.4380947945023</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>5399.152265946752</v>
       </c>
       <c r="H182" t="n">
-        <v>5.73</v>
+        <v>1.98</v>
       </c>
       <c r="I182" t="n">
-        <v>53849</v>
+        <v>49266</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3132651</v>
+        <v>3151269</v>
       </c>
       <c r="E183" t="n">
-        <v>3132651</v>
+        <v>3151269</v>
       </c>
       <c r="F183" t="n">
-        <v>38.28320424210386</v>
+        <v>357.7199490220038</v>
       </c>
       <c r="G183" t="n">
-        <v>225.0029189699885</v>
+        <v>338.1171945949844</v>
       </c>
       <c r="H183" t="n">
-        <v>2.28</v>
+        <v>0.97</v>
       </c>
       <c r="I183" t="n">
-        <v>420563</v>
+        <v>408549</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>559567</v>
+        <v>583284</v>
       </c>
       <c r="E184" t="n">
-        <v>559567</v>
+        <v>583284</v>
       </c>
       <c r="F184" t="n">
-        <v>14.54192090437101</v>
+        <v>4.753016517931822</v>
       </c>
       <c r="G184" t="n">
-        <v>12.52780907383517</v>
+        <v>4.583265928005686</v>
       </c>
       <c r="H184" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="I184" t="n">
-        <v>26301</v>
+        <v>1212509</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15482193</v>
+        <v>15681364</v>
       </c>
       <c r="E185" t="n">
-        <v>19711303</v>
+        <v>19964880</v>
       </c>
       <c r="F185" t="n">
-        <v>258.7904372372487</v>
+        <v>211.8010421538393</v>
       </c>
       <c r="G185" t="n">
-        <v>64.49247437379569</v>
+        <v>110.3603157197223</v>
       </c>
       <c r="H185" t="n">
-        <v>1.27</v>
+        <v>0.21</v>
       </c>
       <c r="I185" t="n">
-        <v>928156</v>
+        <v>926338</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1777648</v>
+        <v>1831877</v>
       </c>
       <c r="E186" t="n">
-        <v>1777648</v>
+        <v>1831877</v>
       </c>
       <c r="F186" t="n">
-        <v>45.15344111736442</v>
+        <v>69.73304384656275</v>
       </c>
       <c r="G186" t="n">
-        <v>159.10193536871</v>
+        <v>32.18287692474675</v>
       </c>
       <c r="H186" t="n">
-        <v>1.13</v>
+        <v>2.97</v>
       </c>
       <c r="I186" t="n">
-        <v>4240.28</v>
+        <v>4072.22</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50202590</v>
+        <v>50896833</v>
       </c>
       <c r="E187" t="n">
-        <v>325550436</v>
+        <v>330052415</v>
       </c>
       <c r="F187" t="n">
-        <v>31051.67219249085</v>
+        <v>114770.0035188753</v>
       </c>
       <c r="G187" t="n">
-        <v>75283.45321298137</v>
+        <v>139393.2407398724</v>
       </c>
       <c r="H187" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I187" t="n">
-        <v>16294220</v>
+        <v>16937461</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9085007</v>
+        <v>9091343</v>
       </c>
       <c r="F188" t="n">
-        <v>668.4085179249092</v>
+        <v>632.8865460752479</v>
       </c>
       <c r="G188" t="n">
-        <v>274.0554759069277</v>
+        <v>272.0305266312982</v>
       </c>
       <c r="H188" t="n">
-        <v>2.39</v>
+        <v>2.06</v>
       </c>
       <c r="I188" t="n">
-        <v>300675</v>
+        <v>292725</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7063076</v>
+        <v>7103776</v>
       </c>
       <c r="E189" t="n">
-        <v>7073048</v>
+        <v>7113762</v>
       </c>
       <c r="F189" t="n">
-        <v>869.396169788629</v>
+        <v>89.76953547074115</v>
       </c>
       <c r="G189" t="n">
-        <v>105.9944917940365</v>
+        <v>895.6799074898579</v>
       </c>
       <c r="H189" t="n">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="I189" t="n">
-        <v>588034</v>
+        <v>777927</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4789581</v>
+        <v>4796554</v>
       </c>
       <c r="F190" t="n">
-        <v>200.1375829724357</v>
+        <v>2005.863429345321</v>
       </c>
       <c r="G190" t="n">
-        <v>173.857692432332</v>
+        <v>2083.947566460842</v>
       </c>
       <c r="H190" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="I190" t="n">
-        <v>199518</v>
+        <v>196252</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>96192430</v>
+        <v>99571129</v>
       </c>
       <c r="E191" t="n">
-        <v>97227877</v>
+        <v>100642945</v>
       </c>
       <c r="F191" t="n">
-        <v>15432.03610681802</v>
+        <v>43044.51392380528</v>
       </c>
       <c r="G191" t="n">
-        <v>11455.61458794288</v>
+        <v>65388.69660146369</v>
       </c>
       <c r="H191" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I191" t="n">
-        <v>38510804</v>
+        <v>41107699</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>241703472</v>
+        <v>241589225</v>
       </c>
       <c r="E192" t="n">
-        <v>241703472</v>
+        <v>241589225</v>
       </c>
       <c r="F192" t="n">
-        <v>19832.23454727899</v>
+        <v>78807.8787150198</v>
       </c>
       <c r="G192" t="n">
-        <v>48452.9289292563</v>
+        <v>116917.817481124</v>
       </c>
       <c r="H192" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>47100829</v>
+        <v>47464148</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24589973</v>
+        <v>24711842</v>
       </c>
       <c r="E193" t="n">
-        <v>147126749</v>
+        <v>147855920</v>
       </c>
       <c r="F193" t="n">
-        <v>47162.5843527143</v>
+        <v>76974.84992612241</v>
       </c>
       <c r="G193" t="n">
-        <v>102144.4672110782</v>
+        <v>148639.5446695705</v>
       </c>
       <c r="H193" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="I193" t="n">
-        <v>12333421</v>
+        <v>12613275</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13609882</v>
+        <v>13820428</v>
       </c>
       <c r="E194" t="n">
-        <v>41763952</v>
+        <v>42410045</v>
       </c>
       <c r="F194" t="n">
-        <v>684.6291323285112</v>
+        <v>552.9855325507647</v>
       </c>
       <c r="G194" t="n">
-        <v>2661.550677365235</v>
+        <v>3463.538628719876</v>
       </c>
       <c r="H194" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="I194" t="n">
-        <v>2588293</v>
+        <v>2620647</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54951990</v>
+        <v>55133543</v>
       </c>
       <c r="E195" t="n">
-        <v>94914034</v>
+        <v>95227615</v>
       </c>
       <c r="F195" t="n">
-        <v>1410.782714335121</v>
+        <v>14355.61593677033</v>
       </c>
       <c r="G195" t="n">
-        <v>8598.970328046165</v>
+        <v>7879.236913068167</v>
       </c>
       <c r="H195" t="n">
-        <v>1.2</v>
+        <v>0.26</v>
       </c>
       <c r="I195" t="n">
-        <v>2305267</v>
+        <v>2425764</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4202631</v>
+        <v>4290870</v>
       </c>
       <c r="E196" t="n">
-        <v>4202631</v>
+        <v>4290870</v>
       </c>
       <c r="F196" t="n">
-        <v>1.064266656433321</v>
+        <v>15.3995518371402</v>
       </c>
       <c r="G196" t="n">
-        <v>388.2483618743549</v>
+        <v>946.7007751012618</v>
       </c>
       <c r="H196" t="n">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="I196" t="n">
-        <v>1075946</v>
+        <v>1719477</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>211463</v>
+        <v>210316</v>
       </c>
       <c r="F197" t="n">
-        <v>61.91893016983772</v>
+        <v>152.9116037856197</v>
       </c>
       <c r="G197" t="n">
-        <v>93.91666818953712</v>
+        <v>97.47059416261557</v>
       </c>
       <c r="H197" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="I197" t="n">
-        <v>49799</v>
+        <v>51423</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6644637</v>
+        <v>6636342</v>
       </c>
       <c r="E198" t="n">
-        <v>34184636</v>
+        <v>34141963</v>
       </c>
       <c r="F198" t="n">
-        <v>399.5067961715991</v>
+        <v>180.5644890350996</v>
       </c>
       <c r="G198" t="n">
-        <v>241.1677275959958</v>
+        <v>656.6315020186853</v>
       </c>
       <c r="H198" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I198" t="n">
-        <v>913060</v>
+        <v>856627</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>178921539</v>
+        <v>179980218</v>
       </c>
       <c r="E199" t="n">
-        <v>209033187</v>
+        <v>210270037</v>
       </c>
       <c r="F199" t="n">
-        <v>35195.55467820681</v>
+        <v>76181.9096928574</v>
       </c>
       <c r="G199" t="n">
-        <v>13837.39907632566</v>
+        <v>12240.51751805599</v>
       </c>
       <c r="H199" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I199" t="n">
-        <v>4055961</v>
+        <v>3444467</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>303028</v>
+        <v>305006</v>
       </c>
       <c r="F200" t="n">
-        <v>5.959915040101355</v>
+        <v>3.646030804772888</v>
       </c>
       <c r="G200" t="n">
-        <v>38.50998880039717</v>
+        <v>38.51129013275079</v>
       </c>
       <c r="H200" t="n">
         <v>1.31</v>
       </c>
       <c r="I200" t="n">
-        <v>323858</v>
+        <v>320024</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7994066</v>
+        <v>7992780</v>
       </c>
       <c r="F201" t="n">
-        <v>589.8811957102137</v>
+        <v>330.1150940299252</v>
       </c>
       <c r="G201" t="n">
-        <v>802.8166008594892</v>
+        <v>314.2847833924887</v>
       </c>
       <c r="H201" t="n">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="I201" t="n">
-        <v>643975</v>
+        <v>655488</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34008</v>
+        <v>34013</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34877316</v>
+        <v>34825771</v>
       </c>
       <c r="E203" t="n">
-        <v>174053884</v>
+        <v>173796653</v>
       </c>
       <c r="F203" t="n">
-        <v>62897.92439707916</v>
+        <v>84340.31534520934</v>
       </c>
       <c r="G203" t="n">
-        <v>53706.62437876251</v>
+        <v>120105.4642793797</v>
       </c>
       <c r="H203" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="I203" t="n">
-        <v>10462219</v>
+        <v>10631829</v>
       </c>
     </row>
     <row r="204">
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1972363</v>
+        <v>1956519</v>
       </c>
       <c r="E204" t="n">
-        <v>1972363</v>
+        <v>1956519</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>9.73</v>
+        <v>9.52</v>
       </c>
       <c r="I204" t="n">
-        <v>12379.99</v>
+        <v>12683.53</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>186903</v>
+        <v>178996</v>
       </c>
       <c r="F205" t="n">
-        <v>1076.143524658056</v>
+        <v>10.47969954547589</v>
       </c>
       <c r="G205" t="n">
-        <v>129.2077639048634</v>
+        <v>77.9390361002757</v>
       </c>
       <c r="H205" t="n">
-        <v>1.18</v>
+        <v>2.91</v>
       </c>
       <c r="I205" t="n">
-        <v>13483.46</v>
+        <v>12894.58</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2777.74</v>
+        <v>2501.73</v>
       </c>
       <c r="E206" t="n">
-        <v>33200</v>
+        <v>29901</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>7.97</v>
+        <v>6.18</v>
       </c>
       <c r="I206" t="n">
-        <v>7966.53</v>
+        <v>7802.12</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>317253607</v>
+        <v>319861095</v>
       </c>
       <c r="E208" t="n">
-        <v>586991522</v>
+        <v>591815969</v>
       </c>
       <c r="F208" t="n">
-        <v>83787.43731247648</v>
+        <v>139060.5078853969</v>
       </c>
       <c r="G208" t="n">
-        <v>107118.692487954</v>
+        <v>196828.8995094057</v>
       </c>
       <c r="H208" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I208" t="n">
-        <v>13920446</v>
+        <v>14058018</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72035265</v>
+        <v>72216046</v>
       </c>
       <c r="E209" t="n">
-        <v>687181288</v>
+        <v>688889577</v>
       </c>
       <c r="F209" t="n">
-        <v>36566.19204421939</v>
+        <v>184593.3475391504</v>
       </c>
       <c r="G209" t="n">
-        <v>145033.7327959309</v>
+        <v>272727.0521055344</v>
       </c>
       <c r="H209" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>21868835</v>
+        <v>22285906</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2610301</v>
+        <v>2516700</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>16.08950392142456</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1467.1384804667</v>
       </c>
       <c r="H210" t="n">
-        <v>4.74</v>
+        <v>3.8</v>
       </c>
       <c r="I210" t="n">
-        <v>57223</v>
+        <v>57427</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82296</v>
+        <v>82305</v>
       </c>
       <c r="E211" t="n">
-        <v>684147</v>
+        <v>684221</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>7.04</v>
+        <v>4.23</v>
       </c>
       <c r="I211" t="n">
-        <v>121.18</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1890334</v>
+        <v>1891141</v>
       </c>
       <c r="E212" t="n">
-        <v>5398552</v>
+        <v>5400856</v>
       </c>
       <c r="F212" t="n">
-        <v>33.52376885582921</v>
+        <v>733.6428214954539</v>
       </c>
       <c r="G212" t="n">
-        <v>262.7385374284846</v>
+        <v>259.5472322137899</v>
       </c>
       <c r="H212" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>67424</v>
+        <v>68159</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11558924</v>
+        <v>11290934</v>
       </c>
       <c r="E213" t="n">
-        <v>34296093</v>
+        <v>33494908</v>
       </c>
       <c r="F213" t="n">
-        <v>535.840325296277</v>
+        <v>3423.463819517885</v>
       </c>
       <c r="G213" t="n">
-        <v>548.7571530602263</v>
+        <v>3156.744563223896</v>
       </c>
       <c r="H213" t="n">
-        <v>1.89</v>
+        <v>0.22</v>
       </c>
       <c r="I213" t="n">
-        <v>7256022</v>
+        <v>7382314</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14573260</v>
+        <v>14578905</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>25.77334613545285</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>167.9024079041602</v>
       </c>
       <c r="H214" t="n">
-        <v>5.46</v>
+        <v>3.01</v>
       </c>
       <c r="I214" t="n">
-        <v>1247.58</v>
+        <v>1248.79</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1984398</v>
+        <v>1976922</v>
       </c>
       <c r="E215" t="n">
-        <v>5757377</v>
+        <v>5735687</v>
       </c>
       <c r="F215" t="n">
-        <v>42.20947462071328</v>
+        <v>36.63541066694287</v>
       </c>
       <c r="G215" t="n">
-        <v>58.95319445680964</v>
+        <v>48.85178058179591</v>
       </c>
       <c r="H215" t="n">
-        <v>0.66</v>
+        <v>1.82</v>
       </c>
       <c r="I215" t="n">
-        <v>46780</v>
+        <v>56483</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2328315</v>
+        <v>2177441</v>
       </c>
       <c r="E216" t="n">
-        <v>20537278</v>
+        <v>19206470</v>
       </c>
       <c r="F216" t="n">
-        <v>539.1361356166435</v>
+        <v>42.76530450722282</v>
       </c>
       <c r="G216" t="n">
-        <v>487.6795506658071</v>
+        <v>1313.210718481804</v>
       </c>
       <c r="H216" t="n">
-        <v>2.06</v>
+        <v>3.8</v>
       </c>
       <c r="I216" t="n">
-        <v>82082</v>
+        <v>79638</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>44896272</v>
+        <v>45145514</v>
       </c>
       <c r="E217" t="n">
-        <v>44896272</v>
+        <v>45145514</v>
       </c>
       <c r="F217" t="n">
-        <v>28189.7281737456</v>
+        <v>32813.10325979544</v>
       </c>
       <c r="G217" t="n">
-        <v>19632.73051802685</v>
+        <v>36373.45215651544</v>
       </c>
       <c r="H217" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="I217" t="n">
-        <v>7509341</v>
+        <v>7584030</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8405405</v>
+        <v>8368129</v>
       </c>
       <c r="E218" t="n">
-        <v>11975776</v>
+        <v>11922666</v>
       </c>
       <c r="F218" t="n">
-        <v>3027.410241161678</v>
+        <v>4414.100617635258</v>
       </c>
       <c r="G218" t="n">
-        <v>134.1164048100561</v>
+        <v>193.652626328186</v>
       </c>
       <c r="H218" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="I218" t="n">
-        <v>404064</v>
+        <v>393303</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16283958</v>
+        <v>16456384</v>
       </c>
       <c r="F219" t="n">
-        <v>1.068054725746096</v>
+        <v>2.125270803479983</v>
       </c>
       <c r="G219" t="n">
-        <v>1.041340627782758</v>
+        <v>1147.926536418509</v>
       </c>
       <c r="H219" t="n">
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="I219" t="n">
-        <v>999930</v>
+        <v>1008694</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>725401</v>
+        <v>726486</v>
       </c>
       <c r="F220" t="n">
-        <v>59.11926881962857</v>
+        <v>84.18809160632851</v>
       </c>
       <c r="G220" t="n">
-        <v>217.411585389014</v>
+        <v>317.4380975725679</v>
       </c>
       <c r="H220" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>193716</v>
+        <v>193876</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2852057</v>
+        <v>2854643</v>
       </c>
       <c r="E221" t="n">
-        <v>2854527</v>
+        <v>2857115</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>6.34</v>
+        <v>7.14</v>
       </c>
       <c r="I221" t="n">
-        <v>110095</v>
+        <v>109085</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1260538</v>
+        <v>1262497</v>
       </c>
       <c r="E222" t="n">
-        <v>3809098</v>
+        <v>3814229</v>
       </c>
       <c r="F222" t="n">
-        <v>669.2209165229871</v>
+        <v>679.0725629899024</v>
       </c>
       <c r="G222" t="n">
-        <v>641.6980691827628</v>
+        <v>485.6529245540832</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>12870.66</v>
+        <v>14519.83</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>39071770</v>
+        <v>38997940</v>
       </c>
       <c r="E223" t="n">
-        <v>277012473</v>
+        <v>276489032</v>
       </c>
       <c r="F223" t="n">
-        <v>59066.82805363582</v>
+        <v>102067.215569472</v>
       </c>
       <c r="G223" t="n">
-        <v>59533.98013019277</v>
+        <v>80994.75730145093</v>
       </c>
       <c r="H223" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="I223" t="n">
-        <v>1614068</v>
+        <v>1627765</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59479</v>
+        <v>59431</v>
       </c>
       <c r="E224" t="n">
-        <v>310339</v>
+        <v>310086</v>
       </c>
       <c r="F224" t="n">
-        <v>236.2466033789356</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>255.6123925348674</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0.84</v>
+        <v>5.21</v>
       </c>
       <c r="I224" t="n">
-        <v>290620</v>
+        <v>287913</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1275560</v>
+        <v>1275528</v>
       </c>
       <c r="E225" t="n">
-        <v>7909780</v>
+        <v>7909583</v>
       </c>
       <c r="F225" t="n">
-        <v>1651.012967319917</v>
+        <v>1735.102089873636</v>
       </c>
       <c r="G225" t="n">
-        <v>1639.093830069429</v>
+        <v>1499.615021266941</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>778817</v>
+        <v>778470</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>609620370</v>
+        <v>618868067</v>
       </c>
       <c r="E226" t="n">
-        <v>2360969751</v>
+        <v>2396784714</v>
       </c>
       <c r="F226" t="n">
-        <v>84403.55123951871</v>
+        <v>254896.9356674836</v>
       </c>
       <c r="G226" t="n">
-        <v>288805.1932597735</v>
+        <v>461148.3701937362</v>
       </c>
       <c r="H226" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32787739</v>
+        <v>33387998</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20777488</v>
+        <v>20832231</v>
       </c>
       <c r="F227" t="n">
-        <v>94.57317155965295</v>
+        <v>1732.12400459068</v>
       </c>
       <c r="G227" t="n">
-        <v>218.8620220474191</v>
+        <v>680.2300728097205</v>
       </c>
       <c r="H227" t="n">
-        <v>1.69</v>
+        <v>0.43</v>
       </c>
       <c r="I227" t="n">
-        <v>16451630</v>
+        <v>16638098</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>685691</v>
+        <v>716269</v>
       </c>
       <c r="F228" t="n">
-        <v>1.863384070521832</v>
+        <v>172.4926174807194</v>
       </c>
       <c r="G228" t="n">
-        <v>674.4391060967283</v>
+        <v>62.12744170929384</v>
       </c>
       <c r="H228" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="I228" t="n">
-        <v>191178</v>
+        <v>158264</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5889114</v>
+        <v>5894941</v>
       </c>
       <c r="E229" t="n">
-        <v>26362200</v>
+        <v>26388286</v>
       </c>
       <c r="F229" t="n">
-        <v>1721.867904813781</v>
+        <v>1234.649183193751</v>
       </c>
       <c r="G229" t="n">
-        <v>1126.103360749888</v>
+        <v>1270.766393613896</v>
       </c>
       <c r="H229" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>151915</v>
+        <v>149468</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6769242</v>
+        <v>6769169</v>
       </c>
       <c r="E230" t="n">
-        <v>12960262</v>
+        <v>12960123</v>
       </c>
       <c r="F230" t="n">
-        <v>4088.979752755834</v>
+        <v>4166.467863925673</v>
       </c>
       <c r="G230" t="n">
-        <v>208.2750678437792</v>
+        <v>3988.722271591459</v>
       </c>
       <c r="H230" t="n">
-        <v>1.92</v>
+        <v>0.86</v>
       </c>
       <c r="I230" t="n">
-        <v>128853</v>
+        <v>124305</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3244843</v>
+        <v>3249238</v>
       </c>
       <c r="E231" t="n">
-        <v>21337333</v>
+        <v>21366229</v>
       </c>
       <c r="F231" t="n">
-        <v>2242.1024362503</v>
+        <v>2350.290699849847</v>
       </c>
       <c r="G231" t="n">
-        <v>322.6803382999922</v>
+        <v>459.8980214947118</v>
       </c>
       <c r="H231" t="n">
-        <v>2.06</v>
+        <v>1.17</v>
       </c>
       <c r="I231" t="n">
-        <v>1646299</v>
+        <v>1653069</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>122855046</v>
+        <v>115076250</v>
       </c>
       <c r="E232" t="n">
-        <v>1068149113</v>
+        <v>1069206568</v>
       </c>
       <c r="F232" t="n">
-        <v>205713.1130412837</v>
+        <v>183828.1577064888</v>
       </c>
       <c r="G232" t="n">
-        <v>186944.4914998363</v>
+        <v>244126.4873559814</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I232" t="n">
-        <v>9275249</v>
+        <v>9277456</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>5.16</v>
+        <v>4.64</v>
       </c>
       <c r="I233" t="n">
-        <v>1150.62</v>
+        <v>968.24</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>113135715</v>
+        <v>116420191</v>
       </c>
       <c r="E234" t="n">
-        <v>172591186</v>
+        <v>177601730</v>
       </c>
       <c r="F234" t="n">
-        <v>27596.92674047783</v>
+        <v>90938.44360928249</v>
       </c>
       <c r="G234" t="n">
-        <v>45918.0803917207</v>
+        <v>112917.190357497</v>
       </c>
       <c r="H234" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I234" t="n">
-        <v>7841037</v>
+        <v>7989523</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>17078591</v>
+        <v>17685776</v>
       </c>
       <c r="E235" t="n">
-        <v>23430348</v>
+        <v>24263353</v>
       </c>
       <c r="F235" t="n">
-        <v>555.4351013467731</v>
+        <v>1060.9882644082</v>
       </c>
       <c r="G235" t="n">
-        <v>605.9926218714198</v>
+        <v>2398.248156368184</v>
       </c>
       <c r="H235" t="n">
-        <v>0.9</v>
+        <v>0.41</v>
       </c>
       <c r="I235" t="n">
-        <v>515165</v>
+        <v>546087</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>122779665</v>
+        <v>125389023</v>
       </c>
       <c r="E236" t="n">
-        <v>471002557</v>
+        <v>481012476</v>
       </c>
       <c r="F236" t="n">
-        <v>321544.2381526625</v>
+        <v>462126.3326790195</v>
       </c>
       <c r="G236" t="n">
-        <v>475673.9258113353</v>
+        <v>515966.4233780841</v>
       </c>
       <c r="H236" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I236" t="n">
-        <v>30907911</v>
+        <v>32154462</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>757111</v>
+        <v>665345</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>7.22</v>
+        <v>7.33</v>
       </c>
       <c r="I237" t="n">
-        <v>49451</v>
+        <v>43746</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>850089</v>
+        <v>894735</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>3.200701183022243</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>145.2184830779019</v>
       </c>
       <c r="H238" t="n">
-        <v>7.66</v>
+        <v>0.02</v>
       </c>
       <c r="I238" t="n">
-        <v>129624</v>
+        <v>128604</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3196189</v>
+        <v>3237971</v>
       </c>
       <c r="E239" t="n">
-        <v>30284367</v>
+        <v>30680255</v>
       </c>
       <c r="F239" t="n">
-        <v>284.4666464044649</v>
+        <v>1057.808821773503</v>
       </c>
       <c r="G239" t="n">
-        <v>1399.632678835206</v>
+        <v>2211.760742654804</v>
       </c>
       <c r="H239" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I239" t="n">
-        <v>213308</v>
+        <v>221278</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>735578</v>
+        <v>733897</v>
       </c>
       <c r="E240" t="n">
-        <v>786328</v>
+        <v>784531</v>
       </c>
       <c r="F240" t="n">
-        <v>26.31581227972663</v>
+        <v>72.79417627214831</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.929775690896</v>
+        <v>1612.246836501559</v>
       </c>
       <c r="H240" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="I240" t="n">
-        <v>90287</v>
+        <v>94500</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>363548</v>
+        <v>363646</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>12.24</v>
       </c>
       <c r="I241" t="n">
-        <v>299.55</v>
+        <v>283.36</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>132831</v>
+        <v>135729</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="I242" t="n">
-        <v>89984</v>
+        <v>88925</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>570502</v>
+        <v>548930</v>
       </c>
       <c r="F243" t="n">
-        <v>304.1040834167478</v>
+        <v>119.003110730781</v>
       </c>
       <c r="G243" t="n">
-        <v>354.7461542431494</v>
+        <v>199.0087819855441</v>
       </c>
       <c r="H243" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I243" t="n">
-        <v>932.7</v>
+        <v>1479.46</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6437659</v>
+        <v>6442208</v>
       </c>
       <c r="E244" t="n">
-        <v>40233525</v>
+        <v>40261954</v>
       </c>
       <c r="F244" t="n">
-        <v>135.8958502043373</v>
+        <v>927.4525731497143</v>
       </c>
       <c r="G244" t="n">
-        <v>1381.190667999791</v>
+        <v>621.5508311828755</v>
       </c>
       <c r="H244" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="I244" t="n">
-        <v>425407</v>
+        <v>423557</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5291890</v>
+        <v>5268266</v>
       </c>
       <c r="E245" t="n">
-        <v>19705914</v>
+        <v>19617943</v>
       </c>
       <c r="F245" t="n">
-        <v>74.59911278656747</v>
+        <v>3686.574120201045</v>
       </c>
       <c r="G245" t="n">
-        <v>437.2697842709662</v>
+        <v>4482.986555331418</v>
       </c>
       <c r="H245" t="n">
-        <v>1.52</v>
+        <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>72395</v>
+        <v>76285</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3703578</v>
+        <v>3755623</v>
       </c>
       <c r="F246" t="n">
-        <v>127.0144531461359</v>
+        <v>133.9234262513186</v>
       </c>
       <c r="G246" t="n">
-        <v>1244.179131929224</v>
+        <v>1352.067259718076</v>
       </c>
       <c r="H246" t="n">
         <v>1.26</v>
       </c>
       <c r="I246" t="n">
-        <v>7727.66</v>
+        <v>7299.26</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31548039</v>
+        <v>31488816</v>
       </c>
       <c r="E247" t="n">
-        <v>113079535</v>
+        <v>112867259</v>
       </c>
       <c r="F247" t="n">
-        <v>110.1224510093704</v>
+        <v>2173.979767588086</v>
       </c>
       <c r="G247" t="n">
-        <v>2127.126950660404</v>
+        <v>4331.589091164525</v>
       </c>
       <c r="H247" t="n">
-        <v>1.29</v>
+        <v>0.73</v>
       </c>
       <c r="I247" t="n">
-        <v>88846</v>
+        <v>84080</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1578625</v>
+        <v>1571439</v>
       </c>
       <c r="F248" t="n">
-        <v>14.72420811313532</v>
+        <v>267.4347774304335</v>
       </c>
       <c r="G248" t="n">
-        <v>63.83425417230677</v>
+        <v>8.753381574069442</v>
       </c>
       <c r="H248" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="I248" t="n">
-        <v>608398</v>
+        <v>607216</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2235945</v>
+        <v>2202328</v>
       </c>
       <c r="E249" t="n">
-        <v>17198257</v>
+        <v>16939680</v>
       </c>
       <c r="F249" t="n">
-        <v>1091.356818958549</v>
+        <v>1950.940798020411</v>
       </c>
       <c r="G249" t="n">
-        <v>1350.614765110032</v>
+        <v>5285.238406123847</v>
       </c>
       <c r="H249" t="n">
-        <v>1.04</v>
+        <v>0.12</v>
       </c>
       <c r="I249" t="n">
-        <v>167318</v>
+        <v>168875</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103710</v>
+        <v>103765</v>
       </c>
       <c r="E250" t="n">
-        <v>823773</v>
+        <v>824203</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2937536181027</v>
+        <v>158.2998942644599</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5865478197649</v>
+        <v>359.6004971625184</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1317.98</v>
+        <v>1318.67</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88990719</v>
+        <v>89001938</v>
       </c>
       <c r="E251" t="n">
-        <v>328960320</v>
+        <v>328999525</v>
       </c>
       <c r="F251" t="n">
-        <v>1035.267052338679</v>
+        <v>4845.636938345448</v>
       </c>
       <c r="G251" t="n">
-        <v>883.2248640096459</v>
+        <v>1526.162074498445</v>
       </c>
       <c r="H251" t="n">
-        <v>0.62</v>
+        <v>0.09</v>
       </c>
       <c r="I251" t="n">
-        <v>235753</v>
+        <v>231100</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2298924</v>
+        <v>2271792</v>
       </c>
       <c r="E252" t="n">
-        <v>9224510</v>
+        <v>9108027</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>6.74</v>
+        <v>7.97</v>
       </c>
       <c r="I252" t="n">
-        <v>41671</v>
+        <v>41110</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>590142</v>
+        <v>607633</v>
       </c>
       <c r="F253" t="n">
-        <v>363.8840704002852</v>
+        <v>363.1806397094085</v>
       </c>
       <c r="G253" t="n">
-        <v>38.91263022317021</v>
+        <v>4.11777912928846</v>
       </c>
       <c r="H253" t="n">
-        <v>3.63</v>
+        <v>2.14</v>
       </c>
       <c r="I253" t="n">
-        <v>3402.88</v>
+        <v>3089.85</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39610</v>
+        <v>39609</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>99.89873037023172</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1.292454528781909</v>
       </c>
       <c r="H254" t="n">
-        <v>5.36</v>
+        <v>3.64</v>
       </c>
       <c r="I254" t="n">
-        <v>4216.25</v>
+        <v>4156.44</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>759469991</v>
+        <v>802233169</v>
       </c>
       <c r="E255" t="n">
-        <v>1171169781</v>
+        <v>1237114377</v>
       </c>
       <c r="F255" t="n">
-        <v>15472.12879304514</v>
+        <v>192021.1705131478</v>
       </c>
       <c r="G255" t="n">
-        <v>125344.6995031011</v>
+        <v>253239.2625851997</v>
       </c>
       <c r="H255" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="I255" t="n">
-        <v>222790111</v>
+        <v>250082340</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5759039</v>
+        <v>5776045</v>
       </c>
       <c r="E256" t="n">
-        <v>5759039</v>
+        <v>5776045</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.44</v>
+        <v>8.27</v>
       </c>
       <c r="I256" t="n">
-        <v>617.04</v>
+        <v>568.13</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39815704</v>
+        <v>39885758</v>
       </c>
       <c r="E257" t="n">
-        <v>189889120</v>
+        <v>190222761</v>
       </c>
       <c r="F257" t="n">
-        <v>234.6105324336405</v>
+        <v>293.9473640645175</v>
       </c>
       <c r="G257" t="n">
-        <v>155.3401544396334</v>
+        <v>262.3579884755658</v>
       </c>
       <c r="H257" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="I257" t="n">
-        <v>292639</v>
+        <v>294382</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>588517</v>
+        <v>504364</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>10.61</v>
+        <v>13.42</v>
       </c>
       <c r="I258" t="n">
-        <v>382.75</v>
+        <v>385.16</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23559808</v>
+        <v>23523275</v>
       </c>
       <c r="E259" t="n">
-        <v>39266345</v>
+        <v>39205458</v>
       </c>
       <c r="F259" t="n">
-        <v>2894.203323774504</v>
+        <v>6705.918491777988</v>
       </c>
       <c r="G259" t="n">
-        <v>6738.222034189799</v>
+        <v>6949.713324573404</v>
       </c>
       <c r="H259" t="n">
-        <v>0.91</v>
+        <v>0.38</v>
       </c>
       <c r="I259" t="n">
-        <v>482136</v>
+        <v>476605</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110289</v>
+        <v>110016</v>
       </c>
       <c r="F260" t="n">
-        <v>120.9679245363176</v>
+        <v>62.25023922162063</v>
       </c>
       <c r="G260" t="n">
-        <v>57.76020434092272</v>
+        <v>65.20997967220848</v>
       </c>
       <c r="H260" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="I260" t="n">
-        <v>50001</v>
+        <v>50132</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>2720096</v>
+        <v>1602166</v>
       </c>
       <c r="E261" t="n">
-        <v>11610165</v>
+        <v>6838514</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>9.604952278660942</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>16.501811445002</v>
       </c>
       <c r="H261" t="n">
-        <v>10</v>
+        <v>1.79</v>
       </c>
       <c r="I261" t="n">
-        <v>378964</v>
+        <v>470171</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3847592</v>
+        <v>3808904</v>
       </c>
       <c r="E262" t="n">
-        <v>8395395</v>
+        <v>8310979</v>
       </c>
       <c r="F262" t="n">
-        <v>1002.854711205575</v>
+        <v>1156.174128618693</v>
       </c>
       <c r="G262" t="n">
-        <v>1359.982734483635</v>
+        <v>1573.4056743482</v>
       </c>
       <c r="H262" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="I262" t="n">
-        <v>1672632</v>
+        <v>53563</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>497085188</v>
+        <v>501151441</v>
       </c>
       <c r="E263" t="n">
-        <v>1730312169</v>
+        <v>1744466458</v>
       </c>
       <c r="F263" t="n">
-        <v>254319.4994795467</v>
+        <v>665010.0419094563</v>
       </c>
       <c r="G263" t="n">
-        <v>437471.1890794307</v>
+        <v>692880.9733486512</v>
       </c>
       <c r="H263" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>30637351</v>
+        <v>31654526</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5775077357</v>
+        <v>5753977858</v>
       </c>
       <c r="E264" t="n">
-        <v>5775077357</v>
+        <v>5753977858</v>
       </c>
       <c r="F264" t="n">
-        <v>2074.699209261931</v>
+        <v>3589.155552843582</v>
       </c>
       <c r="G264" t="n">
-        <v>1774.947217070952</v>
+        <v>1809.510081592146</v>
       </c>
       <c r="H264" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I264" t="n">
-        <v>10093065</v>
+        <v>9976661</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24075335</v>
+        <v>24124572</v>
       </c>
       <c r="E265" t="n">
-        <v>24054422</v>
+        <v>24103616</v>
       </c>
       <c r="F265" t="n">
-        <v>274.5766542425167</v>
+        <v>123.5614797799044</v>
       </c>
       <c r="G265" t="n">
-        <v>84.44067759386486</v>
+        <v>252.332403521796</v>
       </c>
       <c r="H265" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="I265" t="n">
-        <v>84386</v>
+        <v>83539</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12225909</v>
+        <v>12231890</v>
       </c>
       <c r="E266" t="n">
-        <v>24721222</v>
+        <v>24729005</v>
       </c>
       <c r="F266" t="n">
-        <v>570.4704084890772</v>
+        <v>628.4881954011881</v>
       </c>
       <c r="G266" t="n">
-        <v>687.1484836938362</v>
+        <v>741.9507526210689</v>
       </c>
       <c r="H266" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="I266" t="n">
-        <v>41361</v>
+        <v>41324</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>152486</v>
+        <v>152798</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5722472377871</v>
+        <v>182.579329732558</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1455337547713</v>
+        <v>132.1506600544471</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>58709</v>
+        <v>58686</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47205</v>
+        <v>46410</v>
       </c>
       <c r="F268" t="n">
-        <v>112.9902963971117</v>
+        <v>40.65213095234084</v>
       </c>
       <c r="G268" t="n">
-        <v>3.000547149545186</v>
+        <v>159.8268707166429</v>
       </c>
       <c r="H268" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="I268" t="n">
-        <v>71026</v>
+        <v>70469</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2635114</v>
+        <v>2626705</v>
       </c>
       <c r="E269" t="n">
-        <v>10540455</v>
+        <v>10506818</v>
       </c>
       <c r="F269" t="n">
-        <v>34880.0439285171</v>
+        <v>37501.6774941063</v>
       </c>
       <c r="G269" t="n">
-        <v>59278.42207665239</v>
+        <v>29251.18232284072</v>
       </c>
       <c r="H269" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="I269" t="n">
-        <v>6858433</v>
+        <v>6888766</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>227635638</v>
+        <v>229315899</v>
       </c>
       <c r="E270" t="n">
-        <v>699893922</v>
+        <v>705060093</v>
       </c>
       <c r="F270" t="n">
-        <v>49999.72474652656</v>
+        <v>230616.1999530196</v>
       </c>
       <c r="G270" t="n">
-        <v>133872.0885686234</v>
+        <v>326939.7282422475</v>
       </c>
       <c r="H270" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>15257445</v>
+        <v>16117365</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148172739</v>
+        <v>143426714</v>
       </c>
       <c r="E271" t="n">
-        <v>387097170</v>
+        <v>374698312</v>
       </c>
       <c r="F271" t="n">
-        <v>28683.39611572292</v>
+        <v>61329.83079128824</v>
       </c>
       <c r="G271" t="n">
-        <v>12678.47557796465</v>
+        <v>51705.66053528581</v>
       </c>
       <c r="H271" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="I271" t="n">
-        <v>7716647</v>
+        <v>8471139</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2439926</v>
+        <v>2445587</v>
       </c>
       <c r="E272" t="n">
-        <v>3348847</v>
+        <v>3356574</v>
       </c>
       <c r="F272" t="n">
-        <v>59.65854235483396</v>
+        <v>75.49000335256761</v>
       </c>
       <c r="G272" t="n">
-        <v>204.1907561816644</v>
+        <v>34.09320369691477</v>
       </c>
       <c r="H272" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="I272" t="n">
-        <v>2000220</v>
+        <v>2000703</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56721</v>
+        <v>56760</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5698798596736258</v>
+        <v>1.948492354750062</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87958078799806</v>
+        <v>10.87919558502768</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>744.24</v>
+        <v>682.5599999999999</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91275</v>
+        <v>91335</v>
       </c>
       <c r="F3" t="n">
-        <v>22.50020871847675</v>
+        <v>22.49941207498456</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1927591172217</v>
+        <v>416.1780233760028</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1402.12</v>
+        <v>1401.32</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>608544942</v>
+        <v>615731752</v>
       </c>
       <c r="E4" t="n">
-        <v>1180854083</v>
+        <v>1194800022</v>
       </c>
       <c r="F4" t="n">
-        <v>49300.68557304936</v>
+        <v>36268.99619931068</v>
       </c>
       <c r="G4" t="n">
-        <v>45480.14986529693</v>
+        <v>47344.50644070296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>19013085</v>
+        <v>19963813</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1388402</v>
+        <v>1358479</v>
       </c>
       <c r="E5" t="n">
-        <v>4487884</v>
+        <v>4391161</v>
       </c>
       <c r="F5" t="n">
-        <v>4142.797639165027</v>
+        <v>4390.986598085237</v>
       </c>
       <c r="G5" t="n">
-        <v>4471.523637586212</v>
+        <v>4960.438646767512</v>
       </c>
       <c r="H5" t="n">
         <v>0.45</v>
       </c>
       <c r="I5" t="n">
-        <v>141450</v>
+        <v>126855</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>148007181</v>
+        <v>149214893</v>
       </c>
       <c r="E6" t="n">
-        <v>164015087</v>
+        <v>165353421</v>
       </c>
       <c r="F6" t="n">
-        <v>184994.9289170548</v>
+        <v>237521.0515261512</v>
       </c>
       <c r="G6" t="n">
-        <v>418490.7623181106</v>
+        <v>365994.7794321757</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>38004984</v>
+        <v>38362735</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3822.86</v>
+        <v>3825.47</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>42.33</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8416025</v>
+        <v>8493278</v>
       </c>
       <c r="E8" t="n">
-        <v>8628246</v>
+        <v>8707447</v>
       </c>
       <c r="F8" t="n">
-        <v>137.0682953435044</v>
+        <v>374.049927422387</v>
       </c>
       <c r="G8" t="n">
-        <v>4211.006627524372</v>
+        <v>1781.368279718793</v>
       </c>
       <c r="H8" t="n">
-        <v>1.57</v>
+        <v>0.76</v>
       </c>
       <c r="I8" t="n">
-        <v>87157</v>
+        <v>87410</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285516</v>
+        <v>285720</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7.09</v>
+        <v>6.84</v>
       </c>
       <c r="I9" t="n">
-        <v>435.92</v>
+        <v>435.62</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4954253</v>
+        <v>4968123</v>
       </c>
       <c r="E10" t="n">
-        <v>7915408</v>
+        <v>7937568</v>
       </c>
       <c r="F10" t="n">
-        <v>215.085909919495</v>
+        <v>226.2213128242569</v>
       </c>
       <c r="G10" t="n">
-        <v>427.552147508987</v>
+        <v>415.1314044992425</v>
       </c>
       <c r="H10" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I10" t="n">
-        <v>98733</v>
+        <v>98397</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002063</v>
+        <v>1002919</v>
       </c>
       <c r="E11" t="n">
-        <v>12262543</v>
+        <v>12273020</v>
       </c>
       <c r="F11" t="n">
-        <v>1568.801306966726</v>
+        <v>1568.977072091429</v>
       </c>
       <c r="G11" t="n">
-        <v>1363.346134576628</v>
+        <v>1341.576603785559</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>481.63</v>
+        <v>483.12</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>586838</v>
+        <v>576315</v>
       </c>
       <c r="E12" t="n">
-        <v>586838</v>
+        <v>576315</v>
       </c>
       <c r="F12" t="n">
-        <v>76.21469783425651</v>
+        <v>115.0009708139071</v>
       </c>
       <c r="G12" t="n">
-        <v>46.76936931527331</v>
+        <v>483.6394572458304</v>
       </c>
       <c r="H12" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="I12" t="n">
-        <v>24200</v>
+        <v>24399</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4559286</v>
+        <v>4576513</v>
       </c>
       <c r="E13" t="n">
-        <v>28004437</v>
+        <v>28107371</v>
       </c>
       <c r="F13" t="n">
-        <v>409.7547820707111</v>
+        <v>678.1779892714577</v>
       </c>
       <c r="G13" t="n">
-        <v>811.5274658711154</v>
+        <v>1150.016043164735</v>
       </c>
       <c r="H13" t="n">
-        <v>1.81</v>
+        <v>0.64</v>
       </c>
       <c r="I13" t="n">
-        <v>664459</v>
+        <v>672603</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198440</v>
+        <v>198018</v>
       </c>
       <c r="E14" t="n">
-        <v>2183061</v>
+        <v>2178411</v>
       </c>
       <c r="F14" t="n">
-        <v>8.207363820878397</v>
+        <v>8.207065660561677</v>
       </c>
       <c r="G14" t="n">
-        <v>1804.569652011784</v>
+        <v>1804.504091800459</v>
       </c>
       <c r="H14" t="n">
         <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>27644</v>
+        <v>27692</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3351071</v>
+        <v>3364676</v>
       </c>
       <c r="E15" t="n">
-        <v>9533500</v>
+        <v>9572207</v>
       </c>
       <c r="F15" t="n">
-        <v>1470.363166608636</v>
+        <v>596.6459563942956</v>
       </c>
       <c r="G15" t="n">
-        <v>337.0671882979493</v>
+        <v>541.4198517831155</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
       <c r="I15" t="n">
-        <v>106284</v>
+        <v>107151</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>315487</v>
+        <v>317230</v>
       </c>
       <c r="E16" t="n">
-        <v>3641094</v>
+        <v>3661213</v>
       </c>
       <c r="F16" t="n">
-        <v>143.0761948060926</v>
+        <v>133.2645034731439</v>
       </c>
       <c r="G16" t="n">
-        <v>130.5627661779061</v>
+        <v>131.5377898404185</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3399.08</v>
+        <v>3486.13</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>934966</v>
+        <v>943674</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13.69298741284415</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>29.3200699567382</v>
       </c>
       <c r="H17" t="n">
-        <v>4.65</v>
+        <v>3.79</v>
       </c>
       <c r="I17" t="n">
-        <v>11289.85</v>
+        <v>11692.78</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23205942</v>
+        <v>23193486</v>
       </c>
       <c r="E18" t="n">
-        <v>23249028</v>
+        <v>23236550</v>
       </c>
       <c r="F18" t="n">
-        <v>3306.561643601134</v>
+        <v>2034.099856892389</v>
       </c>
       <c r="G18" t="n">
-        <v>2103.122966575382</v>
+        <v>2124.596977273633</v>
       </c>
       <c r="H18" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="I18" t="n">
-        <v>842214</v>
+        <v>836096</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7080911</v>
+        <v>7239296</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.81</v>
+        <v>6.1</v>
       </c>
       <c r="I19" t="n">
-        <v>17731.38</v>
+        <v>19201.82</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2466601</v>
+        <v>2457819</v>
       </c>
       <c r="E20" t="n">
-        <v>2466601</v>
+        <v>2457819</v>
       </c>
       <c r="F20" t="n">
-        <v>212.2089127336181</v>
+        <v>279.0000982378756</v>
       </c>
       <c r="G20" t="n">
-        <v>1.428251324531521</v>
+        <v>1.42819960829052</v>
       </c>
       <c r="H20" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="I20" t="n">
-        <v>318540</v>
+        <v>316940</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>404151</v>
+        <v>404130</v>
       </c>
       <c r="F21" t="n">
-        <v>97.70900172563982</v>
+        <v>97.71156224239316</v>
       </c>
       <c r="G21" t="n">
-        <v>1.637387922026058</v>
+        <v>1.637328438358454</v>
       </c>
       <c r="H21" t="n">
         <v>1.47</v>
       </c>
       <c r="I21" t="n">
-        <v>1753.32</v>
+        <v>1752.22</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17269943</v>
+        <v>17271127</v>
       </c>
       <c r="E22" t="n">
-        <v>22227834</v>
+        <v>22229358</v>
       </c>
       <c r="F22" t="n">
-        <v>4571.125104426422</v>
+        <v>4957.565922283705</v>
       </c>
       <c r="G22" t="n">
-        <v>12596.31955321657</v>
+        <v>11839.15030710397</v>
       </c>
       <c r="H22" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="I22" t="n">
-        <v>1554720</v>
+        <v>1530962</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>477067537</v>
+        <v>485560161</v>
       </c>
       <c r="E23" t="n">
-        <v>477067542</v>
+        <v>485560167</v>
       </c>
       <c r="F23" t="n">
-        <v>48528.69454831968</v>
+        <v>55546.66205730778</v>
       </c>
       <c r="G23" t="n">
-        <v>89535.53502914285</v>
+        <v>81314.67891166404</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="I23" t="n">
-        <v>65342334</v>
+        <v>65132681</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23522</v>
+        <v>23538</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.64</v>
+        <v>7.52</v>
       </c>
       <c r="I24" t="n">
-        <v>2469.2</v>
+        <v>2451.12</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4755173</v>
+        <v>4752823</v>
       </c>
       <c r="E25" t="n">
-        <v>4755173</v>
+        <v>4752823</v>
       </c>
       <c r="F25" t="n">
-        <v>75.8602873526403</v>
+        <v>92.46953524029358</v>
       </c>
       <c r="G25" t="n">
-        <v>1480.29697587316</v>
+        <v>1529.466151514572</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="I25" t="n">
-        <v>1877755</v>
+        <v>1999883</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3415677</v>
+        <v>3414897</v>
       </c>
       <c r="E26" t="n">
-        <v>3415677</v>
+        <v>3414897</v>
       </c>
       <c r="F26" t="n">
-        <v>1033.384790225594</v>
+        <v>1011.070897548711</v>
       </c>
       <c r="G26" t="n">
-        <v>374.6209437573045</v>
+        <v>211.2461413387826</v>
       </c>
       <c r="H26" t="n">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="I26" t="n">
-        <v>512421</v>
+        <v>511526</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>312885</v>
+        <v>315659</v>
       </c>
       <c r="E27" t="n">
-        <v>1460581</v>
+        <v>1473527</v>
       </c>
       <c r="F27" t="n">
-        <v>134.61571798445</v>
+        <v>2324.578223470443</v>
       </c>
       <c r="G27" t="n">
-        <v>703.6781759824676</v>
+        <v>674.081336972692</v>
       </c>
       <c r="H27" t="n">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
       <c r="I27" t="n">
-        <v>709365</v>
+        <v>702880</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1490548</v>
+        <v>1465967</v>
       </c>
       <c r="F28" t="n">
-        <v>336.2033894253814</v>
+        <v>289.9366374576654</v>
       </c>
       <c r="G28" t="n">
-        <v>317.8379741684231</v>
+        <v>355.0300198636492</v>
       </c>
       <c r="H28" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="I28" t="n">
-        <v>294137</v>
+        <v>320517</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12774097</v>
+        <v>12777131</v>
       </c>
       <c r="E29" t="n">
-        <v>31792417</v>
+        <v>31799968</v>
       </c>
       <c r="F29" t="n">
-        <v>757.7852826490093</v>
+        <v>846.4098758363554</v>
       </c>
       <c r="G29" t="n">
-        <v>1055.717157195718</v>
+        <v>1269.555944553783</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1235931</v>
+        <v>1246867</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897319</v>
+        <v>906703</v>
       </c>
       <c r="E30" t="n">
-        <v>6281234</v>
+        <v>6346925</v>
       </c>
       <c r="F30" t="n">
-        <v>7.664304984708132</v>
+        <v>631.1906880432998</v>
       </c>
       <c r="G30" t="n">
-        <v>48.47348381406367</v>
+        <v>139.5766379595773</v>
       </c>
       <c r="H30" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="I30" t="n">
-        <v>226477</v>
+        <v>244396</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>190212</v>
+        <v>189749</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>994.24</v>
+        <v>807.33</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5644606</v>
+        <v>5720118</v>
       </c>
       <c r="E32" t="n">
-        <v>5914644</v>
+        <v>5993768</v>
       </c>
       <c r="F32" t="n">
-        <v>320.6138545299139</v>
+        <v>29.92447400233065</v>
       </c>
       <c r="G32" t="n">
-        <v>172.9160290228406</v>
+        <v>314.3398225386284</v>
       </c>
       <c r="H32" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="I32" t="n">
-        <v>150744</v>
+        <v>153985</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5408048</v>
+        <v>5402488</v>
       </c>
       <c r="E33" t="n">
-        <v>7960940</v>
+        <v>7952756</v>
       </c>
       <c r="F33" t="n">
-        <v>46.08948520144109</v>
+        <v>43.44472557055776</v>
       </c>
       <c r="G33" t="n">
-        <v>258.1356101789897</v>
+        <v>103.7277554398681</v>
       </c>
       <c r="H33" t="n">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>667771</v>
+        <v>659213</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7595687</v>
+        <v>7569353</v>
       </c>
       <c r="E34" t="n">
-        <v>7595687</v>
+        <v>7569353</v>
       </c>
       <c r="F34" t="n">
-        <v>5105.821524974172</v>
+        <v>1678.469633699686</v>
       </c>
       <c r="G34" t="n">
-        <v>29815.54758097174</v>
+        <v>26257.60694267382</v>
       </c>
       <c r="H34" t="n">
         <v>0.08</v>
       </c>
       <c r="I34" t="n">
-        <v>343879</v>
+        <v>316621</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1450060</v>
+        <v>1456236</v>
       </c>
       <c r="E35" t="n">
-        <v>1450060</v>
+        <v>1456236</v>
       </c>
       <c r="F35" t="n">
-        <v>463.2418430483056</v>
+        <v>502.6480644487921</v>
       </c>
       <c r="G35" t="n">
-        <v>204.0678504959031</v>
+        <v>196.5427923510764</v>
       </c>
       <c r="H35" t="n">
-        <v>1.94</v>
+        <v>2.39</v>
       </c>
       <c r="I35" t="n">
-        <v>277282</v>
+        <v>278065</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15772619</v>
+        <v>15803526</v>
       </c>
       <c r="F36" t="n">
-        <v>168.0337173796931</v>
+        <v>169.0589695822953</v>
       </c>
       <c r="G36" t="n">
-        <v>209.1472898052859</v>
+        <v>196.0071614812793</v>
       </c>
       <c r="H36" t="n">
         <v>0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>10246.65</v>
+        <v>10252.18</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58254</v>
+        <v>58251</v>
       </c>
       <c r="F37" t="n">
-        <v>1.302848037890801</v>
+        <v>1.3028007075187</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005461206123727075</v>
+        <v>0.005461007726899171</v>
       </c>
       <c r="H37" t="n">
         <v>2.33</v>
       </c>
       <c r="I37" t="n">
-        <v>603.22</v>
+        <v>602.84</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>141237115</v>
+        <v>143147077</v>
       </c>
       <c r="E38" t="n">
-        <v>141237115</v>
+        <v>143147077</v>
       </c>
       <c r="F38" t="n">
-        <v>255406.4290636232</v>
+        <v>288970.5216429688</v>
       </c>
       <c r="G38" t="n">
-        <v>742545.4589314023</v>
+        <v>538520.1436440576</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>68952078</v>
+        <v>70319634</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>67768648</v>
+        <v>68427863</v>
       </c>
       <c r="E39" t="n">
-        <v>347531526</v>
+        <v>350912116</v>
       </c>
       <c r="F39" t="n">
-        <v>85162.56962453754</v>
+        <v>73670.75844342135</v>
       </c>
       <c r="G39" t="n">
-        <v>111709.7540437172</v>
+        <v>168485.2638671302</v>
       </c>
       <c r="H39" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>24299761</v>
+        <v>24760749</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46410</v>
+        <v>46442</v>
       </c>
       <c r="E40" t="n">
-        <v>137151</v>
+        <v>137245</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.949999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="I40" t="n">
-        <v>157.66</v>
+        <v>118.24</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54360</v>
+        <v>54638</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.03</v>
       </c>
       <c r="I41" t="n">
-        <v>26332</v>
+        <v>26626</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>594843</v>
+        <v>595255</v>
       </c>
       <c r="F42" t="n">
-        <v>40.42774258801934</v>
+        <v>40.42631120138469</v>
       </c>
       <c r="G42" t="n">
-        <v>410.1909819067513</v>
+        <v>410.1764586647503</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1524.15</v>
+        <v>1523.85</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2706968</v>
+        <v>2698649</v>
       </c>
       <c r="E44" t="n">
-        <v>10878689</v>
+        <v>10845254</v>
       </c>
       <c r="F44" t="n">
-        <v>30.02233052160344</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>163.0068805577272</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.82</v>
+        <v>5.22</v>
       </c>
       <c r="I44" t="n">
-        <v>34139</v>
+        <v>34224</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17625617</v>
+        <v>17687478</v>
       </c>
       <c r="E45" t="n">
-        <v>124204112</v>
+        <v>124553487</v>
       </c>
       <c r="F45" t="n">
-        <v>303.54270297497</v>
+        <v>303.2629825651402</v>
       </c>
       <c r="G45" t="n">
-        <v>259.0395120119722</v>
+        <v>259.223693034236</v>
       </c>
       <c r="H45" t="n">
         <v>0.64</v>
       </c>
       <c r="I45" t="n">
-        <v>1060838</v>
+        <v>1075683</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>148694</v>
+        <v>148544</v>
       </c>
       <c r="E46" t="n">
-        <v>1989612</v>
+        <v>1987601</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>43179</v>
+        <v>43368</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>260704132</v>
+        <v>264115624</v>
       </c>
       <c r="E47" t="n">
-        <v>260704132</v>
+        <v>264115624</v>
       </c>
       <c r="F47" t="n">
-        <v>130810.6617460847</v>
+        <v>121561.5859823302</v>
       </c>
       <c r="G47" t="n">
-        <v>172461.1625722228</v>
+        <v>175542.858265451</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>14780532</v>
+        <v>18335728</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>642681</v>
+        <v>642859</v>
       </c>
       <c r="E48" t="n">
-        <v>642681</v>
+        <v>642859</v>
       </c>
       <c r="F48" t="n">
-        <v>535.3228522750539</v>
+        <v>463.3417201536986</v>
       </c>
       <c r="G48" t="n">
-        <v>70.48330524904028</v>
+        <v>125.2363510676792</v>
       </c>
       <c r="H48" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="I48" t="n">
-        <v>2875.87</v>
+        <v>2744.75</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>445607709</v>
+        <v>442926236</v>
       </c>
       <c r="E50" t="n">
-        <v>445607709</v>
+        <v>442926236</v>
       </c>
       <c r="F50" t="n">
-        <v>3228.457229447371</v>
+        <v>3072.20437589211</v>
       </c>
       <c r="G50" t="n">
-        <v>2945.87927225929</v>
+        <v>2145.187509257116</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>2530147</v>
+        <v>2521410</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2389135</v>
+        <v>2490476</v>
       </c>
       <c r="E51" t="n">
-        <v>2389135</v>
+        <v>2490476</v>
       </c>
       <c r="F51" t="n">
-        <v>225.4678775974151</v>
+        <v>225.4434277793822</v>
       </c>
       <c r="G51" t="n">
-        <v>1405.307832977172</v>
+        <v>1405.258076579191</v>
       </c>
       <c r="H51" t="n">
         <v>1.72</v>
       </c>
       <c r="I51" t="n">
-        <v>54603</v>
+        <v>54435</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23406</v>
+        <v>23425</v>
       </c>
       <c r="E52" t="n">
-        <v>46812</v>
+        <v>46851</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.69</v>
+        <v>7.11</v>
       </c>
       <c r="I52" t="n">
-        <v>1796.73</v>
+        <v>1794.71</v>
       </c>
     </row>
     <row r="53">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>163877</v>
+        <v>158798</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>5.3</v>
+        <v>6.82</v>
       </c>
       <c r="I53" t="n">
-        <v>23207</v>
+        <v>22749</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2556597</v>
+        <v>2557389</v>
       </c>
       <c r="E54" t="n">
-        <v>6536161</v>
+        <v>6538187</v>
       </c>
       <c r="F54" t="n">
-        <v>212.8708209582919</v>
+        <v>149.3084875905195</v>
       </c>
       <c r="G54" t="n">
-        <v>106.597908167247</v>
+        <v>127.9554434853597</v>
       </c>
       <c r="H54" t="n">
         <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>110235</v>
+        <v>108886</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3514.1</v>
+        <v>3429.8</v>
       </c>
       <c r="F55" t="n">
-        <v>171.2581316712456</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2.898354470264447</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.05</v>
+        <v>5.9</v>
       </c>
       <c r="I55" t="n">
-        <v>202.12</v>
+        <v>525.58</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74277357</v>
+        <v>74963506</v>
       </c>
       <c r="E56" t="n">
-        <v>74277357</v>
+        <v>74963506</v>
       </c>
       <c r="F56" t="n">
-        <v>10096.96545288251</v>
+        <v>11704.42330761924</v>
       </c>
       <c r="G56" t="n">
-        <v>17681.46963603694</v>
+        <v>24250.54264928753</v>
       </c>
       <c r="H56" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I56" t="n">
-        <v>3292851</v>
+        <v>3330572</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3465774</v>
+        <v>3462916</v>
       </c>
       <c r="E57" t="n">
-        <v>4391741</v>
+        <v>4388120</v>
       </c>
       <c r="F57" t="n">
-        <v>611.4369629843427</v>
+        <v>625.2656724924299</v>
       </c>
       <c r="G57" t="n">
-        <v>598.2526322854247</v>
+        <v>311.9275071909219</v>
       </c>
       <c r="H57" t="n">
         <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>249297</v>
+        <v>246128</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4129094</v>
+        <v>4127721</v>
       </c>
       <c r="E58" t="n">
-        <v>8142921</v>
+        <v>8140213</v>
       </c>
       <c r="F58" t="n">
-        <v>2275.297443854298</v>
+        <v>2187.071391970375</v>
       </c>
       <c r="G58" t="n">
-        <v>18686.76594742066</v>
+        <v>17929.871989328</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I58" t="n">
-        <v>1645592</v>
+        <v>1569897</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1628302</v>
+        <v>1632559</v>
       </c>
       <c r="E59" t="n">
-        <v>9349101</v>
+        <v>9373543</v>
       </c>
       <c r="F59" t="n">
-        <v>226.5058909043224</v>
+        <v>198.0150461754863</v>
       </c>
       <c r="G59" t="n">
-        <v>638.7294701162755</v>
+        <v>519.1792569273983</v>
       </c>
       <c r="H59" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="I59" t="n">
-        <v>281910</v>
+        <v>288164</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>547728</v>
+        <v>546390</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>8.77</v>
+        <v>10.53</v>
       </c>
       <c r="I60" t="n">
-        <v>1710.48</v>
+        <v>1756.74</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31195010</v>
+        <v>31196883</v>
       </c>
       <c r="F61" t="n">
-        <v>508.6442541067541</v>
+        <v>428.1373810509547</v>
       </c>
       <c r="G61" t="n">
-        <v>2301.969027653453</v>
+        <v>2004.772656220615</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I61" t="n">
-        <v>243555</v>
+        <v>245202</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1437291</v>
+        <v>1440841</v>
       </c>
       <c r="F62" t="n">
-        <v>13.31561089254182</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>10.00220261640138</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.42</v>
+        <v>3.97</v>
       </c>
       <c r="I62" t="n">
-        <v>28464</v>
+        <v>28496</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7691354</v>
+        <v>7697789</v>
       </c>
       <c r="E63" t="n">
-        <v>18114669</v>
+        <v>18129824</v>
       </c>
       <c r="F63" t="n">
-        <v>1259.814121821564</v>
+        <v>599.1452854373111</v>
       </c>
       <c r="G63" t="n">
-        <v>1617.468141452865</v>
+        <v>2215.545412037394</v>
       </c>
       <c r="H63" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="I63" t="n">
-        <v>31558</v>
+        <v>33081</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3034375</v>
+        <v>3096241</v>
       </c>
       <c r="E64" t="n">
-        <v>3034375</v>
+        <v>3096241</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.33</v>
+        <v>5.25</v>
       </c>
       <c r="I64" t="n">
-        <v>19763.08</v>
+        <v>20055</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3363912</v>
+        <v>3371534</v>
       </c>
       <c r="E65" t="n">
-        <v>8300282</v>
+        <v>8319088</v>
       </c>
       <c r="F65" t="n">
-        <v>622.6452138601138</v>
+        <v>635.8341477756788</v>
       </c>
       <c r="G65" t="n">
-        <v>1032.868134720679</v>
+        <v>1084.013911986906</v>
       </c>
       <c r="H65" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="I65" t="n">
-        <v>38150</v>
+        <v>37560</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>265769</v>
+        <v>265816</v>
       </c>
       <c r="F66" t="n">
-        <v>87.57934236003369</v>
+        <v>16.96248872691085</v>
       </c>
       <c r="G66" t="n">
-        <v>41.18760580608661</v>
+        <v>27.2507126495006</v>
       </c>
       <c r="H66" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="I66" t="n">
-        <v>1588.74</v>
+        <v>1669.95</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>78324790</v>
+        <v>79258660</v>
       </c>
       <c r="E67" t="n">
-        <v>163346963</v>
+        <v>165294554</v>
       </c>
       <c r="F67" t="n">
-        <v>62375.81717761026</v>
+        <v>55549.505901106</v>
       </c>
       <c r="G67" t="n">
-        <v>105496.330421383</v>
+        <v>102602.7302800291</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I67" t="n">
-        <v>18522508</v>
+        <v>19182286</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1870699</v>
+        <v>1871977</v>
       </c>
       <c r="F68" t="n">
-        <v>20.30322232745299</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>8.001767014207944</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.02</v>
+        <v>4.59</v>
       </c>
       <c r="I68" t="n">
-        <v>4262.1</v>
+        <v>4025.8</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>198860380</v>
+        <v>199991689</v>
       </c>
       <c r="F69" t="n">
-        <v>4445.319331486737</v>
+        <v>2475.102993693009</v>
       </c>
       <c r="G69" t="n">
-        <v>4115.277793624727</v>
+        <v>5271.356193953719</v>
       </c>
       <c r="H69" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="I69" t="n">
-        <v>3359364</v>
+        <v>3296467</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179920</v>
+        <v>180041</v>
       </c>
       <c r="E70" t="n">
-        <v>187887</v>
+        <v>188015</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>6.7</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>291.78</v>
+        <v>291.89</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>144940574</v>
+        <v>145394828</v>
       </c>
       <c r="E71" t="n">
-        <v>144989308</v>
+        <v>145443715</v>
       </c>
       <c r="F71" t="n">
-        <v>35907.11608571841</v>
+        <v>30850.87883722497</v>
       </c>
       <c r="G71" t="n">
-        <v>50700.9392053574</v>
+        <v>53174.44868695134</v>
       </c>
       <c r="H71" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="I71" t="n">
-        <v>2611341</v>
+        <v>2593940</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26177395</v>
+        <v>26169254</v>
       </c>
       <c r="E72" t="n">
-        <v>85909205</v>
+        <v>85882489</v>
       </c>
       <c r="F72" t="n">
-        <v>7522.395418555472</v>
+        <v>9603.282009929599</v>
       </c>
       <c r="G72" t="n">
-        <v>31324.25947151091</v>
+        <v>35172.88997011558</v>
       </c>
       <c r="H72" t="n">
         <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>105667</v>
+        <v>104153</v>
       </c>
     </row>
     <row r="73">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>116677</v>
+        <v>120139</v>
       </c>
       <c r="E73" t="n">
-        <v>116677</v>
+        <v>120139</v>
       </c>
       <c r="F73" t="n">
-        <v>555.6754740925322</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.469603666370734</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.11</v>
+        <v>5.15</v>
       </c>
       <c r="I73" t="n">
-        <v>426.86</v>
+        <v>1383.87</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>208697473</v>
+        <v>209794835</v>
       </c>
       <c r="E74" t="n">
-        <v>725033883</v>
+        <v>728846218</v>
       </c>
       <c r="F74" t="n">
-        <v>131378.532638372</v>
+        <v>89767.62600944896</v>
       </c>
       <c r="G74" t="n">
-        <v>192680.7601819064</v>
+        <v>212207.961378694</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I74" t="n">
-        <v>29159420</v>
+        <v>29703389</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3552472</v>
+        <v>3415009</v>
       </c>
       <c r="E75" t="n">
-        <v>3552472</v>
+        <v>3415009</v>
       </c>
       <c r="F75" t="n">
-        <v>754.2139049095404</v>
+        <v>617.3792610821303</v>
       </c>
       <c r="G75" t="n">
-        <v>792.6856123713444</v>
+        <v>865.5144730086033</v>
       </c>
       <c r="H75" t="n">
-        <v>0.17</v>
+        <v>1.08</v>
       </c>
       <c r="I75" t="n">
-        <v>2528435</v>
+        <v>2505971</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>116597023</v>
+        <v>118415538</v>
       </c>
       <c r="E76" t="n">
-        <v>495257296</v>
+        <v>502946594</v>
       </c>
       <c r="F76" t="n">
-        <v>227955.9159646994</v>
+        <v>167579.5668672902</v>
       </c>
       <c r="G76" t="n">
-        <v>249830.3498589322</v>
+        <v>242531.1867997904</v>
       </c>
       <c r="H76" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="I76" t="n">
-        <v>15609634</v>
+        <v>15827646</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1855953</v>
+        <v>1856052</v>
       </c>
       <c r="F77" t="n">
-        <v>36.23075757130971</v>
+        <v>36.22944136620558</v>
       </c>
       <c r="G77" t="n">
-        <v>88.31680273036493</v>
+        <v>88.3135943230799</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>615.5</v>
+        <v>615.77</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3150651</v>
+        <v>3185507</v>
       </c>
       <c r="E78" t="n">
-        <v>15796729</v>
+        <v>15971490</v>
       </c>
       <c r="F78" t="n">
-        <v>269.0290148635926</v>
+        <v>269.4793134087186</v>
       </c>
       <c r="G78" t="n">
-        <v>185.9493584726804</v>
+        <v>166.022729129893</v>
       </c>
       <c r="H78" t="n">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="I78" t="n">
-        <v>32539</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>508151</v>
+        <v>508974</v>
       </c>
       <c r="E79" t="n">
-        <v>8691880</v>
+        <v>8705962</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0002907642161478866</v>
+        <v>0.0002907539213358049</v>
       </c>
       <c r="G79" t="n">
-        <v>868.5792246228883</v>
+        <v>610.5951653177457</v>
       </c>
       <c r="H79" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="I79" t="n">
-        <v>162257</v>
+        <v>163154</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5776994</v>
+        <v>5774855</v>
       </c>
       <c r="E80" t="n">
-        <v>7848371</v>
+        <v>7845465</v>
       </c>
       <c r="F80" t="n">
-        <v>177.7988141005474</v>
+        <v>451.185325359898</v>
       </c>
       <c r="G80" t="n">
-        <v>848.5458566935873</v>
+        <v>715.7891156022959</v>
       </c>
       <c r="H80" t="n">
-        <v>0.68</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>5617114</v>
+        <v>5598647</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43111</v>
+        <v>43137</v>
       </c>
       <c r="F81" t="n">
-        <v>127.0977934282978</v>
+        <v>229.8761910542271</v>
       </c>
       <c r="G81" t="n">
-        <v>2.000349283129616</v>
+        <v>2.00027661366</v>
       </c>
       <c r="H81" t="n">
         <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>43347</v>
+        <v>42589</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40344018</v>
+        <v>40551529</v>
       </c>
       <c r="E82" t="n">
-        <v>47120855</v>
+        <v>47363223</v>
       </c>
       <c r="F82" t="n">
-        <v>247.9751297500154</v>
+        <v>190.9646514652594</v>
       </c>
       <c r="G82" t="n">
-        <v>79.63882487296723</v>
+        <v>86.92521498639023</v>
       </c>
       <c r="H82" t="n">
-        <v>2.37</v>
+        <v>2.54</v>
       </c>
       <c r="I82" t="n">
-        <v>899819</v>
+        <v>893637</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>15016103</v>
+        <v>15038911</v>
       </c>
       <c r="F83" t="n">
-        <v>311.6726324342377</v>
+        <v>420.8994606880424</v>
       </c>
       <c r="G83" t="n">
-        <v>490.5081665275002</v>
+        <v>672.3498228922921</v>
       </c>
       <c r="H83" t="n">
-        <v>1.2</v>
+        <v>1.77</v>
       </c>
       <c r="I83" t="n">
-        <v>267657</v>
+        <v>279985</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36401393</v>
+        <v>36397102</v>
       </c>
       <c r="E84" t="n">
-        <v>36401393</v>
+        <v>36397102</v>
       </c>
       <c r="F84" t="n">
-        <v>21.49470154920723</v>
+        <v>128.945803387768</v>
       </c>
       <c r="G84" t="n">
-        <v>227.0622526884886</v>
+        <v>125.965865355905</v>
       </c>
       <c r="H84" t="n">
-        <v>3.11</v>
+        <v>1.62</v>
       </c>
       <c r="I84" t="n">
-        <v>777844</v>
+        <v>786171</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>570049</v>
+        <v>572624</v>
       </c>
       <c r="E85" t="n">
-        <v>6914139</v>
+        <v>6945375</v>
       </c>
       <c r="F85" t="n">
-        <v>772.7267410948521</v>
+        <v>667.7912102855448</v>
       </c>
       <c r="G85" t="n">
-        <v>436.1611531968534</v>
+        <v>519.8630160623659</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="I85" t="n">
-        <v>2811354</v>
+        <v>2809626</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26134088</v>
+        <v>26180717</v>
       </c>
       <c r="E86" t="n">
-        <v>36939513</v>
+        <v>37005421</v>
       </c>
       <c r="F86" t="n">
-        <v>40.5657710720234</v>
+        <v>375.8840070091597</v>
       </c>
       <c r="G86" t="n">
-        <v>167.3505598723118</v>
+        <v>788.3869031199044</v>
       </c>
       <c r="H86" t="n">
-        <v>2.7</v>
+        <v>0.23</v>
       </c>
       <c r="I86" t="n">
-        <v>58759</v>
+        <v>73408</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1300347966</v>
+        <v>1324096556</v>
       </c>
       <c r="E87" t="n">
-        <v>6235434803</v>
+        <v>6349314155</v>
       </c>
       <c r="F87" t="n">
-        <v>634009.1840279569</v>
+        <v>656415.6237006725</v>
       </c>
       <c r="G87" t="n">
-        <v>935861.2721615765</v>
+        <v>909685.5153390686</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>166030652</v>
+        <v>169724476</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>271729384</v>
+        <v>275861406</v>
       </c>
       <c r="E88" t="n">
-        <v>1172934869</v>
+        <v>1190770968</v>
       </c>
       <c r="F88" t="n">
-        <v>862248.6706660888</v>
+        <v>1179743.175763063</v>
       </c>
       <c r="G88" t="n">
-        <v>1148354.255318258</v>
+        <v>923002.7348226483</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>100816198</v>
+        <v>102343176</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115439393</v>
+        <v>115421809</v>
       </c>
       <c r="E89" t="n">
-        <v>115439393</v>
+        <v>115421809</v>
       </c>
       <c r="F89" t="n">
-        <v>34673.21780097708</v>
+        <v>30347.96961568369</v>
       </c>
       <c r="G89" t="n">
-        <v>32539.13568297039</v>
+        <v>35369.4921200171</v>
       </c>
       <c r="H89" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="I89" t="n">
-        <v>6137909</v>
+        <v>6157282</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3854392</v>
+        <v>3861124</v>
       </c>
       <c r="E90" t="n">
-        <v>29994413</v>
+        <v>30046797</v>
       </c>
       <c r="F90" t="n">
-        <v>11576.37034389815</v>
+        <v>12658.70936361736</v>
       </c>
       <c r="G90" t="n">
-        <v>12881.74338939445</v>
+        <v>12987.22378662081</v>
       </c>
       <c r="H90" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>6800.43</v>
+        <v>6910.43</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3821928</v>
+        <v>3823297</v>
       </c>
       <c r="F91" t="n">
-        <v>343.0514971304761</v>
+        <v>449.1851846996938</v>
       </c>
       <c r="G91" t="n">
-        <v>666.1699801050826</v>
+        <v>773.4377683330935</v>
       </c>
       <c r="H91" t="n">
-        <v>0.82</v>
+        <v>1.94</v>
       </c>
       <c r="I91" t="n">
-        <v>298456</v>
+        <v>293646</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>854319</v>
+        <v>851823</v>
       </c>
       <c r="F92" t="n">
-        <v>41.18685837101334</v>
+        <v>30.65755295834932</v>
       </c>
       <c r="G92" t="n">
-        <v>32.31745955772428</v>
+        <v>476.9619471720064</v>
       </c>
       <c r="H92" t="n">
-        <v>3.11</v>
+        <v>3.51</v>
       </c>
       <c r="I92" t="n">
-        <v>16726.08</v>
+        <v>16880.03</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>125034</v>
+        <v>117594</v>
       </c>
       <c r="F93" t="n">
-        <v>16.88228308277613</v>
+        <v>825.8853338909704</v>
       </c>
       <c r="G93" t="n">
-        <v>3.02065416051729</v>
+        <v>7.701175287949484</v>
       </c>
       <c r="H93" t="n">
-        <v>3.68</v>
+        <v>2.14</v>
       </c>
       <c r="I93" t="n">
-        <v>143524</v>
+        <v>144802</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11344035</v>
+        <v>11564849</v>
       </c>
       <c r="E94" t="n">
-        <v>136943862</v>
+        <v>139601043</v>
       </c>
       <c r="F94" t="n">
-        <v>848.8858919914012</v>
+        <v>2532.33555426282</v>
       </c>
       <c r="G94" t="n">
-        <v>927.6235454379599</v>
+        <v>1689.25914803704</v>
       </c>
       <c r="H94" t="n">
-        <v>0.92</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>377055</v>
+        <v>364864</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19324164</v>
+        <v>19468260</v>
       </c>
       <c r="E95" t="n">
-        <v>48310410</v>
+        <v>48670650</v>
       </c>
       <c r="F95" t="n">
-        <v>7724.482420895127</v>
+        <v>8036.65506944239</v>
       </c>
       <c r="G95" t="n">
-        <v>14282.74653735526</v>
+        <v>16176.03458982209</v>
       </c>
       <c r="H95" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="I95" t="n">
-        <v>2050992</v>
+        <v>2066750</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2237422</v>
+        <v>2362490</v>
       </c>
       <c r="F96" t="n">
-        <v>199.0456318238694</v>
+        <v>142.3151124199304</v>
       </c>
       <c r="G96" t="n">
-        <v>123.2208136857113</v>
+        <v>82.64051290597064</v>
       </c>
       <c r="H96" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="I96" t="n">
-        <v>57116</v>
+        <v>59513</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19761084</v>
+        <v>19817055</v>
       </c>
       <c r="F97" t="n">
-        <v>6973.641925403161</v>
+        <v>6976.729463880541</v>
       </c>
       <c r="G97" t="n">
-        <v>5160.120976170578</v>
+        <v>5170.461739486647</v>
       </c>
       <c r="H97" t="n">
         <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>52309</v>
+        <v>41513</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4288918</v>
+        <v>4273183</v>
       </c>
       <c r="E98" t="n">
-        <v>12354124</v>
+        <v>12308798</v>
       </c>
       <c r="F98" t="n">
-        <v>77.72136859700649</v>
+        <v>895.8147856738427</v>
       </c>
       <c r="G98" t="n">
-        <v>287.1047199371894</v>
+        <v>997.9777252183324</v>
       </c>
       <c r="H98" t="n">
-        <v>1.91</v>
+        <v>0.4</v>
       </c>
       <c r="I98" t="n">
-        <v>613195</v>
+        <v>601967</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1550380</v>
+        <v>1546097</v>
       </c>
       <c r="F99" t="n">
-        <v>158.5128940473482</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>41.74674489362855</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>3.72</v>
+        <v>4.23</v>
       </c>
       <c r="I99" t="n">
-        <v>251014</v>
+        <v>249690</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80532949</v>
+        <v>80700405</v>
       </c>
       <c r="E100" t="n">
-        <v>102484437</v>
+        <v>102697537</v>
       </c>
       <c r="F100" t="n">
-        <v>5765.631925577077</v>
+        <v>4772.205361597705</v>
       </c>
       <c r="G100" t="n">
-        <v>11828.57115446243</v>
+        <v>5510.786656570175</v>
       </c>
       <c r="H100" t="n">
-        <v>0.48</v>
+        <v>1.37</v>
       </c>
       <c r="I100" t="n">
-        <v>6244419</v>
+        <v>6249180</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23022514</v>
+        <v>23067600</v>
       </c>
       <c r="E101" t="n">
-        <v>29865467</v>
+        <v>29923954</v>
       </c>
       <c r="F101" t="n">
-        <v>5863.79860058123</v>
+        <v>4839.708659369541</v>
       </c>
       <c r="G101" t="n">
-        <v>6981.880455107118</v>
+        <v>7009.040354484857</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>163212</v>
+        <v>163938</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1638426</v>
+        <v>1626974</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>4.27</v>
+        <v>8.98</v>
       </c>
       <c r="I102" t="n">
-        <v>12831.38</v>
+        <v>12844.68</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>661446</v>
+        <v>670676</v>
       </c>
       <c r="E103" t="n">
-        <v>661446</v>
+        <v>670676</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>7.14</v>
+        <v>6.56</v>
       </c>
       <c r="I103" t="n">
-        <v>79316</v>
+        <v>78905</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40634736</v>
+        <v>40732149</v>
       </c>
       <c r="E104" t="n">
-        <v>42477829</v>
+        <v>42579661</v>
       </c>
       <c r="F104" t="n">
-        <v>1273.167078762092</v>
+        <v>642.9185298120668</v>
       </c>
       <c r="G104" t="n">
-        <v>280.9155420387158</v>
+        <v>576.7558323183937</v>
       </c>
       <c r="H104" t="n">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="I104" t="n">
-        <v>655788</v>
+        <v>654389</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13880047</v>
+        <v>13896162</v>
       </c>
       <c r="E105" t="n">
-        <v>13880047</v>
+        <v>13896162</v>
       </c>
       <c r="F105" t="n">
-        <v>1877.509276536292</v>
+        <v>3747.095519787692</v>
       </c>
       <c r="G105" t="n">
-        <v>2268.169126834137</v>
+        <v>2418.653811461572</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I105" t="n">
-        <v>4883459</v>
+        <v>4893543</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1133803</v>
+        <v>1130911</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.44</v>
+        <v>6.97</v>
       </c>
       <c r="I106" t="n">
-        <v>6619.13</v>
+        <v>6836.1</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51779460</v>
+        <v>51970625</v>
       </c>
       <c r="E107" t="n">
-        <v>131911133</v>
+        <v>132398137</v>
       </c>
       <c r="F107" t="n">
-        <v>2655.07113131048</v>
+        <v>2874.320065708005</v>
       </c>
       <c r="G107" t="n">
-        <v>5216.784556692027</v>
+        <v>4442.312708368723</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2429762</v>
+        <v>2429687</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>14899706</v>
+        <v>15261488</v>
       </c>
       <c r="E108" t="n">
-        <v>72161652</v>
+        <v>73913824</v>
       </c>
       <c r="F108" t="n">
-        <v>9146.652661631764</v>
+        <v>9151.096021697102</v>
       </c>
       <c r="G108" t="n">
-        <v>9211.608086231807</v>
+        <v>11487.68815389818</v>
       </c>
       <c r="H108" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>3926990</v>
+        <v>3967798</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>503095</v>
+        <v>504912</v>
       </c>
       <c r="F109" t="n">
-        <v>217.3946382842959</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>10.00212260112977</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1.54</v>
+        <v>6.65</v>
       </c>
       <c r="I109" t="n">
-        <v>6503.66</v>
+        <v>7429.44</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4651519</v>
+        <v>4646810</v>
       </c>
       <c r="E110" t="n">
-        <v>10602933</v>
+        <v>10592199</v>
       </c>
       <c r="F110" t="n">
-        <v>1400.241042727582</v>
+        <v>750.4907730389061</v>
       </c>
       <c r="G110" t="n">
-        <v>1620.642398126957</v>
+        <v>2201.793527545829</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I110" t="n">
-        <v>87172</v>
+        <v>86696</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1924639047</v>
+        <v>1931807915</v>
       </c>
       <c r="F111" t="n">
-        <v>91635.23760031325</v>
+        <v>82727.0714905144</v>
       </c>
       <c r="G111" t="n">
-        <v>42271.33027306957</v>
+        <v>48391.70349210453</v>
       </c>
       <c r="H111" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I111" t="n">
-        <v>27661460</v>
+        <v>27808997</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9602458</v>
+        <v>9627924</v>
       </c>
       <c r="E112" t="n">
-        <v>34947307</v>
+        <v>35039838</v>
       </c>
       <c r="F112" t="n">
-        <v>206.047382181404</v>
+        <v>406.3997804830878</v>
       </c>
       <c r="G112" t="n">
-        <v>344.2500446532858</v>
+        <v>2202.21032275148</v>
       </c>
       <c r="H112" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="I112" t="n">
-        <v>116820</v>
+        <v>106911</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>568714</v>
+        <v>564410</v>
       </c>
       <c r="F113" t="n">
-        <v>109.3936429736514</v>
+        <v>109.2617909211996</v>
       </c>
       <c r="G113" t="n">
-        <v>70.72788051422003</v>
+        <v>70.69619094058912</v>
       </c>
       <c r="H113" t="n">
         <v>2.85</v>
       </c>
       <c r="I113" t="n">
-        <v>893.45</v>
+        <v>891.98</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12222554</v>
+        <v>12435135</v>
       </c>
       <c r="E114" t="n">
-        <v>17720940</v>
+        <v>18029151</v>
       </c>
       <c r="F114" t="n">
-        <v>362.4398589282414</v>
+        <v>340.5119946074034</v>
       </c>
       <c r="G114" t="n">
-        <v>327.547134765617</v>
+        <v>353.1023524194729</v>
       </c>
       <c r="H114" t="n">
-        <v>2.12</v>
+        <v>0.77</v>
       </c>
       <c r="I114" t="n">
-        <v>2023615</v>
+        <v>2150032</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2010049</v>
+        <v>1969162</v>
       </c>
       <c r="E115" t="n">
-        <v>14413859</v>
+        <v>14120663</v>
       </c>
       <c r="F115" t="n">
-        <v>132.5881044799354</v>
+        <v>845.9306214841105</v>
       </c>
       <c r="G115" t="n">
-        <v>277.1754140202423</v>
+        <v>807.3062465776858</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="I115" t="n">
-        <v>1997914</v>
+        <v>1993064</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2710149</v>
+        <v>2714135</v>
       </c>
       <c r="E116" t="n">
-        <v>5478456</v>
+        <v>5486516</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>8967.6</v>
+        <v>8963.209999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>205512833</v>
+        <v>208471793</v>
       </c>
       <c r="E117" t="n">
-        <v>1163739937</v>
+        <v>1180495387</v>
       </c>
       <c r="F117" t="n">
-        <v>308993.0948903469</v>
+        <v>301627.7514035137</v>
       </c>
       <c r="G117" t="n">
-        <v>475375.9352989169</v>
+        <v>495961.7321371789</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>67344079</v>
+        <v>68572597</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>680073</v>
+        <v>668932</v>
       </c>
       <c r="E118" t="n">
-        <v>2255022</v>
+        <v>2218081</v>
       </c>
       <c r="F118" t="n">
-        <v>7180.011587160971</v>
+        <v>11277.43585719029</v>
       </c>
       <c r="G118" t="n">
-        <v>6544.561408686078</v>
+        <v>5989.745689407013</v>
       </c>
       <c r="H118" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>11803.76</v>
+        <v>11790.94</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2814379</v>
+        <v>2810669</v>
       </c>
       <c r="E119" t="n">
-        <v>9964527</v>
+        <v>9951393</v>
       </c>
       <c r="F119" t="n">
-        <v>120.6815828889856</v>
+        <v>111.1969036138542</v>
       </c>
       <c r="G119" t="n">
-        <v>3555.880326818957</v>
+        <v>3278.947852992367</v>
       </c>
       <c r="H119" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I119" t="n">
-        <v>4326.82</v>
+        <v>2705.63</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1041464</v>
+        <v>1049125</v>
       </c>
       <c r="E120" t="n">
-        <v>1041464</v>
+        <v>1049125</v>
       </c>
       <c r="F120" t="n">
-        <v>19.91997586032302</v>
+        <v>19.91920835802388</v>
       </c>
       <c r="G120" t="n">
-        <v>144.9229903564205</v>
+        <v>144.9277284041392</v>
       </c>
       <c r="H120" t="n">
-        <v>2.95</v>
+        <v>2.76</v>
       </c>
       <c r="I120" t="n">
-        <v>5344.16</v>
+        <v>5374.85</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>497264</v>
+        <v>505241</v>
       </c>
       <c r="E121" t="n">
-        <v>1673720</v>
+        <v>1700570</v>
       </c>
       <c r="F121" t="n">
-        <v>372.5780413461891</v>
+        <v>352.9283302362422</v>
       </c>
       <c r="G121" t="n">
-        <v>401.5906263424694</v>
+        <v>424.6641119125699</v>
       </c>
       <c r="H121" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="I121" t="n">
-        <v>633579</v>
+        <v>633165</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469201</v>
+        <v>469564</v>
       </c>
       <c r="E122" t="n">
-        <v>870458</v>
+        <v>871132</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>5.56</v>
+        <v>4.44</v>
       </c>
       <c r="I122" t="n">
-        <v>205333</v>
+        <v>200063</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11739390</v>
+        <v>11713766</v>
       </c>
       <c r="F123" t="n">
-        <v>141.5089625181484</v>
+        <v>141.3119297552422</v>
       </c>
       <c r="G123" t="n">
-        <v>187.0638237656779</v>
+        <v>212.2141714986555</v>
       </c>
       <c r="H123" t="n">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="I123" t="n">
-        <v>11242.58</v>
+        <v>11532.21</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1242545</v>
+        <v>1243664</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="I124" t="n">
-        <v>2424.18</v>
+        <v>2342.68</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3391485</v>
+        <v>3388346</v>
       </c>
       <c r="E125" t="n">
-        <v>7919683</v>
+        <v>7912353</v>
       </c>
       <c r="F125" t="n">
-        <v>3675.984987492944</v>
+        <v>3862.485757049111</v>
       </c>
       <c r="G125" t="n">
-        <v>2903.074716745018</v>
+        <v>2194.179429900317</v>
       </c>
       <c r="H125" t="n">
-        <v>0.47</v>
+        <v>0.88</v>
       </c>
       <c r="I125" t="n">
-        <v>618305</v>
+        <v>618917</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>248872</v>
+        <v>248832</v>
       </c>
       <c r="E126" t="n">
-        <v>2196485</v>
+        <v>2196129</v>
       </c>
       <c r="F126" t="n">
-        <v>120.3640594629861</v>
+        <v>104.1284182116717</v>
       </c>
       <c r="G126" t="n">
-        <v>143.3809868203217</v>
+        <v>103.2500817639362</v>
       </c>
       <c r="H126" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="I126" t="n">
-        <v>93058</v>
+        <v>90370</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>641821</v>
+        <v>637623</v>
       </c>
       <c r="F127" t="n">
-        <v>727.522209858755</v>
+        <v>577.4681778136736</v>
       </c>
       <c r="G127" t="n">
-        <v>548.9909093863987</v>
+        <v>514.7262932122262</v>
       </c>
       <c r="H127" t="n">
         <v>0.98</v>
       </c>
       <c r="I127" t="n">
-        <v>4940.59</v>
+        <v>5049.9</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4925916</v>
+        <v>4891234</v>
       </c>
       <c r="E128" t="n">
-        <v>17405552</v>
+        <v>17283005</v>
       </c>
       <c r="F128" t="n">
-        <v>1729.75920660088</v>
+        <v>1617.899017522012</v>
       </c>
       <c r="G128" t="n">
-        <v>1890.830672916576</v>
+        <v>1703.189778937782</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>96728</v>
+        <v>98146</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2145802</v>
+        <v>2142689</v>
       </c>
       <c r="F129" t="n">
-        <v>66.90249635667298</v>
+        <v>63.87431441078967</v>
       </c>
       <c r="G129" t="n">
-        <v>119.1979123859119</v>
+        <v>21.17926417732239</v>
       </c>
       <c r="H129" t="n">
-        <v>1.32</v>
+        <v>0.18</v>
       </c>
       <c r="I129" t="n">
-        <v>7569.57</v>
+        <v>7855.89</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2509959</v>
+        <v>2517380</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2468.44</v>
+        <v>2477.93</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84238</v>
+        <v>84703</v>
       </c>
       <c r="E131" t="n">
-        <v>84238</v>
+        <v>84703</v>
       </c>
       <c r="F131" t="n">
-        <v>6.69175899501383</v>
+        <v>6.691501166367352</v>
       </c>
       <c r="G131" t="n">
-        <v>163.0975461815017</v>
+        <v>163.0912621507099</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>22133</v>
+        <v>22030</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4360093</v>
+        <v>4368225</v>
       </c>
       <c r="F132" t="n">
-        <v>332.4918686649065</v>
+        <v>446.9976838473001</v>
       </c>
       <c r="G132" t="n">
-        <v>409.8118712390249</v>
+        <v>320.6077932254581</v>
       </c>
       <c r="H132" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="I132" t="n">
-        <v>307211</v>
+        <v>305274</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2106667</v>
+        <v>2118331</v>
       </c>
       <c r="E133" t="n">
-        <v>8603083</v>
+        <v>8650714</v>
       </c>
       <c r="F133" t="n">
-        <v>826.8261423296261</v>
+        <v>514.0234128698587</v>
       </c>
       <c r="G133" t="n">
-        <v>741.6714318568057</v>
+        <v>935.8060143042001</v>
       </c>
       <c r="H133" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>563406</v>
+        <v>561743</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7375512</v>
+        <v>7307282</v>
       </c>
       <c r="E134" t="n">
-        <v>7430336</v>
+        <v>7361599</v>
       </c>
       <c r="F134" t="n">
-        <v>315228.1357797091</v>
+        <v>275732.2503988304</v>
       </c>
       <c r="G134" t="n">
-        <v>316993.4771410656</v>
+        <v>148516.2399478257</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.78</v>
       </c>
       <c r="I134" t="n">
-        <v>5011391</v>
+        <v>4969885</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13676493</v>
+        <v>13781602</v>
       </c>
       <c r="E135" t="n">
-        <v>13723035</v>
+        <v>13828502</v>
       </c>
       <c r="F135" t="n">
-        <v>10796.50579341672</v>
+        <v>8601.264264075618</v>
       </c>
       <c r="G135" t="n">
-        <v>12156.86477901256</v>
+        <v>11912.4790812371</v>
       </c>
       <c r="H135" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>5846017</v>
+        <v>6036668</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42812661</v>
+        <v>42850561</v>
       </c>
       <c r="E136" t="n">
-        <v>72685938</v>
+        <v>72750284</v>
       </c>
       <c r="F136" t="n">
-        <v>713.9576041149547</v>
+        <v>622.2296564144458</v>
       </c>
       <c r="G136" t="n">
-        <v>1831.157334691125</v>
+        <v>2448.298235741982</v>
       </c>
       <c r="H136" t="n">
         <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1048586</v>
+        <v>1035340</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22938439</v>
+        <v>23003387</v>
       </c>
       <c r="E137" t="n">
-        <v>68758891</v>
+        <v>68953577</v>
       </c>
       <c r="F137" t="n">
-        <v>80326.20659007794</v>
+        <v>77115.52771380075</v>
       </c>
       <c r="G137" t="n">
-        <v>90293.38101379811</v>
+        <v>94608.69282784134</v>
       </c>
       <c r="H137" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="I137" t="n">
-        <v>3456313</v>
+        <v>3471674</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>103814301</v>
+        <v>103642587</v>
       </c>
       <c r="E138" t="n">
-        <v>110363985</v>
+        <v>110181437</v>
       </c>
       <c r="F138" t="n">
-        <v>7130.669629241805</v>
+        <v>9825.998077412407</v>
       </c>
       <c r="G138" t="n">
-        <v>9461.011924016271</v>
+        <v>9472.128802865298</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>1410017</v>
+        <v>1449823</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1208452</v>
+        <v>1388141</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>6.35</v>
+        <v>9.07</v>
       </c>
       <c r="I139" t="n">
-        <v>217.21</v>
+        <v>467.81</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258575</v>
+        <v>258593</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I140" t="n">
-        <v>199.21</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96300</v>
+        <v>96366</v>
       </c>
       <c r="E141" t="n">
-        <v>273182</v>
+        <v>273369</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>63.65</v>
+        <v>62.64</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50053343</v>
+        <v>50414378</v>
       </c>
       <c r="E142" t="n">
-        <v>215624326</v>
+        <v>217179627</v>
       </c>
       <c r="F142" t="n">
-        <v>59239.55893999634</v>
+        <v>65607.673311775</v>
       </c>
       <c r="G142" t="n">
-        <v>93898.42331598653</v>
+        <v>94326.76830994128</v>
       </c>
       <c r="H142" t="n">
         <v>0.19</v>
       </c>
       <c r="I142" t="n">
-        <v>9820900</v>
+        <v>9954669</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269789</v>
+        <v>269776</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>7.85</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>23117</v>
+        <v>12697.83</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9433537</v>
+        <v>9460907</v>
       </c>
       <c r="F144" t="n">
-        <v>1031.920275153055</v>
+        <v>1031.86639930548</v>
       </c>
       <c r="G144" t="n">
-        <v>612.3647313147569</v>
+        <v>609.7819224230307</v>
       </c>
       <c r="H144" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="I144" t="n">
-        <v>98655</v>
+        <v>98620</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1174137</v>
+        <v>1178337</v>
       </c>
       <c r="E145" t="n">
-        <v>7827582</v>
+        <v>7855577</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4938071163854</v>
+        <v>263.4836548900881</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0208787555787</v>
+        <v>105.0168323768849</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5484.48</v>
+        <v>5497.43</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7602636</v>
+        <v>7572236</v>
       </c>
       <c r="F146" t="n">
-        <v>220.5564675563593</v>
+        <v>183.780788309263</v>
       </c>
       <c r="G146" t="n">
-        <v>119.5007681025039</v>
+        <v>150.3568855527669</v>
       </c>
       <c r="H146" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="I146" t="n">
-        <v>6623081</v>
+        <v>6631953</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>672637</v>
+        <v>675076</v>
       </c>
       <c r="E147" t="n">
-        <v>2428528</v>
+        <v>2436937</v>
       </c>
       <c r="F147" t="n">
-        <v>35.69771671764089</v>
+        <v>50.07454155827718</v>
       </c>
       <c r="G147" t="n">
-        <v>139.9864490564909</v>
+        <v>136.7685939691102</v>
       </c>
       <c r="H147" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="I147" t="n">
-        <v>336675</v>
+        <v>336753</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1571316</v>
+        <v>1577416</v>
       </c>
       <c r="F148" t="n">
-        <v>611.0965457821842</v>
+        <v>486.7654991260472</v>
       </c>
       <c r="G148" t="n">
-        <v>74.83507076948769</v>
+        <v>75.31722296017172</v>
       </c>
       <c r="H148" t="n">
-        <v>1.46</v>
+        <v>0.8</v>
       </c>
       <c r="I148" t="n">
-        <v>75306</v>
+        <v>69572</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>71427</v>
+        <v>69314</v>
       </c>
       <c r="F149" t="n">
-        <v>16.23942187495321</v>
+        <v>16.19574124131626</v>
       </c>
       <c r="G149" t="n">
-        <v>25.00552228448046</v>
+        <v>0.2198684226076249</v>
       </c>
       <c r="H149" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>1238.05</v>
+        <v>1535.35</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13277217</v>
+        <v>13259958</v>
       </c>
       <c r="E150" t="n">
-        <v>13277217</v>
+        <v>13259958</v>
       </c>
       <c r="F150" t="n">
-        <v>476.5550023994171</v>
+        <v>450.7129523266627</v>
       </c>
       <c r="G150" t="n">
-        <v>1132.163104312071</v>
+        <v>1268.415203884264</v>
       </c>
       <c r="H150" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="I150" t="n">
-        <v>3686669</v>
+        <v>3697438</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1900903</v>
+        <v>2015433</v>
       </c>
       <c r="E151" t="n">
-        <v>6905120</v>
+        <v>7319859</v>
       </c>
       <c r="F151" t="n">
-        <v>90.8102298112028</v>
+        <v>240.3399670226235</v>
       </c>
       <c r="G151" t="n">
-        <v>387.0656474073738</v>
+        <v>42.86514915830176</v>
       </c>
       <c r="H151" t="n">
-        <v>0.6</v>
+        <v>2.01</v>
       </c>
       <c r="I151" t="n">
-        <v>142226</v>
+        <v>155281</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1275024</v>
+        <v>1275110</v>
       </c>
       <c r="E152" t="n">
-        <v>1275024</v>
+        <v>1275110</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1462.55</v>
+        <v>1463.9</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23501384</v>
+        <v>23482566</v>
       </c>
       <c r="E153" t="n">
-        <v>27115581</v>
+        <v>27093869</v>
       </c>
       <c r="F153" t="n">
-        <v>463.2065732588669</v>
+        <v>325.4839269256425</v>
       </c>
       <c r="G153" t="n">
-        <v>570.7574007812073</v>
+        <v>536.7558122850933</v>
       </c>
       <c r="H153" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="I153" t="n">
-        <v>753883</v>
+        <v>747396</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441792</v>
+        <v>2441232</v>
       </c>
       <c r="E154" t="n">
-        <v>18373859</v>
+        <v>18369644</v>
       </c>
       <c r="F154" t="n">
-        <v>3663.021556280339</v>
+        <v>3559.227065684265</v>
       </c>
       <c r="G154" t="n">
-        <v>4327.903027044275</v>
+        <v>4368.13590516206</v>
       </c>
       <c r="H154" t="n">
         <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>163236</v>
+        <v>163590</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20970058</v>
+        <v>20965463</v>
       </c>
       <c r="E155" t="n">
-        <v>83880234</v>
+        <v>83861853</v>
       </c>
       <c r="F155" t="n">
-        <v>10761.95822060181</v>
+        <v>12952.83909024041</v>
       </c>
       <c r="G155" t="n">
-        <v>37509.87197245576</v>
+        <v>34768.55706891528</v>
       </c>
       <c r="H155" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I155" t="n">
-        <v>2464567</v>
+        <v>2431805</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>312351068</v>
+        <v>315447064</v>
       </c>
       <c r="E156" t="n">
-        <v>312351068</v>
+        <v>315447064</v>
       </c>
       <c r="F156" t="n">
-        <v>279667.036015484</v>
+        <v>289238.278757265</v>
       </c>
       <c r="G156" t="n">
-        <v>413114.4965296598</v>
+        <v>400193.3488402041</v>
       </c>
       <c r="H156" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="I156" t="n">
-        <v>15306062</v>
+        <v>15508443</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12757850</v>
+        <v>12802253</v>
       </c>
       <c r="E157" t="n">
-        <v>40361224</v>
+        <v>40495937</v>
       </c>
       <c r="F157" t="n">
-        <v>5323.99064857847</v>
+        <v>7525.961557830675</v>
       </c>
       <c r="G157" t="n">
-        <v>16811.21761715523</v>
+        <v>13857.3521181126</v>
       </c>
       <c r="H157" t="n">
-        <v>0.02</v>
+        <v>0.57</v>
       </c>
       <c r="I157" t="n">
-        <v>991308</v>
+        <v>984271</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1070049</v>
+        <v>1074055</v>
       </c>
       <c r="E158" t="n">
-        <v>2437141</v>
+        <v>2446266</v>
       </c>
       <c r="F158" t="n">
-        <v>2.313049143830293</v>
+        <v>2.312960023715472</v>
       </c>
       <c r="G158" t="n">
-        <v>28.51644304184386</v>
+        <v>28.51534432386592</v>
       </c>
       <c r="H158" t="n">
         <v>3.19</v>
       </c>
       <c r="I158" t="n">
-        <v>2065.15</v>
+        <v>1098.79</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18710247</v>
+        <v>19098181</v>
       </c>
       <c r="E159" t="n">
-        <v>18710247</v>
+        <v>19098181</v>
       </c>
       <c r="F159" t="n">
-        <v>13363.56257081356</v>
+        <v>13064.36483155971</v>
       </c>
       <c r="G159" t="n">
-        <v>23821.75688614721</v>
+        <v>15406.68443423935</v>
       </c>
       <c r="H159" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="I159" t="n">
-        <v>3740753</v>
+        <v>4231946</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4852157</v>
+        <v>4851903</v>
       </c>
       <c r="E160" t="n">
-        <v>8933340</v>
+        <v>8932872</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>113950</v>
+        <v>114073</v>
       </c>
       <c r="E161" t="n">
-        <v>137919</v>
+        <v>138107</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4.321732928843271</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>12.85752969541076</v>
       </c>
       <c r="H161" t="n">
-        <v>5.25</v>
+        <v>2.93</v>
       </c>
       <c r="I161" t="n">
-        <v>3287.89</v>
+        <v>3292.22</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20132514</v>
+        <v>20226674</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.29</v>
+        <v>15.11</v>
       </c>
       <c r="I162" t="n">
-        <v>1524.91</v>
+        <v>1532.43</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>432523</v>
+        <v>430459</v>
       </c>
       <c r="E163" t="n">
-        <v>544817</v>
+        <v>542217</v>
       </c>
       <c r="F163" t="n">
-        <v>135.0820651586199</v>
+        <v>240.9936117138464</v>
       </c>
       <c r="G163" t="n">
-        <v>62.60873082569694</v>
+        <v>150.6580642165152</v>
       </c>
       <c r="H163" t="n">
-        <v>0.73</v>
+        <v>1.1</v>
       </c>
       <c r="I163" t="n">
-        <v>185438</v>
+        <v>186561</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>99737</v>
+        <v>99732</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>4.78</v>
       </c>
       <c r="I164" t="n">
-        <v>4144.72</v>
+        <v>2968.11</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12715821</v>
+        <v>12712255</v>
       </c>
       <c r="E165" t="n">
-        <v>19356348</v>
+        <v>19350919</v>
       </c>
       <c r="F165" t="n">
-        <v>1781.088845805415</v>
+        <v>2210.910193894362</v>
       </c>
       <c r="G165" t="n">
-        <v>4707.397113749793</v>
+        <v>3668.118353738218</v>
       </c>
       <c r="H165" t="n">
         <v>0.91</v>
       </c>
       <c r="I165" t="n">
-        <v>744668</v>
+        <v>731639</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>300671910</v>
+        <v>303568433</v>
       </c>
       <c r="E166" t="n">
-        <v>300671910</v>
+        <v>303568433</v>
       </c>
       <c r="F166" t="n">
-        <v>242292.4095909001</v>
+        <v>296514.4664040743</v>
       </c>
       <c r="G166" t="n">
-        <v>422207.8461473155</v>
+        <v>414352.6042310967</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>80075048</v>
+        <v>80516988</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10188129</v>
+        <v>10386220</v>
       </c>
       <c r="E167" t="n">
-        <v>28925798</v>
+        <v>29488212</v>
       </c>
       <c r="F167" t="n">
-        <v>331.755103108027</v>
+        <v>109.6946210919172</v>
       </c>
       <c r="G167" t="n">
-        <v>1034.034710662469</v>
+        <v>1056.440049264178</v>
       </c>
       <c r="H167" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I167" t="n">
-        <v>122203</v>
+        <v>122921</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11717622</v>
+        <v>11706294</v>
       </c>
       <c r="F168" t="n">
-        <v>564.114706322243</v>
+        <v>369.7205062086272</v>
       </c>
       <c r="G168" t="n">
-        <v>627.3728493725746</v>
+        <v>596.4438233589087</v>
       </c>
       <c r="H168" t="n">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="I168" t="n">
-        <v>91678</v>
+        <v>91238</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4221137</v>
+        <v>4237969</v>
       </c>
       <c r="E169" t="n">
-        <v>28842731</v>
+        <v>28957742</v>
       </c>
       <c r="F169" t="n">
-        <v>1528.345799746804</v>
+        <v>1212.8285468382</v>
       </c>
       <c r="G169" t="n">
-        <v>1991.828250233983</v>
+        <v>1583.428493131057</v>
       </c>
       <c r="H169" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I169" t="n">
-        <v>2648045</v>
+        <v>2648403</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2941096</v>
+        <v>2942524</v>
       </c>
       <c r="E170" t="n">
-        <v>4359100</v>
+        <v>4360851</v>
       </c>
       <c r="F170" t="n">
-        <v>3870.286224302967</v>
+        <v>1012.183840947172</v>
       </c>
       <c r="G170" t="n">
-        <v>3775.222025089882</v>
+        <v>3851.758823031332</v>
       </c>
       <c r="H170" t="n">
         <v>0.91</v>
       </c>
       <c r="I170" t="n">
-        <v>192320</v>
+        <v>182926</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>91823400</v>
+        <v>92353141</v>
       </c>
       <c r="E171" t="n">
-        <v>529126033</v>
+        <v>532178634</v>
       </c>
       <c r="F171" t="n">
-        <v>349587.3974576364</v>
+        <v>518053.6865313426</v>
       </c>
       <c r="G171" t="n">
-        <v>314285.9358995343</v>
+        <v>284434.5948088922</v>
       </c>
       <c r="H171" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I171" t="n">
-        <v>17065895</v>
+        <v>17448310</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13787228</v>
+        <v>13780295</v>
       </c>
       <c r="E172" t="n">
-        <v>13787228</v>
+        <v>13780295</v>
       </c>
       <c r="F172" t="n">
-        <v>3888.912858450899</v>
+        <v>4077.362484732742</v>
       </c>
       <c r="G172" t="n">
-        <v>4593.944357968922</v>
+        <v>4525.235989416406</v>
       </c>
       <c r="H172" t="n">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="I172" t="n">
-        <v>618617</v>
+        <v>618500</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6131528</v>
+        <v>6131418</v>
       </c>
       <c r="E173" t="n">
-        <v>17417912</v>
+        <v>17417597</v>
       </c>
       <c r="F173" t="n">
-        <v>632.4868163757695</v>
+        <v>632.8693241042079</v>
       </c>
       <c r="G173" t="n">
-        <v>8657.603262871937</v>
+        <v>8736.972093088822</v>
       </c>
       <c r="H173" t="n">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="I173" t="n">
-        <v>170114</v>
+        <v>168006</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18383237</v>
+        <v>18283126</v>
       </c>
       <c r="E174" t="n">
-        <v>18383237</v>
+        <v>18283126</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039526282492553</v>
+        <v>1.039488518175972</v>
       </c>
       <c r="G174" t="n">
-        <v>499.4044473177544</v>
+        <v>499.3863047580442</v>
       </c>
       <c r="H174" t="n">
         <v>1.54</v>
       </c>
       <c r="I174" t="n">
-        <v>110337</v>
+        <v>110613</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1326984</v>
+        <v>1327749</v>
       </c>
       <c r="F175" t="n">
-        <v>173.7605910468928</v>
+        <v>167.3263466368032</v>
       </c>
       <c r="G175" t="n">
-        <v>312.7652253366523</v>
+        <v>267.3393247772365</v>
       </c>
       <c r="H175" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="I175" t="n">
-        <v>31804</v>
+        <v>29209</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>137720</v>
+        <v>138443</v>
       </c>
       <c r="E176" t="n">
-        <v>299813</v>
+        <v>301388</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>5.38</v>
       </c>
       <c r="I176" t="n">
-        <v>293.6</v>
+        <v>294.2</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2485279</v>
+        <v>2469106</v>
       </c>
       <c r="F177" t="n">
-        <v>70.40234256818978</v>
+        <v>183.4593202738442</v>
       </c>
       <c r="G177" t="n">
-        <v>262.2316766510925</v>
+        <v>321.4165301141671</v>
       </c>
       <c r="H177" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="I177" t="n">
-        <v>425694</v>
+        <v>427945</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>250084436</v>
+        <v>250562281</v>
       </c>
       <c r="E178" t="n">
-        <v>250086921</v>
+        <v>250564770</v>
       </c>
       <c r="F178" t="n">
-        <v>47407.05335870397</v>
+        <v>15771.98197146389</v>
       </c>
       <c r="G178" t="n">
-        <v>247415.6904981811</v>
+        <v>218581.0335540388</v>
       </c>
       <c r="H178" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="I178" t="n">
-        <v>2743078</v>
+        <v>2743992</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9305670</v>
+        <v>9369736</v>
       </c>
       <c r="E179" t="n">
-        <v>9305670</v>
+        <v>9369736</v>
       </c>
       <c r="F179" t="n">
-        <v>308.1125425777316</v>
+        <v>106.6142040468455</v>
       </c>
       <c r="G179" t="n">
-        <v>901.7503172580341</v>
+        <v>1017.966792639811</v>
       </c>
       <c r="H179" t="n">
-        <v>2.63</v>
+        <v>2.89</v>
       </c>
       <c r="I179" t="n">
-        <v>2106707</v>
+        <v>2107077</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>189133</v>
+        <v>191849</v>
       </c>
       <c r="E180" t="n">
-        <v>1460484</v>
+        <v>1481461</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>3.95</v>
+        <v>5.04</v>
       </c>
       <c r="I180" t="n">
-        <v>105095</v>
+        <v>106342</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>30961474</v>
+        <v>31172332</v>
       </c>
       <c r="E181" t="n">
-        <v>138627220</v>
+        <v>139571317</v>
       </c>
       <c r="F181" t="n">
-        <v>54852.94767276142</v>
+        <v>55008.00616233089</v>
       </c>
       <c r="G181" t="n">
-        <v>92961.06654493655</v>
+        <v>92002.63180399172</v>
       </c>
       <c r="H181" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I181" t="n">
-        <v>8594308</v>
+        <v>8553195</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1524272</v>
+        <v>1455304</v>
       </c>
       <c r="F182" t="n">
-        <v>197.4380947945023</v>
+        <v>219.872190459454</v>
       </c>
       <c r="G182" t="n">
-        <v>5399.152265946752</v>
+        <v>5023.830222688127</v>
       </c>
       <c r="H182" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="I182" t="n">
-        <v>49266</v>
+        <v>33899</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3151269</v>
+        <v>3215370</v>
       </c>
       <c r="E183" t="n">
-        <v>3151269</v>
+        <v>3215370</v>
       </c>
       <c r="F183" t="n">
-        <v>357.7199490220038</v>
+        <v>114.4716644034162</v>
       </c>
       <c r="G183" t="n">
-        <v>338.1171945949844</v>
+        <v>1522.229596250548</v>
       </c>
       <c r="H183" t="n">
-        <v>0.97</v>
+        <v>0.4</v>
       </c>
       <c r="I183" t="n">
-        <v>408549</v>
+        <v>415479</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>583284</v>
+        <v>586207</v>
       </c>
       <c r="E184" t="n">
-        <v>583284</v>
+        <v>586207</v>
       </c>
       <c r="F184" t="n">
-        <v>4.753016517931822</v>
+        <v>20.51240855158148</v>
       </c>
       <c r="G184" t="n">
-        <v>4.583265928005686</v>
+        <v>4.752843848492367</v>
       </c>
       <c r="H184" t="n">
-        <v>3.57</v>
+        <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1212509</v>
+        <v>1212404</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15681364</v>
+        <v>15629308</v>
       </c>
       <c r="E185" t="n">
-        <v>19964880</v>
+        <v>19898604</v>
       </c>
       <c r="F185" t="n">
-        <v>211.8010421538393</v>
+        <v>1013.919759141311</v>
       </c>
       <c r="G185" t="n">
-        <v>110.3603157197223</v>
+        <v>113.4292084838648</v>
       </c>
       <c r="H185" t="n">
-        <v>0.21</v>
+        <v>0.85</v>
       </c>
       <c r="I185" t="n">
-        <v>926338</v>
+        <v>924177</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1831877</v>
+        <v>1789494</v>
       </c>
       <c r="E186" t="n">
-        <v>1831877</v>
+        <v>1789494</v>
       </c>
       <c r="F186" t="n">
-        <v>69.73304384656275</v>
+        <v>43.61522946634476</v>
       </c>
       <c r="G186" t="n">
-        <v>32.18287692474675</v>
+        <v>112.9220009345412</v>
       </c>
       <c r="H186" t="n">
-        <v>2.97</v>
+        <v>2.36</v>
       </c>
       <c r="I186" t="n">
-        <v>4072.22</v>
+        <v>4348.23</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50896833</v>
+        <v>51694847</v>
       </c>
       <c r="E187" t="n">
-        <v>330052415</v>
+        <v>335227326</v>
       </c>
       <c r="F187" t="n">
-        <v>114770.0035188753</v>
+        <v>115008.3577589135</v>
       </c>
       <c r="G187" t="n">
-        <v>139393.2407398724</v>
+        <v>148538.2708263151</v>
       </c>
       <c r="H187" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I187" t="n">
-        <v>16937461</v>
+        <v>16434182</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9091343</v>
+        <v>9117562</v>
       </c>
       <c r="F188" t="n">
-        <v>632.8865460752479</v>
+        <v>812.1461613115483</v>
       </c>
       <c r="G188" t="n">
-        <v>272.0305266312982</v>
+        <v>376.1710527468624</v>
       </c>
       <c r="H188" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="I188" t="n">
-        <v>292725</v>
+        <v>294412</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7103776</v>
+        <v>7181484</v>
       </c>
       <c r="E189" t="n">
-        <v>7113762</v>
+        <v>7191580</v>
       </c>
       <c r="F189" t="n">
-        <v>89.76953547074115</v>
+        <v>54.13403212375835</v>
       </c>
       <c r="G189" t="n">
-        <v>895.6799074898579</v>
+        <v>824.3143337022507</v>
       </c>
       <c r="H189" t="n">
-        <v>0.87</v>
+        <v>0.52</v>
       </c>
       <c r="I189" t="n">
-        <v>777927</v>
+        <v>781528</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4796554</v>
+        <v>4796608</v>
       </c>
       <c r="F190" t="n">
-        <v>2005.863429345321</v>
+        <v>2332.45080899877</v>
       </c>
       <c r="G190" t="n">
-        <v>2083.947566460842</v>
+        <v>2098.453573682854</v>
       </c>
       <c r="H190" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="I190" t="n">
-        <v>196252</v>
+        <v>195147</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>99571129</v>
+        <v>102536807</v>
       </c>
       <c r="E191" t="n">
-        <v>100642945</v>
+        <v>103640547</v>
       </c>
       <c r="F191" t="n">
-        <v>43044.51392380528</v>
+        <v>43060.28473063088</v>
       </c>
       <c r="G191" t="n">
-        <v>65388.69660146369</v>
+        <v>55738.31775578921</v>
       </c>
       <c r="H191" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="I191" t="n">
-        <v>41107699</v>
+        <v>44853628</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>241589225</v>
+        <v>250175735</v>
       </c>
       <c r="E192" t="n">
-        <v>241589225</v>
+        <v>250175735</v>
       </c>
       <c r="F192" t="n">
-        <v>78807.8787150198</v>
+        <v>102975.8757287465</v>
       </c>
       <c r="G192" t="n">
-        <v>116917.817481124</v>
+        <v>88827.59863989832</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I192" t="n">
-        <v>47464148</v>
+        <v>49703409</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24711842</v>
+        <v>24907474</v>
       </c>
       <c r="E193" t="n">
-        <v>147855920</v>
+        <v>149026425</v>
       </c>
       <c r="F193" t="n">
-        <v>76974.84992612241</v>
+        <v>79532.39203597838</v>
       </c>
       <c r="G193" t="n">
-        <v>148639.5446695705</v>
+        <v>164211.5292454748</v>
       </c>
       <c r="H193" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I193" t="n">
-        <v>12613275</v>
+        <v>12760369</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13820428</v>
+        <v>14171434</v>
       </c>
       <c r="E194" t="n">
-        <v>42410045</v>
+        <v>42830006</v>
       </c>
       <c r="F194" t="n">
-        <v>552.9855325507647</v>
+        <v>359.1999914792829</v>
       </c>
       <c r="G194" t="n">
-        <v>3463.538628719876</v>
+        <v>495.7480376468437</v>
       </c>
       <c r="H194" t="n">
-        <v>0.59</v>
+        <v>0.11</v>
       </c>
       <c r="I194" t="n">
-        <v>2620647</v>
+        <v>2600285</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55133543</v>
+        <v>55136842</v>
       </c>
       <c r="E195" t="n">
-        <v>95227615</v>
+        <v>95233313</v>
       </c>
       <c r="F195" t="n">
-        <v>14355.61593677033</v>
+        <v>14223.91236448407</v>
       </c>
       <c r="G195" t="n">
-        <v>7879.236913068167</v>
+        <v>7709.956741127169</v>
       </c>
       <c r="H195" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="I195" t="n">
-        <v>2425764</v>
+        <v>2353521</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4290870</v>
+        <v>4302502</v>
       </c>
       <c r="E196" t="n">
-        <v>4290870</v>
+        <v>4302502</v>
       </c>
       <c r="F196" t="n">
-        <v>15.3995518371402</v>
+        <v>12.19340863323376</v>
       </c>
       <c r="G196" t="n">
-        <v>946.7007751012618</v>
+        <v>996.3658558249911</v>
       </c>
       <c r="H196" t="n">
-        <v>2.55</v>
+        <v>2.24</v>
       </c>
       <c r="I196" t="n">
-        <v>1719477</v>
+        <v>1738563</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>210316</v>
+        <v>210592</v>
       </c>
       <c r="F197" t="n">
-        <v>152.9116037856197</v>
+        <v>201.308817513118</v>
       </c>
       <c r="G197" t="n">
-        <v>97.47059416261557</v>
+        <v>3.361064641253253</v>
       </c>
       <c r="H197" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="I197" t="n">
-        <v>51423</v>
+        <v>52344</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6636342</v>
+        <v>6675060</v>
       </c>
       <c r="E198" t="n">
-        <v>34141963</v>
+        <v>34341155</v>
       </c>
       <c r="F198" t="n">
-        <v>180.5644890350996</v>
+        <v>465.9158390802726</v>
       </c>
       <c r="G198" t="n">
-        <v>656.6315020186853</v>
+        <v>534.8383952810296</v>
       </c>
       <c r="H198" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="I198" t="n">
-        <v>856627</v>
+        <v>907490</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>179980218</v>
+        <v>178250777</v>
       </c>
       <c r="E199" t="n">
-        <v>210270037</v>
+        <v>208249540</v>
       </c>
       <c r="F199" t="n">
-        <v>76181.9096928574</v>
+        <v>32872.1447123292</v>
       </c>
       <c r="G199" t="n">
-        <v>12240.51751805599</v>
+        <v>15423.19330946055</v>
       </c>
       <c r="H199" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I199" t="n">
-        <v>3444467</v>
+        <v>3758544</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>305006</v>
+        <v>306455</v>
       </c>
       <c r="F200" t="n">
-        <v>3.646030804772888</v>
+        <v>41.20398065233241</v>
       </c>
       <c r="G200" t="n">
-        <v>38.51129013275079</v>
+        <v>21.92960534119591</v>
       </c>
       <c r="H200" t="n">
-        <v>1.31</v>
+        <v>2.56</v>
       </c>
       <c r="I200" t="n">
-        <v>320024</v>
+        <v>318058</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7992780</v>
+        <v>7994727</v>
       </c>
       <c r="F201" t="n">
-        <v>330.1150940299252</v>
+        <v>1072.711653684625</v>
       </c>
       <c r="G201" t="n">
-        <v>314.2847833924887</v>
+        <v>790.9530040924589</v>
       </c>
       <c r="H201" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="I201" t="n">
-        <v>655488</v>
+        <v>653490</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34013</v>
+        <v>34036</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.73</v>
+        <v>651.76</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>34825771</v>
+        <v>35009006</v>
       </c>
       <c r="E203" t="n">
-        <v>173796653</v>
+        <v>174711077</v>
       </c>
       <c r="F203" t="n">
-        <v>84340.31534520934</v>
+        <v>66530.81640347722</v>
       </c>
       <c r="G203" t="n">
-        <v>120105.4642793797</v>
+        <v>94393.92299658347</v>
       </c>
       <c r="H203" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I203" t="n">
-        <v>10631829</v>
+        <v>10705065</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1956519</v>
+        <v>1957561</v>
       </c>
       <c r="E204" t="n">
-        <v>1956519</v>
+        <v>1957561</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>153.3131148696296</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>6.018426588130771</v>
       </c>
       <c r="H204" t="n">
-        <v>9.52</v>
+        <v>1.67</v>
       </c>
       <c r="I204" t="n">
-        <v>12683.53</v>
+        <v>12644.91</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178996</v>
+        <v>187610</v>
       </c>
       <c r="F205" t="n">
-        <v>10.47969954547589</v>
+        <v>14.21724624104484</v>
       </c>
       <c r="G205" t="n">
-        <v>77.9390361002757</v>
+        <v>131.596845760426</v>
       </c>
       <c r="H205" t="n">
-        <v>2.91</v>
+        <v>2.33</v>
       </c>
       <c r="I205" t="n">
-        <v>12894.58</v>
+        <v>13069.66</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2501.73</v>
+        <v>2501.6</v>
       </c>
       <c r="E206" t="n">
-        <v>29901</v>
+        <v>29900</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="I206" t="n">
-        <v>7802.12</v>
+        <v>7803.39</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>319861095</v>
+        <v>322344879</v>
       </c>
       <c r="E208" t="n">
-        <v>591815969</v>
+        <v>596411536</v>
       </c>
       <c r="F208" t="n">
-        <v>139060.5078853969</v>
+        <v>165974.6168391501</v>
       </c>
       <c r="G208" t="n">
-        <v>196828.8995094057</v>
+        <v>204894.4348430758</v>
       </c>
       <c r="H208" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I208" t="n">
-        <v>14058018</v>
+        <v>14199121</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72216046</v>
+        <v>73723434</v>
       </c>
       <c r="E209" t="n">
-        <v>688889577</v>
+        <v>703261890</v>
       </c>
       <c r="F209" t="n">
-        <v>184593.3475391504</v>
+        <v>394699.0663503156</v>
       </c>
       <c r="G209" t="n">
-        <v>272727.0521055344</v>
+        <v>203832.7301287635</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>22285906</v>
+        <v>22434544</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2516700</v>
+        <v>2623324</v>
       </c>
       <c r="F210" t="n">
-        <v>16.08950392142456</v>
+        <v>4.9248687924803</v>
       </c>
       <c r="G210" t="n">
-        <v>1467.1384804667</v>
+        <v>1598.168464117183</v>
       </c>
       <c r="H210" t="n">
-        <v>3.8</v>
+        <v>2.33</v>
       </c>
       <c r="I210" t="n">
-        <v>57427</v>
+        <v>54806</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82305</v>
+        <v>82382</v>
       </c>
       <c r="E211" t="n">
-        <v>684221</v>
+        <v>684860</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>4.23</v>
       </c>
       <c r="I211" t="n">
-        <v>15.82</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1891141</v>
+        <v>1892345</v>
       </c>
       <c r="E212" t="n">
-        <v>5400856</v>
+        <v>5404294</v>
       </c>
       <c r="F212" t="n">
-        <v>733.6428214954539</v>
+        <v>726.2267634640559</v>
       </c>
       <c r="G212" t="n">
-        <v>259.5472322137899</v>
+        <v>262.5415193898241</v>
       </c>
       <c r="H212" t="n">
         <v>1.15</v>
       </c>
       <c r="I212" t="n">
-        <v>68159</v>
+        <v>69276</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11290934</v>
+        <v>11554568</v>
       </c>
       <c r="E213" t="n">
-        <v>33494908</v>
+        <v>34276987</v>
       </c>
       <c r="F213" t="n">
-        <v>3423.463819517885</v>
+        <v>2084.034164493882</v>
       </c>
       <c r="G213" t="n">
-        <v>3156.744563223896</v>
+        <v>3019.975847434645</v>
       </c>
       <c r="H213" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="I213" t="n">
-        <v>7382314</v>
+        <v>7415599</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14578905</v>
+        <v>14589408</v>
       </c>
       <c r="F214" t="n">
-        <v>25.77334613545285</v>
+        <v>19.4069384814776</v>
       </c>
       <c r="G214" t="n">
-        <v>167.9024079041602</v>
+        <v>167.9243177653223</v>
       </c>
       <c r="H214" t="n">
-        <v>3.01</v>
+        <v>2.74</v>
       </c>
       <c r="I214" t="n">
-        <v>1248.79</v>
+        <v>1250.84</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1976922</v>
+        <v>1995666</v>
       </c>
       <c r="E215" t="n">
-        <v>5735687</v>
+        <v>5772965</v>
       </c>
       <c r="F215" t="n">
-        <v>36.63541066694287</v>
+        <v>75.98136307031554</v>
       </c>
       <c r="G215" t="n">
-        <v>48.85178058179591</v>
+        <v>92.44188199140339</v>
       </c>
       <c r="H215" t="n">
-        <v>1.82</v>
+        <v>1.13</v>
       </c>
       <c r="I215" t="n">
-        <v>56483</v>
+        <v>57649</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2177441</v>
+        <v>2176884</v>
       </c>
       <c r="E216" t="n">
-        <v>19206470</v>
+        <v>19201560</v>
       </c>
       <c r="F216" t="n">
-        <v>42.76530450722282</v>
+        <v>47.55809875817268</v>
       </c>
       <c r="G216" t="n">
-        <v>1313.210718481804</v>
+        <v>39.45043624060301</v>
       </c>
       <c r="H216" t="n">
-        <v>3.8</v>
+        <v>3.01</v>
       </c>
       <c r="I216" t="n">
-        <v>79638</v>
+        <v>83865</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45145514</v>
+        <v>45392411</v>
       </c>
       <c r="E217" t="n">
-        <v>45145514</v>
+        <v>45392411</v>
       </c>
       <c r="F217" t="n">
-        <v>32813.10325979544</v>
+        <v>36567.90057421554</v>
       </c>
       <c r="G217" t="n">
-        <v>36373.45215651544</v>
+        <v>36519.60571187749</v>
       </c>
       <c r="H217" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I217" t="n">
-        <v>7584030</v>
+        <v>8426421</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8368129</v>
+        <v>8355545</v>
       </c>
       <c r="E218" t="n">
-        <v>11922666</v>
+        <v>11904736</v>
       </c>
       <c r="F218" t="n">
-        <v>4414.100617635258</v>
+        <v>4148.123113556412</v>
       </c>
       <c r="G218" t="n">
-        <v>193.652626328186</v>
+        <v>515.5739689357168</v>
       </c>
       <c r="H218" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="I218" t="n">
-        <v>393303</v>
+        <v>392269</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16456384</v>
+        <v>16422789</v>
       </c>
       <c r="F219" t="n">
-        <v>2.125270803479983</v>
+        <v>2.125188587210279</v>
       </c>
       <c r="G219" t="n">
-        <v>1147.926536418509</v>
+        <v>555.8005453553898</v>
       </c>
       <c r="H219" t="n">
         <v>1.02</v>
       </c>
       <c r="I219" t="n">
-        <v>1008694</v>
+        <v>1010996</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>726486</v>
+        <v>726166</v>
       </c>
       <c r="F220" t="n">
-        <v>84.18809160632851</v>
+        <v>84.1848347833232</v>
       </c>
       <c r="G220" t="n">
-        <v>317.4380975725679</v>
+        <v>317.4258174545701</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>193876</v>
+        <v>207992</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2854643</v>
+        <v>2864432</v>
       </c>
       <c r="E221" t="n">
-        <v>2857115</v>
+        <v>2866912</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>7.14</v>
+        <v>5.42</v>
       </c>
       <c r="I221" t="n">
-        <v>109085</v>
+        <v>108886</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1262497</v>
+        <v>1262528</v>
       </c>
       <c r="E222" t="n">
-        <v>3814229</v>
+        <v>3814627</v>
       </c>
       <c r="F222" t="n">
-        <v>679.0725629899024</v>
+        <v>679.0478683236919</v>
       </c>
       <c r="G222" t="n">
-        <v>485.6529245540832</v>
+        <v>508.3359113269424</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>14519.83</v>
+        <v>14713.9</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38997940</v>
+        <v>39327778</v>
       </c>
       <c r="E223" t="n">
-        <v>276489032</v>
+        <v>278827527</v>
       </c>
       <c r="F223" t="n">
-        <v>102067.215569472</v>
+        <v>24723.75039600072</v>
       </c>
       <c r="G223" t="n">
-        <v>80994.75730145093</v>
+        <v>27154.18208673977</v>
       </c>
       <c r="H223" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I223" t="n">
-        <v>1627765</v>
+        <v>1672392</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59431</v>
+        <v>58729</v>
       </c>
       <c r="E224" t="n">
-        <v>310086</v>
+        <v>306426</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>303.1257287888045</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>158.2349420642691</v>
       </c>
       <c r="H224" t="n">
-        <v>5.21</v>
+        <v>1.52</v>
       </c>
       <c r="I224" t="n">
-        <v>287913</v>
+        <v>279219</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1275528</v>
+        <v>1275251</v>
       </c>
       <c r="E225" t="n">
-        <v>7909583</v>
+        <v>7907865</v>
       </c>
       <c r="F225" t="n">
-        <v>1735.102089873636</v>
+        <v>1733.324032626727</v>
       </c>
       <c r="G225" t="n">
-        <v>1499.615021266941</v>
+        <v>1482.609351611106</v>
       </c>
       <c r="H225" t="n">
         <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>778470</v>
+        <v>781753</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>618868067</v>
+        <v>625414746</v>
       </c>
       <c r="E226" t="n">
-        <v>2396784714</v>
+        <v>2422139038</v>
       </c>
       <c r="F226" t="n">
-        <v>254896.9356674836</v>
+        <v>319173.025082232</v>
       </c>
       <c r="G226" t="n">
-        <v>461148.3701937362</v>
+        <v>371391.1072368546</v>
       </c>
       <c r="H226" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I226" t="n">
-        <v>33387998</v>
+        <v>32779047</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20832231</v>
+        <v>20878639</v>
       </c>
       <c r="F227" t="n">
-        <v>1732.12400459068</v>
+        <v>1403.446007350744</v>
       </c>
       <c r="G227" t="n">
-        <v>680.2300728097205</v>
+        <v>781.7085044910201</v>
       </c>
       <c r="H227" t="n">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="I227" t="n">
-        <v>16638098</v>
+        <v>16584262</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>716269</v>
+        <v>768219</v>
       </c>
       <c r="F228" t="n">
-        <v>172.4926174807194</v>
+        <v>495.7049206774244</v>
       </c>
       <c r="G228" t="n">
-        <v>62.12744170929384</v>
+        <v>157.2388564918663</v>
       </c>
       <c r="H228" t="n">
-        <v>2.2</v>
+        <v>2.86</v>
       </c>
       <c r="I228" t="n">
-        <v>158264</v>
+        <v>157106</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5894941</v>
+        <v>5897733</v>
       </c>
       <c r="E229" t="n">
-        <v>26388286</v>
+        <v>26400783</v>
       </c>
       <c r="F229" t="n">
-        <v>1234.649183193751</v>
+        <v>1832.012311528228</v>
       </c>
       <c r="G229" t="n">
-        <v>1270.766393613896</v>
+        <v>1675.324404503787</v>
       </c>
       <c r="H229" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I229" t="n">
-        <v>149468</v>
+        <v>149792</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6769169</v>
+        <v>6769120</v>
       </c>
       <c r="E230" t="n">
-        <v>12960123</v>
+        <v>12960028</v>
       </c>
       <c r="F230" t="n">
-        <v>4166.467863925673</v>
+        <v>4195.367083364817</v>
       </c>
       <c r="G230" t="n">
-        <v>3988.722271591459</v>
+        <v>3988.577220575601</v>
       </c>
       <c r="H230" t="n">
         <v>0.86</v>
       </c>
       <c r="I230" t="n">
-        <v>124305</v>
+        <v>107854</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3249238</v>
+        <v>3251228</v>
       </c>
       <c r="E231" t="n">
-        <v>21366229</v>
+        <v>21379318</v>
       </c>
       <c r="F231" t="n">
-        <v>2350.290699849847</v>
+        <v>2324.886476274407</v>
       </c>
       <c r="G231" t="n">
-        <v>459.8980214947118</v>
+        <v>313.7698458885646</v>
       </c>
       <c r="H231" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="I231" t="n">
-        <v>1653069</v>
+        <v>1450871</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>115076250</v>
+        <v>115652938</v>
       </c>
       <c r="E232" t="n">
-        <v>1069206568</v>
+        <v>1074564740</v>
       </c>
       <c r="F232" t="n">
-        <v>183828.1577064888</v>
+        <v>204329.6501036091</v>
       </c>
       <c r="G232" t="n">
-        <v>244126.4873559814</v>
+        <v>228720.5516575775</v>
       </c>
       <c r="H232" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>9277456</v>
+        <v>9424854</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>4.64</v>
       </c>
       <c r="I233" t="n">
-        <v>968.24</v>
+        <v>964.7</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>116420191</v>
+        <v>117995738</v>
       </c>
       <c r="E234" t="n">
-        <v>177601730</v>
+        <v>180005264</v>
       </c>
       <c r="F234" t="n">
-        <v>90938.44360928249</v>
+        <v>62769.48699788856</v>
       </c>
       <c r="G234" t="n">
-        <v>112917.190357497</v>
+        <v>74608.7094657963</v>
       </c>
       <c r="H234" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I234" t="n">
-        <v>7989523</v>
+        <v>8495628</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>17685776</v>
+        <v>17762111</v>
       </c>
       <c r="E235" t="n">
-        <v>24263353</v>
+        <v>24368078</v>
       </c>
       <c r="F235" t="n">
-        <v>1060.9882644082</v>
+        <v>213.8432343954263</v>
       </c>
       <c r="G235" t="n">
-        <v>2398.248156368184</v>
+        <v>955.622272617266</v>
       </c>
       <c r="H235" t="n">
-        <v>0.41</v>
+        <v>1.22</v>
       </c>
       <c r="I235" t="n">
-        <v>546087</v>
+        <v>597391</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>125389023</v>
+        <v>126639276</v>
       </c>
       <c r="E236" t="n">
-        <v>481012476</v>
+        <v>485808647</v>
       </c>
       <c r="F236" t="n">
-        <v>462126.3326790195</v>
+        <v>542978.0517920565</v>
       </c>
       <c r="G236" t="n">
-        <v>515966.4233780841</v>
+        <v>480370.1769465375</v>
       </c>
       <c r="H236" t="n">
         <v>0.1</v>
       </c>
       <c r="I236" t="n">
-        <v>32154462</v>
+        <v>33383560</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>665345</v>
+        <v>667379</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>7.33</v>
+        <v>7.34</v>
       </c>
       <c r="I237" t="n">
-        <v>43746</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>894735</v>
+        <v>833668</v>
       </c>
       <c r="F238" t="n">
-        <v>3.200701183022243</v>
+        <v>44.27734655667753</v>
       </c>
       <c r="G238" t="n">
-        <v>145.2184830779019</v>
+        <v>124.1275631115873</v>
       </c>
       <c r="H238" t="n">
-        <v>0.02</v>
+        <v>0.77</v>
       </c>
       <c r="I238" t="n">
-        <v>128604</v>
+        <v>128977</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3237971</v>
+        <v>3235739</v>
       </c>
       <c r="E239" t="n">
-        <v>30680255</v>
+        <v>30659104</v>
       </c>
       <c r="F239" t="n">
-        <v>1057.808821773503</v>
+        <v>834.0880976777017</v>
       </c>
       <c r="G239" t="n">
-        <v>2211.760742654804</v>
+        <v>2272.504535904583</v>
       </c>
       <c r="H239" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="I239" t="n">
-        <v>221278</v>
+        <v>223422</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>733897</v>
+        <v>734756</v>
       </c>
       <c r="E240" t="n">
-        <v>784531</v>
+        <v>785450</v>
       </c>
       <c r="F240" t="n">
-        <v>72.79417627214831</v>
+        <v>37.64120224346687</v>
       </c>
       <c r="G240" t="n">
-        <v>1612.246836501559</v>
+        <v>1569.933584392024</v>
       </c>
       <c r="H240" t="n">
-        <v>2.11</v>
+        <v>2.3</v>
       </c>
       <c r="I240" t="n">
-        <v>94500</v>
+        <v>97892</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>363646</v>
+        <v>415609</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>12.24</v>
+        <v>16.11</v>
       </c>
       <c r="I241" t="n">
-        <v>283.36</v>
+        <v>451.59</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>135729</v>
+        <v>132795</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>4.35</v>
+        <v>4.29</v>
       </c>
       <c r="I242" t="n">
-        <v>88925</v>
+        <v>87041</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>548930</v>
+        <v>569195</v>
       </c>
       <c r="F243" t="n">
-        <v>119.003110730781</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>199.0087819855441</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>1.08</v>
+        <v>5</v>
       </c>
       <c r="I243" t="n">
-        <v>1479.46</v>
+        <v>2354.34</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6442208</v>
+        <v>6904006</v>
       </c>
       <c r="E244" t="n">
-        <v>40261954</v>
+        <v>43148064</v>
       </c>
       <c r="F244" t="n">
-        <v>927.4525731497143</v>
+        <v>83.56044463780516</v>
       </c>
       <c r="G244" t="n">
-        <v>621.5508311828755</v>
+        <v>438.9610130868706</v>
       </c>
       <c r="H244" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I244" t="n">
-        <v>423557</v>
+        <v>449091</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5268266</v>
+        <v>5283276</v>
       </c>
       <c r="E245" t="n">
-        <v>19617943</v>
+        <v>19632754</v>
       </c>
       <c r="F245" t="n">
-        <v>3686.574120201045</v>
+        <v>3994.240392811321</v>
       </c>
       <c r="G245" t="n">
-        <v>4482.986555331418</v>
+        <v>4300.513283774539</v>
       </c>
       <c r="H245" t="n">
         <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>76285</v>
+        <v>72860</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3755623</v>
+        <v>3755426</v>
       </c>
       <c r="F246" t="n">
-        <v>133.9234262513186</v>
+        <v>133.9185401633898</v>
       </c>
       <c r="G246" t="n">
-        <v>1352.067259718076</v>
+        <v>1351.951171318077</v>
       </c>
       <c r="H246" t="n">
         <v>1.26</v>
       </c>
       <c r="I246" t="n">
-        <v>7299.26</v>
+        <v>7035.16</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31488816</v>
+        <v>31460761</v>
       </c>
       <c r="E247" t="n">
-        <v>112867259</v>
+        <v>112766702</v>
       </c>
       <c r="F247" t="n">
-        <v>2173.979767588086</v>
+        <v>2173.900451693944</v>
       </c>
       <c r="G247" t="n">
-        <v>4331.589091164525</v>
+        <v>4314.39944977396</v>
       </c>
       <c r="H247" t="n">
         <v>0.73</v>
       </c>
       <c r="I247" t="n">
-        <v>84080</v>
+        <v>84300</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1571439</v>
+        <v>1570378</v>
       </c>
       <c r="F248" t="n">
-        <v>267.4347774304335</v>
+        <v>3.545706491292607</v>
       </c>
       <c r="G248" t="n">
-        <v>8.753381574069442</v>
+        <v>25.38902920051228</v>
       </c>
       <c r="H248" t="n">
         <v>2.55</v>
       </c>
       <c r="I248" t="n">
-        <v>607216</v>
+        <v>604830</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2202328</v>
+        <v>2207931</v>
       </c>
       <c r="E249" t="n">
-        <v>16939680</v>
+        <v>16982776</v>
       </c>
       <c r="F249" t="n">
-        <v>1950.940798020411</v>
+        <v>4953.563598522461</v>
       </c>
       <c r="G249" t="n">
-        <v>5285.238406123847</v>
+        <v>3063.94956789569</v>
       </c>
       <c r="H249" t="n">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
       <c r="I249" t="n">
-        <v>168875</v>
+        <v>143259</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103765</v>
+        <v>103480</v>
       </c>
       <c r="E250" t="n">
-        <v>824203</v>
+        <v>821941</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2998942644599</v>
+        <v>158.2937704204869</v>
       </c>
       <c r="G250" t="n">
-        <v>359.6004971625184</v>
+        <v>359.5865859887462</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>1318.67</v>
+        <v>580.22</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89001938</v>
+        <v>89182590</v>
       </c>
       <c r="E251" t="n">
-        <v>328999525</v>
+        <v>329666806</v>
       </c>
       <c r="F251" t="n">
-        <v>4845.636938345448</v>
+        <v>4950.174626127434</v>
       </c>
       <c r="G251" t="n">
-        <v>1526.162074498445</v>
+        <v>1689.708013820197</v>
       </c>
       <c r="H251" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I251" t="n">
-        <v>231100</v>
+        <v>232293</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2271792</v>
+        <v>2264074</v>
       </c>
       <c r="E252" t="n">
-        <v>9108027</v>
+        <v>9077086</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>7.97</v>
+        <v>5.37</v>
       </c>
       <c r="I252" t="n">
-        <v>41110</v>
+        <v>28730</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>607633</v>
+        <v>608087</v>
       </c>
       <c r="F253" t="n">
-        <v>363.1806397094085</v>
+        <v>334.2174430972175</v>
       </c>
       <c r="G253" t="n">
-        <v>4.11777912928846</v>
+        <v>5.625157305413163</v>
       </c>
       <c r="H253" t="n">
-        <v>2.14</v>
+        <v>3.79</v>
       </c>
       <c r="I253" t="n">
-        <v>3089.85</v>
+        <v>3091.14</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39609</v>
+        <v>39638</v>
       </c>
       <c r="F254" t="n">
-        <v>99.89873037023172</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1.292454528781909</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.64</v>
+        <v>5.36</v>
       </c>
       <c r="I254" t="n">
-        <v>4156.44</v>
+        <v>4158.17</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>802233169</v>
+        <v>823232639</v>
       </c>
       <c r="E255" t="n">
-        <v>1237114377</v>
+        <v>1269497414</v>
       </c>
       <c r="F255" t="n">
-        <v>192021.1705131478</v>
+        <v>142937.4019627549</v>
       </c>
       <c r="G255" t="n">
-        <v>253239.2625851997</v>
+        <v>228958.5446357332</v>
       </c>
       <c r="H255" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I255" t="n">
-        <v>250082340</v>
+        <v>263603280</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5776045</v>
+        <v>5863241</v>
       </c>
       <c r="E256" t="n">
-        <v>5776045</v>
+        <v>5863241</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.27</v>
+        <v>9.09</v>
       </c>
       <c r="I256" t="n">
-        <v>568.13</v>
+        <v>417.97</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39885758</v>
+        <v>39892459</v>
       </c>
       <c r="E257" t="n">
-        <v>190222761</v>
+        <v>190251266</v>
       </c>
       <c r="F257" t="n">
-        <v>293.9473640645175</v>
+        <v>294.9985886313158</v>
       </c>
       <c r="G257" t="n">
-        <v>262.3579884755658</v>
+        <v>381.5725333228194</v>
       </c>
       <c r="H257" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I257" t="n">
-        <v>294382</v>
+        <v>427060</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>504364</v>
+        <v>504337</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>13.42</v>
+        <v>12.29</v>
       </c>
       <c r="I258" t="n">
-        <v>385.16</v>
+        <v>385.04</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23523275</v>
+        <v>23521118</v>
       </c>
       <c r="E259" t="n">
-        <v>39205458</v>
+        <v>39201862</v>
       </c>
       <c r="F259" t="n">
-        <v>6705.918491777988</v>
+        <v>13595.54838832789</v>
       </c>
       <c r="G259" t="n">
-        <v>6949.713324573404</v>
+        <v>9886.246457990692</v>
       </c>
       <c r="H259" t="n">
         <v>0.38</v>
       </c>
       <c r="I259" t="n">
-        <v>476605</v>
+        <v>473878</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110016</v>
+        <v>110061</v>
       </c>
       <c r="F260" t="n">
-        <v>62.25023922162063</v>
+        <v>164.0262700463926</v>
       </c>
       <c r="G260" t="n">
-        <v>65.20997967220848</v>
+        <v>106.3771055535014</v>
       </c>
       <c r="H260" t="n">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="I260" t="n">
-        <v>50132</v>
+        <v>50325</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1602166</v>
+        <v>1333690</v>
       </c>
       <c r="E261" t="n">
-        <v>6838514</v>
+        <v>5691828</v>
       </c>
       <c r="F261" t="n">
-        <v>9.604952278660942</v>
+        <v>1.255146963135917</v>
       </c>
       <c r="G261" t="n">
-        <v>16.501811445002</v>
+        <v>1.227360232310554</v>
       </c>
       <c r="H261" t="n">
-        <v>1.79</v>
+        <v>2.21</v>
       </c>
       <c r="I261" t="n">
-        <v>470171</v>
+        <v>534566</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3808904</v>
+        <v>3818422</v>
       </c>
       <c r="E262" t="n">
-        <v>8310979</v>
+        <v>8331748</v>
       </c>
       <c r="F262" t="n">
-        <v>1156.174128618693</v>
+        <v>1738.694535977041</v>
       </c>
       <c r="G262" t="n">
-        <v>1573.4056743482</v>
+        <v>1594.238978804119</v>
       </c>
       <c r="H262" t="n">
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="I262" t="n">
-        <v>53563</v>
+        <v>1814768</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>501151441</v>
+        <v>504692552</v>
       </c>
       <c r="E263" t="n">
-        <v>1744466458</v>
+        <v>1756792771</v>
       </c>
       <c r="F263" t="n">
-        <v>665010.0419094563</v>
+        <v>536848.5908248723</v>
       </c>
       <c r="G263" t="n">
-        <v>692880.9733486512</v>
+        <v>846388.1019820579</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>31654526</v>
+        <v>32330579</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5753977858</v>
+        <v>5757089962</v>
       </c>
       <c r="E264" t="n">
-        <v>5753977858</v>
+        <v>5757089962</v>
       </c>
       <c r="F264" t="n">
-        <v>3589.155552843582</v>
+        <v>3297.271098883371</v>
       </c>
       <c r="G264" t="n">
-        <v>1809.510081592146</v>
+        <v>2462.766758088386</v>
       </c>
       <c r="H264" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I264" t="n">
-        <v>9976661</v>
+        <v>9478232</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24124572</v>
+        <v>24758436</v>
       </c>
       <c r="E265" t="n">
-        <v>24103616</v>
+        <v>24736930</v>
       </c>
       <c r="F265" t="n">
-        <v>123.5614797799044</v>
+        <v>318.5818145038545</v>
       </c>
       <c r="G265" t="n">
-        <v>252.332403521796</v>
+        <v>75.64223087000701</v>
       </c>
       <c r="H265" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="I265" t="n">
-        <v>83539</v>
+        <v>83944</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12231890</v>
+        <v>12222069</v>
       </c>
       <c r="E266" t="n">
-        <v>24729005</v>
+        <v>24707871</v>
       </c>
       <c r="F266" t="n">
-        <v>628.4881954011881</v>
+        <v>716.127088668409</v>
       </c>
       <c r="G266" t="n">
-        <v>741.9507526210689</v>
+        <v>745.3465474733632</v>
       </c>
       <c r="H266" t="n">
         <v>1.62</v>
       </c>
       <c r="I266" t="n">
-        <v>41324</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>152798</v>
+        <v>152277</v>
       </c>
       <c r="F267" t="n">
-        <v>182.579329732558</v>
+        <v>182.5726684733294</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1506600544471</v>
+        <v>132.1458386444597</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>58686</v>
+        <v>57515</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46410</v>
+        <v>46449</v>
       </c>
       <c r="F268" t="n">
-        <v>40.65213095234084</v>
+        <v>62.58908019938329</v>
       </c>
       <c r="G268" t="n">
-        <v>159.8268707166429</v>
+        <v>159.8795090663895</v>
       </c>
       <c r="H268" t="n">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="I268" t="n">
-        <v>70469</v>
+        <v>70272</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2626705</v>
+        <v>2661908</v>
       </c>
       <c r="E269" t="n">
-        <v>10506818</v>
+        <v>10647630</v>
       </c>
       <c r="F269" t="n">
-        <v>37501.6774941063</v>
+        <v>27127.99279583352</v>
       </c>
       <c r="G269" t="n">
-        <v>29251.18232284072</v>
+        <v>47395.51900560947</v>
       </c>
       <c r="H269" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I269" t="n">
-        <v>6888766</v>
+        <v>6981882</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>229315899</v>
+        <v>228964341</v>
       </c>
       <c r="E270" t="n">
-        <v>705060093</v>
+        <v>703979185</v>
       </c>
       <c r="F270" t="n">
-        <v>230616.1999530196</v>
+        <v>182685.1964102663</v>
       </c>
       <c r="G270" t="n">
-        <v>326939.7282422475</v>
+        <v>283371.3034507908</v>
       </c>
       <c r="H270" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>16117365</v>
+        <v>16338567</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>143426714</v>
+        <v>144716690</v>
       </c>
       <c r="E271" t="n">
-        <v>374698312</v>
+        <v>378068338</v>
       </c>
       <c r="F271" t="n">
-        <v>61329.83079128824</v>
+        <v>71357.18784394897</v>
       </c>
       <c r="G271" t="n">
-        <v>51705.66053528581</v>
+        <v>69879.73261644227</v>
       </c>
       <c r="H271" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I271" t="n">
-        <v>8471139</v>
+        <v>8464463</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2445587</v>
+        <v>2439392</v>
       </c>
       <c r="E272" t="n">
-        <v>3356574</v>
+        <v>3348071</v>
       </c>
       <c r="F272" t="n">
-        <v>75.49000335256761</v>
+        <v>76.51836865087094</v>
       </c>
       <c r="G272" t="n">
-        <v>34.09320369691477</v>
+        <v>34.09188479862397</v>
       </c>
       <c r="H272" t="n">
         <v>1.5</v>
       </c>
       <c r="I272" t="n">
-        <v>2000703</v>
+        <v>1993696</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56760</v>
+        <v>56713</v>
       </c>
       <c r="F2" t="n">
-        <v>1.948492354750062</v>
+        <v>1.948300736170717</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87919558502768</v>
+        <v>10.87812570348705</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>682.5599999999999</v>
+        <v>682.54</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91335</v>
+        <v>91256</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49941207498456</v>
+        <v>22.49719943844668</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1780233760028</v>
+        <v>416.1370956087475</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1401.32</v>
+        <v>1401.11</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>615731752</v>
+        <v>620269343</v>
       </c>
       <c r="E4" t="n">
-        <v>1194800022</v>
+        <v>1203605168</v>
       </c>
       <c r="F4" t="n">
-        <v>36268.99619931068</v>
+        <v>30617.53405687632</v>
       </c>
       <c r="G4" t="n">
-        <v>47344.50644070296</v>
+        <v>43894.8278851497</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>19963813</v>
+        <v>20830791</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1358479</v>
+        <v>1354818</v>
       </c>
       <c r="E5" t="n">
-        <v>4391161</v>
+        <v>4379329</v>
       </c>
       <c r="F5" t="n">
-        <v>4390.986598085237</v>
+        <v>2802.948892410463</v>
       </c>
       <c r="G5" t="n">
-        <v>4960.438646767512</v>
+        <v>5667.721670224504</v>
       </c>
       <c r="H5" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I5" t="n">
-        <v>126855</v>
+        <v>133118</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>149214893</v>
+        <v>150961450</v>
       </c>
       <c r="E6" t="n">
-        <v>165353421</v>
+        <v>167288879</v>
       </c>
       <c r="F6" t="n">
-        <v>237521.0515261512</v>
+        <v>165350.0724961876</v>
       </c>
       <c r="G6" t="n">
-        <v>365994.7794321757</v>
+        <v>419488.7597160867</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>38362735</v>
+        <v>39165234</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3825.47</v>
+        <v>4204.54</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>42.3</v>
+        <v>82.93000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8493278</v>
+        <v>8510493</v>
       </c>
       <c r="E8" t="n">
-        <v>8707447</v>
+        <v>8725096</v>
       </c>
       <c r="F8" t="n">
-        <v>374.049927422387</v>
+        <v>413.5001391768181</v>
       </c>
       <c r="G8" t="n">
-        <v>1781.368279718793</v>
+        <v>1862.436606678475</v>
       </c>
       <c r="H8" t="n">
-        <v>0.76</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>87410</v>
+        <v>88071</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285720</v>
+        <v>285433</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.84</v>
+        <v>6.58</v>
       </c>
       <c r="I9" t="n">
-        <v>435.62</v>
+        <v>435.58</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4968123</v>
+        <v>4956037</v>
       </c>
       <c r="E10" t="n">
-        <v>7937568</v>
+        <v>7918258</v>
       </c>
       <c r="F10" t="n">
-        <v>226.2213128242569</v>
+        <v>217.135918904724</v>
       </c>
       <c r="G10" t="n">
-        <v>415.1314044992425</v>
+        <v>393.6097760262306</v>
       </c>
       <c r="H10" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>98397</v>
+        <v>98303</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1002919</v>
+        <v>1006218</v>
       </c>
       <c r="E11" t="n">
-        <v>12273020</v>
+        <v>12313394</v>
       </c>
       <c r="F11" t="n">
-        <v>1568.977072091429</v>
+        <v>1569.491431163121</v>
       </c>
       <c r="G11" t="n">
-        <v>1341.576603785559</v>
+        <v>1350.483877801401</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>483.12</v>
+        <v>531.63</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>576315</v>
+        <v>589856</v>
       </c>
       <c r="E12" t="n">
-        <v>576315</v>
+        <v>589856</v>
       </c>
       <c r="F12" t="n">
-        <v>115.0009708139071</v>
+        <v>13.60876790733099</v>
       </c>
       <c r="G12" t="n">
-        <v>483.6394572458304</v>
+        <v>85.49022707782321</v>
       </c>
       <c r="H12" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="I12" t="n">
-        <v>24399</v>
+        <v>26655</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4576513</v>
+        <v>4610354</v>
       </c>
       <c r="E13" t="n">
-        <v>28107371</v>
+        <v>28315216</v>
       </c>
       <c r="F13" t="n">
-        <v>678.1779892714577</v>
+        <v>493.6502812658599</v>
       </c>
       <c r="G13" t="n">
-        <v>1150.016043164735</v>
+        <v>1233.371386048461</v>
       </c>
       <c r="H13" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I13" t="n">
-        <v>672603</v>
+        <v>681450</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198018</v>
+        <v>198060</v>
       </c>
       <c r="E14" t="n">
-        <v>2178411</v>
+        <v>2178878</v>
       </c>
       <c r="F14" t="n">
-        <v>8.207065660561677</v>
+        <v>8.206266130792287</v>
       </c>
       <c r="G14" t="n">
-        <v>1804.504091800459</v>
+        <v>1804.328297576305</v>
       </c>
       <c r="H14" t="n">
         <v>0.46</v>
       </c>
       <c r="I14" t="n">
-        <v>27692</v>
+        <v>27696</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3364676</v>
+        <v>3383888</v>
       </c>
       <c r="E15" t="n">
-        <v>9572207</v>
+        <v>9626862</v>
       </c>
       <c r="F15" t="n">
-        <v>596.6459563942956</v>
+        <v>317.5771018514385</v>
       </c>
       <c r="G15" t="n">
-        <v>541.4198517831155</v>
+        <v>382.8890133322259</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>107151</v>
+        <v>107774</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>317230</v>
+        <v>317410</v>
       </c>
       <c r="E16" t="n">
-        <v>3661213</v>
+        <v>3663287</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2645034731439</v>
+        <v>134.3587873520762</v>
       </c>
       <c r="G16" t="n">
-        <v>131.5377898404185</v>
+        <v>131.9599023609566</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3486.13</v>
+        <v>3429.18</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>943674</v>
+        <v>944608</v>
       </c>
       <c r="F17" t="n">
-        <v>13.69298741284415</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>29.3200699567382</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.79</v>
+        <v>5.92</v>
       </c>
       <c r="I17" t="n">
-        <v>11692.78</v>
+        <v>11858.76</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23193486</v>
+        <v>23161656</v>
       </c>
       <c r="E18" t="n">
-        <v>23236550</v>
+        <v>23204660</v>
       </c>
       <c r="F18" t="n">
-        <v>2034.099856892389</v>
+        <v>2874.59024003241</v>
       </c>
       <c r="G18" t="n">
-        <v>2124.596977273633</v>
+        <v>800.0517521451201</v>
       </c>
       <c r="H18" t="n">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="I18" t="n">
-        <v>836096</v>
+        <v>834306</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7239296</v>
+        <v>7202300</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.1</v>
+        <v>5.98</v>
       </c>
       <c r="I19" t="n">
-        <v>19201.82</v>
+        <v>19178.97</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2457819</v>
+        <v>2431710</v>
       </c>
       <c r="E20" t="n">
-        <v>2457819</v>
+        <v>2431710</v>
       </c>
       <c r="F20" t="n">
-        <v>279.0000982378756</v>
+        <v>22.07208012564046</v>
       </c>
       <c r="G20" t="n">
-        <v>1.42819960829052</v>
+        <v>32.01060081310735</v>
       </c>
       <c r="H20" t="n">
-        <v>1.23</v>
+        <v>2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>316940</v>
+        <v>317511</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>404130</v>
+        <v>404064</v>
       </c>
       <c r="F21" t="n">
-        <v>97.71156224239316</v>
+        <v>97.70204321256476</v>
       </c>
       <c r="G21" t="n">
-        <v>1.637328438358454</v>
+        <v>1.637168930334163</v>
       </c>
       <c r="H21" t="n">
         <v>1.47</v>
       </c>
       <c r="I21" t="n">
-        <v>1752.22</v>
+        <v>1751.93</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17271127</v>
+        <v>17539478</v>
       </c>
       <c r="E22" t="n">
-        <v>22229358</v>
+        <v>22574747</v>
       </c>
       <c r="F22" t="n">
-        <v>4957.565922283705</v>
+        <v>4635.005254331668</v>
       </c>
       <c r="G22" t="n">
-        <v>11839.15030710397</v>
+        <v>10058.37655136735</v>
       </c>
       <c r="H22" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>1530962</v>
+        <v>1550950</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>485560161</v>
+        <v>492965666</v>
       </c>
       <c r="E23" t="n">
-        <v>485560167</v>
+        <v>492965673</v>
       </c>
       <c r="F23" t="n">
-        <v>55546.66205730778</v>
+        <v>54891.05857915629</v>
       </c>
       <c r="G23" t="n">
-        <v>81314.67891166404</v>
+        <v>75576.62233200624</v>
       </c>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>65132681</v>
+        <v>66356179</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23538</v>
+        <v>23518</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>7.52</v>
       </c>
       <c r="I24" t="n">
-        <v>2451.12</v>
+        <v>2451.04</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4752823</v>
+        <v>4774925</v>
       </c>
       <c r="E25" t="n">
-        <v>4752823</v>
+        <v>4774925</v>
       </c>
       <c r="F25" t="n">
-        <v>92.46953524029358</v>
+        <v>612.7134062961813</v>
       </c>
       <c r="G25" t="n">
-        <v>1529.466151514572</v>
+        <v>1270.191734857229</v>
       </c>
       <c r="H25" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I25" t="n">
-        <v>1999883</v>
+        <v>2006960</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3414897</v>
+        <v>3419525</v>
       </c>
       <c r="E26" t="n">
-        <v>3414897</v>
+        <v>3419525</v>
       </c>
       <c r="F26" t="n">
-        <v>1011.070897548711</v>
+        <v>1301.490500593083</v>
       </c>
       <c r="G26" t="n">
-        <v>211.2461413387826</v>
+        <v>241.9538022414028</v>
       </c>
       <c r="H26" t="n">
-        <v>0.15</v>
+        <v>0.84</v>
       </c>
       <c r="I26" t="n">
-        <v>511526</v>
+        <v>512845</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>315659</v>
+        <v>313227</v>
       </c>
       <c r="E27" t="n">
-        <v>1473527</v>
+        <v>1462175</v>
       </c>
       <c r="F27" t="n">
-        <v>2324.578223470443</v>
+        <v>140.4523907374618</v>
       </c>
       <c r="G27" t="n">
-        <v>674.081336972692</v>
+        <v>812.9580489530931</v>
       </c>
       <c r="H27" t="n">
         <v>0.54</v>
       </c>
       <c r="I27" t="n">
-        <v>702880</v>
+        <v>699901</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1465967</v>
+        <v>1457407</v>
       </c>
       <c r="F28" t="n">
-        <v>289.9366374576654</v>
+        <v>268.9562851006281</v>
       </c>
       <c r="G28" t="n">
-        <v>355.0300198636492</v>
+        <v>356.4631353068762</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>320517</v>
+        <v>243186</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12777131</v>
+        <v>12788000</v>
       </c>
       <c r="E29" t="n">
-        <v>31799968</v>
+        <v>31827019</v>
       </c>
       <c r="F29" t="n">
-        <v>846.4098758363554</v>
+        <v>703.6065381776551</v>
       </c>
       <c r="G29" t="n">
-        <v>1269.555944553783</v>
+        <v>1185.922201470372</v>
       </c>
       <c r="H29" t="n">
         <v>0.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1246867</v>
+        <v>1250861</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>906703</v>
+        <v>907824</v>
       </c>
       <c r="E30" t="n">
-        <v>6346925</v>
+        <v>6354765</v>
       </c>
       <c r="F30" t="n">
-        <v>631.1906880432998</v>
+        <v>665.6801565271865</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5766379595773</v>
+        <v>247.8794466841871</v>
       </c>
       <c r="H30" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="I30" t="n">
-        <v>244396</v>
+        <v>223517</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>189749</v>
+        <v>191416</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>6.91</v>
       </c>
       <c r="I31" t="n">
-        <v>807.33</v>
+        <v>814.15</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5720118</v>
+        <v>5728316</v>
       </c>
       <c r="E32" t="n">
-        <v>5993768</v>
+        <v>6002359</v>
       </c>
       <c r="F32" t="n">
-        <v>29.92447400233065</v>
+        <v>80.67714860190615</v>
       </c>
       <c r="G32" t="n">
-        <v>314.3398225386284</v>
+        <v>185.1490442047429</v>
       </c>
       <c r="H32" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="I32" t="n">
-        <v>153985</v>
+        <v>153267</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5402488</v>
+        <v>5367648</v>
       </c>
       <c r="E33" t="n">
-        <v>7952756</v>
+        <v>7901468</v>
       </c>
       <c r="F33" t="n">
-        <v>43.44472557055776</v>
+        <v>36.56305940548391</v>
       </c>
       <c r="G33" t="n">
-        <v>103.7277554398681</v>
+        <v>137.731386805005</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>1.99</v>
       </c>
       <c r="I33" t="n">
-        <v>659213</v>
+        <v>588288</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7569353</v>
+        <v>7644701</v>
       </c>
       <c r="E34" t="n">
-        <v>7569353</v>
+        <v>7644701</v>
       </c>
       <c r="F34" t="n">
-        <v>1678.469633699686</v>
+        <v>32609.46825239873</v>
       </c>
       <c r="G34" t="n">
-        <v>26257.60694267382</v>
+        <v>23298.1739294309</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08</v>
+        <v>1.04</v>
       </c>
       <c r="I34" t="n">
-        <v>316621</v>
+        <v>185859</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1456236</v>
+        <v>1459798</v>
       </c>
       <c r="E35" t="n">
-        <v>1456236</v>
+        <v>1459798</v>
       </c>
       <c r="F35" t="n">
-        <v>502.6480644487921</v>
+        <v>489.2449591737231</v>
       </c>
       <c r="G35" t="n">
-        <v>196.5427923510764</v>
+        <v>309.4757299590436</v>
       </c>
       <c r="H35" t="n">
-        <v>2.39</v>
+        <v>1.02</v>
       </c>
       <c r="I35" t="n">
-        <v>278065</v>
+        <v>278059</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15803526</v>
+        <v>15803497</v>
       </c>
       <c r="F36" t="n">
-        <v>169.0589695822953</v>
+        <v>169.0481362018974</v>
       </c>
       <c r="G36" t="n">
-        <v>196.0071614812793</v>
+        <v>195.9880432195086</v>
       </c>
       <c r="H36" t="n">
         <v>0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>10252.18</v>
+        <v>10340.72</v>
       </c>
     </row>
     <row r="37">
@@ -1721,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>58251</v>
+        <v>55468</v>
       </c>
       <c r="F37" t="n">
-        <v>1.3028007075187</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005461007726899171</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.33</v>
+        <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>602.84</v>
+        <v>1020.98</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="E38" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="F38" t="n">
-        <v>288970.5216429688</v>
+        <v>250638.7326085751</v>
       </c>
       <c r="G38" t="n">
-        <v>538520.1436440576</v>
+        <v>384320.4159779791</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>70319634</v>
+        <v>72158657</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>68427863</v>
+        <v>68943304</v>
       </c>
       <c r="E39" t="n">
-        <v>350912116</v>
+        <v>353555405</v>
       </c>
       <c r="F39" t="n">
-        <v>73670.75844342135</v>
+        <v>82266.00414717301</v>
       </c>
       <c r="G39" t="n">
-        <v>168485.2638671302</v>
+        <v>121622.7560326511</v>
       </c>
       <c r="H39" t="n">
         <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>24760749</v>
+        <v>25375903</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46442</v>
+        <v>46404</v>
       </c>
       <c r="E40" t="n">
-        <v>137245</v>
+        <v>137132</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.92</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>118.24</v>
+        <v>118.23</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54638</v>
+        <v>54622</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="I41" t="n">
-        <v>26626</v>
+        <v>26194</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595255</v>
+        <v>594689</v>
       </c>
       <c r="F42" t="n">
-        <v>40.42631120138469</v>
+        <v>306.3549816791161</v>
       </c>
       <c r="G42" t="n">
-        <v>410.1764586647503</v>
+        <v>410.1361211032</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1523.85</v>
+        <v>1522.88</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2698649</v>
+        <v>2726910</v>
       </c>
       <c r="E44" t="n">
-        <v>10845254</v>
+        <v>10958830</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>40.69426528879038</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>240.5735687953157</v>
       </c>
       <c r="H44" t="n">
-        <v>5.22</v>
+        <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>34224</v>
+        <v>34997</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17687478</v>
+        <v>17645864</v>
       </c>
       <c r="E45" t="n">
-        <v>124553487</v>
+        <v>124258659</v>
       </c>
       <c r="F45" t="n">
-        <v>303.2629825651402</v>
+        <v>303.6100806630429</v>
       </c>
       <c r="G45" t="n">
-        <v>259.223693034236</v>
+        <v>259.0769103084283</v>
       </c>
       <c r="H45" t="n">
         <v>0.64</v>
       </c>
       <c r="I45" t="n">
-        <v>1075683</v>
+        <v>1077508</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>148544</v>
+        <v>151443</v>
       </c>
       <c r="E46" t="n">
-        <v>1987601</v>
+        <v>2026395</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>43368</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="E47" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="F47" t="n">
-        <v>121561.5859823302</v>
+        <v>110230.5398526462</v>
       </c>
       <c r="G47" t="n">
-        <v>175542.858265451</v>
+        <v>165797.6422540133</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>18335728</v>
+        <v>15473919</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>642859</v>
+        <v>643902</v>
       </c>
       <c r="E48" t="n">
-        <v>642859</v>
+        <v>643902</v>
       </c>
       <c r="F48" t="n">
-        <v>463.3417201536986</v>
+        <v>7.855134640178871</v>
       </c>
       <c r="G48" t="n">
-        <v>125.2363510676792</v>
+        <v>223.9399540329998</v>
       </c>
       <c r="H48" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="I48" t="n">
-        <v>2744.75</v>
+        <v>2749.32</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>442926236</v>
+        <v>448128339</v>
       </c>
       <c r="E50" t="n">
-        <v>442926236</v>
+        <v>448128339</v>
       </c>
       <c r="F50" t="n">
-        <v>3072.20437589211</v>
+        <v>3056.225952735334</v>
       </c>
       <c r="G50" t="n">
-        <v>2145.187509257116</v>
+        <v>2234.624547732127</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I50" t="n">
-        <v>2521410</v>
+        <v>2563628</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2490476</v>
+        <v>2440587</v>
       </c>
       <c r="E51" t="n">
-        <v>2490476</v>
+        <v>2440587</v>
       </c>
       <c r="F51" t="n">
-        <v>225.4434277793822</v>
+        <v>1013.642675391729</v>
       </c>
       <c r="G51" t="n">
-        <v>1405.258076579191</v>
+        <v>1039.454182658982</v>
       </c>
       <c r="H51" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="I51" t="n">
-        <v>54435</v>
+        <v>102475</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23425</v>
+        <v>23399</v>
       </c>
       <c r="E52" t="n">
-        <v>46851</v>
+        <v>46798</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>7.11</v>
+        <v>6.69</v>
       </c>
       <c r="I52" t="n">
-        <v>1794.71</v>
+        <v>1710.76</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>158798</v>
+        <v>162579</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>18.75469931143111</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>41.6099875666142</v>
       </c>
       <c r="H53" t="n">
-        <v>6.82</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>22749</v>
+        <v>22518</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2557389</v>
+        <v>2556328</v>
       </c>
       <c r="E54" t="n">
-        <v>6538187</v>
+        <v>6535474</v>
       </c>
       <c r="F54" t="n">
-        <v>149.3084875905195</v>
+        <v>202.6298380333906</v>
       </c>
       <c r="G54" t="n">
-        <v>127.9554434853597</v>
+        <v>261.3880115518184</v>
       </c>
       <c r="H54" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I54" t="n">
-        <v>108886</v>
+        <v>109554</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3429.8</v>
+        <v>3644.16</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1.414623882185515</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1.095887443832555</v>
       </c>
       <c r="H55" t="n">
-        <v>5.9</v>
+        <v>3.83</v>
       </c>
       <c r="I55" t="n">
-        <v>525.58</v>
+        <v>527.78</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74963506</v>
+        <v>75338832</v>
       </c>
       <c r="E56" t="n">
-        <v>74963506</v>
+        <v>75338832</v>
       </c>
       <c r="F56" t="n">
-        <v>11704.42330761924</v>
+        <v>13964.80221249653</v>
       </c>
       <c r="G56" t="n">
-        <v>24250.54264928753</v>
+        <v>17924.98270663352</v>
       </c>
       <c r="H56" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I56" t="n">
-        <v>3330572</v>
+        <v>3354155</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3462916</v>
+        <v>3445474</v>
       </c>
       <c r="E57" t="n">
-        <v>4388120</v>
+        <v>4366017</v>
       </c>
       <c r="F57" t="n">
-        <v>625.2656724924299</v>
+        <v>565.9554090964116</v>
       </c>
       <c r="G57" t="n">
-        <v>311.9275071909219</v>
+        <v>135.2859493265276</v>
       </c>
       <c r="H57" t="n">
         <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>246128</v>
+        <v>247850</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4127721</v>
+        <v>4133699</v>
       </c>
       <c r="E58" t="n">
-        <v>8140213</v>
+        <v>8152003</v>
       </c>
       <c r="F58" t="n">
-        <v>2187.071391970375</v>
+        <v>2051.024771499777</v>
       </c>
       <c r="G58" t="n">
-        <v>17929.871989328</v>
+        <v>18305.25793454977</v>
       </c>
       <c r="H58" t="n">
         <v>0.1</v>
       </c>
       <c r="I58" t="n">
-        <v>1569897</v>
+        <v>1572567</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1632559</v>
+        <v>1645612</v>
       </c>
       <c r="E59" t="n">
-        <v>9373543</v>
+        <v>9448488</v>
       </c>
       <c r="F59" t="n">
-        <v>198.0150461754863</v>
+        <v>296.4272983782739</v>
       </c>
       <c r="G59" t="n">
-        <v>519.1792569273983</v>
+        <v>480.8854912959779</v>
       </c>
       <c r="H59" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="I59" t="n">
-        <v>288164</v>
+        <v>290056</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>546390</v>
+        <v>545823</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>10.53</v>
       </c>
       <c r="I60" t="n">
-        <v>1756.74</v>
+        <v>1742.52</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31196883</v>
+        <v>31184765</v>
       </c>
       <c r="F61" t="n">
-        <v>428.1373810509547</v>
+        <v>698.8375564034475</v>
       </c>
       <c r="G61" t="n">
-        <v>2004.772656220615</v>
+        <v>1709.398956321834</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>245202</v>
+        <v>246574</v>
       </c>
     </row>
     <row r="62">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1440841</v>
+        <v>1441375</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3.97</v>
+        <v>8.09</v>
       </c>
       <c r="I62" t="n">
-        <v>28496</v>
+        <v>28530</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7697789</v>
+        <v>7685029</v>
       </c>
       <c r="E63" t="n">
-        <v>18129824</v>
+        <v>18099772</v>
       </c>
       <c r="F63" t="n">
-        <v>599.1452854373111</v>
+        <v>599.0863643088105</v>
       </c>
       <c r="G63" t="n">
-        <v>2215.545412037394</v>
+        <v>2116.33942844975</v>
       </c>
       <c r="H63" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I63" t="n">
-        <v>33081</v>
+        <v>33496</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3096241</v>
+        <v>3099832</v>
       </c>
       <c r="E64" t="n">
-        <v>3096241</v>
+        <v>3099832</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.25</v>
+        <v>5.43</v>
       </c>
       <c r="I64" t="n">
-        <v>20055</v>
+        <v>19942.88</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3371534</v>
+        <v>3407877</v>
       </c>
       <c r="E65" t="n">
-        <v>8319088</v>
+        <v>8408761</v>
       </c>
       <c r="F65" t="n">
-        <v>635.8341477756788</v>
+        <v>612.2509819717243</v>
       </c>
       <c r="G65" t="n">
-        <v>1084.013911986906</v>
+        <v>1123.50491156933</v>
       </c>
       <c r="H65" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="I65" t="n">
-        <v>37560</v>
+        <v>40864</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>265816</v>
+        <v>263623</v>
       </c>
       <c r="F66" t="n">
-        <v>16.96248872691085</v>
+        <v>16.9608342297113</v>
       </c>
       <c r="G66" t="n">
-        <v>27.2507126495006</v>
+        <v>27.2480546534665</v>
       </c>
       <c r="H66" t="n">
         <v>1.72</v>
       </c>
       <c r="I66" t="n">
-        <v>1669.95</v>
+        <v>1914.74</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>79258660</v>
+        <v>80690839</v>
       </c>
       <c r="E67" t="n">
-        <v>165294554</v>
+        <v>168281377</v>
       </c>
       <c r="F67" t="n">
-        <v>55549.505901106</v>
+        <v>63714.79252821166</v>
       </c>
       <c r="G67" t="n">
-        <v>102602.7302800291</v>
+        <v>97093.72089632881</v>
       </c>
       <c r="H67" t="n">
         <v>0.11</v>
       </c>
       <c r="I67" t="n">
-        <v>19182286</v>
+        <v>19848396</v>
       </c>
     </row>
     <row r="68">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1871977</v>
+        <v>1870431</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>4.59</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>4025.8</v>
+        <v>3556.62</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>199991689</v>
+        <v>210515448</v>
       </c>
       <c r="F69" t="n">
-        <v>2475.102993693009</v>
+        <v>1939.868873885962</v>
       </c>
       <c r="G69" t="n">
-        <v>5271.356193953719</v>
+        <v>3013.057804321579</v>
       </c>
       <c r="H69" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="I69" t="n">
-        <v>3296467</v>
+        <v>3469134</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>180041</v>
+        <v>179999</v>
       </c>
       <c r="E70" t="n">
-        <v>188015</v>
+        <v>187970</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>291.89</v>
+        <v>284.46</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>145394828</v>
+        <v>146358376</v>
       </c>
       <c r="E71" t="n">
-        <v>145443715</v>
+        <v>146407587</v>
       </c>
       <c r="F71" t="n">
-        <v>30850.87883722497</v>
+        <v>44856.36881249924</v>
       </c>
       <c r="G71" t="n">
-        <v>53174.44868695134</v>
+        <v>37997.621407584</v>
       </c>
       <c r="H71" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="I71" t="n">
-        <v>2593940</v>
+        <v>2604415</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26169254</v>
+        <v>26244425</v>
       </c>
       <c r="E72" t="n">
-        <v>85882489</v>
+        <v>86129185</v>
       </c>
       <c r="F72" t="n">
-        <v>9603.282009929599</v>
+        <v>23088.34624681257</v>
       </c>
       <c r="G72" t="n">
-        <v>35172.88997011558</v>
+        <v>28991.5180700431</v>
       </c>
       <c r="H72" t="n">
         <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>104153</v>
+        <v>101842</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>120139</v>
+        <v>120088</v>
       </c>
       <c r="E73" t="n">
-        <v>120139</v>
+        <v>120088</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>5.15</v>
       </c>
       <c r="I73" t="n">
-        <v>1383.87</v>
+        <v>1384.23</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>209794835</v>
+        <v>210239690</v>
       </c>
       <c r="E74" t="n">
-        <v>728846218</v>
+        <v>730391682</v>
       </c>
       <c r="F74" t="n">
-        <v>89767.62600944896</v>
+        <v>130744.5882317894</v>
       </c>
       <c r="G74" t="n">
-        <v>212207.961378694</v>
+        <v>217573.2314914749</v>
       </c>
       <c r="H74" t="n">
         <v>0.1</v>
       </c>
       <c r="I74" t="n">
-        <v>29703389</v>
+        <v>29836521</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3415009</v>
+        <v>3566711</v>
       </c>
       <c r="E75" t="n">
-        <v>3415009</v>
+        <v>3566711</v>
       </c>
       <c r="F75" t="n">
-        <v>617.3792610821303</v>
+        <v>601.693303789011</v>
       </c>
       <c r="G75" t="n">
-        <v>865.5144730086033</v>
+        <v>1685.919546372803</v>
       </c>
       <c r="H75" t="n">
-        <v>1.08</v>
+        <v>0.68</v>
       </c>
       <c r="I75" t="n">
-        <v>2505971</v>
+        <v>2544790</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>118415538</v>
+        <v>119717291</v>
       </c>
       <c r="E76" t="n">
-        <v>502946594</v>
+        <v>508454446</v>
       </c>
       <c r="F76" t="n">
-        <v>167579.5668672902</v>
+        <v>175872.4330136014</v>
       </c>
       <c r="G76" t="n">
-        <v>242531.1867997904</v>
+        <v>214514.9982297626</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="I76" t="n">
-        <v>15827646</v>
+        <v>16057604</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1856052</v>
+        <v>1867356</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22944136620558</v>
+        <v>36.22594807365383</v>
       </c>
       <c r="G77" t="n">
-        <v>88.3135943230799</v>
+        <v>88.3050790048847</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>615.77</v>
+        <v>618.28</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3185507</v>
+        <v>3174532</v>
       </c>
       <c r="E78" t="n">
-        <v>15971490</v>
+        <v>15916465</v>
       </c>
       <c r="F78" t="n">
-        <v>269.4793134087186</v>
+        <v>250.421532752196</v>
       </c>
       <c r="G78" t="n">
-        <v>166.022729129893</v>
+        <v>230.8809848698037</v>
       </c>
       <c r="H78" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I78" t="n">
-        <v>32400</v>
+        <v>32319</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>508974</v>
+        <v>494865</v>
       </c>
       <c r="E79" t="n">
-        <v>8705962</v>
+        <v>8464634</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0002907539213358049</v>
+        <v>1.476692323808528</v>
       </c>
       <c r="G79" t="n">
-        <v>610.5951653177457</v>
+        <v>489.6789437395144</v>
       </c>
       <c r="H79" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="I79" t="n">
-        <v>163154</v>
+        <v>160115</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5774855</v>
+        <v>5772949</v>
       </c>
       <c r="E80" t="n">
-        <v>7845465</v>
+        <v>7842876</v>
       </c>
       <c r="F80" t="n">
-        <v>451.185325359898</v>
+        <v>456.5681358671231</v>
       </c>
       <c r="G80" t="n">
-        <v>715.7891156022959</v>
+        <v>1017.596208279807</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I80" t="n">
-        <v>5598647</v>
+        <v>5605975</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43137</v>
+        <v>43102</v>
       </c>
       <c r="F81" t="n">
-        <v>229.8761910542271</v>
+        <v>230.8488460377802</v>
       </c>
       <c r="G81" t="n">
-        <v>2.00027661366</v>
+        <v>2.000083744238545</v>
       </c>
       <c r="H81" t="n">
         <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>42589</v>
+        <v>42493</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40551529</v>
+        <v>40641389</v>
       </c>
       <c r="E82" t="n">
-        <v>47363223</v>
+        <v>47468177</v>
       </c>
       <c r="F82" t="n">
-        <v>190.9646514652594</v>
+        <v>171.5206554307949</v>
       </c>
       <c r="G82" t="n">
-        <v>86.92521498639023</v>
+        <v>69.05196515072761</v>
       </c>
       <c r="H82" t="n">
-        <v>2.54</v>
+        <v>2.11</v>
       </c>
       <c r="I82" t="n">
-        <v>893637</v>
+        <v>882067</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>15038911</v>
+        <v>15031982</v>
       </c>
       <c r="F83" t="n">
-        <v>420.8994606880424</v>
+        <v>239.2547531031099</v>
       </c>
       <c r="G83" t="n">
-        <v>672.3498228922921</v>
+        <v>626.2217165842263</v>
       </c>
       <c r="H83" t="n">
-        <v>1.77</v>
+        <v>0.83</v>
       </c>
       <c r="I83" t="n">
-        <v>279985</v>
+        <v>276999</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36397102</v>
+        <v>36183798</v>
       </c>
       <c r="E84" t="n">
-        <v>36397102</v>
+        <v>36183798</v>
       </c>
       <c r="F84" t="n">
-        <v>128.945803387768</v>
+        <v>129.0068728430383</v>
       </c>
       <c r="G84" t="n">
-        <v>125.965865355905</v>
+        <v>78.33032519524369</v>
       </c>
       <c r="H84" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="I84" t="n">
-        <v>786171</v>
+        <v>797379</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>572624</v>
+        <v>571442</v>
       </c>
       <c r="E85" t="n">
-        <v>6945375</v>
+        <v>6931040</v>
       </c>
       <c r="F85" t="n">
-        <v>667.7912102855448</v>
+        <v>747.1416802515279</v>
       </c>
       <c r="G85" t="n">
-        <v>519.8630160623659</v>
+        <v>479.4103698789119</v>
       </c>
       <c r="H85" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="I85" t="n">
-        <v>2809626</v>
+        <v>2677766</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26180717</v>
+        <v>26799795</v>
       </c>
       <c r="E86" t="n">
-        <v>37005421</v>
+        <v>37880200</v>
       </c>
       <c r="F86" t="n">
-        <v>375.8840070091597</v>
+        <v>626.9534961574932</v>
       </c>
       <c r="G86" t="n">
-        <v>788.3869031199044</v>
+        <v>208.8441160155276</v>
       </c>
       <c r="H86" t="n">
-        <v>0.23</v>
+        <v>2.19</v>
       </c>
       <c r="I86" t="n">
-        <v>73408</v>
+        <v>78072</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1324096556</v>
+        <v>1339525207</v>
       </c>
       <c r="E87" t="n">
-        <v>6349314155</v>
+        <v>6423297694</v>
       </c>
       <c r="F87" t="n">
-        <v>656415.6237006725</v>
+        <v>680581.0618023592</v>
       </c>
       <c r="G87" t="n">
-        <v>909685.5153390686</v>
+        <v>766826.8830516842</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I87" t="n">
-        <v>169724476</v>
+        <v>175746033</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>275861406</v>
+        <v>278669347</v>
       </c>
       <c r="E88" t="n">
-        <v>1190770968</v>
+        <v>1202891604</v>
       </c>
       <c r="F88" t="n">
-        <v>1179743.175763063</v>
+        <v>984328.0818607523</v>
       </c>
       <c r="G88" t="n">
-        <v>923002.7348226483</v>
+        <v>1122949.119749915</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>102343176</v>
+        <v>106093302</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>115421809</v>
+        <v>116977395</v>
       </c>
       <c r="E89" t="n">
-        <v>115421809</v>
+        <v>116977395</v>
       </c>
       <c r="F89" t="n">
-        <v>30347.96961568369</v>
+        <v>22355.75447943651</v>
       </c>
       <c r="G89" t="n">
-        <v>35369.4921200171</v>
+        <v>36103.94761569507</v>
       </c>
       <c r="H89" t="n">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="I89" t="n">
-        <v>6157282</v>
+        <v>5466495</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3861124</v>
+        <v>3858027</v>
       </c>
       <c r="E90" t="n">
-        <v>30046797</v>
+        <v>30022701</v>
       </c>
       <c r="F90" t="n">
-        <v>12658.70936361736</v>
+        <v>12657.51903922995</v>
       </c>
       <c r="G90" t="n">
-        <v>12987.22378662081</v>
+        <v>13017.02065916813</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>6910.43</v>
+        <v>6940.04</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3823297</v>
+        <v>3803083</v>
       </c>
       <c r="F91" t="n">
-        <v>449.1851846996938</v>
+        <v>403.5041389610491</v>
       </c>
       <c r="G91" t="n">
-        <v>773.4377683330935</v>
+        <v>644.9997256028913</v>
       </c>
       <c r="H91" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="I91" t="n">
-        <v>293646</v>
+        <v>292529</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>851823</v>
+        <v>892141</v>
       </c>
       <c r="F92" t="n">
-        <v>30.65755295834932</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>476.9619471720064</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>3.51</v>
+        <v>5.32</v>
       </c>
       <c r="I92" t="n">
-        <v>16880.03</v>
+        <v>16759.82</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>117594</v>
+        <v>112383</v>
       </c>
       <c r="F93" t="n">
-        <v>825.8853338909704</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>7.701175287949484</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2.14</v>
+        <v>4.88</v>
       </c>
       <c r="I93" t="n">
-        <v>144802</v>
+        <v>145225</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11564849</v>
+        <v>12102274</v>
       </c>
       <c r="E94" t="n">
-        <v>139601043</v>
+        <v>146088384</v>
       </c>
       <c r="F94" t="n">
-        <v>2532.33555426282</v>
+        <v>2783.250170634129</v>
       </c>
       <c r="G94" t="n">
-        <v>1689.25914803704</v>
+        <v>1976.339933971273</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I94" t="n">
-        <v>364864</v>
+        <v>389093</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19468260</v>
+        <v>19685364</v>
       </c>
       <c r="E95" t="n">
-        <v>48670650</v>
+        <v>49213410</v>
       </c>
       <c r="F95" t="n">
-        <v>8036.65506944239</v>
+        <v>7965.036192370717</v>
       </c>
       <c r="G95" t="n">
-        <v>16176.03458982209</v>
+        <v>12624.13463801895</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I95" t="n">
-        <v>2066750</v>
+        <v>2119236</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2362490</v>
+        <v>2362406</v>
       </c>
       <c r="F96" t="n">
-        <v>142.3151124199304</v>
+        <v>142.3017034026286</v>
       </c>
       <c r="G96" t="n">
-        <v>82.64051290597064</v>
+        <v>71.90066377357655</v>
       </c>
       <c r="H96" t="n">
         <v>2.56</v>
       </c>
       <c r="I96" t="n">
-        <v>59513</v>
+        <v>58667</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19817055</v>
+        <v>19900835</v>
       </c>
       <c r="F97" t="n">
-        <v>6976.729463880541</v>
+        <v>6654.414985798238</v>
       </c>
       <c r="G97" t="n">
-        <v>5170.461739486647</v>
+        <v>2251.703952016102</v>
       </c>
       <c r="H97" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I97" t="n">
-        <v>41513</v>
+        <v>37738</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4273183</v>
+        <v>4271310</v>
       </c>
       <c r="E98" t="n">
-        <v>12308798</v>
+        <v>12303405</v>
       </c>
       <c r="F98" t="n">
-        <v>895.8147856738427</v>
+        <v>932.2303394735092</v>
       </c>
       <c r="G98" t="n">
-        <v>997.9777252183324</v>
+        <v>702.2547693874345</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="I98" t="n">
-        <v>601967</v>
+        <v>613982</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1546097</v>
+        <v>1558446</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>159.3337742419632</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>29.99880644771307</v>
       </c>
       <c r="H99" t="n">
-        <v>4.23</v>
+        <v>3.7</v>
       </c>
       <c r="I99" t="n">
-        <v>249690</v>
+        <v>250208</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80700405</v>
+        <v>80929080</v>
       </c>
       <c r="E100" t="n">
-        <v>102697537</v>
+        <v>102988544</v>
       </c>
       <c r="F100" t="n">
-        <v>4772.205361597705</v>
+        <v>6600.62462627623</v>
       </c>
       <c r="G100" t="n">
-        <v>5510.786656570175</v>
+        <v>12071.05614001027</v>
       </c>
       <c r="H100" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="I100" t="n">
-        <v>6249180</v>
+        <v>6245353</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23067600</v>
+        <v>23149402</v>
       </c>
       <c r="E101" t="n">
-        <v>29923954</v>
+        <v>30030070</v>
       </c>
       <c r="F101" t="n">
-        <v>4839.708659369541</v>
+        <v>2994.154059353592</v>
       </c>
       <c r="G101" t="n">
-        <v>7009.040354484857</v>
+        <v>6231.761989879988</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I101" t="n">
-        <v>163938</v>
+        <v>178028</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1626974</v>
+        <v>1625872</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>8.98</v>
+        <v>10.18</v>
       </c>
       <c r="I102" t="n">
-        <v>12844.68</v>
+        <v>12838.97</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>670676</v>
+        <v>666749</v>
       </c>
       <c r="E103" t="n">
-        <v>670676</v>
+        <v>666749</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.56</v>
+        <v>6.36</v>
       </c>
       <c r="I103" t="n">
-        <v>78905</v>
+        <v>78897</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40732149</v>
+        <v>41363453</v>
       </c>
       <c r="E104" t="n">
-        <v>42579661</v>
+        <v>43239599</v>
       </c>
       <c r="F104" t="n">
-        <v>642.9185298120668</v>
+        <v>392.9638763596614</v>
       </c>
       <c r="G104" t="n">
-        <v>576.7558323183937</v>
+        <v>482.6908179568449</v>
       </c>
       <c r="H104" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="I104" t="n">
-        <v>654389</v>
+        <v>725537</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13896162</v>
+        <v>14008482</v>
       </c>
       <c r="E105" t="n">
-        <v>13896162</v>
+        <v>14008482</v>
       </c>
       <c r="F105" t="n">
-        <v>3747.095519787692</v>
+        <v>2429.62090225835</v>
       </c>
       <c r="G105" t="n">
-        <v>2418.653811461572</v>
+        <v>4146.452139790834</v>
       </c>
       <c r="H105" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I105" t="n">
-        <v>4893543</v>
+        <v>4918361</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1130911</v>
+        <v>1131802</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.97</v>
+        <v>6.81</v>
       </c>
       <c r="I106" t="n">
-        <v>6836.1</v>
+        <v>6828.27</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51970625</v>
+        <v>52104147</v>
       </c>
       <c r="E107" t="n">
-        <v>132398137</v>
+        <v>132738293</v>
       </c>
       <c r="F107" t="n">
-        <v>2874.320065708005</v>
+        <v>2924.655530152342</v>
       </c>
       <c r="G107" t="n">
-        <v>4442.312708368723</v>
+        <v>4384.525134069211</v>
       </c>
       <c r="H107" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2429687</v>
+        <v>2424255</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15261488</v>
+        <v>15542929</v>
       </c>
       <c r="E108" t="n">
-        <v>73913824</v>
+        <v>75276884</v>
       </c>
       <c r="F108" t="n">
-        <v>9151.096021697102</v>
+        <v>7169.101327950428</v>
       </c>
       <c r="G108" t="n">
-        <v>11487.68815389818</v>
+        <v>10653.04281140265</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I108" t="n">
-        <v>3967798</v>
+        <v>4098725</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>504912</v>
+        <v>510071</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>164.3886720478195</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>41.71736270978767</v>
       </c>
       <c r="H109" t="n">
-        <v>6.65</v>
+        <v>3.51</v>
       </c>
       <c r="I109" t="n">
-        <v>7429.44</v>
+        <v>7361.09</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4646810</v>
+        <v>4648080</v>
       </c>
       <c r="E110" t="n">
-        <v>10592199</v>
+        <v>10595094</v>
       </c>
       <c r="F110" t="n">
-        <v>750.4907730389061</v>
+        <v>1281.69152224413</v>
       </c>
       <c r="G110" t="n">
-        <v>2201.793527545829</v>
+        <v>1546.31504385328</v>
       </c>
       <c r="H110" t="n">
         <v>0.75</v>
       </c>
       <c r="I110" t="n">
-        <v>86696</v>
+        <v>86389</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1931807915</v>
+        <v>1932228312</v>
       </c>
       <c r="F111" t="n">
-        <v>82727.0714905144</v>
+        <v>78059.11395813542</v>
       </c>
       <c r="G111" t="n">
-        <v>48391.70349210453</v>
+        <v>49336.10105666729</v>
       </c>
       <c r="H111" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I111" t="n">
-        <v>27808997</v>
+        <v>27726379</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9627924</v>
+        <v>9645724</v>
       </c>
       <c r="E112" t="n">
-        <v>35039838</v>
+        <v>35104606</v>
       </c>
       <c r="F112" t="n">
-        <v>406.3997804830878</v>
+        <v>406.3605948574569</v>
       </c>
       <c r="G112" t="n">
-        <v>2202.21032275148</v>
+        <v>2201.997982604137</v>
       </c>
       <c r="H112" t="n">
         <v>0.29</v>
       </c>
       <c r="I112" t="n">
-        <v>106911</v>
+        <v>100608</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>564410</v>
+        <v>564235</v>
       </c>
       <c r="F113" t="n">
-        <v>109.2617909211996</v>
+        <v>109.3791213764031</v>
       </c>
       <c r="G113" t="n">
-        <v>70.69619094058912</v>
+        <v>70.68937431665188</v>
       </c>
       <c r="H113" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I113" t="n">
-        <v>891.98</v>
+        <v>891.23</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12435135</v>
+        <v>12481290</v>
       </c>
       <c r="E114" t="n">
-        <v>18029151</v>
+        <v>18096069</v>
       </c>
       <c r="F114" t="n">
-        <v>340.5119946074034</v>
+        <v>573.8420960643248</v>
       </c>
       <c r="G114" t="n">
-        <v>353.1023524194729</v>
+        <v>353.8478385158358</v>
       </c>
       <c r="H114" t="n">
-        <v>0.77</v>
+        <v>1.32</v>
       </c>
       <c r="I114" t="n">
-        <v>2150032</v>
+        <v>2148331</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1969162</v>
+        <v>1966199</v>
       </c>
       <c r="E115" t="n">
-        <v>14120663</v>
+        <v>14099418</v>
       </c>
       <c r="F115" t="n">
-        <v>845.9306214841105</v>
+        <v>845.8490556904385</v>
       </c>
       <c r="G115" t="n">
-        <v>807.3062465776858</v>
+        <v>807.2284049993505</v>
       </c>
       <c r="H115" t="n">
         <v>1.6</v>
       </c>
       <c r="I115" t="n">
-        <v>1993064</v>
+        <v>2042397</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2714135</v>
+        <v>2711297</v>
       </c>
       <c r="E116" t="n">
-        <v>5486516</v>
+        <v>5480778</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>8963.209999999999</v>
+        <v>8954.209999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>208471793</v>
+        <v>209707482</v>
       </c>
       <c r="E117" t="n">
-        <v>1180495387</v>
+        <v>1187492615</v>
       </c>
       <c r="F117" t="n">
-        <v>301627.7514035137</v>
+        <v>299607.2362191426</v>
       </c>
       <c r="G117" t="n">
-        <v>495961.7321371789</v>
+        <v>434194.383557206</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I117" t="n">
-        <v>68572597</v>
+        <v>69584231</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>668932</v>
+        <v>677953</v>
       </c>
       <c r="E118" t="n">
-        <v>2218081</v>
+        <v>2247994</v>
       </c>
       <c r="F118" t="n">
-        <v>11277.43585719029</v>
+        <v>6567.421598177537</v>
       </c>
       <c r="G118" t="n">
-        <v>5989.745689407013</v>
+        <v>7032.362553844391</v>
       </c>
       <c r="H118" t="n">
         <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>11790.94</v>
+        <v>11770.94</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2810669</v>
+        <v>2916955</v>
       </c>
       <c r="E119" t="n">
-        <v>9951393</v>
+        <v>10327706</v>
       </c>
       <c r="F119" t="n">
-        <v>111.1969036138542</v>
+        <v>279.2154490268792</v>
       </c>
       <c r="G119" t="n">
-        <v>3278.947852992367</v>
+        <v>1566.404501104704</v>
       </c>
       <c r="H119" t="n">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="I119" t="n">
-        <v>2705.63</v>
+        <v>6081.87</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1049125</v>
+        <v>1051664</v>
       </c>
       <c r="E120" t="n">
-        <v>1049125</v>
+        <v>1051664</v>
       </c>
       <c r="F120" t="n">
-        <v>19.91920835802388</v>
+        <v>165.9026776954195</v>
       </c>
       <c r="G120" t="n">
-        <v>144.9277284041392</v>
+        <v>10.74630460248522</v>
       </c>
       <c r="H120" t="n">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="I120" t="n">
-        <v>5374.85</v>
+        <v>5544.42</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>505241</v>
+        <v>502573</v>
       </c>
       <c r="E121" t="n">
-        <v>1700570</v>
+        <v>1691590</v>
       </c>
       <c r="F121" t="n">
-        <v>352.9283302362422</v>
+        <v>353.489695946875</v>
       </c>
       <c r="G121" t="n">
-        <v>424.6641119125699</v>
+        <v>445.716950017667</v>
       </c>
       <c r="H121" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="I121" t="n">
-        <v>633165</v>
+        <v>631196</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469564</v>
+        <v>469311</v>
       </c>
       <c r="E122" t="n">
-        <v>871132</v>
+        <v>870662</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.44</v>
       </c>
       <c r="I122" t="n">
-        <v>200063</v>
+        <v>196302</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11713766</v>
+        <v>11736851</v>
       </c>
       <c r="F123" t="n">
-        <v>141.3119297552422</v>
+        <v>184.9868649320284</v>
       </c>
       <c r="G123" t="n">
-        <v>212.2141714986555</v>
+        <v>212.2103774852019</v>
       </c>
       <c r="H123" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I123" t="n">
-        <v>11532.21</v>
+        <v>11925.78</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1243664</v>
+        <v>1246743</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>8.300000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="I124" t="n">
-        <v>2342.68</v>
+        <v>2266.51</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3388346</v>
+        <v>3388176</v>
       </c>
       <c r="E125" t="n">
-        <v>7912353</v>
+        <v>7911956</v>
       </c>
       <c r="F125" t="n">
-        <v>3862.485757049111</v>
+        <v>3028.273823833656</v>
       </c>
       <c r="G125" t="n">
-        <v>2194.179429900317</v>
+        <v>2340.149878632258</v>
       </c>
       <c r="H125" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="I125" t="n">
-        <v>618917</v>
+        <v>619008</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>248832</v>
+        <v>247553</v>
       </c>
       <c r="E126" t="n">
-        <v>2196129</v>
+        <v>2184842</v>
       </c>
       <c r="F126" t="n">
-        <v>104.1284182116717</v>
+        <v>13.89155330186121</v>
       </c>
       <c r="G126" t="n">
-        <v>103.2500817639362</v>
+        <v>103.2403534778164</v>
       </c>
       <c r="H126" t="n">
-        <v>3.19</v>
+        <v>3.02</v>
       </c>
       <c r="I126" t="n">
-        <v>90370</v>
+        <v>85655</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>637623</v>
+        <v>633655</v>
       </c>
       <c r="F127" t="n">
-        <v>577.4681778136736</v>
+        <v>577.4124288764453</v>
       </c>
       <c r="G127" t="n">
-        <v>514.7262932122262</v>
+        <v>499.5896594562194</v>
       </c>
       <c r="H127" t="n">
         <v>0.98</v>
       </c>
       <c r="I127" t="n">
-        <v>5049.9</v>
+        <v>5089.64</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4891234</v>
+        <v>4970389</v>
       </c>
       <c r="E128" t="n">
-        <v>17283005</v>
+        <v>17562698</v>
       </c>
       <c r="F128" t="n">
-        <v>1617.899017522012</v>
+        <v>1619.325283700958</v>
       </c>
       <c r="G128" t="n">
-        <v>1703.189778937782</v>
+        <v>2020.699539170019</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="I128" t="n">
-        <v>98146</v>
+        <v>109724</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2142689</v>
+        <v>2195346</v>
       </c>
       <c r="F129" t="n">
-        <v>63.87431441078967</v>
+        <v>31.1704123177824</v>
       </c>
       <c r="G129" t="n">
-        <v>21.17926417732239</v>
+        <v>109.0738227439671</v>
       </c>
       <c r="H129" t="n">
-        <v>0.18</v>
+        <v>1.03</v>
       </c>
       <c r="I129" t="n">
-        <v>7855.89</v>
+        <v>8069.81</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2517380</v>
+        <v>2518650</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2477.93</v>
+        <v>2497.45</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84703</v>
+        <v>84327</v>
       </c>
       <c r="E131" t="n">
-        <v>84703</v>
+        <v>84327</v>
       </c>
       <c r="F131" t="n">
-        <v>6.691501166367352</v>
+        <v>6.690870689017554</v>
       </c>
       <c r="G131" t="n">
-        <v>163.0912621507099</v>
+        <v>163.0758955918198</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>22030</v>
+        <v>21944</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4368225</v>
+        <v>4320964</v>
       </c>
       <c r="F132" t="n">
-        <v>446.9976838473001</v>
+        <v>473.1944342204235</v>
       </c>
       <c r="G132" t="n">
-        <v>320.6077932254581</v>
+        <v>293.6620742108029</v>
       </c>
       <c r="H132" t="n">
-        <v>0.84</v>
+        <v>0.45</v>
       </c>
       <c r="I132" t="n">
-        <v>305274</v>
+        <v>298041</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2118331</v>
+        <v>2117389</v>
       </c>
       <c r="E133" t="n">
-        <v>8650714</v>
+        <v>8646868</v>
       </c>
       <c r="F133" t="n">
-        <v>514.0234128698587</v>
+        <v>528.9240410558583</v>
       </c>
       <c r="G133" t="n">
-        <v>935.8060143042001</v>
+        <v>785.6257878106493</v>
       </c>
       <c r="H133" t="n">
         <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>561743</v>
+        <v>543938</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7307282</v>
+        <v>7396743</v>
       </c>
       <c r="E134" t="n">
-        <v>7361599</v>
+        <v>7451726</v>
       </c>
       <c r="F134" t="n">
-        <v>275732.2503988304</v>
+        <v>303146.6429020511</v>
       </c>
       <c r="G134" t="n">
-        <v>148516.2399478257</v>
+        <v>332696.0336159355</v>
       </c>
       <c r="H134" t="n">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>4969885</v>
+        <v>5054715</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>13781602</v>
+        <v>14016419</v>
       </c>
       <c r="E135" t="n">
-        <v>13828502</v>
+        <v>14064118</v>
       </c>
       <c r="F135" t="n">
-        <v>8601.264264075618</v>
+        <v>13516.12943123931</v>
       </c>
       <c r="G135" t="n">
-        <v>11912.4790812371</v>
+        <v>12445.96003782299</v>
       </c>
       <c r="H135" t="n">
         <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>6036668</v>
+        <v>5594473</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42850561</v>
+        <v>43223223</v>
       </c>
       <c r="E136" t="n">
-        <v>72750284</v>
+        <v>73382977</v>
       </c>
       <c r="F136" t="n">
-        <v>622.2296564144458</v>
+        <v>559.085617086571</v>
       </c>
       <c r="G136" t="n">
-        <v>2448.298235741982</v>
+        <v>2666.456883823112</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>1035340</v>
+        <v>1199205</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23003387</v>
+        <v>23301540</v>
       </c>
       <c r="E137" t="n">
-        <v>68953577</v>
+        <v>69847302</v>
       </c>
       <c r="F137" t="n">
-        <v>77115.52771380075</v>
+        <v>85361.67000630617</v>
       </c>
       <c r="G137" t="n">
-        <v>94608.69282784134</v>
+        <v>85336.28506642515</v>
       </c>
       <c r="H137" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="I137" t="n">
-        <v>3471674</v>
+        <v>3478140</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>103642587</v>
+        <v>102711801</v>
       </c>
       <c r="E138" t="n">
-        <v>110181437</v>
+        <v>109191927</v>
       </c>
       <c r="F138" t="n">
-        <v>9825.998077412407</v>
+        <v>6824.07386847254</v>
       </c>
       <c r="G138" t="n">
-        <v>9472.128802865298</v>
+        <v>11799.59411890329</v>
       </c>
       <c r="H138" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I138" t="n">
-        <v>1449823</v>
+        <v>452278</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1388141</v>
+        <v>1387019</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>9.07</v>
+        <v>8.83</v>
       </c>
       <c r="I139" t="n">
-        <v>467.81</v>
+        <v>467.58</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258593</v>
+        <v>258551</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I140" t="n">
-        <v>111.38</v>
+        <v>111.33</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>96366</v>
+        <v>91702</v>
       </c>
       <c r="E141" t="n">
-        <v>273369</v>
+        <v>260138</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>62.64</v>
+        <v>152.94</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50414378</v>
+        <v>49875402</v>
       </c>
       <c r="E142" t="n">
-        <v>217179627</v>
+        <v>214857779</v>
       </c>
       <c r="F142" t="n">
-        <v>65607.673311775</v>
+        <v>67566.97569478882</v>
       </c>
       <c r="G142" t="n">
-        <v>94326.76830994128</v>
+        <v>80735.50072553426</v>
       </c>
       <c r="H142" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I142" t="n">
-        <v>9954669</v>
+        <v>10262441</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269776</v>
+        <v>270085</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.220000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="I143" t="n">
-        <v>12697.83</v>
+        <v>13275.54</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9460907</v>
+        <v>9452748</v>
       </c>
       <c r="F144" t="n">
-        <v>1031.86639930548</v>
+        <v>1031.783291593309</v>
       </c>
       <c r="G144" t="n">
-        <v>609.7819224230307</v>
+        <v>609.7230539079814</v>
       </c>
       <c r="H144" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>98620</v>
+        <v>98221</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1178337</v>
+        <v>1171335</v>
       </c>
       <c r="E145" t="n">
-        <v>7855577</v>
+        <v>7808903</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4836548900881</v>
+        <v>263.4588292982934</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0168323768849</v>
+        <v>105.0069376264373</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5497.43</v>
+        <v>5529.17</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7572236</v>
+        <v>7592824</v>
       </c>
       <c r="F146" t="n">
-        <v>183.780788309263</v>
+        <v>129.1952624836376</v>
       </c>
       <c r="G146" t="n">
-        <v>150.3568855527669</v>
+        <v>58.374917906092</v>
       </c>
       <c r="H146" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="I146" t="n">
-        <v>6631953</v>
+        <v>6600546</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>675076</v>
+        <v>674761</v>
       </c>
       <c r="E147" t="n">
-        <v>2436937</v>
+        <v>2435671</v>
       </c>
       <c r="F147" t="n">
-        <v>50.07454155827718</v>
+        <v>50.22094602089474</v>
       </c>
       <c r="G147" t="n">
-        <v>136.7685939691102</v>
+        <v>159.9418802773121</v>
       </c>
       <c r="H147" t="n">
         <v>0.86</v>
       </c>
       <c r="I147" t="n">
-        <v>336753</v>
+        <v>337289</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1577416</v>
+        <v>1588946</v>
       </c>
       <c r="F148" t="n">
-        <v>486.7654991260472</v>
+        <v>635.3459611383274</v>
       </c>
       <c r="G148" t="n">
-        <v>75.31722296017172</v>
+        <v>81.43371148076952</v>
       </c>
       <c r="H148" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="I148" t="n">
-        <v>69572</v>
+        <v>68386</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69314</v>
+        <v>69311</v>
       </c>
       <c r="F149" t="n">
-        <v>16.19574124131626</v>
+        <v>16.19417962567674</v>
       </c>
       <c r="G149" t="n">
-        <v>0.2198684226076249</v>
+        <v>0.2198472225919995</v>
       </c>
       <c r="H149" t="n">
         <v>2.94</v>
       </c>
       <c r="I149" t="n">
-        <v>1535.35</v>
+        <v>1534.58</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13259958</v>
+        <v>13576004</v>
       </c>
       <c r="E150" t="n">
-        <v>13259958</v>
+        <v>13576004</v>
       </c>
       <c r="F150" t="n">
-        <v>450.7129523266627</v>
+        <v>353.4782017440239</v>
       </c>
       <c r="G150" t="n">
-        <v>1268.415203884264</v>
+        <v>1050.865037676807</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3</v>
+        <v>1.39</v>
       </c>
       <c r="I150" t="n">
-        <v>3697438</v>
+        <v>3738411</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2015433</v>
+        <v>2007443</v>
       </c>
       <c r="E151" t="n">
-        <v>7319859</v>
+        <v>7290842</v>
       </c>
       <c r="F151" t="n">
-        <v>240.3399670226235</v>
+        <v>294.3540988209247</v>
       </c>
       <c r="G151" t="n">
-        <v>42.86514915830176</v>
+        <v>189.4631932990543</v>
       </c>
       <c r="H151" t="n">
-        <v>2.01</v>
+        <v>1.44</v>
       </c>
       <c r="I151" t="n">
-        <v>155281</v>
+        <v>153790</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1275110</v>
+        <v>1287594</v>
       </c>
       <c r="E152" t="n">
-        <v>1275110</v>
+        <v>1287594</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1463.9</v>
+        <v>1473.95</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23482566</v>
+        <v>23441531</v>
       </c>
       <c r="E153" t="n">
-        <v>27093869</v>
+        <v>27046523</v>
       </c>
       <c r="F153" t="n">
-        <v>325.4839269256425</v>
+        <v>355.1071154813444</v>
       </c>
       <c r="G153" t="n">
-        <v>536.7558122850933</v>
+        <v>428.528179230179</v>
       </c>
       <c r="H153" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I153" t="n">
-        <v>747396</v>
+        <v>745306</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441232</v>
+        <v>2441598</v>
       </c>
       <c r="E154" t="n">
-        <v>18369644</v>
+        <v>18372394</v>
       </c>
       <c r="F154" t="n">
-        <v>3559.227065684265</v>
+        <v>3687.683256057266</v>
       </c>
       <c r="G154" t="n">
-        <v>4368.13590516206</v>
+        <v>4365.45385713824</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>163590</v>
+        <v>163212</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20965463</v>
+        <v>21252445</v>
       </c>
       <c r="E155" t="n">
-        <v>83861853</v>
+        <v>85009779</v>
       </c>
       <c r="F155" t="n">
-        <v>12952.83909024041</v>
+        <v>19409.65579888744</v>
       </c>
       <c r="G155" t="n">
-        <v>34768.55706891528</v>
+        <v>35105.40314219421</v>
       </c>
       <c r="H155" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="I155" t="n">
-        <v>2431805</v>
+        <v>2454165</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>315447064</v>
+        <v>323620695</v>
       </c>
       <c r="E156" t="n">
-        <v>315447064</v>
+        <v>323620695</v>
       </c>
       <c r="F156" t="n">
-        <v>289238.278757265</v>
+        <v>399484.916056273</v>
       </c>
       <c r="G156" t="n">
-        <v>400193.3488402041</v>
+        <v>286320.364987775</v>
       </c>
       <c r="H156" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I156" t="n">
-        <v>15508443</v>
+        <v>15720838</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12802253</v>
+        <v>12854734</v>
       </c>
       <c r="E157" t="n">
-        <v>40495937</v>
+        <v>40661944</v>
       </c>
       <c r="F157" t="n">
-        <v>7525.961557830675</v>
+        <v>8139.143132210834</v>
       </c>
       <c r="G157" t="n">
-        <v>13857.3521181126</v>
+        <v>13930.1221359863</v>
       </c>
       <c r="H157" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="I157" t="n">
-        <v>984271</v>
+        <v>981448</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1074055</v>
+        <v>1072107</v>
       </c>
       <c r="E158" t="n">
-        <v>2446266</v>
+        <v>2441829</v>
       </c>
       <c r="F158" t="n">
-        <v>2.312960023715472</v>
+        <v>2.312742095201423</v>
       </c>
       <c r="G158" t="n">
-        <v>28.51534432386592</v>
+        <v>28.51265759060967</v>
       </c>
       <c r="H158" t="n">
         <v>3.19</v>
       </c>
       <c r="I158" t="n">
-        <v>1098.79</v>
+        <v>1096.92</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19098181</v>
+        <v>19519059</v>
       </c>
       <c r="E159" t="n">
-        <v>19098181</v>
+        <v>19519059</v>
       </c>
       <c r="F159" t="n">
-        <v>13064.36483155971</v>
+        <v>14164.99928389172</v>
       </c>
       <c r="G159" t="n">
-        <v>15406.68443423935</v>
+        <v>28366.19015642939</v>
       </c>
       <c r="H159" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I159" t="n">
-        <v>4231946</v>
+        <v>4516379</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4851903</v>
+        <v>4851108</v>
       </c>
       <c r="E160" t="n">
-        <v>8932872</v>
+        <v>8931409</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>15.15</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>114073</v>
+        <v>114637</v>
       </c>
       <c r="E161" t="n">
-        <v>138107</v>
+        <v>138790</v>
       </c>
       <c r="F161" t="n">
-        <v>4.321732928843271</v>
+        <v>4.321315707553814</v>
       </c>
       <c r="G161" t="n">
-        <v>12.85752969541076</v>
+        <v>12.77405944005706</v>
       </c>
       <c r="H161" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="I161" t="n">
-        <v>3292.22</v>
+        <v>3267.91</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20226674</v>
+        <v>20188655</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.11</v>
+        <v>15.04</v>
       </c>
       <c r="I162" t="n">
-        <v>1532.43</v>
+        <v>1529.21</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>430459</v>
+        <v>433933</v>
       </c>
       <c r="E163" t="n">
-        <v>542217</v>
+        <v>546593</v>
       </c>
       <c r="F163" t="n">
-        <v>240.9936117138464</v>
+        <v>195.6967887536963</v>
       </c>
       <c r="G163" t="n">
-        <v>150.6580642165152</v>
+        <v>162.6619404947467</v>
       </c>
       <c r="H163" t="n">
-        <v>1.1</v>
+        <v>0.55</v>
       </c>
       <c r="I163" t="n">
-        <v>186561</v>
+        <v>166844</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>99732</v>
+        <v>99716</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>4.78</v>
       </c>
       <c r="I164" t="n">
-        <v>2968.11</v>
+        <v>2952.63</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12712255</v>
+        <v>12703672</v>
       </c>
       <c r="E165" t="n">
-        <v>19350919</v>
+        <v>19337853</v>
       </c>
       <c r="F165" t="n">
-        <v>2210.910193894362</v>
+        <v>3125.326717882264</v>
       </c>
       <c r="G165" t="n">
-        <v>3668.118353738218</v>
+        <v>3245.567094275402</v>
       </c>
       <c r="H165" t="n">
         <v>0.91</v>
       </c>
       <c r="I165" t="n">
-        <v>731639</v>
+        <v>710208</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="E166" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="F166" t="n">
-        <v>296514.4664040743</v>
+        <v>230113.3213725918</v>
       </c>
       <c r="G166" t="n">
-        <v>414352.6042310967</v>
+        <v>421220.197368504</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>80516988</v>
+        <v>81760839</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10386220</v>
+        <v>10237358</v>
       </c>
       <c r="E167" t="n">
-        <v>29488212</v>
+        <v>29065567</v>
       </c>
       <c r="F167" t="n">
-        <v>109.6946210919172</v>
+        <v>396.0720072432737</v>
       </c>
       <c r="G167" t="n">
-        <v>1056.440049264178</v>
+        <v>1014.964409069794</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="I167" t="n">
-        <v>122921</v>
+        <v>118734</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11706294</v>
+        <v>11720938</v>
       </c>
       <c r="F168" t="n">
-        <v>369.7205062086272</v>
+        <v>222.5500131576596</v>
       </c>
       <c r="G168" t="n">
-        <v>596.4438233589087</v>
+        <v>1112.077467219969</v>
       </c>
       <c r="H168" t="n">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
       <c r="I168" t="n">
-        <v>91238</v>
+        <v>90121</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4237969</v>
+        <v>4240340</v>
       </c>
       <c r="E169" t="n">
-        <v>28957742</v>
+        <v>28973947</v>
       </c>
       <c r="F169" t="n">
-        <v>1212.8285468382</v>
+        <v>2145.871411818863</v>
       </c>
       <c r="G169" t="n">
-        <v>1583.428493131057</v>
+        <v>2598.365428881035</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="I169" t="n">
-        <v>2648403</v>
+        <v>2654775</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2942524</v>
+        <v>2959892</v>
       </c>
       <c r="E170" t="n">
-        <v>4360851</v>
+        <v>4386591</v>
       </c>
       <c r="F170" t="n">
-        <v>1012.183840947172</v>
+        <v>1013.850366902148</v>
       </c>
       <c r="G170" t="n">
-        <v>3851.758823031332</v>
+        <v>3384.001048858079</v>
       </c>
       <c r="H170" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I170" t="n">
-        <v>182926</v>
+        <v>165019</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>92353141</v>
+        <v>93857861</v>
       </c>
       <c r="E171" t="n">
-        <v>532178634</v>
+        <v>540849477</v>
       </c>
       <c r="F171" t="n">
-        <v>518053.6865313426</v>
+        <v>442191.9016158378</v>
       </c>
       <c r="G171" t="n">
-        <v>284434.5948088922</v>
+        <v>270610.1645699269</v>
       </c>
       <c r="H171" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I171" t="n">
-        <v>17448310</v>
+        <v>17824702</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13780295</v>
+        <v>13793535</v>
       </c>
       <c r="E172" t="n">
-        <v>13780295</v>
+        <v>13793535</v>
       </c>
       <c r="F172" t="n">
-        <v>4077.362484732742</v>
+        <v>4948.977759848161</v>
       </c>
       <c r="G172" t="n">
-        <v>4525.235989416406</v>
+        <v>4438.56430011566</v>
       </c>
       <c r="H172" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="I172" t="n">
-        <v>618500</v>
+        <v>618837</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6131418</v>
+        <v>6130172</v>
       </c>
       <c r="E173" t="n">
-        <v>17417597</v>
+        <v>17414060</v>
       </c>
       <c r="F173" t="n">
-        <v>632.8693241042079</v>
+        <v>585.8003260987086</v>
       </c>
       <c r="G173" t="n">
-        <v>8736.972093088822</v>
+        <v>8567.508730247224</v>
       </c>
       <c r="H173" t="n">
-        <v>1.2</v>
+        <v>1.98</v>
       </c>
       <c r="I173" t="n">
-        <v>168006</v>
+        <v>171966</v>
       </c>
     </row>
     <row r="174">
@@ -6487,22 +6487,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18283126</v>
+        <v>18789005</v>
       </c>
       <c r="E174" t="n">
-        <v>18283126</v>
+        <v>18789005</v>
       </c>
       <c r="F174" t="n">
-        <v>1.039488518175972</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>499.3863047580442</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>1.54</v>
+        <v>4.28</v>
       </c>
       <c r="I174" t="n">
-        <v>110613</v>
+        <v>117488</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1327749</v>
+        <v>1325744</v>
       </c>
       <c r="F175" t="n">
-        <v>167.3263466368032</v>
+        <v>105.6815279902808</v>
       </c>
       <c r="G175" t="n">
-        <v>267.3393247772365</v>
+        <v>426.1284382687742</v>
       </c>
       <c r="H175" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="I175" t="n">
-        <v>29209</v>
+        <v>30405</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>138443</v>
+        <v>131917</v>
       </c>
       <c r="E176" t="n">
-        <v>301388</v>
+        <v>287180</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>5.38</v>
       </c>
       <c r="I176" t="n">
-        <v>294.2</v>
+        <v>48620</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2469106</v>
+        <v>2651250</v>
       </c>
       <c r="F177" t="n">
-        <v>183.4593202738442</v>
+        <v>9.141093498803642</v>
       </c>
       <c r="G177" t="n">
-        <v>321.4165301141671</v>
+        <v>659.5877578373824</v>
       </c>
       <c r="H177" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="I177" t="n">
-        <v>427945</v>
+        <v>433484</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>250562281</v>
+        <v>251109876</v>
       </c>
       <c r="E178" t="n">
-        <v>250564770</v>
+        <v>251112370</v>
       </c>
       <c r="F178" t="n">
-        <v>15771.98197146389</v>
+        <v>49453.16649236842</v>
       </c>
       <c r="G178" t="n">
-        <v>218581.0335540388</v>
+        <v>51504.28317954976</v>
       </c>
       <c r="H178" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I178" t="n">
-        <v>2743992</v>
+        <v>2465626</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9369736</v>
+        <v>9446767</v>
       </c>
       <c r="E179" t="n">
-        <v>9369736</v>
+        <v>9446767</v>
       </c>
       <c r="F179" t="n">
-        <v>106.6142040468455</v>
+        <v>410.2855247161122</v>
       </c>
       <c r="G179" t="n">
-        <v>1017.966792639811</v>
+        <v>71.99064870290722</v>
       </c>
       <c r="H179" t="n">
-        <v>2.89</v>
+        <v>1.8</v>
       </c>
       <c r="I179" t="n">
-        <v>2107077</v>
+        <v>2101209</v>
       </c>
     </row>
     <row r="180">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>191849</v>
+        <v>201487</v>
       </c>
       <c r="E180" t="n">
-        <v>1481461</v>
+        <v>1555882</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>5.04</v>
+        <v>4.39</v>
       </c>
       <c r="I180" t="n">
-        <v>106342</v>
+        <v>106672</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>31172332</v>
+        <v>31316660</v>
       </c>
       <c r="E181" t="n">
-        <v>139571317</v>
+        <v>140217532</v>
       </c>
       <c r="F181" t="n">
-        <v>55008.00616233089</v>
+        <v>53458.85642747484</v>
       </c>
       <c r="G181" t="n">
-        <v>92002.63180399172</v>
+        <v>91809.48193936786</v>
       </c>
       <c r="H181" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I181" t="n">
-        <v>8553195</v>
+        <v>8673641</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1455304</v>
+        <v>1453793</v>
       </c>
       <c r="F182" t="n">
-        <v>219.872190459454</v>
+        <v>103.6722384348406</v>
       </c>
       <c r="G182" t="n">
-        <v>5023.830222688127</v>
+        <v>4987.255727142526</v>
       </c>
       <c r="H182" t="n">
-        <v>2.42</v>
+        <v>1.63</v>
       </c>
       <c r="I182" t="n">
-        <v>33899</v>
+        <v>37083</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3215370</v>
+        <v>3246132</v>
       </c>
       <c r="E183" t="n">
-        <v>3215370</v>
+        <v>3246132</v>
       </c>
       <c r="F183" t="n">
-        <v>114.4716644034162</v>
+        <v>187.0570138703018</v>
       </c>
       <c r="G183" t="n">
-        <v>1522.229596250548</v>
+        <v>1669.30860925311</v>
       </c>
       <c r="H183" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="I183" t="n">
-        <v>415479</v>
+        <v>406338</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>586207</v>
+        <v>594319</v>
       </c>
       <c r="E184" t="n">
-        <v>586207</v>
+        <v>594319</v>
       </c>
       <c r="F184" t="n">
-        <v>20.51240855158148</v>
+        <v>94.36826676346817</v>
       </c>
       <c r="G184" t="n">
-        <v>4.752843848492367</v>
+        <v>4.752385572753369</v>
       </c>
       <c r="H184" t="n">
-        <v>1.75</v>
+        <v>3.45</v>
       </c>
       <c r="I184" t="n">
-        <v>1212404</v>
+        <v>1216586</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15629308</v>
+        <v>15596565</v>
       </c>
       <c r="E185" t="n">
-        <v>19898604</v>
+        <v>19856918</v>
       </c>
       <c r="F185" t="n">
-        <v>1013.919759141311</v>
+        <v>142.3507104271506</v>
       </c>
       <c r="G185" t="n">
-        <v>113.4292084838648</v>
+        <v>729.6233800611266</v>
       </c>
       <c r="H185" t="n">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="I185" t="n">
-        <v>924177</v>
+        <v>922927</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1789494</v>
+        <v>1787620</v>
       </c>
       <c r="E186" t="n">
-        <v>1789494</v>
+        <v>1787620</v>
       </c>
       <c r="F186" t="n">
-        <v>43.61522946634476</v>
+        <v>64.43154074518506</v>
       </c>
       <c r="G186" t="n">
-        <v>112.9220009345412</v>
+        <v>108.5798092122705</v>
       </c>
       <c r="H186" t="n">
-        <v>2.36</v>
+        <v>1.59</v>
       </c>
       <c r="I186" t="n">
-        <v>4348.23</v>
+        <v>4349.74</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>51694847</v>
+        <v>52409500</v>
       </c>
       <c r="E187" t="n">
-        <v>335227326</v>
+        <v>339861660</v>
       </c>
       <c r="F187" t="n">
-        <v>115008.3577589135</v>
+        <v>73576.63564033477</v>
       </c>
       <c r="G187" t="n">
-        <v>148538.2708263151</v>
+        <v>146612.9235396635</v>
       </c>
       <c r="H187" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I187" t="n">
-        <v>16434182</v>
+        <v>17656334</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9117562</v>
+        <v>9124337</v>
       </c>
       <c r="F188" t="n">
-        <v>812.1461613115483</v>
+        <v>994.2237469107465</v>
       </c>
       <c r="G188" t="n">
-        <v>376.1710527468624</v>
+        <v>376.3124954911529</v>
       </c>
       <c r="H188" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="I188" t="n">
-        <v>294412</v>
+        <v>293923</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7181484</v>
+        <v>7175850</v>
       </c>
       <c r="E189" t="n">
-        <v>7191580</v>
+        <v>7186130</v>
       </c>
       <c r="F189" t="n">
-        <v>54.13403212375835</v>
+        <v>68.90801256585189</v>
       </c>
       <c r="G189" t="n">
-        <v>824.3143337022507</v>
+        <v>370.3628990970383</v>
       </c>
       <c r="H189" t="n">
-        <v>0.52</v>
+        <v>0.87</v>
       </c>
       <c r="I189" t="n">
-        <v>781528</v>
+        <v>775185</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4796608</v>
+        <v>4797752</v>
       </c>
       <c r="F190" t="n">
-        <v>2332.45080899877</v>
+        <v>2225.941019326932</v>
       </c>
       <c r="G190" t="n">
-        <v>2098.453573682854</v>
+        <v>2529.874483566494</v>
       </c>
       <c r="H190" t="n">
-        <v>1.16</v>
+        <v>1.73</v>
       </c>
       <c r="I190" t="n">
-        <v>195147</v>
+        <v>195718</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>102536807</v>
+        <v>100893871</v>
       </c>
       <c r="E191" t="n">
-        <v>103640547</v>
+        <v>101979925</v>
       </c>
       <c r="F191" t="n">
-        <v>43060.28473063088</v>
+        <v>58442.21218395809</v>
       </c>
       <c r="G191" t="n">
-        <v>55738.31775578921</v>
+        <v>59326.88927731422</v>
       </c>
       <c r="H191" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="I191" t="n">
-        <v>44853628</v>
+        <v>45788360</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>250175735</v>
+        <v>253709533</v>
       </c>
       <c r="E192" t="n">
-        <v>250175735</v>
+        <v>253709533</v>
       </c>
       <c r="F192" t="n">
-        <v>102975.8757287465</v>
+        <v>74297.46709412115</v>
       </c>
       <c r="G192" t="n">
-        <v>88827.59863989832</v>
+        <v>135510.1694523226</v>
       </c>
       <c r="H192" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>49703409</v>
+        <v>51840701</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>24907474</v>
+        <v>25242381</v>
       </c>
       <c r="E193" t="n">
-        <v>149026425</v>
+        <v>151030237</v>
       </c>
       <c r="F193" t="n">
-        <v>79532.39203597838</v>
+        <v>74047.28438741395</v>
       </c>
       <c r="G193" t="n">
-        <v>164211.5292454748</v>
+        <v>143024.8555116568</v>
       </c>
       <c r="H193" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>12760369</v>
+        <v>12818493</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14171434</v>
+        <v>14179778</v>
       </c>
       <c r="E194" t="n">
-        <v>42830006</v>
+        <v>42855224</v>
       </c>
       <c r="F194" t="n">
-        <v>359.1999914792829</v>
+        <v>332.2121999847188</v>
       </c>
       <c r="G194" t="n">
-        <v>495.7480376468437</v>
+        <v>568.9881311953662</v>
       </c>
       <c r="H194" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="I194" t="n">
-        <v>2600285</v>
+        <v>2625279</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55136842</v>
+        <v>55029159</v>
       </c>
       <c r="E195" t="n">
-        <v>95233313</v>
+        <v>95047321</v>
       </c>
       <c r="F195" t="n">
-        <v>14223.91236448407</v>
+        <v>15004.29370879838</v>
       </c>
       <c r="G195" t="n">
-        <v>7709.956741127169</v>
+        <v>15121.54065641528</v>
       </c>
       <c r="H195" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I195" t="n">
-        <v>2353521</v>
+        <v>2307810</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4302502</v>
+        <v>4328767</v>
       </c>
       <c r="E196" t="n">
-        <v>4302502</v>
+        <v>4328767</v>
       </c>
       <c r="F196" t="n">
-        <v>12.19340863323376</v>
+        <v>7.455135434826727</v>
       </c>
       <c r="G196" t="n">
-        <v>996.3658558249911</v>
+        <v>982.7495004426371</v>
       </c>
       <c r="H196" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="I196" t="n">
-        <v>1738563</v>
+        <v>1742170</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>210592</v>
+        <v>212174</v>
       </c>
       <c r="F197" t="n">
-        <v>201.308817513118</v>
+        <v>237.8651278715168</v>
       </c>
       <c r="G197" t="n">
-        <v>3.361064641253253</v>
+        <v>74.65806772168216</v>
       </c>
       <c r="H197" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I197" t="n">
-        <v>52344</v>
+        <v>52987</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6675060</v>
+        <v>6706424</v>
       </c>
       <c r="E198" t="n">
-        <v>34341155</v>
+        <v>34502513</v>
       </c>
       <c r="F198" t="n">
-        <v>465.9158390802726</v>
+        <v>302.5353815427101</v>
       </c>
       <c r="G198" t="n">
-        <v>534.8383952810296</v>
+        <v>428.530950274359</v>
       </c>
       <c r="H198" t="n">
-        <v>0.64</v>
+        <v>1.71</v>
       </c>
       <c r="I198" t="n">
-        <v>907490</v>
+        <v>907741</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>178250777</v>
+        <v>178694702</v>
       </c>
       <c r="E199" t="n">
-        <v>208249540</v>
+        <v>208768175</v>
       </c>
       <c r="F199" t="n">
-        <v>32872.1447123292</v>
+        <v>38212.50928542075</v>
       </c>
       <c r="G199" t="n">
-        <v>15423.19330946055</v>
+        <v>10181.43668486571</v>
       </c>
       <c r="H199" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="I199" t="n">
-        <v>3758544</v>
+        <v>3801745</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>306455</v>
+        <v>306569</v>
       </c>
       <c r="F200" t="n">
-        <v>41.20398065233241</v>
+        <v>84.30347839012281</v>
       </c>
       <c r="G200" t="n">
-        <v>21.92960534119591</v>
+        <v>27.82318853567931</v>
       </c>
       <c r="H200" t="n">
-        <v>2.56</v>
+        <v>2.27</v>
       </c>
       <c r="I200" t="n">
-        <v>318058</v>
+        <v>319430</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7994727</v>
+        <v>7992105</v>
       </c>
       <c r="F201" t="n">
-        <v>1072.711653684625</v>
+        <v>1079.252878668774</v>
       </c>
       <c r="G201" t="n">
-        <v>790.9530040924589</v>
+        <v>782.4260422540958</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>653490</v>
+        <v>652567</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34036</v>
+        <v>34008</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.76</v>
+        <v>651.15</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35009006</v>
+        <v>35473188</v>
       </c>
       <c r="E203" t="n">
-        <v>174711077</v>
+        <v>177027561</v>
       </c>
       <c r="F203" t="n">
-        <v>66530.81640347722</v>
+        <v>85148.62727411519</v>
       </c>
       <c r="G203" t="n">
-        <v>94393.92299658347</v>
+        <v>107493.6594117558</v>
       </c>
       <c r="H203" t="n">
         <v>0.23</v>
       </c>
       <c r="I203" t="n">
-        <v>10705065</v>
+        <v>10880957</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1957561</v>
+        <v>1974057</v>
       </c>
       <c r="E204" t="n">
-        <v>1957561</v>
+        <v>1974057</v>
       </c>
       <c r="F204" t="n">
-        <v>153.3131148696296</v>
+        <v>153.2983322082894</v>
       </c>
       <c r="G204" t="n">
-        <v>6.018426588130771</v>
+        <v>6.017846283163849</v>
       </c>
       <c r="H204" t="n">
         <v>1.67</v>
       </c>
       <c r="I204" t="n">
-        <v>12644.91</v>
+        <v>13405.93</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>187610</v>
+        <v>178345</v>
       </c>
       <c r="F205" t="n">
-        <v>14.21724624104484</v>
+        <v>1086.459630356415</v>
       </c>
       <c r="G205" t="n">
-        <v>131.596845760426</v>
+        <v>102.7083090348956</v>
       </c>
       <c r="H205" t="n">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="I205" t="n">
-        <v>13069.66</v>
+        <v>14495.42</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2501.6</v>
+        <v>2501.19</v>
       </c>
       <c r="E206" t="n">
-        <v>29900</v>
+        <v>29895</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.11</v>
+        <v>6.18</v>
       </c>
       <c r="I206" t="n">
-        <v>7803.39</v>
+        <v>7802.86</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>322344879</v>
+        <v>323513059</v>
       </c>
       <c r="E208" t="n">
-        <v>596411536</v>
+        <v>598572936</v>
       </c>
       <c r="F208" t="n">
-        <v>165974.6168391501</v>
+        <v>155091.5317192143</v>
       </c>
       <c r="G208" t="n">
-        <v>204894.4348430758</v>
+        <v>197589.9026829228</v>
       </c>
       <c r="H208" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>14199121</v>
+        <v>14294673</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>73723434</v>
+        <v>74320932</v>
       </c>
       <c r="E209" t="n">
-        <v>703261890</v>
+        <v>708957634</v>
       </c>
       <c r="F209" t="n">
-        <v>394699.0663503156</v>
+        <v>205367.4382721447</v>
       </c>
       <c r="G209" t="n">
-        <v>203832.7301287635</v>
+        <v>146795.8682173743</v>
       </c>
       <c r="H209" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>22434544</v>
+        <v>22506505</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2623324</v>
+        <v>2593740</v>
       </c>
       <c r="F210" t="n">
-        <v>4.9248687924803</v>
+        <v>6.688927417779544</v>
       </c>
       <c r="G210" t="n">
-        <v>1598.168464117183</v>
+        <v>128.8312634086107</v>
       </c>
       <c r="H210" t="n">
-        <v>2.33</v>
+        <v>1.69</v>
       </c>
       <c r="I210" t="n">
-        <v>54806</v>
+        <v>55071</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>82382</v>
+        <v>84164</v>
       </c>
       <c r="E211" t="n">
-        <v>684860</v>
+        <v>699676</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>4.23</v>
       </c>
       <c r="I211" t="n">
-        <v>15.83</v>
+        <v>72.89</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1892345</v>
+        <v>1898620</v>
       </c>
       <c r="E212" t="n">
-        <v>5404294</v>
+        <v>5422216</v>
       </c>
       <c r="F212" t="n">
-        <v>726.2267634640559</v>
+        <v>59.95358301558226</v>
       </c>
       <c r="G212" t="n">
-        <v>262.5415193898241</v>
+        <v>432.250449230766</v>
       </c>
       <c r="H212" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="I212" t="n">
-        <v>69276</v>
+        <v>70733</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11554568</v>
+        <v>11544615</v>
       </c>
       <c r="E213" t="n">
-        <v>34276987</v>
+        <v>34247462</v>
       </c>
       <c r="F213" t="n">
-        <v>2084.034164493882</v>
+        <v>2934.730496842585</v>
       </c>
       <c r="G213" t="n">
-        <v>3019.975847434645</v>
+        <v>3211.41342770794</v>
       </c>
       <c r="H213" t="n">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="I213" t="n">
-        <v>7415599</v>
+        <v>7330693</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14589408</v>
+        <v>14577358</v>
       </c>
       <c r="F214" t="n">
-        <v>19.4069384814776</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>167.9243177653223</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>2.74</v>
+        <v>5.99</v>
       </c>
       <c r="I214" t="n">
-        <v>1250.84</v>
+        <v>1247.65</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1995666</v>
+        <v>1991652</v>
       </c>
       <c r="E215" t="n">
-        <v>5772965</v>
+        <v>5761355</v>
       </c>
       <c r="F215" t="n">
-        <v>75.98136307031554</v>
+        <v>50.05518786454632</v>
       </c>
       <c r="G215" t="n">
-        <v>92.44188199140339</v>
+        <v>533.5148245884935</v>
       </c>
       <c r="H215" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="I215" t="n">
-        <v>57649</v>
+        <v>49947</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2176884</v>
+        <v>2199849</v>
       </c>
       <c r="E216" t="n">
-        <v>19201560</v>
+        <v>19404131</v>
       </c>
       <c r="F216" t="n">
-        <v>47.55809875817268</v>
+        <v>55.55176043388914</v>
       </c>
       <c r="G216" t="n">
-        <v>39.45043624060301</v>
+        <v>58.17443463982143</v>
       </c>
       <c r="H216" t="n">
-        <v>3.01</v>
+        <v>2.08</v>
       </c>
       <c r="I216" t="n">
-        <v>83865</v>
+        <v>89479</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45392411</v>
+        <v>45852247</v>
       </c>
       <c r="E217" t="n">
-        <v>45392411</v>
+        <v>45852247</v>
       </c>
       <c r="F217" t="n">
-        <v>36567.90057421554</v>
+        <v>42494.57203855317</v>
       </c>
       <c r="G217" t="n">
-        <v>36519.60571187749</v>
+        <v>31559.02309005336</v>
       </c>
       <c r="H217" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I217" t="n">
-        <v>8426421</v>
+        <v>8666521</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8355545</v>
+        <v>8345881</v>
       </c>
       <c r="E218" t="n">
-        <v>11904736</v>
+        <v>11890968</v>
       </c>
       <c r="F218" t="n">
-        <v>4148.123113556412</v>
+        <v>3971.488225705494</v>
       </c>
       <c r="G218" t="n">
-        <v>515.5739689357168</v>
+        <v>543.7979066175332</v>
       </c>
       <c r="H218" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="I218" t="n">
-        <v>392269</v>
+        <v>390489</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16422789</v>
+        <v>16779506</v>
       </c>
       <c r="F219" t="n">
-        <v>2.125188587210279</v>
+        <v>3.174654445564162</v>
       </c>
       <c r="G219" t="n">
-        <v>555.8005453553898</v>
+        <v>1142.497676251015</v>
       </c>
       <c r="H219" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I219" t="n">
-        <v>1010996</v>
+        <v>1013201</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>726166</v>
+        <v>725048</v>
       </c>
       <c r="F220" t="n">
-        <v>84.1848347833232</v>
+        <v>120.4984174813138</v>
       </c>
       <c r="G220" t="n">
-        <v>317.4258174545701</v>
+        <v>317.3959093990874</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>207992</v>
+        <v>210753</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2864432</v>
+        <v>2867735</v>
       </c>
       <c r="E221" t="n">
-        <v>2866912</v>
+        <v>2870219</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>5.42</v>
+        <v>6.8</v>
       </c>
       <c r="I221" t="n">
-        <v>108886</v>
+        <v>108362</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1262528</v>
+        <v>1263473</v>
       </c>
       <c r="E222" t="n">
-        <v>3814627</v>
+        <v>3817480</v>
       </c>
       <c r="F222" t="n">
-        <v>679.0478683236919</v>
+        <v>567.2120628362086</v>
       </c>
       <c r="G222" t="n">
-        <v>508.3359113269424</v>
+        <v>694.0361503756338</v>
       </c>
       <c r="H222" t="n">
         <v>1.05</v>
       </c>
       <c r="I222" t="n">
-        <v>14713.9</v>
+        <v>15566.8</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>39327778</v>
+        <v>40451066</v>
       </c>
       <c r="E223" t="n">
-        <v>278827527</v>
+        <v>286791459</v>
       </c>
       <c r="F223" t="n">
-        <v>24723.75039600072</v>
+        <v>71601.35508896533</v>
       </c>
       <c r="G223" t="n">
-        <v>27154.18208673977</v>
+        <v>68452.18571910601</v>
       </c>
       <c r="H223" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I223" t="n">
-        <v>1672392</v>
+        <v>1808168</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58729</v>
+        <v>58845</v>
       </c>
       <c r="E224" t="n">
-        <v>306426</v>
+        <v>307029</v>
       </c>
       <c r="F224" t="n">
-        <v>303.1257287888045</v>
+        <v>23.19627154959399</v>
       </c>
       <c r="G224" t="n">
-        <v>158.2349420642691</v>
+        <v>195.5545203616522</v>
       </c>
       <c r="H224" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I224" t="n">
-        <v>279219</v>
+        <v>278431</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1275251</v>
+        <v>1279249</v>
       </c>
       <c r="E225" t="n">
-        <v>7907865</v>
+        <v>7932652</v>
       </c>
       <c r="F225" t="n">
-        <v>1733.324032626727</v>
+        <v>1679.814088179415</v>
       </c>
       <c r="G225" t="n">
-        <v>1482.609351611106</v>
+        <v>1669.479328496622</v>
       </c>
       <c r="H225" t="n">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="I225" t="n">
-        <v>781753</v>
+        <v>782730</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>625414746</v>
+        <v>629480244</v>
       </c>
       <c r="E226" t="n">
-        <v>2422139038</v>
+        <v>2437884113</v>
       </c>
       <c r="F226" t="n">
-        <v>319173.025082232</v>
+        <v>351443.8990974695</v>
       </c>
       <c r="G226" t="n">
-        <v>371391.1072368546</v>
+        <v>301999.1598416959</v>
       </c>
       <c r="H226" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>32779047</v>
+        <v>36852707</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20878639</v>
+        <v>20941324</v>
       </c>
       <c r="F227" t="n">
-        <v>1403.446007350744</v>
+        <v>1852.173930658055</v>
       </c>
       <c r="G227" t="n">
-        <v>781.7085044910201</v>
+        <v>513.5801748784671</v>
       </c>
       <c r="H227" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I227" t="n">
-        <v>16584262</v>
+        <v>16575335</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>768219</v>
+        <v>766760</v>
       </c>
       <c r="F228" t="n">
-        <v>495.7049206774244</v>
+        <v>268.9235083172266</v>
       </c>
       <c r="G228" t="n">
-        <v>157.2388564918663</v>
+        <v>81.92682706334024</v>
       </c>
       <c r="H228" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="I228" t="n">
-        <v>157106</v>
+        <v>156064</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5897733</v>
+        <v>5873609</v>
       </c>
       <c r="E229" t="n">
-        <v>26400783</v>
+        <v>26292793</v>
       </c>
       <c r="F229" t="n">
-        <v>1832.012311528228</v>
+        <v>997.4918582160522</v>
       </c>
       <c r="G229" t="n">
-        <v>1675.324404503787</v>
+        <v>1617.291917223898</v>
       </c>
       <c r="H229" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>149792</v>
+        <v>150508</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6769120</v>
+        <v>6753197</v>
       </c>
       <c r="E230" t="n">
-        <v>12960028</v>
+        <v>12929544</v>
       </c>
       <c r="F230" t="n">
-        <v>4195.367083364817</v>
+        <v>4194.962061468951</v>
       </c>
       <c r="G230" t="n">
-        <v>3988.577220575601</v>
+        <v>3988.192162230148</v>
       </c>
       <c r="H230" t="n">
         <v>0.86</v>
       </c>
       <c r="I230" t="n">
-        <v>107854</v>
+        <v>100234</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3251228</v>
+        <v>3237642</v>
       </c>
       <c r="E231" t="n">
-        <v>21379318</v>
+        <v>21289980</v>
       </c>
       <c r="F231" t="n">
-        <v>2324.886476274407</v>
+        <v>2245.384380745405</v>
       </c>
       <c r="G231" t="n">
-        <v>313.7698458885646</v>
+        <v>528.3911159953387</v>
       </c>
       <c r="H231" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="I231" t="n">
-        <v>1450871</v>
+        <v>1447569</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>115652938</v>
+        <v>116410062</v>
       </c>
       <c r="E232" t="n">
-        <v>1074564740</v>
+        <v>1081599401</v>
       </c>
       <c r="F232" t="n">
-        <v>204329.6501036091</v>
+        <v>212441.1181227044</v>
       </c>
       <c r="G232" t="n">
-        <v>228720.5516575775</v>
+        <v>233510.8009760689</v>
       </c>
       <c r="H232" t="n">
         <v>0.09</v>
       </c>
       <c r="I232" t="n">
-        <v>9424854</v>
+        <v>9406105</v>
       </c>
     </row>
     <row r="233">
@@ -8557,7 +8557,7 @@
         <v>4.64</v>
       </c>
       <c r="I233" t="n">
-        <v>964.7</v>
+        <v>963.4400000000001</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>117995738</v>
+        <v>118806453</v>
       </c>
       <c r="E234" t="n">
-        <v>180005264</v>
+        <v>181242029</v>
       </c>
       <c r="F234" t="n">
-        <v>62769.48699788856</v>
+        <v>97882.27637934645</v>
       </c>
       <c r="G234" t="n">
-        <v>74608.7094657963</v>
+        <v>79341.30833092249</v>
       </c>
       <c r="H234" t="n">
         <v>0.23</v>
       </c>
       <c r="I234" t="n">
-        <v>8495628</v>
+        <v>8595555</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>17762111</v>
+        <v>17936521</v>
       </c>
       <c r="E235" t="n">
-        <v>24368078</v>
+        <v>24607354</v>
       </c>
       <c r="F235" t="n">
-        <v>213.8432343954263</v>
+        <v>266.999035735725</v>
       </c>
       <c r="G235" t="n">
-        <v>955.622272617266</v>
+        <v>2280.747487986881</v>
       </c>
       <c r="H235" t="n">
-        <v>1.22</v>
+        <v>0.65</v>
       </c>
       <c r="I235" t="n">
-        <v>597391</v>
+        <v>603955</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>126639276</v>
+        <v>128318971</v>
       </c>
       <c r="E236" t="n">
-        <v>485808647</v>
+        <v>492252228</v>
       </c>
       <c r="F236" t="n">
-        <v>542978.0517920565</v>
+        <v>388188.5846344539</v>
       </c>
       <c r="G236" t="n">
-        <v>480370.1769465375</v>
+        <v>571878.387250388</v>
       </c>
       <c r="H236" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I236" t="n">
-        <v>33383560</v>
+        <v>33719910</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>667379</v>
+        <v>673643</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8697,7 +8697,7 @@
         <v>7.34</v>
       </c>
       <c r="I237" t="n">
-        <v>43516</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>833668</v>
+        <v>833631</v>
       </c>
       <c r="F238" t="n">
-        <v>44.27734655667753</v>
+        <v>181.9347390034847</v>
       </c>
       <c r="G238" t="n">
-        <v>124.1275631115873</v>
+        <v>15.60158720736347</v>
       </c>
       <c r="H238" t="n">
-        <v>0.77</v>
+        <v>1.98</v>
       </c>
       <c r="I238" t="n">
-        <v>128977</v>
+        <v>128824</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3235739</v>
+        <v>3279447</v>
       </c>
       <c r="E239" t="n">
-        <v>30659104</v>
+        <v>31073242</v>
       </c>
       <c r="F239" t="n">
-        <v>834.0880976777017</v>
+        <v>1102.082654822796</v>
       </c>
       <c r="G239" t="n">
-        <v>2272.504535904583</v>
+        <v>1972.113793410403</v>
       </c>
       <c r="H239" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I239" t="n">
-        <v>223422</v>
+        <v>225469</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>734756</v>
+        <v>739154</v>
       </c>
       <c r="E240" t="n">
-        <v>785450</v>
+        <v>790151</v>
       </c>
       <c r="F240" t="n">
-        <v>37.64120224346687</v>
+        <v>1.007292549037536</v>
       </c>
       <c r="G240" t="n">
-        <v>1569.933584392024</v>
+        <v>1617.50110289301</v>
       </c>
       <c r="H240" t="n">
         <v>2.3</v>
       </c>
       <c r="I240" t="n">
-        <v>97892</v>
+        <v>99090</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>415609</v>
+        <v>435220</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>16.11</v>
+        <v>15.61</v>
       </c>
       <c r="I241" t="n">
-        <v>451.59</v>
+        <v>450.36</v>
       </c>
     </row>
     <row r="242">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>132795</v>
+        <v>133217</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>4.29</v>
       </c>
       <c r="I242" t="n">
-        <v>87041</v>
+        <v>87344</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>569195</v>
+        <v>579043</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>2354.34</v>
+        <v>2720.08</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6904006</v>
+        <v>6859812</v>
       </c>
       <c r="E244" t="n">
-        <v>43148064</v>
+        <v>42871859</v>
       </c>
       <c r="F244" t="n">
-        <v>83.56044463780516</v>
+        <v>85.18241614073708</v>
       </c>
       <c r="G244" t="n">
-        <v>438.9610130868706</v>
+        <v>103.8113926968956</v>
       </c>
       <c r="H244" t="n">
-        <v>0.22</v>
+        <v>0.59</v>
       </c>
       <c r="I244" t="n">
-        <v>449091</v>
+        <v>450214</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5283276</v>
+        <v>5288060</v>
       </c>
       <c r="E245" t="n">
-        <v>19632754</v>
+        <v>19650531</v>
       </c>
       <c r="F245" t="n">
-        <v>3994.240392811321</v>
+        <v>4008.900404007893</v>
       </c>
       <c r="G245" t="n">
-        <v>4300.513283774539</v>
+        <v>4312.088073429187</v>
       </c>
       <c r="H245" t="n">
         <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>72860</v>
+        <v>79308</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3755426</v>
+        <v>3754811</v>
       </c>
       <c r="F246" t="n">
-        <v>133.9185401633898</v>
+        <v>133.9056275536103</v>
       </c>
       <c r="G246" t="n">
-        <v>1351.951171318077</v>
+        <v>1351.745863722685</v>
       </c>
       <c r="H246" t="n">
         <v>1.26</v>
       </c>
       <c r="I246" t="n">
-        <v>7035.16</v>
+        <v>6944.47</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31460761</v>
+        <v>31474834</v>
       </c>
       <c r="E247" t="n">
-        <v>112766702</v>
+        <v>112817144</v>
       </c>
       <c r="F247" t="n">
-        <v>2173.900451693944</v>
+        <v>2173.690841223294</v>
       </c>
       <c r="G247" t="n">
-        <v>4314.39944977396</v>
+        <v>4324.519730887319</v>
       </c>
       <c r="H247" t="n">
         <v>0.73</v>
       </c>
       <c r="I247" t="n">
-        <v>84300</v>
+        <v>82665</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1570378</v>
+        <v>1574420</v>
       </c>
       <c r="F248" t="n">
-        <v>3.545706491292607</v>
+        <v>7.054638643678445</v>
       </c>
       <c r="G248" t="n">
-        <v>25.38902920051228</v>
+        <v>42.5106579724204</v>
       </c>
       <c r="H248" t="n">
-        <v>2.55</v>
+        <v>1.27</v>
       </c>
       <c r="I248" t="n">
-        <v>604830</v>
+        <v>601434</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2207931</v>
+        <v>2206073</v>
       </c>
       <c r="E249" t="n">
-        <v>16982776</v>
+        <v>16968489</v>
       </c>
       <c r="F249" t="n">
-        <v>4953.563598522461</v>
+        <v>5390.805813447671</v>
       </c>
       <c r="G249" t="n">
-        <v>3063.94956789569</v>
+        <v>3087.593740207241</v>
       </c>
       <c r="H249" t="n">
         <v>0.59</v>
       </c>
       <c r="I249" t="n">
-        <v>143259</v>
+        <v>98363</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103480</v>
+        <v>103278</v>
       </c>
       <c r="E250" t="n">
-        <v>821941</v>
+        <v>820340</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2937704204869</v>
+        <v>161.142104832532</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5865859887462</v>
+        <v>359.5582308305539</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>580.22</v>
+        <v>577.49</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89182590</v>
+        <v>88986703</v>
       </c>
       <c r="E251" t="n">
-        <v>329666806</v>
+        <v>328942702</v>
       </c>
       <c r="F251" t="n">
-        <v>4950.174626127434</v>
+        <v>5048.886034508424</v>
       </c>
       <c r="G251" t="n">
-        <v>1689.708013820197</v>
+        <v>1495.62742353978</v>
       </c>
       <c r="H251" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I251" t="n">
-        <v>232293</v>
+        <v>232413</v>
       </c>
     </row>
     <row r="252">
@@ -9207,10 +9207,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2264074</v>
+        <v>2279531</v>
       </c>
       <c r="E252" t="n">
-        <v>9077086</v>
+        <v>9139055</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>5.37</v>
+        <v>4.51</v>
       </c>
       <c r="I252" t="n">
-        <v>28730</v>
+        <v>27436</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>608087</v>
+        <v>607476</v>
       </c>
       <c r="F253" t="n">
-        <v>334.2174430972175</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>5.625157305413163</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>3.79</v>
+        <v>4.41</v>
       </c>
       <c r="I253" t="n">
-        <v>3091.14</v>
+        <v>3087.11</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39638</v>
+        <v>39606</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>5.36</v>
       </c>
       <c r="I254" t="n">
-        <v>4158.17</v>
+        <v>4150.29</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>823232639</v>
+        <v>824683271</v>
       </c>
       <c r="E255" t="n">
-        <v>1269497414</v>
+        <v>1271734417</v>
       </c>
       <c r="F255" t="n">
-        <v>142937.4019627549</v>
+        <v>165561.2044067134</v>
       </c>
       <c r="G255" t="n">
-        <v>228958.5446357332</v>
+        <v>247683.8677689148</v>
       </c>
       <c r="H255" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I255" t="n">
-        <v>263603280</v>
+        <v>271467954</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5863241</v>
+        <v>5859840</v>
       </c>
       <c r="E256" t="n">
-        <v>5863241</v>
+        <v>5859840</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>9.09</v>
+        <v>8.44</v>
       </c>
       <c r="I256" t="n">
-        <v>417.97</v>
+        <v>417.2</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39892459</v>
+        <v>39832295</v>
       </c>
       <c r="E257" t="n">
-        <v>190251266</v>
+        <v>189964336</v>
       </c>
       <c r="F257" t="n">
-        <v>294.9985886313158</v>
+        <v>295.1482050422638</v>
       </c>
       <c r="G257" t="n">
-        <v>381.5725333228194</v>
+        <v>317.1051749777432</v>
       </c>
       <c r="H257" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I257" t="n">
-        <v>427060</v>
+        <v>298130</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>504337</v>
+        <v>504255</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>12.29</v>
+        <v>11.37</v>
       </c>
       <c r="I258" t="n">
-        <v>385.04</v>
+        <v>384.53</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23521118</v>
+        <v>23666346</v>
       </c>
       <c r="E259" t="n">
-        <v>39201862</v>
+        <v>39443910</v>
       </c>
       <c r="F259" t="n">
-        <v>13595.54838832789</v>
+        <v>9861.860416944261</v>
       </c>
       <c r="G259" t="n">
-        <v>9886.246457990692</v>
+        <v>13231.52867175574</v>
       </c>
       <c r="H259" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I259" t="n">
-        <v>473878</v>
+        <v>492867</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>110061</v>
+        <v>109539</v>
       </c>
       <c r="F260" t="n">
-        <v>164.0262700463926</v>
+        <v>117.101404093849</v>
       </c>
       <c r="G260" t="n">
-        <v>106.3771055535014</v>
+        <v>12.98427745920673</v>
       </c>
       <c r="H260" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="I260" t="n">
-        <v>50325</v>
+        <v>50734</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1333690</v>
+        <v>1311974</v>
       </c>
       <c r="E261" t="n">
-        <v>5691828</v>
+        <v>5599151</v>
       </c>
       <c r="F261" t="n">
-        <v>1.255146963135917</v>
+        <v>109.1889973162009</v>
       </c>
       <c r="G261" t="n">
-        <v>1.227360232310554</v>
+        <v>302.0505234019035</v>
       </c>
       <c r="H261" t="n">
-        <v>2.21</v>
+        <v>0.06</v>
       </c>
       <c r="I261" t="n">
-        <v>534566</v>
+        <v>547852</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3818422</v>
+        <v>3820217</v>
       </c>
       <c r="E262" t="n">
-        <v>8331748</v>
+        <v>8335664</v>
       </c>
       <c r="F262" t="n">
-        <v>1738.694535977041</v>
+        <v>1698.945854243941</v>
       </c>
       <c r="G262" t="n">
-        <v>1594.238978804119</v>
+        <v>1751.340859689645</v>
       </c>
       <c r="H262" t="n">
         <v>0.48</v>
       </c>
       <c r="I262" t="n">
-        <v>1814768</v>
+        <v>1836394</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>504692552</v>
+        <v>510607856</v>
       </c>
       <c r="E263" t="n">
-        <v>1756792771</v>
+        <v>1777383452</v>
       </c>
       <c r="F263" t="n">
-        <v>536848.5908248723</v>
+        <v>536164.4088665206</v>
       </c>
       <c r="G263" t="n">
-        <v>846388.1019820579</v>
+        <v>551697.8932629051</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>32330579</v>
+        <v>33015265</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5757089962</v>
+        <v>5857261949</v>
       </c>
       <c r="E264" t="n">
-        <v>5757089962</v>
+        <v>5855309865</v>
       </c>
       <c r="F264" t="n">
-        <v>3297.271098883371</v>
+        <v>5463.627897169517</v>
       </c>
       <c r="G264" t="n">
-        <v>2462.766758088386</v>
+        <v>2738.663948950322</v>
       </c>
       <c r="H264" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t="n">
-        <v>9478232</v>
+        <v>8689047</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24758436</v>
+        <v>24462379</v>
       </c>
       <c r="E265" t="n">
-        <v>24736930</v>
+        <v>24441130</v>
       </c>
       <c r="F265" t="n">
-        <v>318.5818145038545</v>
+        <v>212.9813554015886</v>
       </c>
       <c r="G265" t="n">
-        <v>75.64223087000701</v>
+        <v>25.81163404941137</v>
       </c>
       <c r="H265" t="n">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="I265" t="n">
-        <v>83944</v>
+        <v>183698</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12222069</v>
+        <v>12271937</v>
       </c>
       <c r="E266" t="n">
-        <v>24707871</v>
+        <v>24808684</v>
       </c>
       <c r="F266" t="n">
-        <v>716.127088668409</v>
+        <v>715.9678251275468</v>
       </c>
       <c r="G266" t="n">
-        <v>745.3465474733632</v>
+        <v>690.0357137684593</v>
       </c>
       <c r="H266" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I266" t="n">
-        <v>43561</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>152277</v>
+        <v>151948</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5726684733294</v>
+        <v>182.5578699219593</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1458386444597</v>
+        <v>132.135127473955</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>57515</v>
+        <v>57592</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46449</v>
+        <v>47211</v>
       </c>
       <c r="F268" t="n">
-        <v>62.58908019938329</v>
+        <v>13.8266092440846</v>
       </c>
       <c r="G268" t="n">
-        <v>159.8795090663895</v>
+        <v>51.16261339582302</v>
       </c>
       <c r="H268" t="n">
-        <v>1.92</v>
+        <v>2.75</v>
       </c>
       <c r="I268" t="n">
-        <v>70272</v>
+        <v>69364</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2661908</v>
+        <v>2625524</v>
       </c>
       <c r="E269" t="n">
-        <v>10647630</v>
+        <v>10502096</v>
       </c>
       <c r="F269" t="n">
-        <v>27127.99279583352</v>
+        <v>28801.42166634796</v>
       </c>
       <c r="G269" t="n">
-        <v>47395.51900560947</v>
+        <v>44607.48792989907</v>
       </c>
       <c r="H269" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I269" t="n">
-        <v>6981882</v>
+        <v>7012348</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>228964341</v>
+        <v>227814214</v>
       </c>
       <c r="E270" t="n">
-        <v>703979185</v>
+        <v>700442976</v>
       </c>
       <c r="F270" t="n">
-        <v>182685.1964102663</v>
+        <v>262537.7307883479</v>
       </c>
       <c r="G270" t="n">
-        <v>283371.3034507908</v>
+        <v>269584.4032513304</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>16338567</v>
+        <v>16485388</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>144716690</v>
+        <v>147403869</v>
       </c>
       <c r="E271" t="n">
-        <v>378068338</v>
+        <v>385088519</v>
       </c>
       <c r="F271" t="n">
-        <v>71357.18784394897</v>
+        <v>64385.25824424501</v>
       </c>
       <c r="G271" t="n">
-        <v>69879.73261644227</v>
+        <v>51359.06212512693</v>
       </c>
       <c r="H271" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="I271" t="n">
-        <v>8464463</v>
+        <v>8367990</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2439392</v>
+        <v>2501164</v>
       </c>
       <c r="E272" t="n">
-        <v>3348071</v>
+        <v>3432853</v>
       </c>
       <c r="F272" t="n">
-        <v>76.51836865087094</v>
+        <v>75.33244540416186</v>
       </c>
       <c r="G272" t="n">
-        <v>34.09188479862397</v>
+        <v>112.8825979448361</v>
       </c>
       <c r="H272" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="I272" t="n">
-        <v>1993696</v>
+        <v>2026171</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56713</v>
+        <v>56710</v>
       </c>
       <c r="F2" t="n">
-        <v>1.948300736170717</v>
+        <v>1.948384786025693</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87812570348705</v>
+        <v>10.87859498673004</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>682.54</v>
+        <v>660.33</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91256</v>
+        <v>91286</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49719943844668</v>
+        <v>22.49816996949205</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1370956087475</v>
+        <v>416.1550477974866</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1401.11</v>
+        <v>1385.67</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>620269343</v>
+        <v>634868473</v>
       </c>
       <c r="E4" t="n">
-        <v>1203605168</v>
+        <v>1231942728</v>
       </c>
       <c r="F4" t="n">
-        <v>30617.53405687632</v>
+        <v>39986.12558765995</v>
       </c>
       <c r="G4" t="n">
-        <v>43894.8278851497</v>
+        <v>43177.63465930696</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>20830791</v>
+        <v>22180077</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1354818</v>
+        <v>1388118</v>
       </c>
       <c r="E5" t="n">
-        <v>4379329</v>
+        <v>4486967</v>
       </c>
       <c r="F5" t="n">
-        <v>2802.948892410463</v>
+        <v>4264.983229463603</v>
       </c>
       <c r="G5" t="n">
-        <v>5667.721670224504</v>
+        <v>5425.093867777852</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46</v>
+        <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>133118</v>
+        <v>147469</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>150961450</v>
+        <v>152546116</v>
       </c>
       <c r="E6" t="n">
-        <v>167288879</v>
+        <v>169044936</v>
       </c>
       <c r="F6" t="n">
-        <v>165350.0724961876</v>
+        <v>232497.0435298125</v>
       </c>
       <c r="G6" t="n">
-        <v>419488.7597160867</v>
+        <v>404571.6648339005</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>39165234</v>
+        <v>40636311</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.54</v>
+        <v>4205.04</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>82.93000000000001</v>
+        <v>68.14</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8510493</v>
+        <v>8575206</v>
       </c>
       <c r="E8" t="n">
-        <v>8725096</v>
+        <v>8791441</v>
       </c>
       <c r="F8" t="n">
-        <v>413.5001391768181</v>
+        <v>1457.992925944023</v>
       </c>
       <c r="G8" t="n">
-        <v>1862.436606678475</v>
+        <v>313.0027776427239</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>88071</v>
+        <v>92268</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285433</v>
+        <v>285570</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>17.42276479476512</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>40.16783104362628</v>
       </c>
       <c r="H9" t="n">
-        <v>6.58</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>435.58</v>
+        <v>435.59</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4956037</v>
+        <v>4971601</v>
       </c>
       <c r="E10" t="n">
-        <v>7918258</v>
+        <v>7943124</v>
       </c>
       <c r="F10" t="n">
-        <v>217.135918904724</v>
+        <v>219.1859897970778</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6097760262306</v>
+        <v>421.521268920869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>98303</v>
+        <v>99346</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1006218</v>
+        <v>1007150</v>
       </c>
       <c r="E11" t="n">
-        <v>12313394</v>
+        <v>12324796</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.491431163121</v>
+        <v>1569.149900248095</v>
       </c>
       <c r="G11" t="n">
-        <v>1350.483877801401</v>
+        <v>1380.134900080215</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>531.63</v>
+        <v>526.64</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>589856</v>
+        <v>587684</v>
       </c>
       <c r="E12" t="n">
-        <v>589856</v>
+        <v>587684</v>
       </c>
       <c r="F12" t="n">
-        <v>13.60876790733099</v>
+        <v>23.63549946185789</v>
       </c>
       <c r="G12" t="n">
-        <v>85.49022707782321</v>
+        <v>862.538451386508</v>
       </c>
       <c r="H12" t="n">
-        <v>1.19</v>
+        <v>2.23</v>
       </c>
       <c r="I12" t="n">
-        <v>26655</v>
+        <v>26680</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4610354</v>
+        <v>4723329</v>
       </c>
       <c r="E13" t="n">
-        <v>28315216</v>
+        <v>29009065</v>
       </c>
       <c r="F13" t="n">
-        <v>493.6502812658599</v>
+        <v>817.9615620328804</v>
       </c>
       <c r="G13" t="n">
-        <v>1233.371386048461</v>
+        <v>863.7607067808607</v>
       </c>
       <c r="H13" t="n">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="I13" t="n">
-        <v>681450</v>
+        <v>687895</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>198060</v>
+        <v>203731</v>
       </c>
       <c r="E14" t="n">
-        <v>2178878</v>
+        <v>2241267</v>
       </c>
       <c r="F14" t="n">
-        <v>8.206266130792287</v>
+        <v>1.013193079826729</v>
       </c>
       <c r="G14" t="n">
-        <v>1804.328297576305</v>
+        <v>549.6698783840808</v>
       </c>
       <c r="H14" t="n">
-        <v>0.46</v>
+        <v>1.33</v>
       </c>
       <c r="I14" t="n">
-        <v>27696</v>
+        <v>30876</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3383888</v>
+        <v>3388442</v>
       </c>
       <c r="E15" t="n">
-        <v>9626862</v>
+        <v>9639818</v>
       </c>
       <c r="F15" t="n">
-        <v>317.5771018514385</v>
+        <v>302.0188317335545</v>
       </c>
       <c r="G15" t="n">
-        <v>382.8890133322259</v>
+        <v>222.4215494236436</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>107774</v>
+        <v>107861</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>317410</v>
+        <v>317954</v>
       </c>
       <c r="E16" t="n">
-        <v>3663287</v>
+        <v>3669565</v>
       </c>
       <c r="F16" t="n">
-        <v>134.3587873520762</v>
+        <v>134.5381692115998</v>
       </c>
       <c r="G16" t="n">
-        <v>131.9599023609566</v>
+        <v>132.3006597657654</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3429.18</v>
+        <v>3416.55</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>944608</v>
+        <v>938925</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.92</v>
+        <v>4.38</v>
       </c>
       <c r="I17" t="n">
-        <v>11858.76</v>
+        <v>12106.1</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23161656</v>
+        <v>23067146</v>
       </c>
       <c r="E18" t="n">
-        <v>23204660</v>
+        <v>23109975</v>
       </c>
       <c r="F18" t="n">
-        <v>2874.59024003241</v>
+        <v>2119.307400047566</v>
       </c>
       <c r="G18" t="n">
-        <v>800.0517521451201</v>
+        <v>2437.590060679187</v>
       </c>
       <c r="H18" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="I18" t="n">
-        <v>834306</v>
+        <v>838851</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7202300</v>
+        <v>6872109</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.98</v>
+        <v>6.78</v>
       </c>
       <c r="I19" t="n">
-        <v>19178.97</v>
+        <v>18686.72</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2431710</v>
+        <v>2453368</v>
       </c>
       <c r="E20" t="n">
-        <v>2431710</v>
+        <v>2453368</v>
       </c>
       <c r="F20" t="n">
-        <v>22.07208012564046</v>
+        <v>361.5208420321866</v>
       </c>
       <c r="G20" t="n">
-        <v>32.01060081310735</v>
+        <v>188.3616535524959</v>
       </c>
       <c r="H20" t="n">
-        <v>2.98</v>
+        <v>1.05</v>
       </c>
       <c r="I20" t="n">
-        <v>317511</v>
+        <v>318807</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>404064</v>
+        <v>433152</v>
       </c>
       <c r="F21" t="n">
-        <v>97.70204321256476</v>
+        <v>15.82775507330365</v>
       </c>
       <c r="G21" t="n">
-        <v>1.637168930334163</v>
+        <v>0.1300583618578277</v>
       </c>
       <c r="H21" t="n">
-        <v>1.47</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1751.93</v>
+        <v>1958.65</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17539478</v>
+        <v>17720721</v>
       </c>
       <c r="E22" t="n">
-        <v>22574747</v>
+        <v>22808022</v>
       </c>
       <c r="F22" t="n">
-        <v>4635.005254331668</v>
+        <v>1648.491112855942</v>
       </c>
       <c r="G22" t="n">
-        <v>10058.37655136735</v>
+        <v>2272.712861220284</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.78</v>
       </c>
       <c r="I22" t="n">
-        <v>1550950</v>
+        <v>1693528</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>492965666</v>
+        <v>484716358</v>
       </c>
       <c r="E23" t="n">
-        <v>492965673</v>
+        <v>484716359</v>
       </c>
       <c r="F23" t="n">
-        <v>54891.05857915629</v>
+        <v>51769.11211952328</v>
       </c>
       <c r="G23" t="n">
-        <v>75576.62233200624</v>
+        <v>76401.63728603729</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>66356179</v>
+        <v>66197342</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23518</v>
+        <v>23523</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.52</v>
+        <v>6.59</v>
       </c>
       <c r="I24" t="n">
-        <v>2451.04</v>
+        <v>2450.92</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4774925</v>
+        <v>4741428</v>
       </c>
       <c r="E25" t="n">
-        <v>4774925</v>
+        <v>4741428</v>
       </c>
       <c r="F25" t="n">
-        <v>612.7134062961813</v>
+        <v>797.5522355135765</v>
       </c>
       <c r="G25" t="n">
-        <v>1270.191734857229</v>
+        <v>1037.762522370422</v>
       </c>
       <c r="H25" t="n">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2006960</v>
+        <v>2022289</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3419525</v>
+        <v>3388789</v>
       </c>
       <c r="E26" t="n">
-        <v>3419525</v>
+        <v>3388789</v>
       </c>
       <c r="F26" t="n">
-        <v>1301.490500593083</v>
+        <v>1135.008142199369</v>
       </c>
       <c r="G26" t="n">
-        <v>241.9538022414028</v>
+        <v>493.5924084677296</v>
       </c>
       <c r="H26" t="n">
-        <v>0.84</v>
+        <v>0.47</v>
       </c>
       <c r="I26" t="n">
-        <v>512845</v>
+        <v>533598</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>313227</v>
+        <v>319097</v>
       </c>
       <c r="E27" t="n">
-        <v>1462175</v>
+        <v>1489578</v>
       </c>
       <c r="F27" t="n">
-        <v>140.4523907374618</v>
+        <v>2332.087920573121</v>
       </c>
       <c r="G27" t="n">
-        <v>812.9580489530931</v>
+        <v>298.481305834634</v>
       </c>
       <c r="H27" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="I27" t="n">
-        <v>699901</v>
+        <v>724288</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1457407</v>
+        <v>1464617</v>
       </c>
       <c r="F28" t="n">
-        <v>268.9562851006281</v>
+        <v>266.361937760104</v>
       </c>
       <c r="G28" t="n">
-        <v>356.4631353068762</v>
+        <v>668.140453448559</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I28" t="n">
-        <v>243186</v>
+        <v>332529</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12788000</v>
+        <v>12656320</v>
       </c>
       <c r="E29" t="n">
-        <v>31827019</v>
+        <v>31499291</v>
       </c>
       <c r="F29" t="n">
-        <v>703.6065381776551</v>
+        <v>652.2543868101809</v>
       </c>
       <c r="G29" t="n">
-        <v>1185.922201470372</v>
+        <v>1644.582391730382</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1250861</v>
+        <v>1284570</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>907824</v>
+        <v>896522</v>
       </c>
       <c r="E30" t="n">
-        <v>6354765</v>
+        <v>6275657</v>
       </c>
       <c r="F30" t="n">
-        <v>665.6801565271865</v>
+        <v>639.4017658031103</v>
       </c>
       <c r="G30" t="n">
-        <v>247.8794466841871</v>
+        <v>204.4816860744278</v>
       </c>
       <c r="H30" t="n">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="I30" t="n">
-        <v>223517</v>
+        <v>244940</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>191416</v>
+        <v>174051</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.91</v>
+        <v>12.17</v>
       </c>
       <c r="I31" t="n">
-        <v>814.15</v>
+        <v>865.47</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5728316</v>
+        <v>5505698</v>
       </c>
       <c r="E32" t="n">
-        <v>6002359</v>
+        <v>5769090</v>
       </c>
       <c r="F32" t="n">
-        <v>80.67714860190615</v>
+        <v>595.3450994209027</v>
       </c>
       <c r="G32" t="n">
-        <v>185.1490442047429</v>
+        <v>28.60366575823066</v>
       </c>
       <c r="H32" t="n">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="I32" t="n">
-        <v>153267</v>
+        <v>187594</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5367648</v>
+        <v>5166381</v>
       </c>
       <c r="E33" t="n">
-        <v>7901468</v>
+        <v>7605193</v>
       </c>
       <c r="F33" t="n">
-        <v>36.56305940548391</v>
+        <v>424.0708631671351</v>
       </c>
       <c r="G33" t="n">
-        <v>137.731386805005</v>
+        <v>126.3518525375176</v>
       </c>
       <c r="H33" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="I33" t="n">
-        <v>588288</v>
+        <v>578797</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7644701</v>
+        <v>7614234</v>
       </c>
       <c r="E34" t="n">
-        <v>7644701</v>
+        <v>7614234</v>
       </c>
       <c r="F34" t="n">
-        <v>32609.46825239873</v>
+        <v>32343.08914003153</v>
       </c>
       <c r="G34" t="n">
-        <v>23298.1739294309</v>
+        <v>10982.61899987975</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
       <c r="I34" t="n">
-        <v>185859</v>
+        <v>392700</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1459798</v>
+        <v>1490358</v>
       </c>
       <c r="E35" t="n">
-        <v>1459798</v>
+        <v>1490358</v>
       </c>
       <c r="F35" t="n">
-        <v>489.2449591737231</v>
+        <v>77.96942472583008</v>
       </c>
       <c r="G35" t="n">
-        <v>309.4757299590436</v>
+        <v>713.0042067219225</v>
       </c>
       <c r="H35" t="n">
-        <v>1.02</v>
+        <v>0.22</v>
       </c>
       <c r="I35" t="n">
-        <v>278059</v>
+        <v>277625</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15803497</v>
+        <v>15832306</v>
       </c>
       <c r="F36" t="n">
-        <v>169.0481362018974</v>
+        <v>168.2177893090181</v>
       </c>
       <c r="G36" t="n">
-        <v>195.9880432195086</v>
+        <v>204.2421105217237</v>
       </c>
       <c r="H36" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>10340.72</v>
+        <v>10539.45</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55468</v>
+        <v>55478</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>1020.98</v>
+        <v>782.92</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>144764227</v>
+        <v>145779954</v>
       </c>
       <c r="E38" t="n">
-        <v>144764227</v>
+        <v>145779954</v>
       </c>
       <c r="F38" t="n">
-        <v>250638.7326085751</v>
+        <v>338165.4351193839</v>
       </c>
       <c r="G38" t="n">
-        <v>384320.4159779791</v>
+        <v>341154.7768850207</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>72158657</v>
+        <v>74702636</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>68943304</v>
+        <v>69755734</v>
       </c>
       <c r="E39" t="n">
-        <v>353555405</v>
+        <v>357721714</v>
       </c>
       <c r="F39" t="n">
-        <v>82266.00414717301</v>
+        <v>85293.94992939418</v>
       </c>
       <c r="G39" t="n">
-        <v>121622.7560326511</v>
+        <v>115735.8611289649</v>
       </c>
       <c r="H39" t="n">
         <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>25375903</v>
+        <v>26351408</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46404</v>
+        <v>46409</v>
       </c>
       <c r="E40" t="n">
-        <v>137132</v>
+        <v>137148</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.890000000000001</v>
+        <v>15.77</v>
       </c>
       <c r="I40" t="n">
         <v>118.23</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54622</v>
+        <v>54891</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="I41" t="n">
-        <v>26194</v>
+        <v>26374</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>594689</v>
+        <v>595760</v>
       </c>
       <c r="F42" t="n">
-        <v>306.3549816791161</v>
+        <v>1187.413726308235</v>
       </c>
       <c r="G42" t="n">
-        <v>410.1361211032</v>
+        <v>410.1515533619968</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1522.88</v>
+        <v>1307.86</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2726910</v>
+        <v>2746886</v>
       </c>
       <c r="E44" t="n">
-        <v>10958830</v>
+        <v>11039111</v>
       </c>
       <c r="F44" t="n">
-        <v>40.69426528879038</v>
+        <v>74.50850220269135</v>
       </c>
       <c r="G44" t="n">
-        <v>240.5735687953157</v>
+        <v>238.3791190513985</v>
       </c>
       <c r="H44" t="n">
         <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>34997</v>
+        <v>36234</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17645864</v>
+        <v>17676245</v>
       </c>
       <c r="E45" t="n">
-        <v>124258659</v>
+        <v>124467585</v>
       </c>
       <c r="F45" t="n">
-        <v>303.6100806630429</v>
+        <v>326.1235017392599</v>
       </c>
       <c r="G45" t="n">
-        <v>259.0769103084283</v>
+        <v>260.0554602342961</v>
       </c>
       <c r="H45" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
-        <v>1077508</v>
+        <v>1089540</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>151443</v>
+        <v>175127</v>
       </c>
       <c r="E46" t="n">
-        <v>2026395</v>
+        <v>2343295</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>45012</v>
+        <v>52873</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>268272727</v>
+        <v>268530413</v>
       </c>
       <c r="E47" t="n">
-        <v>268272727</v>
+        <v>268530413</v>
       </c>
       <c r="F47" t="n">
-        <v>110230.5398526462</v>
+        <v>129932.427206496</v>
       </c>
       <c r="G47" t="n">
-        <v>165797.6422540133</v>
+        <v>165864.4938868327</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>15473919</v>
+        <v>15449915</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>643902</v>
+        <v>645755</v>
       </c>
       <c r="E48" t="n">
-        <v>643902</v>
+        <v>645755</v>
       </c>
       <c r="F48" t="n">
-        <v>7.855134640178871</v>
+        <v>11.09637622586904</v>
       </c>
       <c r="G48" t="n">
-        <v>223.9399540329998</v>
+        <v>303.6487429878353</v>
       </c>
       <c r="H48" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>2749.32</v>
+        <v>2756.77</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>448128339</v>
+        <v>444380741</v>
       </c>
       <c r="E50" t="n">
-        <v>448128339</v>
+        <v>444380741</v>
       </c>
       <c r="F50" t="n">
-        <v>3056.225952735334</v>
+        <v>3266.740228876983</v>
       </c>
       <c r="G50" t="n">
-        <v>2234.624547732127</v>
+        <v>1662.21598858059</v>
       </c>
       <c r="H50" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="I50" t="n">
-        <v>2563628</v>
+        <v>2672943</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2440587</v>
+        <v>2511801</v>
       </c>
       <c r="E51" t="n">
-        <v>2440587</v>
+        <v>2511801</v>
       </c>
       <c r="F51" t="n">
-        <v>1013.642675391729</v>
+        <v>11.29622790230411</v>
       </c>
       <c r="G51" t="n">
-        <v>1039.454182658982</v>
+        <v>116.5483148331647</v>
       </c>
       <c r="H51" t="n">
-        <v>1.09</v>
+        <v>3.06</v>
       </c>
       <c r="I51" t="n">
-        <v>102475</v>
+        <v>55512</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23399</v>
+        <v>22110</v>
       </c>
       <c r="E52" t="n">
-        <v>46798</v>
+        <v>44221</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>6.69</v>
+        <v>5.88</v>
       </c>
       <c r="I52" t="n">
-        <v>1710.76</v>
+        <v>1401.71</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>162579</v>
+        <v>165112</v>
       </c>
       <c r="F53" t="n">
-        <v>18.75469931143111</v>
+        <v>16.56262256464708</v>
       </c>
       <c r="G53" t="n">
-        <v>41.6099875666142</v>
+        <v>41.82200752352888</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="I53" t="n">
-        <v>22518</v>
+        <v>22296</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2556328</v>
+        <v>2553535</v>
       </c>
       <c r="E54" t="n">
-        <v>6535474</v>
+        <v>6528334</v>
       </c>
       <c r="F54" t="n">
-        <v>202.6298380333906</v>
+        <v>249.6604831205006</v>
       </c>
       <c r="G54" t="n">
-        <v>261.3880115518184</v>
+        <v>263.3546898231377</v>
       </c>
       <c r="H54" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="I54" t="n">
-        <v>109554</v>
+        <v>108042</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3644.16</v>
+        <v>3522.76</v>
       </c>
       <c r="F55" t="n">
-        <v>1.414623882185515</v>
+        <v>262.5069713681683</v>
       </c>
       <c r="G55" t="n">
-        <v>1.095887443832555</v>
+        <v>0.1749762117058058</v>
       </c>
       <c r="H55" t="n">
-        <v>3.83</v>
+        <v>3.08</v>
       </c>
       <c r="I55" t="n">
-        <v>527.78</v>
+        <v>529.65</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>75338832</v>
+        <v>75844943</v>
       </c>
       <c r="E56" t="n">
-        <v>75338832</v>
+        <v>75844943</v>
       </c>
       <c r="F56" t="n">
-        <v>13964.80221249653</v>
+        <v>22702.77188911248</v>
       </c>
       <c r="G56" t="n">
-        <v>17924.98270663352</v>
+        <v>20771.60035986533</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I56" t="n">
-        <v>3354155</v>
+        <v>3561271</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3445474</v>
+        <v>3456586</v>
       </c>
       <c r="E57" t="n">
-        <v>4366017</v>
+        <v>4380098</v>
       </c>
       <c r="F57" t="n">
-        <v>565.9554090964116</v>
+        <v>1244.14639600078</v>
       </c>
       <c r="G57" t="n">
-        <v>135.2859493265276</v>
+        <v>91.93055748177093</v>
       </c>
       <c r="H57" t="n">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="I57" t="n">
-        <v>247850</v>
+        <v>249480</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4133699</v>
+        <v>4168883</v>
       </c>
       <c r="E58" t="n">
-        <v>8152003</v>
+        <v>8221387</v>
       </c>
       <c r="F58" t="n">
-        <v>2051.024771499777</v>
+        <v>2607.647483575536</v>
       </c>
       <c r="G58" t="n">
-        <v>18305.25793454977</v>
+        <v>1663.405486321005</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>1572567</v>
+        <v>1638249</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1645612</v>
+        <v>1640839</v>
       </c>
       <c r="E59" t="n">
-        <v>9448488</v>
+        <v>9421083</v>
       </c>
       <c r="F59" t="n">
-        <v>296.4272983782739</v>
+        <v>271.7978006599201</v>
       </c>
       <c r="G59" t="n">
-        <v>480.8854912959779</v>
+        <v>807.8193549020632</v>
       </c>
       <c r="H59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="I59" t="n">
-        <v>290056</v>
+        <v>291415</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>545823</v>
+        <v>552776</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>10.53</v>
       </c>
       <c r="I60" t="n">
-        <v>1742.52</v>
+        <v>1726.03</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31184765</v>
+        <v>31221629</v>
       </c>
       <c r="F61" t="n">
-        <v>698.8375564034475</v>
+        <v>420.6353051716311</v>
       </c>
       <c r="G61" t="n">
-        <v>1709.398956321834</v>
+        <v>1737.890929429815</v>
       </c>
       <c r="H61" t="n">
         <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>246574</v>
+        <v>245776</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1441375</v>
+        <v>1446007</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>56.35903981538348</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1.410181743530817e-05</v>
       </c>
       <c r="H62" t="n">
-        <v>8.09</v>
+        <v>3.56</v>
       </c>
       <c r="I62" t="n">
-        <v>28530</v>
+        <v>28603</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7685029</v>
+        <v>7697923</v>
       </c>
       <c r="E63" t="n">
-        <v>18099772</v>
+        <v>18130139</v>
       </c>
       <c r="F63" t="n">
-        <v>599.0863643088105</v>
+        <v>1098.030606552602</v>
       </c>
       <c r="G63" t="n">
-        <v>2116.33942844975</v>
+        <v>1833.70896244295</v>
       </c>
       <c r="H63" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I63" t="n">
-        <v>33496</v>
+        <v>34150</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3099832</v>
+        <v>3108563</v>
       </c>
       <c r="E64" t="n">
-        <v>3099832</v>
+        <v>3108563</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.43</v>
+        <v>4.57</v>
       </c>
       <c r="I64" t="n">
-        <v>19942.88</v>
+        <v>20026</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3407877</v>
+        <v>3452090</v>
       </c>
       <c r="E65" t="n">
-        <v>8408761</v>
+        <v>8517857</v>
       </c>
       <c r="F65" t="n">
-        <v>612.2509819717243</v>
+        <v>605.8301765439689</v>
       </c>
       <c r="G65" t="n">
-        <v>1123.50491156933</v>
+        <v>1018.106606932959</v>
       </c>
       <c r="H65" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="I65" t="n">
-        <v>40864</v>
+        <v>46848</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>263623</v>
+        <v>261809</v>
       </c>
       <c r="F66" t="n">
-        <v>16.9608342297113</v>
+        <v>5.21398464861362</v>
       </c>
       <c r="G66" t="n">
-        <v>27.2480546534665</v>
+        <v>62.53014068481094</v>
       </c>
       <c r="H66" t="n">
-        <v>1.72</v>
+        <v>3.39</v>
       </c>
       <c r="I66" t="n">
-        <v>1914.74</v>
+        <v>3404.88</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>80690839</v>
+        <v>80269764</v>
       </c>
       <c r="E67" t="n">
-        <v>168281377</v>
+        <v>167403220</v>
       </c>
       <c r="F67" t="n">
-        <v>63714.79252821166</v>
+        <v>61900.47811159602</v>
       </c>
       <c r="G67" t="n">
-        <v>97093.72089632881</v>
+        <v>96769.49646814665</v>
       </c>
       <c r="H67" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I67" t="n">
-        <v>19848396</v>
+        <v>20317985</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1870431</v>
+        <v>1910838</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>36.18333849427881</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3.196499886113752</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="I68" t="n">
-        <v>3556.62</v>
+        <v>3552.85</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>210515448</v>
+        <v>214047877</v>
       </c>
       <c r="F69" t="n">
-        <v>1939.868873885962</v>
+        <v>4258.167562957243</v>
       </c>
       <c r="G69" t="n">
-        <v>3013.057804321579</v>
+        <v>7438.39004258067</v>
       </c>
       <c r="H69" t="n">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="I69" t="n">
-        <v>3469134</v>
+        <v>3564344</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179999</v>
+        <v>179835</v>
       </c>
       <c r="E70" t="n">
-        <v>187970</v>
+        <v>187799</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>8.119999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I70" t="n">
-        <v>284.46</v>
+        <v>272.25</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>146358376</v>
+        <v>146913891</v>
       </c>
       <c r="E71" t="n">
-        <v>146407587</v>
+        <v>146967665</v>
       </c>
       <c r="F71" t="n">
-        <v>44856.36881249924</v>
+        <v>35021.93287022736</v>
       </c>
       <c r="G71" t="n">
-        <v>37997.621407584</v>
+        <v>44109.28655817745</v>
       </c>
       <c r="H71" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="I71" t="n">
-        <v>2604415</v>
+        <v>2674987</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26244425</v>
+        <v>26282395</v>
       </c>
       <c r="E72" t="n">
-        <v>86129185</v>
+        <v>86253797</v>
       </c>
       <c r="F72" t="n">
-        <v>23088.34624681257</v>
+        <v>9669.814348652946</v>
       </c>
       <c r="G72" t="n">
-        <v>28991.5180700431</v>
+        <v>32859.83403800344</v>
       </c>
       <c r="H72" t="n">
         <v>0.46</v>
       </c>
       <c r="I72" t="n">
-        <v>101842</v>
+        <v>91744</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>120088</v>
+        <v>120146</v>
       </c>
       <c r="E73" t="n">
-        <v>120088</v>
+        <v>120146</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>5.15</v>
       </c>
       <c r="I73" t="n">
-        <v>1384.23</v>
+        <v>1391.44</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>210239690</v>
+        <v>211162681</v>
       </c>
       <c r="E74" t="n">
-        <v>730391682</v>
+        <v>733598238</v>
       </c>
       <c r="F74" t="n">
-        <v>130744.5882317894</v>
+        <v>151889.0040373982</v>
       </c>
       <c r="G74" t="n">
-        <v>217573.2314914749</v>
+        <v>163657.1380568035</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>29836521</v>
+        <v>29782238</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3566711</v>
+        <v>3551264</v>
       </c>
       <c r="E75" t="n">
-        <v>3566711</v>
+        <v>3551264</v>
       </c>
       <c r="F75" t="n">
-        <v>601.693303789011</v>
+        <v>479.323007443697</v>
       </c>
       <c r="G75" t="n">
-        <v>1685.919546372803</v>
+        <v>1228.780526069178</v>
       </c>
       <c r="H75" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="I75" t="n">
-        <v>2544790</v>
+        <v>2514159</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>119717291</v>
+        <v>120880385</v>
       </c>
       <c r="E76" t="n">
-        <v>508454446</v>
+        <v>513340638</v>
       </c>
       <c r="F76" t="n">
-        <v>175872.4330136014</v>
+        <v>165241.1736994025</v>
       </c>
       <c r="G76" t="n">
-        <v>214514.9982297626</v>
+        <v>161039.5566797939</v>
       </c>
       <c r="H76" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I76" t="n">
-        <v>16057604</v>
+        <v>16566509</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1867356</v>
+        <v>1867841</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22594807365383</v>
+        <v>36.2272738907902</v>
       </c>
       <c r="G77" t="n">
-        <v>88.3050790048847</v>
+        <v>311.8179995755473</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>618.28</v>
+        <v>619.01</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3174532</v>
+        <v>3137907</v>
       </c>
       <c r="E78" t="n">
-        <v>15916465</v>
+        <v>15732836</v>
       </c>
       <c r="F78" t="n">
-        <v>250.421532752196</v>
+        <v>280.733099902661</v>
       </c>
       <c r="G78" t="n">
-        <v>230.8809848698037</v>
+        <v>293.1045507761678</v>
       </c>
       <c r="H78" t="n">
-        <v>1.84</v>
+        <v>0.62</v>
       </c>
       <c r="I78" t="n">
-        <v>32319</v>
+        <v>33179</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>494865</v>
+        <v>490042</v>
       </c>
       <c r="E79" t="n">
-        <v>8464634</v>
+        <v>8382141</v>
       </c>
       <c r="F79" t="n">
-        <v>1.476692323808528</v>
+        <v>258.7570627524158</v>
       </c>
       <c r="G79" t="n">
-        <v>489.6789437395144</v>
+        <v>775.6213594149352</v>
       </c>
       <c r="H79" t="n">
         <v>1.24</v>
       </c>
       <c r="I79" t="n">
-        <v>160115</v>
+        <v>159535</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5772949</v>
+        <v>5776326</v>
       </c>
       <c r="E80" t="n">
-        <v>7842876</v>
+        <v>7847464</v>
       </c>
       <c r="F80" t="n">
-        <v>456.5681358671231</v>
+        <v>340.9148058085009</v>
       </c>
       <c r="G80" t="n">
-        <v>1017.596208279807</v>
+        <v>1306.379843184228</v>
       </c>
       <c r="H80" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>5605975</v>
+        <v>5521882</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43102</v>
+        <v>43532</v>
       </c>
       <c r="F81" t="n">
-        <v>230.8488460377802</v>
+        <v>29.4393144243906</v>
       </c>
       <c r="G81" t="n">
-        <v>2.000083744238545</v>
+        <v>75.71598493896825</v>
       </c>
       <c r="H81" t="n">
-        <v>0.39</v>
+        <v>1.93</v>
       </c>
       <c r="I81" t="n">
-        <v>42493</v>
+        <v>42506</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40641389</v>
+        <v>41152551</v>
       </c>
       <c r="E82" t="n">
-        <v>47468177</v>
+        <v>48065202</v>
       </c>
       <c r="F82" t="n">
-        <v>171.5206554307949</v>
+        <v>74.09459688318469</v>
       </c>
       <c r="G82" t="n">
-        <v>69.05196515072761</v>
+        <v>61.33500859256485</v>
       </c>
       <c r="H82" t="n">
-        <v>2.11</v>
+        <v>3.04</v>
       </c>
       <c r="I82" t="n">
-        <v>882067</v>
+        <v>864958</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>15031982</v>
+        <v>14884215</v>
       </c>
       <c r="F83" t="n">
-        <v>239.2547531031099</v>
+        <v>171.490771606456</v>
       </c>
       <c r="G83" t="n">
-        <v>626.2217165842263</v>
+        <v>622.9341084320822</v>
       </c>
       <c r="H83" t="n">
-        <v>0.83</v>
+        <v>1.3</v>
       </c>
       <c r="I83" t="n">
-        <v>276999</v>
+        <v>262628</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36183798</v>
+        <v>36850767</v>
       </c>
       <c r="E84" t="n">
-        <v>36183798</v>
+        <v>36850767</v>
       </c>
       <c r="F84" t="n">
-        <v>129.0068728430383</v>
+        <v>315.0344673890139</v>
       </c>
       <c r="G84" t="n">
-        <v>78.33032519524369</v>
+        <v>527.3914941265106</v>
       </c>
       <c r="H84" t="n">
-        <v>1.65</v>
+        <v>0.71</v>
       </c>
       <c r="I84" t="n">
-        <v>797379</v>
+        <v>816597</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>571442</v>
+        <v>571071</v>
       </c>
       <c r="E85" t="n">
-        <v>6931040</v>
+        <v>6926538</v>
       </c>
       <c r="F85" t="n">
-        <v>747.1416802515279</v>
+        <v>647.6831460688437</v>
       </c>
       <c r="G85" t="n">
-        <v>479.4103698789119</v>
+        <v>493.7014792834218</v>
       </c>
       <c r="H85" t="n">
-        <v>0.84</v>
+        <v>0.29</v>
       </c>
       <c r="I85" t="n">
-        <v>2677766</v>
+        <v>2802225</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26799795</v>
+        <v>26439653</v>
       </c>
       <c r="E86" t="n">
-        <v>37880200</v>
+        <v>37371157</v>
       </c>
       <c r="F86" t="n">
-        <v>626.9534961574932</v>
+        <v>363.5970523956119</v>
       </c>
       <c r="G86" t="n">
-        <v>208.8441160155276</v>
+        <v>107.0284558740858</v>
       </c>
       <c r="H86" t="n">
-        <v>2.19</v>
+        <v>1.78</v>
       </c>
       <c r="I86" t="n">
-        <v>78072</v>
+        <v>83293</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1339525207</v>
+        <v>1363014508</v>
       </c>
       <c r="E87" t="n">
-        <v>6423297694</v>
+        <v>6535933703</v>
       </c>
       <c r="F87" t="n">
-        <v>680581.0618023592</v>
+        <v>663491.305198534</v>
       </c>
       <c r="G87" t="n">
-        <v>766826.8830516842</v>
+        <v>946730.3650735135</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>175746033</v>
+        <v>199546460</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>278669347</v>
+        <v>281403616</v>
       </c>
       <c r="E88" t="n">
-        <v>1202891604</v>
+        <v>1214694225</v>
       </c>
       <c r="F88" t="n">
-        <v>984328.0818607523</v>
+        <v>1188920.042450922</v>
       </c>
       <c r="G88" t="n">
-        <v>1122949.119749915</v>
+        <v>886142.8173629069</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>106093302</v>
+        <v>110557735</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>116977395</v>
+        <v>117310998</v>
       </c>
       <c r="E89" t="n">
-        <v>116977395</v>
+        <v>117310998</v>
       </c>
       <c r="F89" t="n">
-        <v>22355.75447943651</v>
+        <v>27676.60176613755</v>
       </c>
       <c r="G89" t="n">
-        <v>36103.94761569507</v>
+        <v>35301.87042117878</v>
       </c>
       <c r="H89" t="n">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="I89" t="n">
-        <v>5466495</v>
+        <v>6405909</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3858027</v>
+        <v>3858691</v>
       </c>
       <c r="E90" t="n">
-        <v>30022701</v>
+        <v>30027869</v>
       </c>
       <c r="F90" t="n">
-        <v>12657.51903922995</v>
+        <v>12395.96830927536</v>
       </c>
       <c r="G90" t="n">
-        <v>13017.02065916813</v>
+        <v>13135.0167886055</v>
       </c>
       <c r="H90" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>6940.04</v>
+        <v>7017.05</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3803083</v>
+        <v>3817763</v>
       </c>
       <c r="F91" t="n">
-        <v>403.5041389610491</v>
+        <v>4537.936678499089</v>
       </c>
       <c r="G91" t="n">
-        <v>644.9997256028913</v>
+        <v>3356.58389777167</v>
       </c>
       <c r="H91" t="n">
-        <v>1.59</v>
+        <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>292529</v>
+        <v>132935</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>892141</v>
+        <v>851298</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>11.3540018352662</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1214.266957743885</v>
       </c>
       <c r="H92" t="n">
-        <v>5.32</v>
+        <v>3.18</v>
       </c>
       <c r="I92" t="n">
-        <v>16759.82</v>
+        <v>16317.37</v>
       </c>
     </row>
     <row r="93">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>112383</v>
+        <v>114880</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>4.88</v>
+        <v>4.26</v>
       </c>
       <c r="I93" t="n">
-        <v>145225</v>
+        <v>145274</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>12102274</v>
+        <v>11879294</v>
       </c>
       <c r="E94" t="n">
-        <v>146088384</v>
+        <v>143396763</v>
       </c>
       <c r="F94" t="n">
-        <v>2783.250170634129</v>
+        <v>2290.000009504398</v>
       </c>
       <c r="G94" t="n">
-        <v>1976.339933971273</v>
+        <v>1885.984087337338</v>
       </c>
       <c r="H94" t="n">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="I94" t="n">
-        <v>389093</v>
+        <v>431541</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19685364</v>
+        <v>19913662</v>
       </c>
       <c r="E95" t="n">
-        <v>49213410</v>
+        <v>49784155</v>
       </c>
       <c r="F95" t="n">
-        <v>7965.036192370717</v>
+        <v>8489.403807194711</v>
       </c>
       <c r="G95" t="n">
-        <v>12624.13463801895</v>
+        <v>10241.22053919876</v>
       </c>
       <c r="H95" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>2119236</v>
+        <v>1869778</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2362406</v>
+        <v>2398476</v>
       </c>
       <c r="F96" t="n">
-        <v>142.3017034026286</v>
+        <v>173.8657442167243</v>
       </c>
       <c r="G96" t="n">
-        <v>71.90066377357655</v>
+        <v>160.8852523882496</v>
       </c>
       <c r="H96" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="I96" t="n">
-        <v>58667</v>
+        <v>56928</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19900835</v>
+        <v>19740784</v>
       </c>
       <c r="F97" t="n">
-        <v>6654.414985798238</v>
+        <v>3563.323730533311</v>
       </c>
       <c r="G97" t="n">
-        <v>2251.703952016102</v>
+        <v>5848.916430387489</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>37738</v>
+        <v>45374</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4271310</v>
+        <v>4227990</v>
       </c>
       <c r="E98" t="n">
-        <v>12303405</v>
+        <v>12178622</v>
       </c>
       <c r="F98" t="n">
-        <v>932.2303394735092</v>
+        <v>2200.4167239821</v>
       </c>
       <c r="G98" t="n">
-        <v>702.2547693874345</v>
+        <v>498.1801448486173</v>
       </c>
       <c r="H98" t="n">
-        <v>0.89</v>
+        <v>0.49</v>
       </c>
       <c r="I98" t="n">
-        <v>613982</v>
+        <v>585165</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1558446</v>
+        <v>1527235</v>
       </c>
       <c r="F99" t="n">
-        <v>159.3337742419632</v>
+        <v>117.156433861717</v>
       </c>
       <c r="G99" t="n">
-        <v>29.99880644771307</v>
+        <v>10.77277949934002</v>
       </c>
       <c r="H99" t="n">
-        <v>3.7</v>
+        <v>2.97</v>
       </c>
       <c r="I99" t="n">
-        <v>250208</v>
+        <v>261932</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80929080</v>
+        <v>80994036</v>
       </c>
       <c r="E100" t="n">
-        <v>102988544</v>
+        <v>103071206</v>
       </c>
       <c r="F100" t="n">
-        <v>6600.62462627623</v>
+        <v>8199.660191218836</v>
       </c>
       <c r="G100" t="n">
-        <v>12071.05614001027</v>
+        <v>9465.059664642215</v>
       </c>
       <c r="H100" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="I100" t="n">
-        <v>6245353</v>
+        <v>6252836</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23149402</v>
+        <v>23365093</v>
       </c>
       <c r="E101" t="n">
-        <v>30030070</v>
+        <v>30309870</v>
       </c>
       <c r="F101" t="n">
-        <v>2994.154059353592</v>
+        <v>3274.747782102109</v>
       </c>
       <c r="G101" t="n">
-        <v>6231.761989879988</v>
+        <v>3343.135015439086</v>
       </c>
       <c r="H101" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="I101" t="n">
-        <v>178028</v>
+        <v>168301</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1625872</v>
+        <v>1589434</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>10.18</v>
+        <v>6.21</v>
       </c>
       <c r="I102" t="n">
-        <v>12838.97</v>
+        <v>10227.57</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>666749</v>
+        <v>669366</v>
       </c>
       <c r="E103" t="n">
-        <v>666749</v>
+        <v>669366</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.36</v>
+        <v>5.87</v>
       </c>
       <c r="I103" t="n">
-        <v>78897</v>
+        <v>78020</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41363453</v>
+        <v>41199500</v>
       </c>
       <c r="E104" t="n">
-        <v>43239599</v>
+        <v>43068209</v>
       </c>
       <c r="F104" t="n">
-        <v>392.9638763596614</v>
+        <v>739.714550257548</v>
       </c>
       <c r="G104" t="n">
-        <v>482.6908179568449</v>
+        <v>1044.126986543181</v>
       </c>
       <c r="H104" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="I104" t="n">
-        <v>725537</v>
+        <v>758362</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14008482</v>
+        <v>14862341</v>
       </c>
       <c r="E105" t="n">
-        <v>14008482</v>
+        <v>14862341</v>
       </c>
       <c r="F105" t="n">
-        <v>2429.62090225835</v>
+        <v>1999.048600532258</v>
       </c>
       <c r="G105" t="n">
-        <v>4146.452139790834</v>
+        <v>4957.9075383896</v>
       </c>
       <c r="H105" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I105" t="n">
-        <v>4918361</v>
+        <v>5112601</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1131802</v>
+        <v>1180226</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.81</v>
+        <v>6.25</v>
       </c>
       <c r="I106" t="n">
-        <v>6828.27</v>
+        <v>6624.91</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>52104147</v>
+        <v>51932148</v>
       </c>
       <c r="E107" t="n">
-        <v>132738293</v>
+        <v>132300115</v>
       </c>
       <c r="F107" t="n">
-        <v>2924.655530152342</v>
+        <v>2154.559961426316</v>
       </c>
       <c r="G107" t="n">
-        <v>4384.525134069211</v>
+        <v>4368.8224458525</v>
       </c>
       <c r="H107" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2424255</v>
+        <v>2421523</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15542929</v>
+        <v>15635295</v>
       </c>
       <c r="E108" t="n">
-        <v>75276884</v>
+        <v>75724228</v>
       </c>
       <c r="F108" t="n">
-        <v>7169.101327950428</v>
+        <v>10143.46120972558</v>
       </c>
       <c r="G108" t="n">
-        <v>10653.04281140265</v>
+        <v>11457.20019747659</v>
       </c>
       <c r="H108" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I108" t="n">
-        <v>4098725</v>
+        <v>4215313</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>510071</v>
+        <v>518938</v>
       </c>
       <c r="F109" t="n">
-        <v>164.3886720478195</v>
+        <v>36.14136616192834</v>
       </c>
       <c r="G109" t="n">
-        <v>41.71736270978767</v>
+        <v>8.983745711536979</v>
       </c>
       <c r="H109" t="n">
-        <v>3.51</v>
+        <v>0.55</v>
       </c>
       <c r="I109" t="n">
-        <v>7361.09</v>
+        <v>7309.78</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4648080</v>
+        <v>4642862</v>
       </c>
       <c r="E110" t="n">
-        <v>10595094</v>
+        <v>10583198</v>
       </c>
       <c r="F110" t="n">
-        <v>1281.69152224413</v>
+        <v>750.1755406028128</v>
       </c>
       <c r="G110" t="n">
-        <v>1546.31504385328</v>
+        <v>1941.042042839408</v>
       </c>
       <c r="H110" t="n">
         <v>0.75</v>
       </c>
       <c r="I110" t="n">
-        <v>86389</v>
+        <v>84614</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1932228312</v>
+        <v>1929205612</v>
       </c>
       <c r="F111" t="n">
-        <v>78059.11395813542</v>
+        <v>93199.59041085096</v>
       </c>
       <c r="G111" t="n">
-        <v>49336.10105666729</v>
+        <v>49775.06572441457</v>
       </c>
       <c r="H111" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="I111" t="n">
-        <v>27726379</v>
+        <v>28068451</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9645724</v>
+        <v>9559528</v>
       </c>
       <c r="E112" t="n">
-        <v>35104606</v>
+        <v>34790870</v>
       </c>
       <c r="F112" t="n">
-        <v>406.3605948574569</v>
+        <v>474.8724803321396</v>
       </c>
       <c r="G112" t="n">
-        <v>2201.997982604137</v>
+        <v>334.5290399384394</v>
       </c>
       <c r="H112" t="n">
-        <v>0.29</v>
+        <v>1.15</v>
       </c>
       <c r="I112" t="n">
-        <v>100608</v>
+        <v>124641</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>564235</v>
+        <v>564728</v>
       </c>
       <c r="F113" t="n">
-        <v>109.3791213764031</v>
+        <v>15.59165402281602</v>
       </c>
       <c r="G113" t="n">
-        <v>70.68937431665188</v>
+        <v>32.04683784851858</v>
       </c>
       <c r="H113" t="n">
-        <v>2.92</v>
+        <v>3.06</v>
       </c>
       <c r="I113" t="n">
-        <v>891.23</v>
+        <v>891.5700000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12481290</v>
+        <v>12384107</v>
       </c>
       <c r="E114" t="n">
-        <v>18096069</v>
+        <v>17955168</v>
       </c>
       <c r="F114" t="n">
-        <v>573.8420960643248</v>
+        <v>1321.263721185502</v>
       </c>
       <c r="G114" t="n">
-        <v>353.8478385158358</v>
+        <v>8217.669614861812</v>
       </c>
       <c r="H114" t="n">
-        <v>1.32</v>
+        <v>0.62</v>
       </c>
       <c r="I114" t="n">
-        <v>2148331</v>
+        <v>2105617</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1966199</v>
+        <v>1945557</v>
       </c>
       <c r="E115" t="n">
-        <v>14099418</v>
+        <v>13951395</v>
       </c>
       <c r="F115" t="n">
-        <v>845.8490556904385</v>
+        <v>599.0553253359183</v>
       </c>
       <c r="G115" t="n">
-        <v>807.2284049993505</v>
+        <v>976.1398055518387</v>
       </c>
       <c r="H115" t="n">
-        <v>1.6</v>
+        <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>2042397</v>
+        <v>2000081</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2711297</v>
+        <v>2710022</v>
       </c>
       <c r="E116" t="n">
-        <v>5480778</v>
+        <v>5478200</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>8954.209999999999</v>
+        <v>9015.309999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>209707482</v>
+        <v>209148854</v>
       </c>
       <c r="E117" t="n">
-        <v>1187492615</v>
+        <v>1184329324</v>
       </c>
       <c r="F117" t="n">
-        <v>299607.2362191426</v>
+        <v>282029.8257054822</v>
       </c>
       <c r="G117" t="n">
-        <v>434194.383557206</v>
+        <v>432288.8003083635</v>
       </c>
       <c r="H117" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>69584231</v>
+        <v>69796977</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>677953</v>
+        <v>690409</v>
       </c>
       <c r="E118" t="n">
-        <v>2247994</v>
+        <v>2289294</v>
       </c>
       <c r="F118" t="n">
-        <v>6567.421598177537</v>
+        <v>7430.661260605611</v>
       </c>
       <c r="G118" t="n">
-        <v>7032.362553844391</v>
+        <v>6577.889543885976</v>
       </c>
       <c r="H118" t="n">
         <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>11770.94</v>
+        <v>12028.25</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2916955</v>
+        <v>2917123</v>
       </c>
       <c r="E119" t="n">
-        <v>10327706</v>
+        <v>10328303</v>
       </c>
       <c r="F119" t="n">
-        <v>279.2154490268792</v>
+        <v>105.7311159827402</v>
       </c>
       <c r="G119" t="n">
-        <v>1566.404501104704</v>
+        <v>1551.508492369881</v>
       </c>
       <c r="H119" t="n">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="I119" t="n">
-        <v>6081.87</v>
+        <v>5766.31</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1051664</v>
+        <v>1056669</v>
       </c>
       <c r="E120" t="n">
-        <v>1051664</v>
+        <v>1056669</v>
       </c>
       <c r="F120" t="n">
-        <v>165.9026776954195</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>10.74630460248522</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="I120" t="n">
-        <v>5544.42</v>
+        <v>5703.1</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>502573</v>
+        <v>504867</v>
       </c>
       <c r="E121" t="n">
-        <v>1691590</v>
+        <v>1699311</v>
       </c>
       <c r="F121" t="n">
-        <v>353.489695946875</v>
+        <v>460.4422543022852</v>
       </c>
       <c r="G121" t="n">
-        <v>445.716950017667</v>
+        <v>348.3612028622308</v>
       </c>
       <c r="H121" t="n">
         <v>0.71</v>
       </c>
       <c r="I121" t="n">
-        <v>631196</v>
+        <v>633256</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469311</v>
+        <v>464383</v>
       </c>
       <c r="E122" t="n">
-        <v>870662</v>
+        <v>861519</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>196302</v>
+        <v>191813</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11736851</v>
+        <v>11714109</v>
       </c>
       <c r="F123" t="n">
-        <v>184.9868649320284</v>
+        <v>231.1216460942701</v>
       </c>
       <c r="G123" t="n">
-        <v>212.2103774852019</v>
+        <v>167.4579117951501</v>
       </c>
       <c r="H123" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="I123" t="n">
-        <v>11925.78</v>
+        <v>12235.67</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1246743</v>
+        <v>1244814</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>8.09</v>
       </c>
       <c r="I124" t="n">
-        <v>2266.51</v>
+        <v>2755.68</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3388176</v>
+        <v>3381693</v>
       </c>
       <c r="E125" t="n">
-        <v>7911956</v>
+        <v>7896817</v>
       </c>
       <c r="F125" t="n">
-        <v>3028.273823833656</v>
+        <v>3850.569160676434</v>
       </c>
       <c r="G125" t="n">
-        <v>2340.149878632258</v>
+        <v>2785.458524257475</v>
       </c>
       <c r="H125" t="n">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I125" t="n">
-        <v>619008</v>
+        <v>641339</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>247553</v>
+        <v>240890</v>
       </c>
       <c r="E126" t="n">
-        <v>2184842</v>
+        <v>2126036</v>
       </c>
       <c r="F126" t="n">
-        <v>13.89155330186121</v>
+        <v>43.98408720155</v>
       </c>
       <c r="G126" t="n">
-        <v>103.2403534778164</v>
+        <v>331.5130628947567</v>
       </c>
       <c r="H126" t="n">
-        <v>3.02</v>
+        <v>3.24</v>
       </c>
       <c r="I126" t="n">
-        <v>85655</v>
+        <v>86155</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>633655</v>
+        <v>633778</v>
       </c>
       <c r="F127" t="n">
-        <v>577.4124288764453</v>
+        <v>577.4335618566827</v>
       </c>
       <c r="G127" t="n">
-        <v>499.5896594562194</v>
+        <v>499.6079441655052</v>
       </c>
       <c r="H127" t="n">
         <v>0.98</v>
       </c>
       <c r="I127" t="n">
-        <v>5089.64</v>
+        <v>4922.02</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4970389</v>
+        <v>4929811</v>
       </c>
       <c r="E128" t="n">
-        <v>17562698</v>
+        <v>17419315</v>
       </c>
       <c r="F128" t="n">
-        <v>1619.325283700958</v>
+        <v>1429.861413769017</v>
       </c>
       <c r="G128" t="n">
-        <v>2020.699539170019</v>
+        <v>2007.833822903556</v>
       </c>
       <c r="H128" t="n">
-        <v>0.79</v>
+        <v>0.06</v>
       </c>
       <c r="I128" t="n">
-        <v>109724</v>
+        <v>112067</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2195346</v>
+        <v>2139750</v>
       </c>
       <c r="F129" t="n">
-        <v>31.1704123177824</v>
+        <v>70.1730221570115</v>
       </c>
       <c r="G129" t="n">
-        <v>109.0738227439671</v>
+        <v>67.69113144442872</v>
       </c>
       <c r="H129" t="n">
-        <v>1.03</v>
+        <v>0.42</v>
       </c>
       <c r="I129" t="n">
-        <v>8069.81</v>
+        <v>8406.5</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2518650</v>
+        <v>2556426</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2497.45</v>
+        <v>2540.91</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84327</v>
+        <v>84163</v>
       </c>
       <c r="E131" t="n">
-        <v>84327</v>
+        <v>84163</v>
       </c>
       <c r="F131" t="n">
-        <v>6.690870689017554</v>
+        <v>6.21364812468806</v>
       </c>
       <c r="G131" t="n">
-        <v>163.0758955918198</v>
+        <v>162.9080947093754</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>21944</v>
+        <v>21826</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4320964</v>
+        <v>4331706</v>
       </c>
       <c r="F132" t="n">
-        <v>473.1944342204235</v>
+        <v>283.7649276992253</v>
       </c>
       <c r="G132" t="n">
-        <v>293.6620742108029</v>
+        <v>97.7184238505594</v>
       </c>
       <c r="H132" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I132" t="n">
-        <v>298041</v>
+        <v>295192</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2117389</v>
+        <v>2152732</v>
       </c>
       <c r="E133" t="n">
-        <v>8646868</v>
+        <v>8791199</v>
       </c>
       <c r="F133" t="n">
-        <v>528.9240410558583</v>
+        <v>646.1436925252082</v>
       </c>
       <c r="G133" t="n">
-        <v>785.6257878106493</v>
+        <v>498.0300670832154</v>
       </c>
       <c r="H133" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I133" t="n">
-        <v>543938</v>
+        <v>527237</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7396743</v>
+        <v>7441417</v>
       </c>
       <c r="E134" t="n">
-        <v>7451726</v>
+        <v>7496731</v>
       </c>
       <c r="F134" t="n">
-        <v>303146.6429020511</v>
+        <v>299247.8646230269</v>
       </c>
       <c r="G134" t="n">
-        <v>332696.0336159355</v>
+        <v>294796.089449659</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I134" t="n">
-        <v>5054715</v>
+        <v>5080256</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14016419</v>
+        <v>14279540</v>
       </c>
       <c r="E135" t="n">
-        <v>14064118</v>
+        <v>14328134</v>
       </c>
       <c r="F135" t="n">
-        <v>13516.12943123931</v>
+        <v>12978.47304389715</v>
       </c>
       <c r="G135" t="n">
-        <v>12445.96003782299</v>
+        <v>13852.08501218487</v>
       </c>
       <c r="H135" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I135" t="n">
-        <v>5594473</v>
+        <v>6346397</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>43223223</v>
+        <v>43371348</v>
       </c>
       <c r="E136" t="n">
-        <v>73382977</v>
+        <v>73634460</v>
       </c>
       <c r="F136" t="n">
-        <v>559.085617086571</v>
+        <v>310.1662987789287</v>
       </c>
       <c r="G136" t="n">
-        <v>2666.456883823112</v>
+        <v>2247.253988056138</v>
       </c>
       <c r="H136" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1199205</v>
+        <v>1061070</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23301540</v>
+        <v>23162524</v>
       </c>
       <c r="E137" t="n">
-        <v>69847302</v>
+        <v>69429961</v>
       </c>
       <c r="F137" t="n">
-        <v>85361.67000630617</v>
+        <v>84234.12807687839</v>
       </c>
       <c r="G137" t="n">
-        <v>85336.28506642515</v>
+        <v>88878.13975208643</v>
       </c>
       <c r="H137" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I137" t="n">
-        <v>3478140</v>
+        <v>3503341</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>102711801</v>
+        <v>102933841</v>
       </c>
       <c r="E138" t="n">
-        <v>109191927</v>
+        <v>109427976</v>
       </c>
       <c r="F138" t="n">
-        <v>6824.07386847254</v>
+        <v>9057.933404548852</v>
       </c>
       <c r="G138" t="n">
-        <v>11799.59411890329</v>
+        <v>10613.86012633628</v>
       </c>
       <c r="H138" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="I138" t="n">
-        <v>452278</v>
+        <v>453030</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1387019</v>
+        <v>1166409</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>8.83</v>
+        <v>5.3</v>
       </c>
       <c r="I139" t="n">
-        <v>467.58</v>
+        <v>1252.37</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258551</v>
+        <v>258601</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.050000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>111.33</v>
+        <v>82.88</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91702</v>
+        <v>91843</v>
       </c>
       <c r="E141" t="n">
-        <v>260138</v>
+        <v>260539</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>152.94</v>
+        <v>175.18</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49875402</v>
+        <v>50418409</v>
       </c>
       <c r="E142" t="n">
-        <v>214857779</v>
+        <v>217196993</v>
       </c>
       <c r="F142" t="n">
-        <v>67566.97569478882</v>
+        <v>72742.26175908516</v>
       </c>
       <c r="G142" t="n">
-        <v>80735.50072553426</v>
+        <v>75856.3237322721</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>10262441</v>
+        <v>10061070</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>270085</v>
+        <v>270405</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>9.9</v>
+        <v>8.56</v>
       </c>
       <c r="I143" t="n">
-        <v>13275.54</v>
+        <v>10704.43</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9452748</v>
+        <v>9441259</v>
       </c>
       <c r="F144" t="n">
-        <v>1031.783291593309</v>
+        <v>1102.818483415595</v>
       </c>
       <c r="G144" t="n">
-        <v>609.7230539079814</v>
+        <v>631.0078141279382</v>
       </c>
       <c r="H144" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="I144" t="n">
-        <v>98221</v>
+        <v>98623</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1171335</v>
+        <v>1177703</v>
       </c>
       <c r="E145" t="n">
-        <v>7808903</v>
+        <v>7851353</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4588292982934</v>
+        <v>263.4684715091722</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0069376264373</v>
+        <v>105.0107807279915</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5529.17</v>
+        <v>5560.35</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7592824</v>
+        <v>7595081</v>
       </c>
       <c r="F146" t="n">
-        <v>129.1952624836376</v>
+        <v>1027.686090213447</v>
       </c>
       <c r="G146" t="n">
-        <v>58.374917906092</v>
+        <v>59.43163786304333</v>
       </c>
       <c r="H146" t="n">
-        <v>2.1</v>
+        <v>1.21</v>
       </c>
       <c r="I146" t="n">
-        <v>6600546</v>
+        <v>6549719</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>674761</v>
+        <v>677209</v>
       </c>
       <c r="E147" t="n">
-        <v>2435671</v>
+        <v>2444507</v>
       </c>
       <c r="F147" t="n">
-        <v>50.22094602089474</v>
+        <v>50.79396743432385</v>
       </c>
       <c r="G147" t="n">
-        <v>159.9418802773121</v>
+        <v>105.9766950154971</v>
       </c>
       <c r="H147" t="n">
         <v>0.86</v>
       </c>
       <c r="I147" t="n">
-        <v>337289</v>
+        <v>344114</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1588946</v>
+        <v>1630128</v>
       </c>
       <c r="F148" t="n">
-        <v>635.3459611383274</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>81.43371148076952</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0.76</v>
+        <v>4.4</v>
       </c>
       <c r="I148" t="n">
-        <v>68386</v>
+        <v>68241</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>69311</v>
+        <v>67224</v>
       </c>
       <c r="F149" t="n">
-        <v>16.19417962567674</v>
+        <v>24.27093979455001</v>
       </c>
       <c r="G149" t="n">
-        <v>0.2198472225919995</v>
+        <v>8.127769636042773</v>
       </c>
       <c r="H149" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="I149" t="n">
-        <v>1534.58</v>
+        <v>2141.07</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13576004</v>
+        <v>13586925</v>
       </c>
       <c r="E150" t="n">
-        <v>13576004</v>
+        <v>13586925</v>
       </c>
       <c r="F150" t="n">
-        <v>353.4782017440239</v>
+        <v>204.9608015420671</v>
       </c>
       <c r="G150" t="n">
-        <v>1050.865037676807</v>
+        <v>1053.631839024892</v>
       </c>
       <c r="H150" t="n">
-        <v>1.39</v>
+        <v>0.3</v>
       </c>
       <c r="I150" t="n">
-        <v>3738411</v>
+        <v>3892649</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2007443</v>
+        <v>1992922</v>
       </c>
       <c r="E151" t="n">
-        <v>7290842</v>
+        <v>7238040</v>
       </c>
       <c r="F151" t="n">
-        <v>294.3540988209247</v>
+        <v>62.97373486355897</v>
       </c>
       <c r="G151" t="n">
-        <v>189.4631932990543</v>
+        <v>188.5068921203931</v>
       </c>
       <c r="H151" t="n">
-        <v>1.44</v>
+        <v>2.13</v>
       </c>
       <c r="I151" t="n">
-        <v>153790</v>
+        <v>157026</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1287594</v>
+        <v>1290681</v>
       </c>
       <c r="E152" t="n">
-        <v>1287594</v>
+        <v>1290681</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1473.95</v>
+        <v>1480.75</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23441531</v>
+        <v>23444606</v>
       </c>
       <c r="E153" t="n">
-        <v>27046523</v>
+        <v>27050071</v>
       </c>
       <c r="F153" t="n">
-        <v>355.1071154813444</v>
+        <v>249.9202398564934</v>
       </c>
       <c r="G153" t="n">
-        <v>428.528179230179</v>
+        <v>458.1923817781426</v>
       </c>
       <c r="H153" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I153" t="n">
-        <v>745306</v>
+        <v>758264</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2441598</v>
+        <v>2442819</v>
       </c>
       <c r="E154" t="n">
-        <v>18372394</v>
+        <v>18381582</v>
       </c>
       <c r="F154" t="n">
-        <v>3687.683256057266</v>
+        <v>3416.18340947534</v>
       </c>
       <c r="G154" t="n">
-        <v>4365.45385713824</v>
+        <v>4362.494414862745</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>163212</v>
+        <v>163805</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21252445</v>
+        <v>21252348</v>
       </c>
       <c r="E155" t="n">
-        <v>85009779</v>
+        <v>85009392</v>
       </c>
       <c r="F155" t="n">
-        <v>19409.65579888744</v>
+        <v>22564.30009744201</v>
       </c>
       <c r="G155" t="n">
-        <v>35105.40314219421</v>
+        <v>34417.67659314232</v>
       </c>
       <c r="H155" t="n">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
       <c r="I155" t="n">
-        <v>2454165</v>
+        <v>2464145</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>323620695</v>
+        <v>323615901</v>
       </c>
       <c r="E156" t="n">
-        <v>323620695</v>
+        <v>323615901</v>
       </c>
       <c r="F156" t="n">
-        <v>399484.916056273</v>
+        <v>297386.8148496274</v>
       </c>
       <c r="G156" t="n">
-        <v>286320.364987775</v>
+        <v>389608.039225764</v>
       </c>
       <c r="H156" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I156" t="n">
-        <v>15720838</v>
+        <v>15951887</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12854734</v>
+        <v>12771787</v>
       </c>
       <c r="E157" t="n">
-        <v>40661944</v>
+        <v>40399567</v>
       </c>
       <c r="F157" t="n">
-        <v>8139.143132210834</v>
+        <v>8329.723314533014</v>
       </c>
       <c r="G157" t="n">
-        <v>13930.1221359863</v>
+        <v>19543.30120424122</v>
       </c>
       <c r="H157" t="n">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="I157" t="n">
-        <v>981448</v>
+        <v>973167</v>
       </c>
     </row>
     <row r="158">
@@ -5927,22 +5927,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1072107</v>
+        <v>1132397</v>
       </c>
       <c r="E158" t="n">
-        <v>2441829</v>
+        <v>2579145</v>
       </c>
       <c r="F158" t="n">
-        <v>2.312742095201423</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>28.51265759060967</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>3.19</v>
+        <v>7.64</v>
       </c>
       <c r="I158" t="n">
-        <v>1096.92</v>
+        <v>864.95</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19519059</v>
+        <v>19294211</v>
       </c>
       <c r="E159" t="n">
-        <v>19519059</v>
+        <v>19294211</v>
       </c>
       <c r="F159" t="n">
-        <v>14164.99928389172</v>
+        <v>17028.50188560784</v>
       </c>
       <c r="G159" t="n">
-        <v>28366.19015642939</v>
+        <v>16928.804517018</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I159" t="n">
-        <v>4516379</v>
+        <v>4784206</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4851108</v>
+        <v>4857479</v>
       </c>
       <c r="E160" t="n">
-        <v>8931409</v>
+        <v>8943137</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>8.869999999999999</v>
+        <v>13.36</v>
       </c>
       <c r="I160" t="n">
-        <v>15.14</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="161">
@@ -6032,22 +6032,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>114637</v>
+        <v>111493</v>
       </c>
       <c r="E161" t="n">
-        <v>138790</v>
+        <v>134983</v>
       </c>
       <c r="F161" t="n">
-        <v>4.321315707553814</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>12.77405944005706</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>2.87</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I161" t="n">
-        <v>3267.91</v>
+        <v>3343.21</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20188655</v>
+        <v>20232367</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>15.04</v>
+        <v>14.63</v>
       </c>
       <c r="I162" t="n">
-        <v>1529.21</v>
+        <v>1433.8</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>433933</v>
+        <v>434249</v>
       </c>
       <c r="E163" t="n">
-        <v>546593</v>
+        <v>546992</v>
       </c>
       <c r="F163" t="n">
-        <v>195.6967887536963</v>
+        <v>134.0131034890838</v>
       </c>
       <c r="G163" t="n">
-        <v>162.6619404947467</v>
+        <v>143.7231352693861</v>
       </c>
       <c r="H163" t="n">
         <v>0.55</v>
       </c>
       <c r="I163" t="n">
-        <v>166844</v>
+        <v>187103</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>99716</v>
+        <v>99735</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>4.78</v>
+        <v>4.68</v>
       </c>
       <c r="I164" t="n">
-        <v>2952.63</v>
+        <v>2624.5</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12703672</v>
+        <v>12734681</v>
       </c>
       <c r="E165" t="n">
-        <v>19337853</v>
+        <v>19385056</v>
       </c>
       <c r="F165" t="n">
-        <v>3125.326717882264</v>
+        <v>2566.994612421</v>
       </c>
       <c r="G165" t="n">
-        <v>3245.567094275402</v>
+        <v>3595.114181626016</v>
       </c>
       <c r="H165" t="n">
         <v>0.91</v>
       </c>
       <c r="I165" t="n">
-        <v>710208</v>
+        <v>695985</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>305926157</v>
+        <v>304625998</v>
       </c>
       <c r="E166" t="n">
-        <v>305926157</v>
+        <v>304625998</v>
       </c>
       <c r="F166" t="n">
-        <v>230113.3213725918</v>
+        <v>338897.9862425012</v>
       </c>
       <c r="G166" t="n">
-        <v>421220.197368504</v>
+        <v>369582.9777801767</v>
       </c>
       <c r="H166" t="n">
         <v>0.03</v>
       </c>
       <c r="I166" t="n">
-        <v>81760839</v>
+        <v>79973294</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10237358</v>
+        <v>10443454</v>
       </c>
       <c r="E167" t="n">
-        <v>29065567</v>
+        <v>29650707</v>
       </c>
       <c r="F167" t="n">
-        <v>396.0720072432737</v>
+        <v>934.0823546655997</v>
       </c>
       <c r="G167" t="n">
-        <v>1014.964409069794</v>
+        <v>83.22763051873795</v>
       </c>
       <c r="H167" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="I167" t="n">
-        <v>118734</v>
+        <v>118597</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11720938</v>
+        <v>11785949</v>
       </c>
       <c r="F168" t="n">
-        <v>222.5500131576596</v>
+        <v>347.9259815301245</v>
       </c>
       <c r="G168" t="n">
-        <v>1112.077467219969</v>
+        <v>802.9814403022866</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6</v>
+        <v>1.02</v>
       </c>
       <c r="I168" t="n">
-        <v>90121</v>
+        <v>85614</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4240340</v>
+        <v>4340684</v>
       </c>
       <c r="E169" t="n">
-        <v>28973947</v>
+        <v>29659590</v>
       </c>
       <c r="F169" t="n">
-        <v>2145.871411818863</v>
+        <v>2920.134240991256</v>
       </c>
       <c r="G169" t="n">
-        <v>2598.365428881035</v>
+        <v>2981.500015065096</v>
       </c>
       <c r="H169" t="n">
-        <v>1.03</v>
+        <v>0.34</v>
       </c>
       <c r="I169" t="n">
-        <v>2654775</v>
+        <v>2626299</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2959892</v>
+        <v>2994066</v>
       </c>
       <c r="E170" t="n">
-        <v>4386591</v>
+        <v>4436654</v>
       </c>
       <c r="F170" t="n">
-        <v>1013.850366902148</v>
+        <v>1921.288813306932</v>
       </c>
       <c r="G170" t="n">
-        <v>3384.001048858079</v>
+        <v>5068.992454879016</v>
       </c>
       <c r="H170" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="I170" t="n">
-        <v>165019</v>
+        <v>132754</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>93857861</v>
+        <v>93495183</v>
       </c>
       <c r="E171" t="n">
-        <v>540849477</v>
+        <v>538759571</v>
       </c>
       <c r="F171" t="n">
-        <v>442191.9016158378</v>
+        <v>355010.2360906419</v>
       </c>
       <c r="G171" t="n">
-        <v>270610.1645699269</v>
+        <v>357393.2316690737</v>
       </c>
       <c r="H171" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I171" t="n">
-        <v>17824702</v>
+        <v>18326893</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13793535</v>
+        <v>13810325</v>
       </c>
       <c r="E172" t="n">
-        <v>13793535</v>
+        <v>13810325</v>
       </c>
       <c r="F172" t="n">
-        <v>4948.977759848161</v>
+        <v>5490.887047601524</v>
       </c>
       <c r="G172" t="n">
-        <v>4438.56430011566</v>
+        <v>4979.317944099575</v>
       </c>
       <c r="H172" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="I172" t="n">
-        <v>618837</v>
+        <v>609470</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6130172</v>
+        <v>6170294</v>
       </c>
       <c r="E173" t="n">
-        <v>17414060</v>
+        <v>17528035</v>
       </c>
       <c r="F173" t="n">
-        <v>585.8003260987086</v>
+        <v>642.1833913031111</v>
       </c>
       <c r="G173" t="n">
-        <v>8567.508730247224</v>
+        <v>8836.840904839004</v>
       </c>
       <c r="H173" t="n">
-        <v>1.98</v>
+        <v>0.91</v>
       </c>
       <c r="I173" t="n">
-        <v>171966</v>
+        <v>169968</v>
       </c>
     </row>
     <row r="174">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>18789005</v>
+        <v>19050379</v>
       </c>
       <c r="E174" t="n">
-        <v>18789005</v>
+        <v>19050379</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>4.28</v>
+        <v>4.19</v>
       </c>
       <c r="I174" t="n">
-        <v>117488</v>
+        <v>120743</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1325744</v>
+        <v>1352178</v>
       </c>
       <c r="F175" t="n">
-        <v>105.6815279902808</v>
+        <v>5.420175168041165</v>
       </c>
       <c r="G175" t="n">
-        <v>426.1284382687742</v>
+        <v>887.4665995061732</v>
       </c>
       <c r="H175" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I175" t="n">
-        <v>30405</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>131917</v>
+        <v>130784</v>
       </c>
       <c r="E176" t="n">
-        <v>287180</v>
+        <v>284713</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>5.38</v>
+        <v>7.38</v>
       </c>
       <c r="I176" t="n">
-        <v>48620</v>
+        <v>48408</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2651250</v>
+        <v>2819498</v>
       </c>
       <c r="F177" t="n">
-        <v>9.141093498803642</v>
+        <v>204.5999491536234</v>
       </c>
       <c r="G177" t="n">
-        <v>659.5877578373824</v>
+        <v>332.8269256494398</v>
       </c>
       <c r="H177" t="n">
-        <v>1.1</v>
+        <v>3.11</v>
       </c>
       <c r="I177" t="n">
-        <v>433484</v>
+        <v>446599</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>251109876</v>
+        <v>252107453</v>
       </c>
       <c r="E178" t="n">
-        <v>251112370</v>
+        <v>252109957</v>
       </c>
       <c r="F178" t="n">
-        <v>49453.16649236842</v>
+        <v>48525.87622017915</v>
       </c>
       <c r="G178" t="n">
-        <v>51504.28317954976</v>
+        <v>50696.45809868565</v>
       </c>
       <c r="H178" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I178" t="n">
-        <v>2465626</v>
+        <v>2211689</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9446767</v>
+        <v>9467970</v>
       </c>
       <c r="E179" t="n">
-        <v>9446767</v>
+        <v>9467970</v>
       </c>
       <c r="F179" t="n">
-        <v>410.2855247161122</v>
+        <v>11.8813737655706</v>
       </c>
       <c r="G179" t="n">
-        <v>71.99064870290722</v>
+        <v>750.4733400219404</v>
       </c>
       <c r="H179" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="I179" t="n">
-        <v>2101209</v>
+        <v>2152660</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>201487</v>
+        <v>197147</v>
       </c>
       <c r="E180" t="n">
-        <v>1555882</v>
+        <v>1522371</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>94.0061538823274</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>3.410674546016352</v>
       </c>
       <c r="H180" t="n">
-        <v>4.39</v>
+        <v>2.35</v>
       </c>
       <c r="I180" t="n">
-        <v>106672</v>
+        <v>104092</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>31316660</v>
+        <v>31792551</v>
       </c>
       <c r="E181" t="n">
-        <v>140217532</v>
+        <v>142348292</v>
       </c>
       <c r="F181" t="n">
-        <v>53458.85642747484</v>
+        <v>54458.14145229848</v>
       </c>
       <c r="G181" t="n">
-        <v>91809.48193936786</v>
+        <v>100108.4967383196</v>
       </c>
       <c r="H181" t="n">
         <v>0.14</v>
       </c>
       <c r="I181" t="n">
-        <v>8673641</v>
+        <v>7960230</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1453793</v>
+        <v>1464747</v>
       </c>
       <c r="F182" t="n">
-        <v>103.6722384348406</v>
+        <v>262.1331985015145</v>
       </c>
       <c r="G182" t="n">
-        <v>4987.255727142526</v>
+        <v>5202.760586546849</v>
       </c>
       <c r="H182" t="n">
-        <v>1.63</v>
+        <v>0.88</v>
       </c>
       <c r="I182" t="n">
-        <v>37083</v>
+        <v>47502</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3246132</v>
+        <v>3267484</v>
       </c>
       <c r="E183" t="n">
-        <v>3246132</v>
+        <v>3267484</v>
       </c>
       <c r="F183" t="n">
-        <v>187.0570138703018</v>
+        <v>257.7715742488726</v>
       </c>
       <c r="G183" t="n">
-        <v>1669.30860925311</v>
+        <v>443.2626323545927</v>
       </c>
       <c r="H183" t="n">
-        <v>0.37</v>
+        <v>2.14</v>
       </c>
       <c r="I183" t="n">
-        <v>406338</v>
+        <v>412234</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>594319</v>
+        <v>594179</v>
       </c>
       <c r="E184" t="n">
-        <v>594319</v>
+        <v>594179</v>
       </c>
       <c r="F184" t="n">
-        <v>94.36826676346817</v>
+        <v>94.37172029920031</v>
       </c>
       <c r="G184" t="n">
-        <v>4.752385572753369</v>
+        <v>4.752559492800343</v>
       </c>
       <c r="H184" t="n">
         <v>3.45</v>
       </c>
       <c r="I184" t="n">
-        <v>1216586</v>
+        <v>1133961</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15596565</v>
+        <v>16146829</v>
       </c>
       <c r="E185" t="n">
-        <v>19856918</v>
+        <v>20557491</v>
       </c>
       <c r="F185" t="n">
-        <v>142.3507104271506</v>
+        <v>95.31026408458121</v>
       </c>
       <c r="G185" t="n">
-        <v>729.6233800611266</v>
+        <v>2589.294544601881</v>
       </c>
       <c r="H185" t="n">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="I185" t="n">
-        <v>922927</v>
+        <v>967256</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1787620</v>
+        <v>1779145</v>
       </c>
       <c r="E186" t="n">
-        <v>1787620</v>
+        <v>1779145</v>
       </c>
       <c r="F186" t="n">
-        <v>64.43154074518506</v>
+        <v>16.86179184304493</v>
       </c>
       <c r="G186" t="n">
-        <v>108.5798092122705</v>
+        <v>95.94003867076083</v>
       </c>
       <c r="H186" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="I186" t="n">
-        <v>4349.74</v>
+        <v>3838.4</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>52409500</v>
+        <v>52347519</v>
       </c>
       <c r="E187" t="n">
-        <v>339861660</v>
+        <v>339459728</v>
       </c>
       <c r="F187" t="n">
-        <v>73576.63564033477</v>
+        <v>134400.0079808048</v>
       </c>
       <c r="G187" t="n">
-        <v>146612.9235396635</v>
+        <v>118857.9140803392</v>
       </c>
       <c r="H187" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I187" t="n">
-        <v>17656334</v>
+        <v>17168325</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9124337</v>
+        <v>9102600</v>
       </c>
       <c r="F188" t="n">
-        <v>994.2237469107465</v>
+        <v>885.9182489062291</v>
       </c>
       <c r="G188" t="n">
-        <v>376.3124954911529</v>
+        <v>318.6483156894193</v>
       </c>
       <c r="H188" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="I188" t="n">
-        <v>293923</v>
+        <v>294793</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7175850</v>
+        <v>7222957</v>
       </c>
       <c r="E189" t="n">
-        <v>7186130</v>
+        <v>7232406</v>
       </c>
       <c r="F189" t="n">
-        <v>68.90801256585189</v>
+        <v>1408.653003216933</v>
       </c>
       <c r="G189" t="n">
-        <v>370.3628990970383</v>
+        <v>108.3286471271204</v>
       </c>
       <c r="H189" t="n">
-        <v>0.87</v>
+        <v>2.21</v>
       </c>
       <c r="I189" t="n">
-        <v>775185</v>
+        <v>752104</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4797752</v>
+        <v>4849077</v>
       </c>
       <c r="F190" t="n">
-        <v>2225.941019326932</v>
+        <v>1885.968045828277</v>
       </c>
       <c r="G190" t="n">
-        <v>2529.874483566494</v>
+        <v>2530.995255228846</v>
       </c>
       <c r="H190" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="I190" t="n">
-        <v>195718</v>
+        <v>197190</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>100893871</v>
+        <v>100396307</v>
       </c>
       <c r="E191" t="n">
-        <v>101979925</v>
+        <v>101477005</v>
       </c>
       <c r="F191" t="n">
-        <v>58442.21218395809</v>
+        <v>67685.09956349328</v>
       </c>
       <c r="G191" t="n">
-        <v>59326.88927731422</v>
+        <v>75050.78760590446</v>
       </c>
       <c r="H191" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I191" t="n">
-        <v>45788360</v>
+        <v>47721698</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>253709533</v>
+        <v>256650595</v>
       </c>
       <c r="E192" t="n">
-        <v>253709533</v>
+        <v>256650595</v>
       </c>
       <c r="F192" t="n">
-        <v>74297.46709412115</v>
+        <v>107148.1737885044</v>
       </c>
       <c r="G192" t="n">
-        <v>135510.1694523226</v>
+        <v>113174.1169198795</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>51840701</v>
+        <v>51895821</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25242381</v>
+        <v>25185777</v>
       </c>
       <c r="E193" t="n">
-        <v>151030237</v>
+        <v>150691564</v>
       </c>
       <c r="F193" t="n">
-        <v>74047.28438741395</v>
+        <v>80280.43191120915</v>
       </c>
       <c r="G193" t="n">
-        <v>143024.8555116568</v>
+        <v>152454.6565023893</v>
       </c>
       <c r="H193" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I193" t="n">
-        <v>12818493</v>
+        <v>12960440</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14179778</v>
+        <v>13990385</v>
       </c>
       <c r="E194" t="n">
-        <v>42855224</v>
+        <v>42282826</v>
       </c>
       <c r="F194" t="n">
-        <v>332.2121999847188</v>
+        <v>1411.444715351374</v>
       </c>
       <c r="G194" t="n">
-        <v>568.9881311953662</v>
+        <v>652.9878895738466</v>
       </c>
       <c r="H194" t="n">
-        <v>0.31</v>
+        <v>0.59</v>
       </c>
       <c r="I194" t="n">
-        <v>2625279</v>
+        <v>2596684</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>55029159</v>
+        <v>54555611</v>
       </c>
       <c r="E195" t="n">
-        <v>95047321</v>
+        <v>94229400</v>
       </c>
       <c r="F195" t="n">
-        <v>15004.29370879838</v>
+        <v>7680.321214358691</v>
       </c>
       <c r="G195" t="n">
-        <v>15121.54065641528</v>
+        <v>9082.045181008549</v>
       </c>
       <c r="H195" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="I195" t="n">
-        <v>2307810</v>
+        <v>2266893</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4328767</v>
+        <v>4318445</v>
       </c>
       <c r="E196" t="n">
-        <v>4328767</v>
+        <v>4318445</v>
       </c>
       <c r="F196" t="n">
-        <v>7.455135434826727</v>
+        <v>2.452414048698469</v>
       </c>
       <c r="G196" t="n">
-        <v>982.7495004426371</v>
+        <v>1019.708688656179</v>
       </c>
       <c r="H196" t="n">
-        <v>1.09</v>
+        <v>1.93</v>
       </c>
       <c r="I196" t="n">
-        <v>1742170</v>
+        <v>1743524</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>212174</v>
+        <v>212241</v>
       </c>
       <c r="F197" t="n">
-        <v>237.8651278715168</v>
+        <v>204.3279004408694</v>
       </c>
       <c r="G197" t="n">
-        <v>74.65806772168216</v>
+        <v>8.321252531031201</v>
       </c>
       <c r="H197" t="n">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="I197" t="n">
-        <v>52987</v>
+        <v>54045</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6706424</v>
+        <v>6765968</v>
       </c>
       <c r="E198" t="n">
-        <v>34502513</v>
+        <v>34808847</v>
       </c>
       <c r="F198" t="n">
-        <v>302.5353815427101</v>
+        <v>290.6950418438282</v>
       </c>
       <c r="G198" t="n">
-        <v>428.530950274359</v>
+        <v>460.57940448674</v>
       </c>
       <c r="H198" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="I198" t="n">
-        <v>907741</v>
+        <v>915316</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>178694702</v>
+        <v>178223440</v>
       </c>
       <c r="E199" t="n">
-        <v>208768175</v>
+        <v>208217602</v>
       </c>
       <c r="F199" t="n">
-        <v>38212.50928542075</v>
+        <v>42846.64020124829</v>
       </c>
       <c r="G199" t="n">
-        <v>10181.43668486571</v>
+        <v>37061.42956781888</v>
       </c>
       <c r="H199" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I199" t="n">
-        <v>3801745</v>
+        <v>3745688</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>306569</v>
+        <v>303169</v>
       </c>
       <c r="F200" t="n">
-        <v>84.30347839012281</v>
+        <v>40.03125253041402</v>
       </c>
       <c r="G200" t="n">
-        <v>27.82318853567931</v>
+        <v>93.8937385998849</v>
       </c>
       <c r="H200" t="n">
-        <v>2.27</v>
+        <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>319430</v>
+        <v>296705</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7992105</v>
+        <v>7992088</v>
       </c>
       <c r="F201" t="n">
-        <v>1079.252878668774</v>
+        <v>1073.383984608185</v>
       </c>
       <c r="G201" t="n">
-        <v>782.4260422540958</v>
+        <v>765.8627687949142</v>
       </c>
       <c r="H201" t="n">
         <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>652567</v>
+        <v>657184</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34008</v>
+        <v>33999</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.15</v>
+        <v>651.5700000000001</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35473188</v>
+        <v>35704144</v>
       </c>
       <c r="E203" t="n">
-        <v>177027561</v>
+        <v>178180138</v>
       </c>
       <c r="F203" t="n">
-        <v>85148.62727411519</v>
+        <v>113669.0864701043</v>
       </c>
       <c r="G203" t="n">
-        <v>107493.6594117558</v>
+        <v>79412.83934572073</v>
       </c>
       <c r="H203" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I203" t="n">
-        <v>10880957</v>
+        <v>10981201</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1974057</v>
+        <v>1978609</v>
       </c>
       <c r="E204" t="n">
-        <v>1974057</v>
+        <v>1978609</v>
       </c>
       <c r="F204" t="n">
-        <v>153.2983322082894</v>
+        <v>161.1441204723133</v>
       </c>
       <c r="G204" t="n">
-        <v>6.017846283163849</v>
+        <v>6.018066527606039</v>
       </c>
       <c r="H204" t="n">
         <v>1.67</v>
       </c>
       <c r="I204" t="n">
-        <v>13405.93</v>
+        <v>12593.11</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178345</v>
+        <v>178053</v>
       </c>
       <c r="F205" t="n">
-        <v>1086.459630356415</v>
+        <v>1096.524101861401</v>
       </c>
       <c r="G205" t="n">
-        <v>102.7083090348956</v>
+        <v>84.93324025638601</v>
       </c>
       <c r="H205" t="n">
         <v>1.76</v>
       </c>
       <c r="I205" t="n">
-        <v>14495.42</v>
+        <v>13295.87</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2501.19</v>
+        <v>2947.77</v>
       </c>
       <c r="E206" t="n">
-        <v>29895</v>
+        <v>35232</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.18</v>
+        <v>6.89</v>
       </c>
       <c r="I206" t="n">
-        <v>7802.86</v>
+        <v>7763.81</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>323513059</v>
+        <v>327624859</v>
       </c>
       <c r="E208" t="n">
-        <v>598572936</v>
+        <v>606180702</v>
       </c>
       <c r="F208" t="n">
-        <v>155091.5317192143</v>
+        <v>166196.577144383</v>
       </c>
       <c r="G208" t="n">
-        <v>197589.9026829228</v>
+        <v>240371.3869689961</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>14294673</v>
+        <v>14448303</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>74320932</v>
+        <v>74173340</v>
       </c>
       <c r="E209" t="n">
-        <v>708957634</v>
+        <v>707560337</v>
       </c>
       <c r="F209" t="n">
-        <v>205367.4382721447</v>
+        <v>353508.7215841426</v>
       </c>
       <c r="G209" t="n">
-        <v>146795.8682173743</v>
+        <v>202039.9672380981</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>22506505</v>
+        <v>22659869</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2593740</v>
+        <v>2586371</v>
       </c>
       <c r="F210" t="n">
-        <v>6.688927417779544</v>
+        <v>116.4978237248567</v>
       </c>
       <c r="G210" t="n">
-        <v>128.8312634086107</v>
+        <v>1455.914020552508</v>
       </c>
       <c r="H210" t="n">
-        <v>1.69</v>
+        <v>2.98</v>
       </c>
       <c r="I210" t="n">
-        <v>55071</v>
+        <v>46506</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>84164</v>
+        <v>84353</v>
       </c>
       <c r="E211" t="n">
-        <v>699676</v>
+        <v>701246</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>4.23</v>
       </c>
       <c r="I211" t="n">
-        <v>72.89</v>
+        <v>71.92</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1898620</v>
+        <v>1919326</v>
       </c>
       <c r="E212" t="n">
-        <v>5422216</v>
+        <v>5481349</v>
       </c>
       <c r="F212" t="n">
-        <v>59.95358301558226</v>
+        <v>268.8559967753482</v>
       </c>
       <c r="G212" t="n">
-        <v>432.250449230766</v>
+        <v>418.7396875127241</v>
       </c>
       <c r="H212" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I212" t="n">
-        <v>70733</v>
+        <v>74033</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11544615</v>
+        <v>11623897</v>
       </c>
       <c r="E213" t="n">
-        <v>34247462</v>
+        <v>34482654</v>
       </c>
       <c r="F213" t="n">
-        <v>2934.730496842585</v>
+        <v>3305.392545768353</v>
       </c>
       <c r="G213" t="n">
-        <v>3211.41342770794</v>
+        <v>3019.339671514716</v>
       </c>
       <c r="H213" t="n">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="I213" t="n">
-        <v>7330693</v>
+        <v>7410719</v>
       </c>
     </row>
     <row r="214">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14577358</v>
+        <v>14916542</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7891,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="I214" t="n">
-        <v>1247.65</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1991652</v>
+        <v>2008773</v>
       </c>
       <c r="E215" t="n">
-        <v>5761355</v>
+        <v>5810882</v>
       </c>
       <c r="F215" t="n">
-        <v>50.05518786454632</v>
+        <v>77.32648499708623</v>
       </c>
       <c r="G215" t="n">
-        <v>533.5148245884935</v>
+        <v>61.4780113369229</v>
       </c>
       <c r="H215" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="I215" t="n">
-        <v>49947</v>
+        <v>60177</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2199849</v>
+        <v>2360206</v>
       </c>
       <c r="E216" t="n">
-        <v>19404131</v>
+        <v>20818585</v>
       </c>
       <c r="F216" t="n">
-        <v>55.55176043388914</v>
+        <v>208.5823403522058</v>
       </c>
       <c r="G216" t="n">
-        <v>58.17443463982143</v>
+        <v>2085.029973773249</v>
       </c>
       <c r="H216" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="I216" t="n">
-        <v>89479</v>
+        <v>94012</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45852247</v>
+        <v>46143468</v>
       </c>
       <c r="E217" t="n">
-        <v>45852247</v>
+        <v>46143468</v>
       </c>
       <c r="F217" t="n">
-        <v>42494.57203855317</v>
+        <v>37295.94372588637</v>
       </c>
       <c r="G217" t="n">
-        <v>31559.02309005336</v>
+        <v>40092.13069990068</v>
       </c>
       <c r="H217" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I217" t="n">
-        <v>8666521</v>
+        <v>7611148</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8345881</v>
+        <v>8371113</v>
       </c>
       <c r="E218" t="n">
-        <v>11890968</v>
+        <v>11926918</v>
       </c>
       <c r="F218" t="n">
-        <v>3971.488225705494</v>
+        <v>4108.00582723584</v>
       </c>
       <c r="G218" t="n">
-        <v>543.7979066175332</v>
+        <v>686.3038013881962</v>
       </c>
       <c r="H218" t="n">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="I218" t="n">
-        <v>390489</v>
+        <v>394668</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16779506</v>
+        <v>16673425</v>
       </c>
       <c r="F219" t="n">
-        <v>3.174654445564162</v>
+        <v>1.046427391179229</v>
       </c>
       <c r="G219" t="n">
-        <v>1142.497676251015</v>
+        <v>437.4572943884154</v>
       </c>
       <c r="H219" t="n">
-        <v>1.04</v>
+        <v>0.43</v>
       </c>
       <c r="I219" t="n">
-        <v>1013201</v>
+        <v>1028886</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>725048</v>
+        <v>717810</v>
       </c>
       <c r="F220" t="n">
-        <v>120.4984174813138</v>
+        <v>120.8682939707177</v>
       </c>
       <c r="G220" t="n">
-        <v>317.3959093990874</v>
+        <v>317.4075221986808</v>
       </c>
       <c r="H220" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="I220" t="n">
-        <v>210753</v>
+        <v>212292</v>
       </c>
     </row>
     <row r="221">
@@ -8124,10 +8124,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2867735</v>
+        <v>2888165</v>
       </c>
       <c r="E221" t="n">
-        <v>2870219</v>
+        <v>2890667</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>6.8</v>
+        <v>3.94</v>
       </c>
       <c r="I221" t="n">
-        <v>108362</v>
+        <v>111036</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1263473</v>
+        <v>1255445</v>
       </c>
       <c r="E222" t="n">
-        <v>3817480</v>
+        <v>3793674</v>
       </c>
       <c r="F222" t="n">
-        <v>567.2120628362086</v>
+        <v>591.8300611607953</v>
       </c>
       <c r="G222" t="n">
-        <v>694.0361503756338</v>
+        <v>835.1277957797329</v>
       </c>
       <c r="H222" t="n">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="I222" t="n">
-        <v>15566.8</v>
+        <v>15072.77</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>40451066</v>
+        <v>40608755</v>
       </c>
       <c r="E223" t="n">
-        <v>286791459</v>
+        <v>287909451</v>
       </c>
       <c r="F223" t="n">
-        <v>71601.35508896533</v>
+        <v>77880.98420402943</v>
       </c>
       <c r="G223" t="n">
-        <v>68452.18571910601</v>
+        <v>62451.88646071767</v>
       </c>
       <c r="H223" t="n">
-        <v>0.21</v>
+        <v>0.45</v>
       </c>
       <c r="I223" t="n">
-        <v>1808168</v>
+        <v>1831352</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58845</v>
+        <v>58627</v>
       </c>
       <c r="E224" t="n">
-        <v>307029</v>
+        <v>305889</v>
       </c>
       <c r="F224" t="n">
-        <v>23.19627154959399</v>
+        <v>73.32717759938282</v>
       </c>
       <c r="G224" t="n">
-        <v>195.5545203616522</v>
+        <v>93.98328830775625</v>
       </c>
       <c r="H224" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="I224" t="n">
-        <v>278431</v>
+        <v>283578</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1279249</v>
+        <v>1281779</v>
       </c>
       <c r="E225" t="n">
-        <v>7932652</v>
+        <v>7948319</v>
       </c>
       <c r="F225" t="n">
-        <v>1679.814088179415</v>
+        <v>1676.603628469881</v>
       </c>
       <c r="G225" t="n">
-        <v>1669.479328496622</v>
+        <v>1684.287695885451</v>
       </c>
       <c r="H225" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I225" t="n">
-        <v>782730</v>
+        <v>785936</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>629480244</v>
+        <v>631787078</v>
       </c>
       <c r="E226" t="n">
-        <v>2437884113</v>
+        <v>2446818138</v>
       </c>
       <c r="F226" t="n">
-        <v>351443.8990974695</v>
+        <v>256281.0219057506</v>
       </c>
       <c r="G226" t="n">
-        <v>301999.1598416959</v>
+        <v>468286.9453964966</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>36852707</v>
+        <v>38826913</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20941324</v>
+        <v>20902876</v>
       </c>
       <c r="F227" t="n">
-        <v>1852.173930658055</v>
+        <v>1643.453225261268</v>
       </c>
       <c r="G227" t="n">
-        <v>513.5801748784671</v>
+        <v>2135.417529001443</v>
       </c>
       <c r="H227" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I227" t="n">
-        <v>16575335</v>
+        <v>16773305</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>766760</v>
+        <v>729494</v>
       </c>
       <c r="F228" t="n">
-        <v>268.9235083172266</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>81.92682706334024</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>2.36</v>
+        <v>4.11</v>
       </c>
       <c r="I228" t="n">
-        <v>156064</v>
+        <v>142283</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5873609</v>
+        <v>5872751</v>
       </c>
       <c r="E229" t="n">
-        <v>26292793</v>
+        <v>26288955</v>
       </c>
       <c r="F229" t="n">
-        <v>997.4918582160522</v>
+        <v>1388.114730440161</v>
       </c>
       <c r="G229" t="n">
-        <v>1617.291917223898</v>
+        <v>1221.670273448589</v>
       </c>
       <c r="H229" t="n">
         <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>150508</v>
+        <v>149945</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6753197</v>
+        <v>6679518</v>
       </c>
       <c r="E230" t="n">
-        <v>12929544</v>
+        <v>12788480</v>
       </c>
       <c r="F230" t="n">
-        <v>4194.962061468951</v>
+        <v>2254.951427070845</v>
       </c>
       <c r="G230" t="n">
-        <v>3988.192162230148</v>
+        <v>3965.496300768613</v>
       </c>
       <c r="H230" t="n">
         <v>0.86</v>
       </c>
       <c r="I230" t="n">
-        <v>100234</v>
+        <v>103312</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3237642</v>
+        <v>3238814</v>
       </c>
       <c r="E231" t="n">
-        <v>21289980</v>
+        <v>21297687</v>
       </c>
       <c r="F231" t="n">
-        <v>2245.384380745405</v>
+        <v>2254.318434135607</v>
       </c>
       <c r="G231" t="n">
-        <v>528.3911159953387</v>
+        <v>268.2245830370391</v>
       </c>
       <c r="H231" t="n">
-        <v>1.9</v>
+        <v>1.12</v>
       </c>
       <c r="I231" t="n">
-        <v>1447569</v>
+        <v>1345406</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116410062</v>
+        <v>116730385</v>
       </c>
       <c r="E232" t="n">
-        <v>1081599401</v>
+        <v>1084575611</v>
       </c>
       <c r="F232" t="n">
-        <v>212441.1181227044</v>
+        <v>237884.8942265186</v>
       </c>
       <c r="G232" t="n">
-        <v>233510.8009760689</v>
+        <v>201851.4197135265</v>
       </c>
       <c r="H232" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I232" t="n">
-        <v>9406105</v>
+        <v>9917991</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>4.64</v>
+        <v>7.57</v>
       </c>
       <c r="I233" t="n">
-        <v>963.4400000000001</v>
+        <v>824.77</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>118806453</v>
+        <v>115089977</v>
       </c>
       <c r="E234" t="n">
-        <v>181242029</v>
+        <v>175572457</v>
       </c>
       <c r="F234" t="n">
-        <v>97882.27637934645</v>
+        <v>100289.4139214983</v>
       </c>
       <c r="G234" t="n">
-        <v>79341.30833092249</v>
+        <v>88205.34683013709</v>
       </c>
       <c r="H234" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I234" t="n">
-        <v>8595555</v>
+        <v>8733771</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>17936521</v>
+        <v>18144092</v>
       </c>
       <c r="E235" t="n">
-        <v>24607354</v>
+        <v>24892123</v>
       </c>
       <c r="F235" t="n">
-        <v>266.999035735725</v>
+        <v>439.5582191171092</v>
       </c>
       <c r="G235" t="n">
-        <v>2280.747487986881</v>
+        <v>2520.473794137205</v>
       </c>
       <c r="H235" t="n">
-        <v>0.65</v>
+        <v>1.15</v>
       </c>
       <c r="I235" t="n">
-        <v>603955</v>
+        <v>611690</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>128318971</v>
+        <v>129518969</v>
       </c>
       <c r="E236" t="n">
-        <v>492252228</v>
+        <v>496855612</v>
       </c>
       <c r="F236" t="n">
-        <v>388188.5846344539</v>
+        <v>517109.6894502286</v>
       </c>
       <c r="G236" t="n">
-        <v>571878.387250388</v>
+        <v>449568.4293604313</v>
       </c>
       <c r="H236" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I236" t="n">
-        <v>33719910</v>
+        <v>35565140</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>673643</v>
+        <v>767834</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>7.34</v>
+        <v>13.19</v>
       </c>
       <c r="I237" t="n">
-        <v>43713</v>
+        <v>49398</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>833631</v>
+        <v>770270</v>
       </c>
       <c r="F238" t="n">
-        <v>181.9347390034847</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>15.60158720736347</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>1.98</v>
+        <v>6.73</v>
       </c>
       <c r="I238" t="n">
-        <v>128824</v>
+        <v>134358</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3279447</v>
+        <v>3304552</v>
       </c>
       <c r="E239" t="n">
-        <v>31073242</v>
+        <v>31311117</v>
       </c>
       <c r="F239" t="n">
-        <v>1102.082654822796</v>
+        <v>869.338223952218</v>
       </c>
       <c r="G239" t="n">
-        <v>1972.113793410403</v>
+        <v>2114.282534286878</v>
       </c>
       <c r="H239" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="I239" t="n">
-        <v>225469</v>
+        <v>227032</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>739154</v>
+        <v>739858</v>
       </c>
       <c r="E240" t="n">
-        <v>790151</v>
+        <v>790904</v>
       </c>
       <c r="F240" t="n">
-        <v>1.007292549037536</v>
+        <v>1.007329403597275</v>
       </c>
       <c r="G240" t="n">
-        <v>1617.50110289301</v>
+        <v>1611.382612248228</v>
       </c>
       <c r="H240" t="n">
         <v>2.3</v>
       </c>
       <c r="I240" t="n">
-        <v>99090</v>
+        <v>103531</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>435220</v>
+        <v>435903</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>15.61</v>
+        <v>14.98</v>
       </c>
       <c r="I241" t="n">
-        <v>450.36</v>
+        <v>533.48</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>133217</v>
+        <v>132746</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>216.6265803830944</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>3.350417802490306</v>
       </c>
       <c r="H242" t="n">
-        <v>4.29</v>
+        <v>2.19</v>
       </c>
       <c r="I242" t="n">
-        <v>87344</v>
+        <v>87688</v>
       </c>
     </row>
     <row r="243">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>579043</v>
+        <v>589945</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I243" t="n">
-        <v>2720.08</v>
+        <v>2735.58</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6859812</v>
+        <v>6828286</v>
       </c>
       <c r="E244" t="n">
-        <v>42871859</v>
+        <v>42674836</v>
       </c>
       <c r="F244" t="n">
-        <v>85.18241614073708</v>
+        <v>119.8727523250728</v>
       </c>
       <c r="G244" t="n">
-        <v>103.8113926968956</v>
+        <v>189.0822998669993</v>
       </c>
       <c r="H244" t="n">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="I244" t="n">
-        <v>450214</v>
+        <v>422796</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5288060</v>
+        <v>5311109</v>
       </c>
       <c r="E245" t="n">
-        <v>19650531</v>
+        <v>19736179</v>
       </c>
       <c r="F245" t="n">
-        <v>4008.900404007893</v>
+        <v>3953.548042801621</v>
       </c>
       <c r="G245" t="n">
-        <v>4312.088073429187</v>
+        <v>4187.124916213527</v>
       </c>
       <c r="H245" t="n">
         <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>79308</v>
+        <v>79975</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3754811</v>
+        <v>3571875</v>
       </c>
       <c r="F246" t="n">
-        <v>133.9056275536103</v>
+        <v>200.4759116687217</v>
       </c>
       <c r="G246" t="n">
-        <v>1351.745863722685</v>
+        <v>137.6421501975759</v>
       </c>
       <c r="H246" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="I246" t="n">
-        <v>6944.47</v>
+        <v>15489.18</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31474834</v>
+        <v>31498209</v>
       </c>
       <c r="E247" t="n">
-        <v>112817144</v>
+        <v>112900929</v>
       </c>
       <c r="F247" t="n">
-        <v>2173.690841223294</v>
+        <v>2247.751806266548</v>
       </c>
       <c r="G247" t="n">
-        <v>4324.519730887319</v>
+        <v>4352.000675485971</v>
       </c>
       <c r="H247" t="n">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="I247" t="n">
-        <v>82665</v>
+        <v>82578</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1574420</v>
+        <v>1551025</v>
       </c>
       <c r="F248" t="n">
-        <v>7.054638643678445</v>
+        <v>15.73745148551951</v>
       </c>
       <c r="G248" t="n">
-        <v>42.5106579724204</v>
+        <v>85.65841174175613</v>
       </c>
       <c r="H248" t="n">
         <v>1.27</v>
       </c>
       <c r="I248" t="n">
-        <v>601434</v>
+        <v>603173</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2206073</v>
+        <v>2205695</v>
       </c>
       <c r="E249" t="n">
-        <v>16968489</v>
+        <v>16965578</v>
       </c>
       <c r="F249" t="n">
-        <v>5390.805813447671</v>
+        <v>5006.70551883326</v>
       </c>
       <c r="G249" t="n">
-        <v>3087.593740207241</v>
+        <v>5228.379484133374</v>
       </c>
       <c r="H249" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="I249" t="n">
-        <v>98363</v>
+        <v>172831</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103278</v>
+        <v>103460</v>
       </c>
       <c r="E250" t="n">
-        <v>820340</v>
+        <v>821785</v>
       </c>
       <c r="F250" t="n">
-        <v>161.142104832532</v>
+        <v>161.1455243061407</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5582308305539</v>
+        <v>359.5658607413237</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>577.49</v>
+        <v>578.9400000000001</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88986703</v>
+        <v>88920157</v>
       </c>
       <c r="E251" t="n">
-        <v>328942702</v>
+        <v>328694453</v>
       </c>
       <c r="F251" t="n">
-        <v>5048.886034508424</v>
+        <v>4968.240938338187</v>
       </c>
       <c r="G251" t="n">
-        <v>1495.62742353978</v>
+        <v>1267.769135550859</v>
       </c>
       <c r="H251" t="n">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="I251" t="n">
-        <v>232413</v>
+        <v>223127</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2279531</v>
+        <v>2281712</v>
       </c>
       <c r="E252" t="n">
-        <v>9139055</v>
+        <v>9147800</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>93.60265590178402</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>25.35237588206078</v>
       </c>
       <c r="H252" t="n">
-        <v>4.51</v>
+        <v>3.43</v>
       </c>
       <c r="I252" t="n">
-        <v>27436</v>
+        <v>21475</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>607476</v>
+        <v>602601</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>396.1880343152881</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>3.689790253780983</v>
       </c>
       <c r="H253" t="n">
-        <v>4.41</v>
+        <v>1.9</v>
       </c>
       <c r="I253" t="n">
-        <v>3087.11</v>
+        <v>3068.97</v>
       </c>
     </row>
     <row r="254">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39606</v>
+        <v>39217</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>5.36</v>
       </c>
       <c r="I254" t="n">
-        <v>4150.29</v>
+        <v>4155.62</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>824683271</v>
+        <v>845032400</v>
       </c>
       <c r="E255" t="n">
-        <v>1271734417</v>
+        <v>1303114570</v>
       </c>
       <c r="F255" t="n">
-        <v>165561.2044067134</v>
+        <v>194096.980784643</v>
       </c>
       <c r="G255" t="n">
-        <v>247683.8677689148</v>
+        <v>190807.0099616161</v>
       </c>
       <c r="H255" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I255" t="n">
-        <v>271467954</v>
+        <v>278867040</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5859840</v>
+        <v>5888212</v>
       </c>
       <c r="E256" t="n">
-        <v>5859840</v>
+        <v>5888212</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.44</v>
+        <v>8.77</v>
       </c>
       <c r="I256" t="n">
-        <v>417.2</v>
+        <v>401.17</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39832295</v>
+        <v>39343120</v>
       </c>
       <c r="E257" t="n">
-        <v>189964336</v>
+        <v>187630162</v>
       </c>
       <c r="F257" t="n">
-        <v>295.1482050422638</v>
+        <v>314.6974271354662</v>
       </c>
       <c r="G257" t="n">
-        <v>317.1051749777432</v>
+        <v>184.5375688717324</v>
       </c>
       <c r="H257" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I257" t="n">
-        <v>298130</v>
+        <v>429540</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>504255</v>
+        <v>504352</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>11.37</v>
+        <v>12.97</v>
       </c>
       <c r="I258" t="n">
-        <v>384.53</v>
+        <v>384.86</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23666346</v>
+        <v>23542386</v>
       </c>
       <c r="E259" t="n">
-        <v>39443910</v>
+        <v>39237309</v>
       </c>
       <c r="F259" t="n">
-        <v>9861.860416944261</v>
+        <v>9760.590019278774</v>
       </c>
       <c r="G259" t="n">
-        <v>13231.52867175574</v>
+        <v>15657.22324992946</v>
       </c>
       <c r="H259" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="I259" t="n">
-        <v>492867</v>
+        <v>368990</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>109539</v>
+        <v>109425</v>
       </c>
       <c r="F260" t="n">
-        <v>117.101404093849</v>
+        <v>302.7305778091023</v>
       </c>
       <c r="G260" t="n">
-        <v>12.98427745920673</v>
+        <v>12.98455298864794</v>
       </c>
       <c r="H260" t="n">
-        <v>0.59</v>
+        <v>1.61</v>
       </c>
       <c r="I260" t="n">
-        <v>50734</v>
+        <v>51504</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1311974</v>
+        <v>1789742</v>
       </c>
       <c r="E261" t="n">
-        <v>5599151</v>
+        <v>7637672</v>
       </c>
       <c r="F261" t="n">
-        <v>109.1889973162009</v>
+        <v>1.790628294229151</v>
       </c>
       <c r="G261" t="n">
-        <v>302.0505234019035</v>
+        <v>3.482793109904113</v>
       </c>
       <c r="H261" t="n">
-        <v>0.06</v>
+        <v>1.51</v>
       </c>
       <c r="I261" t="n">
-        <v>547852</v>
+        <v>658634</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3820217</v>
+        <v>3819925</v>
       </c>
       <c r="E262" t="n">
-        <v>8335664</v>
+        <v>8335028</v>
       </c>
       <c r="F262" t="n">
-        <v>1698.945854243941</v>
+        <v>1836.427064346561</v>
       </c>
       <c r="G262" t="n">
-        <v>1751.340859689645</v>
+        <v>1763.575629227133</v>
       </c>
       <c r="H262" t="n">
-        <v>0.48</v>
+        <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>1836394</v>
+        <v>1888769</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>510607856</v>
+        <v>514081912</v>
       </c>
       <c r="E263" t="n">
-        <v>1777383452</v>
+        <v>1789476351</v>
       </c>
       <c r="F263" t="n">
-        <v>536164.4088665206</v>
+        <v>566798.1968660451</v>
       </c>
       <c r="G263" t="n">
-        <v>551697.8932629051</v>
+        <v>706786.9941932933</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>33015265</v>
+        <v>34748794</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5857261949</v>
+        <v>5857802348</v>
       </c>
       <c r="E264" t="n">
-        <v>5855309865</v>
+        <v>5857802348</v>
       </c>
       <c r="F264" t="n">
-        <v>5463.627897169517</v>
+        <v>3987.87777477443</v>
       </c>
       <c r="G264" t="n">
-        <v>2738.663948950322</v>
+        <v>2154.797207678553</v>
       </c>
       <c r="H264" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I264" t="n">
-        <v>8689047</v>
+        <v>16811353</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>24462379</v>
+        <v>22537085</v>
       </c>
       <c r="E265" t="n">
-        <v>24441130</v>
+        <v>22517509</v>
       </c>
       <c r="F265" t="n">
-        <v>212.9813554015886</v>
+        <v>114.1690588752232</v>
       </c>
       <c r="G265" t="n">
-        <v>25.81163404941137</v>
+        <v>1892.662960799031</v>
       </c>
       <c r="H265" t="n">
-        <v>3.15</v>
+        <v>0.74</v>
       </c>
       <c r="I265" t="n">
-        <v>183698</v>
+        <v>383275</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12271937</v>
+        <v>12174465</v>
       </c>
       <c r="E266" t="n">
-        <v>24808684</v>
+        <v>24606810</v>
       </c>
       <c r="F266" t="n">
-        <v>715.9678251275468</v>
+        <v>726.1425522445228</v>
       </c>
       <c r="G266" t="n">
-        <v>690.0357137684593</v>
+        <v>667.9774022567399</v>
       </c>
       <c r="H266" t="n">
-        <v>1.64</v>
+        <v>1.02</v>
       </c>
       <c r="I266" t="n">
-        <v>43895</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>151948</v>
+        <v>152114</v>
       </c>
       <c r="F267" t="n">
-        <v>182.5578699219593</v>
+        <v>184.5877204857194</v>
       </c>
       <c r="G267" t="n">
-        <v>132.135127473955</v>
+        <v>132.1379314126379</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>57592</v>
+        <v>58244</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47211</v>
+        <v>46616</v>
       </c>
       <c r="F268" t="n">
-        <v>13.8266092440846</v>
+        <v>20.84917489165228</v>
       </c>
       <c r="G268" t="n">
-        <v>51.16261339582302</v>
+        <v>264.9815065681858</v>
       </c>
       <c r="H268" t="n">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="I268" t="n">
-        <v>69364</v>
+        <v>69442</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2625524</v>
+        <v>2609852</v>
       </c>
       <c r="E269" t="n">
-        <v>10502096</v>
+        <v>10439407</v>
       </c>
       <c r="F269" t="n">
-        <v>28801.42166634796</v>
+        <v>40618.4553241281</v>
       </c>
       <c r="G269" t="n">
-        <v>44607.48792989907</v>
+        <v>50910.72019521627</v>
       </c>
       <c r="H269" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I269" t="n">
-        <v>7012348</v>
+        <v>7005720</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>227814214</v>
+        <v>227318916</v>
       </c>
       <c r="E270" t="n">
-        <v>700442976</v>
+        <v>698920121</v>
       </c>
       <c r="F270" t="n">
-        <v>262537.7307883479</v>
+        <v>234258.5038933234</v>
       </c>
       <c r="G270" t="n">
-        <v>269584.4032513304</v>
+        <v>272529.2700244321</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>16485388</v>
+        <v>16689328</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>147403869</v>
+        <v>148656198</v>
       </c>
       <c r="E271" t="n">
-        <v>385088519</v>
+        <v>388360193</v>
       </c>
       <c r="F271" t="n">
-        <v>64385.25824424501</v>
+        <v>67305.87625005376</v>
       </c>
       <c r="G271" t="n">
-        <v>51359.06212512693</v>
+        <v>70325.52856455556</v>
       </c>
       <c r="H271" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I271" t="n">
-        <v>8367990</v>
+        <v>8826964</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2501164</v>
+        <v>2491075</v>
       </c>
       <c r="E272" t="n">
-        <v>3432853</v>
+        <v>3419006</v>
       </c>
       <c r="F272" t="n">
-        <v>75.33244540416186</v>
+        <v>8.441633685301918</v>
       </c>
       <c r="G272" t="n">
-        <v>112.8825979448361</v>
+        <v>272.8123823429936</v>
       </c>
       <c r="H272" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="I272" t="n">
-        <v>2026171</v>
+        <v>2010089</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56710</v>
+        <v>56716</v>
       </c>
       <c r="F2" t="n">
-        <v>1.948384786025693</v>
+        <v>1.948319896282644</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87859498673004</v>
+        <v>10.87823268189247</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>660.33</v>
+        <v>660.3099999999999</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91286</v>
+        <v>91513</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49816996949205</v>
+        <v>12.49645167376256</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1550477974866</v>
+        <v>416.1411880125439</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1385.67</v>
+        <v>1395.86</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>634868473</v>
+        <v>631216414</v>
       </c>
       <c r="E4" t="n">
-        <v>1231942728</v>
+        <v>1224864494</v>
       </c>
       <c r="F4" t="n">
-        <v>39986.12558765995</v>
+        <v>46100.57456649703</v>
       </c>
       <c r="G4" t="n">
-        <v>43177.63465930696</v>
+        <v>45304.11843334885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>22180077</v>
+        <v>22769050</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1388118</v>
+        <v>1382042</v>
       </c>
       <c r="E5" t="n">
-        <v>4486967</v>
+        <v>4467326</v>
       </c>
       <c r="F5" t="n">
-        <v>4264.983229463603</v>
+        <v>3146.306403775008</v>
       </c>
       <c r="G5" t="n">
-        <v>5425.093867777852</v>
+        <v>8838.993213546115</v>
       </c>
       <c r="H5" t="n">
         <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>147469</v>
+        <v>146066</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>152546116</v>
+        <v>152069455</v>
       </c>
       <c r="E6" t="n">
-        <v>169044936</v>
+        <v>168516721</v>
       </c>
       <c r="F6" t="n">
-        <v>232497.0435298125</v>
+        <v>253792.5730326354</v>
       </c>
       <c r="G6" t="n">
-        <v>404571.6648339005</v>
+        <v>363237.8091158824</v>
       </c>
       <c r="H6" t="n">
         <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>40636311</v>
+        <v>40797056</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4205.04</v>
+        <v>4204.74</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>68.14</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8575206</v>
+        <v>8494726</v>
       </c>
       <c r="E8" t="n">
-        <v>8791441</v>
+        <v>8708931</v>
       </c>
       <c r="F8" t="n">
-        <v>1457.992925944023</v>
+        <v>1143.768115933724</v>
       </c>
       <c r="G8" t="n">
-        <v>313.0027776427239</v>
+        <v>338.4142093159157</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="I8" t="n">
-        <v>92268</v>
+        <v>93809</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285570</v>
+        <v>285625</v>
       </c>
       <c r="F9" t="n">
-        <v>17.42276479476512</v>
+        <v>208.277771622851</v>
       </c>
       <c r="G9" t="n">
-        <v>40.16783104362628</v>
+        <v>75.61519752221511</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>435.59</v>
+        <v>435.61</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4971601</v>
+        <v>4978142</v>
       </c>
       <c r="E10" t="n">
-        <v>7943124</v>
+        <v>7953575</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1859897970778</v>
+        <v>230.1557776729085</v>
       </c>
       <c r="G10" t="n">
-        <v>421.521268920869</v>
+        <v>424.0175359664809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>99346</v>
+        <v>100100</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1007150</v>
+        <v>1007481</v>
       </c>
       <c r="E11" t="n">
-        <v>12324796</v>
+        <v>12328846</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.149900248095</v>
+        <v>1569.87872621588</v>
       </c>
       <c r="G11" t="n">
-        <v>1380.134900080215</v>
+        <v>1350.382728627624</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>526.64</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>587684</v>
+        <v>592911</v>
       </c>
       <c r="E12" t="n">
-        <v>587684</v>
+        <v>592911</v>
       </c>
       <c r="F12" t="n">
-        <v>23.63549946185789</v>
+        <v>158.8445260304909</v>
       </c>
       <c r="G12" t="n">
-        <v>862.538451386508</v>
+        <v>4.191408161367576</v>
       </c>
       <c r="H12" t="n">
-        <v>2.23</v>
+        <v>2.83</v>
       </c>
       <c r="I12" t="n">
-        <v>26680</v>
+        <v>35155</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4723329</v>
+        <v>4658260</v>
       </c>
       <c r="E13" t="n">
-        <v>29009065</v>
+        <v>28609433</v>
       </c>
       <c r="F13" t="n">
-        <v>817.9615620328804</v>
+        <v>1318.976508387075</v>
       </c>
       <c r="G13" t="n">
-        <v>863.7607067808607</v>
+        <v>929.1550006576208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>687895</v>
+        <v>684992</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>203731</v>
+        <v>200613</v>
       </c>
       <c r="E14" t="n">
-        <v>2241267</v>
+        <v>2206960</v>
       </c>
       <c r="F14" t="n">
-        <v>1.013193079826729</v>
+        <v>418.9310356542223</v>
       </c>
       <c r="G14" t="n">
-        <v>549.6698783840808</v>
+        <v>291.3925673591192</v>
       </c>
       <c r="H14" t="n">
-        <v>1.33</v>
+        <v>2.23</v>
       </c>
       <c r="I14" t="n">
-        <v>30876</v>
+        <v>32184</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3388442</v>
+        <v>3384110</v>
       </c>
       <c r="E15" t="n">
-        <v>9639818</v>
+        <v>9627495</v>
       </c>
       <c r="F15" t="n">
-        <v>302.0188317335545</v>
+        <v>269.7812878192602</v>
       </c>
       <c r="G15" t="n">
-        <v>222.4215494236436</v>
+        <v>120.1928442076414</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>107861</v>
+        <v>109889</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>317954</v>
+        <v>318645</v>
       </c>
       <c r="E16" t="n">
-        <v>3669565</v>
+        <v>3677546</v>
       </c>
       <c r="F16" t="n">
-        <v>134.5381692115998</v>
+        <v>135.1601712412274</v>
       </c>
       <c r="G16" t="n">
-        <v>132.3006597657654</v>
+        <v>131.6581287062169</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3416.55</v>
+        <v>2633.03</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>938925</v>
+        <v>940999</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>28.38702221896709</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10.77312449129363</v>
       </c>
       <c r="H17" t="n">
-        <v>4.38</v>
+        <v>3.72</v>
       </c>
       <c r="I17" t="n">
-        <v>12106.1</v>
+        <v>11514.96</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23067146</v>
+        <v>23099270</v>
       </c>
       <c r="E18" t="n">
-        <v>23109975</v>
+        <v>23142159</v>
       </c>
       <c r="F18" t="n">
-        <v>2119.307400047566</v>
+        <v>2178.719153309222</v>
       </c>
       <c r="G18" t="n">
-        <v>2437.590060679187</v>
+        <v>2115.040408396944</v>
       </c>
       <c r="H18" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="I18" t="n">
-        <v>838851</v>
+        <v>838253</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6872109</v>
+        <v>7118946</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>166.23474958796</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>19.26052915522644</v>
       </c>
       <c r="H19" t="n">
-        <v>6.78</v>
+        <v>2.94</v>
       </c>
       <c r="I19" t="n">
-        <v>18686.72</v>
+        <v>14423.29</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2453368</v>
+        <v>2442939</v>
       </c>
       <c r="E20" t="n">
-        <v>2453368</v>
+        <v>2442939</v>
       </c>
       <c r="F20" t="n">
-        <v>361.5208420321866</v>
+        <v>233.2569841676909</v>
       </c>
       <c r="G20" t="n">
-        <v>188.3616535524959</v>
+        <v>5387.804945827222</v>
       </c>
       <c r="H20" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="I20" t="n">
-        <v>318807</v>
+        <v>314517</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>433152</v>
+        <v>401156</v>
       </c>
       <c r="F21" t="n">
-        <v>15.82775507330365</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1300583618578277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>5.41</v>
       </c>
       <c r="I21" t="n">
-        <v>1958.65</v>
+        <v>2230.88</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17720721</v>
+        <v>17393220</v>
       </c>
       <c r="E22" t="n">
-        <v>22808022</v>
+        <v>22386501</v>
       </c>
       <c r="F22" t="n">
-        <v>1648.491112855942</v>
+        <v>909.9120933740394</v>
       </c>
       <c r="G22" t="n">
-        <v>2272.712861220284</v>
+        <v>9981.28767236768</v>
       </c>
       <c r="H22" t="n">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="I22" t="n">
-        <v>1693528</v>
+        <v>1680281</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>484716358</v>
+        <v>482128294</v>
       </c>
       <c r="E23" t="n">
-        <v>484716359</v>
+        <v>482128296</v>
       </c>
       <c r="F23" t="n">
-        <v>51769.11211952328</v>
+        <v>52206.46329970892</v>
       </c>
       <c r="G23" t="n">
-        <v>76401.63728603729</v>
+        <v>75076.09107720002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>66197342</v>
+        <v>64598505</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23523</v>
+        <v>22829</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.59</v>
+        <v>5.58</v>
       </c>
       <c r="I24" t="n">
-        <v>2450.92</v>
+        <v>2453.16</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4741428</v>
+        <v>4750840</v>
       </c>
       <c r="E25" t="n">
-        <v>4741428</v>
+        <v>4750840</v>
       </c>
       <c r="F25" t="n">
-        <v>797.5522355135765</v>
+        <v>108.7404118260659</v>
       </c>
       <c r="G25" t="n">
-        <v>1037.762522370422</v>
+        <v>1276.48309085175</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="I25" t="n">
-        <v>2022289</v>
+        <v>2037081</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3388789</v>
+        <v>3394859</v>
       </c>
       <c r="E26" t="n">
-        <v>3388789</v>
+        <v>3394859</v>
       </c>
       <c r="F26" t="n">
-        <v>1135.008142199369</v>
+        <v>1124.894249047727</v>
       </c>
       <c r="G26" t="n">
-        <v>493.5924084677296</v>
+        <v>566.7824793013485</v>
       </c>
       <c r="H26" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I26" t="n">
-        <v>533598</v>
+        <v>545165</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>319097</v>
+        <v>331171</v>
       </c>
       <c r="E27" t="n">
-        <v>1489578</v>
+        <v>1545939</v>
       </c>
       <c r="F27" t="n">
-        <v>2332.087920573121</v>
+        <v>449.1008873882126</v>
       </c>
       <c r="G27" t="n">
-        <v>298.481305834634</v>
+        <v>716.2923331934248</v>
       </c>
       <c r="H27" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>724288</v>
+        <v>736938</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1464617</v>
+        <v>1481338</v>
       </c>
       <c r="F28" t="n">
-        <v>266.361937760104</v>
+        <v>313.5934725605309</v>
       </c>
       <c r="G28" t="n">
-        <v>668.140453448559</v>
+        <v>436.3465726937475</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>332529</v>
+        <v>342444</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12656320</v>
+        <v>12607624</v>
       </c>
       <c r="E29" t="n">
-        <v>31499291</v>
+        <v>31378095</v>
       </c>
       <c r="F29" t="n">
-        <v>652.2543868101809</v>
+        <v>1231.349528851479</v>
       </c>
       <c r="G29" t="n">
-        <v>1644.582391730382</v>
+        <v>1207.249850805204</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I29" t="n">
-        <v>1284570</v>
+        <v>1283739</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>896522</v>
+        <v>912988</v>
       </c>
       <c r="E30" t="n">
-        <v>6275657</v>
+        <v>6390918</v>
       </c>
       <c r="F30" t="n">
-        <v>639.4017658031103</v>
+        <v>548.4987978358491</v>
       </c>
       <c r="G30" t="n">
-        <v>204.4816860744278</v>
+        <v>11.9724912740084</v>
       </c>
       <c r="H30" t="n">
-        <v>1.74</v>
+        <v>2.49</v>
       </c>
       <c r="I30" t="n">
-        <v>244940</v>
+        <v>172450</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>174051</v>
+        <v>173899</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>12.17</v>
       </c>
       <c r="I31" t="n">
-        <v>865.47</v>
+        <v>865.14</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5505698</v>
+        <v>5560607</v>
       </c>
       <c r="E32" t="n">
-        <v>5769090</v>
+        <v>5826627</v>
       </c>
       <c r="F32" t="n">
-        <v>595.3450994209027</v>
+        <v>483.7985979300128</v>
       </c>
       <c r="G32" t="n">
-        <v>28.60366575823066</v>
+        <v>86.50720616973459</v>
       </c>
       <c r="H32" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="I32" t="n">
-        <v>187594</v>
+        <v>183511</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5166381</v>
+        <v>5088752</v>
       </c>
       <c r="E33" t="n">
-        <v>7605193</v>
+        <v>7490918</v>
       </c>
       <c r="F33" t="n">
-        <v>424.0708631671351</v>
+        <v>331.6434804905812</v>
       </c>
       <c r="G33" t="n">
-        <v>126.3518525375176</v>
+        <v>293.5233761159848</v>
       </c>
       <c r="H33" t="n">
-        <v>1.72</v>
+        <v>3.02</v>
       </c>
       <c r="I33" t="n">
-        <v>578797</v>
+        <v>579819</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7614234</v>
+        <v>7616077</v>
       </c>
       <c r="E34" t="n">
-        <v>7614234</v>
+        <v>7616077</v>
       </c>
       <c r="F34" t="n">
-        <v>32343.08914003153</v>
+        <v>21669.93820268051</v>
       </c>
       <c r="G34" t="n">
-        <v>10982.61899987975</v>
+        <v>11273.72901661582</v>
       </c>
       <c r="H34" t="n">
-        <v>0.82</v>
+        <v>2.18</v>
       </c>
       <c r="I34" t="n">
-        <v>392700</v>
+        <v>394984</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1490358</v>
+        <v>1490869</v>
       </c>
       <c r="E35" t="n">
-        <v>1490358</v>
+        <v>1490869</v>
       </c>
       <c r="F35" t="n">
-        <v>77.96942472583008</v>
+        <v>54.31833754874588</v>
       </c>
       <c r="G35" t="n">
-        <v>713.0042067219225</v>
+        <v>193.8269468859305</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22</v>
+        <v>2.06</v>
       </c>
       <c r="I35" t="n">
-        <v>277625</v>
+        <v>278536</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15832306</v>
+        <v>15805994</v>
       </c>
       <c r="F36" t="n">
-        <v>168.2177893090181</v>
+        <v>168.2185681959643</v>
       </c>
       <c r="G36" t="n">
-        <v>204.2421105217237</v>
+        <v>189.4179265563183</v>
       </c>
       <c r="H36" t="n">
         <v>0.65</v>
       </c>
       <c r="I36" t="n">
-        <v>10539.45</v>
+        <v>10497.4</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55478</v>
+        <v>55474</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>782.92</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>145779954</v>
+        <v>145232824</v>
       </c>
       <c r="E38" t="n">
-        <v>145779954</v>
+        <v>145232824</v>
       </c>
       <c r="F38" t="n">
-        <v>338165.4351193839</v>
+        <v>292907.4999740848</v>
       </c>
       <c r="G38" t="n">
-        <v>341154.7768850207</v>
+        <v>428801.8392051117</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>74702636</v>
+        <v>74802421</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>69755734</v>
+        <v>69086657</v>
       </c>
       <c r="E39" t="n">
-        <v>357721714</v>
+        <v>354290549</v>
       </c>
       <c r="F39" t="n">
-        <v>85293.94992939418</v>
+        <v>79290.085717204</v>
       </c>
       <c r="G39" t="n">
-        <v>115735.8611289649</v>
+        <v>131764.8650826739</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>26351408</v>
+        <v>25895646</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46409</v>
+        <v>46406</v>
       </c>
       <c r="E40" t="n">
-        <v>137148</v>
+        <v>137138</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>15.77</v>
+        <v>16.34</v>
       </c>
       <c r="I40" t="n">
         <v>118.23</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54891</v>
+        <v>54750</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>6.03</v>
       </c>
       <c r="I41" t="n">
-        <v>26374</v>
+        <v>26555</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595760</v>
+        <v>595640</v>
       </c>
       <c r="F42" t="n">
-        <v>1187.413726308235</v>
+        <v>2158.851257018673</v>
       </c>
       <c r="G42" t="n">
-        <v>410.1515533619968</v>
+        <v>426.3061278382525</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1307.86</v>
+        <v>1309.12</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2746886</v>
+        <v>2737601</v>
       </c>
       <c r="E44" t="n">
-        <v>11039111</v>
+        <v>11001795</v>
       </c>
       <c r="F44" t="n">
-        <v>74.50850220269135</v>
+        <v>52.26687745266784</v>
       </c>
       <c r="G44" t="n">
-        <v>238.3791190513985</v>
+        <v>468.7499669137273</v>
       </c>
       <c r="H44" t="n">
         <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>36234</v>
+        <v>39217</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17676245</v>
+        <v>17823827</v>
       </c>
       <c r="E45" t="n">
-        <v>124467585</v>
+        <v>125505132</v>
       </c>
       <c r="F45" t="n">
-        <v>326.1235017392599</v>
+        <v>396.2918922253772</v>
       </c>
       <c r="G45" t="n">
-        <v>260.0554602342961</v>
+        <v>235.9937416810142</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>1089540</v>
+        <v>1085686</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>175127</v>
+        <v>174572</v>
       </c>
       <c r="E46" t="n">
-        <v>2343295</v>
+        <v>2335874</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52873</v>
+        <v>52635</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>268530413</v>
+        <v>267612455</v>
       </c>
       <c r="E47" t="n">
-        <v>268530413</v>
+        <v>267612455</v>
       </c>
       <c r="F47" t="n">
-        <v>129932.427206496</v>
+        <v>110061.9068801914</v>
       </c>
       <c r="G47" t="n">
-        <v>165864.4938868327</v>
+        <v>184754.8962965741</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>15449915</v>
+        <v>15469700</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>645755</v>
+        <v>656142</v>
       </c>
       <c r="E48" t="n">
-        <v>645755</v>
+        <v>656142</v>
       </c>
       <c r="F48" t="n">
-        <v>11.09637622586904</v>
+        <v>343.6565604998065</v>
       </c>
       <c r="G48" t="n">
-        <v>303.6487429878353</v>
+        <v>89.81186271749807</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="I48" t="n">
-        <v>2756.77</v>
+        <v>4204.99</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>444380741</v>
+        <v>442054181</v>
       </c>
       <c r="E50" t="n">
-        <v>444380741</v>
+        <v>442054181</v>
       </c>
       <c r="F50" t="n">
-        <v>3266.740228876983</v>
+        <v>3497.33920763393</v>
       </c>
       <c r="G50" t="n">
-        <v>1662.21598858059</v>
+        <v>2059.453361888606</v>
       </c>
       <c r="H50" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>2672943</v>
+        <v>2688923</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2511801</v>
+        <v>2485497</v>
       </c>
       <c r="E51" t="n">
-        <v>2511801</v>
+        <v>2485497</v>
       </c>
       <c r="F51" t="n">
-        <v>11.29622790230411</v>
+        <v>162.945364810867</v>
       </c>
       <c r="G51" t="n">
-        <v>116.5483148331647</v>
+        <v>84.33910718376696</v>
       </c>
       <c r="H51" t="n">
-        <v>3.06</v>
+        <v>2.71</v>
       </c>
       <c r="I51" t="n">
-        <v>55512</v>
+        <v>55151</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22110</v>
+        <v>22109</v>
       </c>
       <c r="E52" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.88</v>
+        <v>5.13</v>
       </c>
       <c r="I52" t="n">
-        <v>1401.71</v>
+        <v>1401.77</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>165112</v>
+        <v>165120</v>
       </c>
       <c r="F53" t="n">
-        <v>16.56262256464708</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>41.82200752352888</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>3.08</v>
+        <v>5.26</v>
       </c>
       <c r="I53" t="n">
-        <v>22296</v>
+        <v>21811</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2553535</v>
+        <v>2555540</v>
       </c>
       <c r="E54" t="n">
-        <v>6528334</v>
+        <v>6533460</v>
       </c>
       <c r="F54" t="n">
-        <v>249.6604831205006</v>
+        <v>225.1213674412661</v>
       </c>
       <c r="G54" t="n">
-        <v>263.3546898231377</v>
+        <v>254.8180630919324</v>
       </c>
       <c r="H54" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="I54" t="n">
-        <v>108042</v>
+        <v>103051</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3522.76</v>
+        <v>3634.28</v>
       </c>
       <c r="F55" t="n">
-        <v>262.5069713681683</v>
+        <v>105.0863200384166</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1749762117058058</v>
+        <v>0.1749713540716683</v>
       </c>
       <c r="H55" t="n">
         <v>3.08</v>
       </c>
       <c r="I55" t="n">
-        <v>529.65</v>
+        <v>847.3200000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>75844943</v>
+        <v>75073767</v>
       </c>
       <c r="E56" t="n">
-        <v>75844943</v>
+        <v>75073767</v>
       </c>
       <c r="F56" t="n">
-        <v>22702.77188911248</v>
+        <v>22855.55058752662</v>
       </c>
       <c r="G56" t="n">
-        <v>20771.60035986533</v>
+        <v>20002.2849508759</v>
       </c>
       <c r="H56" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="I56" t="n">
-        <v>3561271</v>
+        <v>3504641</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3456586</v>
+        <v>3458438</v>
       </c>
       <c r="E57" t="n">
-        <v>4380098</v>
+        <v>4382445</v>
       </c>
       <c r="F57" t="n">
-        <v>1244.14639600078</v>
+        <v>315.9176271952779</v>
       </c>
       <c r="G57" t="n">
-        <v>91.93055748177093</v>
+        <v>113.2126773565735</v>
       </c>
       <c r="H57" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>249480</v>
+        <v>250237</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4168883</v>
+        <v>4314312</v>
       </c>
       <c r="E58" t="n">
-        <v>8221387</v>
+        <v>8508187</v>
       </c>
       <c r="F58" t="n">
-        <v>2607.647483575536</v>
+        <v>3477.669851716861</v>
       </c>
       <c r="G58" t="n">
-        <v>1663.405486321005</v>
+        <v>2946.607370481327</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="I58" t="n">
-        <v>1638249</v>
+        <v>1638775</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1640839</v>
+        <v>1641969</v>
       </c>
       <c r="E59" t="n">
-        <v>9421083</v>
+        <v>9427575</v>
       </c>
       <c r="F59" t="n">
-        <v>271.7978006599201</v>
+        <v>320.7668298424111</v>
       </c>
       <c r="G59" t="n">
-        <v>807.8193549020632</v>
+        <v>793.5247597778769</v>
       </c>
       <c r="H59" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="I59" t="n">
-        <v>291415</v>
+        <v>292131</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>552776</v>
+        <v>509913</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>10.53</v>
       </c>
       <c r="I60" t="n">
-        <v>1726.03</v>
+        <v>1770.52</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31221629</v>
+        <v>31242553</v>
       </c>
       <c r="F61" t="n">
-        <v>420.6353051716311</v>
+        <v>596.6863565679213</v>
       </c>
       <c r="G61" t="n">
-        <v>1737.890929429815</v>
+        <v>1742.501761733039</v>
       </c>
       <c r="H61" t="n">
         <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>245776</v>
+        <v>244304</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1446007</v>
+        <v>1451634</v>
       </c>
       <c r="F62" t="n">
-        <v>56.35903981538348</v>
+        <v>40.44879150664344</v>
       </c>
       <c r="G62" t="n">
-        <v>1.410181743530817e-05</v>
+        <v>1.41013671541479e-05</v>
       </c>
       <c r="H62" t="n">
-        <v>3.56</v>
+        <v>2.62</v>
       </c>
       <c r="I62" t="n">
-        <v>28603</v>
+        <v>28597</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7697923</v>
+        <v>7713042</v>
       </c>
       <c r="E63" t="n">
-        <v>18130139</v>
+        <v>18165748</v>
       </c>
       <c r="F63" t="n">
-        <v>1098.030606552602</v>
+        <v>1097.995839065541</v>
       </c>
       <c r="G63" t="n">
-        <v>1833.70896244295</v>
+        <v>1735.946360729441</v>
       </c>
       <c r="H63" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="I63" t="n">
-        <v>34150</v>
+        <v>34374</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3108563</v>
+        <v>3099650</v>
       </c>
       <c r="E64" t="n">
-        <v>3108563</v>
+        <v>3099650</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>4.57</v>
+        <v>5.1</v>
       </c>
       <c r="I64" t="n">
-        <v>20026</v>
+        <v>19671.16</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3452090</v>
+        <v>3436658</v>
       </c>
       <c r="E65" t="n">
-        <v>8517857</v>
+        <v>8479777</v>
       </c>
       <c r="F65" t="n">
-        <v>605.8301765439689</v>
+        <v>612.244057006127</v>
       </c>
       <c r="G65" t="n">
-        <v>1018.106606932959</v>
+        <v>1088.440954047012</v>
       </c>
       <c r="H65" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="I65" t="n">
-        <v>46848</v>
+        <v>46388</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>261809</v>
+        <v>259028</v>
       </c>
       <c r="F66" t="n">
-        <v>5.21398464861362</v>
+        <v>4.126720102741338</v>
       </c>
       <c r="G66" t="n">
-        <v>62.53014068481094</v>
+        <v>56.02606738082665</v>
       </c>
       <c r="H66" t="n">
         <v>3.39</v>
       </c>
       <c r="I66" t="n">
-        <v>3404.88</v>
+        <v>3362.26</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>80269764</v>
+        <v>79570504</v>
       </c>
       <c r="E67" t="n">
-        <v>167403220</v>
+        <v>165944908</v>
       </c>
       <c r="F67" t="n">
-        <v>61900.47811159602</v>
+        <v>56830.85165971398</v>
       </c>
       <c r="G67" t="n">
-        <v>96769.49646814665</v>
+        <v>106480.4512630038</v>
       </c>
       <c r="H67" t="n">
         <v>0.04</v>
       </c>
       <c r="I67" t="n">
-        <v>20317985</v>
+        <v>20463605</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1910838</v>
+        <v>1910532</v>
       </c>
       <c r="F68" t="n">
-        <v>36.18333849427881</v>
+        <v>10.88394136090471</v>
       </c>
       <c r="G68" t="n">
-        <v>3.196499886113752</v>
+        <v>3.639324989275383</v>
       </c>
       <c r="H68" t="n">
-        <v>2.62</v>
+        <v>3.61</v>
       </c>
       <c r="I68" t="n">
-        <v>3552.85</v>
+        <v>3453.81</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>214047877</v>
+        <v>212519188</v>
       </c>
       <c r="F69" t="n">
-        <v>4258.167562957243</v>
+        <v>5089.934509211075</v>
       </c>
       <c r="G69" t="n">
-        <v>7438.39004258067</v>
+        <v>4702.899613541498</v>
       </c>
       <c r="H69" t="n">
-        <v>0.88</v>
+        <v>0.51</v>
       </c>
       <c r="I69" t="n">
-        <v>3564344</v>
+        <v>3463506</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179835</v>
+        <v>179963</v>
       </c>
       <c r="E70" t="n">
-        <v>187799</v>
+        <v>187933</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>6.7</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>272.25</v>
+        <v>257.72</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>146913891</v>
+        <v>146673541</v>
       </c>
       <c r="E71" t="n">
-        <v>146967665</v>
+        <v>146727228</v>
       </c>
       <c r="F71" t="n">
-        <v>35021.93287022736</v>
+        <v>37559.65584405988</v>
       </c>
       <c r="G71" t="n">
-        <v>44109.28655817745</v>
+        <v>44237.62463446151</v>
       </c>
       <c r="H71" t="n">
         <v>0.29</v>
       </c>
       <c r="I71" t="n">
-        <v>2674987</v>
+        <v>2701146</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26282395</v>
+        <v>26261459</v>
       </c>
       <c r="E72" t="n">
-        <v>86253797</v>
+        <v>86185088</v>
       </c>
       <c r="F72" t="n">
-        <v>9669.814348652946</v>
+        <v>7972.810998157265</v>
       </c>
       <c r="G72" t="n">
-        <v>32859.83403800344</v>
+        <v>42135.60995427052</v>
       </c>
       <c r="H72" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>91744</v>
+        <v>100304</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>120146</v>
+        <v>114133</v>
       </c>
       <c r="E73" t="n">
-        <v>120146</v>
+        <v>114133</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>5.15</v>
+        <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1391.44</v>
+        <v>1430.91</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>211162681</v>
+        <v>214947883</v>
       </c>
       <c r="E74" t="n">
-        <v>733598238</v>
+        <v>746748372</v>
       </c>
       <c r="F74" t="n">
-        <v>151889.0040373982</v>
+        <v>139232.4593031728</v>
       </c>
       <c r="G74" t="n">
-        <v>163657.1380568035</v>
+        <v>231984.5550187095</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>29782238</v>
+        <v>33530667</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3551264</v>
+        <v>3776708</v>
       </c>
       <c r="E75" t="n">
-        <v>3551264</v>
+        <v>3776708</v>
       </c>
       <c r="F75" t="n">
-        <v>479.323007443697</v>
+        <v>1099.17281453637</v>
       </c>
       <c r="G75" t="n">
-        <v>1228.780526069178</v>
+        <v>1341.202805117696</v>
       </c>
       <c r="H75" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="I75" t="n">
-        <v>2514159</v>
+        <v>2530161</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>120880385</v>
+        <v>120636321</v>
       </c>
       <c r="E76" t="n">
-        <v>513340638</v>
+        <v>512266678</v>
       </c>
       <c r="F76" t="n">
-        <v>165241.1736994025</v>
+        <v>150393.244149131</v>
       </c>
       <c r="G76" t="n">
-        <v>161039.5566797939</v>
+        <v>249838.9210749481</v>
       </c>
       <c r="H76" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I76" t="n">
-        <v>16566509</v>
+        <v>14510168</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1867841</v>
+        <v>1865316</v>
       </c>
       <c r="F77" t="n">
-        <v>36.2272738907902</v>
+        <v>36.22612684149077</v>
       </c>
       <c r="G77" t="n">
-        <v>311.8179995755473</v>
+        <v>311.8081266102495</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>619.01</v>
+        <v>618.45</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3137907</v>
+        <v>3137571</v>
       </c>
       <c r="E78" t="n">
-        <v>15732836</v>
+        <v>15731152</v>
       </c>
       <c r="F78" t="n">
-        <v>280.733099902661</v>
+        <v>280.3217017111589</v>
       </c>
       <c r="G78" t="n">
-        <v>293.1045507761678</v>
+        <v>845.369781000772</v>
       </c>
       <c r="H78" t="n">
-        <v>0.62</v>
+        <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>33179</v>
+        <v>32404</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>490042</v>
+        <v>535576</v>
       </c>
       <c r="E79" t="n">
-        <v>8382141</v>
+        <v>9160997</v>
       </c>
       <c r="F79" t="n">
-        <v>258.7570627524158</v>
+        <v>55.85600295586063</v>
       </c>
       <c r="G79" t="n">
-        <v>775.6213594149352</v>
+        <v>335.2669547192131</v>
       </c>
       <c r="H79" t="n">
-        <v>1.24</v>
+        <v>2.23</v>
       </c>
       <c r="I79" t="n">
-        <v>159535</v>
+        <v>170881</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5776326</v>
+        <v>5876898</v>
       </c>
       <c r="E80" t="n">
-        <v>7847464</v>
+        <v>7986487</v>
       </c>
       <c r="F80" t="n">
-        <v>340.9148058085009</v>
+        <v>415.3690704430564</v>
       </c>
       <c r="G80" t="n">
-        <v>1306.379843184228</v>
+        <v>1149.225511418519</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="I80" t="n">
-        <v>5521882</v>
+        <v>5470201</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43532</v>
+        <v>43112</v>
       </c>
       <c r="F81" t="n">
-        <v>29.4393144243906</v>
+        <v>115.172751015485</v>
       </c>
       <c r="G81" t="n">
-        <v>75.71598493896825</v>
+        <v>122.0467198597322</v>
       </c>
       <c r="H81" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="I81" t="n">
-        <v>42506</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41152551</v>
+        <v>41323913</v>
       </c>
       <c r="E82" t="n">
-        <v>48065202</v>
+        <v>48265349</v>
       </c>
       <c r="F82" t="n">
-        <v>74.09459688318469</v>
+        <v>63.65830978213221</v>
       </c>
       <c r="G82" t="n">
-        <v>61.33500859256485</v>
+        <v>527.3866752916057</v>
       </c>
       <c r="H82" t="n">
-        <v>3.04</v>
+        <v>2.01</v>
       </c>
       <c r="I82" t="n">
-        <v>864958</v>
+        <v>867938</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14884215</v>
+        <v>14869911</v>
       </c>
       <c r="F83" t="n">
-        <v>171.490771606456</v>
+        <v>313.2157912118412</v>
       </c>
       <c r="G83" t="n">
-        <v>622.9341084320822</v>
+        <v>740.4421876969454</v>
       </c>
       <c r="H83" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="I83" t="n">
-        <v>262628</v>
+        <v>249983</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36850767</v>
+        <v>36704899</v>
       </c>
       <c r="E84" t="n">
-        <v>36850767</v>
+        <v>36704899</v>
       </c>
       <c r="F84" t="n">
-        <v>315.0344673890139</v>
+        <v>455.3174495004309</v>
       </c>
       <c r="G84" t="n">
-        <v>527.3914941265106</v>
+        <v>319.0952400263466</v>
       </c>
       <c r="H84" t="n">
-        <v>0.71</v>
+        <v>2.84</v>
       </c>
       <c r="I84" t="n">
-        <v>816597</v>
+        <v>815622</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>571071</v>
+        <v>569415</v>
       </c>
       <c r="E85" t="n">
-        <v>6926538</v>
+        <v>6906451</v>
       </c>
       <c r="F85" t="n">
-        <v>647.6831460688437</v>
+        <v>713.6128866866377</v>
       </c>
       <c r="G85" t="n">
-        <v>493.7014792834218</v>
+        <v>747.7896053150148</v>
       </c>
       <c r="H85" t="n">
-        <v>0.29</v>
+        <v>0.73</v>
       </c>
       <c r="I85" t="n">
-        <v>2802225</v>
+        <v>2795730</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26439653</v>
+        <v>26321624</v>
       </c>
       <c r="E86" t="n">
-        <v>37371157</v>
+        <v>37204329</v>
       </c>
       <c r="F86" t="n">
-        <v>363.5970523956119</v>
+        <v>9.7107676138365</v>
       </c>
       <c r="G86" t="n">
-        <v>107.0284558740858</v>
+        <v>467.0263650974743</v>
       </c>
       <c r="H86" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="I86" t="n">
-        <v>83293</v>
+        <v>73697</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1363014508</v>
+        <v>1357776129</v>
       </c>
       <c r="E87" t="n">
-        <v>6535933703</v>
+        <v>6510814604</v>
       </c>
       <c r="F87" t="n">
-        <v>663491.305198534</v>
+        <v>478007.823476608</v>
       </c>
       <c r="G87" t="n">
-        <v>946730.3650735135</v>
+        <v>1090786.846819835</v>
       </c>
       <c r="H87" t="n">
         <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>199546460</v>
+        <v>205510636</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>281403616</v>
+        <v>279024847</v>
       </c>
       <c r="E88" t="n">
-        <v>1214694225</v>
+        <v>1204426138</v>
       </c>
       <c r="F88" t="n">
-        <v>1188920.042450922</v>
+        <v>822810.315959034</v>
       </c>
       <c r="G88" t="n">
-        <v>886142.8173629069</v>
+        <v>1203018.560883839</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110557735</v>
+        <v>110862177</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>117310998</v>
+        <v>117146545</v>
       </c>
       <c r="E89" t="n">
-        <v>117310998</v>
+        <v>117146545</v>
       </c>
       <c r="F89" t="n">
-        <v>27676.60176613755</v>
+        <v>32201.36033931451</v>
       </c>
       <c r="G89" t="n">
-        <v>35301.87042117878</v>
+        <v>28240.82667956221</v>
       </c>
       <c r="H89" t="n">
-        <v>0.32</v>
+        <v>0.58</v>
       </c>
       <c r="I89" t="n">
-        <v>6405909</v>
+        <v>6336299</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3858691</v>
+        <v>3857147</v>
       </c>
       <c r="E90" t="n">
-        <v>30027869</v>
+        <v>30015850</v>
       </c>
       <c r="F90" t="n">
-        <v>12395.96830927536</v>
+        <v>12394.0895676402</v>
       </c>
       <c r="G90" t="n">
-        <v>13135.0167886055</v>
+        <v>13058.17211334135</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>7017.05</v>
+        <v>7016.61</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3817763</v>
+        <v>3757760</v>
       </c>
       <c r="F91" t="n">
-        <v>4537.936678499089</v>
+        <v>919.0801912387077</v>
       </c>
       <c r="G91" t="n">
-        <v>3356.58389777167</v>
+        <v>2382.182357739782</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I91" t="n">
-        <v>132935</v>
+        <v>306912</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>851298</v>
+        <v>851237</v>
       </c>
       <c r="F92" t="n">
-        <v>11.3540018352662</v>
+        <v>91.99678920617289</v>
       </c>
       <c r="G92" t="n">
-        <v>1214.266957743885</v>
+        <v>1190.654784107149</v>
       </c>
       <c r="H92" t="n">
-        <v>3.18</v>
+        <v>2.96</v>
       </c>
       <c r="I92" t="n">
-        <v>16317.37</v>
+        <v>15365.56</v>
       </c>
     </row>
     <row r="93">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>114880</v>
+        <v>114129</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>4.26</v>
+        <v>5.2</v>
       </c>
       <c r="I93" t="n">
-        <v>145274</v>
+        <v>144756</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11879294</v>
+        <v>11888215</v>
       </c>
       <c r="E94" t="n">
-        <v>143396763</v>
+        <v>143504449</v>
       </c>
       <c r="F94" t="n">
-        <v>2290.000009504398</v>
+        <v>1162.997441134743</v>
       </c>
       <c r="G94" t="n">
-        <v>1885.984087337338</v>
+        <v>1326.29806871067</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="I94" t="n">
-        <v>431541</v>
+        <v>479566</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19913662</v>
+        <v>19839150</v>
       </c>
       <c r="E95" t="n">
-        <v>49784155</v>
+        <v>49597875</v>
       </c>
       <c r="F95" t="n">
-        <v>8489.403807194711</v>
+        <v>8477.341777704436</v>
       </c>
       <c r="G95" t="n">
-        <v>10241.22053919876</v>
+        <v>11212.49483376583</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>1869778</v>
+        <v>2209959</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2398476</v>
+        <v>2342466</v>
       </c>
       <c r="F96" t="n">
-        <v>173.8657442167243</v>
+        <v>173.860239177049</v>
       </c>
       <c r="G96" t="n">
-        <v>160.8852523882496</v>
+        <v>160.9425131468448</v>
       </c>
       <c r="H96" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="I96" t="n">
-        <v>56928</v>
+        <v>51023</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19740784</v>
+        <v>19760475</v>
       </c>
       <c r="F97" t="n">
-        <v>3563.323730533311</v>
+        <v>6330.42018184049</v>
       </c>
       <c r="G97" t="n">
-        <v>5848.916430387489</v>
+        <v>4282.772599258584</v>
       </c>
       <c r="H97" t="n">
         <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>45374</v>
+        <v>43392</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4227990</v>
+        <v>4273905</v>
       </c>
       <c r="E98" t="n">
-        <v>12178622</v>
+        <v>12310879</v>
       </c>
       <c r="F98" t="n">
-        <v>2200.4167239821</v>
+        <v>263.3530977355363</v>
       </c>
       <c r="G98" t="n">
-        <v>498.1801448486173</v>
+        <v>1273.219767227629</v>
       </c>
       <c r="H98" t="n">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="I98" t="n">
-        <v>585165</v>
+        <v>614618</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1527235</v>
+        <v>1522924</v>
       </c>
       <c r="F99" t="n">
-        <v>117.156433861717</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>10.77277949934002</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.97</v>
+        <v>3.92</v>
       </c>
       <c r="I99" t="n">
-        <v>261932</v>
+        <v>267661</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80994036</v>
+        <v>80888569</v>
       </c>
       <c r="E100" t="n">
-        <v>103071206</v>
+        <v>102936991</v>
       </c>
       <c r="F100" t="n">
-        <v>8199.660191218836</v>
+        <v>4734.066704825712</v>
       </c>
       <c r="G100" t="n">
-        <v>9465.059664642215</v>
+        <v>4849.615473858874</v>
       </c>
       <c r="H100" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>6252836</v>
+        <v>6274939</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23365093</v>
+        <v>23390691</v>
       </c>
       <c r="E101" t="n">
-        <v>30309870</v>
+        <v>30343077</v>
       </c>
       <c r="F101" t="n">
-        <v>3274.747782102109</v>
+        <v>6578.227503398472</v>
       </c>
       <c r="G101" t="n">
-        <v>3343.135015439086</v>
+        <v>6131.121341931148</v>
       </c>
       <c r="H101" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="I101" t="n">
-        <v>168301</v>
+        <v>164701</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1589434</v>
+        <v>1591662</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.21</v>
+        <v>4.43</v>
       </c>
       <c r="I102" t="n">
-        <v>10227.57</v>
+        <v>10241.47</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>669366</v>
+        <v>681436</v>
       </c>
       <c r="E103" t="n">
-        <v>669366</v>
+        <v>681436</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5.87</v>
+        <v>6.1</v>
       </c>
       <c r="I103" t="n">
-        <v>78020</v>
+        <v>79913</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>41199500</v>
+        <v>40943572</v>
       </c>
       <c r="E104" t="n">
-        <v>43068209</v>
+        <v>42800673</v>
       </c>
       <c r="F104" t="n">
-        <v>739.714550257548</v>
+        <v>618.3225006221498</v>
       </c>
       <c r="G104" t="n">
-        <v>1044.126986543181</v>
+        <v>3915.568787526324</v>
       </c>
       <c r="H104" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="I104" t="n">
-        <v>758362</v>
+        <v>747346</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14862341</v>
+        <v>14636892</v>
       </c>
       <c r="E105" t="n">
-        <v>14862341</v>
+        <v>14636892</v>
       </c>
       <c r="F105" t="n">
-        <v>1999.048600532258</v>
+        <v>2078.977780247798</v>
       </c>
       <c r="G105" t="n">
-        <v>4957.9075383896</v>
+        <v>4103.533121607476</v>
       </c>
       <c r="H105" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I105" t="n">
-        <v>5112601</v>
+        <v>5295384</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1180226</v>
+        <v>1179683</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>6.25</v>
+        <v>5.97</v>
       </c>
       <c r="I106" t="n">
-        <v>6624.91</v>
+        <v>6361.51</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51932148</v>
+        <v>51847498</v>
       </c>
       <c r="E107" t="n">
-        <v>132300115</v>
+        <v>132084466</v>
       </c>
       <c r="F107" t="n">
-        <v>2154.559961426316</v>
+        <v>3059.850284448285</v>
       </c>
       <c r="G107" t="n">
-        <v>4368.8224458525</v>
+        <v>5026.420598465674</v>
       </c>
       <c r="H107" t="n">
         <v>0.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2421523</v>
+        <v>2390598</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15635295</v>
+        <v>15634624</v>
       </c>
       <c r="E108" t="n">
-        <v>75724228</v>
+        <v>75720981</v>
       </c>
       <c r="F108" t="n">
-        <v>10143.46120972558</v>
+        <v>9220.776630817691</v>
       </c>
       <c r="G108" t="n">
-        <v>11457.20019747659</v>
+        <v>10184.4116037223</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="I108" t="n">
-        <v>4215313</v>
+        <v>4255545</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>518938</v>
+        <v>517717</v>
       </c>
       <c r="F109" t="n">
-        <v>36.14136616192834</v>
+        <v>24.471003788782</v>
       </c>
       <c r="G109" t="n">
-        <v>8.983745711536979</v>
+        <v>8.983553355245313</v>
       </c>
       <c r="H109" t="n">
-        <v>0.55</v>
+        <v>1.39</v>
       </c>
       <c r="I109" t="n">
-        <v>7309.78</v>
+        <v>7198.75</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4642862</v>
+        <v>4636523</v>
       </c>
       <c r="E110" t="n">
-        <v>10583198</v>
+        <v>10568750</v>
       </c>
       <c r="F110" t="n">
-        <v>750.1755406028128</v>
+        <v>754.0144517342241</v>
       </c>
       <c r="G110" t="n">
-        <v>1941.042042839408</v>
+        <v>2127.895457369034</v>
       </c>
       <c r="H110" t="n">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>84614</v>
+        <v>83811</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1929205612</v>
+        <v>1929217566</v>
       </c>
       <c r="F111" t="n">
-        <v>93199.59041085096</v>
+        <v>97275.61222966539</v>
       </c>
       <c r="G111" t="n">
-        <v>49775.06572441457</v>
+        <v>46875.09527221048</v>
       </c>
       <c r="H111" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I111" t="n">
-        <v>28068451</v>
+        <v>28184516</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9559528</v>
+        <v>9550735</v>
       </c>
       <c r="E112" t="n">
-        <v>34790870</v>
+        <v>34758893</v>
       </c>
       <c r="F112" t="n">
-        <v>474.8724803321396</v>
+        <v>474.8076925015153</v>
       </c>
       <c r="G112" t="n">
-        <v>334.5290399384394</v>
+        <v>367.6148439526286</v>
       </c>
       <c r="H112" t="n">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="I112" t="n">
-        <v>124641</v>
+        <v>125335</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>564728</v>
+        <v>564682</v>
       </c>
       <c r="F113" t="n">
-        <v>15.59165402281602</v>
+        <v>15.59116035067614</v>
       </c>
       <c r="G113" t="n">
-        <v>32.04683784851858</v>
+        <v>32.04582316264921</v>
       </c>
       <c r="H113" t="n">
         <v>3.06</v>
       </c>
       <c r="I113" t="n">
-        <v>891.5700000000001</v>
+        <v>892</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12384107</v>
+        <v>12366927</v>
       </c>
       <c r="E114" t="n">
-        <v>17955168</v>
+        <v>17930259</v>
       </c>
       <c r="F114" t="n">
-        <v>1321.263721185502</v>
+        <v>2849.344736423698</v>
       </c>
       <c r="G114" t="n">
-        <v>8217.669614861812</v>
+        <v>5426.795275338857</v>
       </c>
       <c r="H114" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="I114" t="n">
-        <v>2105617</v>
+        <v>2100840</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1945557</v>
+        <v>1996705</v>
       </c>
       <c r="E115" t="n">
-        <v>13951395</v>
+        <v>14318173</v>
       </c>
       <c r="F115" t="n">
-        <v>599.0553253359183</v>
+        <v>968.8800840767393</v>
       </c>
       <c r="G115" t="n">
-        <v>976.1398055518387</v>
+        <v>558.3472907626718</v>
       </c>
       <c r="H115" t="n">
-        <v>0.42</v>
+        <v>1.66</v>
       </c>
       <c r="I115" t="n">
-        <v>2000081</v>
+        <v>1981918</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2710022</v>
+        <v>2709859</v>
       </c>
       <c r="E116" t="n">
-        <v>5478200</v>
+        <v>5477871</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>9015.309999999999</v>
+        <v>8468.66</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>209148854</v>
+        <v>208396999</v>
       </c>
       <c r="E117" t="n">
-        <v>1184329324</v>
+        <v>1180071858</v>
       </c>
       <c r="F117" t="n">
-        <v>282029.8257054822</v>
+        <v>402825.1803411661</v>
       </c>
       <c r="G117" t="n">
-        <v>432288.8003083635</v>
+        <v>363688.2493918784</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>69796977</v>
+        <v>69198760</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>690409</v>
+        <v>676011</v>
       </c>
       <c r="E118" t="n">
-        <v>2289294</v>
+        <v>2241553</v>
       </c>
       <c r="F118" t="n">
-        <v>7430.661260605611</v>
+        <v>8889.869398582736</v>
       </c>
       <c r="G118" t="n">
-        <v>6577.889543885976</v>
+        <v>7085.595404887702</v>
       </c>
       <c r="H118" t="n">
         <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>12028.25</v>
+        <v>11695.55</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2917123</v>
+        <v>2915151</v>
       </c>
       <c r="E119" t="n">
-        <v>10328303</v>
+        <v>10321319</v>
       </c>
       <c r="F119" t="n">
-        <v>105.7311159827402</v>
+        <v>109.5281869013106</v>
       </c>
       <c r="G119" t="n">
-        <v>1551.508492369881</v>
+        <v>1444.592510336275</v>
       </c>
       <c r="H119" t="n">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="I119" t="n">
-        <v>5766.31</v>
+        <v>5524.17</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1056669</v>
+        <v>1074828</v>
       </c>
       <c r="E120" t="n">
-        <v>1056669</v>
+        <v>1074828</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>101.4881089997816</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>33.82652287169172</v>
       </c>
       <c r="H120" t="n">
-        <v>5.19</v>
+        <v>2.56</v>
       </c>
       <c r="I120" t="n">
-        <v>5703.1</v>
+        <v>5958.21</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>504867</v>
+        <v>498477</v>
       </c>
       <c r="E121" t="n">
-        <v>1699311</v>
+        <v>1677805</v>
       </c>
       <c r="F121" t="n">
-        <v>460.4422543022852</v>
+        <v>367.6707297602764</v>
       </c>
       <c r="G121" t="n">
-        <v>348.3612028622308</v>
+        <v>403.3026464588668</v>
       </c>
       <c r="H121" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>633256</v>
+        <v>628990</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>464383</v>
+        <v>469188</v>
       </c>
       <c r="E122" t="n">
-        <v>861519</v>
+        <v>870435</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>191813</v>
+        <v>187932</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11714109</v>
+        <v>11059314</v>
       </c>
       <c r="F123" t="n">
-        <v>231.1216460942701</v>
+        <v>260.7682282916736</v>
       </c>
       <c r="G123" t="n">
-        <v>167.4579117951501</v>
+        <v>117.2818015619142</v>
       </c>
       <c r="H123" t="n">
-        <v>0.04</v>
+        <v>2.77</v>
       </c>
       <c r="I123" t="n">
-        <v>12235.67</v>
+        <v>12448.25</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1244814</v>
+        <v>1252563</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>8.09</v>
+        <v>5.18</v>
       </c>
       <c r="I124" t="n">
-        <v>2755.68</v>
+        <v>2816.64</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3381693</v>
+        <v>3454982</v>
       </c>
       <c r="E125" t="n">
-        <v>7896817</v>
+        <v>8067959</v>
       </c>
       <c r="F125" t="n">
-        <v>3850.569160676434</v>
+        <v>1229.316963250057</v>
       </c>
       <c r="G125" t="n">
-        <v>2785.458524257475</v>
+        <v>1683.590750984868</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="I125" t="n">
-        <v>641339</v>
+        <v>648211</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>240890</v>
+        <v>246390</v>
       </c>
       <c r="E126" t="n">
-        <v>2126036</v>
+        <v>2174576</v>
       </c>
       <c r="F126" t="n">
-        <v>43.98408720155</v>
+        <v>62.31557473691532</v>
       </c>
       <c r="G126" t="n">
-        <v>331.5130628947567</v>
+        <v>17.53400798803273</v>
       </c>
       <c r="H126" t="n">
-        <v>3.24</v>
+        <v>3.84</v>
       </c>
       <c r="I126" t="n">
-        <v>86155</v>
+        <v>89255</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>633778</v>
+        <v>642362</v>
       </c>
       <c r="F127" t="n">
-        <v>577.4335618566827</v>
+        <v>424.2034128030945</v>
       </c>
       <c r="G127" t="n">
-        <v>499.6079441655052</v>
+        <v>499.9293784140428</v>
       </c>
       <c r="H127" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I127" t="n">
-        <v>4922.02</v>
+        <v>5214.26</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4929811</v>
+        <v>4932166</v>
       </c>
       <c r="E128" t="n">
-        <v>17419315</v>
+        <v>17427636</v>
       </c>
       <c r="F128" t="n">
-        <v>1429.861413769017</v>
+        <v>1383.008788700319</v>
       </c>
       <c r="G128" t="n">
-        <v>2007.833822903556</v>
+        <v>2016.906902976482</v>
       </c>
       <c r="H128" t="n">
         <v>0.06</v>
       </c>
       <c r="I128" t="n">
-        <v>112067</v>
+        <v>112170</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2139750</v>
+        <v>2149599</v>
       </c>
       <c r="F129" t="n">
-        <v>70.1730221570115</v>
+        <v>58.79873282502973</v>
       </c>
       <c r="G129" t="n">
-        <v>67.69113144442872</v>
+        <v>116.8381556541602</v>
       </c>
       <c r="H129" t="n">
-        <v>0.42</v>
+        <v>1.04</v>
       </c>
       <c r="I129" t="n">
-        <v>8406.5</v>
+        <v>8719.809999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2556426</v>
+        <v>2559720</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2540.91</v>
+        <v>2600.6</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84163</v>
+        <v>84161</v>
       </c>
       <c r="E131" t="n">
-        <v>84163</v>
+        <v>84161</v>
       </c>
       <c r="F131" t="n">
-        <v>6.21364812468806</v>
+        <v>6.213451378869235</v>
       </c>
       <c r="G131" t="n">
-        <v>162.9080947093754</v>
+        <v>162.9029364696677</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>21826</v>
+        <v>21821</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4331706</v>
+        <v>4309626</v>
       </c>
       <c r="F132" t="n">
-        <v>283.7649276992253</v>
+        <v>246.430289121299</v>
       </c>
       <c r="G132" t="n">
-        <v>97.7184238505594</v>
+        <v>220.8844331686111</v>
       </c>
       <c r="H132" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="I132" t="n">
-        <v>295192</v>
+        <v>263170</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2152732</v>
+        <v>2146423</v>
       </c>
       <c r="E133" t="n">
-        <v>8791199</v>
+        <v>8765437</v>
       </c>
       <c r="F133" t="n">
-        <v>646.1436925252082</v>
+        <v>600.7429092924609</v>
       </c>
       <c r="G133" t="n">
-        <v>498.0300670832154</v>
+        <v>668.2452270701893</v>
       </c>
       <c r="H133" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>527237</v>
+        <v>527462</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7441417</v>
+        <v>7456930</v>
       </c>
       <c r="E134" t="n">
-        <v>7496731</v>
+        <v>7512360</v>
       </c>
       <c r="F134" t="n">
-        <v>299247.8646230269</v>
+        <v>246689.8708880843</v>
       </c>
       <c r="G134" t="n">
-        <v>294796.089449659</v>
+        <v>296199.2645242371</v>
       </c>
       <c r="H134" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>5080256</v>
+        <v>4948246</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14279540</v>
+        <v>14241986</v>
       </c>
       <c r="E135" t="n">
-        <v>14328134</v>
+        <v>14290453</v>
       </c>
       <c r="F135" t="n">
-        <v>12978.47304389715</v>
+        <v>15478.00427461969</v>
       </c>
       <c r="G135" t="n">
-        <v>13852.08501218487</v>
+        <v>12715.74847817319</v>
       </c>
       <c r="H135" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>6346397</v>
+        <v>6384970</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>43371348</v>
+        <v>43481884</v>
       </c>
       <c r="E136" t="n">
-        <v>73634460</v>
+        <v>73822123</v>
       </c>
       <c r="F136" t="n">
-        <v>310.1662987789287</v>
+        <v>411.1796465055495</v>
       </c>
       <c r="G136" t="n">
-        <v>2247.253988056138</v>
+        <v>1630.614734659745</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>1061070</v>
+        <v>1068340</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>23162524</v>
+        <v>22652726</v>
       </c>
       <c r="E137" t="n">
-        <v>69429961</v>
+        <v>67903701</v>
       </c>
       <c r="F137" t="n">
-        <v>84234.12807687839</v>
+        <v>81167.42871726961</v>
       </c>
       <c r="G137" t="n">
-        <v>88878.13975208643</v>
+        <v>91509.43842523221</v>
       </c>
       <c r="H137" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="I137" t="n">
-        <v>3503341</v>
+        <v>3562469</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>102933841</v>
+        <v>102229068</v>
       </c>
       <c r="E138" t="n">
-        <v>109427976</v>
+        <v>108678739</v>
       </c>
       <c r="F138" t="n">
-        <v>9057.933404548852</v>
+        <v>12614.37081196042</v>
       </c>
       <c r="G138" t="n">
-        <v>10613.86012633628</v>
+        <v>11094.99844145093</v>
       </c>
       <c r="H138" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>453030</v>
+        <v>615079</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1166409</v>
+        <v>1166455</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>5.3</v>
+        <v>4.89</v>
       </c>
       <c r="I139" t="n">
-        <v>1252.37</v>
+        <v>1252.4</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258601</v>
+        <v>258582</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.119999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="I140" t="n">
-        <v>82.88</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91843</v>
+        <v>91760</v>
       </c>
       <c r="E141" t="n">
-        <v>260539</v>
+        <v>260302</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>175.18</v>
+        <v>175.22</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50418409</v>
+        <v>50426424</v>
       </c>
       <c r="E142" t="n">
-        <v>217196993</v>
+        <v>217231523</v>
       </c>
       <c r="F142" t="n">
-        <v>72742.26175908516</v>
+        <v>66542.98440209948</v>
       </c>
       <c r="G142" t="n">
-        <v>75856.3237322721</v>
+        <v>90507.96351781687</v>
       </c>
       <c r="H142" t="n">
         <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>10061070</v>
+        <v>10070207</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>270405</v>
+        <v>270000</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8.56</v>
+        <v>8.9</v>
       </c>
       <c r="I143" t="n">
-        <v>10704.43</v>
+        <v>10508.22</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9441259</v>
+        <v>9456859</v>
       </c>
       <c r="F144" t="n">
-        <v>1102.818483415595</v>
+        <v>1090.436548072566</v>
       </c>
       <c r="G144" t="n">
-        <v>631.0078141279382</v>
+        <v>631.8490228425266</v>
       </c>
       <c r="H144" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I144" t="n">
-        <v>98623</v>
+        <v>98225</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1177703</v>
+        <v>1174843</v>
       </c>
       <c r="E145" t="n">
-        <v>7851353</v>
+        <v>7832289</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4684715091722</v>
+        <v>263.4601294151307</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0107807279915</v>
+        <v>105.0074558147554</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5560.35</v>
+        <v>5602.34</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7595081</v>
+        <v>7707561</v>
       </c>
       <c r="F146" t="n">
-        <v>1027.686090213447</v>
+        <v>1880.359293643039</v>
       </c>
       <c r="G146" t="n">
-        <v>59.43163786304333</v>
+        <v>60.76766559968062</v>
       </c>
       <c r="H146" t="n">
-        <v>1.21</v>
+        <v>2.4</v>
       </c>
       <c r="I146" t="n">
-        <v>6549719</v>
+        <v>6637204</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>677209</v>
+        <v>677320</v>
       </c>
       <c r="E147" t="n">
-        <v>2444507</v>
+        <v>2444907</v>
       </c>
       <c r="F147" t="n">
-        <v>50.79396743432385</v>
+        <v>51.18423813519789</v>
       </c>
       <c r="G147" t="n">
-        <v>105.9766950154971</v>
+        <v>140.5208581052517</v>
       </c>
       <c r="H147" t="n">
         <v>0.86</v>
       </c>
       <c r="I147" t="n">
-        <v>344114</v>
+        <v>346273</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1630128</v>
+        <v>1716472</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1.033671145964594</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>18.44684340989834</v>
       </c>
       <c r="H148" t="n">
-        <v>4.4</v>
+        <v>3.76</v>
       </c>
       <c r="I148" t="n">
-        <v>68241</v>
+        <v>75836</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>67224</v>
+        <v>67226</v>
       </c>
       <c r="F149" t="n">
-        <v>24.27093979455001</v>
+        <v>24.27026600807547</v>
       </c>
       <c r="G149" t="n">
-        <v>8.127769636042773</v>
+        <v>8.127544000723526</v>
       </c>
       <c r="H149" t="n">
         <v>3.12</v>
       </c>
       <c r="I149" t="n">
-        <v>2141.07</v>
+        <v>2141.11</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13586925</v>
+        <v>13524612</v>
       </c>
       <c r="E150" t="n">
-        <v>13586925</v>
+        <v>13524612</v>
       </c>
       <c r="F150" t="n">
-        <v>204.9608015420671</v>
+        <v>469.6846354568978</v>
       </c>
       <c r="G150" t="n">
-        <v>1053.631839024892</v>
+        <v>215.4394878413597</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I150" t="n">
-        <v>3892649</v>
+        <v>4034383</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1992922</v>
+        <v>2359492</v>
       </c>
       <c r="E151" t="n">
-        <v>7238040</v>
+        <v>8567708</v>
       </c>
       <c r="F151" t="n">
-        <v>62.97373486355897</v>
+        <v>47.38627972464307</v>
       </c>
       <c r="G151" t="n">
-        <v>188.5068921203931</v>
+        <v>5.91881276192944</v>
       </c>
       <c r="H151" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="I151" t="n">
-        <v>157026</v>
+        <v>187016</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1290681</v>
+        <v>1280164</v>
       </c>
       <c r="E152" t="n">
-        <v>1290681</v>
+        <v>1280164</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1480.75</v>
+        <v>1465.45</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23444606</v>
+        <v>23406288</v>
       </c>
       <c r="E153" t="n">
-        <v>27050071</v>
+        <v>27018722</v>
       </c>
       <c r="F153" t="n">
-        <v>249.9202398564934</v>
+        <v>345.6340930101599</v>
       </c>
       <c r="G153" t="n">
-        <v>458.1923817781426</v>
+        <v>372.749228548662</v>
       </c>
       <c r="H153" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I153" t="n">
-        <v>758264</v>
+        <v>738639</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442819</v>
+        <v>2442529</v>
       </c>
       <c r="E154" t="n">
-        <v>18381582</v>
+        <v>18379401</v>
       </c>
       <c r="F154" t="n">
-        <v>3416.18340947534</v>
+        <v>3530.755143350356</v>
       </c>
       <c r="G154" t="n">
-        <v>4362.494414862745</v>
+        <v>4143.162418544388</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>163805</v>
+        <v>163966</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>21252348</v>
+        <v>20600996</v>
       </c>
       <c r="E155" t="n">
-        <v>85009392</v>
+        <v>82403985</v>
       </c>
       <c r="F155" t="n">
-        <v>22564.30009744201</v>
+        <v>13601.55320721793</v>
       </c>
       <c r="G155" t="n">
-        <v>34417.67659314232</v>
+        <v>33446.98906891963</v>
       </c>
       <c r="H155" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="I155" t="n">
-        <v>2464145</v>
+        <v>2475132</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>323615901</v>
+        <v>325425576</v>
       </c>
       <c r="E156" t="n">
-        <v>323615901</v>
+        <v>325425576</v>
       </c>
       <c r="F156" t="n">
-        <v>297386.8148496274</v>
+        <v>298542.9462076856</v>
       </c>
       <c r="G156" t="n">
-        <v>389608.039225764</v>
+        <v>390456.6516875883</v>
       </c>
       <c r="H156" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I156" t="n">
-        <v>15951887</v>
+        <v>16308384</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12771787</v>
+        <v>12738724</v>
       </c>
       <c r="E157" t="n">
-        <v>40399567</v>
+        <v>40294981</v>
       </c>
       <c r="F157" t="n">
-        <v>8329.723314533014</v>
+        <v>8571.093424194942</v>
       </c>
       <c r="G157" t="n">
-        <v>19543.30120424122</v>
+        <v>14949.37787973874</v>
       </c>
       <c r="H157" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="I157" t="n">
-        <v>973167</v>
+        <v>959215</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1132397</v>
+        <v>1131202</v>
       </c>
       <c r="E158" t="n">
-        <v>2579145</v>
+        <v>2576423</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>7.64</v>
+        <v>6.96</v>
       </c>
       <c r="I158" t="n">
-        <v>864.95</v>
+        <v>771.67</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19294211</v>
+        <v>19045337</v>
       </c>
       <c r="E159" t="n">
-        <v>19294211</v>
+        <v>19045337</v>
       </c>
       <c r="F159" t="n">
-        <v>17028.50188560784</v>
+        <v>17354.55667799104</v>
       </c>
       <c r="G159" t="n">
-        <v>16928.804517018</v>
+        <v>19737.3563175006</v>
       </c>
       <c r="H159" t="n">
         <v>0.1</v>
       </c>
       <c r="I159" t="n">
-        <v>4784206</v>
+        <v>4803660</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4857479</v>
+        <v>4614242</v>
       </c>
       <c r="E160" t="n">
-        <v>8943137</v>
+        <v>8495314</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.36</v>
+        <v>12.33</v>
       </c>
       <c r="I160" t="n">
-        <v>19.46</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>111493</v>
+        <v>111571</v>
       </c>
       <c r="E161" t="n">
-        <v>134983</v>
+        <v>135078</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>9.880000000000001</v>
+        <v>8.34</v>
       </c>
       <c r="I161" t="n">
-        <v>3343.21</v>
+        <v>3331.3</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>20232367</v>
+        <v>19738945</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>14.63</v>
+        <v>14.23</v>
       </c>
       <c r="I162" t="n">
-        <v>1433.8</v>
+        <v>1454.98</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>434249</v>
+        <v>433989</v>
       </c>
       <c r="E163" t="n">
-        <v>546992</v>
+        <v>546664</v>
       </c>
       <c r="F163" t="n">
-        <v>134.0131034890838</v>
+        <v>231.5413681959475</v>
       </c>
       <c r="G163" t="n">
-        <v>143.7231352693861</v>
+        <v>120.2616868232226</v>
       </c>
       <c r="H163" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="I163" t="n">
-        <v>187103</v>
+        <v>122538</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>99735</v>
+        <v>99739</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>159.558365851577</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>52.23985992097012</v>
       </c>
       <c r="H164" t="n">
-        <v>4.68</v>
+        <v>3.11</v>
       </c>
       <c r="I164" t="n">
-        <v>2624.5</v>
+        <v>2861.37</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12734681</v>
+        <v>12775352</v>
       </c>
       <c r="E165" t="n">
-        <v>19385056</v>
+        <v>19446967</v>
       </c>
       <c r="F165" t="n">
-        <v>2566.994612421</v>
+        <v>2524.060934864551</v>
       </c>
       <c r="G165" t="n">
-        <v>3595.114181626016</v>
+        <v>4592.840748559123</v>
       </c>
       <c r="H165" t="n">
-        <v>0.91</v>
+        <v>1.36</v>
       </c>
       <c r="I165" t="n">
-        <v>695985</v>
+        <v>678175</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>304625998</v>
+        <v>305673601</v>
       </c>
       <c r="E166" t="n">
-        <v>304625998</v>
+        <v>305673601</v>
       </c>
       <c r="F166" t="n">
-        <v>338897.9862425012</v>
+        <v>291021.1825828844</v>
       </c>
       <c r="G166" t="n">
-        <v>369582.9777801767</v>
+        <v>424983.369670863</v>
       </c>
       <c r="H166" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>79973294</v>
+        <v>71947417</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10443454</v>
+        <v>10466663</v>
       </c>
       <c r="E167" t="n">
-        <v>29650707</v>
+        <v>29716601</v>
       </c>
       <c r="F167" t="n">
-        <v>934.0823546655997</v>
+        <v>468.6141888488746</v>
       </c>
       <c r="G167" t="n">
-        <v>83.22763051873795</v>
+        <v>72.14861262834</v>
       </c>
       <c r="H167" t="n">
-        <v>1.34</v>
+        <v>0.67</v>
       </c>
       <c r="I167" t="n">
-        <v>118597</v>
+        <v>124877</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11785949</v>
+        <v>11771610</v>
       </c>
       <c r="F168" t="n">
-        <v>347.9259815301245</v>
+        <v>280.7461663704588</v>
       </c>
       <c r="G168" t="n">
-        <v>802.9814403022866</v>
+        <v>606.9662215202214</v>
       </c>
       <c r="H168" t="n">
-        <v>1.02</v>
+        <v>0.43</v>
       </c>
       <c r="I168" t="n">
-        <v>85614</v>
+        <v>75254</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4340684</v>
+        <v>4339620</v>
       </c>
       <c r="E169" t="n">
-        <v>29659590</v>
+        <v>29652321</v>
       </c>
       <c r="F169" t="n">
-        <v>2920.134240991256</v>
+        <v>1644.97822678249</v>
       </c>
       <c r="G169" t="n">
-        <v>2981.500015065096</v>
+        <v>2000.396262415624</v>
       </c>
       <c r="H169" t="n">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="I169" t="n">
-        <v>2626299</v>
+        <v>2611105</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2994066</v>
+        <v>2956647</v>
       </c>
       <c r="E170" t="n">
-        <v>4436654</v>
+        <v>4381031</v>
       </c>
       <c r="F170" t="n">
-        <v>1921.288813306932</v>
+        <v>3862.861245943518</v>
       </c>
       <c r="G170" t="n">
-        <v>5068.992454879016</v>
+        <v>4508.767235285733</v>
       </c>
       <c r="H170" t="n">
         <v>0.68</v>
       </c>
       <c r="I170" t="n">
-        <v>132754</v>
+        <v>127713</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>93495183</v>
+        <v>92973355</v>
       </c>
       <c r="E171" t="n">
-        <v>538759571</v>
+        <v>535752572</v>
       </c>
       <c r="F171" t="n">
-        <v>355010.2360906419</v>
+        <v>338484.5518168394</v>
       </c>
       <c r="G171" t="n">
-        <v>357393.2316690737</v>
+        <v>363812.3938823311</v>
       </c>
       <c r="H171" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I171" t="n">
-        <v>18326893</v>
+        <v>18269264</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13810325</v>
+        <v>13818161</v>
       </c>
       <c r="E172" t="n">
-        <v>13810325</v>
+        <v>13818161</v>
       </c>
       <c r="F172" t="n">
-        <v>5490.887047601524</v>
+        <v>4828.647225957826</v>
       </c>
       <c r="G172" t="n">
-        <v>4979.317944099575</v>
+        <v>5199.857488793098</v>
       </c>
       <c r="H172" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="I172" t="n">
-        <v>609470</v>
+        <v>614295</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6170294</v>
+        <v>6153220</v>
       </c>
       <c r="E173" t="n">
-        <v>17528035</v>
+        <v>17479531</v>
       </c>
       <c r="F173" t="n">
-        <v>642.1833913031111</v>
+        <v>1198.208124350326</v>
       </c>
       <c r="G173" t="n">
-        <v>8836.840904839004</v>
+        <v>8765.761691980118</v>
       </c>
       <c r="H173" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="I173" t="n">
-        <v>169968</v>
+        <v>159808</v>
       </c>
     </row>
     <row r="174">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19050379</v>
+        <v>19537929</v>
       </c>
       <c r="E174" t="n">
-        <v>19050379</v>
+        <v>19537929</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="I174" t="n">
-        <v>120743</v>
+        <v>131965</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1352178</v>
+        <v>1328450</v>
       </c>
       <c r="F175" t="n">
-        <v>5.420175168041165</v>
+        <v>89.32587241996443</v>
       </c>
       <c r="G175" t="n">
-        <v>887.4665995061732</v>
+        <v>807.8250434589015</v>
       </c>
       <c r="H175" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="I175" t="n">
-        <v>33145</v>
+        <v>2559.06</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>130784</v>
+        <v>131353</v>
       </c>
       <c r="E176" t="n">
-        <v>284713</v>
+        <v>285954</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>7.38</v>
       </c>
       <c r="I176" t="n">
-        <v>48408</v>
+        <v>48015</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2819498</v>
+        <v>2757033</v>
       </c>
       <c r="F177" t="n">
-        <v>204.5999491536234</v>
+        <v>330.9683625232971</v>
       </c>
       <c r="G177" t="n">
-        <v>332.8269256494398</v>
+        <v>1448.66684246417</v>
       </c>
       <c r="H177" t="n">
-        <v>3.11</v>
+        <v>0.72</v>
       </c>
       <c r="I177" t="n">
-        <v>446599</v>
+        <v>463129</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>252107453</v>
+        <v>253939794</v>
       </c>
       <c r="E178" t="n">
-        <v>252109957</v>
+        <v>253942317</v>
       </c>
       <c r="F178" t="n">
-        <v>48525.87622017915</v>
+        <v>49899.0799016629</v>
       </c>
       <c r="G178" t="n">
-        <v>50696.45809868565</v>
+        <v>51763.28109575</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I178" t="n">
-        <v>2211689</v>
+        <v>2471001</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9467970</v>
+        <v>9502760</v>
       </c>
       <c r="E179" t="n">
-        <v>9467970</v>
+        <v>9502760</v>
       </c>
       <c r="F179" t="n">
-        <v>11.8813737655706</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>750.4733400219404</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="I179" t="n">
-        <v>2152660</v>
+        <v>2150008</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>197147</v>
+        <v>197732</v>
       </c>
       <c r="E180" t="n">
-        <v>1522371</v>
+        <v>1526888</v>
       </c>
       <c r="F180" t="n">
-        <v>94.0061538823274</v>
+        <v>42.5930890263332</v>
       </c>
       <c r="G180" t="n">
-        <v>3.410674546016352</v>
+        <v>2.737308601232837</v>
       </c>
       <c r="H180" t="n">
-        <v>2.35</v>
+        <v>1.79</v>
       </c>
       <c r="I180" t="n">
-        <v>104092</v>
+        <v>96128</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>31792551</v>
+        <v>31780854</v>
       </c>
       <c r="E181" t="n">
-        <v>142348292</v>
+        <v>142295922</v>
       </c>
       <c r="F181" t="n">
-        <v>54458.14145229848</v>
+        <v>48995.74517886365</v>
       </c>
       <c r="G181" t="n">
-        <v>100108.4967383196</v>
+        <v>105906.4783362924</v>
       </c>
       <c r="H181" t="n">
         <v>0.14</v>
       </c>
       <c r="I181" t="n">
-        <v>7960230</v>
+        <v>7941790</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1464747</v>
+        <v>1459305</v>
       </c>
       <c r="F182" t="n">
-        <v>262.1331985015145</v>
+        <v>111.3175094027279</v>
       </c>
       <c r="G182" t="n">
-        <v>5202.760586546849</v>
+        <v>5546.381213141759</v>
       </c>
       <c r="H182" t="n">
-        <v>0.88</v>
+        <v>0.06</v>
       </c>
       <c r="I182" t="n">
-        <v>47502</v>
+        <v>47043</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3267484</v>
+        <v>3251327</v>
       </c>
       <c r="E183" t="n">
-        <v>3267484</v>
+        <v>3251327</v>
       </c>
       <c r="F183" t="n">
-        <v>257.7715742488726</v>
+        <v>235.8242413991675</v>
       </c>
       <c r="G183" t="n">
-        <v>443.2626323545927</v>
+        <v>166.9108424164225</v>
       </c>
       <c r="H183" t="n">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="I183" t="n">
-        <v>412234</v>
+        <v>417200</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>594179</v>
+        <v>584831</v>
       </c>
       <c r="E184" t="n">
-        <v>594179</v>
+        <v>584831</v>
       </c>
       <c r="F184" t="n">
-        <v>94.37172029920031</v>
+        <v>94.3691004423157</v>
       </c>
       <c r="G184" t="n">
-        <v>4.752559492800343</v>
+        <v>4.752427556817114</v>
       </c>
       <c r="H184" t="n">
         <v>3.45</v>
       </c>
       <c r="I184" t="n">
-        <v>1133961</v>
+        <v>1122635</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>16146829</v>
+        <v>15824030</v>
       </c>
       <c r="E185" t="n">
-        <v>20557491</v>
+        <v>20146516</v>
       </c>
       <c r="F185" t="n">
-        <v>95.31026408458121</v>
+        <v>93.94318061838757</v>
       </c>
       <c r="G185" t="n">
-        <v>2589.294544601881</v>
+        <v>194.8465526731761</v>
       </c>
       <c r="H185" t="n">
-        <v>0.83</v>
+        <v>1.27</v>
       </c>
       <c r="I185" t="n">
-        <v>967256</v>
+        <v>979092</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1779145</v>
+        <v>1784845</v>
       </c>
       <c r="E186" t="n">
-        <v>1779145</v>
+        <v>1784845</v>
       </c>
       <c r="F186" t="n">
-        <v>16.86179184304493</v>
+        <v>53.77067283511413</v>
       </c>
       <c r="G186" t="n">
-        <v>95.94003867076083</v>
+        <v>86.78464356157703</v>
       </c>
       <c r="H186" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="I186" t="n">
-        <v>3838.4</v>
+        <v>3760.24</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>52347519</v>
+        <v>52265477</v>
       </c>
       <c r="E187" t="n">
-        <v>339459728</v>
+        <v>338927706</v>
       </c>
       <c r="F187" t="n">
-        <v>134400.0079808048</v>
+        <v>158980.282898186</v>
       </c>
       <c r="G187" t="n">
-        <v>118857.9140803392</v>
+        <v>226981.8372752658</v>
       </c>
       <c r="H187" t="n">
         <v>0.09</v>
       </c>
       <c r="I187" t="n">
-        <v>17168325</v>
+        <v>17579795</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9102600</v>
+        <v>9092696</v>
       </c>
       <c r="F188" t="n">
-        <v>885.9182489062291</v>
+        <v>693.5401186504279</v>
       </c>
       <c r="G188" t="n">
-        <v>318.6483156894193</v>
+        <v>325.1789819163772</v>
       </c>
       <c r="H188" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I188" t="n">
-        <v>294793</v>
+        <v>294307</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7222957</v>
+        <v>7339836</v>
       </c>
       <c r="E189" t="n">
-        <v>7232406</v>
+        <v>7349417</v>
       </c>
       <c r="F189" t="n">
-        <v>1408.653003216933</v>
+        <v>1620.710660718219</v>
       </c>
       <c r="G189" t="n">
-        <v>108.3286471271204</v>
+        <v>95.34905519381272</v>
       </c>
       <c r="H189" t="n">
-        <v>2.21</v>
+        <v>1.01</v>
       </c>
       <c r="I189" t="n">
-        <v>752104</v>
+        <v>711488</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4849077</v>
+        <v>4877202</v>
       </c>
       <c r="F190" t="n">
-        <v>1885.968045828277</v>
+        <v>2122.985812813003</v>
       </c>
       <c r="G190" t="n">
-        <v>2530.995255228846</v>
+        <v>2023.739670684452</v>
       </c>
       <c r="H190" t="n">
-        <v>1.33</v>
+        <v>0.66</v>
       </c>
       <c r="I190" t="n">
-        <v>197190</v>
+        <v>201919</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>100396307</v>
+        <v>104151364</v>
       </c>
       <c r="E191" t="n">
-        <v>101477005</v>
+        <v>105272483</v>
       </c>
       <c r="F191" t="n">
-        <v>67685.09956349328</v>
+        <v>44415.4790044035</v>
       </c>
       <c r="G191" t="n">
-        <v>75050.78760590446</v>
+        <v>37742.33347171936</v>
       </c>
       <c r="H191" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="I191" t="n">
-        <v>47721698</v>
+        <v>50952309</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>256650595</v>
+        <v>252723404</v>
       </c>
       <c r="E192" t="n">
-        <v>256650595</v>
+        <v>252723404</v>
       </c>
       <c r="F192" t="n">
-        <v>107148.1737885044</v>
+        <v>88654.63002999993</v>
       </c>
       <c r="G192" t="n">
-        <v>113174.1169198795</v>
+        <v>101883.2207360236</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>51895821</v>
+        <v>52106290</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25185777</v>
+        <v>25152315</v>
       </c>
       <c r="E193" t="n">
-        <v>150691564</v>
+        <v>150491356</v>
       </c>
       <c r="F193" t="n">
-        <v>80280.43191120915</v>
+        <v>98849.13328190746</v>
       </c>
       <c r="G193" t="n">
-        <v>152454.6565023893</v>
+        <v>116857.8283921234</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I193" t="n">
-        <v>12960440</v>
+        <v>13184782</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>13990385</v>
+        <v>14188230</v>
       </c>
       <c r="E194" t="n">
-        <v>42282826</v>
+        <v>42880769</v>
       </c>
       <c r="F194" t="n">
-        <v>1411.444715351374</v>
+        <v>498.9768630325203</v>
       </c>
       <c r="G194" t="n">
-        <v>652.9878895738466</v>
+        <v>624.6997610902578</v>
       </c>
       <c r="H194" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="I194" t="n">
-        <v>2596684</v>
+        <v>2584641</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54555611</v>
+        <v>54585329</v>
       </c>
       <c r="E195" t="n">
-        <v>94229400</v>
+        <v>94280730</v>
       </c>
       <c r="F195" t="n">
-        <v>7680.321214358691</v>
+        <v>14738.73773738978</v>
       </c>
       <c r="G195" t="n">
-        <v>9082.045181008549</v>
+        <v>8895.315830788346</v>
       </c>
       <c r="H195" t="n">
         <v>0.01</v>
       </c>
       <c r="I195" t="n">
-        <v>2266893</v>
+        <v>2254493</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4318445</v>
+        <v>4354013</v>
       </c>
       <c r="E196" t="n">
-        <v>4318445</v>
+        <v>4354013</v>
       </c>
       <c r="F196" t="n">
-        <v>2.452414048698469</v>
+        <v>126.2129125612692</v>
       </c>
       <c r="G196" t="n">
-        <v>1019.708688656179</v>
+        <v>1.048251242682998</v>
       </c>
       <c r="H196" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="I196" t="n">
-        <v>1743524</v>
+        <v>1763274</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>212241</v>
+        <v>210202</v>
       </c>
       <c r="F197" t="n">
-        <v>204.3279004408694</v>
+        <v>16.9046912283643</v>
       </c>
       <c r="G197" t="n">
-        <v>8.321252531031201</v>
+        <v>359.4969989819768</v>
       </c>
       <c r="H197" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="I197" t="n">
-        <v>54045</v>
+        <v>54247</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6765968</v>
+        <v>6674174</v>
       </c>
       <c r="E198" t="n">
-        <v>34808847</v>
+        <v>34336595</v>
       </c>
       <c r="F198" t="n">
-        <v>290.6950418438282</v>
+        <v>266.0214199303109</v>
       </c>
       <c r="G198" t="n">
-        <v>460.57940448674</v>
+        <v>738.5831133054207</v>
       </c>
       <c r="H198" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="I198" t="n">
-        <v>915316</v>
+        <v>913003</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>178223440</v>
+        <v>177778299</v>
       </c>
       <c r="E199" t="n">
-        <v>208217602</v>
+        <v>207697545</v>
       </c>
       <c r="F199" t="n">
-        <v>42846.64020124829</v>
+        <v>34398.9454790504</v>
       </c>
       <c r="G199" t="n">
-        <v>37061.42956781888</v>
+        <v>35673.99079871264</v>
       </c>
       <c r="H199" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="I199" t="n">
-        <v>3745688</v>
+        <v>3906393</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>303169</v>
+        <v>303601</v>
       </c>
       <c r="F200" t="n">
-        <v>40.03125253041402</v>
+        <v>6.768437821895711</v>
       </c>
       <c r="G200" t="n">
-        <v>93.8937385998849</v>
+        <v>68.92977370645841</v>
       </c>
       <c r="H200" t="n">
         <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>296705</v>
+        <v>297228</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7992088</v>
+        <v>7994699</v>
       </c>
       <c r="F201" t="n">
-        <v>1073.383984608185</v>
+        <v>1071.852340630564</v>
       </c>
       <c r="G201" t="n">
-        <v>765.8627687949142</v>
+        <v>715.6570168686155</v>
       </c>
       <c r="H201" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I201" t="n">
-        <v>657184</v>
+        <v>659416</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>33999</v>
+        <v>34009</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>651.5700000000001</v>
+        <v>605.03</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35704144</v>
+        <v>35605539</v>
       </c>
       <c r="E203" t="n">
-        <v>178180138</v>
+        <v>177688054</v>
       </c>
       <c r="F203" t="n">
-        <v>113669.0864701043</v>
+        <v>102144.07289644</v>
       </c>
       <c r="G203" t="n">
-        <v>79412.83934572073</v>
+        <v>108456.4113454251</v>
       </c>
       <c r="H203" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I203" t="n">
-        <v>10981201</v>
+        <v>10670109</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1978609</v>
+        <v>1979797</v>
       </c>
       <c r="E204" t="n">
-        <v>1978609</v>
+        <v>1979797</v>
       </c>
       <c r="F204" t="n">
-        <v>161.1441204723133</v>
+        <v>161.1390182321875</v>
       </c>
       <c r="G204" t="n">
-        <v>6.018066527606039</v>
+        <v>6.017875980036404</v>
       </c>
       <c r="H204" t="n">
         <v>1.67</v>
       </c>
       <c r="I204" t="n">
-        <v>12593.11</v>
+        <v>11851.01</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>178053</v>
+        <v>169561</v>
       </c>
       <c r="F205" t="n">
-        <v>1096.524101861401</v>
+        <v>1101.5937325495</v>
       </c>
       <c r="G205" t="n">
-        <v>84.93324025638601</v>
+        <v>118.2636777929455</v>
       </c>
       <c r="H205" t="n">
-        <v>1.76</v>
+        <v>1.18</v>
       </c>
       <c r="I205" t="n">
-        <v>13295.87</v>
+        <v>12939.16</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2947.77</v>
+        <v>2795.56</v>
       </c>
       <c r="E206" t="n">
-        <v>35232</v>
+        <v>33413</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.89</v>
+        <v>6.78</v>
       </c>
       <c r="I206" t="n">
-        <v>7763.81</v>
+        <v>7770.85</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>327624859</v>
+        <v>328189549</v>
       </c>
       <c r="E208" t="n">
-        <v>606180702</v>
+        <v>607225509</v>
       </c>
       <c r="F208" t="n">
-        <v>166196.577144383</v>
+        <v>197739.2112805755</v>
       </c>
       <c r="G208" t="n">
-        <v>240371.3869689961</v>
+        <v>249218.1530737655</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>14448303</v>
+        <v>14612361</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>74173340</v>
+        <v>74302789</v>
       </c>
       <c r="E209" t="n">
-        <v>707560337</v>
+        <v>708788122</v>
       </c>
       <c r="F209" t="n">
-        <v>353508.7215841426</v>
+        <v>282093.3473536955</v>
       </c>
       <c r="G209" t="n">
-        <v>202039.9672380981</v>
+        <v>371541.9189221556</v>
       </c>
       <c r="H209" t="n">
         <v>0.09</v>
       </c>
       <c r="I209" t="n">
-        <v>22659869</v>
+        <v>22496659</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2586371</v>
+        <v>2578882</v>
       </c>
       <c r="F210" t="n">
-        <v>116.4978237248567</v>
+        <v>178.2229411385562</v>
       </c>
       <c r="G210" t="n">
-        <v>1455.914020552508</v>
+        <v>542.4847327076873</v>
       </c>
       <c r="H210" t="n">
-        <v>2.98</v>
+        <v>3.71</v>
       </c>
       <c r="I210" t="n">
-        <v>46506</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>84353</v>
+        <v>84347</v>
       </c>
       <c r="E211" t="n">
-        <v>701246</v>
+        <v>701193</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1919326</v>
+        <v>1907780</v>
       </c>
       <c r="E212" t="n">
-        <v>5481349</v>
+        <v>5448375</v>
       </c>
       <c r="F212" t="n">
-        <v>268.8559967753482</v>
+        <v>86.28211879025449</v>
       </c>
       <c r="G212" t="n">
-        <v>418.7396875127241</v>
+        <v>410.4792662332243</v>
       </c>
       <c r="H212" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="I212" t="n">
-        <v>74033</v>
+        <v>74458</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11623897</v>
+        <v>11064997</v>
       </c>
       <c r="E213" t="n">
-        <v>34482654</v>
+        <v>32824660</v>
       </c>
       <c r="F213" t="n">
-        <v>3305.392545768353</v>
+        <v>3305.684483101713</v>
       </c>
       <c r="G213" t="n">
-        <v>3019.339671514716</v>
+        <v>3861.885699166189</v>
       </c>
       <c r="H213" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="I213" t="n">
-        <v>7410719</v>
+        <v>7018334</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14916542</v>
+        <v>14914154</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>19.16428328966729</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>357.1881973515871</v>
       </c>
       <c r="H214" t="n">
-        <v>6</v>
+        <v>2.47</v>
       </c>
       <c r="I214" t="n">
-        <v>1253</v>
+        <v>1253.06</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2008773</v>
+        <v>2026841</v>
       </c>
       <c r="E215" t="n">
-        <v>5810882</v>
+        <v>5863147</v>
       </c>
       <c r="F215" t="n">
-        <v>77.32648499708623</v>
+        <v>65.57948452276571</v>
       </c>
       <c r="G215" t="n">
-        <v>61.4780113369229</v>
+        <v>621.4222713544065</v>
       </c>
       <c r="H215" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="I215" t="n">
-        <v>60177</v>
+        <v>60570</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2360206</v>
+        <v>2359032</v>
       </c>
       <c r="E216" t="n">
-        <v>20818585</v>
+        <v>20808225</v>
       </c>
       <c r="F216" t="n">
-        <v>208.5823403522058</v>
+        <v>124.8433527789826</v>
       </c>
       <c r="G216" t="n">
-        <v>2085.029973773249</v>
+        <v>2322.532030941913</v>
       </c>
       <c r="H216" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="I216" t="n">
-        <v>94012</v>
+        <v>95154</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>46143468</v>
+        <v>45894217</v>
       </c>
       <c r="E217" t="n">
-        <v>46143468</v>
+        <v>45894217</v>
       </c>
       <c r="F217" t="n">
-        <v>37295.94372588637</v>
+        <v>40460.35003079223</v>
       </c>
       <c r="G217" t="n">
-        <v>40092.13069990068</v>
+        <v>35800.02082054473</v>
       </c>
       <c r="H217" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I217" t="n">
-        <v>7611148</v>
+        <v>7810151</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8371113</v>
+        <v>8292353</v>
       </c>
       <c r="E218" t="n">
-        <v>11926918</v>
+        <v>11814704</v>
       </c>
       <c r="F218" t="n">
-        <v>4108.00582723584</v>
+        <v>3813.432418154117</v>
       </c>
       <c r="G218" t="n">
-        <v>686.3038013881962</v>
+        <v>616.0450380979509</v>
       </c>
       <c r="H218" t="n">
-        <v>0.95</v>
+        <v>0.36</v>
       </c>
       <c r="I218" t="n">
-        <v>394668</v>
+        <v>394066</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16673425</v>
+        <v>16488751</v>
       </c>
       <c r="F219" t="n">
-        <v>1.046427391179229</v>
+        <v>2.108058530688036</v>
       </c>
       <c r="G219" t="n">
-        <v>437.4572943884154</v>
+        <v>159.0130317032496</v>
       </c>
       <c r="H219" t="n">
-        <v>0.43</v>
+        <v>1.63</v>
       </c>
       <c r="I219" t="n">
-        <v>1028886</v>
+        <v>1032142</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>717810</v>
+        <v>717725</v>
       </c>
       <c r="F220" t="n">
-        <v>120.8682939707177</v>
+        <v>84.18606208636969</v>
       </c>
       <c r="G220" t="n">
-        <v>317.4075221986808</v>
+        <v>317.3974756846699</v>
       </c>
       <c r="H220" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>212292</v>
+        <v>211896</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2888165</v>
+        <v>2873778</v>
       </c>
       <c r="E221" t="n">
-        <v>2890667</v>
+        <v>2876267</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>11.22520453638888</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>451.4087948392831</v>
       </c>
       <c r="H221" t="n">
-        <v>3.94</v>
+        <v>3.35</v>
       </c>
       <c r="I221" t="n">
-        <v>111036</v>
+        <v>97278</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1255445</v>
+        <v>1243664</v>
       </c>
       <c r="E222" t="n">
-        <v>3793674</v>
+        <v>3757825</v>
       </c>
       <c r="F222" t="n">
-        <v>591.8300611607953</v>
+        <v>498.0114133420779</v>
       </c>
       <c r="G222" t="n">
-        <v>835.1277957797329</v>
+        <v>313.6847502352782</v>
       </c>
       <c r="H222" t="n">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="I222" t="n">
-        <v>15072.77</v>
+        <v>16644.51</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>40608755</v>
+        <v>40090868</v>
       </c>
       <c r="E223" t="n">
-        <v>287909451</v>
+        <v>284237711</v>
       </c>
       <c r="F223" t="n">
-        <v>77880.98420402943</v>
+        <v>67134.34248660799</v>
       </c>
       <c r="G223" t="n">
-        <v>62451.88646071767</v>
+        <v>51032.76510021224</v>
       </c>
       <c r="H223" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="I223" t="n">
-        <v>1831352</v>
+        <v>1897721</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>58627</v>
+        <v>65218</v>
       </c>
       <c r="E224" t="n">
-        <v>305889</v>
+        <v>340282</v>
       </c>
       <c r="F224" t="n">
-        <v>73.32717759938282</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>93.98328830775625</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>1.32</v>
+        <v>4.88</v>
       </c>
       <c r="I224" t="n">
-        <v>283578</v>
+        <v>305026</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1281779</v>
+        <v>1288990</v>
       </c>
       <c r="E225" t="n">
-        <v>7948319</v>
+        <v>7993037</v>
       </c>
       <c r="F225" t="n">
-        <v>1676.603628469881</v>
+        <v>2264.963388819892</v>
       </c>
       <c r="G225" t="n">
-        <v>1684.287695885451</v>
+        <v>2046.265134541285</v>
       </c>
       <c r="H225" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I225" t="n">
-        <v>785936</v>
+        <v>781230</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>631787078</v>
+        <v>628379745</v>
       </c>
       <c r="E226" t="n">
-        <v>2446818138</v>
+        <v>2433622043</v>
       </c>
       <c r="F226" t="n">
-        <v>256281.0219057506</v>
+        <v>301065.0860071767</v>
       </c>
       <c r="G226" t="n">
-        <v>468286.9453964966</v>
+        <v>458613.2911546509</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>38826913</v>
+        <v>38820567</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20902876</v>
+        <v>20945254</v>
       </c>
       <c r="F227" t="n">
-        <v>1643.453225261268</v>
+        <v>1733.066241616376</v>
       </c>
       <c r="G227" t="n">
-        <v>2135.417529001443</v>
+        <v>2407.902508001038</v>
       </c>
       <c r="H227" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I227" t="n">
-        <v>16773305</v>
+        <v>16835185</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>729494</v>
+        <v>734260</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>310.5671950381279</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>38.57843463024913</v>
       </c>
       <c r="H228" t="n">
-        <v>4.11</v>
+        <v>1.89</v>
       </c>
       <c r="I228" t="n">
-        <v>142283</v>
+        <v>134426</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5872751</v>
+        <v>5879248</v>
       </c>
       <c r="E229" t="n">
-        <v>26288955</v>
+        <v>26318037</v>
       </c>
       <c r="F229" t="n">
-        <v>1388.114730440161</v>
+        <v>1011.488908245904</v>
       </c>
       <c r="G229" t="n">
-        <v>1221.670273448589</v>
+        <v>1018.620464857009</v>
       </c>
       <c r="H229" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I229" t="n">
-        <v>149945</v>
+        <v>151095</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6679518</v>
+        <v>6708106</v>
       </c>
       <c r="E230" t="n">
-        <v>12788480</v>
+        <v>12843213</v>
       </c>
       <c r="F230" t="n">
-        <v>2254.951427070845</v>
+        <v>2252.585240298871</v>
       </c>
       <c r="G230" t="n">
-        <v>3965.496300768613</v>
+        <v>3965.370785740266</v>
       </c>
       <c r="H230" t="n">
         <v>0.86</v>
       </c>
       <c r="I230" t="n">
-        <v>103312</v>
+        <v>103130</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3238814</v>
+        <v>3245211</v>
       </c>
       <c r="E231" t="n">
-        <v>21297687</v>
+        <v>21339753</v>
       </c>
       <c r="F231" t="n">
-        <v>2254.318434135607</v>
+        <v>2271.669063101466</v>
       </c>
       <c r="G231" t="n">
-        <v>268.2245830370391</v>
+        <v>522.245010345434</v>
       </c>
       <c r="H231" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="I231" t="n">
-        <v>1345406</v>
+        <v>1282358</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116730385</v>
+        <v>116218573</v>
       </c>
       <c r="E232" t="n">
-        <v>1084575611</v>
+        <v>1079820224</v>
       </c>
       <c r="F232" t="n">
-        <v>237884.8942265186</v>
+        <v>207357.0531228686</v>
       </c>
       <c r="G232" t="n">
-        <v>201851.4197135265</v>
+        <v>236723.5760643654</v>
       </c>
       <c r="H232" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I232" t="n">
-        <v>9917991</v>
+        <v>9792286</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.57</v>
+        <v>7.15</v>
       </c>
       <c r="I233" t="n">
-        <v>824.77</v>
+        <v>687.79</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>115089977</v>
+        <v>113396304</v>
       </c>
       <c r="E234" t="n">
-        <v>175572457</v>
+        <v>172988720</v>
       </c>
       <c r="F234" t="n">
-        <v>100289.4139214983</v>
+        <v>96483.85838949139</v>
       </c>
       <c r="G234" t="n">
-        <v>88205.34683013709</v>
+        <v>94676.54448394776</v>
       </c>
       <c r="H234" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I234" t="n">
-        <v>8733771</v>
+        <v>8665585</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>18144092</v>
+        <v>18332276</v>
       </c>
       <c r="E235" t="n">
-        <v>24892123</v>
+        <v>25150295</v>
       </c>
       <c r="F235" t="n">
-        <v>439.5582191171092</v>
+        <v>1404.106649214705</v>
       </c>
       <c r="G235" t="n">
-        <v>2520.473794137205</v>
+        <v>1128.109361302234</v>
       </c>
       <c r="H235" t="n">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="I235" t="n">
-        <v>611690</v>
+        <v>618086</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>129518969</v>
+        <v>127811914</v>
       </c>
       <c r="E236" t="n">
-        <v>496855612</v>
+        <v>490307076</v>
       </c>
       <c r="F236" t="n">
-        <v>517109.6894502286</v>
+        <v>493329.0852734757</v>
       </c>
       <c r="G236" t="n">
-        <v>449568.4293604313</v>
+        <v>478816.9469287873</v>
       </c>
       <c r="H236" t="n">
         <v>0.1</v>
       </c>
       <c r="I236" t="n">
-        <v>35565140</v>
+        <v>36952827</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>767834</v>
+        <v>776483</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>13.19</v>
+        <v>12.8</v>
       </c>
       <c r="I237" t="n">
-        <v>49398</v>
+        <v>49849</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>770270</v>
+        <v>770411</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>6.73</v>
+        <v>6.6</v>
       </c>
       <c r="I238" t="n">
-        <v>134358</v>
+        <v>143204</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3304552</v>
+        <v>3301476</v>
       </c>
       <c r="E239" t="n">
-        <v>31311117</v>
+        <v>31281977</v>
       </c>
       <c r="F239" t="n">
-        <v>869.338223952218</v>
+        <v>1048.120492642983</v>
       </c>
       <c r="G239" t="n">
-        <v>2114.282534286878</v>
+        <v>2089.229370277654</v>
       </c>
       <c r="H239" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="I239" t="n">
-        <v>227032</v>
+        <v>227023</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>739858</v>
+        <v>742446</v>
       </c>
       <c r="E240" t="n">
-        <v>790904</v>
+        <v>793671</v>
       </c>
       <c r="F240" t="n">
-        <v>1.007329403597275</v>
+        <v>42.52029273606937</v>
       </c>
       <c r="G240" t="n">
-        <v>1611.382612248228</v>
+        <v>1596.373479012019</v>
       </c>
       <c r="H240" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="I240" t="n">
-        <v>103531</v>
+        <v>107107</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>435903</v>
+        <v>438392</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>14.98</v>
+        <v>13.7</v>
       </c>
       <c r="I241" t="n">
-        <v>533.48</v>
+        <v>586.74</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>132746</v>
+        <v>133476</v>
       </c>
       <c r="F242" t="n">
-        <v>216.6265803830944</v>
+        <v>98.57254354833688</v>
       </c>
       <c r="G242" t="n">
-        <v>3.350417802490306</v>
+        <v>32.95121400177576</v>
       </c>
       <c r="H242" t="n">
-        <v>2.19</v>
+        <v>1.47</v>
       </c>
       <c r="I242" t="n">
-        <v>87688</v>
+        <v>87588</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>589945</v>
+        <v>581312</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>116.3884860711593</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>94.19906948445566</v>
       </c>
       <c r="H243" t="n">
-        <v>6</v>
+        <v>2.04</v>
       </c>
       <c r="I243" t="n">
-        <v>2735.58</v>
+        <v>4044.47</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6828286</v>
+        <v>6817237</v>
       </c>
       <c r="E244" t="n">
-        <v>42674836</v>
+        <v>42605783</v>
       </c>
       <c r="F244" t="n">
-        <v>119.8727523250728</v>
+        <v>140.4863856474939</v>
       </c>
       <c r="G244" t="n">
-        <v>189.0822998669993</v>
+        <v>1686.169243720763</v>
       </c>
       <c r="H244" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I244" t="n">
-        <v>422796</v>
+        <v>367913</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5311109</v>
+        <v>5318034</v>
       </c>
       <c r="E245" t="n">
-        <v>19736179</v>
+        <v>19761915</v>
       </c>
       <c r="F245" t="n">
-        <v>3953.548042801621</v>
+        <v>3953.422905956943</v>
       </c>
       <c r="G245" t="n">
-        <v>4187.124916213527</v>
+        <v>4142.062461390326</v>
       </c>
       <c r="H245" t="n">
         <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>79975</v>
+        <v>80711</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3571875</v>
+        <v>3571618</v>
       </c>
       <c r="F246" t="n">
-        <v>200.4759116687217</v>
+        <v>81.52902950212469</v>
       </c>
       <c r="G246" t="n">
-        <v>137.6421501975759</v>
+        <v>176.2674351733071</v>
       </c>
       <c r="H246" t="n">
-        <v>1.24</v>
+        <v>0.52</v>
       </c>
       <c r="I246" t="n">
-        <v>15489.18</v>
+        <v>16172.14</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31498209</v>
+        <v>31488779</v>
       </c>
       <c r="E247" t="n">
-        <v>112900929</v>
+        <v>112867126</v>
       </c>
       <c r="F247" t="n">
-        <v>2247.751806266548</v>
+        <v>2194.038570368993</v>
       </c>
       <c r="G247" t="n">
-        <v>4352.000675485971</v>
+        <v>4310.875607921417</v>
       </c>
       <c r="H247" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I247" t="n">
-        <v>82578</v>
+        <v>81418</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1551025</v>
+        <v>1597678</v>
       </c>
       <c r="F248" t="n">
-        <v>15.73745148551951</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>85.65841174175613</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1.27</v>
+        <v>4.38</v>
       </c>
       <c r="I248" t="n">
-        <v>603173</v>
+        <v>598911</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2205695</v>
+        <v>2215635</v>
       </c>
       <c r="E249" t="n">
-        <v>16965578</v>
+        <v>17042035</v>
       </c>
       <c r="F249" t="n">
-        <v>5006.70551883326</v>
+        <v>5556.531193325543</v>
       </c>
       <c r="G249" t="n">
-        <v>5228.379484133374</v>
+        <v>5176.504336673419</v>
       </c>
       <c r="H249" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="I249" t="n">
-        <v>172831</v>
+        <v>172541</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103460</v>
+        <v>103448</v>
       </c>
       <c r="E250" t="n">
-        <v>821785</v>
+        <v>821687</v>
       </c>
       <c r="F250" t="n">
-        <v>161.1455243061407</v>
+        <v>158.2796369588363</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5658607413237</v>
+        <v>359.5544798407302</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>578.9400000000001</v>
+        <v>572.6</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>88920157</v>
+        <v>89158383</v>
       </c>
       <c r="E251" t="n">
-        <v>328694453</v>
+        <v>329574303</v>
       </c>
       <c r="F251" t="n">
-        <v>4968.240938338187</v>
+        <v>5101.730388750355</v>
       </c>
       <c r="G251" t="n">
-        <v>1267.769135550859</v>
+        <v>1659.097418212379</v>
       </c>
       <c r="H251" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I251" t="n">
-        <v>223127</v>
+        <v>221945</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2281712</v>
+        <v>2216134</v>
       </c>
       <c r="E252" t="n">
-        <v>9147800</v>
+        <v>8884885</v>
       </c>
       <c r="F252" t="n">
-        <v>93.60265590178402</v>
+        <v>686.7957176447436</v>
       </c>
       <c r="G252" t="n">
-        <v>25.35237588206078</v>
+        <v>3.000290585353235</v>
       </c>
       <c r="H252" t="n">
-        <v>3.43</v>
+        <v>1.66</v>
       </c>
       <c r="I252" t="n">
-        <v>21475</v>
+        <v>16171.78</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>602601</v>
+        <v>602637</v>
       </c>
       <c r="F253" t="n">
-        <v>396.1880343152881</v>
+        <v>374.2996100229545</v>
       </c>
       <c r="G253" t="n">
-        <v>3.689790253780983</v>
+        <v>59.76158132575091</v>
       </c>
       <c r="H253" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="I253" t="n">
-        <v>3068.97</v>
+        <v>3057.5</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>39217</v>
+        <v>38709</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>103.7298555015058</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>6.250582710042497</v>
       </c>
       <c r="H254" t="n">
-        <v>5.36</v>
+        <v>0.25</v>
       </c>
       <c r="I254" t="n">
-        <v>4155.62</v>
+        <v>4383.64</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>845032400</v>
+        <v>840488251</v>
       </c>
       <c r="E255" t="n">
-        <v>1303114570</v>
+        <v>1296107091</v>
       </c>
       <c r="F255" t="n">
-        <v>194096.980784643</v>
+        <v>192987.2009808485</v>
       </c>
       <c r="G255" t="n">
-        <v>190807.0099616161</v>
+        <v>227624.6483173089</v>
       </c>
       <c r="H255" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I255" t="n">
-        <v>278867040</v>
+        <v>284439834</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5888212</v>
+        <v>5881732</v>
       </c>
       <c r="E256" t="n">
-        <v>5888212</v>
+        <v>5881732</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.77</v>
+        <v>8.6</v>
       </c>
       <c r="I256" t="n">
-        <v>401.17</v>
+        <v>393.49</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39343120</v>
+        <v>39306001</v>
       </c>
       <c r="E257" t="n">
-        <v>187630162</v>
+        <v>187453142</v>
       </c>
       <c r="F257" t="n">
-        <v>314.6974271354662</v>
+        <v>284.8198670279067</v>
       </c>
       <c r="G257" t="n">
-        <v>184.5375688717324</v>
+        <v>170.4793735581342</v>
       </c>
       <c r="H257" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="I257" t="n">
-        <v>429540</v>
+        <v>430332</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>504352</v>
+        <v>510337</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>12.97</v>
+        <v>13.19</v>
       </c>
       <c r="I258" t="n">
-        <v>384.86</v>
+        <v>392</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23542386</v>
+        <v>23521882</v>
       </c>
       <c r="E259" t="n">
-        <v>39237309</v>
+        <v>39203137</v>
       </c>
       <c r="F259" t="n">
-        <v>9760.590019278774</v>
+        <v>9150.580653887513</v>
       </c>
       <c r="G259" t="n">
-        <v>15657.22324992946</v>
+        <v>16270.0195364046</v>
       </c>
       <c r="H259" t="n">
-        <v>0.43</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I259" t="n">
-        <v>368990</v>
+        <v>290380</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>109425</v>
+        <v>109117</v>
       </c>
       <c r="F260" t="n">
-        <v>302.7305778091023</v>
+        <v>273.3114096611406</v>
       </c>
       <c r="G260" t="n">
-        <v>12.98455298864794</v>
+        <v>12.98399754827988</v>
       </c>
       <c r="H260" t="n">
-        <v>1.61</v>
+        <v>0.11</v>
       </c>
       <c r="I260" t="n">
-        <v>51504</v>
+        <v>51721</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1789742</v>
+        <v>1612564</v>
       </c>
       <c r="E261" t="n">
-        <v>7637672</v>
+        <v>6868820</v>
       </c>
       <c r="F261" t="n">
-        <v>1.790628294229151</v>
+        <v>47.46660844915462</v>
       </c>
       <c r="G261" t="n">
-        <v>3.482793109904113</v>
+        <v>186.8372186187674</v>
       </c>
       <c r="H261" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="I261" t="n">
-        <v>658634</v>
+        <v>682273</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3819925</v>
+        <v>3805360</v>
       </c>
       <c r="E262" t="n">
-        <v>8335028</v>
+        <v>8303247</v>
       </c>
       <c r="F262" t="n">
-        <v>1836.427064346561</v>
+        <v>1942.420264406204</v>
       </c>
       <c r="G262" t="n">
-        <v>1763.575629227133</v>
+        <v>2680.761701319007</v>
       </c>
       <c r="H262" t="n">
         <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>1888769</v>
+        <v>1873480</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>514081912</v>
+        <v>511846539</v>
       </c>
       <c r="E263" t="n">
-        <v>1789476351</v>
+        <v>1781695204</v>
       </c>
       <c r="F263" t="n">
-        <v>566798.1968660451</v>
+        <v>567842.1864260251</v>
       </c>
       <c r="G263" t="n">
-        <v>706786.9941932933</v>
+        <v>719134.9593207989</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>34748794</v>
+        <v>35324745</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5857802348</v>
+        <v>5843357003</v>
       </c>
       <c r="E264" t="n">
-        <v>5857802348</v>
+        <v>5843357003</v>
       </c>
       <c r="F264" t="n">
-        <v>3987.87777477443</v>
+        <v>3718.840607424002</v>
       </c>
       <c r="G264" t="n">
-        <v>2154.797207678553</v>
+        <v>3322.656869429295</v>
       </c>
       <c r="H264" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t="n">
-        <v>16811353</v>
+        <v>17201920</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22537085</v>
+        <v>22499071</v>
       </c>
       <c r="E265" t="n">
-        <v>22517509</v>
+        <v>22479528</v>
       </c>
       <c r="F265" t="n">
-        <v>114.1690588752232</v>
+        <v>636.6654565619313</v>
       </c>
       <c r="G265" t="n">
-        <v>1892.662960799031</v>
+        <v>1665.82506535919</v>
       </c>
       <c r="H265" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I265" t="n">
-        <v>383275</v>
+        <v>385463</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12174465</v>
+        <v>12150030</v>
       </c>
       <c r="E266" t="n">
-        <v>24606810</v>
+        <v>24556166</v>
       </c>
       <c r="F266" t="n">
-        <v>726.1425522445228</v>
+        <v>790.2506836160169</v>
       </c>
       <c r="G266" t="n">
-        <v>667.9774022567399</v>
+        <v>867.947712939906</v>
       </c>
       <c r="H266" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="I266" t="n">
-        <v>45948</v>
+        <v>46900</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>152114</v>
+        <v>150089</v>
       </c>
       <c r="F267" t="n">
-        <v>184.5877204857194</v>
+        <v>184.5818779552486</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1379314126379</v>
+        <v>132.1337490115085</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>58244</v>
+        <v>56859</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>46616</v>
+        <v>47013</v>
       </c>
       <c r="F268" t="n">
-        <v>20.84917489165228</v>
+        <v>14.737221675316</v>
       </c>
       <c r="G268" t="n">
-        <v>264.9815065681858</v>
+        <v>87.8272316012833</v>
       </c>
       <c r="H268" t="n">
-        <v>2.54</v>
+        <v>3.77</v>
       </c>
       <c r="I268" t="n">
-        <v>69442</v>
+        <v>69588</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2609852</v>
+        <v>2634233</v>
       </c>
       <c r="E269" t="n">
-        <v>10439407</v>
+        <v>10536933</v>
       </c>
       <c r="F269" t="n">
-        <v>40618.4553241281</v>
+        <v>51801.35635485836</v>
       </c>
       <c r="G269" t="n">
-        <v>50910.72019521627</v>
+        <v>57297.36339604382</v>
       </c>
       <c r="H269" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="I269" t="n">
-        <v>7005720</v>
+        <v>7007990</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>227318916</v>
+        <v>227186923</v>
       </c>
       <c r="E270" t="n">
-        <v>698920121</v>
+        <v>698514291</v>
       </c>
       <c r="F270" t="n">
-        <v>234258.5038933234</v>
+        <v>272011.3472536474</v>
       </c>
       <c r="G270" t="n">
-        <v>272529.2700244321</v>
+        <v>278592.3796899525</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I270" t="n">
-        <v>16689328</v>
+        <v>16827056</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148656198</v>
+        <v>148542646</v>
       </c>
       <c r="E271" t="n">
-        <v>388360193</v>
+        <v>388063543</v>
       </c>
       <c r="F271" t="n">
-        <v>67305.87625005376</v>
+        <v>54709.47630337843</v>
       </c>
       <c r="G271" t="n">
-        <v>70325.52856455556</v>
+        <v>47715.20358792003</v>
       </c>
       <c r="H271" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I271" t="n">
-        <v>8826964</v>
+        <v>8875263</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2491075</v>
+        <v>2463482</v>
       </c>
       <c r="E272" t="n">
-        <v>3419006</v>
+        <v>3381041</v>
       </c>
       <c r="F272" t="n">
-        <v>8.441633685301918</v>
+        <v>15.45375861506388</v>
       </c>
       <c r="G272" t="n">
-        <v>272.8123823429936</v>
+        <v>204.5301145939474</v>
       </c>
       <c r="H272" t="n">
-        <v>1.26</v>
+        <v>0.84</v>
       </c>
       <c r="I272" t="n">
-        <v>2010089</v>
+        <v>2030250</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56716</v>
+        <v>56709</v>
       </c>
       <c r="F2" t="n">
-        <v>1.948319896282644</v>
+        <v>1.948302845876652</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87823268189247</v>
+        <v>10.87813748280116</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>660.3099999999999</v>
+        <v>660.41</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91513</v>
+        <v>91469</v>
       </c>
       <c r="F3" t="n">
-        <v>12.49645167376256</v>
+        <v>12.49634231308985</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1411880125439</v>
+        <v>416.1375462203415</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1395.86</v>
+        <v>1396.07</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>631216414</v>
+        <v>629997707</v>
       </c>
       <c r="E4" t="n">
-        <v>1224864494</v>
+        <v>1222497410</v>
       </c>
       <c r="F4" t="n">
-        <v>46100.57456649703</v>
+        <v>52145.38830621042</v>
       </c>
       <c r="G4" t="n">
-        <v>45304.11843334885</v>
+        <v>42451.01169950014</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>22769050</v>
+        <v>22750275</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1382042</v>
+        <v>1382147</v>
       </c>
       <c r="E5" t="n">
-        <v>4467326</v>
+        <v>4467667</v>
       </c>
       <c r="F5" t="n">
-        <v>3146.306403775008</v>
+        <v>4975.184267364808</v>
       </c>
       <c r="G5" t="n">
-        <v>8838.993213546115</v>
+        <v>5971.778356910439</v>
       </c>
       <c r="H5" t="n">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="I5" t="n">
-        <v>146066</v>
+        <v>145968</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>152069455</v>
+        <v>152114990</v>
       </c>
       <c r="E6" t="n">
-        <v>168516721</v>
+        <v>168567181</v>
       </c>
       <c r="F6" t="n">
-        <v>253792.5730326354</v>
+        <v>208351.8663148001</v>
       </c>
       <c r="G6" t="n">
-        <v>363237.8091158824</v>
+        <v>420337.8801307913</v>
       </c>
       <c r="H6" t="n">
         <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>40797056</v>
+        <v>40278901</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.74</v>
+        <v>4204.24</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>68.18000000000001</v>
+        <v>68.16</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8494726</v>
+        <v>8500891</v>
       </c>
       <c r="E8" t="n">
-        <v>8708931</v>
+        <v>8715252</v>
       </c>
       <c r="F8" t="n">
-        <v>1143.768115933724</v>
+        <v>1531.845732869607</v>
       </c>
       <c r="G8" t="n">
-        <v>338.4142093159157</v>
+        <v>342.2659160315324</v>
       </c>
       <c r="H8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I8" t="n">
-        <v>93809</v>
+        <v>93771</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285625</v>
+        <v>285490</v>
       </c>
       <c r="F9" t="n">
-        <v>208.277771622851</v>
+        <v>208.2759489136684</v>
       </c>
       <c r="G9" t="n">
-        <v>75.61519752221511</v>
+        <v>75.61453578806179</v>
       </c>
       <c r="H9" t="n">
         <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>435.61</v>
+        <v>435.58</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4978142</v>
+        <v>4957667</v>
       </c>
       <c r="E10" t="n">
-        <v>7953575</v>
+        <v>7920862</v>
       </c>
       <c r="F10" t="n">
-        <v>230.1557776729085</v>
+        <v>230.1312097512805</v>
       </c>
       <c r="G10" t="n">
-        <v>424.0175359664809</v>
+        <v>397.2110809256081</v>
       </c>
       <c r="H10" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I10" t="n">
-        <v>100100</v>
+        <v>99398</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1007481</v>
+        <v>1007019</v>
       </c>
       <c r="E11" t="n">
-        <v>12328846</v>
+        <v>12323202</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.87872621588</v>
+        <v>1569.425949052028</v>
       </c>
       <c r="G11" t="n">
-        <v>1350.382728627624</v>
+        <v>1358.706954934794</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>532</v>
+        <v>523.08</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>592911</v>
+        <v>596211</v>
       </c>
       <c r="E12" t="n">
-        <v>592911</v>
+        <v>596211</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8445260304909</v>
+        <v>83.32288359635862</v>
       </c>
       <c r="G12" t="n">
-        <v>4.191408161367576</v>
+        <v>6.987710866059923</v>
       </c>
       <c r="H12" t="n">
-        <v>2.83</v>
+        <v>1.64</v>
       </c>
       <c r="I12" t="n">
-        <v>35155</v>
+        <v>36491</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4658260</v>
+        <v>4651432</v>
       </c>
       <c r="E13" t="n">
-        <v>28609433</v>
+        <v>28567499</v>
       </c>
       <c r="F13" t="n">
-        <v>1318.976508387075</v>
+        <v>929.0681786673933</v>
       </c>
       <c r="G13" t="n">
-        <v>929.1550006576208</v>
+        <v>924.4007138836662</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I13" t="n">
-        <v>684992</v>
+        <v>684343</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>200613</v>
+        <v>201265</v>
       </c>
       <c r="E14" t="n">
-        <v>2206960</v>
+        <v>2214136</v>
       </c>
       <c r="F14" t="n">
-        <v>418.9310356542223</v>
+        <v>394.5891100047459</v>
       </c>
       <c r="G14" t="n">
-        <v>291.3925673591192</v>
+        <v>291.3909547946047</v>
       </c>
       <c r="H14" t="n">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
       <c r="I14" t="n">
-        <v>32184</v>
+        <v>32302</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3384110</v>
+        <v>3383030</v>
       </c>
       <c r="E15" t="n">
-        <v>9627495</v>
+        <v>9624421</v>
       </c>
       <c r="F15" t="n">
-        <v>269.7812878192602</v>
+        <v>254.6261938576796</v>
       </c>
       <c r="G15" t="n">
-        <v>120.1928442076414</v>
+        <v>282.3800528273241</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="I15" t="n">
-        <v>109889</v>
+        <v>109439</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>318645</v>
+        <v>318958</v>
       </c>
       <c r="E16" t="n">
-        <v>3677546</v>
+        <v>3681156</v>
       </c>
       <c r="F16" t="n">
-        <v>135.1601712412274</v>
+        <v>132.2697635709971</v>
       </c>
       <c r="G16" t="n">
-        <v>131.6581287062169</v>
+        <v>131.7246424897605</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2633.03</v>
+        <v>2631.24</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>940999</v>
+        <v>941372</v>
       </c>
       <c r="F17" t="n">
-        <v>28.38702221896709</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.77312449129363</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.72</v>
+        <v>4.58</v>
       </c>
       <c r="I17" t="n">
-        <v>11514.96</v>
+        <v>11450.89</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23099270</v>
+        <v>23099960</v>
       </c>
       <c r="E18" t="n">
-        <v>23142159</v>
+        <v>23142850</v>
       </c>
       <c r="F18" t="n">
-        <v>2178.719153309222</v>
+        <v>2536.569487874955</v>
       </c>
       <c r="G18" t="n">
-        <v>2115.040408396944</v>
+        <v>2167.883503677937</v>
       </c>
       <c r="H18" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="I18" t="n">
-        <v>838253</v>
+        <v>836297</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7118946</v>
+        <v>6561416</v>
       </c>
       <c r="F19" t="n">
-        <v>166.23474958796</v>
+        <v>78.85328441594275</v>
       </c>
       <c r="G19" t="n">
-        <v>19.26052915522644</v>
+        <v>376.081260821542</v>
       </c>
       <c r="H19" t="n">
-        <v>2.94</v>
+        <v>2.31</v>
       </c>
       <c r="I19" t="n">
-        <v>14423.29</v>
+        <v>17165.68</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2442939</v>
+        <v>2447118</v>
       </c>
       <c r="E20" t="n">
-        <v>2442939</v>
+        <v>2447118</v>
       </c>
       <c r="F20" t="n">
-        <v>233.2569841676909</v>
+        <v>232.6668866702746</v>
       </c>
       <c r="G20" t="n">
-        <v>5387.804945827222</v>
+        <v>5430.129632099553</v>
       </c>
       <c r="H20" t="n">
         <v>1.75</v>
       </c>
       <c r="I20" t="n">
-        <v>314517</v>
+        <v>316878</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>401156</v>
+        <v>401073</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.41</v>
+        <v>5.19</v>
       </c>
       <c r="I21" t="n">
-        <v>2230.88</v>
+        <v>1826.39</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17393220</v>
+        <v>17391426</v>
       </c>
       <c r="E22" t="n">
-        <v>22386501</v>
+        <v>22384193</v>
       </c>
       <c r="F22" t="n">
-        <v>909.9120933740394</v>
+        <v>1011.758497372807</v>
       </c>
       <c r="G22" t="n">
-        <v>9981.28767236768</v>
+        <v>12287.43300772021</v>
       </c>
       <c r="H22" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="I22" t="n">
-        <v>1680281</v>
+        <v>1683931</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>482128294</v>
+        <v>478550583</v>
       </c>
       <c r="E23" t="n">
-        <v>482128296</v>
+        <v>478550585</v>
       </c>
       <c r="F23" t="n">
-        <v>52206.46329970892</v>
+        <v>54330.844649403</v>
       </c>
       <c r="G23" t="n">
-        <v>75076.09107720002</v>
+        <v>69418.93403178811</v>
       </c>
       <c r="H23" t="n">
         <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>64598505</v>
+        <v>63857463</v>
       </c>
     </row>
     <row r="24">
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22829</v>
+        <v>22826</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.58</v>
+        <v>4.68</v>
       </c>
       <c r="I24" t="n">
-        <v>2453.16</v>
+        <v>2453.55</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4750840</v>
+        <v>4760092</v>
       </c>
       <c r="E25" t="n">
-        <v>4750840</v>
+        <v>4760092</v>
       </c>
       <c r="F25" t="n">
-        <v>108.7404118260659</v>
+        <v>88.31374519235818</v>
       </c>
       <c r="G25" t="n">
-        <v>1276.48309085175</v>
+        <v>1217.267997424127</v>
       </c>
       <c r="H25" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="I25" t="n">
-        <v>2037081</v>
+        <v>2048037</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3394859</v>
+        <v>3375774</v>
       </c>
       <c r="E26" t="n">
-        <v>3394859</v>
+        <v>3375774</v>
       </c>
       <c r="F26" t="n">
-        <v>1124.894249047727</v>
+        <v>460.317421111514</v>
       </c>
       <c r="G26" t="n">
-        <v>566.7824793013485</v>
+        <v>501.2635144739176</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>545165</v>
+        <v>546680</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>331171</v>
+        <v>324424</v>
       </c>
       <c r="E27" t="n">
-        <v>1545939</v>
+        <v>1514443</v>
       </c>
       <c r="F27" t="n">
-        <v>449.1008873882126</v>
+        <v>551.7721777923085</v>
       </c>
       <c r="G27" t="n">
-        <v>716.2923331934248</v>
+        <v>317.0840978432323</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="I27" t="n">
-        <v>736938</v>
+        <v>715888</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1481338</v>
+        <v>1487676</v>
       </c>
       <c r="F28" t="n">
-        <v>313.5934725605309</v>
+        <v>290.8368142378386</v>
       </c>
       <c r="G28" t="n">
-        <v>436.3465726937475</v>
+        <v>586.8191032212487</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="I28" t="n">
-        <v>342444</v>
+        <v>345857</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12607624</v>
+        <v>12439902</v>
       </c>
       <c r="E29" t="n">
-        <v>31378095</v>
+        <v>30960665</v>
       </c>
       <c r="F29" t="n">
-        <v>1231.349528851479</v>
+        <v>1267.490528085371</v>
       </c>
       <c r="G29" t="n">
-        <v>1207.249850805204</v>
+        <v>1225.297149008804</v>
       </c>
       <c r="H29" t="n">
-        <v>0.74</v>
+        <v>0.45</v>
       </c>
       <c r="I29" t="n">
-        <v>1283739</v>
+        <v>1319076</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>912988</v>
+        <v>911603</v>
       </c>
       <c r="E30" t="n">
-        <v>6390918</v>
+        <v>6381222</v>
       </c>
       <c r="F30" t="n">
-        <v>548.4987978358491</v>
+        <v>16.32034700122724</v>
       </c>
       <c r="G30" t="n">
-        <v>11.9724912740084</v>
+        <v>230.8308550408206</v>
       </c>
       <c r="H30" t="n">
-        <v>2.49</v>
+        <v>2.97</v>
       </c>
       <c r="I30" t="n">
-        <v>172450</v>
+        <v>216792</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>173899</v>
+        <v>173949</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>12.17</v>
       </c>
       <c r="I31" t="n">
-        <v>865.14</v>
+        <v>865.3099999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5560607</v>
+        <v>5584824</v>
       </c>
       <c r="E32" t="n">
-        <v>5826627</v>
+        <v>5852003</v>
       </c>
       <c r="F32" t="n">
-        <v>483.7985979300128</v>
+        <v>478.7211135697619</v>
       </c>
       <c r="G32" t="n">
-        <v>86.50720616973459</v>
+        <v>14.79237873006084</v>
       </c>
       <c r="H32" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="I32" t="n">
-        <v>183511</v>
+        <v>153446</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5088752</v>
+        <v>5094190</v>
       </c>
       <c r="E33" t="n">
-        <v>7490918</v>
+        <v>7498924</v>
       </c>
       <c r="F33" t="n">
-        <v>331.6434804905812</v>
+        <v>420.6363222152357</v>
       </c>
       <c r="G33" t="n">
-        <v>293.5233761159848</v>
+        <v>304.2975906467707</v>
       </c>
       <c r="H33" t="n">
-        <v>3.02</v>
+        <v>2.43</v>
       </c>
       <c r="I33" t="n">
-        <v>579819</v>
+        <v>582804</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7616077</v>
+        <v>7596647</v>
       </c>
       <c r="E34" t="n">
-        <v>7616077</v>
+        <v>7596647</v>
       </c>
       <c r="F34" t="n">
-        <v>21669.93820268051</v>
+        <v>22098.81432755256</v>
       </c>
       <c r="G34" t="n">
-        <v>11273.72901661582</v>
+        <v>10873.41007883062</v>
       </c>
       <c r="H34" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="I34" t="n">
-        <v>394984</v>
+        <v>400982</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1490869</v>
+        <v>1488966</v>
       </c>
       <c r="E35" t="n">
-        <v>1490869</v>
+        <v>1488966</v>
       </c>
       <c r="F35" t="n">
-        <v>54.31833754874588</v>
+        <v>182.4512377203687</v>
       </c>
       <c r="G35" t="n">
-        <v>193.8269468859305</v>
+        <v>44.77063019747803</v>
       </c>
       <c r="H35" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="I35" t="n">
-        <v>278536</v>
+        <v>277100</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15805994</v>
+        <v>15806228</v>
       </c>
       <c r="F36" t="n">
-        <v>168.2185681959643</v>
+        <v>167.7325011157537</v>
       </c>
       <c r="G36" t="n">
-        <v>189.4179265563183</v>
+        <v>190.0180423341514</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10497.4</v>
+        <v>10678.66</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55474</v>
+        <v>55468</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>783</v>
+        <v>783.12</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>145232824</v>
+        <v>145501226</v>
       </c>
       <c r="E38" t="n">
-        <v>145232824</v>
+        <v>145501226</v>
       </c>
       <c r="F38" t="n">
-        <v>292907.4999740848</v>
+        <v>308221.126621752</v>
       </c>
       <c r="G38" t="n">
-        <v>428801.8392051117</v>
+        <v>433006.9866658789</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>74802421</v>
+        <v>74950064</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>69086657</v>
+        <v>69068854</v>
       </c>
       <c r="E39" t="n">
-        <v>354290549</v>
+        <v>354199249</v>
       </c>
       <c r="F39" t="n">
-        <v>79290.085717204</v>
+        <v>83107.73687780344</v>
       </c>
       <c r="G39" t="n">
-        <v>131764.8650826739</v>
+        <v>131025.5222333568</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>25895646</v>
+        <v>25550729</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46406</v>
+        <v>46401</v>
       </c>
       <c r="E40" t="n">
-        <v>137138</v>
+        <v>137122</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.34</v>
+        <v>15.85</v>
       </c>
       <c r="I40" t="n">
-        <v>118.23</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54750</v>
+        <v>54415</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="I41" t="n">
-        <v>26555</v>
+        <v>26404</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595640</v>
+        <v>595195</v>
       </c>
       <c r="F42" t="n">
-        <v>2158.851257018673</v>
+        <v>2159.251636162564</v>
       </c>
       <c r="G42" t="n">
-        <v>426.3061278382525</v>
+        <v>425.1969015813638</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1309.12</v>
+        <v>1308.14</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2737601</v>
+        <v>2735319</v>
       </c>
       <c r="E44" t="n">
-        <v>11001795</v>
+        <v>10992624</v>
       </c>
       <c r="F44" t="n">
-        <v>52.26687745266784</v>
+        <v>41.13014779653064</v>
       </c>
       <c r="G44" t="n">
-        <v>468.7499669137273</v>
+        <v>467.6017438095848</v>
       </c>
       <c r="H44" t="n">
-        <v>0.89</v>
+        <v>1.79</v>
       </c>
       <c r="I44" t="n">
-        <v>39217</v>
+        <v>39091</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17823827</v>
+        <v>17919443</v>
       </c>
       <c r="E45" t="n">
-        <v>125505132</v>
+        <v>126175003</v>
       </c>
       <c r="F45" t="n">
-        <v>396.2918922253772</v>
+        <v>661.610508646861</v>
       </c>
       <c r="G45" t="n">
-        <v>235.9937416810142</v>
+        <v>255.4313568653569</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="I45" t="n">
-        <v>1085686</v>
+        <v>1084972</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>174572</v>
+        <v>174707</v>
       </c>
       <c r="E46" t="n">
-        <v>2335874</v>
+        <v>2337677</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>52635</v>
+        <v>51962</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>267612455</v>
+        <v>268433015</v>
       </c>
       <c r="E47" t="n">
-        <v>267612455</v>
+        <v>268433015</v>
       </c>
       <c r="F47" t="n">
-        <v>110061.9068801914</v>
+        <v>112033.0525590764</v>
       </c>
       <c r="G47" t="n">
-        <v>184754.8962965741</v>
+        <v>188864.5349559055</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>15469700</v>
+        <v>15108733</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>656142</v>
+        <v>654666</v>
       </c>
       <c r="E48" t="n">
-        <v>656142</v>
+        <v>654666</v>
       </c>
       <c r="F48" t="n">
-        <v>343.6565604998065</v>
+        <v>358.6251624437989</v>
       </c>
       <c r="G48" t="n">
-        <v>89.81186271749807</v>
+        <v>79.01449655431389</v>
       </c>
       <c r="H48" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="I48" t="n">
-        <v>4204.99</v>
+        <v>4195.59</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>442054181</v>
+        <v>441462937</v>
       </c>
       <c r="E50" t="n">
-        <v>442054181</v>
+        <v>441462937</v>
       </c>
       <c r="F50" t="n">
-        <v>3497.33920763393</v>
+        <v>5002.858000957889</v>
       </c>
       <c r="G50" t="n">
-        <v>2059.453361888606</v>
+        <v>2610.043196329797</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I50" t="n">
-        <v>2688923</v>
+        <v>2687801</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2485497</v>
+        <v>2486236</v>
       </c>
       <c r="E51" t="n">
-        <v>2485497</v>
+        <v>2486236</v>
       </c>
       <c r="F51" t="n">
-        <v>162.945364810867</v>
+        <v>162.9679817693167</v>
       </c>
       <c r="G51" t="n">
-        <v>84.33910718376696</v>
+        <v>84.34212453401095</v>
       </c>
       <c r="H51" t="n">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="I51" t="n">
-        <v>55151</v>
+        <v>54985</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22109</v>
+        <v>22106</v>
       </c>
       <c r="E52" t="n">
-        <v>44218</v>
+        <v>44212</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.13</v>
+        <v>5.15</v>
       </c>
       <c r="I52" t="n">
-        <v>1401.77</v>
+        <v>1401.99</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>165120</v>
+        <v>162575</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3.364738379537</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>30.19136816491872</v>
       </c>
       <c r="H53" t="n">
-        <v>5.26</v>
+        <v>3.12</v>
       </c>
       <c r="I53" t="n">
-        <v>21811</v>
+        <v>21701</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2555540</v>
+        <v>2557377</v>
       </c>
       <c r="E54" t="n">
-        <v>6533460</v>
+        <v>6538155</v>
       </c>
       <c r="F54" t="n">
-        <v>225.1213674412661</v>
+        <v>225.1201216521087</v>
       </c>
       <c r="G54" t="n">
-        <v>254.8180630919324</v>
+        <v>254.8166529655472</v>
       </c>
       <c r="H54" t="n">
         <v>1.65</v>
       </c>
       <c r="I54" t="n">
-        <v>103051</v>
+        <v>105015</v>
       </c>
     </row>
     <row r="55">
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3634.28</v>
+        <v>3280.18</v>
       </c>
       <c r="F55" t="n">
-        <v>105.0863200384166</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1749713540716683</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3.08</v>
+        <v>5.41</v>
       </c>
       <c r="I55" t="n">
-        <v>847.3200000000001</v>
+        <v>1505.17</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>75073767</v>
+        <v>75011934</v>
       </c>
       <c r="E56" t="n">
-        <v>75073767</v>
+        <v>75011934</v>
       </c>
       <c r="F56" t="n">
-        <v>22855.55058752662</v>
+        <v>22034.32699986884</v>
       </c>
       <c r="G56" t="n">
-        <v>20002.2849508759</v>
+        <v>18639.00115111518</v>
       </c>
       <c r="H56" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I56" t="n">
-        <v>3504641</v>
+        <v>3490758</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3458438</v>
+        <v>3453760</v>
       </c>
       <c r="E57" t="n">
-        <v>4382445</v>
+        <v>4376518</v>
       </c>
       <c r="F57" t="n">
-        <v>315.9176271952779</v>
+        <v>531.7703917676429</v>
       </c>
       <c r="G57" t="n">
-        <v>113.2126773565735</v>
+        <v>115.4507150828741</v>
       </c>
       <c r="H57" t="n">
         <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>250237</v>
+        <v>242659</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4314312</v>
+        <v>4315154</v>
       </c>
       <c r="E58" t="n">
-        <v>8508187</v>
+        <v>8509847</v>
       </c>
       <c r="F58" t="n">
-        <v>3477.669851716861</v>
+        <v>3451.26868625724</v>
       </c>
       <c r="G58" t="n">
-        <v>2946.607370481327</v>
+        <v>3043.766317084182</v>
       </c>
       <c r="H58" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>1638775</v>
+        <v>1641483</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1641969</v>
+        <v>1618741</v>
       </c>
       <c r="E59" t="n">
-        <v>9427575</v>
+        <v>9294208</v>
       </c>
       <c r="F59" t="n">
-        <v>320.7668298424111</v>
+        <v>300.7925710640309</v>
       </c>
       <c r="G59" t="n">
-        <v>793.5247597778769</v>
+        <v>578.7844492418153</v>
       </c>
       <c r="H59" t="n">
-        <v>1.16</v>
+        <v>0.48</v>
       </c>
       <c r="I59" t="n">
-        <v>292131</v>
+        <v>295233</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>509913</v>
+        <v>505909</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>10.53</v>
+        <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1770.52</v>
+        <v>1779.29</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31242553</v>
+        <v>31218629</v>
       </c>
       <c r="F61" t="n">
-        <v>596.6863565679213</v>
+        <v>594.2839958733018</v>
       </c>
       <c r="G61" t="n">
-        <v>1742.501761733039</v>
+        <v>1768.329860928333</v>
       </c>
       <c r="H61" t="n">
         <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>244304</v>
+        <v>242217</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1451634</v>
+        <v>1454414</v>
       </c>
       <c r="F62" t="n">
-        <v>40.44879150664344</v>
+        <v>36.4482033163979</v>
       </c>
       <c r="G62" t="n">
-        <v>1.41013671541479e-05</v>
+        <v>3.024627806632009</v>
       </c>
       <c r="H62" t="n">
         <v>2.62</v>
       </c>
       <c r="I62" t="n">
-        <v>28597</v>
+        <v>28589</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7713042</v>
+        <v>7704460</v>
       </c>
       <c r="E63" t="n">
-        <v>18165748</v>
+        <v>18145534</v>
       </c>
       <c r="F63" t="n">
-        <v>1097.995839065541</v>
+        <v>1097.990513409872</v>
       </c>
       <c r="G63" t="n">
-        <v>1735.946360729441</v>
+        <v>1696.437364461696</v>
       </c>
       <c r="H63" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="I63" t="n">
-        <v>34374</v>
+        <v>33495</v>
       </c>
     </row>
     <row r="64">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3099650</v>
+        <v>3098433</v>
       </c>
       <c r="E64" t="n">
-        <v>3099650</v>
+        <v>3098433</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="I64" t="n">
-        <v>19671.16</v>
+        <v>18753.33</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3436658</v>
+        <v>3438614</v>
       </c>
       <c r="E65" t="n">
-        <v>8479777</v>
+        <v>8484604</v>
       </c>
       <c r="F65" t="n">
-        <v>612.244057006127</v>
+        <v>618.5637542901568</v>
       </c>
       <c r="G65" t="n">
-        <v>1088.440954047012</v>
+        <v>1024.158688522004</v>
       </c>
       <c r="H65" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="I65" t="n">
-        <v>46388</v>
+        <v>46229</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>259028</v>
+        <v>258918</v>
       </c>
       <c r="F66" t="n">
-        <v>4.126720102741338</v>
+        <v>4.126700086736243</v>
       </c>
       <c r="G66" t="n">
-        <v>56.02606738082665</v>
+        <v>56.02579563522185</v>
       </c>
       <c r="H66" t="n">
         <v>3.39</v>
       </c>
       <c r="I66" t="n">
-        <v>3362.26</v>
+        <v>3319.95</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>79570504</v>
+        <v>79317069</v>
       </c>
       <c r="E67" t="n">
-        <v>165944908</v>
+        <v>165416368</v>
       </c>
       <c r="F67" t="n">
-        <v>56830.85165971398</v>
+        <v>64561.33479569898</v>
       </c>
       <c r="G67" t="n">
-        <v>106480.4512630038</v>
+        <v>90790.61254271447</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I67" t="n">
-        <v>20463605</v>
+        <v>20422865</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1910532</v>
+        <v>1910306</v>
       </c>
       <c r="F68" t="n">
-        <v>10.88394136090471</v>
+        <v>10.88388857006348</v>
       </c>
       <c r="G68" t="n">
-        <v>3.639324989275383</v>
+        <v>3.685954861748338</v>
       </c>
       <c r="H68" t="n">
         <v>3.61</v>
       </c>
       <c r="I68" t="n">
-        <v>3453.81</v>
+        <v>3449.1</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>212519188</v>
+        <v>212366115</v>
       </c>
       <c r="F69" t="n">
-        <v>5089.934509211075</v>
+        <v>4971.613536316129</v>
       </c>
       <c r="G69" t="n">
-        <v>4702.899613541498</v>
+        <v>5111.74659605231</v>
       </c>
       <c r="H69" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I69" t="n">
-        <v>3463506</v>
+        <v>3448995</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179963</v>
+        <v>179880</v>
       </c>
       <c r="E70" t="n">
-        <v>187933</v>
+        <v>187846</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>8.119999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I70" t="n">
-        <v>257.72</v>
+        <v>257.74</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>146673541</v>
+        <v>146766062</v>
       </c>
       <c r="E71" t="n">
-        <v>146727228</v>
+        <v>146819783</v>
       </c>
       <c r="F71" t="n">
-        <v>37559.65584405988</v>
+        <v>35453.91107203643</v>
       </c>
       <c r="G71" t="n">
-        <v>44237.62463446151</v>
+        <v>48960.19766619696</v>
       </c>
       <c r="H71" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I71" t="n">
-        <v>2701146</v>
+        <v>2697075</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26261459</v>
+        <v>26230348</v>
       </c>
       <c r="E72" t="n">
-        <v>86185088</v>
+        <v>86082989</v>
       </c>
       <c r="F72" t="n">
-        <v>7972.810998157265</v>
+        <v>7875.240434703251</v>
       </c>
       <c r="G72" t="n">
-        <v>42135.60995427052</v>
+        <v>35276.7029369727</v>
       </c>
       <c r="H72" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="I72" t="n">
-        <v>100304</v>
+        <v>100663</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>114133</v>
+        <v>114125</v>
       </c>
       <c r="E73" t="n">
-        <v>114133</v>
+        <v>114125</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>6.32</v>
       </c>
       <c r="I73" t="n">
-        <v>1430.91</v>
+        <v>1431.13</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>214947883</v>
+        <v>213709963</v>
       </c>
       <c r="E74" t="n">
-        <v>746748372</v>
+        <v>742447726</v>
       </c>
       <c r="F74" t="n">
-        <v>139232.4593031728</v>
+        <v>153701.2066134959</v>
       </c>
       <c r="G74" t="n">
-        <v>231984.5550187095</v>
+        <v>177986.3740146352</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>33530667</v>
+        <v>30847623</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3776708</v>
+        <v>3738831</v>
       </c>
       <c r="E75" t="n">
-        <v>3776708</v>
+        <v>3738831</v>
       </c>
       <c r="F75" t="n">
-        <v>1099.17281453637</v>
+        <v>538.7224363778371</v>
       </c>
       <c r="G75" t="n">
-        <v>1341.202805117696</v>
+        <v>1986.905729331247</v>
       </c>
       <c r="H75" t="n">
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="I75" t="n">
-        <v>2530161</v>
+        <v>2477549</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>120636321</v>
+        <v>120477137</v>
       </c>
       <c r="E76" t="n">
-        <v>512266678</v>
+        <v>511575583</v>
       </c>
       <c r="F76" t="n">
-        <v>150393.244149131</v>
+        <v>192664.2148951305</v>
       </c>
       <c r="G76" t="n">
-        <v>249838.9210749481</v>
+        <v>156531.3797838544</v>
       </c>
       <c r="H76" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I76" t="n">
-        <v>14510168</v>
+        <v>14521396</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1865316</v>
+        <v>1866461</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22612684149077</v>
+        <v>36.22595113237522</v>
       </c>
       <c r="G77" t="n">
-        <v>311.8081266102495</v>
+        <v>311.8066142341019</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>618.45</v>
+        <v>618.63</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3137571</v>
+        <v>3135595</v>
       </c>
       <c r="E78" t="n">
-        <v>15731152</v>
+        <v>15721244</v>
       </c>
       <c r="F78" t="n">
-        <v>280.3217017111589</v>
+        <v>280.3203420549501</v>
       </c>
       <c r="G78" t="n">
-        <v>845.369781000772</v>
+        <v>845.36568066796</v>
       </c>
       <c r="H78" t="n">
         <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>32404</v>
+        <v>32079</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>535576</v>
+        <v>517825</v>
       </c>
       <c r="E79" t="n">
-        <v>9160997</v>
+        <v>8857368</v>
       </c>
       <c r="F79" t="n">
-        <v>55.85600295586063</v>
+        <v>630.830236728949</v>
       </c>
       <c r="G79" t="n">
-        <v>335.2669547192131</v>
+        <v>342.4485399394828</v>
       </c>
       <c r="H79" t="n">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="I79" t="n">
-        <v>170881</v>
+        <v>185778</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5876898</v>
+        <v>5879748</v>
       </c>
       <c r="E80" t="n">
-        <v>7986487</v>
+        <v>7987111</v>
       </c>
       <c r="F80" t="n">
-        <v>415.3690704430564</v>
+        <v>369.2216347029227</v>
       </c>
       <c r="G80" t="n">
-        <v>1149.225511418519</v>
+        <v>757.1831173139641</v>
       </c>
       <c r="H80" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I80" t="n">
-        <v>5470201</v>
+        <v>5458952</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>43112</v>
+        <v>42681</v>
       </c>
       <c r="F81" t="n">
-        <v>115.172751015485</v>
+        <v>50.70463534356827</v>
       </c>
       <c r="G81" t="n">
-        <v>122.0467198597322</v>
+        <v>194.1954243615338</v>
       </c>
       <c r="H81" t="n">
-        <v>1.56</v>
+        <v>0.59</v>
       </c>
       <c r="I81" t="n">
-        <v>42471</v>
+        <v>42493</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41323913</v>
+        <v>41421265</v>
       </c>
       <c r="E82" t="n">
-        <v>48265349</v>
+        <v>48379054</v>
       </c>
       <c r="F82" t="n">
-        <v>63.65830978213221</v>
+        <v>76.37408021204975</v>
       </c>
       <c r="G82" t="n">
-        <v>527.3866752916057</v>
+        <v>526.2615308703748</v>
       </c>
       <c r="H82" t="n">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="I82" t="n">
-        <v>867938</v>
+        <v>866771</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14869911</v>
+        <v>14916163</v>
       </c>
       <c r="F83" t="n">
-        <v>313.2157912118412</v>
+        <v>277.1114121198057</v>
       </c>
       <c r="G83" t="n">
-        <v>740.4421876969454</v>
+        <v>394.6218809649174</v>
       </c>
       <c r="H83" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="I83" t="n">
-        <v>249983</v>
+        <v>136746</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36704899</v>
+        <v>36719907</v>
       </c>
       <c r="E84" t="n">
-        <v>36704899</v>
+        <v>36719907</v>
       </c>
       <c r="F84" t="n">
-        <v>455.3174495004309</v>
+        <v>217.9357660971389</v>
       </c>
       <c r="G84" t="n">
-        <v>319.0952400263466</v>
+        <v>1634.369132666343</v>
       </c>
       <c r="H84" t="n">
-        <v>2.84</v>
+        <v>1.14</v>
       </c>
       <c r="I84" t="n">
-        <v>815622</v>
+        <v>813895</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>569415</v>
+        <v>567754</v>
       </c>
       <c r="E85" t="n">
-        <v>6906451</v>
+        <v>6886306</v>
       </c>
       <c r="F85" t="n">
-        <v>713.6128866866377</v>
+        <v>592.4807407238497</v>
       </c>
       <c r="G85" t="n">
-        <v>747.7896053150148</v>
+        <v>499.3398724231936</v>
       </c>
       <c r="H85" t="n">
-        <v>0.73</v>
+        <v>1.03</v>
       </c>
       <c r="I85" t="n">
-        <v>2795730</v>
+        <v>2795660</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26321624</v>
+        <v>26798662</v>
       </c>
       <c r="E86" t="n">
-        <v>37204329</v>
+        <v>37878598</v>
       </c>
       <c r="F86" t="n">
-        <v>9.7107676138365</v>
+        <v>351.7013470635034</v>
       </c>
       <c r="G86" t="n">
-        <v>467.0263650974743</v>
+        <v>44.06664880430811</v>
       </c>
       <c r="H86" t="n">
-        <v>1.99</v>
+        <v>3.04</v>
       </c>
       <c r="I86" t="n">
-        <v>73697</v>
+        <v>93015</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1357776129</v>
+        <v>1358190076</v>
       </c>
       <c r="E87" t="n">
-        <v>6510814604</v>
+        <v>6512799563</v>
       </c>
       <c r="F87" t="n">
-        <v>478007.823476608</v>
+        <v>568193.2097332346</v>
       </c>
       <c r="G87" t="n">
-        <v>1090786.846819835</v>
+        <v>1018717.568086638</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I87" t="n">
-        <v>205510636</v>
+        <v>206879291</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>279024847</v>
+        <v>279892627</v>
       </c>
       <c r="E88" t="n">
-        <v>1204426138</v>
+        <v>1208171958</v>
       </c>
       <c r="F88" t="n">
-        <v>822810.315959034</v>
+        <v>951175.648753409</v>
       </c>
       <c r="G88" t="n">
-        <v>1203018.560883839</v>
+        <v>1124171.874831741</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110862177</v>
+        <v>110062845</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>117146545</v>
+        <v>117026394</v>
       </c>
       <c r="E89" t="n">
-        <v>117146545</v>
+        <v>117026394</v>
       </c>
       <c r="F89" t="n">
-        <v>32201.36033931451</v>
+        <v>29744.12221225806</v>
       </c>
       <c r="G89" t="n">
-        <v>28240.82667956221</v>
+        <v>32212.97623786581</v>
       </c>
       <c r="H89" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>6336299</v>
+        <v>6298939</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3857147</v>
+        <v>3856777</v>
       </c>
       <c r="E90" t="n">
-        <v>30015850</v>
+        <v>30012972</v>
       </c>
       <c r="F90" t="n">
-        <v>12394.0895676402</v>
+        <v>12395.0072158448</v>
       </c>
       <c r="G90" t="n">
-        <v>13058.17211334135</v>
+        <v>13044.97721981589</v>
       </c>
       <c r="H90" t="n">
         <v>0.1</v>
       </c>
       <c r="I90" t="n">
-        <v>7016.61</v>
+        <v>3070.32</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3757760</v>
+        <v>3761849</v>
       </c>
       <c r="F91" t="n">
-        <v>919.0801912387077</v>
+        <v>1612.682939002112</v>
       </c>
       <c r="G91" t="n">
-        <v>2382.182357739782</v>
+        <v>3129.639388864424</v>
       </c>
       <c r="H91" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="I91" t="n">
-        <v>306912</v>
+        <v>311379</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>851237</v>
+        <v>851136</v>
       </c>
       <c r="F92" t="n">
-        <v>91.99678920617289</v>
+        <v>31.893107303172</v>
       </c>
       <c r="G92" t="n">
-        <v>1190.654784107149</v>
+        <v>1187.346399804312</v>
       </c>
       <c r="H92" t="n">
-        <v>2.96</v>
+        <v>3.51</v>
       </c>
       <c r="I92" t="n">
-        <v>15365.56</v>
+        <v>15346.78</v>
       </c>
     </row>
     <row r="93">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>114129</v>
+        <v>112383</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>5.2</v>
+        <v>5.74</v>
       </c>
       <c r="I93" t="n">
-        <v>144756</v>
+        <v>144630</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11888215</v>
+        <v>11613777</v>
       </c>
       <c r="E94" t="n">
-        <v>143504449</v>
+        <v>140191661</v>
       </c>
       <c r="F94" t="n">
-        <v>1162.997441134743</v>
+        <v>1887.214665724654</v>
       </c>
       <c r="G94" t="n">
-        <v>1326.29806871067</v>
+        <v>5674.451281813053</v>
       </c>
       <c r="H94" t="n">
-        <v>1.35</v>
+        <v>0.78</v>
       </c>
       <c r="I94" t="n">
-        <v>479566</v>
+        <v>404118</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19839150</v>
+        <v>19827326</v>
       </c>
       <c r="E95" t="n">
-        <v>49597875</v>
+        <v>49568316</v>
       </c>
       <c r="F95" t="n">
-        <v>8477.341777704436</v>
+        <v>10392.19153963079</v>
       </c>
       <c r="G95" t="n">
-        <v>11212.49483376583</v>
+        <v>9017.258152498322</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I95" t="n">
-        <v>2209959</v>
+        <v>1963248</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2342466</v>
+        <v>2339815</v>
       </c>
       <c r="F96" t="n">
-        <v>173.860239177049</v>
+        <v>173.8593958953757</v>
       </c>
       <c r="G96" t="n">
-        <v>160.9425131468448</v>
+        <v>150.0650391651396</v>
       </c>
       <c r="H96" t="n">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="I96" t="n">
-        <v>51023</v>
+        <v>49218</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19760475</v>
+        <v>19743889</v>
       </c>
       <c r="F97" t="n">
-        <v>6330.42018184049</v>
+        <v>6328.756726022362</v>
       </c>
       <c r="G97" t="n">
-        <v>4282.772599258584</v>
+        <v>4281.054608445997</v>
       </c>
       <c r="H97" t="n">
         <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>43392</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4273905</v>
+        <v>4198084</v>
       </c>
       <c r="E98" t="n">
-        <v>12310879</v>
+        <v>12092477</v>
       </c>
       <c r="F98" t="n">
-        <v>263.3530977355363</v>
+        <v>1313.268779357906</v>
       </c>
       <c r="G98" t="n">
-        <v>1273.219767227629</v>
+        <v>1623.70845682428</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9</v>
+        <v>0.66</v>
       </c>
       <c r="I98" t="n">
-        <v>614618</v>
+        <v>604651</v>
       </c>
     </row>
     <row r="99">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1522924</v>
+        <v>1514342</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>3.92</v>
+        <v>4.82</v>
       </c>
       <c r="I99" t="n">
-        <v>267661</v>
+        <v>265397</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80888569</v>
+        <v>80947782</v>
       </c>
       <c r="E100" t="n">
-        <v>102936991</v>
+        <v>103012344</v>
       </c>
       <c r="F100" t="n">
-        <v>4734.066704825712</v>
+        <v>8774.70261293683</v>
       </c>
       <c r="G100" t="n">
-        <v>4849.615473858874</v>
+        <v>5485.804282008769</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="I100" t="n">
-        <v>6274939</v>
+        <v>6246028</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23390691</v>
+        <v>23360902</v>
       </c>
       <c r="E101" t="n">
-        <v>30343077</v>
+        <v>30304434</v>
       </c>
       <c r="F101" t="n">
-        <v>6578.227503398472</v>
+        <v>6318.693470114443</v>
       </c>
       <c r="G101" t="n">
-        <v>6131.121341931148</v>
+        <v>6410.087168399713</v>
       </c>
       <c r="H101" t="n">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="I101" t="n">
-        <v>164701</v>
+        <v>164758</v>
       </c>
     </row>
     <row r="102">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1591662</v>
+        <v>1579262</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>4.43</v>
       </c>
       <c r="I102" t="n">
-        <v>10241.47</v>
+        <v>10028.53</v>
       </c>
     </row>
     <row r="103">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>681436</v>
+        <v>681746</v>
       </c>
       <c r="E103" t="n">
-        <v>681436</v>
+        <v>681746</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>6.1</v>
+        <v>5.81</v>
       </c>
       <c r="I103" t="n">
-        <v>79913</v>
+        <v>80050</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40943572</v>
+        <v>40987926</v>
       </c>
       <c r="E104" t="n">
-        <v>42800673</v>
+        <v>42847039</v>
       </c>
       <c r="F104" t="n">
-        <v>618.3225006221498</v>
+        <v>532.466736087201</v>
       </c>
       <c r="G104" t="n">
-        <v>3915.568787526324</v>
+        <v>2156.675442934962</v>
       </c>
       <c r="H104" t="n">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="I104" t="n">
-        <v>747346</v>
+        <v>747373</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14636892</v>
+        <v>14654901</v>
       </c>
       <c r="E105" t="n">
-        <v>14636892</v>
+        <v>14654901</v>
       </c>
       <c r="F105" t="n">
-        <v>2078.977780247798</v>
+        <v>1973.814083435275</v>
       </c>
       <c r="G105" t="n">
-        <v>4103.533121607476</v>
+        <v>4068.223176669881</v>
       </c>
       <c r="H105" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="I105" t="n">
-        <v>5295384</v>
+        <v>5112215</v>
       </c>
     </row>
     <row r="106">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1179683</v>
+        <v>1179732</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>5.97</v>
+        <v>5.93</v>
       </c>
       <c r="I106" t="n">
-        <v>6361.51</v>
+        <v>6362.62</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51847498</v>
+        <v>51815708</v>
       </c>
       <c r="E107" t="n">
-        <v>132084466</v>
+        <v>132003478</v>
       </c>
       <c r="F107" t="n">
-        <v>3059.850284448285</v>
+        <v>3045.606490292715</v>
       </c>
       <c r="G107" t="n">
-        <v>5026.420598465674</v>
+        <v>3696.706567579506</v>
       </c>
       <c r="H107" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2390598</v>
+        <v>2378651</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15634624</v>
+        <v>15653966</v>
       </c>
       <c r="E108" t="n">
-        <v>75720981</v>
+        <v>75814654</v>
       </c>
       <c r="F108" t="n">
-        <v>9220.776630817691</v>
+        <v>8714.585496620042</v>
       </c>
       <c r="G108" t="n">
-        <v>10184.4116037223</v>
+        <v>12559.77604427006</v>
       </c>
       <c r="H108" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="I108" t="n">
-        <v>4255545</v>
+        <v>4249572</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>517717</v>
+        <v>516935</v>
       </c>
       <c r="F109" t="n">
-        <v>24.471003788782</v>
+        <v>38.99927028822309</v>
       </c>
       <c r="G109" t="n">
-        <v>8.983553355245313</v>
+        <v>8.983503641557574</v>
       </c>
       <c r="H109" t="n">
         <v>1.39</v>
       </c>
       <c r="I109" t="n">
-        <v>7198.75</v>
+        <v>7019.19</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4636523</v>
+        <v>4640626</v>
       </c>
       <c r="E110" t="n">
-        <v>10568750</v>
+        <v>10578102</v>
       </c>
       <c r="F110" t="n">
-        <v>754.0144517342241</v>
+        <v>752.7634729290627</v>
       </c>
       <c r="G110" t="n">
-        <v>2127.895457369034</v>
+        <v>1548.00412276096</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="I110" t="n">
-        <v>83811</v>
+        <v>78409</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1929217566</v>
+        <v>1927626850</v>
       </c>
       <c r="F111" t="n">
-        <v>97275.61222966539</v>
+        <v>101909.2921730566</v>
       </c>
       <c r="G111" t="n">
-        <v>46875.09527221048</v>
+        <v>43306.99950100958</v>
       </c>
       <c r="H111" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I111" t="n">
-        <v>28184516</v>
+        <v>28288512</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9550735</v>
+        <v>9552575</v>
       </c>
       <c r="E112" t="n">
-        <v>34758893</v>
+        <v>34765604</v>
       </c>
       <c r="F112" t="n">
-        <v>474.8076925015153</v>
+        <v>477.9250502087542</v>
       </c>
       <c r="G112" t="n">
-        <v>367.6148439526286</v>
+        <v>417.617148948668</v>
       </c>
       <c r="H112" t="n">
         <v>0.86</v>
       </c>
       <c r="I112" t="n">
-        <v>125335</v>
+        <v>121585</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>564682</v>
+        <v>564295</v>
       </c>
       <c r="F113" t="n">
-        <v>15.59116035067614</v>
+        <v>15.59113754896929</v>
       </c>
       <c r="G113" t="n">
-        <v>32.04582316264921</v>
+        <v>32.04577629638337</v>
       </c>
       <c r="H113" t="n">
         <v>3.06</v>
       </c>
       <c r="I113" t="n">
-        <v>892</v>
+        <v>891.53</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12366927</v>
+        <v>12289353</v>
       </c>
       <c r="E114" t="n">
-        <v>17930259</v>
+        <v>17817789</v>
       </c>
       <c r="F114" t="n">
-        <v>2849.344736423698</v>
+        <v>5697.600809699719</v>
       </c>
       <c r="G114" t="n">
-        <v>5426.795275338857</v>
+        <v>5430.25044696543</v>
       </c>
       <c r="H114" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="I114" t="n">
-        <v>2100840</v>
+        <v>2090372</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1996705</v>
+        <v>1997261</v>
       </c>
       <c r="E115" t="n">
-        <v>14318173</v>
+        <v>14322159</v>
       </c>
       <c r="F115" t="n">
-        <v>968.8800840767393</v>
+        <v>1221.499667678004</v>
       </c>
       <c r="G115" t="n">
-        <v>558.3472907626718</v>
+        <v>1360.083592239042</v>
       </c>
       <c r="H115" t="n">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="I115" t="n">
-        <v>1981918</v>
+        <v>2015014</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2709859</v>
+        <v>2711915</v>
       </c>
       <c r="E116" t="n">
-        <v>5477871</v>
+        <v>5482028</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>8468.66</v>
+        <v>8463.799999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>208396999</v>
+        <v>208155336</v>
       </c>
       <c r="E117" t="n">
-        <v>1180071858</v>
+        <v>1178703410</v>
       </c>
       <c r="F117" t="n">
-        <v>402825.1803411661</v>
+        <v>299082.4653513425</v>
       </c>
       <c r="G117" t="n">
-        <v>363688.2493918784</v>
+        <v>447561.0193834869</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>69198760</v>
+        <v>68903438</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>676011</v>
+        <v>677126</v>
       </c>
       <c r="E118" t="n">
-        <v>2241553</v>
+        <v>2245249</v>
       </c>
       <c r="F118" t="n">
-        <v>8889.869398582736</v>
+        <v>8886.509004567812</v>
       </c>
       <c r="G118" t="n">
-        <v>7085.595404887702</v>
+        <v>5085.725771502767</v>
       </c>
       <c r="H118" t="n">
         <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>11695.55</v>
+        <v>11468.05</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2915151</v>
+        <v>2915338</v>
       </c>
       <c r="E119" t="n">
-        <v>10321319</v>
+        <v>10321982</v>
       </c>
       <c r="F119" t="n">
-        <v>109.5281869013106</v>
+        <v>115.3558414909549</v>
       </c>
       <c r="G119" t="n">
-        <v>1444.592510336275</v>
+        <v>1536.393218913302</v>
       </c>
       <c r="H119" t="n">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="I119" t="n">
-        <v>5524.17</v>
+        <v>5433.03</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1074828</v>
+        <v>1071988</v>
       </c>
       <c r="E120" t="n">
-        <v>1074828</v>
+        <v>1071988</v>
       </c>
       <c r="F120" t="n">
-        <v>101.4881089997816</v>
+        <v>124.83327050974</v>
       </c>
       <c r="G120" t="n">
-        <v>33.82652287169172</v>
+        <v>74.21052306460848</v>
       </c>
       <c r="H120" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="I120" t="n">
-        <v>5958.21</v>
+        <v>5933.59</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>498477</v>
+        <v>500414</v>
       </c>
       <c r="E121" t="n">
-        <v>1677805</v>
+        <v>1684322</v>
       </c>
       <c r="F121" t="n">
-        <v>367.6707297602764</v>
+        <v>367.6701920504453</v>
       </c>
       <c r="G121" t="n">
-        <v>403.3026464588668</v>
+        <v>403.3020566381921</v>
       </c>
       <c r="H121" t="n">
         <v>0.89</v>
       </c>
       <c r="I121" t="n">
-        <v>628990</v>
+        <v>628371</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469188</v>
+        <v>469163</v>
       </c>
       <c r="E122" t="n">
-        <v>870435</v>
+        <v>870388</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>187932</v>
+        <v>185462</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>11059314</v>
+        <v>10731961</v>
       </c>
       <c r="F123" t="n">
-        <v>260.7682282916736</v>
+        <v>439.7581565371834</v>
       </c>
       <c r="G123" t="n">
-        <v>117.2818015619142</v>
+        <v>127.3178958857408</v>
       </c>
       <c r="H123" t="n">
-        <v>2.77</v>
+        <v>0.76</v>
       </c>
       <c r="I123" t="n">
-        <v>12448.25</v>
+        <v>12455.8</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1252563</v>
+        <v>1242136</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5.18</v>
+        <v>5.1</v>
       </c>
       <c r="I124" t="n">
-        <v>2816.64</v>
+        <v>2861.91</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3454982</v>
+        <v>3528450</v>
       </c>
       <c r="E125" t="n">
-        <v>8067959</v>
+        <v>8239520</v>
       </c>
       <c r="F125" t="n">
-        <v>1229.316963250057</v>
+        <v>926.3901192680041</v>
       </c>
       <c r="G125" t="n">
-        <v>1683.590750984868</v>
+        <v>1469.504288727522</v>
       </c>
       <c r="H125" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="I125" t="n">
-        <v>648211</v>
+        <v>683516</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246390</v>
+        <v>246194</v>
       </c>
       <c r="E126" t="n">
-        <v>2174576</v>
+        <v>2172843</v>
       </c>
       <c r="F126" t="n">
-        <v>62.31557473691532</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>17.53400798803273</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3.84</v>
+        <v>4.07</v>
       </c>
       <c r="I126" t="n">
-        <v>89255</v>
+        <v>89085</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>642362</v>
+        <v>642128</v>
       </c>
       <c r="F127" t="n">
-        <v>424.2034128030945</v>
+        <v>424.2027924155385</v>
       </c>
       <c r="G127" t="n">
-        <v>499.9293784140428</v>
+        <v>499.9286472790357</v>
       </c>
       <c r="H127" t="n">
         <v>0.97</v>
       </c>
       <c r="I127" t="n">
-        <v>5214.26</v>
+        <v>5229.8</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4932166</v>
+        <v>4948098</v>
       </c>
       <c r="E128" t="n">
-        <v>17427636</v>
+        <v>17483934</v>
       </c>
       <c r="F128" t="n">
-        <v>1383.008788700319</v>
+        <v>1557.549701144575</v>
       </c>
       <c r="G128" t="n">
-        <v>2016.906902976482</v>
+        <v>2064.007009286457</v>
       </c>
       <c r="H128" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="I128" t="n">
-        <v>112170</v>
+        <v>112693</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2149599</v>
+        <v>2115339</v>
       </c>
       <c r="F129" t="n">
-        <v>58.79873282502973</v>
+        <v>66.66032998818916</v>
       </c>
       <c r="G129" t="n">
-        <v>116.8381556541602</v>
+        <v>317.2304924867477</v>
       </c>
       <c r="H129" t="n">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="I129" t="n">
-        <v>8719.809999999999</v>
+        <v>8552.67</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2559720</v>
+        <v>2573913</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2600.6</v>
+        <v>2612.4</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84161</v>
+        <v>84102</v>
       </c>
       <c r="E131" t="n">
-        <v>84161</v>
+        <v>84102</v>
       </c>
       <c r="F131" t="n">
-        <v>6.213451378869235</v>
+        <v>6.213442291842118</v>
       </c>
       <c r="G131" t="n">
-        <v>162.9029364696677</v>
+        <v>162.9026982279384</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>21821</v>
+        <v>21721</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4309626</v>
+        <v>4321158</v>
       </c>
       <c r="F132" t="n">
-        <v>246.430289121299</v>
+        <v>272.5486106940471</v>
       </c>
       <c r="G132" t="n">
-        <v>220.8844331686111</v>
+        <v>680.4982978007054</v>
       </c>
       <c r="H132" t="n">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="I132" t="n">
-        <v>263170</v>
+        <v>263914</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2146423</v>
+        <v>2143469</v>
       </c>
       <c r="E133" t="n">
-        <v>8765437</v>
+        <v>8753373</v>
       </c>
       <c r="F133" t="n">
-        <v>600.7429092924609</v>
+        <v>596.6948417362527</v>
       </c>
       <c r="G133" t="n">
-        <v>668.2452270701893</v>
+        <v>665.9469148633065</v>
       </c>
       <c r="H133" t="n">
         <v>0.1</v>
       </c>
       <c r="I133" t="n">
-        <v>527462</v>
+        <v>520005</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7456930</v>
+        <v>7495255</v>
       </c>
       <c r="E134" t="n">
-        <v>7512360</v>
+        <v>7550970</v>
       </c>
       <c r="F134" t="n">
-        <v>246689.8708880843</v>
+        <v>302743.0042943863</v>
       </c>
       <c r="G134" t="n">
-        <v>296199.2645242371</v>
+        <v>55090.83301112083</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I134" t="n">
-        <v>4948246</v>
+        <v>4985942</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14241986</v>
+        <v>14196098</v>
       </c>
       <c r="E135" t="n">
-        <v>14290453</v>
+        <v>14244409</v>
       </c>
       <c r="F135" t="n">
-        <v>15478.00427461969</v>
+        <v>14100.67580793973</v>
       </c>
       <c r="G135" t="n">
-        <v>12715.74847817319</v>
+        <v>10318.37358395823</v>
       </c>
       <c r="H135" t="n">
         <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>6384970</v>
+        <v>6247010</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>43481884</v>
+        <v>43462649</v>
       </c>
       <c r="E136" t="n">
-        <v>73822123</v>
+        <v>73789467</v>
       </c>
       <c r="F136" t="n">
-        <v>411.1796465055495</v>
+        <v>372.1325490396343</v>
       </c>
       <c r="G136" t="n">
-        <v>1630.614734659745</v>
+        <v>1456.081980912598</v>
       </c>
       <c r="H136" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>1068340</v>
+        <v>1070554</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22652726</v>
+        <v>22685608</v>
       </c>
       <c r="E137" t="n">
-        <v>67903701</v>
+        <v>68002267</v>
       </c>
       <c r="F137" t="n">
-        <v>81167.42871726961</v>
+        <v>94539.56074438104</v>
       </c>
       <c r="G137" t="n">
-        <v>91509.43842523221</v>
+        <v>82269.34197378575</v>
       </c>
       <c r="H137" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I137" t="n">
-        <v>3562469</v>
+        <v>3561661</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>102229068</v>
+        <v>104416616</v>
       </c>
       <c r="E138" t="n">
-        <v>108678739</v>
+        <v>111004299</v>
       </c>
       <c r="F138" t="n">
-        <v>12614.37081196042</v>
+        <v>11978.68023405579</v>
       </c>
       <c r="G138" t="n">
-        <v>11094.99844145093</v>
+        <v>11256.93898756574</v>
       </c>
       <c r="H138" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I138" t="n">
-        <v>615079</v>
+        <v>1509668</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1166455</v>
+        <v>1166213</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>4.89</v>
       </c>
       <c r="I139" t="n">
-        <v>1252.4</v>
+        <v>1252.57</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258582</v>
+        <v>258551</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>7.83</v>
+        <v>8.19</v>
       </c>
       <c r="I140" t="n">
-        <v>82.89</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91760</v>
+        <v>91774</v>
       </c>
       <c r="E141" t="n">
-        <v>260302</v>
+        <v>260342</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>175.22</v>
+        <v>175.18</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50426424</v>
+        <v>51101329</v>
       </c>
       <c r="E142" t="n">
-        <v>217231523</v>
+        <v>220138939</v>
       </c>
       <c r="F142" t="n">
-        <v>66542.98440209948</v>
+        <v>62415.09008484724</v>
       </c>
       <c r="G142" t="n">
-        <v>90507.96351781687</v>
+        <v>92829.21595066848</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I142" t="n">
-        <v>10070207</v>
+        <v>10256074</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>270000</v>
+        <v>269811</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8.9</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>10508.22</v>
+        <v>10502.89</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9456859</v>
+        <v>9481759</v>
       </c>
       <c r="F144" t="n">
-        <v>1090.436548072566</v>
+        <v>1076.37826461651</v>
       </c>
       <c r="G144" t="n">
-        <v>631.8490228425266</v>
+        <v>633.3429777747371</v>
       </c>
       <c r="H144" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="I144" t="n">
-        <v>98225</v>
+        <v>98590</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1174843</v>
+        <v>1172412</v>
       </c>
       <c r="E145" t="n">
-        <v>7832289</v>
+        <v>7816081</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4601294151307</v>
+        <v>263.4597441108619</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0074558147554</v>
+        <v>105.0073022438107</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5602.34</v>
+        <v>5612.22</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7707561</v>
+        <v>7674742</v>
       </c>
       <c r="F146" t="n">
-        <v>1880.359293643039</v>
+        <v>1957.458973506201</v>
       </c>
       <c r="G146" t="n">
-        <v>60.76766559968062</v>
+        <v>62.37577802423876</v>
       </c>
       <c r="H146" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="I146" t="n">
-        <v>6637204</v>
+        <v>6684375</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>677320</v>
+        <v>677103</v>
       </c>
       <c r="E147" t="n">
-        <v>2444907</v>
+        <v>2444125</v>
       </c>
       <c r="F147" t="n">
-        <v>51.18423813519789</v>
+        <v>35.6342708981417</v>
       </c>
       <c r="G147" t="n">
-        <v>140.5208581052517</v>
+        <v>106.2117218271164</v>
       </c>
       <c r="H147" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="I147" t="n">
-        <v>346273</v>
+        <v>345178</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1716472</v>
+        <v>1717004</v>
       </c>
       <c r="F148" t="n">
-        <v>1.033671145964594</v>
+        <v>25.31041419168193</v>
       </c>
       <c r="G148" t="n">
-        <v>18.44684340989834</v>
+        <v>26.55379370334423</v>
       </c>
       <c r="H148" t="n">
-        <v>3.76</v>
+        <v>3.65</v>
       </c>
       <c r="I148" t="n">
-        <v>75836</v>
+        <v>76707</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>67226</v>
+        <v>67212</v>
       </c>
       <c r="F149" t="n">
-        <v>24.27026600807547</v>
+        <v>24.27013169992613</v>
       </c>
       <c r="G149" t="n">
-        <v>8.127544000723526</v>
+        <v>8.127499024068014</v>
       </c>
       <c r="H149" t="n">
         <v>3.12</v>
       </c>
       <c r="I149" t="n">
-        <v>2141.11</v>
+        <v>2110.11</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13524612</v>
+        <v>13610222</v>
       </c>
       <c r="E150" t="n">
-        <v>13524612</v>
+        <v>13610222</v>
       </c>
       <c r="F150" t="n">
-        <v>469.6846354568978</v>
+        <v>210.8911031065054</v>
       </c>
       <c r="G150" t="n">
-        <v>215.4394878413597</v>
+        <v>670.6400559101061</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="I150" t="n">
-        <v>4034383</v>
+        <v>4058112</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2359492</v>
+        <v>2397212</v>
       </c>
       <c r="E151" t="n">
-        <v>8567708</v>
+        <v>8703809</v>
       </c>
       <c r="F151" t="n">
-        <v>47.38627972464307</v>
+        <v>457.535973915916</v>
       </c>
       <c r="G151" t="n">
-        <v>5.91881276192944</v>
+        <v>28.98048383493327</v>
       </c>
       <c r="H151" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="I151" t="n">
-        <v>187016</v>
+        <v>201080</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1280164</v>
+        <v>1280692</v>
       </c>
       <c r="E152" t="n">
-        <v>1280164</v>
+        <v>1280692</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1465.45</v>
+        <v>1466.05</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23406288</v>
+        <v>23395031</v>
       </c>
       <c r="E153" t="n">
-        <v>27018722</v>
+        <v>27005728</v>
       </c>
       <c r="F153" t="n">
-        <v>345.6340930101599</v>
+        <v>302.6128686423158</v>
       </c>
       <c r="G153" t="n">
-        <v>372.749228548662</v>
+        <v>419.3952625918217</v>
       </c>
       <c r="H153" t="n">
-        <v>0.22</v>
+        <v>0.62</v>
       </c>
       <c r="I153" t="n">
-        <v>738639</v>
+        <v>737464</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442529</v>
+        <v>2442239</v>
       </c>
       <c r="E154" t="n">
-        <v>18379401</v>
+        <v>18377223</v>
       </c>
       <c r="F154" t="n">
-        <v>3530.755143350356</v>
+        <v>3503.41639820921</v>
       </c>
       <c r="G154" t="n">
-        <v>4143.162418544388</v>
+        <v>3996.67680104088</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>163966</v>
+        <v>163970</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20600996</v>
+        <v>20327074</v>
       </c>
       <c r="E155" t="n">
-        <v>82403985</v>
+        <v>81308297</v>
       </c>
       <c r="F155" t="n">
-        <v>13601.55320721793</v>
+        <v>10022.8944442972</v>
       </c>
       <c r="G155" t="n">
-        <v>33446.98906891963</v>
+        <v>28721.40382708434</v>
       </c>
       <c r="H155" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I155" t="n">
-        <v>2475132</v>
+        <v>2486495</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>325425576</v>
+        <v>323465502</v>
       </c>
       <c r="E156" t="n">
-        <v>325425576</v>
+        <v>323465502</v>
       </c>
       <c r="F156" t="n">
-        <v>298542.9462076856</v>
+        <v>394649.7213245266</v>
       </c>
       <c r="G156" t="n">
-        <v>390456.6516875883</v>
+        <v>295650.5209457268</v>
       </c>
       <c r="H156" t="n">
         <v>0.11</v>
       </c>
       <c r="I156" t="n">
-        <v>16308384</v>
+        <v>16294566</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12738724</v>
+        <v>12727370</v>
       </c>
       <c r="E157" t="n">
-        <v>40294981</v>
+        <v>40259067</v>
       </c>
       <c r="F157" t="n">
-        <v>8571.093424194942</v>
+        <v>9543.568387418249</v>
       </c>
       <c r="G157" t="n">
-        <v>14949.37787973874</v>
+        <v>30293.69373279056</v>
       </c>
       <c r="H157" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I157" t="n">
-        <v>959215</v>
+        <v>963052</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1131202</v>
+        <v>1130021</v>
       </c>
       <c r="E158" t="n">
-        <v>2576423</v>
+        <v>2573735</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.96</v>
+        <v>6.62</v>
       </c>
       <c r="I158" t="n">
-        <v>771.67</v>
+        <v>770.87</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19045337</v>
+        <v>18996307</v>
       </c>
       <c r="E159" t="n">
-        <v>19045337</v>
+        <v>18996307</v>
       </c>
       <c r="F159" t="n">
-        <v>17354.55667799104</v>
+        <v>17876.16010696456</v>
       </c>
       <c r="G159" t="n">
-        <v>19737.3563175006</v>
+        <v>17026.30043665316</v>
       </c>
       <c r="H159" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I159" t="n">
-        <v>4803660</v>
+        <v>4792097</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4614242</v>
+        <v>4613286</v>
       </c>
       <c r="E160" t="n">
-        <v>8495314</v>
+        <v>8493552</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12.33</v>
+        <v>13.25</v>
       </c>
       <c r="I160" t="n">
-        <v>65.09999999999999</v>
+        <v>65.11</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>111571</v>
+        <v>111508</v>
       </c>
       <c r="E161" t="n">
-        <v>135078</v>
+        <v>135001</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>8.34</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I161" t="n">
-        <v>3331.3</v>
+        <v>3329.77</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19738945</v>
+        <v>19731570</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>14.23</v>
+        <v>13.97</v>
       </c>
       <c r="I162" t="n">
-        <v>1454.98</v>
+        <v>1453.71</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>433989</v>
+        <v>433636</v>
       </c>
       <c r="E163" t="n">
-        <v>546664</v>
+        <v>546219</v>
       </c>
       <c r="F163" t="n">
-        <v>231.5413681959475</v>
+        <v>223.6552128267844</v>
       </c>
       <c r="G163" t="n">
-        <v>120.2616868232226</v>
+        <v>120.3080268237317</v>
       </c>
       <c r="H163" t="n">
         <v>0.37</v>
       </c>
       <c r="I163" t="n">
-        <v>122538</v>
+        <v>185956</v>
       </c>
     </row>
     <row r="164">
@@ -6140,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>99739</v>
+        <v>103019</v>
       </c>
       <c r="F164" t="n">
-        <v>159.558365851577</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>52.23985992097012</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>3.11</v>
+        <v>4.68</v>
       </c>
       <c r="I164" t="n">
-        <v>2861.37</v>
+        <v>2609.92</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12775352</v>
+        <v>12773828</v>
       </c>
       <c r="E165" t="n">
-        <v>19446967</v>
+        <v>19444647</v>
       </c>
       <c r="F165" t="n">
-        <v>2524.060934864551</v>
+        <v>3296.827187814902</v>
       </c>
       <c r="G165" t="n">
-        <v>4592.840748559123</v>
+        <v>4832.701181172111</v>
       </c>
       <c r="H165" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="I165" t="n">
-        <v>678175</v>
+        <v>668923</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="E166" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="F166" t="n">
-        <v>291021.1825828844</v>
+        <v>361216.4279058803</v>
       </c>
       <c r="G166" t="n">
-        <v>424983.369670863</v>
+        <v>344118.6183192665</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>71947417</v>
+        <v>71496795</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10466663</v>
+        <v>10461594</v>
       </c>
       <c r="E167" t="n">
-        <v>29716601</v>
+        <v>29702210</v>
       </c>
       <c r="F167" t="n">
-        <v>468.6141888488746</v>
+        <v>717.1654724929482</v>
       </c>
       <c r="G167" t="n">
-        <v>72.14861262834</v>
+        <v>72.14850711268382</v>
       </c>
       <c r="H167" t="n">
         <v>0.67</v>
       </c>
       <c r="I167" t="n">
-        <v>124877</v>
+        <v>130458</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11771610</v>
+        <v>11672426</v>
       </c>
       <c r="F168" t="n">
-        <v>280.7461663704588</v>
+        <v>353.1974423933585</v>
       </c>
       <c r="G168" t="n">
-        <v>606.9662215202214</v>
+        <v>1113.403363606285</v>
       </c>
       <c r="H168" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="I168" t="n">
-        <v>75254</v>
+        <v>77935</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4339620</v>
+        <v>4341266</v>
       </c>
       <c r="E169" t="n">
-        <v>29652321</v>
+        <v>29663563</v>
       </c>
       <c r="F169" t="n">
-        <v>1644.97822678249</v>
+        <v>2474.023071833327</v>
       </c>
       <c r="G169" t="n">
-        <v>2000.396262415624</v>
+        <v>2811.193859450251</v>
       </c>
       <c r="H169" t="n">
         <v>0.67</v>
       </c>
       <c r="I169" t="n">
-        <v>2611105</v>
+        <v>2610643</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2956647</v>
+        <v>2950273</v>
       </c>
       <c r="E170" t="n">
-        <v>4381031</v>
+        <v>4371347</v>
       </c>
       <c r="F170" t="n">
-        <v>3862.861245943518</v>
+        <v>2849.561121524226</v>
       </c>
       <c r="G170" t="n">
-        <v>4508.767235285733</v>
+        <v>2354.044929983902</v>
       </c>
       <c r="H170" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
       <c r="I170" t="n">
-        <v>127713</v>
+        <v>130539</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>92973355</v>
+        <v>93260580</v>
       </c>
       <c r="E171" t="n">
-        <v>535752572</v>
+        <v>537407686</v>
       </c>
       <c r="F171" t="n">
-        <v>338484.5518168394</v>
+        <v>436036.7302966802</v>
       </c>
       <c r="G171" t="n">
-        <v>363812.3938823311</v>
+        <v>385794.3932921038</v>
       </c>
       <c r="H171" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I171" t="n">
-        <v>18269264</v>
+        <v>18302084</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13818161</v>
+        <v>13812191</v>
       </c>
       <c r="E172" t="n">
-        <v>13818161</v>
+        <v>13812191</v>
       </c>
       <c r="F172" t="n">
-        <v>4828.647225957826</v>
+        <v>5060.292570442189</v>
       </c>
       <c r="G172" t="n">
-        <v>5199.857488793098</v>
+        <v>5195.377673924683</v>
       </c>
       <c r="H172" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="I172" t="n">
-        <v>614295</v>
+        <v>615467</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6153220</v>
+        <v>6145909</v>
       </c>
       <c r="E173" t="n">
-        <v>17479531</v>
+        <v>17458762</v>
       </c>
       <c r="F173" t="n">
-        <v>1198.208124350326</v>
+        <v>677.3621528568469</v>
       </c>
       <c r="G173" t="n">
-        <v>8765.761691980118</v>
+        <v>8915.728246630142</v>
       </c>
       <c r="H173" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="I173" t="n">
-        <v>159808</v>
+        <v>160711</v>
       </c>
     </row>
     <row r="174">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19537929</v>
+        <v>19577954</v>
       </c>
       <c r="E174" t="n">
-        <v>19537929</v>
+        <v>19577954</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="I174" t="n">
-        <v>131965</v>
+        <v>132428</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1328450</v>
+        <v>1338912</v>
       </c>
       <c r="F175" t="n">
-        <v>89.32587241996443</v>
+        <v>869.3858627237195</v>
       </c>
       <c r="G175" t="n">
-        <v>807.8250434589015</v>
+        <v>196.4612739722715</v>
       </c>
       <c r="H175" t="n">
-        <v>2.22</v>
+        <v>1.63</v>
       </c>
       <c r="I175" t="n">
-        <v>2559.06</v>
+        <v>32554</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>131353</v>
+        <v>129941</v>
       </c>
       <c r="E176" t="n">
-        <v>285954</v>
+        <v>282879</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>7.38</v>
+        <v>6.81</v>
       </c>
       <c r="I176" t="n">
-        <v>48015</v>
+        <v>47384</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2757033</v>
+        <v>2760644</v>
       </c>
       <c r="F177" t="n">
-        <v>330.9683625232971</v>
+        <v>317.1945879882393</v>
       </c>
       <c r="G177" t="n">
-        <v>1448.66684246417</v>
+        <v>2002.613271207678</v>
       </c>
       <c r="H177" t="n">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="I177" t="n">
-        <v>463129</v>
+        <v>462521</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>253939794</v>
+        <v>253609438</v>
       </c>
       <c r="E178" t="n">
-        <v>253942317</v>
+        <v>253611958</v>
       </c>
       <c r="F178" t="n">
-        <v>49899.0799016629</v>
+        <v>49998.65120088911</v>
       </c>
       <c r="G178" t="n">
-        <v>51763.28109575</v>
+        <v>50042.46470578681</v>
       </c>
       <c r="H178" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I178" t="n">
-        <v>2471001</v>
+        <v>2465068</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9502760</v>
+        <v>9545987</v>
       </c>
       <c r="E179" t="n">
-        <v>9502760</v>
+        <v>9545987</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>720.2401371027973</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>56.9595569502296</v>
       </c>
       <c r="H179" t="n">
-        <v>3.96</v>
+        <v>2.28</v>
       </c>
       <c r="I179" t="n">
-        <v>2150008</v>
+        <v>2193683</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>197732</v>
+        <v>199203</v>
       </c>
       <c r="E180" t="n">
-        <v>1526888</v>
+        <v>1538246</v>
       </c>
       <c r="F180" t="n">
-        <v>42.5930890263332</v>
+        <v>42.51676031201401</v>
       </c>
       <c r="G180" t="n">
-        <v>2.737308601232837</v>
+        <v>6.283667857720817</v>
       </c>
       <c r="H180" t="n">
         <v>1.79</v>
       </c>
       <c r="I180" t="n">
-        <v>96128</v>
+        <v>95373</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>31780854</v>
+        <v>31781664</v>
       </c>
       <c r="E181" t="n">
-        <v>142295922</v>
+        <v>142299547</v>
       </c>
       <c r="F181" t="n">
-        <v>48995.74517886365</v>
+        <v>52568.33541836774</v>
       </c>
       <c r="G181" t="n">
-        <v>105906.4783362924</v>
+        <v>73637.86897897538</v>
       </c>
       <c r="H181" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I181" t="n">
-        <v>7941790</v>
+        <v>7952992</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1459305</v>
+        <v>1463192</v>
       </c>
       <c r="F182" t="n">
-        <v>111.3175094027279</v>
+        <v>100.717987803663</v>
       </c>
       <c r="G182" t="n">
-        <v>5546.381213141759</v>
+        <v>4971.930506245657</v>
       </c>
       <c r="H182" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I182" t="n">
-        <v>47043</v>
+        <v>48167</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3251327</v>
+        <v>3229263</v>
       </c>
       <c r="E183" t="n">
-        <v>3251327</v>
+        <v>3229263</v>
       </c>
       <c r="F183" t="n">
-        <v>235.8242413991675</v>
+        <v>393.4251367768695</v>
       </c>
       <c r="G183" t="n">
-        <v>166.9108424164225</v>
+        <v>243.5492246778549</v>
       </c>
       <c r="H183" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="I183" t="n">
-        <v>417200</v>
+        <v>422038</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>584831</v>
+        <v>586074</v>
       </c>
       <c r="E184" t="n">
-        <v>584831</v>
+        <v>586074</v>
       </c>
       <c r="F184" t="n">
-        <v>94.3691004423157</v>
+        <v>91.15696323619133</v>
       </c>
       <c r="G184" t="n">
-        <v>4.752427556817114</v>
+        <v>4.752401257568896</v>
       </c>
       <c r="H184" t="n">
         <v>3.45</v>
       </c>
       <c r="I184" t="n">
-        <v>1122635</v>
+        <v>1125900</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15824030</v>
+        <v>15779338</v>
       </c>
       <c r="E185" t="n">
-        <v>20146516</v>
+        <v>20089617</v>
       </c>
       <c r="F185" t="n">
-        <v>93.94318061838757</v>
+        <v>111.5198038997281</v>
       </c>
       <c r="G185" t="n">
-        <v>194.8465526731761</v>
+        <v>1954.345093143665</v>
       </c>
       <c r="H185" t="n">
-        <v>1.27</v>
+        <v>0.85</v>
       </c>
       <c r="I185" t="n">
-        <v>979092</v>
+        <v>977787</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1784845</v>
+        <v>1788272</v>
       </c>
       <c r="E186" t="n">
-        <v>1784845</v>
+        <v>1788272</v>
       </c>
       <c r="F186" t="n">
-        <v>53.77067283511413</v>
+        <v>53.77203141239966</v>
       </c>
       <c r="G186" t="n">
-        <v>86.78464356157703</v>
+        <v>102.0601043956968</v>
       </c>
       <c r="H186" t="n">
-        <v>1.12</v>
+        <v>0.96</v>
       </c>
       <c r="I186" t="n">
-        <v>3760.24</v>
+        <v>3776.29</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>52265477</v>
+        <v>52170466</v>
       </c>
       <c r="E187" t="n">
-        <v>338927706</v>
+        <v>338311588</v>
       </c>
       <c r="F187" t="n">
-        <v>158980.282898186</v>
+        <v>154899.9616143609</v>
       </c>
       <c r="G187" t="n">
-        <v>226981.8372752658</v>
+        <v>183033.3305494049</v>
       </c>
       <c r="H187" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I187" t="n">
-        <v>17579795</v>
+        <v>17696162</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9092696</v>
+        <v>9094288</v>
       </c>
       <c r="F188" t="n">
-        <v>693.5401186504279</v>
+        <v>728.3819238125311</v>
       </c>
       <c r="G188" t="n">
-        <v>325.1789819163772</v>
+        <v>325.1784265314328</v>
       </c>
       <c r="H188" t="n">
         <v>1.85</v>
       </c>
       <c r="I188" t="n">
-        <v>294307</v>
+        <v>294349</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7339836</v>
+        <v>7392932</v>
       </c>
       <c r="E189" t="n">
-        <v>7349417</v>
+        <v>7402580</v>
       </c>
       <c r="F189" t="n">
-        <v>1620.710660718219</v>
+        <v>286.3544193239756</v>
       </c>
       <c r="G189" t="n">
-        <v>95.34905519381272</v>
+        <v>532.3972017878567</v>
       </c>
       <c r="H189" t="n">
         <v>1.01</v>
       </c>
       <c r="I189" t="n">
-        <v>711488</v>
+        <v>698552</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4877202</v>
+        <v>4825010</v>
       </c>
       <c r="F190" t="n">
-        <v>2122.985812813003</v>
+        <v>1927.473013979319</v>
       </c>
       <c r="G190" t="n">
-        <v>2023.739670684452</v>
+        <v>2636.379325412167</v>
       </c>
       <c r="H190" t="n">
-        <v>0.66</v>
+        <v>1.65</v>
       </c>
       <c r="I190" t="n">
-        <v>201919</v>
+        <v>201471</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>104151364</v>
+        <v>102718157</v>
       </c>
       <c r="E191" t="n">
-        <v>105272483</v>
+        <v>103823848</v>
       </c>
       <c r="F191" t="n">
-        <v>44415.4790044035</v>
+        <v>42843.38777524575</v>
       </c>
       <c r="G191" t="n">
-        <v>37742.33347171936</v>
+        <v>62491.72129353246</v>
       </c>
       <c r="H191" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I191" t="n">
-        <v>50952309</v>
+        <v>51413124</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>252723404</v>
+        <v>251903121</v>
       </c>
       <c r="E192" t="n">
-        <v>252723404</v>
+        <v>251903121</v>
       </c>
       <c r="F192" t="n">
-        <v>88654.63002999993</v>
+        <v>79513.47748447626</v>
       </c>
       <c r="G192" t="n">
-        <v>101883.2207360236</v>
+        <v>118092.9994364241</v>
       </c>
       <c r="H192" t="n">
         <v>0.08</v>
       </c>
       <c r="I192" t="n">
-        <v>52106290</v>
+        <v>52061325</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25152315</v>
+        <v>25072086</v>
       </c>
       <c r="E193" t="n">
-        <v>150491356</v>
+        <v>150011332</v>
       </c>
       <c r="F193" t="n">
-        <v>98849.13328190746</v>
+        <v>92785.05928358174</v>
       </c>
       <c r="G193" t="n">
-        <v>116857.8283921234</v>
+        <v>127545.3195379271</v>
       </c>
       <c r="H193" t="n">
         <v>0.13</v>
       </c>
       <c r="I193" t="n">
-        <v>13184782</v>
+        <v>13227141</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14188230</v>
+        <v>14162104</v>
       </c>
       <c r="E194" t="n">
-        <v>42880769</v>
+        <v>42801808</v>
       </c>
       <c r="F194" t="n">
-        <v>498.9768630325203</v>
+        <v>472.8830370441037</v>
       </c>
       <c r="G194" t="n">
-        <v>624.6997610902578</v>
+        <v>706.8055195829342</v>
       </c>
       <c r="H194" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="I194" t="n">
-        <v>2584641</v>
+        <v>2253901</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54585329</v>
+        <v>54542801</v>
       </c>
       <c r="E195" t="n">
-        <v>94280730</v>
+        <v>94207275</v>
       </c>
       <c r="F195" t="n">
-        <v>14738.73773738978</v>
+        <v>14741.77966591681</v>
       </c>
       <c r="G195" t="n">
-        <v>8895.315830788346</v>
+        <v>8895.375830284178</v>
       </c>
       <c r="H195" t="n">
         <v>0.01</v>
       </c>
       <c r="I195" t="n">
-        <v>2254493</v>
+        <v>2203377</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4354013</v>
+        <v>4348456</v>
       </c>
       <c r="E196" t="n">
-        <v>4354013</v>
+        <v>4348456</v>
       </c>
       <c r="F196" t="n">
-        <v>126.2129125612692</v>
+        <v>245.6365953610303</v>
       </c>
       <c r="G196" t="n">
-        <v>1.048251242682998</v>
+        <v>45.66339713011101</v>
       </c>
       <c r="H196" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="I196" t="n">
-        <v>1763274</v>
+        <v>1766294</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>210202</v>
+        <v>210058</v>
       </c>
       <c r="F197" t="n">
-        <v>16.9046912283643</v>
+        <v>15.46814191374635</v>
       </c>
       <c r="G197" t="n">
-        <v>359.4969989819768</v>
+        <v>26.79048716219955</v>
       </c>
       <c r="H197" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="I197" t="n">
-        <v>54247</v>
+        <v>54223</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6674174</v>
+        <v>6708404</v>
       </c>
       <c r="E198" t="n">
-        <v>34336595</v>
+        <v>34512703</v>
       </c>
       <c r="F198" t="n">
-        <v>266.0214199303109</v>
+        <v>394.922842352365</v>
       </c>
       <c r="G198" t="n">
-        <v>738.5831133054207</v>
+        <v>508.3510443899962</v>
       </c>
       <c r="H198" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="I198" t="n">
-        <v>913003</v>
+        <v>912578</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177778299</v>
+        <v>177606620</v>
       </c>
       <c r="E199" t="n">
-        <v>207697545</v>
+        <v>207496974</v>
       </c>
       <c r="F199" t="n">
-        <v>34398.9454790504</v>
+        <v>52010.16956711953</v>
       </c>
       <c r="G199" t="n">
-        <v>35673.99079871264</v>
+        <v>22793.76722363903</v>
       </c>
       <c r="H199" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I199" t="n">
-        <v>3906393</v>
+        <v>3897604</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>303601</v>
+        <v>303628</v>
       </c>
       <c r="F200" t="n">
-        <v>6.768437821895711</v>
+        <v>5.595831724625607</v>
       </c>
       <c r="G200" t="n">
-        <v>68.92977370645841</v>
+        <v>68.92967289827877</v>
       </c>
       <c r="H200" t="n">
         <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>297228</v>
+        <v>297149</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7994699</v>
+        <v>7989952</v>
       </c>
       <c r="F201" t="n">
-        <v>1071.852340630564</v>
+        <v>1071.86030704484</v>
       </c>
       <c r="G201" t="n">
-        <v>715.6570168686155</v>
+        <v>799.3905635242711</v>
       </c>
       <c r="H201" t="n">
         <v>0.1</v>
       </c>
       <c r="I201" t="n">
-        <v>659416</v>
+        <v>657005</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34009</v>
+        <v>34005</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>605.03</v>
+        <v>605.13</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35605539</v>
+        <v>35579545</v>
       </c>
       <c r="E203" t="n">
-        <v>177688054</v>
+        <v>177558333</v>
       </c>
       <c r="F203" t="n">
-        <v>102144.07289644</v>
+        <v>117369.3274602977</v>
       </c>
       <c r="G203" t="n">
-        <v>108456.4113454251</v>
+        <v>106574.179074231</v>
       </c>
       <c r="H203" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I203" t="n">
-        <v>10670109</v>
+        <v>10692876</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1979797</v>
+        <v>1977211</v>
       </c>
       <c r="E204" t="n">
-        <v>1979797</v>
+        <v>1977211</v>
       </c>
       <c r="F204" t="n">
-        <v>161.1390182321875</v>
+        <v>161.1387825701474</v>
       </c>
       <c r="G204" t="n">
-        <v>6.017875980036404</v>
+        <v>6.017867179033728</v>
       </c>
       <c r="H204" t="n">
         <v>1.67</v>
       </c>
       <c r="I204" t="n">
-        <v>11851.01</v>
+        <v>11839.43</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>169561</v>
+        <v>169558</v>
       </c>
       <c r="F205" t="n">
-        <v>1101.5937325495</v>
+        <v>116.744812087367</v>
       </c>
       <c r="G205" t="n">
-        <v>118.2636777929455</v>
+        <v>118.2635048350866</v>
       </c>
       <c r="H205" t="n">
         <v>1.18</v>
       </c>
       <c r="I205" t="n">
-        <v>12939.16</v>
+        <v>12783.71</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2795.56</v>
+        <v>2998.32</v>
       </c>
       <c r="E206" t="n">
-        <v>33413</v>
+        <v>35837</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.78</v>
+        <v>6.91</v>
       </c>
       <c r="I206" t="n">
-        <v>7770.85</v>
+        <v>7796.45</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>328189549</v>
+        <v>327205270</v>
       </c>
       <c r="E208" t="n">
-        <v>607225509</v>
+        <v>605404369</v>
       </c>
       <c r="F208" t="n">
-        <v>197739.2112805755</v>
+        <v>205499.1692889766</v>
       </c>
       <c r="G208" t="n">
-        <v>249218.1530737655</v>
+        <v>220661.2063114447</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>14612361</v>
+        <v>14631381</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>74302789</v>
+        <v>74221233</v>
       </c>
       <c r="E209" t="n">
-        <v>708788122</v>
+        <v>708006231</v>
       </c>
       <c r="F209" t="n">
-        <v>282093.3473536955</v>
+        <v>318081.912722692</v>
       </c>
       <c r="G209" t="n">
-        <v>371541.9189221556</v>
+        <v>358976.6154130358</v>
       </c>
       <c r="H209" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I209" t="n">
-        <v>22496659</v>
+        <v>22229570</v>
       </c>
     </row>
     <row r="210">
@@ -7742,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2578882</v>
+        <v>2573673</v>
       </c>
       <c r="F210" t="n">
-        <v>178.2229411385562</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>542.4847327076873</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>3.71</v>
+        <v>4.01</v>
       </c>
       <c r="I210" t="n">
-        <v>44095</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>84347</v>
+        <v>84305</v>
       </c>
       <c r="E211" t="n">
-        <v>701193</v>
+        <v>700842</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>4.23</v>
       </c>
       <c r="I211" t="n">
-        <v>71.92</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1907780</v>
+        <v>1911532</v>
       </c>
       <c r="E212" t="n">
-        <v>5448375</v>
+        <v>5459089</v>
       </c>
       <c r="F212" t="n">
-        <v>86.28211879025449</v>
+        <v>251.3357199462933</v>
       </c>
       <c r="G212" t="n">
-        <v>410.4792662332243</v>
+        <v>350.5592778744836</v>
       </c>
       <c r="H212" t="n">
         <v>1.13</v>
       </c>
       <c r="I212" t="n">
-        <v>74458</v>
+        <v>74310</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11064997</v>
+        <v>11031905</v>
       </c>
       <c r="E213" t="n">
-        <v>32824660</v>
+        <v>32721477</v>
       </c>
       <c r="F213" t="n">
-        <v>3305.684483101713</v>
+        <v>3215.869584873356</v>
       </c>
       <c r="G213" t="n">
-        <v>3861.885699166189</v>
+        <v>3507.721889751025</v>
       </c>
       <c r="H213" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I213" t="n">
-        <v>7018334</v>
+        <v>7407887</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14914154</v>
+        <v>14912386</v>
       </c>
       <c r="F214" t="n">
-        <v>19.16428328966729</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>357.1881973515871</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>2.47</v>
+        <v>14.29</v>
       </c>
       <c r="I214" t="n">
-        <v>1253.06</v>
+        <v>1253.27</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2026841</v>
+        <v>2036442</v>
       </c>
       <c r="E215" t="n">
-        <v>5863147</v>
+        <v>5890920</v>
       </c>
       <c r="F215" t="n">
-        <v>65.57948452276571</v>
+        <v>79.84761413719542</v>
       </c>
       <c r="G215" t="n">
-        <v>621.4222713544065</v>
+        <v>119.4774946549344</v>
       </c>
       <c r="H215" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="I215" t="n">
-        <v>60570</v>
+        <v>59544</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2359032</v>
+        <v>2352889</v>
       </c>
       <c r="E216" t="n">
-        <v>20808225</v>
+        <v>20754045</v>
       </c>
       <c r="F216" t="n">
-        <v>124.8433527789826</v>
+        <v>326.4350300127795</v>
       </c>
       <c r="G216" t="n">
-        <v>2322.532030941913</v>
+        <v>1087.132631774423</v>
       </c>
       <c r="H216" t="n">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="I216" t="n">
-        <v>95154</v>
+        <v>93607</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45894217</v>
+        <v>45732220</v>
       </c>
       <c r="E217" t="n">
-        <v>45894217</v>
+        <v>45732220</v>
       </c>
       <c r="F217" t="n">
-        <v>40460.35003079223</v>
+        <v>44828.09820752474</v>
       </c>
       <c r="G217" t="n">
-        <v>35800.02082054473</v>
+        <v>31460.72473476013</v>
       </c>
       <c r="H217" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I217" t="n">
-        <v>7810151</v>
+        <v>7806244</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8292353</v>
+        <v>8310033</v>
       </c>
       <c r="E218" t="n">
-        <v>11814704</v>
+        <v>11839893</v>
       </c>
       <c r="F218" t="n">
-        <v>3813.432418154117</v>
+        <v>3820.086816388511</v>
       </c>
       <c r="G218" t="n">
-        <v>616.0450380979509</v>
+        <v>314.1751845397836</v>
       </c>
       <c r="H218" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="I218" t="n">
-        <v>394066</v>
+        <v>400967</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16488751</v>
+        <v>16632659</v>
       </c>
       <c r="F219" t="n">
-        <v>2.108058530688036</v>
+        <v>1.046313732323114</v>
       </c>
       <c r="G219" t="n">
-        <v>159.0130317032496</v>
+        <v>1.046333634145931</v>
       </c>
       <c r="H219" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="I219" t="n">
-        <v>1032142</v>
+        <v>1031295</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>717725</v>
+        <v>716611</v>
       </c>
       <c r="F220" t="n">
-        <v>84.18606208636969</v>
+        <v>84.18593896622561</v>
       </c>
       <c r="G220" t="n">
-        <v>317.3974756846699</v>
+        <v>317.3970114982954</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>211896</v>
+        <v>212900</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2873778</v>
+        <v>2866689</v>
       </c>
       <c r="E221" t="n">
-        <v>2876267</v>
+        <v>2869171</v>
       </c>
       <c r="F221" t="n">
-        <v>11.22520453638888</v>
+        <v>67.02521886851808</v>
       </c>
       <c r="G221" t="n">
-        <v>451.4087948392831</v>
+        <v>3.360507790348576</v>
       </c>
       <c r="H221" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="I221" t="n">
-        <v>97278</v>
+        <v>107059</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1243664</v>
+        <v>1329950</v>
       </c>
       <c r="E222" t="n">
-        <v>3757825</v>
+        <v>4018334</v>
       </c>
       <c r="F222" t="n">
-        <v>498.0114133420779</v>
+        <v>33.6808598443862</v>
       </c>
       <c r="G222" t="n">
-        <v>313.6847502352782</v>
+        <v>308.7892551402019</v>
       </c>
       <c r="H222" t="n">
-        <v>1.06</v>
+        <v>0.74</v>
       </c>
       <c r="I222" t="n">
-        <v>16644.51</v>
+        <v>27578</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>40090868</v>
+        <v>40380849</v>
       </c>
       <c r="E223" t="n">
-        <v>284237711</v>
+        <v>286293632</v>
       </c>
       <c r="F223" t="n">
-        <v>67134.34248660799</v>
+        <v>62593.3910855123</v>
       </c>
       <c r="G223" t="n">
-        <v>51032.76510021224</v>
+        <v>71880.77461094923</v>
       </c>
       <c r="H223" t="n">
         <v>0.24</v>
       </c>
       <c r="I223" t="n">
-        <v>1897721</v>
+        <v>1899468</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>65218</v>
+        <v>64568</v>
       </c>
       <c r="E224" t="n">
-        <v>340282</v>
+        <v>336890</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>315.6000402929326</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>44.14554000892684</v>
       </c>
       <c r="H224" t="n">
-        <v>4.88</v>
+        <v>3.85</v>
       </c>
       <c r="I224" t="n">
-        <v>305026</v>
+        <v>304046</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1288990</v>
+        <v>1293849</v>
       </c>
       <c r="E225" t="n">
-        <v>7993037</v>
+        <v>8023766</v>
       </c>
       <c r="F225" t="n">
-        <v>2264.963388819892</v>
+        <v>1680.176724206166</v>
       </c>
       <c r="G225" t="n">
-        <v>2046.265134541285</v>
+        <v>1589.892866168919</v>
       </c>
       <c r="H225" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I225" t="n">
-        <v>781230</v>
+        <v>780541</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>628379745</v>
+        <v>626310161</v>
       </c>
       <c r="E226" t="n">
-        <v>2433622043</v>
+        <v>2425606848</v>
       </c>
       <c r="F226" t="n">
-        <v>301065.0860071767</v>
+        <v>280412.0055232393</v>
       </c>
       <c r="G226" t="n">
-        <v>458613.2911546509</v>
+        <v>460614.8613748063</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>38820567</v>
+        <v>38840525</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>20945254</v>
+        <v>21026422</v>
       </c>
       <c r="F227" t="n">
-        <v>1733.066241616376</v>
+        <v>2974.630934722012</v>
       </c>
       <c r="G227" t="n">
-        <v>2407.902508001038</v>
+        <v>1790.850172734743</v>
       </c>
       <c r="H227" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="I227" t="n">
-        <v>16835185</v>
+        <v>16786594</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>734260</v>
+        <v>733366</v>
       </c>
       <c r="F228" t="n">
-        <v>310.5671950381279</v>
+        <v>229.9515838641059</v>
       </c>
       <c r="G228" t="n">
-        <v>38.57843463024913</v>
+        <v>13.14085617664839</v>
       </c>
       <c r="H228" t="n">
         <v>1.89</v>
       </c>
       <c r="I228" t="n">
-        <v>134426</v>
+        <v>134381</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5879248</v>
+        <v>5880331</v>
       </c>
       <c r="E229" t="n">
-        <v>26318037</v>
+        <v>26322884</v>
       </c>
       <c r="F229" t="n">
-        <v>1011.488908245904</v>
+        <v>931.6997435787702</v>
       </c>
       <c r="G229" t="n">
-        <v>1018.620464857009</v>
+        <v>906.375933860186</v>
       </c>
       <c r="H229" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I229" t="n">
-        <v>151095</v>
+        <v>151031</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6708106</v>
+        <v>6741100</v>
       </c>
       <c r="E230" t="n">
-        <v>12843213</v>
+        <v>12906382</v>
       </c>
       <c r="F230" t="n">
-        <v>2252.585240298871</v>
+        <v>4229.361275011561</v>
       </c>
       <c r="G230" t="n">
-        <v>3965.370785740266</v>
+        <v>4006.097866220276</v>
       </c>
       <c r="H230" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
       <c r="I230" t="n">
-        <v>103130</v>
+        <v>103198</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3245211</v>
+        <v>3223376</v>
       </c>
       <c r="E231" t="n">
-        <v>21339753</v>
+        <v>21196172</v>
       </c>
       <c r="F231" t="n">
-        <v>2271.669063101466</v>
+        <v>2326.930564567554</v>
       </c>
       <c r="G231" t="n">
-        <v>522.245010345434</v>
+        <v>257.90988207662</v>
       </c>
       <c r="H231" t="n">
-        <v>1.34</v>
+        <v>2.12</v>
       </c>
       <c r="I231" t="n">
-        <v>1282358</v>
+        <v>1568125</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>116218573</v>
+        <v>115968058</v>
       </c>
       <c r="E232" t="n">
-        <v>1079820224</v>
+        <v>1077492619</v>
       </c>
       <c r="F232" t="n">
-        <v>207357.0531228686</v>
+        <v>220099.4719979895</v>
       </c>
       <c r="G232" t="n">
-        <v>236723.5760643654</v>
+        <v>212553.1665639694</v>
       </c>
       <c r="H232" t="n">
         <v>0.06</v>
       </c>
       <c r="I232" t="n">
-        <v>9792286</v>
+        <v>9790335</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.15</v>
+        <v>7.02</v>
       </c>
       <c r="I233" t="n">
-        <v>687.79</v>
+        <v>687.9</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>113396304</v>
+        <v>113068199</v>
       </c>
       <c r="E234" t="n">
-        <v>172988720</v>
+        <v>172488187</v>
       </c>
       <c r="F234" t="n">
-        <v>96483.85838949139</v>
+        <v>90104.0437755103</v>
       </c>
       <c r="G234" t="n">
-        <v>94676.54448394776</v>
+        <v>90388.72337910628</v>
       </c>
       <c r="H234" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="I234" t="n">
-        <v>8665585</v>
+        <v>8627757</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>18332276</v>
+        <v>18255052</v>
       </c>
       <c r="E235" t="n">
-        <v>25150295</v>
+        <v>25044350</v>
       </c>
       <c r="F235" t="n">
-        <v>1404.106649214705</v>
+        <v>1595.372685567927</v>
       </c>
       <c r="G235" t="n">
-        <v>1128.109361302234</v>
+        <v>1826.775017506671</v>
       </c>
       <c r="H235" t="n">
         <v>0.83</v>
       </c>
       <c r="I235" t="n">
-        <v>618086</v>
+        <v>620555</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>127811914</v>
+        <v>127831282</v>
       </c>
       <c r="E236" t="n">
-        <v>490307076</v>
+        <v>490381374</v>
       </c>
       <c r="F236" t="n">
-        <v>493329.0852734757</v>
+        <v>452966.619433781</v>
       </c>
       <c r="G236" t="n">
-        <v>478816.9469287873</v>
+        <v>550226.0000801324</v>
       </c>
       <c r="H236" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I236" t="n">
-        <v>36952827</v>
+        <v>37562629</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>776483</v>
+        <v>769483</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>12.8</v>
+        <v>12.39</v>
       </c>
       <c r="I237" t="n">
-        <v>49849</v>
+        <v>49818</v>
       </c>
     </row>
     <row r="238">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>770411</v>
+        <v>760137</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8729,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>6.6</v>
+        <v>4.57</v>
       </c>
       <c r="I238" t="n">
-        <v>143204</v>
+        <v>145736</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3301476</v>
+        <v>3292979</v>
       </c>
       <c r="E239" t="n">
-        <v>31281977</v>
+        <v>31201461</v>
       </c>
       <c r="F239" t="n">
-        <v>1048.120492642983</v>
+        <v>1045.568000725459</v>
       </c>
       <c r="G239" t="n">
-        <v>2089.229370277654</v>
+        <v>2111.214520868076</v>
       </c>
       <c r="H239" t="n">
         <v>0.32</v>
       </c>
       <c r="I239" t="n">
-        <v>227023</v>
+        <v>205904</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>742446</v>
+        <v>744241</v>
       </c>
       <c r="E240" t="n">
-        <v>793671</v>
+        <v>795589</v>
       </c>
       <c r="F240" t="n">
-        <v>42.52029273606937</v>
+        <v>42.33822400507957</v>
       </c>
       <c r="G240" t="n">
-        <v>1596.373479012019</v>
+        <v>56.56919993226306</v>
       </c>
       <c r="H240" t="n">
-        <v>3.08</v>
+        <v>2.21</v>
       </c>
       <c r="I240" t="n">
-        <v>107107</v>
+        <v>108040</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>438392</v>
+        <v>438340</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>13.7</v>
+        <v>13.37</v>
       </c>
       <c r="I241" t="n">
-        <v>586.74</v>
+        <v>586.83</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>133476</v>
+        <v>134176</v>
       </c>
       <c r="F242" t="n">
-        <v>98.57254354833688</v>
+        <v>217.0387281701194</v>
       </c>
       <c r="G242" t="n">
-        <v>32.95121400177576</v>
+        <v>32.95116581139703</v>
       </c>
       <c r="H242" t="n">
-        <v>1.47</v>
+        <v>2.19</v>
       </c>
       <c r="I242" t="n">
-        <v>87588</v>
+        <v>87558</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>581312</v>
+        <v>575857</v>
       </c>
       <c r="F243" t="n">
-        <v>116.3884860711593</v>
+        <v>14.61549443939879</v>
       </c>
       <c r="G243" t="n">
-        <v>94.19906948445566</v>
+        <v>70.88291959698091</v>
       </c>
       <c r="H243" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="I243" t="n">
-        <v>4044.47</v>
+        <v>4149.36</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6817237</v>
+        <v>6837299</v>
       </c>
       <c r="E244" t="n">
-        <v>42605783</v>
+        <v>42731164</v>
       </c>
       <c r="F244" t="n">
-        <v>140.4863856474939</v>
+        <v>145.6115736264265</v>
       </c>
       <c r="G244" t="n">
-        <v>1686.169243720763</v>
+        <v>1573.853253893958</v>
       </c>
       <c r="H244" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I244" t="n">
-        <v>367913</v>
+        <v>367100</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5318034</v>
+        <v>5315653</v>
       </c>
       <c r="E245" t="n">
-        <v>19761915</v>
+        <v>19753067</v>
       </c>
       <c r="F245" t="n">
-        <v>3953.422905956943</v>
+        <v>3953.417124168536</v>
       </c>
       <c r="G245" t="n">
-        <v>4142.062461390326</v>
+        <v>4185.831275080214</v>
       </c>
       <c r="H245" t="n">
         <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>80711</v>
+        <v>81190</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3571618</v>
+        <v>3631348</v>
       </c>
       <c r="F246" t="n">
-        <v>81.52902950212469</v>
+        <v>129.0782933361998</v>
       </c>
       <c r="G246" t="n">
-        <v>176.2674351733071</v>
+        <v>1994.868360848019</v>
       </c>
       <c r="H246" t="n">
-        <v>0.52</v>
+        <v>1.68</v>
       </c>
       <c r="I246" t="n">
-        <v>16172.14</v>
+        <v>18572.48</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31488779</v>
+        <v>31521936</v>
       </c>
       <c r="E247" t="n">
-        <v>112867126</v>
+        <v>112985972</v>
       </c>
       <c r="F247" t="n">
-        <v>2194.038570368993</v>
+        <v>2253.701796513309</v>
       </c>
       <c r="G247" t="n">
-        <v>4310.875607921417</v>
+        <v>4396.086568452632</v>
       </c>
       <c r="H247" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
       <c r="I247" t="n">
-        <v>81418</v>
+        <v>81040</v>
       </c>
     </row>
     <row r="248">
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1597678</v>
+        <v>1585849</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -9079,10 +9079,10 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="I248" t="n">
-        <v>598911</v>
+        <v>599272</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2215635</v>
+        <v>2216423</v>
       </c>
       <c r="E249" t="n">
-        <v>17042035</v>
+        <v>17048094</v>
       </c>
       <c r="F249" t="n">
-        <v>5556.531193325543</v>
+        <v>5547.612108870337</v>
       </c>
       <c r="G249" t="n">
-        <v>5176.504336673419</v>
+        <v>5778.922776013463</v>
       </c>
       <c r="H249" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I249" t="n">
-        <v>172541</v>
+        <v>172222</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103448</v>
+        <v>103414</v>
       </c>
       <c r="E250" t="n">
-        <v>821687</v>
+        <v>821419</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2796369588363</v>
+        <v>158.2794054785743</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5544798407302</v>
+        <v>359.5539540007245</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>572.6</v>
+        <v>572.98</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89158383</v>
+        <v>89085615</v>
       </c>
       <c r="E251" t="n">
-        <v>329574303</v>
+        <v>329304558</v>
       </c>
       <c r="F251" t="n">
-        <v>5101.730388750355</v>
+        <v>5100.45519437692</v>
       </c>
       <c r="G251" t="n">
-        <v>1659.097418212379</v>
+        <v>1617.694238608535</v>
       </c>
       <c r="H251" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I251" t="n">
-        <v>221945</v>
+        <v>216301</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2216134</v>
+        <v>2215361</v>
       </c>
       <c r="E252" t="n">
-        <v>8884885</v>
+        <v>8881787</v>
       </c>
       <c r="F252" t="n">
-        <v>686.7957176447436</v>
+        <v>679.6945781176752</v>
       </c>
       <c r="G252" t="n">
-        <v>3.000290585353235</v>
+        <v>3.000286197498523</v>
       </c>
       <c r="H252" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="I252" t="n">
-        <v>16171.78</v>
+        <v>15884.24</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>602637</v>
+        <v>602599</v>
       </c>
       <c r="F253" t="n">
-        <v>374.2996100229545</v>
+        <v>430.1796205757908</v>
       </c>
       <c r="G253" t="n">
-        <v>59.76158132575091</v>
+        <v>3.902298236167679</v>
       </c>
       <c r="H253" t="n">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="I253" t="n">
-        <v>3057.5</v>
+        <v>3047.58</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38709</v>
+        <v>38706</v>
       </c>
       <c r="F254" t="n">
-        <v>103.7298555015058</v>
+        <v>103.7297037990216</v>
       </c>
       <c r="G254" t="n">
-        <v>6.250582710042497</v>
+        <v>6.250573568711679</v>
       </c>
       <c r="H254" t="n">
         <v>0.25</v>
       </c>
       <c r="I254" t="n">
-        <v>4383.64</v>
+        <v>4384.34</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>840488251</v>
+        <v>844222194</v>
       </c>
       <c r="E255" t="n">
-        <v>1296107091</v>
+        <v>1301865161</v>
       </c>
       <c r="F255" t="n">
-        <v>192987.2009808485</v>
+        <v>191477.7023958153</v>
       </c>
       <c r="G255" t="n">
-        <v>227624.6483173089</v>
+        <v>213311.975289226</v>
       </c>
       <c r="H255" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I255" t="n">
-        <v>284439834</v>
+        <v>307866963</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5881732</v>
+        <v>5881742</v>
       </c>
       <c r="E256" t="n">
-        <v>5881732</v>
+        <v>5881742</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>8.6</v>
+        <v>9.41</v>
       </c>
       <c r="I256" t="n">
-        <v>393.49</v>
+        <v>393.42</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39306001</v>
+        <v>39741654</v>
       </c>
       <c r="E257" t="n">
-        <v>187453142</v>
+        <v>189530799</v>
       </c>
       <c r="F257" t="n">
-        <v>284.8198670279067</v>
+        <v>259.6211544027856</v>
       </c>
       <c r="G257" t="n">
-        <v>170.4793735581342</v>
+        <v>201.0366492928578</v>
       </c>
       <c r="H257" t="n">
         <v>0.12</v>
       </c>
       <c r="I257" t="n">
-        <v>430332</v>
+        <v>429897</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>510337</v>
+        <v>510277</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>13.19</v>
+        <v>13.3</v>
       </c>
       <c r="I258" t="n">
-        <v>392</v>
+        <v>392.06</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23521882</v>
+        <v>23513137</v>
       </c>
       <c r="E259" t="n">
-        <v>39203137</v>
+        <v>39188561</v>
       </c>
       <c r="F259" t="n">
-        <v>9150.580653887513</v>
+        <v>9373.971484065198</v>
       </c>
       <c r="G259" t="n">
-        <v>16270.0195364046</v>
+        <v>19186.66173357013</v>
       </c>
       <c r="H259" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="I259" t="n">
-        <v>290380</v>
+        <v>281758</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>109117</v>
+        <v>108857</v>
       </c>
       <c r="F260" t="n">
-        <v>273.3114096611406</v>
+        <v>228.9570362453086</v>
       </c>
       <c r="G260" t="n">
-        <v>12.98399754827988</v>
+        <v>21.24339425946798</v>
       </c>
       <c r="H260" t="n">
-        <v>0.11</v>
+        <v>0.66</v>
       </c>
       <c r="I260" t="n">
-        <v>51721</v>
+        <v>51863</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1612564</v>
+        <v>1589505</v>
       </c>
       <c r="E261" t="n">
-        <v>6868820</v>
+        <v>6770468</v>
       </c>
       <c r="F261" t="n">
-        <v>47.46660844915462</v>
+        <v>86.69764742701106</v>
       </c>
       <c r="G261" t="n">
-        <v>186.8372186187674</v>
+        <v>39.57406595917813</v>
       </c>
       <c r="H261" t="n">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="I261" t="n">
-        <v>682273</v>
+        <v>693132</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3805360</v>
+        <v>3805509</v>
       </c>
       <c r="E262" t="n">
-        <v>8303247</v>
+        <v>8303572</v>
       </c>
       <c r="F262" t="n">
-        <v>1942.420264406204</v>
+        <v>1913.343445909845</v>
       </c>
       <c r="G262" t="n">
-        <v>2680.761701319007</v>
+        <v>2642.934688590933</v>
       </c>
       <c r="H262" t="n">
         <v>0.84</v>
       </c>
       <c r="I262" t="n">
-        <v>1873480</v>
+        <v>1854584</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>511846539</v>
+        <v>510246437</v>
       </c>
       <c r="E263" t="n">
-        <v>1781695204</v>
+        <v>1776125384</v>
       </c>
       <c r="F263" t="n">
-        <v>567842.1864260251</v>
+        <v>716059.8045473474</v>
       </c>
       <c r="G263" t="n">
-        <v>719134.9593207989</v>
+        <v>676352.4091789898</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>35324745</v>
+        <v>35393584</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5843357003</v>
+        <v>5845948388</v>
       </c>
       <c r="E264" t="n">
-        <v>5843357003</v>
+        <v>5845948388</v>
       </c>
       <c r="F264" t="n">
-        <v>3718.840607424002</v>
+        <v>1909.110591257152</v>
       </c>
       <c r="G264" t="n">
-        <v>3322.656869429295</v>
+        <v>2366.51760936195</v>
       </c>
       <c r="H264" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I264" t="n">
-        <v>17201920</v>
+        <v>16720103</v>
       </c>
     </row>
     <row r="265">
@@ -9658,22 +9658,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>22499071</v>
+        <v>22334988</v>
       </c>
       <c r="E265" t="n">
-        <v>22479528</v>
+        <v>22315587</v>
       </c>
       <c r="F265" t="n">
-        <v>636.6654565619313</v>
+        <v>747.385400584312</v>
       </c>
       <c r="G265" t="n">
-        <v>1665.82506535919</v>
+        <v>1050.322594678335</v>
       </c>
       <c r="H265" t="n">
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
       <c r="I265" t="n">
-        <v>385463</v>
+        <v>387571</v>
       </c>
     </row>
     <row r="266">
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>12150030</v>
+        <v>12146604</v>
       </c>
       <c r="E266" t="n">
-        <v>24556166</v>
+        <v>24547485</v>
       </c>
       <c r="F266" t="n">
-        <v>790.2506836160169</v>
+        <v>790.0605343829039</v>
       </c>
       <c r="G266" t="n">
-        <v>867.947712939906</v>
+        <v>921.0336863700196</v>
       </c>
       <c r="H266" t="n">
         <v>1.07</v>
       </c>
       <c r="I266" t="n">
-        <v>46900</v>
+        <v>46859</v>
       </c>
     </row>
     <row r="267">
@@ -9731,19 +9731,19 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>150089</v>
+        <v>148658</v>
       </c>
       <c r="F267" t="n">
-        <v>184.5818779552486</v>
+        <v>182.555698454651</v>
       </c>
       <c r="G267" t="n">
-        <v>132.1337490115085</v>
+        <v>132.1335557689953</v>
       </c>
       <c r="H267" t="n">
         <v>0.75</v>
       </c>
       <c r="I267" t="n">
-        <v>56859</v>
+        <v>56377</v>
       </c>
     </row>
     <row r="268">
@@ -9766,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>47013</v>
+        <v>47008</v>
       </c>
       <c r="F268" t="n">
-        <v>14.737221675316</v>
+        <v>9.684350375800895</v>
       </c>
       <c r="G268" t="n">
-        <v>87.8272316012833</v>
+        <v>140.6695320007162</v>
       </c>
       <c r="H268" t="n">
-        <v>3.77</v>
+        <v>3.15</v>
       </c>
       <c r="I268" t="n">
-        <v>69588</v>
+        <v>69628</v>
       </c>
     </row>
     <row r="269">
@@ -9798,22 +9798,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2634233</v>
+        <v>2633052</v>
       </c>
       <c r="E269" t="n">
-        <v>10536933</v>
+        <v>10532207</v>
       </c>
       <c r="F269" t="n">
-        <v>51801.35635485836</v>
+        <v>52808.48057856588</v>
       </c>
       <c r="G269" t="n">
-        <v>57297.36339604382</v>
+        <v>53425.67147704478</v>
       </c>
       <c r="H269" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I269" t="n">
-        <v>7007990</v>
+        <v>7011125</v>
       </c>
     </row>
     <row r="270">
@@ -9833,22 +9833,22 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>227186923</v>
+        <v>227110853</v>
       </c>
       <c r="E270" t="n">
-        <v>698514291</v>
+        <v>698280405</v>
       </c>
       <c r="F270" t="n">
-        <v>272011.3472536474</v>
+        <v>228832.8982452106</v>
       </c>
       <c r="G270" t="n">
-        <v>278592.3796899525</v>
+        <v>339247.9237477118</v>
       </c>
       <c r="H270" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I270" t="n">
-        <v>16827056</v>
+        <v>16909944</v>
       </c>
     </row>
     <row r="271">
@@ -9868,22 +9868,22 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>148542646</v>
+        <v>148077366</v>
       </c>
       <c r="E271" t="n">
-        <v>388063543</v>
+        <v>386848011</v>
       </c>
       <c r="F271" t="n">
-        <v>54709.47630337843</v>
+        <v>66182.85814333828</v>
       </c>
       <c r="G271" t="n">
-        <v>47715.20358792003</v>
+        <v>51680.74347644145</v>
       </c>
       <c r="H271" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="I271" t="n">
-        <v>8875263</v>
+        <v>8712839</v>
       </c>
     </row>
     <row r="272">
@@ -9903,22 +9903,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2463482</v>
+        <v>2477938</v>
       </c>
       <c r="E272" t="n">
-        <v>3381041</v>
+        <v>3400853</v>
       </c>
       <c r="F272" t="n">
-        <v>15.45375861506388</v>
+        <v>14.34432320270902</v>
       </c>
       <c r="G272" t="n">
-        <v>204.5301145939474</v>
+        <v>204.5298154734451</v>
       </c>
       <c r="H272" t="n">
         <v>0.84</v>
       </c>
       <c r="I272" t="n">
-        <v>2030250</v>
+        <v>2028394</v>
       </c>
     </row>
   </sheetData>

--- a/GateioData20250221.xlsx
+++ b/GateioData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56709</v>
+        <v>56715</v>
       </c>
       <c r="F2" t="n">
-        <v>1.948302845876652</v>
+        <v>1.9483783720808</v>
       </c>
       <c r="G2" t="n">
-        <v>10.87813748280116</v>
+        <v>10.87855917516486</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>660.41</v>
+        <v>637.5700000000001</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91469</v>
+        <v>91499</v>
       </c>
       <c r="F3" t="n">
-        <v>12.49634231308985</v>
+        <v>12.49682673536674</v>
       </c>
       <c r="G3" t="n">
-        <v>416.1375462203415</v>
+        <v>374.4204633678794</v>
       </c>
       <c r="H3" t="n">
         <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1396.07</v>
+        <v>1504.26</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>629997707</v>
+        <v>638658316</v>
       </c>
       <c r="E4" t="n">
-        <v>1222497410</v>
+        <v>1239323467</v>
       </c>
       <c r="F4" t="n">
-        <v>52145.38830621042</v>
+        <v>42172.88853299109</v>
       </c>
       <c r="G4" t="n">
-        <v>42451.01169950014</v>
+        <v>49205.27976290308</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>22750275</v>
+        <v>22617862</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1382147</v>
+        <v>1451180</v>
       </c>
       <c r="E5" t="n">
-        <v>4467667</v>
+        <v>4690808</v>
       </c>
       <c r="F5" t="n">
-        <v>4975.184267364808</v>
+        <v>1750.896818718426</v>
       </c>
       <c r="G5" t="n">
-        <v>5971.778356910439</v>
+        <v>3999.741616836202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.67</v>
+        <v>1.05</v>
       </c>
       <c r="I5" t="n">
-        <v>145968</v>
+        <v>176352</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>152114990</v>
+        <v>154054225</v>
       </c>
       <c r="E6" t="n">
-        <v>168567181</v>
+        <v>170716156</v>
       </c>
       <c r="F6" t="n">
-        <v>208351.8663148001</v>
+        <v>225787.923860799</v>
       </c>
       <c r="G6" t="n">
-        <v>420337.8801307913</v>
+        <v>323581.4734051297</v>
       </c>
       <c r="H6" t="n">
         <v>0.12</v>
       </c>
       <c r="I6" t="n">
-        <v>40278901</v>
+        <v>42612556</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4204.24</v>
+        <v>3823.47</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>9.09</v>
       </c>
       <c r="I7" t="n">
-        <v>68.16</v>
+        <v>81.31999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8500891</v>
+        <v>8607731</v>
       </c>
       <c r="E8" t="n">
-        <v>8715252</v>
+        <v>8824786</v>
       </c>
       <c r="F8" t="n">
-        <v>1531.845732869607</v>
+        <v>1114.91929756604</v>
       </c>
       <c r="G8" t="n">
-        <v>342.2659160315324</v>
+        <v>354.0956631690455</v>
       </c>
       <c r="H8" t="n">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>93771</v>
+        <v>87954</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>285490</v>
+        <v>289514</v>
       </c>
       <c r="F9" t="n">
-        <v>208.2759489136684</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>75.61453578806179</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77</v>
+        <v>7.59</v>
       </c>
       <c r="I9" t="n">
-        <v>435.58</v>
+        <v>1097.76</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4957667</v>
+        <v>4965476</v>
       </c>
       <c r="E10" t="n">
-        <v>7920862</v>
+        <v>7933338</v>
       </c>
       <c r="F10" t="n">
-        <v>230.1312097512805</v>
+        <v>198.4018973617595</v>
       </c>
       <c r="G10" t="n">
-        <v>397.2110809256081</v>
+        <v>392.6220404732539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>99398</v>
+        <v>98528</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1007019</v>
+        <v>1006188</v>
       </c>
       <c r="E11" t="n">
-        <v>12323202</v>
+        <v>12313023</v>
       </c>
       <c r="F11" t="n">
-        <v>1569.425949052028</v>
+        <v>1568.584619303653</v>
       </c>
       <c r="G11" t="n">
-        <v>1358.706954934794</v>
+        <v>1339.054322534737</v>
       </c>
       <c r="H11" t="n">
         <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>523.08</v>
+        <v>459.21</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>596211</v>
+        <v>586508</v>
       </c>
       <c r="E12" t="n">
-        <v>596211</v>
+        <v>586508</v>
       </c>
       <c r="F12" t="n">
-        <v>83.32288359635862</v>
+        <v>131.2305426913088</v>
       </c>
       <c r="G12" t="n">
-        <v>6.987710866059923</v>
+        <v>356.8635191945171</v>
       </c>
       <c r="H12" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
-        <v>36491</v>
+        <v>30011</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4651432</v>
+        <v>4582947</v>
       </c>
       <c r="E13" t="n">
-        <v>28567499</v>
+        <v>28146081</v>
       </c>
       <c r="F13" t="n">
-        <v>929.0681786673933</v>
+        <v>1020.465982270297</v>
       </c>
       <c r="G13" t="n">
-        <v>924.4007138836662</v>
+        <v>1014.629523440371</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I13" t="n">
-        <v>684343</v>
+        <v>699042</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>201265</v>
+        <v>202611</v>
       </c>
       <c r="E14" t="n">
-        <v>2214136</v>
+        <v>2228949</v>
       </c>
       <c r="F14" t="n">
-        <v>394.5891100047459</v>
+        <v>667.0315144213456</v>
       </c>
       <c r="G14" t="n">
-        <v>291.3909547946047</v>
+        <v>248.5383757797808</v>
       </c>
       <c r="H14" t="n">
-        <v>2.67</v>
+        <v>1.77</v>
       </c>
       <c r="I14" t="n">
-        <v>32302</v>
+        <v>32595</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3383030</v>
+        <v>3399318</v>
       </c>
       <c r="E15" t="n">
-        <v>9624421</v>
+        <v>9670759</v>
       </c>
       <c r="F15" t="n">
-        <v>254.6261938576796</v>
+        <v>243.5512978181183</v>
       </c>
       <c r="G15" t="n">
-        <v>282.3800528273241</v>
+        <v>129.3257241897225</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>109439</v>
+        <v>106130</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>318958</v>
+        <v>320797</v>
       </c>
       <c r="E16" t="n">
-        <v>3681156</v>
+        <v>3702379</v>
       </c>
       <c r="F16" t="n">
-        <v>132.2697635709971</v>
+        <v>132.607155168098</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7246424897605</v>
+        <v>131.4091640553708</v>
       </c>
       <c r="H16" t="n">
         <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2631.24</v>
+        <v>2668.88</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>941372</v>
+        <v>940513</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.58</v>
+        <v>5.22</v>
       </c>
       <c r="I17" t="n">
-        <v>11450.89</v>
+        <v>11032.71</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23099960</v>
+        <v>23133618</v>
       </c>
       <c r="E18" t="n">
-        <v>23142850</v>
+        <v>23176523</v>
       </c>
       <c r="F18" t="n">
-        <v>2536.569487874955</v>
+        <v>1769.480232545518</v>
       </c>
       <c r="G18" t="n">
-        <v>2167.883503677937</v>
+        <v>1678.207948807051</v>
       </c>
       <c r="H18" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="I18" t="n">
-        <v>836297</v>
+        <v>818865</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6561416</v>
+        <v>6718469</v>
       </c>
       <c r="F19" t="n">
-        <v>78.85328441594275</v>
+        <v>86.76101035120745</v>
       </c>
       <c r="G19" t="n">
-        <v>376.081260821542</v>
+        <v>201.3590889672564</v>
       </c>
       <c r="H19" t="n">
-        <v>2.31</v>
+        <v>0.29</v>
       </c>
       <c r="I19" t="n">
-        <v>17165.68</v>
+        <v>15477.29</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2447118</v>
+        <v>2443539</v>
       </c>
       <c r="E20" t="n">
-        <v>2447118</v>
+        <v>2443539</v>
       </c>
       <c r="F20" t="n">
-        <v>232.6668866702746</v>
+        <v>368.3520906584858</v>
       </c>
       <c r="G20" t="n">
-        <v>5430.129632099553</v>
+        <v>82.50779036930247</v>
       </c>
       <c r="H20" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="I20" t="n">
-        <v>316878</v>
+        <v>309759</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>401073</v>
+        <v>400110</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>27.05282051869186</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>8.451175463612868</v>
       </c>
       <c r="H21" t="n">
-        <v>5.19</v>
+        <v>3.89</v>
       </c>
       <c r="I21" t="n">
-        <v>1826.39</v>
+        <v>2192.1</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17391426</v>
+        <v>17422370</v>
       </c>
       <c r="E22" t="n">
-        <v>22384193</v>
+        <v>22424020</v>
       </c>
       <c r="F22" t="n">
-        <v>1011.758497372807</v>
+        <v>3280.151056580194</v>
       </c>
       <c r="G22" t="n">
-        <v>12287.43300772021</v>
+        <v>12784.82363217878</v>
       </c>
       <c r="H22" t="n">
         <v>0.46</v>
       </c>
       <c r="I22" t="n">
-        <v>1683931</v>
+        <v>1696815</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>478550583</v>
+        <v>499597304</v>
       </c>
       <c r="E23" t="n">
-        <v>478550585</v>
+        <v>499597306</v>
       </c>
       <c r="F23" t="n">
-        <v>54330.844649403</v>
+        <v>66159.18234025886</v>
       </c>
       <c r="G23" t="n">
-        <v>69418.93403178811</v>
+        <v>100722.2982414282</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>63857463</v>
+        <v>60941391</v>
       </c>
     </row>
     <row r="24">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22826</v>
+        <v>22835</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>165.0916362593744</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.559276287429022</v>
       </c>
       <c r="H24" t="n">
-        <v>4.68</v>
+        <v>1.85</v>
       </c>
       <c r="I24" t="n">
-        <v>2453.55</v>
+        <v>2447.47</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4760092</v>
+        <v>4756569</v>
       </c>
       <c r="E25" t="n">
-        <v>4760092</v>
+        <v>4756569</v>
       </c>
       <c r="F25" t="n">
-        <v>88.31374519235818</v>
+        <v>1016.556125200713</v>
       </c>
       <c r="G25" t="n">
-        <v>1217.267997424127</v>
+        <v>1404.916312702802</v>
       </c>
       <c r="H25" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="I25" t="n">
-        <v>2048037</v>
+        <v>2080632</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3375774</v>
+        <v>3387063</v>
       </c>
       <c r="E26" t="n">
-        <v>3375774</v>
+        <v>3387063</v>
       </c>
       <c r="F26" t="n">
-        <v>460.317421111514</v>
+        <v>202.4839910871763</v>
       </c>
       <c r="G26" t="n">
-        <v>501.2635144739176</v>
+        <v>590.7708605764126</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="I26" t="n">
-        <v>546680</v>
+        <v>505764</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>324424</v>
+        <v>323772</v>
       </c>
       <c r="E27" t="n">
-        <v>1514443</v>
+        <v>1511398</v>
       </c>
       <c r="F27" t="n">
-        <v>551.7721777923085</v>
+        <v>561.0379636668284</v>
       </c>
       <c r="G27" t="n">
-        <v>317.0840978432323</v>
+        <v>484.9035425877317</v>
       </c>
       <c r="H27" t="n">
-        <v>2.09</v>
+        <v>0.73</v>
       </c>
       <c r="I27" t="n">
-        <v>715888</v>
+        <v>708597</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1487676</v>
+        <v>1945410</v>
       </c>
       <c r="F28" t="n">
-        <v>290.8368142378386</v>
+        <v>73.39768919524138</v>
       </c>
       <c r="G28" t="n">
-        <v>586.8191032212487</v>
+        <v>251.9359584602933</v>
       </c>
       <c r="H28" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I28" t="n">
-        <v>345857</v>
+        <v>477880</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12439902</v>
+        <v>12217379</v>
       </c>
       <c r="E29" t="n">
-        <v>30960665</v>
+        <v>30406846</v>
       </c>
       <c r="F29" t="n">
-        <v>1267.490528085371</v>
+        <v>939.6243716857899</v>
       </c>
       <c r="G29" t="n">
-        <v>1225.297149008804</v>
+        <v>919.7466906545741</v>
       </c>
       <c r="H29" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1319076</v>
+        <v>1350764</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>911603</v>
+        <v>892415</v>
       </c>
       <c r="E30" t="n">
-        <v>6381222</v>
+        <v>6246907</v>
       </c>
       <c r="F30" t="n">
-        <v>16.32034700122724</v>
+        <v>84.62412333767671</v>
       </c>
       <c r="G30" t="n">
-        <v>230.8308550408206</v>
+        <v>177.2233797226516</v>
       </c>
       <c r="H30" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
-        <v>216792</v>
+        <v>251420</v>
       </c>
     </row>
     <row r="31">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>173949</v>
+        <v>169844</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.17</v>
+        <v>11.7</v>
       </c>
       <c r="I31" t="n">
-        <v>865.3099999999999</v>
+        <v>819.02</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5584824</v>
+        <v>5646495</v>
       </c>
       <c r="E32" t="n">
-        <v>5852003</v>
+        <v>5916623</v>
       </c>
       <c r="F32" t="n">
-        <v>478.7211135697619</v>
+        <v>172.9571191651551</v>
       </c>
       <c r="G32" t="n">
-        <v>14.79237873006084</v>
+        <v>32.6232389462545</v>
       </c>
       <c r="H32" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I32" t="n">
-        <v>153446</v>
+        <v>147417</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5094190</v>
+        <v>5083014</v>
       </c>
       <c r="E33" t="n">
-        <v>7498924</v>
+        <v>7482473</v>
       </c>
       <c r="F33" t="n">
-        <v>420.6363222152357</v>
+        <v>94.78378233438569</v>
       </c>
       <c r="G33" t="n">
-        <v>304.2975906467707</v>
+        <v>522.2345922905092</v>
       </c>
       <c r="H33" t="n">
-        <v>2.43</v>
+        <v>1.83</v>
       </c>
       <c r="I33" t="n">
-        <v>582804</v>
+        <v>585733</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7596647</v>
+        <v>7556549</v>
       </c>
       <c r="E34" t="n">
-        <v>7596647</v>
+        <v>7556549</v>
       </c>
       <c r="F34" t="n">
-        <v>22098.81432755256</v>
+        <v>4468.958051590717</v>
       </c>
       <c r="G34" t="n">
-        <v>10873.41007883062</v>
+        <v>4105.309065602569</v>
       </c>
       <c r="H34" t="n">
-        <v>1.74</v>
+        <v>0.99</v>
       </c>
       <c r="I34" t="n">
-        <v>400982</v>
+        <v>373036</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1488966</v>
+        <v>1489032</v>
       </c>
       <c r="E35" t="n">
-        <v>1488966</v>
+        <v>1489124</v>
       </c>
       <c r="F35" t="n">
-        <v>182.4512377203687</v>
+        <v>88.25746603798515</v>
       </c>
       <c r="G35" t="n">
-        <v>44.77063019747803</v>
+        <v>86.09369841942646</v>
       </c>
       <c r="H35" t="n">
-        <v>1.48</v>
+        <v>2.55</v>
       </c>
       <c r="I35" t="n">
-        <v>277100</v>
+        <v>269310</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>15806228</v>
+        <v>15812561</v>
       </c>
       <c r="F36" t="n">
-        <v>167.7325011157537</v>
+        <v>242.6841062368213</v>
       </c>
       <c r="G36" t="n">
-        <v>190.0180423341514</v>
+        <v>185.8817996021371</v>
       </c>
       <c r="H36" t="n">
         <v>0.7</v>
       </c>
       <c r="I36" t="n">
-        <v>10678.66</v>
+        <v>11159.75</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55468</v>
+        <v>55474</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>6.98</v>
       </c>
       <c r="I37" t="n">
-        <v>783.12</v>
+        <v>782.95</v>
       </c>
     </row>
     <row r="38">
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>145501226</v>
+        <v>148024507</v>
       </c>
       <c r="E38" t="n">
-        <v>145501226</v>
+        <v>148024507</v>
       </c>
       <c r="F38" t="n">
-        <v>308221.126621752</v>
+        <v>351651.641075621</v>
       </c>
       <c r="G38" t="n">
-        <v>433006.9866658789</v>
+        <v>277048.0604675154</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>74950064</v>
+        <v>75758173</v>
       </c>
     </row>
     <row r="39">
@@ -1788,22 +1788,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>69068854</v>
+        <v>69488738</v>
       </c>
       <c r="E39" t="n">
-        <v>354199249</v>
+        <v>356352501</v>
       </c>
       <c r="F39" t="n">
-        <v>83107.73687780344</v>
+        <v>71181.49744675473</v>
       </c>
       <c r="G39" t="n">
-        <v>131025.5222333568</v>
+        <v>145828.5514461751</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>25550729</v>
+        <v>24837492</v>
       </c>
     </row>
     <row r="40">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46401</v>
+        <v>46418</v>
       </c>
       <c r="E40" t="n">
-        <v>137122</v>
+        <v>137173</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>15.85</v>
+        <v>16.65</v>
       </c>
       <c r="I40" t="n">
-        <v>118.25</v>
+        <v>118.36</v>
       </c>
     </row>
     <row r="41">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54415</v>
+        <v>54783</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.02</v>
+        <v>4.58</v>
       </c>
       <c r="I41" t="n">
-        <v>26404</v>
+        <v>25552</v>
       </c>
     </row>
     <row r="42">
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>595195</v>
+        <v>596202</v>
       </c>
       <c r="F42" t="n">
-        <v>2159.251636162564</v>
+        <v>2162.157781168813</v>
       </c>
       <c r="G42" t="n">
-        <v>425.1969015813638</v>
+        <v>426.1025172796081</v>
       </c>
       <c r="H42" t="n">
         <v>0.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1308.14</v>
+        <v>1336.72</v>
       </c>
     </row>
     <row r="43">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2735319</v>
+        <v>2741424</v>
       </c>
       <c r="E44" t="n">
-        <v>10992624</v>
+        <v>11017160</v>
       </c>
       <c r="F44" t="n">
-        <v>41.13014779653064</v>
+        <v>41.17891820147594</v>
       </c>
       <c r="G44" t="n">
-        <v>467.6017438095848</v>
+        <v>252.7218863441026</v>
       </c>
       <c r="H44" t="n">
         <v>1.79</v>
       </c>
       <c r="I44" t="n">
-        <v>39091</v>
+        <v>31707</v>
       </c>
     </row>
     <row r="45">
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17919443</v>
+        <v>17973913</v>
       </c>
       <c r="E45" t="n">
-        <v>126175003</v>
+        <v>125773042</v>
       </c>
       <c r="F45" t="n">
-        <v>661.610508646861</v>
+        <v>327.2821724662077</v>
       </c>
       <c r="G45" t="n">
-        <v>255.4313568653569</v>
+        <v>265.1800387092529</v>
       </c>
       <c r="H45" t="n">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>1084972</v>
+        <v>1065335</v>
       </c>
     </row>
     <row r="46">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>174707</v>
+        <v>175225</v>
       </c>
       <c r="E46" t="n">
-        <v>2337677</v>
+        <v>2344608</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>51962</v>
+        <v>51917</v>
       </c>
     </row>
     <row r="47">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>268433015</v>
+        <v>274493167</v>
       </c>
       <c r="E47" t="n">
-        <v>268433015</v>
+        <v>274493167</v>
       </c>
       <c r="F47" t="n">
-        <v>112033.0525590764</v>
+        <v>110268.2693278311</v>
       </c>
       <c r="G47" t="n">
-        <v>188864.5349559055</v>
+        <v>185198.5768159813</v>
       </c>
       <c r="H47" t="n">
         <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>15108733</v>
+        <v>19688913</v>
       </c>
     </row>
     <row r="48">
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>654666</v>
+        <v>655587</v>
       </c>
       <c r="E48" t="n">
-        <v>654666</v>
+        <v>655587</v>
       </c>
       <c r="F48" t="n">
-        <v>358.6251624437989</v>
+        <v>162.9673267282751</v>
       </c>
       <c r="G48" t="n">
-        <v>79.01449655431389</v>
+        <v>93.84974081483993</v>
       </c>
       <c r="H48" t="n">
-        <v>2.02</v>
+        <v>3.52</v>
       </c>
       <c r="I48" t="n">
-        <v>4195.59</v>
+        <v>4199.45</v>
       </c>
     </row>
     <row r="49">
@@ -2167,22 +2167,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>441462937</v>
+        <v>448925297</v>
       </c>
       <c r="E50" t="n">
-        <v>441462937</v>
+        <v>448925297</v>
       </c>
       <c r="F50" t="n">
-        <v>5002.858000957889</v>
+        <v>3198.133888115146</v>
       </c>
       <c r="G50" t="n">
-        <v>2610.043196329797</v>
+        <v>4813.61875261668</v>
       </c>
       <c r="H50" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>2687801</v>
+        <v>2737754</v>
       </c>
     </row>
     <row r="51">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2486236</v>
+        <v>2512275</v>
       </c>
       <c r="E51" t="n">
-        <v>2486236</v>
+        <v>2512275</v>
       </c>
       <c r="F51" t="n">
-        <v>162.9679817693167</v>
+        <v>291.9069687066787</v>
       </c>
       <c r="G51" t="n">
-        <v>84.34212453401095</v>
+        <v>33.125618995543</v>
       </c>
       <c r="H51" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="I51" t="n">
-        <v>54985</v>
+        <v>55938</v>
       </c>
     </row>
     <row r="52">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22106</v>
+        <v>23502</v>
       </c>
       <c r="E52" t="n">
-        <v>44212</v>
+        <v>47005</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.15</v>
+        <v>5.51</v>
       </c>
       <c r="I52" t="n">
-        <v>1401.99</v>
+        <v>1483.6</v>
       </c>
     </row>
     <row r="53">
@@ -2275,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>162575</v>
+        <v>162574</v>
       </c>
       <c r="F53" t="n">
-        <v>3.364738379537</v>
+        <v>15.95423072937435</v>
       </c>
       <c r="G53" t="n">
-        <v>30.19136816491872</v>
+        <v>30.92307942240136</v>
       </c>
       <c r="H53" t="n">
-        <v>3.12</v>
+        <v>1.55</v>
       </c>
       <c r="I53" t="n">
-        <v>21701</v>
+        <v>20336</v>
       </c>
     </row>
     <row r="54">
@@ -2307,22 +2307,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2557377</v>
+        <v>2560653</v>
       </c>
       <c r="E54" t="n">
-        <v>6538155</v>
+        <v>6546531</v>
       </c>
       <c r="F54" t="n">
-        <v>225.1201216521087</v>
+        <v>225.1286795281037</v>
       </c>
       <c r="G54" t="n">
-        <v>254.8166529655472</v>
+        <v>254.826339746549</v>
       </c>
       <c r="H54" t="n">
         <v>1.65</v>
       </c>
       <c r="I54" t="n">
-        <v>105015</v>
+        <v>104384</v>
       </c>
     </row>
     <row r="55">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>3280.18</v>
+        <v>3391.11</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>5.41</v>
       </c>
       <c r="I55" t="n">
-        <v>1505.17</v>
+        <v>1579.89</v>
       </c>
     </row>
     <row r="56">
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>75011934</v>
+        <v>75495085</v>
       </c>
       <c r="E56" t="n">
-        <v>75011934</v>
+        <v>75495085</v>
       </c>
       <c r="F56" t="n">
-        <v>22034.32699986884</v>
+        <v>15849.48954301925</v>
       </c>
       <c r="G56" t="n">
-        <v>18639.00115111518</v>
+        <v>25310.79275160772</v>
       </c>
       <c r="H56" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>3490758</v>
+        <v>3450356</v>
       </c>
     </row>
     <row r="57">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3453760</v>
+        <v>3445217</v>
       </c>
       <c r="E57" t="n">
-        <v>4376518</v>
+        <v>4365692</v>
       </c>
       <c r="F57" t="n">
-        <v>531.7703917676429</v>
+        <v>518.1584100774793</v>
       </c>
       <c r="G57" t="n">
-        <v>115.4507150828741</v>
+        <v>2690.679903754949</v>
       </c>
       <c r="H57" t="n">
         <v>0.22</v>
       </c>
       <c r="I57" t="n">
-        <v>242659</v>
+        <v>193328</v>
       </c>
     </row>
     <row r="58">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4315154</v>
+        <v>4320346</v>
       </c>
       <c r="E58" t="n">
-        <v>8509847</v>
+        <v>8520085</v>
       </c>
       <c r="F58" t="n">
-        <v>3451.26868625724</v>
+        <v>3632.742407793483</v>
       </c>
       <c r="G58" t="n">
-        <v>3043.766317084182</v>
+        <v>3686.873606756163</v>
       </c>
       <c r="H58" t="n">
         <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>1641483</v>
+        <v>1645242</v>
       </c>
     </row>
     <row r="59">
@@ -2482,22 +2482,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1618741</v>
+        <v>1603321</v>
       </c>
       <c r="E59" t="n">
-        <v>9294208</v>
+        <v>9205673</v>
       </c>
       <c r="F59" t="n">
-        <v>300.7925710640309</v>
+        <v>205.6903230728976</v>
       </c>
       <c r="G59" t="n">
-        <v>578.7844492418153</v>
+        <v>998.8391101702045</v>
       </c>
       <c r="H59" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I59" t="n">
-        <v>295233</v>
+        <v>233892</v>
       </c>
     </row>
     <row r="60">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>505909</v>
+        <v>499946</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>8.77</v>
       </c>
       <c r="I60" t="n">
-        <v>1779.29</v>
+        <v>1543.03</v>
       </c>
     </row>
     <row r="61">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>31218629</v>
+        <v>31218448</v>
       </c>
       <c r="F61" t="n">
-        <v>594.2839958733018</v>
+        <v>615.4393620863286</v>
       </c>
       <c r="G61" t="n">
-        <v>1768.329860928333</v>
+        <v>1824.572937320763</v>
       </c>
       <c r="H61" t="n">
         <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>242217</v>
+        <v>238596</v>
       </c>
     </row>
     <row r="62">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1454414</v>
+        <v>1450204</v>
       </c>
       <c r="F62" t="n">
-        <v>36.4482033163979</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>3.024627806632009</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2.62</v>
+        <v>5.82</v>
       </c>
       <c r="I62" t="n">
-        <v>28589</v>
+        <v>28523</v>
       </c>
     </row>
     <row r="63">
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7704460</v>
+        <v>17255246</v>
       </c>
       <c r="E63" t="n">
-        <v>18145534</v>
+        <v>18186625</v>
       </c>
       <c r="F63" t="n">
-        <v>1097.990513409872</v>
+        <v>1102.831961630879</v>
       </c>
       <c r="G63" t="n">
-        <v>1696.437364461696</v>
+        <v>1834.930587342862</v>
       </c>
       <c r="H63" t="n">
-        <v>1.33</v>
+        <v>1.84</v>
       </c>
       <c r="I63" t="n">
-        <v>33495</v>
+        <v>34055</v>
       </c>
     </row>
     <row r="64">
@@ -2657,22 +2657,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3098433</v>
+        <v>3062898</v>
       </c>
       <c r="E64" t="n">
-        <v>3098433</v>
+        <v>3062898</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>43.12685005686561</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>235.5254485517338</v>
       </c>
       <c r="H64" t="n">
-        <v>5.16</v>
+        <v>3.54</v>
       </c>
       <c r="I64" t="n">
-        <v>18753.33</v>
+        <v>17207.31</v>
       </c>
     </row>
     <row r="65">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3438614</v>
+        <v>3500202</v>
       </c>
       <c r="E65" t="n">
-        <v>8484604</v>
+        <v>8636569</v>
       </c>
       <c r="F65" t="n">
-        <v>618.5637542901568</v>
+        <v>1335.79892591962</v>
       </c>
       <c r="G65" t="n">
-        <v>1024.158688522004</v>
+        <v>1204.096828618295</v>
       </c>
       <c r="H65" t="n">
-        <v>1.23</v>
+        <v>0.97</v>
       </c>
       <c r="I65" t="n">
-        <v>46229</v>
+        <v>52820</v>
       </c>
     </row>
     <row r="66">
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>258918</v>
+        <v>259129</v>
       </c>
       <c r="F66" t="n">
-        <v>4.126700086736243</v>
+        <v>4.126860058782618</v>
       </c>
       <c r="G66" t="n">
-        <v>56.02579563522185</v>
+        <v>56.02796748221561</v>
       </c>
       <c r="H66" t="n">
         <v>3.39</v>
       </c>
       <c r="I66" t="n">
-        <v>3319.95</v>
+        <v>3269.05</v>
       </c>
     </row>
     <row r="67">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>79317069</v>
+        <v>82595380</v>
       </c>
       <c r="E67" t="n">
-        <v>165416368</v>
+        <v>172204733</v>
       </c>
       <c r="F67" t="n">
-        <v>64561.33479569898</v>
+        <v>79609.35877602108</v>
       </c>
       <c r="G67" t="n">
-        <v>90790.61254271447</v>
+        <v>91945.30151433324</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="I67" t="n">
-        <v>20422865</v>
+        <v>22642311</v>
       </c>
     </row>
     <row r="68">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1910306</v>
+        <v>1981056</v>
       </c>
       <c r="F68" t="n">
-        <v>10.88388857006348</v>
+        <v>28.55305720352434</v>
       </c>
       <c r="G68" t="n">
-        <v>3.685954861748338</v>
+        <v>9.34467854898638</v>
       </c>
       <c r="H68" t="n">
-        <v>3.61</v>
+        <v>3.76</v>
       </c>
       <c r="I68" t="n">
-        <v>3449.1</v>
+        <v>3700.05</v>
       </c>
     </row>
     <row r="69">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>212366115</v>
+        <v>211979949</v>
       </c>
       <c r="F69" t="n">
-        <v>4971.613536316129</v>
+        <v>3401.452516204805</v>
       </c>
       <c r="G69" t="n">
-        <v>5111.74659605231</v>
+        <v>3460.729728755191</v>
       </c>
       <c r="H69" t="n">
-        <v>0.47</v>
+        <v>0.83</v>
       </c>
       <c r="I69" t="n">
-        <v>3448995</v>
+        <v>3532169</v>
       </c>
     </row>
     <row r="70">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>179880</v>
+        <v>186327</v>
       </c>
       <c r="E70" t="n">
-        <v>187846</v>
+        <v>194578</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>6.7</v>
+        <v>10.38</v>
       </c>
       <c r="I70" t="n">
-        <v>257.74</v>
+        <v>227.28</v>
       </c>
     </row>
     <row r="71">
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>146766062</v>
+        <v>147948071</v>
       </c>
       <c r="E71" t="n">
-        <v>146819783</v>
+        <v>148004033</v>
       </c>
       <c r="F71" t="n">
-        <v>35453.91107203643</v>
+        <v>28821.12276704866</v>
       </c>
       <c r="G71" t="n">
-        <v>48960.19766619696</v>
+        <v>54013.93911521053</v>
       </c>
       <c r="H71" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I71" t="n">
-        <v>2697075</v>
+        <v>2714367</v>
       </c>
     </row>
     <row r="72">
@@ -2937,22 +2937,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>26230348</v>
+        <v>26078751</v>
       </c>
       <c r="E72" t="n">
-        <v>86082989</v>
+        <v>85585476</v>
       </c>
       <c r="F72" t="n">
-        <v>7875.240434703251</v>
+        <v>7294.696399979119</v>
       </c>
       <c r="G72" t="n">
-        <v>35276.7029369727</v>
+        <v>32876.58740715041</v>
       </c>
       <c r="H72" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I72" t="n">
-        <v>100663</v>
+        <v>96974</v>
       </c>
     </row>
     <row r="73">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>114125</v>
+        <v>114135</v>
       </c>
       <c r="E73" t="n">
-        <v>114125</v>
+        <v>114135</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.32</v>
+        <v>7.29</v>
       </c>
       <c r="I73" t="n">
-        <v>1431.13</v>
+        <v>1432.36</v>
       </c>
     </row>
     <row r="74">
@@ -3007,22 +3007,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>213709963</v>
+        <v>211287856</v>
       </c>
       <c r="E74" t="n">
-        <v>742447726</v>
+        <v>734033107</v>
       </c>
       <c r="F74" t="n">
-        <v>153701.2066134959</v>
+        <v>140039.7378318272</v>
       </c>
       <c r="G74" t="n">
-        <v>177986.3740146352</v>
+        <v>225740.8999317657</v>
       </c>
       <c r="H74" t="n">
         <v>0.05</v>
       </c>
       <c r="I74" t="n">
-        <v>30847623</v>
+        <v>33632321</v>
       </c>
     </row>
     <row r="75">
@@ -3042,22 +3042,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3738831</v>
+        <v>3605547</v>
       </c>
       <c r="E75" t="n">
-        <v>3738831</v>
+        <v>3605547</v>
       </c>
       <c r="F75" t="n">
-        <v>538.7224363778371</v>
+        <v>1000.436283662239</v>
       </c>
       <c r="G75" t="n">
-        <v>1986.905729331247</v>
+        <v>493.7892194804632</v>
       </c>
       <c r="H75" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="I75" t="n">
-        <v>2477549</v>
+        <v>2515871</v>
       </c>
     </row>
     <row r="76">
@@ -3077,22 +3077,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>120477137</v>
+        <v>121251197</v>
       </c>
       <c r="E76" t="n">
-        <v>511575583</v>
+        <v>514779311</v>
       </c>
       <c r="F76" t="n">
-        <v>192664.2148951305</v>
+        <v>155079.3830920715</v>
       </c>
       <c r="G76" t="n">
-        <v>156531.3797838544</v>
+        <v>220890.705493968</v>
       </c>
       <c r="H76" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I76" t="n">
-        <v>14521396</v>
+        <v>14483556</v>
       </c>
     </row>
     <row r="77">
@@ -3115,19 +3115,19 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1866461</v>
+        <v>1873124</v>
       </c>
       <c r="F77" t="n">
-        <v>36.22595113237522</v>
+        <v>36.2273554359138</v>
       </c>
       <c r="G77" t="n">
-        <v>311.8066142341019</v>
+        <v>311.8187014566051</v>
       </c>
       <c r="H77" t="n">
         <v>1.08</v>
       </c>
       <c r="I77" t="n">
-        <v>618.63</v>
+        <v>642.95</v>
       </c>
     </row>
     <row r="78">
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3135595</v>
+        <v>3223545</v>
       </c>
       <c r="E78" t="n">
-        <v>15721244</v>
+        <v>16162207</v>
       </c>
       <c r="F78" t="n">
-        <v>280.3203420549501</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>845.36568066796</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1.24</v>
+        <v>7.22</v>
       </c>
       <c r="I78" t="n">
-        <v>32079</v>
+        <v>33349</v>
       </c>
     </row>
     <row r="79">
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>517825</v>
+        <v>538810</v>
       </c>
       <c r="E79" t="n">
-        <v>8857368</v>
+        <v>9216310</v>
       </c>
       <c r="F79" t="n">
-        <v>630.830236728949</v>
+        <v>38.71585108293677</v>
       </c>
       <c r="G79" t="n">
-        <v>342.4485399394828</v>
+        <v>179.3016232828141</v>
       </c>
       <c r="H79" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="I79" t="n">
-        <v>185778</v>
+        <v>178772</v>
       </c>
     </row>
     <row r="80">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5879748</v>
+        <v>5836247</v>
       </c>
       <c r="E80" t="n">
-        <v>7987111</v>
+        <v>7923242</v>
       </c>
       <c r="F80" t="n">
-        <v>369.2216347029227</v>
+        <v>531.4909644193805</v>
       </c>
       <c r="G80" t="n">
-        <v>757.1831173139641</v>
+        <v>1227.96926873635</v>
       </c>
       <c r="H80" t="n">
         <v>0.14</v>
       </c>
       <c r="I80" t="n">
-        <v>5458952</v>
+        <v>5435207</v>
       </c>
     </row>
     <row r="81">
@@ -3251,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>42681</v>
+        <v>42517</v>
       </c>
       <c r="F81" t="n">
-        <v>50.70463534356827</v>
+        <v>80.92783635437816</v>
       </c>
       <c r="G81" t="n">
-        <v>194.1954243615338</v>
+        <v>109.3622661750278</v>
       </c>
       <c r="H81" t="n">
-        <v>0.59</v>
+        <v>0.99</v>
       </c>
       <c r="I81" t="n">
-        <v>42493</v>
+        <v>42956</v>
       </c>
     </row>
     <row r="82">
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>41421265</v>
+        <v>41534886</v>
       </c>
       <c r="E82" t="n">
-        <v>48379054</v>
+        <v>48511761</v>
       </c>
       <c r="F82" t="n">
-        <v>76.37408021204975</v>
+        <v>83.41421982462398</v>
       </c>
       <c r="G82" t="n">
-        <v>526.2615308703748</v>
+        <v>555.9387606864128</v>
       </c>
       <c r="H82" t="n">
-        <v>1.66</v>
+        <v>0.04</v>
       </c>
       <c r="I82" t="n">
-        <v>866771</v>
+        <v>887771</v>
       </c>
     </row>
     <row r="83">
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>14916163</v>
+        <v>14891891</v>
       </c>
       <c r="F83" t="n">
-        <v>277.1114121198057</v>
+        <v>183.26528481901</v>
       </c>
       <c r="G83" t="n">
-        <v>394.6218809649174</v>
+        <v>901.892022954675</v>
       </c>
       <c r="H83" t="n">
-        <v>1.75</v>
+        <v>1.02</v>
       </c>
       <c r="I83" t="n">
-        <v>136746</v>
+        <v>227146</v>
       </c>
     </row>
     <row r="84">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36719907</v>
+        <v>36963761</v>
       </c>
       <c r="E84" t="n">
-        <v>36719907</v>
+        <v>36963761</v>
       </c>
       <c r="F84" t="n">
-        <v>217.9357660971389</v>
+        <v>161.8904256567722</v>
       </c>
       <c r="G84" t="n">
-        <v>1634.369132666343</v>
+        <v>1390.863088801142</v>
       </c>
       <c r="H84" t="n">
-        <v>1.14</v>
+        <v>2.04</v>
       </c>
       <c r="I84" t="n">
-        <v>813895</v>
+        <v>840857</v>
       </c>
     </row>
     <row r="85">
@@ -3388,22 +3388,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>567754</v>
+        <v>568573</v>
       </c>
       <c r="E85" t="n">
-        <v>6886306</v>
+        <v>6896235</v>
       </c>
       <c r="F85" t="n">
-        <v>592.4807407238497</v>
+        <v>324.4544850908364</v>
       </c>
       <c r="G85" t="n">
-        <v>499.3398724231936</v>
+        <v>755.0057893253584</v>
       </c>
       <c r="H85" t="n">
-        <v>1.03</v>
+        <v>0.51</v>
       </c>
       <c r="I85" t="n">
-        <v>2795660</v>
+        <v>2746335</v>
       </c>
     </row>
     <row r="86">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26798662</v>
+        <v>26598608</v>
       </c>
       <c r="E86" t="n">
-        <v>37878598</v>
+        <v>37588121</v>
       </c>
       <c r="F86" t="n">
-        <v>351.7013470635034</v>
+        <v>352.7934027300748</v>
       </c>
       <c r="G86" t="n">
-        <v>44.06664880430811</v>
+        <v>121.243295419831</v>
       </c>
       <c r="H86" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="I86" t="n">
-        <v>93015</v>
+        <v>89630</v>
       </c>
     </row>
     <row r="87">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1358190076</v>
+        <v>1441881884</v>
       </c>
       <c r="E87" t="n">
-        <v>6512799563</v>
+        <v>6914118924</v>
       </c>
       <c r="F87" t="n">
-        <v>568193.2097332346</v>
+        <v>745586.2611844597</v>
       </c>
       <c r="G87" t="n">
-        <v>1018717.568086638</v>
+        <v>511030.9501363528</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I87" t="n">
-        <v>206879291</v>
+        <v>237084111</v>
       </c>
     </row>
     <row r="88">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>279892627</v>
+        <v>286029805</v>
       </c>
       <c r="E88" t="n">
-        <v>1208171958</v>
+        <v>1234663424</v>
       </c>
       <c r="F88" t="n">
-        <v>951175.648753409</v>
+        <v>836408.6397235855</v>
       </c>
       <c r="G88" t="n">
-        <v>1124171.874831741</v>
+        <v>1087984.868576508</v>
       </c>
       <c r="H88" t="n">
         <v>0.02</v>
       </c>
       <c r="I88" t="n">
-        <v>110062845</v>
+        <v>111665977</v>
       </c>
     </row>
     <row r="89">
@@ -3528,22 +3528,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>117026394</v>
+        <v>117574785</v>
       </c>
       <c r="E89" t="n">
-        <v>117026394</v>
+        <v>117574785</v>
       </c>
       <c r="F89" t="n">
-        <v>29744.12221225806</v>
+        <v>26458.1499340463</v>
       </c>
       <c r="G89" t="n">
-        <v>32212.97623786581</v>
+        <v>33039.85791496376</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="I89" t="n">
-        <v>6298939</v>
+        <v>6339503</v>
       </c>
     </row>
     <row r="90">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3856777</v>
+        <v>3860058</v>
       </c>
       <c r="E90" t="n">
-        <v>30012972</v>
+        <v>30038506</v>
       </c>
       <c r="F90" t="n">
-        <v>12395.0072158448</v>
+        <v>12397.88632095893</v>
       </c>
       <c r="G90" t="n">
-        <v>13044.97721981589</v>
+        <v>13437.00323895288</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>3070.32</v>
+        <v>5507.85</v>
       </c>
     </row>
     <row r="91">
@@ -3601,19 +3601,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>3761849</v>
+        <v>3991771</v>
       </c>
       <c r="F91" t="n">
-        <v>1612.682939002112</v>
+        <v>1731.446808745637</v>
       </c>
       <c r="G91" t="n">
-        <v>3129.639388864424</v>
+        <v>2919.175187045386</v>
       </c>
       <c r="H91" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I91" t="n">
-        <v>311379</v>
+        <v>356808</v>
       </c>
     </row>
     <row r="92">
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>851136</v>
+        <v>851233</v>
       </c>
       <c r="F92" t="n">
-        <v>31.893107303172</v>
+        <v>90.55347753663158</v>
       </c>
       <c r="G92" t="n">
-        <v>1187.346399804312</v>
+        <v>478.1202495700912</v>
       </c>
       <c r="H92" t="n">
-        <v>3.51</v>
+        <v>2.96</v>
       </c>
       <c r="I92" t="n">
-        <v>15346.78</v>
+        <v>13914.13</v>
       </c>
     </row>
     <row r="93">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>112383</v>
+        <v>111653</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>6.060756402180736</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>7.181922118811256</v>
       </c>
       <c r="H93" t="n">
-        <v>5.74</v>
+        <v>2.86</v>
       </c>
       <c r="I93" t="n">
-        <v>144630</v>
+        <v>138062</v>
       </c>
     </row>
     <row r="94">
@@ -3699,22 +3699,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11613777</v>
+        <v>11676852</v>
       </c>
       <c r="E94" t="n">
-        <v>140191661</v>
+        <v>140914531</v>
       </c>
       <c r="F94" t="n">
-        <v>1887.214665724654</v>
+        <v>2026.385267074915</v>
       </c>
       <c r="G94" t="n">
-        <v>5674.451281813053</v>
+        <v>3053.001245381305</v>
       </c>
       <c r="H94" t="n">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="I94" t="n">
-        <v>404118</v>
+        <v>407185</v>
       </c>
     </row>
     <row r="95">
@@ -3734,22 +3734,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>19827326</v>
+        <v>19569134</v>
       </c>
       <c r="E95" t="n">
-        <v>49568316</v>
+        <v>48922835</v>
       </c>
       <c r="F95" t="n">
-        <v>10392.19153963079</v>
+        <v>7663.358248075581</v>
       </c>
       <c r="G95" t="n">
-        <v>9017.258152498322</v>
+        <v>14177.83692003423</v>
       </c>
       <c r="H95" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>1963248</v>
+        <v>2237580</v>
       </c>
     </row>
     <row r="96">
@@ -3772,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2339815</v>
+        <v>2332846</v>
       </c>
       <c r="F96" t="n">
-        <v>173.8593958953757</v>
+        <v>171.6050365006022</v>
       </c>
       <c r="G96" t="n">
-        <v>150.0650391651396</v>
+        <v>131.5224264897692</v>
       </c>
       <c r="H96" t="n">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="I96" t="n">
-        <v>49218</v>
+        <v>39998</v>
       </c>
     </row>
     <row r="97">
@@ -3807,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>19743889</v>
+        <v>19817904</v>
       </c>
       <c r="F97" t="n">
-        <v>6328.756726022362</v>
+        <v>1315.052613404293</v>
       </c>
       <c r="G97" t="n">
-        <v>4281.054608445997</v>
+        <v>1444.777469369007</v>
       </c>
       <c r="H97" t="n">
         <v>0.51</v>
       </c>
       <c r="I97" t="n">
-        <v>41656</v>
+        <v>33052</v>
       </c>
     </row>
     <row r="98">
@@ -3839,22 +3839,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4198084</v>
+        <v>4205196</v>
       </c>
       <c r="E98" t="n">
-        <v>12092477</v>
+        <v>12112886</v>
       </c>
       <c r="F98" t="n">
-        <v>1313.268779357906</v>
+        <v>1058.535439498866</v>
       </c>
       <c r="G98" t="n">
-        <v>1623.70845682428</v>
+        <v>283.4184899788418</v>
       </c>
       <c r="H98" t="n">
-        <v>0.66</v>
+        <v>1.63</v>
       </c>
       <c r="I98" t="n">
-        <v>604651</v>
+        <v>611582</v>
       </c>
     </row>
     <row r="99">
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1514342</v>
+        <v>1600637</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>298.1662530999807</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>60.00325019627466</v>
       </c>
       <c r="H99" t="n">
-        <v>4.82</v>
+        <v>0.66</v>
       </c>
       <c r="I99" t="n">
-        <v>265397</v>
+        <v>242774</v>
       </c>
     </row>
     <row r="100">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>80947782</v>
+        <v>81268349</v>
       </c>
       <c r="E100" t="n">
-        <v>103012344</v>
+        <v>103420290</v>
       </c>
       <c r="F100" t="n">
-        <v>8774.70261293683</v>
+        <v>10131.75568257644</v>
       </c>
       <c r="G100" t="n">
-        <v>5485.804282008769</v>
+        <v>6604.978259578752</v>
       </c>
       <c r="H100" t="n">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="I100" t="n">
-        <v>6246028</v>
+        <v>6329476</v>
       </c>
     </row>
     <row r="101">
@@ -3944,22 +3944,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23360902</v>
+        <v>23361562</v>
       </c>
       <c r="E101" t="n">
-        <v>30304434</v>
+        <v>30305291</v>
       </c>
       <c r="F101" t="n">
-        <v>6318.693470114443</v>
+        <v>5421.384516269411</v>
       </c>
       <c r="G101" t="n">
-        <v>6410.087168399713</v>
+        <v>7423.96923885436</v>
       </c>
       <c r="H101" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="I101" t="n">
-        <v>164758</v>
+        <v>163682</v>
       </c>
     </row>
     <row r="102">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1579262</v>
+        <v>1616830</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>62.4886283985615</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>27.92094976178524</v>
       </c>
       <c r="H102" t="n">
-        <v>4.43</v>
+        <v>3.07</v>
       </c>
       <c r="I102" t="n">
-        <v>10028.53</v>
+        <v>10254.08</v>
       </c>
     </row>
     <row r="103">
@@ -4014,22 +4014,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>681746</v>
+        <v>687344</v>
       </c>
       <c r="E103" t="n">
-        <v>681746</v>
+        <v>687344</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>9.8106584305882</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>13.58554004040977</v>
       </c>
       <c r="H103" t="n">
-        <v>5.81</v>
+        <v>1.17</v>
       </c>
       <c r="I103" t="n">
-        <v>80050</v>
+        <v>79366</v>
       </c>
     </row>
     <row r="104">
@@ -4049,22 +4049,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>40987926</v>
+        <v>41368669</v>
       </c>
       <c r="E104" t="n">
-        <v>42847039</v>
+        <v>43245052</v>
       </c>
       <c r="F104" t="n">
-        <v>532.466736087201</v>
+        <v>570.2052510036838</v>
       </c>
       <c r="G104" t="n">
-        <v>2156.675442934962</v>
+        <v>2082.7215547024</v>
       </c>
       <c r="H104" t="n">
-        <v>0.75</v>
+        <v>0.23</v>
       </c>
       <c r="I104" t="n">
-        <v>747373</v>
+        <v>770373</v>
       </c>
     </row>
     <row r="105">
@@ -4084,22 +4084,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14654901</v>
+        <v>14721599</v>
       </c>
       <c r="E105" t="n">
-        <v>14654901</v>
+        <v>14721599</v>
       </c>
       <c r="F105" t="n">
-        <v>1973.814083435275</v>
+        <v>1799.025210901301</v>
       </c>
       <c r="G105" t="n">
-        <v>4068.223176669881</v>
+        <v>3224.524112417699</v>
       </c>
       <c r="H105" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="I105" t="n">
-        <v>5112215</v>
+        <v>5353237</v>
       </c>
     </row>
     <row r="106">
@@ -4122,19 +4122,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1179732</v>
+        <v>1099448</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>8.164713852057377</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1.000126805659965</v>
       </c>
       <c r="H106" t="n">
-        <v>5.93</v>
+        <v>3.88</v>
       </c>
       <c r="I106" t="n">
-        <v>6362.62</v>
+        <v>5616.61</v>
       </c>
     </row>
     <row r="107">
@@ -4154,22 +4154,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51815708</v>
+        <v>52235564</v>
       </c>
       <c r="E107" t="n">
-        <v>132003478</v>
+        <v>133073086</v>
       </c>
       <c r="F107" t="n">
-        <v>3045.606490292715</v>
+        <v>2062.721955692105</v>
       </c>
       <c r="G107" t="n">
-        <v>3696.706567579506</v>
+        <v>4527.001424855017</v>
       </c>
       <c r="H107" t="n">
         <v>0.17</v>
       </c>
       <c r="I107" t="n">
-        <v>2378651</v>
+        <v>2344795</v>
       </c>
     </row>
     <row r="108">
@@ -4189,22 +4189,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15653966</v>
+        <v>16217664</v>
       </c>
       <c r="E108" t="n">
-        <v>75814654</v>
+        <v>78544736</v>
       </c>
       <c r="F108" t="n">
-        <v>8714.585496620042</v>
+        <v>8785.624570782418</v>
       </c>
       <c r="G108" t="n">
-        <v>12559.77604427006</v>
+        <v>11735.59097254465</v>
       </c>
       <c r="H108" t="n">
-        <v>0.33</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>4249572</v>
+        <v>4349738</v>
       </c>
     </row>
     <row r="109">
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>516935</v>
+        <v>509725</v>
       </c>
       <c r="F109" t="n">
-        <v>38.99927028822309</v>
+        <v>184.0245177316548</v>
       </c>
       <c r="G109" t="n">
-        <v>8.983503641557574</v>
+        <v>8.983815260169331</v>
       </c>
       <c r="H109" t="n">
-        <v>1.39</v>
+        <v>2.39</v>
       </c>
       <c r="I109" t="n">
-        <v>7019.19</v>
+        <v>6823.02</v>
       </c>
     </row>
     <row r="110">
@@ -4259,22 +4259,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4640626</v>
+        <v>4620531</v>
       </c>
       <c r="E110" t="n">
-        <v>10578102</v>
+        <v>10532295</v>
       </c>
       <c r="F110" t="n">
-        <v>752.7634729290627</v>
+        <v>1645.456474889692</v>
       </c>
       <c r="G110" t="n">
-        <v>1548.00412276096</v>
+        <v>1757.17499011428</v>
       </c>
       <c r="H110" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="I110" t="n">
-        <v>78409</v>
+        <v>70916</v>
       </c>
     </row>
     <row r="111">
@@ -4297,19 +4297,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1927626850</v>
+        <v>1922121709</v>
       </c>
       <c r="F111" t="n">
-        <v>101909.2921730566</v>
+        <v>97008.79366748965</v>
       </c>
       <c r="G111" t="n">
-        <v>43306.99950100958</v>
+        <v>39455.36535900652</v>
       </c>
       <c r="H111" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I111" t="n">
-        <v>28288512</v>
+        <v>28011395</v>
       </c>
     </row>
     <row r="112">
@@ -4329,22 +4329,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9552575</v>
+        <v>9743384</v>
       </c>
       <c r="E112" t="n">
-        <v>34765604</v>
+        <v>35459470</v>
       </c>
       <c r="F112" t="n">
-        <v>477.9250502087542</v>
+        <v>459.6639585366306</v>
       </c>
       <c r="G112" t="n">
-        <v>417.617148948668</v>
+        <v>493.9062134543597</v>
       </c>
       <c r="H112" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I112" t="n">
-        <v>121585</v>
+        <v>124540</v>
       </c>
     </row>
     <row r="113">
@@ -4367,19 +4367,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>564295</v>
+        <v>570314</v>
       </c>
       <c r="F113" t="n">
-        <v>15.59113754896929</v>
+        <v>20.56954482236024</v>
       </c>
       <c r="G113" t="n">
-        <v>32.04577629638337</v>
+        <v>32.04690998376567</v>
       </c>
       <c r="H113" t="n">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="I113" t="n">
-        <v>891.53</v>
+        <v>868.02</v>
       </c>
     </row>
     <row r="114">
@@ -4399,22 +4399,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12289353</v>
+        <v>12412034</v>
       </c>
       <c r="E114" t="n">
-        <v>17817789</v>
+        <v>17995658</v>
       </c>
       <c r="F114" t="n">
-        <v>5697.600809699719</v>
+        <v>1977.565898818519</v>
       </c>
       <c r="G114" t="n">
-        <v>5430.25044696543</v>
+        <v>2750.847546022945</v>
       </c>
       <c r="H114" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="I114" t="n">
-        <v>2090372</v>
+        <v>2085942</v>
       </c>
     </row>
     <row r="115">
@@ -4434,22 +4434,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1997261</v>
+        <v>1977987</v>
       </c>
       <c r="E115" t="n">
-        <v>14322159</v>
+        <v>14183945</v>
       </c>
       <c r="F115" t="n">
-        <v>1221.499667678004</v>
+        <v>745.2237934680104</v>
       </c>
       <c r="G115" t="n">
-        <v>1360.083592239042</v>
+        <v>1089.541037472481</v>
       </c>
       <c r="H115" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="I115" t="n">
-        <v>2015014</v>
+        <v>2031030</v>
       </c>
     </row>
     <row r="116">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2711915</v>
+        <v>2710295</v>
       </c>
       <c r="E116" t="n">
-        <v>5482028</v>
+        <v>5478752</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>8463.799999999999</v>
+        <v>8077.61</v>
       </c>
     </row>
     <row r="117">
@@ -4502,22 +4502,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>208155336</v>
+        <v>211809734</v>
       </c>
       <c r="E117" t="n">
-        <v>1178703410</v>
+        <v>1199396862</v>
       </c>
       <c r="F117" t="n">
-        <v>299082.4653513425</v>
+        <v>319894.0362695802</v>
       </c>
       <c r="G117" t="n">
-        <v>447561.0193834869</v>
+        <v>487409.8333287557</v>
       </c>
       <c r="H117" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I117" t="n">
-        <v>68903438</v>
+        <v>67268170</v>
       </c>
     </row>
     <row r="118">
@@ -4537,22 +4537,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>677126</v>
+        <v>678514</v>
       </c>
       <c r="E118" t="n">
-        <v>2245249</v>
+        <v>2249852</v>
       </c>
       <c r="F118" t="n">
-        <v>8886.509004567812</v>
+        <v>5641.21631298708</v>
       </c>
       <c r="G118" t="n">
-        <v>5085.725771502767</v>
+        <v>7441.652812715015</v>
       </c>
       <c r="H118" t="n">
         <v>0.88</v>
       </c>
       <c r="I118" t="n">
-        <v>11468.05</v>
+        <v>11555.67</v>
       </c>
     </row>
     <row r="119">
@@ -4572,22 +4572,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2915338</v>
+        <v>2904727</v>
       </c>
       <c r="E119" t="n">
-        <v>10321982</v>
+        <v>10284411</v>
       </c>
       <c r="F119" t="n">
-        <v>115.3558414909549</v>
+        <v>105.1940487583589</v>
       </c>
       <c r="G119" t="n">
-        <v>1536.393218913302</v>
+        <v>1540.993149206171</v>
       </c>
       <c r="H119" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I119" t="n">
-        <v>5433.03</v>
+        <v>6233.21</v>
       </c>
     </row>
     <row r="120">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1071988</v>
+        <v>1062452</v>
       </c>
       <c r="E120" t="n">
-        <v>1071988</v>
+        <v>1062452</v>
       </c>
       <c r="F120" t="n">
-        <v>124.83327050974</v>
+        <v>3.516931650405307</v>
       </c>
       <c r="G120" t="n">
-        <v>74.21052306460848</v>
+        <v>7.776458212933242</v>
       </c>
       <c r="H120" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="I120" t="n">
-        <v>5933.59</v>
+        <v>6076.9</v>
       </c>
     </row>
     <row r="121">
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>500414</v>
+        <v>499446</v>
       </c>
       <c r="E121" t="n">
-        <v>1684322</v>
+        <v>1681066</v>
       </c>
       <c r="F121" t="n">
-        <v>367.6701920504453</v>
+        <v>332.7304600574739</v>
       </c>
       <c r="G121" t="n">
-        <v>403.3020566381921</v>
+        <v>385.6434541931405</v>
       </c>
       <c r="H121" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="I121" t="n">
-        <v>628371</v>
+        <v>626636</v>
       </c>
     </row>
     <row r="122">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>469163</v>
+        <v>469829</v>
       </c>
       <c r="E122" t="n">
-        <v>870388</v>
+        <v>871622</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>4.49</v>
       </c>
       <c r="I122" t="n">
-        <v>185462</v>
+        <v>180646</v>
       </c>
     </row>
     <row r="123">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>10731961</v>
+        <v>9137507</v>
       </c>
       <c r="F123" t="n">
-        <v>439.7581565371834</v>
+        <v>196.3763115172463</v>
       </c>
       <c r="G123" t="n">
-        <v>127.3178958857408</v>
+        <v>23.23146002897979</v>
       </c>
       <c r="H123" t="n">
-        <v>0.76</v>
+        <v>2.13</v>
       </c>
       <c r="I123" t="n">
-        <v>12455.8</v>
+        <v>13423.95</v>
       </c>
     </row>
     <row r="124">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1242136</v>
+        <v>1225395</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>5.1</v>
+        <v>6.73</v>
       </c>
       <c r="I124" t="n">
-        <v>2861.91</v>
+        <v>3595.41</v>
       </c>
     </row>
     <row r="125">
@@ -4782,22 +4782,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3528450</v>
+        <v>3540948</v>
       </c>
       <c r="E125" t="n">
-        <v>8239520</v>
+        <v>8268704</v>
       </c>
       <c r="F125" t="n">
-        <v>926.3901192680041</v>
+        <v>1303.941284437518</v>
       </c>
       <c r="G125" t="n">
-        <v>1469.504288727522</v>
+        <v>1627.498587817629</v>
       </c>
       <c r="H125" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="I125" t="n">
-        <v>683516</v>
+        <v>627006</v>
       </c>
     </row>
     <row r="126">
@@ -4817,22 +4817,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>246194</v>
+        <v>248970</v>
       </c>
       <c r="E126" t="n">
-        <v>2172843</v>
+        <v>2197346</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>91.5222933504522</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>127.8499583219716</v>
       </c>
       <c r="H126" t="n">
-        <v>4.07</v>
+        <v>2.78</v>
       </c>
       <c r="I126" t="n">
-        <v>89085</v>
+        <v>87574</v>
       </c>
     </row>
     <row r="127">
@@ -4855,19 +4855,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>642128</v>
+        <v>633761</v>
       </c>
       <c r="F127" t="n">
-        <v>424.2027924155385</v>
+        <v>424.2179643109959</v>
       </c>
       <c r="G127" t="n">
-        <v>499.9286472790357</v>
+        <v>377.5495849507317</v>
       </c>
       <c r="H127" t="n">
-        <v>0.97</v>
+        <v>1.94</v>
       </c>
       <c r="I127" t="n">
-        <v>5229.8</v>
+        <v>4510.47</v>
       </c>
     </row>
     <row r="128">
@@ -4887,22 +4887,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4948098</v>
+        <v>4961492</v>
       </c>
       <c r="E128" t="n">
-        <v>17483934</v>
+        <v>17531259</v>
       </c>
       <c r="F128" t="n">
-        <v>1557.549701144575</v>
+        <v>1499.010386304808</v>
       </c>
       <c r="G128" t="n">
-        <v>2064.007009286457</v>
+        <v>1995.633412291666</v>
       </c>
       <c r="H128" t="n">
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="I128" t="n">
-        <v>112693</v>
+        <v>110971</v>
       </c>
     </row>
     <row r="129">
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2115339</v>
+        <v>2155589</v>
       </c>
       <c r="F129" t="n">
-        <v>66.66032998818916</v>
+        <v>94.54165458779512</v>
       </c>
       <c r="G129" t="n">
-        <v>317.2304924867477</v>
+        <v>20.78915183433855</v>
       </c>
       <c r="H129" t="n">
-        <v>0.95</v>
+        <v>0.14</v>
       </c>
       <c r="I129" t="n">
-        <v>8552.67</v>
+        <v>8249.639999999999</v>
       </c>
     </row>
     <row r="130">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2573913</v>
+        <v>2525130</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2612.4</v>
+        <v>2556.81</v>
       </c>
     </row>
     <row r="131">
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>84102</v>
+        <v>84091</v>
       </c>
       <c r="E131" t="n">
-        <v>84102</v>
+        <v>84091</v>
       </c>
       <c r="F131" t="n">
-        <v>6.213442291842118</v>
+        <v>6.214725940624534</v>
       </c>
       <c r="G131" t="n">
-        <v>162.9026982279384</v>
+        <v>162.6914155000013</v>
       </c>
       <c r="H131" t="n">
         <v>1.65</v>
       </c>
       <c r="I131" t="n">
-        <v>21721</v>
+        <v>21170</v>
       </c>
     </row>
     <row r="132">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>4321158</v>
+        <v>4309954</v>
       </c>
       <c r="F132" t="n">
-        <v>272.5486106940471</v>
+        <v>193.6835047317721</v>
       </c>
       <c r="G132" t="n">
-        <v>680.4982978007054</v>
+        <v>590.796118442559</v>
       </c>
       <c r="H132" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I132" t="n">
-        <v>263914</v>
+        <v>261158</v>
       </c>
     </row>
     <row r="133">
@@ -5060,22 +5060,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2143469</v>
+        <v>2107454</v>
       </c>
       <c r="E133" t="n">
-        <v>8753373</v>
+        <v>8606295</v>
       </c>
       <c r="F133" t="n">
-        <v>596.6948417362527</v>
+        <v>466.448554335945</v>
       </c>
       <c r="G133" t="n">
-        <v>665.9469148633065</v>
+        <v>864.4860794982656</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I133" t="n">
-        <v>520005</v>
+        <v>513549</v>
       </c>
     </row>
     <row r="134">
@@ -5095,22 +5095,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7495255</v>
+        <v>7422439</v>
       </c>
       <c r="E134" t="n">
-        <v>7550970</v>
+        <v>7477612</v>
       </c>
       <c r="F134" t="n">
-        <v>302743.0042943863</v>
+        <v>350945.989834146</v>
       </c>
       <c r="G134" t="n">
-        <v>55090.83301112083</v>
+        <v>247724.943475618</v>
       </c>
       <c r="H134" t="n">
         <v>0.33</v>
       </c>
       <c r="I134" t="n">
-        <v>4985942</v>
+        <v>5006015</v>
       </c>
     </row>
     <row r="135">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14196098</v>
+        <v>14165058</v>
       </c>
       <c r="E135" t="n">
-        <v>14244409</v>
+        <v>14213263</v>
       </c>
       <c r="F135" t="n">
-        <v>14100.67580793973</v>
+        <v>10411.88391147414</v>
       </c>
       <c r="G135" t="n">
-        <v>10318.37358395823</v>
+        <v>14245.62099595693</v>
       </c>
       <c r="H135" t="n">
         <v>0.19</v>
       </c>
       <c r="I135" t="n">
-        <v>6247010</v>
+        <v>6502779</v>
       </c>
     </row>
     <row r="136">
@@ -5165,22 +5165,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>43462649</v>
+        <v>43443160</v>
       </c>
       <c r="E136" t="n">
-        <v>73789467</v>
+        <v>73756380</v>
       </c>
       <c r="F136" t="n">
-        <v>372.1325490396343</v>
+        <v>418.1119260396905</v>
       </c>
       <c r="G136" t="n">
-        <v>1456.081980912598</v>
+        <v>1477.596610367586</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I136" t="n">
-        <v>1070554</v>
+        <v>1062089</v>
       </c>
     </row>
     <row r="137">
@@ -5200,22 +5200,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22685608</v>
+        <v>23101669</v>
       </c>
       <c r="E137" t="n">
-        <v>68002267</v>
+        <v>69249451</v>
       </c>
       <c r="F137" t="n">
-        <v>94539.56074438104</v>
+        <v>80580.85174274126</v>
       </c>
       <c r="G137" t="n">
-        <v>82269.34197378575</v>
+        <v>93436.40063647101</v>
       </c>
       <c r="H137" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I137" t="n">
-        <v>3561661</v>
+        <v>3616248</v>
       </c>
     </row>
     <row r="138">
@@ -5235,22 +5235,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>104416616</v>
+        <v>103164257</v>
       </c>
       <c r="E138" t="n">
-        <v>111004299</v>
+        <v>109672929</v>
       </c>
       <c r="F138" t="n">
-        <v>11978.68023405579</v>
+        <v>10208.44566770319</v>
       </c>
       <c r="G138" t="n">
-        <v>11256.93898756574</v>
+        <v>14210.27439152487</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="I138" t="n">
-        <v>1509668</v>
+        <v>449204</v>
       </c>
     </row>
     <row r="139">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1166213</v>
+        <v>1166320</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>4.89</v>
+        <v>7.29</v>
       </c>
       <c r="I139" t="n">
-        <v>1252.57</v>
+        <v>1255.82</v>
       </c>
     </row>
     <row r="140">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>258551</v>
+        <v>258581</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>8.19</v>
+        <v>7.75</v>
       </c>
       <c r="I140" t="n">
-        <v>82.90000000000001</v>
+        <v>67.44</v>
       </c>
     </row>
     <row r="141">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>91774</v>
+        <v>93065</v>
       </c>
       <c r="E141" t="n">
-        <v>260342</v>
+        <v>264003</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>175.18</v>
+        <v>202.69</v>
       </c>
     </row>
     <row r="142">
@@ -5369,22 +5369,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>51101329</v>
+        <v>51258586</v>
       </c>
       <c r="E142" t="n">
-        <v>220138939</v>
+        <v>220816384</v>
       </c>
       <c r="F142" t="n">
-        <v>62415.09008484724</v>
+        <v>58364.72841209005</v>
       </c>
       <c r="G142" t="n">
-        <v>92829.21595066848</v>
+        <v>100266.8030684646</v>
       </c>
       <c r="H142" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I142" t="n">
-        <v>10256074</v>
+        <v>10591096</v>
       </c>
     </row>
     <row r="143">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>269811</v>
+        <v>270055</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5416,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8.220000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I143" t="n">
-        <v>10502.89</v>
+        <v>10406.44</v>
       </c>
     </row>
     <row r="144">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>9481759</v>
+        <v>9410737</v>
       </c>
       <c r="F144" t="n">
-        <v>1076.37826461651</v>
+        <v>572.2586216159007</v>
       </c>
       <c r="G144" t="n">
-        <v>633.3429777747371</v>
+        <v>1054.851186074777</v>
       </c>
       <c r="H144" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="I144" t="n">
-        <v>98590</v>
+        <v>102189</v>
       </c>
     </row>
     <row r="145">
@@ -5474,22 +5474,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1172412</v>
+        <v>1177059</v>
       </c>
       <c r="E145" t="n">
-        <v>7816081</v>
+        <v>7847062</v>
       </c>
       <c r="F145" t="n">
-        <v>263.4597441108619</v>
+        <v>263.4690645587386</v>
       </c>
       <c r="G145" t="n">
-        <v>105.0073022438107</v>
+        <v>105.0110171000994</v>
       </c>
       <c r="H145" t="n">
         <v>1.01</v>
       </c>
       <c r="I145" t="n">
-        <v>5612.22</v>
+        <v>5235.96</v>
       </c>
     </row>
     <row r="146">
@@ -5512,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>7674742</v>
+        <v>7604645</v>
       </c>
       <c r="F146" t="n">
-        <v>1957.458973506201</v>
+        <v>256.3287790625918</v>
       </c>
       <c r="G146" t="n">
-        <v>62.37577802423876</v>
+        <v>14.44251689059256</v>
       </c>
       <c r="H146" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="I146" t="n">
-        <v>6684375</v>
+        <v>6686481</v>
       </c>
     </row>
     <row r="147">
@@ -5544,22 +5544,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>677103</v>
+        <v>677617</v>
       </c>
       <c r="E147" t="n">
-        <v>2444125</v>
+        <v>2445952</v>
       </c>
       <c r="F147" t="n">
-        <v>35.6342708981417</v>
+        <v>272.4700888677637</v>
       </c>
       <c r="G147" t="n">
-        <v>106.2117218271164</v>
+        <v>55.58682839000152</v>
       </c>
       <c r="H147" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>345178</v>
+        <v>340614</v>
       </c>
     </row>
     <row r="148">
@@ -5582,19 +5582,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1717004</v>
+        <v>1756128</v>
       </c>
       <c r="F148" t="n">
-        <v>25.31041419168193</v>
+        <v>1144.962316179619</v>
       </c>
       <c r="G148" t="n">
-        <v>26.55379370334423</v>
+        <v>18.00185489474539</v>
       </c>
       <c r="H148" t="n">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="I148" t="n">
-        <v>76707</v>
+        <v>75470</v>
       </c>
     </row>
     <row r="149">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>67212</v>
+        <v>67218</v>
       </c>
       <c r="F149" t="n">
-        <v>24.27013169992613</v>
+        <v>7.603433279640487</v>
       </c>
       <c r="G149" t="n">
-        <v>8.127499024068014</v>
+        <v>1.16427308991692</v>
       </c>
       <c r="H149" t="n">
-        <v>3.12</v>
+        <v>3.45</v>
       </c>
       <c r="I149" t="n">
-        <v>2110.11</v>
+        <v>1968.77</v>
       </c>
     </row>
     <row r="150">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13610222</v>
+        <v>13595222</v>
       </c>
       <c r="E150" t="n">
-        <v>13610222</v>
+        <v>13595222</v>
       </c>
       <c r="F150" t="n">
-        <v>210.8911031065054</v>
+        <v>401.1671434309619</v>
       </c>
       <c r="G150" t="n">
-        <v>670.6400559101061</v>
+        <v>901.5144390637488</v>
       </c>
       <c r="H150" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I150" t="n">
-        <v>4058112</v>
+        <v>4202425</v>
       </c>
     </row>
     <row r="151">
@@ -5684,22 +5684,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2397212</v>
+        <v>2172639</v>
       </c>
       <c r="E151" t="n">
-        <v>8703809</v>
+        <v>7888157</v>
       </c>
       <c r="F151" t="n">
-        <v>457.535973915916</v>
+        <v>139.2639613156799</v>
       </c>
       <c r="G151" t="n">
-        <v>28.98048383493327</v>
+        <v>410.4368843581194</v>
       </c>
       <c r="H151" t="n">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="I151" t="n">
-        <v>201080</v>
+        <v>196961</v>
       </c>
     </row>
     <row r="152">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1280692</v>
+        <v>1283354</v>
       </c>
       <c r="E152" t="n">
-        <v>1280692</v>
+        <v>1283354</v>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1466.05</v>
+        <v>1469.1</v>
       </c>
     </row>
     <row r="153">
@@ -5752,22 +5752,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23395031</v>
+        <v>23321849</v>
       </c>
       <c r="E153" t="n">
-        <v>27005728</v>
+        <v>26921251</v>
       </c>
       <c r="F153" t="n">
-        <v>302.6128686423158</v>
+        <v>359.6613513488799</v>
       </c>
       <c r="G153" t="n">
-        <v>419.3952625918217</v>
+        <v>255.4574661404185</v>
       </c>
       <c r="H153" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="I153" t="n">
-        <v>737464</v>
+        <v>748226</v>
       </c>
     </row>
     <row r="154">
@@ -5787,22 +5787,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2442239</v>
+        <v>2443789</v>
       </c>
       <c r="E154" t="n">
-        <v>18377223</v>
+        <v>18388882</v>
       </c>
       <c r="F154" t="n">
-        <v>3503.41639820921</v>
+        <v>3644.258110355705</v>
       </c>
       <c r="G154" t="n">
-        <v>3996.67680104088</v>
+        <v>4182.873128032949</v>
       </c>
       <c r="H154" t="n">
         <v>0.05</v>
       </c>
       <c r="I154" t="n">
-        <v>163970</v>
+        <v>162262</v>
       </c>
     </row>
     <row r="155">
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>20327074</v>
+        <v>20500395</v>
       </c>
       <c r="E155" t="n">
-        <v>81308297</v>
+        <v>82001579</v>
       </c>
       <c r="F155" t="n">
-        <v>10022.8944442972</v>
+        <v>15244.97720147759</v>
       </c>
       <c r="G155" t="n">
-        <v>28721.40382708434</v>
+        <v>30357.57733581299</v>
       </c>
       <c r="H155" t="n">
         <v>0.61</v>
       </c>
       <c r="I155" t="n">
-        <v>2486495</v>
+        <v>2455189</v>
       </c>
     </row>
     <row r="156">
@@ -5857,22 +5857,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>323465502</v>
+        <v>330197758</v>
       </c>
       <c r="E156" t="n">
-        <v>323465502</v>
+        <v>330197758</v>
       </c>
       <c r="F156" t="n">
-        <v>394649.7213245266</v>
+        <v>290824.0683379218</v>
       </c>
       <c r="G156" t="n">
-        <v>295650.5209457268</v>
+        <v>401678.6956709992</v>
       </c>
       <c r="H156" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I156" t="n">
-        <v>16294566</v>
+        <v>16678925</v>
       </c>
     </row>
     <row r="157">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12727370</v>
+        <v>12675279</v>
       </c>
       <c r="E157" t="n">
-        <v>40259067</v>
+        <v>40093217</v>
       </c>
       <c r="F157" t="n">
-        <v>9543.568387418249</v>
+        <v>8245.675468171772</v>
       </c>
       <c r="G157" t="n">
-        <v>30293.69373279056</v>
+        <v>33074.29092070425</v>
       </c>
       <c r="H157" t="n">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="I157" t="n">
-        <v>963052</v>
+        <v>964649</v>
       </c>
     </row>
     <row r="158">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1130021</v>
+        <v>1130418</v>
       </c>
       <c r="E158" t="n">
-        <v>2573735</v>
+        <v>2574638</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6.62</v>
+        <v>4.87</v>
       </c>
       <c r="I158" t="n">
-        <v>770.87</v>
+        <v>725.51</v>
       </c>
     </row>
     <row r="159">
@@ -5962,22 +5962,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18996307</v>
+        <v>19262493</v>
       </c>
       <c r="E159" t="n">
-        <v>18996307</v>
+        <v>19262493</v>
       </c>
       <c r="F159" t="n">
-        <v>17876.16010696456</v>
+        <v>18250.33399027054</v>
       </c>
       <c r="G159" t="n">
-        <v>17026.30043665316</v>
+        <v>18139.37287543149</v>
       </c>
       <c r="H159" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I159" t="n">
-        <v>4792097</v>
+        <v>5015149</v>
       </c>
     </row>
     <row r="160">
@@ -5997,10 +5997,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4613286</v>
+        <v>4613709</v>
       </c>
       <c r="E160" t="n">
-        <v>8493552</v>
+        <v>8494331</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>13.25</v>
+        <v>13.24</v>
       </c>
       <c r="I160" t="n">
-        <v>65.11</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="161">
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>111508</v>
+        <v>111928</v>
       </c>
       <c r="E161" t="n">
-        <v>135001</v>
+        <v>135508</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>8.529999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="I161" t="n">
-        <v>3329.77</v>
+        <v>2989.82</v>
       </c>
     </row>
     <row r="162">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>19731570</v>
+        <v>20775339</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>13.97</v>
+        <v>14.45</v>
       </c>
       <c r="I162" t="n">
-        <v>1453.71</v>
+        <v>1216.55</v>
       </c>
     </row>
     <row r="163">
@@ -6102,22 +6102,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>433636</v>
+        <v>441786</v>
       </c>
       <c r="E163" t="n">
-        <v>546219</v>
+        <v>556486</v>
       </c>
       <c r="F163" t="n">
-        <v>223.6552128267844</v>
+        <v>200.4186282989223</v>
       </c>
       <c r="G163" t="n">
-        <v>120.3080268237317</v>
+        <v>79.21270523405643</v>
       </c>
       <c r="H163" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
       <c r="I163" t="n">
-        <v>185956</v>
+        <v>192381</v>
       </c>
     </row>
     <row r="164">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>103019</v>
+        <v>103929</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>4.68</v>
+        <v>4.58</v>
       </c>
       <c r="I164" t="n">
-        <v>2609.92</v>
+        <v>1639.01</v>
       </c>
     </row>
     <row r="165">
@@ -6172,22 +6172,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12773828</v>
+        <v>12777921</v>
       </c>
       <c r="E165" t="n">
-        <v>19444647</v>
+        <v>19450877</v>
       </c>
       <c r="F165" t="n">
-        <v>3296.827187814902</v>
+        <v>2926.341893884804</v>
       </c>
       <c r="G165" t="n">
-        <v>4832.701181172111</v>
+        <v>4210.191026151777</v>
       </c>
       <c r="H165" t="n">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="I165" t="n">
-        <v>668923</v>
+        <v>660662</v>
       </c>
     </row>
     <row r="166">
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="E166" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="F166" t="n">
-        <v>361216.4279058803</v>
+        <v>303288.7876504702</v>
       </c>
       <c r="G166" t="n">
-        <v>344118.6183192665</v>
+        <v>416486.6051674474</v>
       </c>
       <c r="H166" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>71496795</v>
+        <v>72638349</v>
       </c>
     </row>
     <row r="167">
@@ -6242,22 +6242,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10461594</v>
+        <v>10341641</v>
       </c>
       <c r="E167" t="n">
-        <v>29702210</v>
+        <v>29361644</v>
       </c>
       <c r="F167" t="n">
-        <v>717.1654724929482</v>
+        <v>3.699835124926286</v>
       </c>
       <c r="G167" t="n">
-        <v>72.14850711268382</v>
+        <v>2161.493161138634</v>
       </c>
       <c r="H167" t="n">
-        <v>0.67</v>
+        <v>1.36</v>
       </c>
       <c r="I167" t="n">
-        <v>130458</v>
+        <v>122322</v>
       </c>
     </row>
     <row r="168">
@@ -6280,19 +6280,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>11672426</v>
+        <v>11713138</v>
       </c>
       <c r="F168" t="n">
-        <v>353.1974423933585</v>
+        <v>56.75668872320515</v>
       </c>
       <c r="G168" t="n">
-        <v>1113.403363606285</v>
+        <v>1122.518158146003</v>
       </c>
       <c r="H168" t="n">
         <v>0.6</v>
       </c>
       <c r="I168" t="n">
-        <v>77935</v>
+        <v>76101</v>
       </c>
     </row>
     <row r="169">
@@ -6312,22 +6312,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4341266</v>
+        <v>4334391</v>
       </c>
       <c r="E169" t="n">
-        <v>29663563</v>
+        <v>29616588</v>
       </c>
       <c r="F169" t="n">
-        <v>2474.023071833327</v>
+        <v>2324.280733764296</v>
       </c>
       <c r="G169" t="n">
-        <v>2811.193859450251</v>
+        <v>2750.89347853766</v>
       </c>
       <c r="H169" t="n">
         <v>0.67</v>
       </c>
       <c r="I169" t="n">
-        <v>2610643</v>
+        <v>2571282</v>
       </c>
     </row>
     <row r="170">
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2950273</v>
+        <v>2974168</v>
       </c>
       <c r="E170" t="n">
-        <v>4371347</v>
+        <v>4406167</v>
       </c>
       <c r="F170" t="n">
-        <v>2849.561121524226</v>
+        <v>3921.108526761281</v>
       </c>
       <c r="G170" t="n">
-        <v>2354.044929983902</v>
+        <v>3895.815560518079</v>
       </c>
       <c r="H170" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I170" t="n">
-        <v>130539</v>
+        <v>122127</v>
       </c>
     </row>
     <row r="171">
@@ -6382,22 +6382,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>93260580</v>
+        <v>94360954</v>
       </c>
       <c r="E171" t="n">
-        <v>537407686</v>
+        <v>543748516</v>
       </c>
       <c r="F171" t="n">
-        <v>436036.7302966802</v>
+        <v>446372.9877517323</v>
       </c>
       <c r="G171" t="n">
-        <v>385794.3932921038</v>
+        <v>312756.277624628</v>
       </c>
       <c r="H171" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I171" t="n">
-        <v>18302084</v>
+        <v>18343828</v>
       </c>
     </row>
     <row r="172">
@@ -6417,22 +6417,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>13812191</v>
+        <v>13825483</v>
       </c>
       <c r="E172" t="n">
-        <v>13812191</v>
+        <v>13825483</v>
       </c>
       <c r="F172" t="n">
-        <v>5060.292570442189</v>
+        <v>4408.049516769446</v>
       </c>
       <c r="G172" t="n">
-        <v>5195.377673924683</v>
+        <v>5121.97645123739</v>
       </c>
       <c r="H172" t="n">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="I172" t="n">
-        <v>615467</v>
+        <v>619410</v>
       </c>
     </row>
     <row r="173">
@@ -6452,22 +6452,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6145909</v>
+        <v>6144104</v>
       </c>
       <c r="E173" t="n">
-        <v>17458762</v>
+        <v>17453636</v>
       </c>
       <c r="F173" t="n">
-        <v>677.3621528568469</v>
+        <v>680.6142926144735</v>
       </c>
       <c r="G173" t="n">
-        <v>8915.728246630142</v>
+        <v>8959.913352507139</v>
       </c>
       <c r="H173" t="n">
-        <v>0.11</v>
+        <v>0.91</v>
       </c>
       <c r="I173" t="n">
-        <v>160711</v>
+        <v>144678</v>
       </c>
     </row>
     <row r="174">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19577954</v>
+        <v>20848450</v>
       </c>
       <c r="E174" t="n">
-        <v>19577954</v>
+        <v>20848450</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>4.25</v>
+        <v>4.18</v>
       </c>
       <c r="I174" t="n">
-        <v>132428</v>
+        <v>140943</v>
       </c>
     </row>
     <row r="175">
@@ -6525,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1338912</v>
+        <v>1342067</v>
       </c>
       <c r="F175" t="n">
-        <v>869.3858627237195</v>
+        <v>84.20817943348568</v>
       </c>
       <c r="G175" t="n">
-        <v>196.4612739722715</v>
+        <v>341.6488138090522</v>
       </c>
       <c r="H175" t="n">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="I175" t="n">
-        <v>32554</v>
+        <v>32173</v>
       </c>
     </row>
     <row r="176">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>129941</v>
+        <v>147761</v>
       </c>
       <c r="E176" t="n">
-        <v>282879</v>
+        <v>321673</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>6.81</v>
       </c>
       <c r="I176" t="n">
-        <v>47384</v>
+        <v>53590</v>
       </c>
     </row>
     <row r="177">
@@ -6595,19 +6595,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2760644</v>
+        <v>2804463</v>
       </c>
       <c r="F177" t="n">
-        <v>317.1945879882393</v>
+        <v>726.9395537595163</v>
       </c>
       <c r="G177" t="n">
-        <v>2002.613271207678</v>
+        <v>625.0651111695304</v>
       </c>
       <c r="H177" t="n">
-        <v>1.08</v>
+        <v>1.77</v>
       </c>
       <c r="I177" t="n">
-        <v>462521</v>
+        <v>457535</v>
       </c>
     </row>
     <row r="178">
@@ -6627,22 +6627,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>253609438</v>
+        <v>255400289</v>
       </c>
       <c r="E178" t="n">
-        <v>253611958</v>
+        <v>255402827</v>
       </c>
       <c r="F178" t="n">
-        <v>49998.65120088911</v>
+        <v>50936.23678585491</v>
       </c>
       <c r="G178" t="n">
-        <v>50042.46470578681</v>
+        <v>70849.61708332984</v>
       </c>
       <c r="H178" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I178" t="n">
-        <v>2465068</v>
+        <v>2729146</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6662,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9545987</v>
+        <v>9621257</v>
       </c>
       <c r="E179" t="n">
-        <v>9545987</v>
+        <v>9621257</v>
       </c>
       <c r="F179" t="n">
-        <v>720.2401371027973</v>
+        <v>7.367765635334921</v>
       </c>
       <c r="G179" t="n">
-        <v>56.9595569502296</v>
+        <v>37.45753666345501</v>
       </c>
       <c r="H179" t="n">
-        <v>2.28</v>
+        <v>3.53</v>
       </c>
       <c r="I179" t="n">
-        <v>2193683</v>
+        <v>2229464</v>
       </c>
     </row>
     <row r="180">
@@ -6697,22 +6697,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>199203</v>
+        <v>202916</v>
       </c>
       <c r="E180" t="n">
-        <v>1538246</v>
+        <v>1566917</v>
       </c>
       <c r="F180" t="n">
-        <v>42.51676031201401</v>
+        <v>124.0201237479948</v>
       </c>
       <c r="G180" t="n">
-        <v>6.283667857720817</v>
+        <v>610.238230936631</v>
       </c>
       <c r="H180" t="n">
-        <v>1.79</v>
+        <v>3.14</v>
       </c>
       <c r="I180" t="n">
-        <v>95373</v>
+        <v>84254</v>
       </c>
     </row>
     <row r="181">
@@ -6732,22 +6732,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>31781664</v>
+        <v>33115476</v>
       </c>
       <c r="E181" t="n">
-        <v>142299547</v>
+        <v>148271569</v>
       </c>
       <c r="F181" t="n">
-        <v>52568.33541836774</v>
+        <v>51781.10270261455</v>
       </c>
       <c r="G181" t="n">
-        <v>73637.86897897538</v>
+        <v>73717.09300626177</v>
       </c>
       <c r="H181" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I181" t="n">
-        <v>7952992</v>
+        <v>8727961</v>
       </c>
     </row>
     <row r="182">
@@ -6770,19 +6770,19 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1463192</v>
+        <v>1455924</v>
       </c>
       <c r="F182" t="n">
-        <v>100.717987803663</v>
+        <v>89.32497650042401</v>
       </c>
       <c r="G182" t="n">
-        <v>4971.930506245657</v>
+        <v>4390.433666510648</v>
       </c>
       <c r="H182" t="n">
-        <v>0.11</v>
+        <v>1.62</v>
       </c>
       <c r="I182" t="n">
-        <v>48167</v>
+        <v>48336</v>
       </c>
     </row>
     <row r="183">
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3229263</v>
+        <v>3239156</v>
       </c>
       <c r="E183" t="n">
-        <v>3229263</v>
+        <v>3239156</v>
       </c>
       <c r="F183" t="n">
-        <v>393.4251367768695</v>
+        <v>38.83733673056659</v>
       </c>
       <c r="G183" t="n">
-        <v>243.5492246778549</v>
+        <v>1355.044735429046</v>
       </c>
       <c r="H183" t="n">
-        <v>1.39</v>
+        <v>0.36</v>
       </c>
       <c r="I183" t="n">
-        <v>422038</v>
+        <v>412930</v>
       </c>
     </row>
     <row r="184">
@@ -6837,22 +6837,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>586074</v>
+        <v>587948</v>
       </c>
       <c r="E184" t="n">
-        <v>586074</v>
+        <v>587948</v>
       </c>
       <c r="F184" t="n">
-        <v>91.15696323619133</v>
+        <v>4.837449452984332</v>
       </c>
       <c r="G184" t="n">
-        <v>4.752401257568896</v>
+        <v>0.695022515600658</v>
       </c>
       <c r="H184" t="n">
-        <v>3.45</v>
+        <v>1.75</v>
       </c>
       <c r="I184" t="n">
-        <v>1125900</v>
+        <v>1155163</v>
       </c>
     </row>
     <row r="185">
@@ -6872,22 +6872,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15779338</v>
+        <v>15489416</v>
       </c>
       <c r="E185" t="n">
-        <v>20089617</v>
+        <v>19720499</v>
       </c>
       <c r="F185" t="n">
-        <v>111.5198038997281</v>
+        <v>271.534562068929</v>
       </c>
       <c r="G185" t="n">
-        <v>1954.345093143665</v>
+        <v>211.3826268759021</v>
       </c>
       <c r="H185" t="n">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
       <c r="I185" t="n">
-        <v>977787</v>
+        <v>995217</v>
       </c>
     </row>
     <row r="186">
@@ -6907,22 +6907,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1788272</v>
+        <v>1811689</v>
       </c>
       <c r="E186" t="n">
-        <v>1788272</v>
+        <v>1811689</v>
       </c>
       <c r="F186" t="n">
-        <v>53.77203141239966</v>
+        <v>39.2343279603151</v>
       </c>
       <c r="G186" t="n">
-        <v>102.0601043956968</v>
+        <v>23.74794824082741</v>
       </c>
       <c r="H186" t="n">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
       <c r="I186" t="n">
-        <v>3776.29</v>
+        <v>3692.35</v>
       </c>
     </row>
     <row r="187">
@@ -6942,22 +6942,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>52170466</v>
+        <v>52934975</v>
       </c>
       <c r="E187" t="n">
-        <v>338311588</v>
+        <v>343269223</v>
       </c>
       <c r="F187" t="n">
-        <v>154899.9616143609</v>
+        <v>171365.590828238</v>
       </c>
       <c r="G187" t="n">
-        <v>183033.3305494049</v>
+        <v>188471.3647010135</v>
       </c>
       <c r="H187" t="n">
         <v>0.06</v>
       </c>
       <c r="I187" t="n">
-        <v>17696162</v>
+        <v>17677720</v>
       </c>
     </row>
     <row r="188">
@@ -6980,19 +6980,19 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>9094288</v>
+        <v>9064267</v>
       </c>
       <c r="F188" t="n">
-        <v>728.3819238125311</v>
+        <v>843.1874835444162</v>
       </c>
       <c r="G188" t="n">
-        <v>325.1784265314328</v>
+        <v>509.5598526786788</v>
       </c>
       <c r="H188" t="n">
-        <v>1.85</v>
+        <v>2.29</v>
       </c>
       <c r="I188" t="n">
-        <v>294349</v>
+        <v>268021</v>
       </c>
     </row>
     <row r="189">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7392932</v>
+        <v>7567216</v>
       </c>
       <c r="E189" t="n">
-        <v>7402580</v>
+        <v>7577998</v>
       </c>
       <c r="F189" t="n">
-        <v>286.3544193239756</v>
+        <v>166.3750648248087</v>
       </c>
       <c r="G189" t="n">
-        <v>532.3972017878567</v>
+        <v>909.9775049176156</v>
       </c>
       <c r="H189" t="n">
-        <v>1.01</v>
+        <v>0.33</v>
       </c>
       <c r="I189" t="n">
-        <v>698552</v>
+        <v>702475</v>
       </c>
     </row>
     <row r="190">
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>4825010</v>
+        <v>4802378</v>
       </c>
       <c r="F190" t="n">
-        <v>1927.473013979319</v>
+        <v>2370.846080239135</v>
       </c>
       <c r="G190" t="n">
-        <v>2636.379325412167</v>
+        <v>2073.304862977498</v>
       </c>
       <c r="H190" t="n">
-        <v>1.65</v>
+        <v>0.99</v>
       </c>
       <c r="I190" t="n">
-        <v>201471</v>
+        <v>203194</v>
       </c>
     </row>
     <row r="191">
@@ -7082,22 +7082,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>102718157</v>
+        <v>104390014</v>
       </c>
       <c r="E191" t="n">
-        <v>103823848</v>
+        <v>105513702</v>
       </c>
       <c r="F191" t="n">
-        <v>42843.38777524575</v>
+        <v>36777.26508250858</v>
       </c>
       <c r="G191" t="n">
-        <v>62491.72129353246</v>
+        <v>71745.16013613855</v>
       </c>
       <c r="H191" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I191" t="n">
-        <v>51413124</v>
+        <v>55334626</v>
       </c>
     </row>
     <row r="192">
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>251903121</v>
+        <v>263436555</v>
       </c>
       <c r="E192" t="n">
-        <v>251903121</v>
+        <v>263436555</v>
       </c>
       <c r="F192" t="n">
-        <v>79513.47748447626</v>
+        <v>95630.08352733997</v>
       </c>
       <c r="G192" t="n">
-        <v>118092.9994364241</v>
+        <v>147819.8463904365</v>
       </c>
       <c r="H192" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I192" t="n">
-        <v>52061325</v>
+        <v>54036864</v>
       </c>
     </row>
     <row r="193">
@@ -7152,22 +7152,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25072086</v>
+        <v>25304578</v>
       </c>
       <c r="E193" t="n">
-        <v>150011332</v>
+        <v>151402378</v>
       </c>
       <c r="F193" t="n">
-        <v>92785.05928358174</v>
+        <v>93241.07681582365</v>
       </c>
       <c r="G193" t="n">
-        <v>127545.3195379271</v>
+        <v>156690.802733464</v>
       </c>
       <c r="H193" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I193" t="n">
-        <v>13227141</v>
+        <v>13637929</v>
       </c>
     </row>
     <row r="194">
@@ -7187,22 +7187,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14162104</v>
+        <v>14526701</v>
       </c>
       <c r="E194" t="n">
-        <v>42801808</v>
+        <v>43903722</v>
       </c>
       <c r="F194" t="n">
-        <v>472.8830370441037</v>
+        <v>2263.470073061006</v>
       </c>
       <c r="G194" t="n">
-        <v>706.8055195829342</v>
+        <v>942.3219477073879</v>
       </c>
       <c r="H194" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I194" t="n">
-        <v>2253901</v>
+        <v>2608539</v>
       </c>
     </row>
     <row r="195">
@@ -7222,22 +7222,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>54542801</v>
+        <v>55116596</v>
       </c>
       <c r="E195" t="n">
-        <v>94207275</v>
+        <v>95198343</v>
       </c>
       <c r="F195" t="n">
-        <v>14741.77966591681</v>
+        <v>14125.55394871974</v>
       </c>
       <c r="G195" t="n">
-        <v>8895.375830284178</v>
+        <v>14579.44435006875</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I195" t="n">
-        <v>2203377</v>
+        <v>2276756</v>
       </c>
     </row>
     <row r="196">
@@ -7257,22 +7257,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4348456</v>
+        <v>4338558</v>
       </c>
       <c r="E196" t="n">
-        <v>4348456</v>
+        <v>4338558</v>
       </c>
       <c r="F196" t="n">
-        <v>245.6365953610303</v>
+        <v>1.064391848105801</v>
       </c>
       <c r="G196" t="n">
-        <v>45.66339713011101</v>
+        <v>423.0343559909537</v>
       </c>
       <c r="H196" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="I196" t="n">
-        <v>1766294</v>
+        <v>1770327</v>
       </c>
     </row>
     <row r="197">
@@ -7295,19 +7295,19 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>210058</v>
+        <v>213179</v>
       </c>
       <c r="F197" t="n">
-        <v>15.46814191374635</v>
+        <v>11.33608266208832</v>
       </c>
       <c r="G197" t="n">
-        <v>26.79048716219955</v>
+        <v>64.97299425625724</v>
       </c>
       <c r="H197" t="n">
-        <v>2.49</v>
+        <v>1.95</v>
       </c>
       <c r="I197" t="n">
-        <v>54223</v>
+        <v>56399</v>
       </c>
     </row>
     <row r="198">
@@ -7327,22 +7327,22 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6708404</v>
+        <v>6759155</v>
       </c>
       <c r="E198" t="n">
-        <v>34512703</v>
+        <v>34773801</v>
       </c>
       <c r="F198" t="n">
-        <v>394.922842352365</v>
+        <v>382.5251986569426</v>
       </c>
       <c r="G198" t="n">
-        <v>508.3510443899962</v>
+        <v>313.492281594548</v>
       </c>
       <c r="H198" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="I198" t="n">
-        <v>912578</v>
+        <v>934546</v>
       </c>
     </row>
     <row r="199">
@@ -7362,22 +7362,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>177606620</v>
+        <v>178264416</v>
       </c>
       <c r="E199" t="n">
-        <v>207496974</v>
+        <v>208265474</v>
       </c>
       <c r="F199" t="n">
-        <v>52010.16956711953</v>
+        <v>41902.93633570898</v>
       </c>
       <c r="G199" t="n">
-        <v>22793.76722363903</v>
+        <v>17871.05975076012</v>
       </c>
       <c r="H199" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="I199" t="n">
-        <v>3897604</v>
+        <v>4100228</v>
       </c>
     </row>
     <row r="200">
@@ -7400,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>303628</v>
+        <v>303531</v>
       </c>
       <c r="F200" t="n">
-        <v>5.595831724625607</v>
+        <v>5.596128594959708</v>
       </c>
       <c r="G200" t="n">
-        <v>68.92967289827877</v>
+        <v>68.93332975860442</v>
       </c>
       <c r="H200" t="n">
         <v>0.33</v>
       </c>
       <c r="I200" t="n">
-        <v>297149</v>
+        <v>289709</v>
       </c>
     </row>
     <row r="201">
@@ -7435,19 +7435,19 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>7989952</v>
+        <v>7999353</v>
       </c>
       <c r="F201" t="n">
-        <v>1071.86030704484</v>
+        <v>1071.936079864279</v>
       </c>
       <c r="G201" t="n">
-        <v>799.3905635242711</v>
+        <v>765.1722248343847</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I201" t="n">
-        <v>657005</v>
+        <v>652658</v>
       </c>
     </row>
     <row r="202">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>34005</v>
+        <v>34018</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5.56</v>
       </c>
       <c r="I202" t="n">
-        <v>605.13</v>
+        <v>605.66</v>
       </c>
     </row>
     <row r="203">
@@ -7502,22 +7502,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>35579545</v>
+        <v>35948325</v>
       </c>
       <c r="E203" t="n">
-        <v>177558333</v>
+        <v>179398711</v>
       </c>
       <c r="F203" t="n">
-        <v>117369.3274602977</v>
+        <v>95823.50528915845</v>
       </c>
       <c r="G203" t="n">
-        <v>106574.179074231</v>
+        <v>112386.9421861993</v>
       </c>
       <c r="H203" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I203" t="n">
-        <v>10692876</v>
+        <v>10377503</v>
       </c>
     </row>
     <row r="204">
@@ -7537,22 +7537,22 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1977211</v>
+        <v>1999016</v>
       </c>
       <c r="E204" t="n">
-        <v>1977211</v>
+        <v>1999016</v>
       </c>
       <c r="F204" t="n">
-        <v>161.1387825701474</v>
+        <v>153.3046657662429</v>
       </c>
       <c r="G204" t="n">
-        <v>6.017867179033728</v>
+        <v>6.018094911949569</v>
       </c>
       <c r="H204" t="n">
         <v>1.67</v>
       </c>
       <c r="I204" t="n">
-        <v>11839.43</v>
+        <v>11007.08</v>
       </c>
     </row>
     <row r="205">
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>169558</v>
+        <v>170222</v>
       </c>
       <c r="F205" t="n">
-        <v>116.744812087367</v>
+        <v>1100.257951092559</v>
       </c>
       <c r="G205" t="n">
-        <v>118.2635048350866</v>
+        <v>85.79568925265644</v>
       </c>
       <c r="H205" t="n">
-        <v>1.18</v>
+        <v>2.34</v>
       </c>
       <c r="I205" t="n">
-        <v>12783.71</v>
+        <v>14554.84</v>
       </c>
     </row>
     <row r="206">
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2998.32</v>
+        <v>3005.29</v>
       </c>
       <c r="E206" t="n">
-        <v>35837</v>
+        <v>35920</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>6.91</v>
+        <v>7.44</v>
       </c>
       <c r="I206" t="n">
-        <v>7796.45</v>
+        <v>3183.39</v>
       </c>
     </row>
     <row r="207">
@@ -7669,22 +7669,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>327205270</v>
+        <v>330668736</v>
       </c>
       <c r="E208" t="n">
-        <v>605404369</v>
+        <v>611812569</v>
       </c>
       <c r="F208" t="n">
-        <v>205499.1692889766</v>
+        <v>197420.1834354387</v>
       </c>
       <c r="G208" t="n">
-        <v>220661.2063114447</v>
+        <v>243114.1594426797</v>
       </c>
       <c r="H208" t="n">
         <v>0.02</v>
       </c>
       <c r="I208" t="n">
-        <v>14631381</v>
+        <v>14564523</v>
       </c>
     </row>
     <row r="209">
@@ -7704,22 +7704,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>74221233</v>
+        <v>75649768</v>
       </c>
       <c r="E209" t="n">
-        <v>708006231</v>
+        <v>721624566</v>
       </c>
       <c r="F209" t="n">
-        <v>318081.912722692</v>
+        <v>314408.0522978638</v>
       </c>
       <c r="G209" t="n">
-        <v>358976.6154130358</v>
+        <v>356865.8867834118</v>
       </c>
       <c r="H209" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I209" t="n">
-        <v>22229570</v>
+        <v>22140095</v>
       </c>
     </row>
     <row r="210">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2573673</v>
+        <v>2399569</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7751,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>4.01</v>
+        <v>5.61</v>
       </c>
       <c r="I210" t="n">
-        <v>44174</v>
+        <v>44856</v>
       </c>
     </row>
     <row r="211">
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>84305</v>
+        <v>84554</v>
       </c>
       <c r="E211" t="n">
-        <v>700842</v>
+        <v>702912</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>4.23</v>
       </c>
       <c r="I211" t="n">
-        <v>71.90000000000001</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="212">
@@ -7809,22 +7809,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1911532</v>
+        <v>1919024</v>
       </c>
       <c r="E212" t="n">
-        <v>5459089</v>
+        <v>5480486</v>
       </c>
       <c r="F212" t="n">
-        <v>251.3357199462933</v>
+        <v>86.27754873630818</v>
       </c>
       <c r="G212" t="n">
-        <v>350.5592778744836</v>
+        <v>747.7286975932498</v>
       </c>
       <c r="H212" t="n">
         <v>1.13</v>
       </c>
       <c r="I212" t="n">
-        <v>74310</v>
+        <v>75338</v>
       </c>
     </row>
     <row r="213">
@@ -7844,22 +7844,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>11031905</v>
+        <v>10998641</v>
       </c>
       <c r="E213" t="n">
-        <v>32721477</v>
+        <v>32622424</v>
       </c>
       <c r="F213" t="n">
-        <v>3215.869584873356</v>
+        <v>2424.05479468891</v>
       </c>
       <c r="G213" t="n">
-        <v>3507.721889751025</v>
+        <v>3535.754357136678</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I213" t="n">
-        <v>7407887</v>
+        <v>6570895</v>
       </c>
     </row>
     <row r="214">
@@ -7882,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>14912386</v>
+        <v>14914075</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>25.80655252565363</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>166.4097486412957</v>
       </c>
       <c r="H214" t="n">
-        <v>14.29</v>
+        <v>2.73</v>
       </c>
       <c r="I214" t="n">
-        <v>1253.27</v>
+        <v>1125.29</v>
       </c>
     </row>
     <row r="215">
@@ -7914,22 +7914,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2036442</v>
+        <v>2022766</v>
       </c>
       <c r="E215" t="n">
-        <v>5890920</v>
+        <v>5851358</v>
       </c>
       <c r="F215" t="n">
-        <v>79.84761413719542</v>
+        <v>102.8360676400769</v>
       </c>
       <c r="G215" t="n">
-        <v>119.4774946549344</v>
+        <v>682.4870399950358</v>
       </c>
       <c r="H215" t="n">
-        <v>1.21</v>
+        <v>1.81</v>
       </c>
       <c r="I215" t="n">
-        <v>59544</v>
+        <v>55025</v>
       </c>
     </row>
     <row r="216">
@@ -7949,22 +7949,22 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2352889</v>
+        <v>2186397</v>
       </c>
       <c r="E216" t="n">
-        <v>20754045</v>
+        <v>19285471</v>
       </c>
       <c r="F216" t="n">
-        <v>326.4350300127795</v>
+        <v>114.7195513594806</v>
       </c>
       <c r="G216" t="n">
-        <v>1087.132631774423</v>
+        <v>2514.721950152116</v>
       </c>
       <c r="H216" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="I216" t="n">
-        <v>93607</v>
+        <v>87930</v>
       </c>
     </row>
     <row r="217">
@@ -7984,22 +7984,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>45732220</v>
+        <v>45853797</v>
       </c>
       <c r="E217" t="n">
-        <v>45732220</v>
+        <v>45853797</v>
       </c>
       <c r="F217" t="n">
-        <v>44828.09820752474</v>
+        <v>44033.73992972222</v>
       </c>
       <c r="G217" t="n">
-        <v>31460.72473476013</v>
+        <v>40115.82231547794</v>
       </c>
       <c r="H217" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I217" t="n">
-        <v>7806244</v>
+        <v>8787614</v>
       </c>
     </row>
     <row r="218">
@@ -8019,22 +8019,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8310033</v>
+        <v>8290006</v>
       </c>
       <c r="E218" t="n">
-        <v>11839893</v>
+        <v>11811360</v>
       </c>
       <c r="F218" t="n">
-        <v>3820.086816388511</v>
+        <v>3368.175344979183</v>
       </c>
       <c r="G218" t="n">
-        <v>314.1751845397836</v>
+        <v>101.8905439187985</v>
       </c>
       <c r="H218" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="I218" t="n">
-        <v>400967</v>
+        <v>399076</v>
       </c>
     </row>
     <row r="219">
@@ -8057,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>16632659</v>
+        <v>16545401</v>
       </c>
       <c r="F219" t="n">
-        <v>1.046313732323114</v>
+        <v>166.9708981030378</v>
       </c>
       <c r="G219" t="n">
-        <v>1.046333634145931</v>
+        <v>2.08226846849078</v>
       </c>
       <c r="H219" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="I219" t="n">
-        <v>1031295</v>
+        <v>1037299</v>
       </c>
     </row>
     <row r="220">
@@ -8092,19 +8092,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>716611</v>
+        <v>725414</v>
       </c>
       <c r="F220" t="n">
-        <v>84.18593896622561</v>
+        <v>84.1991495074441</v>
       </c>
       <c r="G220" t="n">
-        <v>317.3970114982954</v>
+        <v>317.4138500598325</v>
       </c>
       <c r="H220" t="n">
         <v>0.42</v>
       </c>
       <c r="I220" t="n">
-        <v>212900</v>
+        <v>214756</v>
       </c>
     </row>
     <row r="221">
@@ -8124,22 +8124,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2866689</v>
+        <v>2872622</v>
       </c>
       <c r="E221" t="n">
-        <v>2869171</v>
+        <v>2875110</v>
       </c>
       <c r="F221" t="n">
-        <v>67.02521886851808</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>3.360507790348576</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>2.76</v>
+        <v>6.29</v>
       </c>
       <c r="I221" t="n">
-        <v>107059</v>
+        <v>108091</v>
       </c>
     </row>
     <row r="222">
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1329950</v>
+        <v>1289355</v>
       </c>
       <c r="E222" t="n">
-        <v>4018334</v>
+        <v>3900501</v>
       </c>
       <c r="F222" t="n">
-        <v>33.6808598443862</v>
+        <v>219.3872869292713</v>
       </c>
       <c r="G222" t="n">
-        <v>308.7892551402019</v>
+        <v>2137.816025949323</v>
       </c>
       <c r="H222" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="I222" t="n">
-        <v>27578</v>
+        <v>29333</v>
       </c>
     </row>
     <row r="223">
@@ -8194,22 +8194,22 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>40380849</v>
+        <v>40504698</v>
       </c>
       <c r="E223" t="n">
-        <v>286293632</v>
+        <v>287171702</v>
       </c>
       <c r="F223" t="n">
-        <v>62593.3910855123</v>
+        <v>53889.36592041497</v>
       </c>
       <c r="G223" t="n">
-        <v>71880.77461094923</v>
+        <v>67546.24737771902</v>
       </c>
       <c r="H223" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I223" t="n">
-        <v>1899468</v>
+        <v>1994097</v>
       </c>
     </row>
     <row r="224">
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>64568</v>
+        <v>64110</v>
       </c>
       <c r="E224" t="n">
-        <v>336890</v>
+        <v>334500</v>
       </c>
       <c r="F224" t="n">
-        <v>315.6000402929326</v>
+        <v>309.9562208539039</v>
       </c>
       <c r="G224" t="n">
-        <v>44.14554000892684</v>
+        <v>214.0702099965774</v>
       </c>
       <c r="H224" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="I224" t="n">
-        <v>304046</v>
+        <v>217150</v>
       </c>
     </row>
     <row r="225">
@@ -8264,22 +8264,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1293849</v>
+        <v>1337073</v>
       </c>
       <c r="E225" t="n">
-        <v>8023766</v>
+        <v>8291855</v>
       </c>
       <c r="F225" t="n">
-        <v>1680.176724206166</v>
+        <v>1549.207698651079</v>
       </c>
       <c r="G225" t="n">
-        <v>1589.892866168919</v>
+        <v>1466.967351934692</v>
       </c>
       <c r="H225" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I225" t="n">
-        <v>780541</v>
+        <v>804360</v>
       </c>
     </row>
     <row r="226">
@@ -8299,22 +8299,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>626310161</v>
+        <v>633580180</v>
       </c>
       <c r="E226" t="n">
-        <v>2425606848</v>
+        <v>2453762560</v>
       </c>
       <c r="F226" t="n">
-        <v>280412.0055232393</v>
+        <v>309050.3433846879</v>
       </c>
       <c r="G226" t="n">
-        <v>460614.8613748063</v>
+        <v>436831.1122060777</v>
       </c>
       <c r="H226" t="n">
         <v>0.04</v>
       </c>
       <c r="I226" t="n">
-        <v>38840525</v>
+        <v>39891199</v>
       </c>
     </row>
     <row r="227">
@@ -8337,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>21026422</v>
+        <v>21231855</v>
       </c>
       <c r="F227" t="n">
-        <v>2974.630934722012</v>
+        <v>1128.393962038973</v>
       </c>
       <c r="G227" t="n">
-        <v>1790.850172734743</v>
+        <v>1120.484160006311</v>
       </c>
       <c r="H227" t="n">
-        <v>0.62</v>
+        <v>0.28</v>
       </c>
       <c r="I227" t="n">
-        <v>16786594</v>
+        <v>16876323</v>
       </c>
     </row>
     <row r="228">
@@ -8372,19 +8372,19 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>733366</v>
+        <v>698322</v>
       </c>
       <c r="F228" t="n">
-        <v>229.9515838641059</v>
+        <v>128.1062994838796</v>
       </c>
       <c r="G228" t="n">
-        <v>13.14085617664839</v>
+        <v>26.28854808276873</v>
       </c>
       <c r="H228" t="n">
-        <v>1.89</v>
+        <v>2.89</v>
       </c>
       <c r="I228" t="n">
-        <v>134381</v>
+        <v>118523</v>
       </c>
     </row>
     <row r="229">
@@ -8404,22 +8404,22 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5880331</v>
+        <v>5887406</v>
       </c>
       <c r="E229" t="n">
-        <v>26322884</v>
+        <v>26354553</v>
       </c>
       <c r="F229" t="n">
-        <v>931.6997435787702</v>
+        <v>916.6045689217157</v>
       </c>
       <c r="G229" t="n">
-        <v>906.375933860186</v>
+        <v>2051.037447698225</v>
       </c>
       <c r="H229" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="I229" t="n">
-        <v>151031</v>
+        <v>139322</v>
       </c>
     </row>
     <row r="230">
@@ -8439,22 +8439,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6741100</v>
+        <v>6724474</v>
       </c>
       <c r="E230" t="n">
-        <v>12906382</v>
+        <v>12874551</v>
       </c>
       <c r="F230" t="n">
-        <v>4229.361275011561</v>
+        <v>4195.776733343368</v>
       </c>
       <c r="G230" t="n">
-        <v>4006.097866220276</v>
+        <v>3955.325326701417</v>
       </c>
       <c r="H230" t="n">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="I230" t="n">
-        <v>103198</v>
+        <v>88561</v>
       </c>
     </row>
     <row r="231">
@@ -8474,22 +8474,22 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3223376</v>
+        <v>3222605</v>
       </c>
       <c r="E231" t="n">
-        <v>21196172</v>
+        <v>21191102</v>
       </c>
       <c r="F231" t="n">
-        <v>2326.930564567554</v>
+        <v>3315.182177722851</v>
       </c>
       <c r="G231" t="n">
-        <v>257.90988207662</v>
+        <v>247.9497171586198</v>
       </c>
       <c r="H231" t="n">
-        <v>2.12</v>
+        <v>0.73</v>
       </c>
       <c r="I231" t="n">
-        <v>1568125</v>
+        <v>1519243</v>
       </c>
     </row>
     <row r="232">
@@ -8509,22 +8509,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>115968058</v>
+        <v>118752204</v>
       </c>
       <c r="E232" t="n">
-        <v>1077492619</v>
+        <v>1103360916</v>
       </c>
       <c r="F232" t="n">
-        <v>220099.4719979895</v>
+        <v>206887.800174626</v>
       </c>
       <c r="G232" t="n">
-        <v>212553.1665639694</v>
+        <v>224009.6739140805</v>
       </c>
       <c r="H232" t="n">
         <v>0.06</v>
       </c>
       <c r="I232" t="n">
-        <v>9790335</v>
+        <v>10269826</v>
       </c>
     </row>
     <row r="233">
@@ -8554,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>7.02</v>
+        <v>7.84</v>
       </c>
       <c r="I233" t="n">
-        <v>687.9</v>
+        <v>305.51</v>
       </c>
     </row>
     <row r="234">
@@ -8577,22 +8577,22 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>113068199</v>
+        <v>115612799</v>
       </c>
       <c r="E234" t="n">
-        <v>172488187</v>
+        <v>176370035</v>
       </c>
       <c r="F234" t="n">
-        <v>90104.0437755103</v>
+        <v>83988.45043007347</v>
       </c>
       <c r="G234" t="n">
-        <v>90388.72337910628</v>
+        <v>69574.28668665109</v>
       </c>
       <c r="H234" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I234" t="n">
-        <v>8627757</v>
+        <v>9020422</v>
       </c>
     </row>
     <row r="235">
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>18255052</v>
+        <v>18498828</v>
       </c>
       <c r="E235" t="n">
-        <v>25044350</v>
+        <v>25378789</v>
       </c>
       <c r="F235" t="n">
-        <v>1595.372685567927</v>
+        <v>2035.426172364484</v>
       </c>
       <c r="G235" t="n">
-        <v>1826.775017506671</v>
+        <v>1115.733389379534</v>
       </c>
       <c r="H235" t="n">
-        <v>0.83</v>
+        <v>0.35</v>
       </c>
       <c r="I235" t="n">
-        <v>620555</v>
+        <v>650680</v>
       </c>
     </row>
     <row r="236">
@@ -8647,22 +8647,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>127831282</v>
+        <v>127718419</v>
       </c>
       <c r="E236" t="n">
-        <v>490381374</v>
+        <v>489948414</v>
       </c>
       <c r="F236" t="n">
-        <v>452966.619433781</v>
+        <v>433307.9685958941</v>
       </c>
       <c r="G236" t="n">
-        <v>550226.0000801324</v>
+        <v>543738.4997470679</v>
       </c>
       <c r="H236" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I236" t="n">
-        <v>37562629</v>
+        <v>38967895</v>
       </c>
     </row>
     <row r="237">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>769483</v>
+        <v>779092</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>12.39</v>
+        <v>10.83</v>
       </c>
       <c r="I237" t="n">
-        <v>49818</v>
+        <v>50354</v>
       </c>
     </row>
     <row r="238">
@@ -8720,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>760137</v>
+        <v>770211</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>0.1000083439125288</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>277.3481876816234</v>
       </c>
       <c r="H238" t="n">
-        <v>4.57</v>
+        <v>1.2</v>
       </c>
       <c r="I238" t="n">
-        <v>145736</v>
+        <v>157664</v>
       </c>
     </row>
     <row r="239">
@@ -8752,22 +8752,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3292979</v>
+        <v>3291760</v>
       </c>
       <c r="E239" t="n">
-        <v>31201461</v>
+        <v>31189916</v>
       </c>
       <c r="F239" t="n">
-        <v>1045.568000725459</v>
+        <v>918.8778982380767</v>
       </c>
       <c r="G239" t="n">
-        <v>2111.214520868076</v>
+        <v>2403.368733631718</v>
       </c>
       <c r="H239" t="n">
         <v>0.32</v>
       </c>
       <c r="I239" t="n">
-        <v>205904</v>
+        <v>227212</v>
       </c>
     </row>
     <row r="240">
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>744241</v>
+        <v>747741</v>
       </c>
       <c r="E240" t="n">
-        <v>795589</v>
+        <v>799331</v>
       </c>
       <c r="F240" t="n">
-        <v>42.33822400507957</v>
+        <v>16.54402632999738</v>
       </c>
       <c r="G240" t="n">
-        <v>56.56919993226306</v>
+        <v>25.58655895992748</v>
       </c>
       <c r="H240" t="n">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="I240" t="n">
-        <v>108040</v>
+        <v>114730</v>
       </c>
     </row>
     <row r="241">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>438340</v>
+        <v>438600</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8834,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>13.37</v>
+        <v>6.66</v>
       </c>
       <c r="I241" t="n">
-        <v>586.83</v>
+        <v>614.53</v>
       </c>
     </row>
     <row r="242">
@@ -8860,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>134176</v>
+        <v>140823</v>
       </c>
       <c r="F242" t="n">
-        <v>217.0387281701194</v>
+        <v>271.5850846553534</v>
       </c>
       <c r="G242" t="n">
-        <v>32.95116581139703</v>
+        <v>5.771214418463386</v>
       </c>
       <c r="H242" t="n">
-        <v>2.19</v>
+        <v>2.96</v>
       </c>
       <c r="I242" t="n">
-        <v>87558</v>
+        <v>68865</v>
       </c>
     </row>
     <row r="243">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>575857</v>
+        <v>571956</v>
       </c>
       <c r="F243" t="n">
-        <v>14.61549443939879</v>
+        <v>55.51194305897639</v>
       </c>
       <c r="G243" t="n">
-        <v>70.88291959698091</v>
+        <v>165.9715900683165</v>
       </c>
       <c r="H243" t="n">
         <v>1.03</v>
       </c>
       <c r="I243" t="n">
-        <v>4149.36</v>
+        <v>6161.43</v>
       </c>
     </row>
     <row r="244">
@@ -8927,22 +8927,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6837299</v>
+        <v>6838308</v>
       </c>
       <c r="E244" t="n">
-        <v>42731164</v>
+        <v>42737470</v>
       </c>
       <c r="F244" t="n">
-        <v>145.6115736264265</v>
+        <v>147.8369273649399</v>
       </c>
       <c r="G244" t="n">
-        <v>1573.853253893958</v>
+        <v>1817.85172062641</v>
       </c>
       <c r="H244" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I244" t="n">
-        <v>367100</v>
+        <v>414646</v>
       </c>
     </row>
     <row r="245">
@@ -8962,22 +8962,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5315653</v>
+        <v>5320961</v>
       </c>
       <c r="E245" t="n">
-        <v>19753067</v>
+        <v>19772793</v>
       </c>
       <c r="F245" t="n">
-        <v>3953.417124168536</v>
+        <v>3953.32364218817</v>
       </c>
       <c r="G245" t="n">
-        <v>4185.831275080214</v>
+        <v>4905.250414929896</v>
       </c>
       <c r="H245" t="n">
         <v>0.51</v>
       </c>
       <c r="I245" t="n">
-        <v>81190</v>
+        <v>75918</v>
       </c>
     </row>
     <row r="246">
@@ -9000,19 +9000,19 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>3631348</v>
+        <v>3416454</v>
       </c>
       <c r="F246" t="n">
-        <v>129.0782933361998</v>
+        <v>92.57276053742042</v>
       </c>
       <c r="G246" t="n">
-        <v>1994.868360848019</v>
+        <v>6884.617964577626</v>
       </c>
       <c r="H246" t="n">
-        <v>1.68</v>
+        <v>0.45</v>
       </c>
       <c r="I246" t="n">
-        <v>18572.48</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="247">
@@ -9032,22 +9032,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31521936</v>
+        <v>31494353</v>
       </c>
       <c r="E247" t="n">
-        <v>112985972</v>
+        <v>112887106</v>
       </c>
       <c r="F247" t="n">
-        <v>2253.701796513309</v>
+        <v>2223.362997670284</v>
       </c>
       <c r="G247" t="n">
-        <v>4396.086568452632</v>
+        <v>4380.057089696499</v>
       </c>
       <c r="H247" t="n">
-        <v>0.68</v>
+        <v>0.2</v>
       </c>
       <c r="I247" t="n">
-        <v>81040</v>
+        <v>80662</v>
       </c>
     </row>
     <row r="248">
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1585849</v>
+        <v>1529770</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>8.623367239026148</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>13.9346394338364</v>
       </c>
       <c r="H248" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="I248" t="n">
-        <v>599272</v>
+        <v>605164</v>
       </c>
     </row>
     <row r="249">
@@ -9102,22 +9102,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2216423</v>
+        <v>2185277</v>
       </c>
       <c r="E249" t="n">
-        <v>17048094</v>
+        <v>16808528</v>
       </c>
       <c r="F249" t="n">
-        <v>5547.612108870337</v>
+        <v>4506.587101539899</v>
       </c>
       <c r="G249" t="n">
-        <v>5778.922776013463</v>
+        <v>4466.550822500547</v>
       </c>
       <c r="H249" t="n">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="I249" t="n">
-        <v>172222</v>
+        <v>199632</v>
       </c>
     </row>
     <row r="250">
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>103414</v>
+        <v>103592</v>
       </c>
       <c r="E250" t="n">
-        <v>821419</v>
+        <v>822832</v>
       </c>
       <c r="F250" t="n">
-        <v>158.2794054785743</v>
+        <v>158.2878025252151</v>
       </c>
       <c r="G250" t="n">
-        <v>359.5539540007245</v>
+        <v>359.5730290744052</v>
       </c>
       <c r="H250" t="n">
         <v>0.61</v>
       </c>
       <c r="I250" t="n">
-        <v>572.98</v>
+        <v>189.84</v>
       </c>
     </row>
     <row r="251">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>89085615</v>
+        <v>89332662</v>
       </c>
       <c r="E251" t="n">
-        <v>329304558</v>
+        <v>330218484</v>
       </c>
       <c r="F251" t="n">
-        <v>5100.45519437692</v>
+        <v>5079.766789071378</v>
       </c>
       <c r="G251" t="n">
-        <v>1617.694238608535</v>
+        <v>1723.097401254048</v>
       </c>
       <c r="H251" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I251" t="n">
-        <v>216301</v>
+        <v>181557</v>
       </c>
     </row>
     <row r="252">
@@ -9207,22 +9207,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2215361</v>
+        <v>2178878</v>
       </c>
       <c r="E252" t="n">
-        <v>8881787</v>
+        <v>8735519</v>
       </c>
       <c r="F252" t="n">
-        <v>679.6945781176752</v>
+        <v>6.011471754725418</v>
       </c>
       <c r="G252" t="n">
-        <v>3.000286197498523</v>
+        <v>387.2413169953786</v>
       </c>
       <c r="H252" t="n">
-        <v>1.33</v>
+        <v>3.7</v>
       </c>
       <c r="I252" t="n">
-        <v>15884.24</v>
+        <v>16880.68</v>
       </c>
     </row>
     <row r="253">
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>602599</v>
+        <v>604235</v>
       </c>
       <c r="F253" t="n">
-        <v>430.1796205757908</v>
+        <v>378.0517367923971</v>
       </c>
       <c r="G253" t="n">
-        <v>3.902298236167679</v>
+        <v>3.565393791949671</v>
       </c>
       <c r="H253" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="I253" t="n">
-        <v>3047.58</v>
+        <v>2866.28</v>
       </c>
     </row>
     <row r="254">
@@ -9276,19 +9276,19 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>38706</v>
+        <v>39221</v>
       </c>
       <c r="F254" t="n">
-        <v>103.7297037990216</v>
+        <v>103.7352068722623</v>
       </c>
       <c r="G254" t="n">
-        <v>6.250573568711679</v>
+        <v>5.039800320529053</v>
       </c>
       <c r="H254" t="n">
         <v>0.25</v>
       </c>
       <c r="I254" t="n">
-        <v>4384.34</v>
+        <v>3970.86</v>
       </c>
     </row>
     <row r="255">
@@ -9308,22 +9308,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>844222194</v>
+        <v>850422930</v>
       </c>
       <c r="E255" t="n">
-        <v>1301865161</v>
+        <v>1311427242</v>
       </c>
       <c r="F255" t="n">
-        <v>191477.7023958153</v>
+        <v>197263.6129501853</v>
       </c>
       <c r="G255" t="n">
-        <v>213311.975289226</v>
+        <v>217640.9259156888</v>
       </c>
       <c r="H255" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I255" t="n">
-        <v>307866963</v>
+        <v>293602398</v>
       </c>
     </row>
     <row r="256">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5881742</v>
+        <v>5867977</v>
       </c>
       <c r="E256" t="n">
-        <v>5881742</v>
+        <v>5867977</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>9.41</v>
+        <v>9.09</v>
       </c>
       <c r="I256" t="n">
-        <v>393.42</v>
+        <v>370.52</v>
       </c>
     </row>
     <row r="257">
@@ -9378,22 +9378,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39741654</v>
+        <v>39868600</v>
       </c>
       <c r="E257" t="n">
-        <v>189530799</v>
+        <v>190134478</v>
       </c>
       <c r="F257" t="n">
-        <v>259.6211544027856</v>
+        <v>281.403429819777</v>
       </c>
       <c r="G257" t="n">
-        <v>201.0366492928578</v>
+        <v>174.952414648115</v>
       </c>
       <c r="H257" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I257" t="n">
-        <v>429897</v>
+        <v>300952</v>
       </c>
     </row>
     <row r="258">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>510277</v>
+        <v>510334</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>13.3</v>
+        <v>12.48</v>
       </c>
       <c r="I258" t="n">
-        <v>392.06</v>
+        <v>392.41</v>
       </c>
     </row>
     <row r="259">
@@ -9448,22 +9448,22 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>23513137</v>
+        <v>23996799</v>
       </c>
       <c r="E259" t="n">
-        <v>39188561</v>
+        <v>39994664</v>
       </c>
       <c r="F259" t="n">
-        <v>9373.971484065198</v>
+        <v>14443.57696198622</v>
       </c>
       <c r="G259" t="n">
-        <v>19186.66173357013</v>
+        <v>13625.47229406864</v>
       </c>
       <c r="H259" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="I259" t="n">
-        <v>281758</v>
+        <v>408662</v>
       </c>
     </row>
     <row r="260">
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>108857</v>
+        <v>108630</v>
       </c>
       <c r="F260" t="n">
-        <v>228.9570362453086</v>
+        <v>203.6597999291442</v>
       </c>
       <c r="G260" t="n">
-        <v>21.24339425946798</v>
+        <v>130.3307545530751</v>
       </c>
       <c r="H260" t="n">
-        <v>0.66</v>
+        <v>0.26</v>
       </c>
       <c r="I260" t="n">
-        <v>51863</v>
+        <v>52367</v>
       </c>
     </row>
     <row r="261">
@@ -9518,22 +9518,22 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1589505</v>
+        <v>1640716</v>
       </c>
       <c r="E261" t="n">
-        <v>6770468</v>
+        <v>6988268</v>
       </c>
       <c r="F261" t="n">
-        <v>86.69764742701106</v>
+        <v>246.4433385838506</v>
       </c>
       <c r="G261" t="n">
-        <v>39.57406595917813</v>
+        <v>137.2535402388225</v>
       </c>
       <c r="H261" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="I261" t="n">
-        <v>693132</v>
+        <v>728238</v>
       </c>
     </row>
     <row r="262">
@@ -9553,22 +9553,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3805509</v>
+        <v>3816531</v>
       </c>
       <c r="E262" t="n">
-        <v>8303572</v>
+        <v>8319502</v>
       </c>
       <c r="F262" t="n">
-        <v>1913.343445909845</v>
+        <v>1625.607093604698</v>
       </c>
       <c r="G262" t="n">
-        <v>2642.934688590933</v>
+        <v>1571.762484687108</v>
       </c>
       <c r="H262" t="n">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="I262" t="n">
-        <v>1854584</v>
+        <v>1768335</v>
       </c>
     </row>
     <row r="263">
@@ -9588,22 +9588,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>510246437</v>
+        <v>512504692</v>
       </c>
       <c r="E263" t="n">
-        <v>1776125384</v>
+        <v>1783986180</v>
       </c>
       <c r="F263" t="n">
-        <v>716059.8045473474</v>
+        <v>594414.8888766518</v>
       </c>
       <c r="G263" t="n">
-        <v>676352.4091789898</v>
+        <v>722875.7596744574</v>
       </c>
       <c r="H263" t="n">
         <v>0.06</v>
       </c>
       <c r="I263" t="n">
-        <v>35393584</v>
+        <v>36344974</v>
       </c>
     </row>
     <row r="264">
@@ -9623,22 +9623,22 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5845948388</v>
+        <v>5862599118</v>
       </c>
       <c r="E264" t="n">
-        <v>5845948388</v>
+        <v>5862599118</v>
       </c>
       <c r="F264" t="n">
-        <v>1909.110591257152</v>
+        <v>3647.625645618505</v>
       </c>
       <c r="G264" t="n">
-        <v>2366.51760936195</v>
+        <v>3465.173611704431</v>
       </c>
       <c r="H264" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I264" t